--- a/config/Polycraft Polymers.xlsx
+++ b/config/Polycraft Polymers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10920" yWindow="0" windowWidth="27240" windowHeight="14310" tabRatio="826" activeTab="7"/>
+    <workbookView xWindow="10920" yWindow="0" windowWidth="27240" windowHeight="14310" tabRatio="826" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Pellets" sheetId="1" r:id="rId1"/>
@@ -7828,8 +7828,8 @@
   </sheetPr>
   <dimension ref="A1:N333"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14404,8 +14404,8 @@
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -33460,7 +33460,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -34166,8 +34166,8 @@
   </sheetPr>
   <dimension ref="A1:P147"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="E144" sqref="E144"/>
+    <sheetView showZeros="0" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/config/Polycraft Polymers.xlsx
+++ b/config/Polycraft Polymers.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="2023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="2020">
   <si>
     <t>GC</t>
   </si>
@@ -6044,27 +6044,18 @@
     <t>Advanced</t>
   </si>
   <si>
-    <t>FogDensity, Source 1</t>
-  </si>
-  <si>
     <t>12U</t>
   </si>
   <si>
     <t>Runner</t>
   </si>
   <si>
-    <t>VelocityOnGround, MovementDurationWear(MCMins), Source 1</t>
-  </si>
-  <si>
     <t>VelocityOnGround, MovementDurationWear(MCMins), Source 1, Source 2, Source 3, Source 4</t>
   </si>
   <si>
     <t>12V</t>
   </si>
   <si>
-    <t>VelocityInWater, VelocityOnGround, Durability(MCMins), Source 1</t>
-  </si>
-  <si>
     <t>VelocityInWater, VelocityOnGround, Durability(MCMins), Source 1, Source 2, Source 3, Source 4</t>
   </si>
   <si>
@@ -6083,9 +6074,6 @@
     <t>12W</t>
   </si>
   <si>
-    <t>Source 1</t>
-  </si>
-  <si>
     <t>Source 1, Source 2, Source 3, Source 4</t>
   </si>
   <si>
@@ -6114,6 +6102,9 @@
   </si>
   <si>
     <t>Extreme Pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VelocityOnGround, MovementDurationWear(MCMins), Source 1, Source 2 </t>
   </si>
 </sst>
 </file>
@@ -6847,10 +6838,10 @@
         </row>
         <row r="19">
           <cell r="B19" t="str">
-            <v>Isobutylene-Isoprene Rubber</v>
+            <v>Isobutylene Rubber</v>
           </cell>
           <cell r="C19" t="str">
-            <v>IIR</v>
+            <v>Butyl Rubber</v>
           </cell>
           <cell r="D19" t="b">
             <v>1</v>
@@ -7056,10 +7047,10 @@
         </row>
         <row r="38">
           <cell r="B38" t="str">
-            <v>PolyButadiene</v>
+            <v>PolyButadiene (low-cis)</v>
           </cell>
           <cell r="C38" t="str">
-            <v>PBD</v>
+            <v>PBR (low grade)</v>
           </cell>
           <cell r="D38" t="b">
             <v>1</v>
@@ -7067,10 +7058,10 @@
         </row>
         <row r="39">
           <cell r="B39" t="str">
-            <v>PolyButadiene Rubber</v>
+            <v>PolyButadiene (high-cis)</v>
           </cell>
           <cell r="C39" t="str">
-            <v>PBR</v>
+            <v>PBR (high grade)</v>
           </cell>
           <cell r="D39" t="b">
             <v>1</v>
@@ -8329,7 +8320,7 @@
   <dimension ref="A1:N333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9286,23 +9277,23 @@
       </c>
       <c r="F19" s="1" t="str">
         <f>IF($N19, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Bag (Isobutylene-Isoprene Rubber Pellets)</v>
+        <v>Bag (Isobutylene Rubber Pellets)</v>
       </c>
       <c r="G19" s="1" t="str">
         <f>IF($N19, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Sack (Isobutylene-Isoprene Rubber Pellets)</v>
+        <v>Sack (Isobutylene Rubber Pellets)</v>
       </c>
       <c r="H19" s="1" t="str">
         <f>IF($N19, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Powder Keg (Isobutylene-Isoprene Rubber Pellets)</v>
+        <v>Powder Keg (Isobutylene Rubber Pellets)</v>
       </c>
       <c r="I19" s="1" t="str">
         <f>IF($N19, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Chemical Silo (Isobutylene-Isoprene Rubber Pellets)</v>
+        <v>Chemical Silo (Isobutylene Rubber Pellets)</v>
       </c>
       <c r="J19" s="1" t="str">
         <f>[1]Polymers!$B19</f>
-        <v>Isobutylene-Isoprene Rubber</v>
+        <v>Isobutylene Rubber</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -9312,7 +9303,7 @@
       </c>
       <c r="M19" s="2" t="str">
         <f>[1]Polymers!$C19</f>
-        <v>IIR</v>
+        <v>Butyl Rubber</v>
       </c>
       <c r="N19" s="2" t="b">
         <f>[1]Polymers!$D19</f>
@@ -10250,23 +10241,23 @@
       </c>
       <c r="F38" s="1" t="str">
         <f>IF($N38, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Bag (PolyButadiene Pellets)</v>
+        <v>Bag (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="G38" s="1" t="str">
         <f>IF($N38, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Sack (PolyButadiene Pellets)</v>
+        <v>Sack (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="H38" s="1" t="str">
         <f>IF($N38, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Powder Keg (PolyButadiene Pellets)</v>
+        <v>Powder Keg (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="I38" s="1" t="str">
         <f>IF($N38, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Chemical Silo (PolyButadiene Pellets)</v>
+        <v>Chemical Silo (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="J38" s="1" t="str">
         <f>[1]Polymers!$B38</f>
-        <v>PolyButadiene</v>
+        <v>PolyButadiene (low-cis)</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -10276,7 +10267,7 @@
       </c>
       <c r="M38" s="2" t="str">
         <f>[1]Polymers!$C38</f>
-        <v>PBD</v>
+        <v>PBR (low grade)</v>
       </c>
       <c r="N38" s="2" t="b">
         <f>[1]Polymers!$D38</f>
@@ -10302,23 +10293,23 @@
       </c>
       <c r="F39" s="1" t="str">
         <f>IF($N39, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Bag (PolyButadiene Rubber Pellets)</v>
+        <v>Bag (PolyButadiene (high-cis) Pellets)</v>
       </c>
       <c r="G39" s="1" t="str">
         <f>IF($N39, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Sack (PolyButadiene Rubber Pellets)</v>
+        <v>Sack (PolyButadiene (high-cis) Pellets)</v>
       </c>
       <c r="H39" s="1" t="str">
         <f>IF($N39, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Powder Keg (PolyButadiene Rubber Pellets)</v>
+        <v>Powder Keg (PolyButadiene (high-cis) Pellets)</v>
       </c>
       <c r="I39" s="1" t="str">
         <f>IF($N39, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Chemical Silo (PolyButadiene Rubber Pellets)</v>
+        <v>Chemical Silo (PolyButadiene (high-cis) Pellets)</v>
       </c>
       <c r="J39" s="1" t="str">
         <f>[1]Polymers!$B39</f>
-        <v>PolyButadiene Rubber</v>
+        <v>PolyButadiene (high-cis)</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -10328,7 +10319,7 @@
       </c>
       <c r="M39" s="2" t="str">
         <f>[1]Polymers!$C39</f>
-        <v>PBR</v>
+        <v>PBR (high grade)</v>
       </c>
       <c r="N39" s="2" t="b">
         <f>[1]Polymers!$D39</f>
@@ -18369,8 +18360,8 @@
   </sheetPr>
   <dimension ref="A1:G333"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18880,15 +18871,15 @@
       </c>
       <c r="D19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Block (IIR)</v>
+        <v>Block (Butyl Rubber)</v>
       </c>
       <c r="E19" s="1" t="str">
         <f xml:space="preserve"> Pellets!G19</f>
-        <v>Sack (Isobutylene-Isoprene Rubber Pellets)</v>
+        <v>Sack (Isobutylene Rubber Pellets)</v>
       </c>
       <c r="F19" s="1" t="str">
         <f>VLOOKUP(E19, Pellets!G:M, 7,FALSE)</f>
-        <v>IIR</v>
+        <v>Butyl Rubber</v>
       </c>
       <c r="G19">
         <v>8</v>
@@ -19393,18 +19384,18 @@
       </c>
       <c r="D38" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Block (PBD)</v>
+        <v>Block (PBR (low grade))</v>
       </c>
       <c r="E38" s="1" t="str">
         <f xml:space="preserve"> Pellets!G38</f>
-        <v>Sack (PolyButadiene Pellets)</v>
+        <v>Sack (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="F38" s="1" t="str">
         <f>VLOOKUP(E38, Pellets!G:M, 7,FALSE)</f>
-        <v>PBD</v>
+        <v>PBR (low grade)</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -19420,15 +19411,15 @@
       </c>
       <c r="D39" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Block (PBR)</v>
+        <v>Block (PBR (high grade))</v>
       </c>
       <c r="E39" s="1" t="str">
         <f xml:space="preserve"> Pellets!G39</f>
-        <v>Sack (PolyButadiene Rubber Pellets)</v>
+        <v>Sack (PolyButadiene (high-cis) Pellets)</v>
       </c>
       <c r="F39" s="1" t="str">
         <f>VLOOKUP(E39, Pellets!G:M, 7,FALSE)</f>
-        <v>PBR</v>
+        <v>PBR (high grade)</v>
       </c>
       <c r="G39">
         <v>8</v>
@@ -22799,15 +22790,15 @@
       </c>
       <c r="F19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Slab (IIR)</v>
+        <v>Slab (Butyl Rubber)</v>
       </c>
       <c r="G19" s="1" t="str">
         <f xml:space="preserve"> 'Blocks (Poly)'!D19</f>
-        <v>Block (IIR)</v>
+        <v>Block (Butyl Rubber)</v>
       </c>
       <c r="H19" s="1" t="str">
         <f>VLOOKUP(G19,'Blocks (Poly)'!D:F, 3, FALSE)</f>
-        <v>IIR</v>
+        <v>Butyl Rubber</v>
       </c>
       <c r="I19">
         <f>'Blocks (Poly)'!G19/2</f>
@@ -23445,19 +23436,19 @@
       </c>
       <c r="F38" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Slab (PBD)</v>
+        <v>Slab (PBR (low grade))</v>
       </c>
       <c r="G38" s="1" t="str">
         <f xml:space="preserve"> 'Blocks (Poly)'!D38</f>
-        <v>Block (PBD)</v>
+        <v>Block (PBR (low grade))</v>
       </c>
       <c r="H38" s="1" t="str">
         <f>VLOOKUP(G38,'Blocks (Poly)'!D:F, 3, FALSE)</f>
-        <v>PBD</v>
+        <v>PBR (low grade)</v>
       </c>
       <c r="I38">
         <f>'Blocks (Poly)'!G38/2</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -23479,15 +23470,15 @@
       </c>
       <c r="F39" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Slab (PBR)</v>
+        <v>Slab (PBR (high grade))</v>
       </c>
       <c r="G39" s="1" t="str">
         <f xml:space="preserve"> 'Blocks (Poly)'!D39</f>
-        <v>Block (PBR)</v>
+        <v>Block (PBR (high grade))</v>
       </c>
       <c r="H39" s="1" t="str">
         <f>VLOOKUP(G39,'Blocks (Poly)'!D:F, 3, FALSE)</f>
-        <v>PBR</v>
+        <v>PBR (high grade)</v>
       </c>
       <c r="I39">
         <f>'Blocks (Poly)'!G39/2</f>
@@ -27270,15 +27261,15 @@
       </c>
       <c r="D19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Wall (IIR)</v>
+        <v>Wall (Butyl Rubber)</v>
       </c>
       <c r="E19" s="1" t="str">
         <f xml:space="preserve"> 'Blocks (Poly)'!D19</f>
-        <v>Block (IIR)</v>
+        <v>Block (Butyl Rubber)</v>
       </c>
       <c r="F19" s="1" t="str">
         <f>VLOOKUP(E19,'Blocks (Poly)'!D:F, 3, FALSE)</f>
-        <v>IIR</v>
+        <v>Butyl Rubber</v>
       </c>
       <c r="G19">
         <f>'Slabs (Poly)'!I19</f>
@@ -27802,19 +27793,19 @@
       </c>
       <c r="D38" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Wall (PBD)</v>
+        <v>Wall (PBR (low grade))</v>
       </c>
       <c r="E38" s="1" t="str">
         <f xml:space="preserve"> 'Blocks (Poly)'!D38</f>
-        <v>Block (PBD)</v>
+        <v>Block (PBR (low grade))</v>
       </c>
       <c r="F38" s="1" t="str">
         <f>VLOOKUP(E38,'Blocks (Poly)'!D:F, 3, FALSE)</f>
-        <v>PBD</v>
+        <v>PBR (low grade)</v>
       </c>
       <c r="G38">
         <f>'Slabs (Poly)'!I38</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -27830,15 +27821,15 @@
       </c>
       <c r="D39" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Wall (PBR)</v>
+        <v>Wall (PBR (high grade))</v>
       </c>
       <c r="E39" s="1" t="str">
         <f xml:space="preserve"> 'Blocks (Poly)'!D39</f>
-        <v>Block (PBR)</v>
+        <v>Block (PBR (high grade))</v>
       </c>
       <c r="F39" s="1" t="str">
         <f>VLOOKUP(E39,'Blocks (Poly)'!D:F, 3, FALSE)</f>
-        <v>PBR</v>
+        <v>PBR (high grade)</v>
       </c>
       <c r="G39">
         <f>'Slabs (Poly)'!I39</f>
@@ -31165,15 +31156,15 @@
       </c>
       <c r="D19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Stairs (IIR)</v>
+        <v>Stairs (Butyl Rubber)</v>
       </c>
       <c r="E19" s="1" t="str">
         <f xml:space="preserve"> 'Blocks (Poly)'!D19</f>
-        <v>Block (IIR)</v>
+        <v>Block (Butyl Rubber)</v>
       </c>
       <c r="F19" s="1" t="str">
         <f>VLOOKUP(E19,'Blocks (Poly)'!D:F, 3, FALSE)</f>
-        <v>IIR</v>
+        <v>Butyl Rubber</v>
       </c>
       <c r="G19">
         <f>'Slabs (Poly)'!I19</f>
@@ -31697,19 +31688,19 @@
       </c>
       <c r="D38" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Stairs (PBD)</v>
+        <v>Stairs (PBR (low grade))</v>
       </c>
       <c r="E38" s="1" t="str">
         <f xml:space="preserve"> 'Blocks (Poly)'!D38</f>
-        <v>Block (PBD)</v>
+        <v>Block (PBR (low grade))</v>
       </c>
       <c r="F38" s="1" t="str">
         <f>VLOOKUP(E38,'Blocks (Poly)'!D:F, 3, FALSE)</f>
-        <v>PBD</v>
+        <v>PBR (low grade)</v>
       </c>
       <c r="G38">
         <f>'Slabs (Poly)'!I38</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -31725,15 +31716,15 @@
       </c>
       <c r="D39" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Stairs (PBR)</v>
+        <v>Stairs (PBR (high grade))</v>
       </c>
       <c r="E39" s="1" t="str">
         <f xml:space="preserve"> 'Blocks (Poly)'!D39</f>
-        <v>Block (PBR)</v>
+        <v>Block (PBR (high grade))</v>
       </c>
       <c r="F39" s="1" t="str">
         <f>VLOOKUP(E39,'Blocks (Poly)'!D:F, 3, FALSE)</f>
-        <v>PBR</v>
+        <v>PBR (high grade)</v>
       </c>
       <c r="G39">
         <f>'Slabs (Poly)'!I39</f>
@@ -35241,8 +35232,8 @@
   </sheetPr>
   <dimension ref="A1:T156"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -35452,8 +35443,8 @@
         <v>Mold (Running Shoes)</v>
       </c>
       <c r="E4" s="22" t="str">
-        <f>Pellets!$F$39</f>
-        <v>Bag (PolyButadiene Rubber Pellets)</v>
+        <f>Pellets!$F$38</f>
+        <v>Bag (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="F4" s="23" t="s">
         <v>1775</v>
@@ -35468,7 +35459,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>2002</v>
+        <v>2019</v>
       </c>
       <c r="K4" s="24">
         <v>0.25</v>
@@ -35478,9 +35469,12 @@
       </c>
       <c r="M4" s="24" t="str">
         <f>Pellets!$F$19</f>
-        <v>Bag (Isobutylene-Isoprene Rubber Pellets)</v>
-      </c>
-      <c r="N4" s="24"/>
+        <v>Bag (Isobutylene Rubber Pellets)</v>
+      </c>
+      <c r="N4" s="22" t="str">
+        <f>Pellets!$F$39</f>
+        <v>Bag (PolyButadiene (high-cis) Pellets)</v>
+      </c>
       <c r="O4" s="24"/>
       <c r="P4" s="24"/>
       <c r="Q4" s="24"/>
@@ -35492,7 +35486,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C5" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D5, Molds!C:E, 3, FALSE)&amp;" ("&amp;F5&amp;")"</f>
@@ -35507,7 +35501,7 @@
         <v>Bag (Styrene-Butadiene Rubber Pellets)</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G5" s="24">
         <v>12</v>
@@ -35519,7 +35513,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="K5" s="24">
         <v>0.35</v>
@@ -35753,8 +35747,8 @@
         <v>Mold (Scuba Fins)</v>
       </c>
       <c r="E10" s="22" t="str">
-        <f>Pellets!$F$39</f>
-        <v>Bag (PolyButadiene Rubber Pellets)</v>
+        <f>Pellets!$F$38</f>
+        <v>Bag (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>1907</v>
@@ -35769,7 +35763,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="K10" s="24">
         <v>0.3</v>
@@ -35782,9 +35776,12 @@
       </c>
       <c r="N10" s="24" t="str">
         <f>Pellets!$F$19</f>
-        <v>Bag (Isobutylene-Isoprene Rubber Pellets)</v>
-      </c>
-      <c r="O10" s="24"/>
+        <v>Bag (Isobutylene Rubber Pellets)</v>
+      </c>
+      <c r="O10" s="22" t="str">
+        <f>Pellets!$F$39</f>
+        <v>Bag (PolyButadiene (high-cis) Pellets)</v>
+      </c>
       <c r="P10" s="24"/>
       <c r="Q10" s="24"/>
       <c r="R10" s="26">
@@ -35797,7 +35794,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="C11" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D11, Molds!C:E, 3, FALSE)&amp;" ("&amp;F11&amp;")"</f>
@@ -35824,7 +35821,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="K11" s="24">
         <v>0.4</v>
@@ -35888,7 +35885,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="K12" s="24">
         <v>0.5</v>
@@ -35981,8 +35978,8 @@
         <v>Mold (Scuba Mask)</v>
       </c>
       <c r="E14" s="22" t="str">
-        <f>Pellets!$F$39</f>
-        <v>Bag (PolyButadiene Rubber Pellets)</v>
+        <f>Pellets!$F$38</f>
+        <v>Bag (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>1907</v>
@@ -35997,16 +35994,19 @@
         <v>1</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>1999</v>
+        <v>2005</v>
       </c>
       <c r="K14" s="24">
         <v>0.01</v>
       </c>
       <c r="L14" s="24" t="str">
         <f>Pellets!$F$19</f>
-        <v>Bag (Isobutylene-Isoprene Rubber Pellets)</v>
-      </c>
-      <c r="M14" s="24"/>
+        <v>Bag (Isobutylene Rubber Pellets)</v>
+      </c>
+      <c r="M14" s="22" t="str">
+        <f>Pellets!$F$39</f>
+        <v>Bag (PolyButadiene (high-cis) Pellets)</v>
+      </c>
       <c r="N14" s="24"/>
       <c r="O14" s="24"/>
       <c r="P14" s="24"/>
@@ -36048,7 +36048,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="K15" s="24">
         <v>5.0000000000000001E-3</v>
@@ -36106,7 +36106,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="K16" s="24">
         <v>1E-3</v>
@@ -36148,7 +36148,7 @@
         <v>Bag (PolyIsoPrene Pellets)</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="G17" s="24">
         <v>4</v>
@@ -36180,7 +36180,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="C18" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D18, Molds!C:E, 3, FALSE)&amp;" ("&amp;F18&amp;")"</f>
@@ -36191,11 +36191,11 @@
         <v>Mold (Gasket)</v>
       </c>
       <c r="E18" s="22" t="str">
-        <f>Pellets!$F$39</f>
-        <v>Bag (PolyButadiene Rubber Pellets)</v>
+        <f>Pellets!$F$38</f>
+        <v>Bag (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="F18" s="42" t="s">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="G18" s="24">
         <v>4</v>
@@ -36207,13 +36207,16 @@
         <v>64</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="K18" s="24" t="str">
         <f>Pellets!$F$19</f>
-        <v>Bag (Isobutylene-Isoprene Rubber Pellets)</v>
-      </c>
-      <c r="L18" s="24"/>
+        <v>Bag (Isobutylene Rubber Pellets)</v>
+      </c>
+      <c r="L18" s="22" t="str">
+        <f>Pellets!$F$39</f>
+        <v>Bag (PolyButadiene (high-cis) Pellets)</v>
+      </c>
       <c r="M18" s="24"/>
       <c r="N18" s="24"/>
       <c r="P18" s="24"/>
@@ -36227,7 +36230,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C19" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D19, Molds!C:E, 3, FALSE)&amp;" ("&amp;F19&amp;")"</f>
@@ -36242,7 +36245,7 @@
         <v>Bag (Styrene-Butadiene Rubber Pellets)</v>
       </c>
       <c r="F19" s="42" t="s">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="G19" s="24">
         <v>4</v>
@@ -36254,7 +36257,7 @@
         <v>64</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="K19" s="24" t="str">
         <f>Pellets!$F$27</f>
@@ -36283,7 +36286,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="C20" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D20, Molds!C:E, 3, FALSE)&amp;" ("&amp;F20&amp;")"</f>
@@ -36298,7 +36301,7 @@
         <v>Bag (Ethylene-Propylene-Diene Monomer Pellets)</v>
       </c>
       <c r="F20" s="42" t="s">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="G20" s="24">
         <v>4</v>
@@ -36310,7 +36313,7 @@
         <v>64</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="K20" s="22" t="str">
         <f>Pellets!$F$16</f>
@@ -36598,7 +36601,7 @@
         <v>Bag (PolyIsoPrene Pellets)</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="G26" s="24">
         <v>16</v>
@@ -36624,7 +36627,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="C27" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D27, Molds!C:E, 3, FALSE)&amp;" ("&amp;F27&amp;")"</f>
@@ -36635,11 +36638,11 @@
         <v>Metal Die (Hose)</v>
       </c>
       <c r="E27" s="22" t="str">
-        <f>Pellets!$F$39</f>
-        <v>Bag (PolyButadiene Rubber Pellets)</v>
+        <f>Pellets!$F$38</f>
+        <v>Bag (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="F27" s="42" t="s">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="G27" s="24">
         <v>16</v>
@@ -36651,13 +36654,16 @@
         <v>64</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="K27" s="24" t="str">
         <f>Pellets!$F$19</f>
-        <v>Bag (Isobutylene-Isoprene Rubber Pellets)</v>
-      </c>
-      <c r="L27" s="24"/>
+        <v>Bag (Isobutylene Rubber Pellets)</v>
+      </c>
+      <c r="L27" s="22" t="str">
+        <f>Pellets!$F$39</f>
+        <v>Bag (PolyButadiene (high-cis) Pellets)</v>
+      </c>
       <c r="M27" s="24"/>
       <c r="N27" s="24"/>
       <c r="P27" s="24"/>
@@ -36670,7 +36676,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="C28" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D28, Molds!C:E, 3, FALSE)&amp;" ("&amp;F28&amp;")"</f>
@@ -36685,7 +36691,7 @@
         <v>Bag (Styrene-Butadiene Rubber Pellets)</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="G28" s="24">
         <v>16</v>
@@ -36697,7 +36703,7 @@
         <v>64</v>
       </c>
       <c r="J28" s="24" t="s">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="K28" s="24" t="str">
         <f>Pellets!$F$27</f>
@@ -36725,7 +36731,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="C29" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D29, Molds!C:E, 3, FALSE)&amp;" ("&amp;F29&amp;")"</f>
@@ -36740,7 +36746,7 @@
         <v>Bag (Ethylene-Propylene-Diene Monomer Pellets)</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="G29" s="24">
         <v>16</v>
@@ -36752,7 +36758,7 @@
         <v>64</v>
       </c>
       <c r="J29" s="24" t="s">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="K29" s="22" t="str">
         <f>Pellets!$F$16</f>
@@ -37540,7 +37546,7 @@
       </c>
       <c r="C52" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D52, Molds!C:E, 3, FALSE)&amp;" ("&amp;F52&amp;")"</f>
-        <v>Fibers (IIR)</v>
+        <v>Fibers (Butyl Rubber)</v>
       </c>
       <c r="D52" s="24" t="str">
         <f xml:space="preserve"> Molds!$C$8</f>
@@ -37548,11 +37554,11 @@
       </c>
       <c r="E52" s="21" t="str">
         <f>Pellets!G19</f>
-        <v>Sack (Isobutylene-Isoprene Rubber Pellets)</v>
+        <v>Sack (Isobutylene Rubber Pellets)</v>
       </c>
       <c r="F52" s="21" t="str">
         <f>VLOOKUP(E52, Pellets!G:M, 7,FALSE)</f>
-        <v>IIR</v>
+        <v>Butyl Rubber</v>
       </c>
       <c r="G52" s="24">
         <v>3</v>
@@ -38186,7 +38192,7 @@
       </c>
       <c r="C71" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D71, Molds!C:E, 3, FALSE)&amp;" ("&amp;F71&amp;")"</f>
-        <v>Fibers (PBD)</v>
+        <v>Fibers (PBR (low grade))</v>
       </c>
       <c r="D71" s="24" t="str">
         <f xml:space="preserve"> Molds!$C$8</f>
@@ -38194,11 +38200,11 @@
       </c>
       <c r="E71" s="21" t="str">
         <f>Pellets!G38</f>
-        <v>Sack (PolyButadiene Pellets)</v>
+        <v>Sack (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="F71" s="21" t="str">
         <f>VLOOKUP(E71, Pellets!G:M, 7,FALSE)</f>
-        <v>PBD</v>
+        <v>PBR (low grade)</v>
       </c>
       <c r="G71" s="24">
         <v>3</v>
@@ -38220,7 +38226,7 @@
       </c>
       <c r="C72" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D72, Molds!C:E, 3, FALSE)&amp;" ("&amp;F72&amp;")"</f>
-        <v>Fibers (PBR)</v>
+        <v>Fibers (PBR (high grade))</v>
       </c>
       <c r="D72" s="24" t="str">
         <f xml:space="preserve"> Molds!$C$8</f>
@@ -38228,11 +38234,11 @@
       </c>
       <c r="E72" s="21" t="str">
         <f>Pellets!G39</f>
-        <v>Sack (PolyButadiene Rubber Pellets)</v>
+        <v>Sack (PolyButadiene (high-cis) Pellets)</v>
       </c>
       <c r="F72" s="21" t="str">
         <f>VLOOKUP(E72, Pellets!G:M, 7,FALSE)</f>
-        <v>PBR</v>
+        <v>PBR (high grade)</v>
       </c>
       <c r="G72" s="24">
         <v>3</v>

--- a/config/Polycraft Polymers.xlsx
+++ b/config/Polycraft Polymers.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\Walter\Documents\GitHub\polycraftworld\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PolycraftWorld\polycraft\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12780" yWindow="0" windowWidth="27240" windowHeight="14310" tabRatio="826" activeTab="7"/>
+    <workbookView xWindow="13710" yWindow="0" windowWidth="27240" windowHeight="14310" tabRatio="826" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Pellets" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="2020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2297" uniqueCount="2231">
   <si>
     <t>GC</t>
   </si>
@@ -5684,18 +5684,6 @@
     <t>Pickaxe</t>
   </si>
   <si>
-    <t>ArmorChest</t>
-  </si>
-  <si>
-    <t>ArmorLeggings</t>
-  </si>
-  <si>
-    <t>ArmorHeadgear</t>
-  </si>
-  <si>
-    <t>ArmorFeet</t>
-  </si>
-  <si>
     <t>Knife</t>
   </si>
   <si>
@@ -5999,12 +5987,6 @@
     <t>66</t>
   </si>
   <si>
-    <t>Armor Buff</t>
-  </si>
-  <si>
-    <t>Adjective</t>
-  </si>
-  <si>
     <t>Rubber</t>
   </si>
   <si>
@@ -6020,9 +6002,6 @@
     <t>Pleather</t>
   </si>
   <si>
-    <t>Polycraft Name</t>
-  </si>
-  <si>
     <t>Socks</t>
   </si>
   <si>
@@ -6105,6 +6084,660 @@
   </si>
   <si>
     <t xml:space="preserve">VelocityOnGround, MovementDurationWear(MCMins), Source 1, Source 2 </t>
+  </si>
+  <si>
+    <t>Axe</t>
+  </si>
+  <si>
+    <t>Durability (Int)</t>
+  </si>
+  <si>
+    <t>Leggings ID</t>
+  </si>
+  <si>
+    <t>Feet ID</t>
+  </si>
+  <si>
+    <t>Chest ID</t>
+  </si>
+  <si>
+    <t>Headgear ID</t>
+  </si>
+  <si>
+    <t>13i</t>
+  </si>
+  <si>
+    <t>13j</t>
+  </si>
+  <si>
+    <t>13k</t>
+  </si>
+  <si>
+    <t>13l</t>
+  </si>
+  <si>
+    <t>13m</t>
+  </si>
+  <si>
+    <t>13n</t>
+  </si>
+  <si>
+    <t>13o</t>
+  </si>
+  <si>
+    <t>13p</t>
+  </si>
+  <si>
+    <t>13q</t>
+  </si>
+  <si>
+    <t>13r</t>
+  </si>
+  <si>
+    <t>13s</t>
+  </si>
+  <si>
+    <t>13t</t>
+  </si>
+  <si>
+    <t>13u</t>
+  </si>
+  <si>
+    <t>13v</t>
+  </si>
+  <si>
+    <t>13w</t>
+  </si>
+  <si>
+    <t>13x</t>
+  </si>
+  <si>
+    <t>13y</t>
+  </si>
+  <si>
+    <t>13z</t>
+  </si>
+  <si>
+    <t>13A</t>
+  </si>
+  <si>
+    <t>13B</t>
+  </si>
+  <si>
+    <t>13C</t>
+  </si>
+  <si>
+    <t>13D</t>
+  </si>
+  <si>
+    <t>13E</t>
+  </si>
+  <si>
+    <t>13F</t>
+  </si>
+  <si>
+    <t>13G</t>
+  </si>
+  <si>
+    <t>13H</t>
+  </si>
+  <si>
+    <t>13I</t>
+  </si>
+  <si>
+    <t>13J</t>
+  </si>
+  <si>
+    <t>13K</t>
+  </si>
+  <si>
+    <t>13L</t>
+  </si>
+  <si>
+    <t>13M</t>
+  </si>
+  <si>
+    <t>13N</t>
+  </si>
+  <si>
+    <t>13O</t>
+  </si>
+  <si>
+    <t>13P</t>
+  </si>
+  <si>
+    <t>13Q</t>
+  </si>
+  <si>
+    <t>13R</t>
+  </si>
+  <si>
+    <t>13S</t>
+  </si>
+  <si>
+    <t>13T</t>
+  </si>
+  <si>
+    <t>13U</t>
+  </si>
+  <si>
+    <t>13V</t>
+  </si>
+  <si>
+    <t>13W</t>
+  </si>
+  <si>
+    <t>13X</t>
+  </si>
+  <si>
+    <t>13Y</t>
+  </si>
+  <si>
+    <t>13Z</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>14a</t>
+  </si>
+  <si>
+    <t>14b</t>
+  </si>
+  <si>
+    <t>14c</t>
+  </si>
+  <si>
+    <t>14d</t>
+  </si>
+  <si>
+    <t>14e</t>
+  </si>
+  <si>
+    <t>14f</t>
+  </si>
+  <si>
+    <t>14g</t>
+  </si>
+  <si>
+    <t>14h</t>
+  </si>
+  <si>
+    <t>14i</t>
+  </si>
+  <si>
+    <t>14j</t>
+  </si>
+  <si>
+    <t>14k</t>
+  </si>
+  <si>
+    <t>14l</t>
+  </si>
+  <si>
+    <t>14m</t>
+  </si>
+  <si>
+    <t>15r</t>
+  </si>
+  <si>
+    <t>15q</t>
+  </si>
+  <si>
+    <t>15p</t>
+  </si>
+  <si>
+    <t>15o</t>
+  </si>
+  <si>
+    <t>15n</t>
+  </si>
+  <si>
+    <t>15m</t>
+  </si>
+  <si>
+    <t>15l</t>
+  </si>
+  <si>
+    <t>15k</t>
+  </si>
+  <si>
+    <t>15j</t>
+  </si>
+  <si>
+    <t>15i</t>
+  </si>
+  <si>
+    <t>15h</t>
+  </si>
+  <si>
+    <t>15g</t>
+  </si>
+  <si>
+    <t>15f</t>
+  </si>
+  <si>
+    <t>15e</t>
+  </si>
+  <si>
+    <t>15d</t>
+  </si>
+  <si>
+    <t>15c</t>
+  </si>
+  <si>
+    <t>15b</t>
+  </si>
+  <si>
+    <t>15a</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>14Z</t>
+  </si>
+  <si>
+    <t>14Y</t>
+  </si>
+  <si>
+    <t>14X</t>
+  </si>
+  <si>
+    <t>14W</t>
+  </si>
+  <si>
+    <t>14V</t>
+  </si>
+  <si>
+    <t>14U</t>
+  </si>
+  <si>
+    <t>14T</t>
+  </si>
+  <si>
+    <t>14S</t>
+  </si>
+  <si>
+    <t>14R</t>
+  </si>
+  <si>
+    <t>14Q</t>
+  </si>
+  <si>
+    <t>14P</t>
+  </si>
+  <si>
+    <t>14O</t>
+  </si>
+  <si>
+    <t>14N</t>
+  </si>
+  <si>
+    <t>14M</t>
+  </si>
+  <si>
+    <t>14L</t>
+  </si>
+  <si>
+    <t>14K</t>
+  </si>
+  <si>
+    <t>14J</t>
+  </si>
+  <si>
+    <t>14I</t>
+  </si>
+  <si>
+    <t>14H</t>
+  </si>
+  <si>
+    <t>14G</t>
+  </si>
+  <si>
+    <t>14F</t>
+  </si>
+  <si>
+    <t>14E</t>
+  </si>
+  <si>
+    <t>14D</t>
+  </si>
+  <si>
+    <t>14C</t>
+  </si>
+  <si>
+    <t>14B</t>
+  </si>
+  <si>
+    <t>14A</t>
+  </si>
+  <si>
+    <t>14z</t>
+  </si>
+  <si>
+    <t>14y</t>
+  </si>
+  <si>
+    <t>14x</t>
+  </si>
+  <si>
+    <t>14w</t>
+  </si>
+  <si>
+    <t>14v</t>
+  </si>
+  <si>
+    <t>14u</t>
+  </si>
+  <si>
+    <t>14t</t>
+  </si>
+  <si>
+    <t>14s</t>
+  </si>
+  <si>
+    <t>14r</t>
+  </si>
+  <si>
+    <t>14q</t>
+  </si>
+  <si>
+    <t>14p</t>
+  </si>
+  <si>
+    <t>14o</t>
+  </si>
+  <si>
+    <t>14n</t>
+  </si>
+  <si>
+    <t>16w</t>
+  </si>
+  <si>
+    <t>16v</t>
+  </si>
+  <si>
+    <t>16u</t>
+  </si>
+  <si>
+    <t>16t</t>
+  </si>
+  <si>
+    <t>16s</t>
+  </si>
+  <si>
+    <t>16r</t>
+  </si>
+  <si>
+    <t>16q</t>
+  </si>
+  <si>
+    <t>16p</t>
+  </si>
+  <si>
+    <t>16o</t>
+  </si>
+  <si>
+    <t>16n</t>
+  </si>
+  <si>
+    <t>16m</t>
+  </si>
+  <si>
+    <t>16l</t>
+  </si>
+  <si>
+    <t>16k</t>
+  </si>
+  <si>
+    <t>16j</t>
+  </si>
+  <si>
+    <t>16i</t>
+  </si>
+  <si>
+    <t>16h</t>
+  </si>
+  <si>
+    <t>16g</t>
+  </si>
+  <si>
+    <t>16f</t>
+  </si>
+  <si>
+    <t>16e</t>
+  </si>
+  <si>
+    <t>16d</t>
+  </si>
+  <si>
+    <t>16c</t>
+  </si>
+  <si>
+    <t>16b</t>
+  </si>
+  <si>
+    <t>16a</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>15Z</t>
+  </si>
+  <si>
+    <t>15Y</t>
+  </si>
+  <si>
+    <t>15X</t>
+  </si>
+  <si>
+    <t>15W</t>
+  </si>
+  <si>
+    <t>15V</t>
+  </si>
+  <si>
+    <t>15U</t>
+  </si>
+  <si>
+    <t>15T</t>
+  </si>
+  <si>
+    <t>15S</t>
+  </si>
+  <si>
+    <t>15R</t>
+  </si>
+  <si>
+    <t>15Q</t>
+  </si>
+  <si>
+    <t>15P</t>
+  </si>
+  <si>
+    <t>15O</t>
+  </si>
+  <si>
+    <t>15N</t>
+  </si>
+  <si>
+    <t>15M</t>
+  </si>
+  <si>
+    <t>15L</t>
+  </si>
+  <si>
+    <t>15K</t>
+  </si>
+  <si>
+    <t>15J</t>
+  </si>
+  <si>
+    <t>15I</t>
+  </si>
+  <si>
+    <t>15H</t>
+  </si>
+  <si>
+    <t>15G</t>
+  </si>
+  <si>
+    <t>15F</t>
+  </si>
+  <si>
+    <t>15E</t>
+  </si>
+  <si>
+    <t>15D</t>
+  </si>
+  <si>
+    <t>15C</t>
+  </si>
+  <si>
+    <t>15B</t>
+  </si>
+  <si>
+    <t>15A</t>
+  </si>
+  <si>
+    <t>15z</t>
+  </si>
+  <si>
+    <t>15y</t>
+  </si>
+  <si>
+    <t>15x</t>
+  </si>
+  <si>
+    <t>15w</t>
+  </si>
+  <si>
+    <t>15v</t>
+  </si>
+  <si>
+    <t>15u</t>
+  </si>
+  <si>
+    <t>15t</t>
+  </si>
+  <si>
+    <t>15s</t>
+  </si>
+  <si>
+    <t>Leggings</t>
+  </si>
+  <si>
+    <t>Feet</t>
+  </si>
+  <si>
+    <t>Chest</t>
+  </si>
+  <si>
+    <t>Headgear</t>
+  </si>
+  <si>
+    <t>Armor Material Name</t>
+  </si>
+  <si>
+    <t>Helmet</t>
+  </si>
+  <si>
+    <t>Enchantability (Int)</t>
+  </si>
+  <si>
+    <t>Reduction Leggings (Int)</t>
+  </si>
+  <si>
+    <t>Reduction Feet (Int)</t>
+  </si>
+  <si>
+    <t>Reduction Chest (Int)</t>
+  </si>
+  <si>
+    <t>Reduction Headgear (Int)</t>
   </si>
 </sst>
 </file>
@@ -6464,26 +7097,6 @@
         <row r="101">
           <cell r="A101" t="str">
             <v>Magic</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="A116" t="str">
-            <v>Armor Leggings</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="A117" t="str">
-            <v>Armor Feet</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="A118" t="str">
-            <v>Armor Chest</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="A119" t="str">
-            <v>Armor Headgear</v>
           </cell>
         </row>
       </sheetData>
@@ -14109,16 +14722,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>1894</v>
+        <v>1890</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>1893</v>
+        <v>1889</v>
       </c>
       <c r="D115" s="16" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>1891</v>
+        <v>1887</v>
       </c>
       <c r="F115" s="1" t="str">
         <f>IF($N115, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
@@ -14823,7 +15436,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14844,13 +15457,13 @@
         <v>Game ID</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>1884</v>
+        <v>1880</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>1886</v>
+        <v>1882</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>1885</v>
+        <v>1881</v>
       </c>
       <c r="F1" s="36" t="str">
         <f xml:space="preserve"> [1]Enums!$A$95</f>
@@ -14965,7 +15578,7 @@
         <v>1839</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1879</v>
+        <v>2013</v>
       </c>
       <c r="D6" s="2" t="str">
         <f>[1]Alloys!$B$2</f>
@@ -14986,7 +15599,7 @@
         <v>1840</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="D7" s="2" t="str">
         <f>[1]Alloys!$B$2</f>
@@ -15006,9 +15619,7 @@
       <c r="B8" s="16" t="s">
         <v>1841</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>1881</v>
-      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="2" t="str">
         <f>[1]Alloys!$B$2</f>
         <v>Steel</v>
@@ -15027,9 +15638,7 @@
       <c r="B9" s="16" t="s">
         <v>1842</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>1882</v>
-      </c>
+      <c r="C9" s="2"/>
       <c r="D9" s="2" t="str">
         <f>[1]Alloys!$B$2</f>
         <v>Steel</v>
@@ -15048,9 +15657,7 @@
       <c r="B10" s="16" t="s">
         <v>1843</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>1883</v>
-      </c>
+      <c r="C10" s="2"/>
       <c r="D10" s="2" t="str">
         <f>[1]Alloys!$B$2</f>
         <v>Steel</v>
@@ -15069,6 +15676,7 @@
       <c r="B11" s="16" t="s">
         <v>1844</v>
       </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="2" t="str">
         <f>[1]Alloys!$B$3</f>
         <v>Stainless Steel</v>
@@ -16949,7 +17557,7 @@
         <v>595</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>1906</v>
+        <v>1902</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>566</v>
@@ -21456,10 +22064,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B115" s="40" t="s">
-        <v>1896</v>
+        <v>1892</v>
       </c>
       <c r="C115" s="40" t="s">
-        <v>1897</v>
+        <v>1893</v>
       </c>
       <c r="D115" s="1" t="str">
         <f t="shared" si="3"/>
@@ -26041,16 +26649,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B115" s="40" t="s">
-        <v>1898</v>
+        <v>1894</v>
       </c>
       <c r="C115" s="40" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="D115" s="40" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="E115" s="40" t="s">
-        <v>1901</v>
+        <v>1897</v>
       </c>
       <c r="F115" s="1" t="str">
         <f t="shared" si="3"/>
@@ -29942,10 +30550,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B115" s="40" t="s">
-        <v>1902</v>
+        <v>1898</v>
       </c>
       <c r="C115" s="40" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="D115" s="1" t="str">
         <f t="shared" si="3"/>
@@ -33837,10 +34445,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B115" s="40" t="s">
-        <v>1904</v>
+        <v>1900</v>
       </c>
       <c r="C115" s="40" t="s">
-        <v>1905</v>
+        <v>1901</v>
       </c>
       <c r="D115" s="1" t="str">
         <f t="shared" si="3"/>
@@ -35178,7 +35786,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>1890</v>
+        <v>1886</v>
       </c>
       <c r="C27" s="10" t="str">
         <f t="shared" si="0"/>
@@ -35202,7 +35810,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1995</v>
+        <v>1988</v>
       </c>
       <c r="C28" s="10" t="str">
         <f t="shared" si="0"/>
@@ -35232,8 +35840,8 @@
   </sheetPr>
   <dimension ref="A1:T156"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView showZeros="0" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -35459,7 +36067,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="K4" s="24">
         <v>0.25</v>
@@ -35486,7 +36094,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1999</v>
+        <v>1992</v>
       </c>
       <c r="C5" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D5, Molds!C:E, 3, FALSE)&amp;" ("&amp;F5&amp;")"</f>
@@ -35501,7 +36109,7 @@
         <v>Bag (Styrene-Butadiene Rubber Pellets)</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>2000</v>
+        <v>1993</v>
       </c>
       <c r="G5" s="24">
         <v>12</v>
@@ -35513,7 +36121,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>2001</v>
+        <v>1994</v>
       </c>
       <c r="K5" s="24">
         <v>0.35</v>
@@ -35561,7 +36169,7 @@
         <v>Bag (Ethylene-Vinyl Acetate Pellets)</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>1887</v>
+        <v>1883</v>
       </c>
       <c r="G6" s="24">
         <v>4</v>
@@ -35608,7 +36216,7 @@
         <v>Bag (PolyUrethane Pellets)</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>1888</v>
+        <v>1884</v>
       </c>
       <c r="G7" s="24">
         <v>4</v>
@@ -35652,7 +36260,7 @@
         <v>Bag (Ethylene-Propylene-Diene Monomer Pellets)</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>1889</v>
+        <v>1885</v>
       </c>
       <c r="G8" s="24">
         <v>4</v>
@@ -35696,7 +36304,7 @@
         <v>Bag (PolyIsoPrene Pellets)</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>1909</v>
+        <v>1905</v>
       </c>
       <c r="G9" s="24">
         <v>16</v>
@@ -35736,7 +36344,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>1911</v>
+        <v>1907</v>
       </c>
       <c r="C10" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D10, Molds!C:E, 3, FALSE)&amp;" ("&amp;F10&amp;")"</f>
@@ -35751,7 +36359,7 @@
         <v>Bag (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="G10" s="24">
         <v>16</v>
@@ -35763,7 +36371,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>2004</v>
+        <v>1997</v>
       </c>
       <c r="K10" s="24">
         <v>0.3</v>
@@ -35794,7 +36402,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>2002</v>
+        <v>1995</v>
       </c>
       <c r="C11" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D11, Molds!C:E, 3, FALSE)&amp;" ("&amp;F11&amp;")"</f>
@@ -35809,7 +36417,7 @@
         <v>Bag (Styrene-Butadiene Rubber Pellets)</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>1998</v>
+        <v>1991</v>
       </c>
       <c r="G11" s="24">
         <v>16</v>
@@ -35821,7 +36429,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>2003</v>
+        <v>1996</v>
       </c>
       <c r="K11" s="24">
         <v>0.4</v>
@@ -35858,7 +36466,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>1912</v>
+        <v>1908</v>
       </c>
       <c r="C12" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D12, Molds!C:E, 3, FALSE)&amp;" ("&amp;F12&amp;")"</f>
@@ -35873,7 +36481,7 @@
         <v>Bag (Ethylene-Propylene-Diene Monomer Pellets)</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>1908</v>
+        <v>1904</v>
       </c>
       <c r="G12" s="24">
         <v>16</v>
@@ -35885,7 +36493,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>2004</v>
+        <v>1997</v>
       </c>
       <c r="K12" s="24">
         <v>0.5</v>
@@ -35931,7 +36539,7 @@
         <v>Bag (PolyIsoPrene Pellets)</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>1909</v>
+        <v>1905</v>
       </c>
       <c r="G13" s="24">
         <v>12</v>
@@ -35967,7 +36575,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
       <c r="C14" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D14, Molds!C:E, 3, FALSE)&amp;" ("&amp;F14&amp;")"</f>
@@ -35982,7 +36590,7 @@
         <v>Bag (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="G14" s="24">
         <v>12</v>
@@ -35994,7 +36602,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>2005</v>
+        <v>1998</v>
       </c>
       <c r="K14" s="24">
         <v>0.01</v>
@@ -36021,7 +36629,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1997</v>
+        <v>1990</v>
       </c>
       <c r="C15" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D15, Molds!C:E, 3, FALSE)&amp;" ("&amp;F15&amp;")"</f>
@@ -36036,7 +36644,7 @@
         <v>Bag (Styrene-Butadiene Rubber Pellets)</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>1998</v>
+        <v>1991</v>
       </c>
       <c r="G15" s="24">
         <v>12</v>
@@ -36048,7 +36656,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>2014</v>
+        <v>2007</v>
       </c>
       <c r="K15" s="24">
         <v>5.0000000000000001E-3</v>
@@ -36079,7 +36687,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="C16" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D16, Molds!C:E, 3, FALSE)&amp;" ("&amp;F16&amp;")"</f>
@@ -36094,7 +36702,7 @@
         <v>Bag (Ethylene-Propylene-Diene Monomer Pellets)</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>1908</v>
+        <v>1904</v>
       </c>
       <c r="G16" s="24">
         <v>12</v>
@@ -36106,7 +36714,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>2005</v>
+        <v>1998</v>
       </c>
       <c r="K16" s="24">
         <v>1E-3</v>
@@ -36148,7 +36756,7 @@
         <v>Bag (PolyIsoPrene Pellets)</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="G17" s="24">
         <v>4</v>
@@ -36180,7 +36788,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>2011</v>
+        <v>2004</v>
       </c>
       <c r="C18" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D18, Molds!C:E, 3, FALSE)&amp;" ("&amp;F18&amp;")"</f>
@@ -36195,7 +36803,7 @@
         <v>Bag (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="F18" s="42" t="s">
-        <v>2016</v>
+        <v>2009</v>
       </c>
       <c r="G18" s="24">
         <v>4</v>
@@ -36207,7 +36815,7 @@
         <v>64</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>2010</v>
+        <v>2003</v>
       </c>
       <c r="K18" s="24" t="str">
         <f>Pellets!$F$19</f>
@@ -36230,7 +36838,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>2012</v>
+        <v>2005</v>
       </c>
       <c r="C19" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D19, Molds!C:E, 3, FALSE)&amp;" ("&amp;F19&amp;")"</f>
@@ -36245,7 +36853,7 @@
         <v>Bag (Styrene-Butadiene Rubber Pellets)</v>
       </c>
       <c r="F19" s="42" t="s">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="G19" s="24">
         <v>4</v>
@@ -36257,7 +36865,7 @@
         <v>64</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>2009</v>
+        <v>2002</v>
       </c>
       <c r="K19" s="24" t="str">
         <f>Pellets!$F$27</f>
@@ -36286,7 +36894,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="C20" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D20, Molds!C:E, 3, FALSE)&amp;" ("&amp;F20&amp;")"</f>
@@ -36301,7 +36909,7 @@
         <v>Bag (Ethylene-Propylene-Diene Monomer Pellets)</v>
       </c>
       <c r="F20" s="42" t="s">
-        <v>2018</v>
+        <v>2011</v>
       </c>
       <c r="G20" s="24">
         <v>4</v>
@@ -36313,7 +36921,7 @@
         <v>64</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>2010</v>
+        <v>2003</v>
       </c>
       <c r="K20" s="22" t="str">
         <f>Pellets!$F$16</f>
@@ -36364,7 +36972,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>1910</v>
+        <v>1906</v>
       </c>
       <c r="K21" s="24">
         <v>20</v>
@@ -36388,7 +36996,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
       <c r="C22" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D22, Molds!C:E, 3, FALSE)&amp;" ("&amp;F22&amp;")"</f>
@@ -36416,7 +37024,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="24" t="s">
-        <v>1910</v>
+        <v>1906</v>
       </c>
       <c r="K22" s="24">
         <v>200</v>
@@ -36437,7 +37045,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>1916</v>
+        <v>1912</v>
       </c>
       <c r="C23" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D23, Molds!C:E, 3, FALSE)&amp;" ("&amp;F23&amp;")"</f>
@@ -36465,7 +37073,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>1910</v>
+        <v>1906</v>
       </c>
       <c r="K23" s="24">
         <v>2000</v>
@@ -36601,7 +37209,7 @@
         <v>Bag (PolyIsoPrene Pellets)</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="G26" s="24">
         <v>16</v>
@@ -36627,7 +37235,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="C27" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D27, Molds!C:E, 3, FALSE)&amp;" ("&amp;F27&amp;")"</f>
@@ -36642,7 +37250,7 @@
         <v>Bag (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="F27" s="42" t="s">
-        <v>2016</v>
+        <v>2009</v>
       </c>
       <c r="G27" s="24">
         <v>16</v>
@@ -36654,7 +37262,7 @@
         <v>64</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>2010</v>
+        <v>2003</v>
       </c>
       <c r="K27" s="24" t="str">
         <f>Pellets!$F$19</f>
@@ -36676,7 +37284,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="C28" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D28, Molds!C:E, 3, FALSE)&amp;" ("&amp;F28&amp;")"</f>
@@ -36691,7 +37299,7 @@
         <v>Bag (Styrene-Butadiene Rubber Pellets)</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="G28" s="24">
         <v>16</v>
@@ -36703,7 +37311,7 @@
         <v>64</v>
       </c>
       <c r="J28" s="24" t="s">
-        <v>2009</v>
+        <v>2002</v>
       </c>
       <c r="K28" s="24" t="str">
         <f>Pellets!$F$27</f>
@@ -36731,7 +37339,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>2006</v>
+        <v>1999</v>
       </c>
       <c r="C29" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D29, Molds!C:E, 3, FALSE)&amp;" ("&amp;F29&amp;")"</f>
@@ -36746,7 +37354,7 @@
         <v>Bag (Ethylene-Propylene-Diene Monomer Pellets)</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>2018</v>
+        <v>2011</v>
       </c>
       <c r="G29" s="24">
         <v>16</v>
@@ -36758,7 +37366,7 @@
         <v>64</v>
       </c>
       <c r="J29" s="24" t="s">
-        <v>2010</v>
+        <v>2003</v>
       </c>
       <c r="K29" s="22" t="str">
         <f>Pellets!$F$16</f>
@@ -40806,7 +41414,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>1895</v>
+        <v>1891</v>
       </c>
       <c r="C148" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D148, Molds!C:E, 3, FALSE)&amp;" ("&amp;F148&amp;")"</f>
@@ -40840,7 +41448,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>1996</v>
+        <v>1989</v>
       </c>
       <c r="C149" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D149, Molds!C:E, 3, FALSE)&amp;" ("&amp;F149&amp;")"</f>
@@ -40904,1101 +41512,1615 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="10" max="11" width="21" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="24" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" customWidth="1"/>
+    <col min="16" max="16" width="24.42578125" customWidth="1"/>
+    <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="str">
         <f>[1]Enums!$A$1</f>
         <v>Version</v>
       </c>
-      <c r="B1" s="32" t="str">
-        <f xml:space="preserve"> '[1]Game IDs'!A1</f>
-        <v>Game ID</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>1884</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>1886</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>1985</v>
+      <c r="B1" s="32" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>2016</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>2017</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>2018</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>1885</v>
+        <v>1882</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>1991</v>
-      </c>
-      <c r="H1" s="36" t="str">
-        <f xml:space="preserve"> [1]Enums!$A$95</f>
-        <v>Base Material</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>1984</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>1813</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>1784</v>
-      </c>
-      <c r="L1" s="28" t="s">
-        <v>1783</v>
-      </c>
-      <c r="M1" s="28" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>2224</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>2220</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>2221</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>2222</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>2223</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>2014</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>2226</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>2230</v>
+      </c>
+      <c r="O1" s="30" t="s">
+        <v>2229</v>
+      </c>
+      <c r="P1" s="30" t="s">
+        <v>2227</v>
+      </c>
+      <c r="Q1" s="30" t="s">
+        <v>2228</v>
+      </c>
+      <c r="R1" s="28"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>1917</v>
-      </c>
-      <c r="C2" s="2" t="str">
-        <f>[1]Enums!$A$116</f>
-        <v>Armor Leggings</v>
-      </c>
-      <c r="D2" s="2" t="str">
+        <v>1913</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2019</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2152</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2219</v>
+      </c>
+      <c r="F2" s="2" t="str">
         <f>'Molded Items'!$C$100</f>
         <v>Fibers (Natural Rubber)</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>1986</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1987</v>
-      </c>
-      <c r="G2" s="2" t="str">
-        <f>E2&amp;" "&amp;F2</f>
-        <v>Rubber Pants</v>
-      </c>
-      <c r="H2" t="str">
-        <f>[1]Enums!$A$98</f>
-        <v>Iron</v>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G2" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1981</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>1982</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1983</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="L2">
+        <v>20</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2">
+        <v>8</v>
+      </c>
+      <c r="P2">
+        <v>6</v>
+      </c>
+      <c r="Q2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>1918</v>
-      </c>
-      <c r="C3" s="2" t="str">
-        <f>[1]Enums!$A$117</f>
-        <v>Armor Feet</v>
-      </c>
-      <c r="D3" s="2" t="str">
-        <f>D2</f>
+        <v>1914</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2020</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2151</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2218</v>
+      </c>
+      <c r="F3" s="2" t="str">
+        <f>F2</f>
         <v>Fibers (Natural Rubber)</v>
       </c>
-      <c r="E3" s="2" t="str">
-        <f>E2</f>
+      <c r="G3" s="2" t="str">
+        <f>G2</f>
         <v>Rubber</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>1988</v>
-      </c>
-      <c r="G3" s="2" t="str">
-        <f t="shared" ref="G3:G17" si="0">E3&amp;" "&amp;F3</f>
-        <v>Rubber Shoes</v>
-      </c>
-      <c r="H3" s="2" t="str">
-        <f>[1]Enums!$A$98</f>
-        <v>Iron</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>1919</v>
-      </c>
-      <c r="C4" s="2" t="str">
-        <f>[1]Enums!$A$118</f>
-        <v>Armor Chest</v>
-      </c>
-      <c r="D4" s="2" t="str">
-        <f>D2</f>
+        <v>1915</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2150</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>2217</v>
+      </c>
+      <c r="F4" s="2" t="str">
+        <f>F2</f>
         <v>Fibers (Natural Rubber)</v>
       </c>
-      <c r="E4" s="2" t="str">
-        <f>E2</f>
+      <c r="G4" s="2" t="str">
+        <f>G2</f>
         <v>Rubber</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>1989</v>
-      </c>
-      <c r="G4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Rubber Vest</v>
-      </c>
-      <c r="H4" t="str">
-        <f>[1]Enums!$A$98</f>
-        <v>Iron</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4">
+        <v>20</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>1920</v>
-      </c>
-      <c r="C5" s="2" t="str">
-        <f>[1]Enums!$A$119</f>
-        <v>Armor Headgear</v>
-      </c>
-      <c r="D5" s="2" t="str">
-        <f>D2</f>
+        <v>1916</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2149</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>2216</v>
+      </c>
+      <c r="F5" s="2" t="str">
+        <f>F2</f>
         <v>Fibers (Natural Rubber)</v>
       </c>
-      <c r="E5" s="2" t="str">
-        <f>E2</f>
+      <c r="G5" s="2" t="str">
+        <f>G2</f>
         <v>Rubber</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>1992</v>
-      </c>
-      <c r="G5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Rubber Socks</v>
-      </c>
-      <c r="H5" s="2" t="str">
-        <f>[1]Enums!$A$98</f>
-        <v>Iron</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H5" s="2" t="s">
+        <v>1985</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2">
+        <v>20</v>
+      </c>
+      <c r="M5" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>1921</v>
-      </c>
-      <c r="C6" s="2" t="str">
-        <f>[1]Enums!$A$116</f>
-        <v>Armor Leggings</v>
-      </c>
-      <c r="D6" s="2" t="str">
+        <v>1917</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2023</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>2148</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>2215</v>
+      </c>
+      <c r="F6" s="2" t="str">
         <f>'Molded Items'!C131</f>
         <v>Fibers (PVC)</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>1990</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>1987</v>
-      </c>
-      <c r="G6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Pleather Pants</v>
-      </c>
-      <c r="H6" t="str">
-        <f>[1]Enums!$A$98</f>
-        <v>Iron</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G6" s="2" t="s">
+        <v>1984</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>1981</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6">
+        <v>20</v>
+      </c>
+      <c r="M6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>1922</v>
-      </c>
-      <c r="C7" s="2" t="str">
-        <f>[1]Enums!$A$117</f>
-        <v>Armor Feet</v>
-      </c>
-      <c r="D7" s="2" t="str">
-        <f>D6</f>
+        <v>1918</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2024</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>2147</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>2214</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f>F6</f>
         <v>Fibers (PVC)</v>
       </c>
-      <c r="E7" s="2" t="str">
-        <f>E6</f>
+      <c r="G7" s="2" t="str">
+        <f>G6</f>
         <v>Pleather</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>1988</v>
-      </c>
-      <c r="G7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Pleather Shoes</v>
-      </c>
-      <c r="H7" s="2" t="str">
-        <f>[1]Enums!$A$98</f>
-        <v>Iron</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H7" s="2" t="s">
+        <v>1982</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2">
+        <v>20</v>
+      </c>
+      <c r="M7" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>1923</v>
-      </c>
-      <c r="C8" s="2" t="str">
-        <f>[1]Enums!$A$118</f>
-        <v>Armor Chest</v>
-      </c>
-      <c r="D8" s="2" t="str">
-        <f>D6</f>
+        <v>1919</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2025</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>2146</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>2213</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f>F6</f>
         <v>Fibers (PVC)</v>
       </c>
-      <c r="E8" s="2" t="str">
-        <f>E6</f>
+      <c r="G8" s="2" t="str">
+        <f>G6</f>
         <v>Pleather</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>1989</v>
-      </c>
-      <c r="G8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Pleather Vest</v>
-      </c>
-      <c r="H8" t="str">
-        <f>[1]Enums!$A$98</f>
-        <v>Iron</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H8" s="2" t="s">
+        <v>1983</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8">
+        <v>20</v>
+      </c>
+      <c r="M8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1924</v>
-      </c>
-      <c r="C9" s="2" t="str">
-        <f>[1]Enums!$A$119</f>
-        <v>Armor Headgear</v>
-      </c>
-      <c r="D9" s="2" t="str">
-        <f>D6</f>
+        <v>1920</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2026</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>2145</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f>F6</f>
         <v>Fibers (PVC)</v>
       </c>
-      <c r="E9" s="2" t="str">
-        <f>E6</f>
+      <c r="G9" s="2" t="str">
+        <f>G6</f>
         <v>Pleather</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>1992</v>
-      </c>
-      <c r="G9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Pleather Socks</v>
-      </c>
-      <c r="H9" s="2" t="str">
-        <f>[1]Enums!$A$98</f>
-        <v>Iron</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H9" s="2" t="s">
+        <v>1985</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2">
+        <v>20</v>
+      </c>
+      <c r="M9" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1925</v>
-      </c>
-      <c r="C10" s="2" t="str">
-        <f>[1]Enums!$A$116</f>
-        <v>Armor Leggings</v>
-      </c>
-      <c r="D10" s="2" t="str">
+        <v>1921</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2027</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>2144</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>2211</v>
+      </c>
+      <c r="F10" s="2" t="str">
         <f>'Molded Items'!C148</f>
         <v>Fibers (Nylon 6)</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>1993</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>1987</v>
-      </c>
-      <c r="G10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Nylon Pants</v>
-      </c>
-      <c r="H10" t="str">
-        <f>[1]Enums!$A$98</f>
-        <v>Iron</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G10" s="2" t="s">
+        <v>1986</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>1981</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10">
+        <v>20</v>
+      </c>
+      <c r="M10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1926</v>
-      </c>
-      <c r="C11" s="2" t="str">
-        <f>[1]Enums!$A$117</f>
-        <v>Armor Feet</v>
-      </c>
-      <c r="D11" s="2" t="str">
-        <f>D10</f>
+        <v>1922</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2028</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>2143</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>2210</v>
+      </c>
+      <c r="F11" s="2" t="str">
+        <f>F10</f>
         <v>Fibers (Nylon 6)</v>
       </c>
-      <c r="E11" s="2" t="str">
-        <f>E10</f>
+      <c r="G11" s="2" t="str">
+        <f>G10</f>
         <v>Nylon</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>1988</v>
-      </c>
-      <c r="G11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Nylon Shoes</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H11" s="2" t="s">
+        <v>1982</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2">
+        <v>20</v>
+      </c>
+      <c r="M11" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1927</v>
-      </c>
-      <c r="C12" s="2" t="str">
-        <f>[1]Enums!$A$118</f>
-        <v>Armor Chest</v>
-      </c>
-      <c r="D12" s="2" t="str">
-        <f>D10</f>
+        <v>1923</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>2029</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>2142</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>2209</v>
+      </c>
+      <c r="F12" s="2" t="str">
+        <f>F10</f>
         <v>Fibers (Nylon 6)</v>
       </c>
-      <c r="E12" s="2" t="str">
-        <f>E10</f>
+      <c r="G12" s="2" t="str">
+        <f>G10</f>
         <v>Nylon</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>1989</v>
-      </c>
-      <c r="G12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Nylon Vest</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H12" s="2" t="s">
+        <v>1983</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12">
+        <v>20</v>
+      </c>
+      <c r="M12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1928</v>
-      </c>
-      <c r="C13" s="2" t="str">
-        <f>[1]Enums!$A$119</f>
-        <v>Armor Headgear</v>
-      </c>
-      <c r="D13" s="2" t="str">
-        <f>D10</f>
+        <v>1924</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>2141</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>2208</v>
+      </c>
+      <c r="F13" s="2" t="str">
+        <f>F10</f>
         <v>Fibers (Nylon 6)</v>
       </c>
-      <c r="E13" s="2" t="str">
-        <f>E10</f>
+      <c r="G13" s="2" t="str">
+        <f>G10</f>
         <v>Nylon</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>1992</v>
-      </c>
-      <c r="G13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Nylon Socks</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H13" s="2" t="s">
+        <v>1985</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2">
+        <v>20</v>
+      </c>
+      <c r="M13" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1929</v>
-      </c>
-      <c r="C14" s="2" t="str">
-        <f>[1]Enums!$A$116</f>
-        <v>Armor Leggings</v>
-      </c>
-      <c r="D14" t="str">
+        <v>1925</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>2031</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>2140</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>2207</v>
+      </c>
+      <c r="F14" t="str">
         <f>'Molded Items'!C116</f>
         <v>Fibers (kevlar)</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>1994</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>1987</v>
       </c>
-      <c r="G14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Kevlar Pants</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H14" s="2" t="s">
+        <v>1981</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14">
+        <v>40</v>
+      </c>
+      <c r="M14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1930</v>
-      </c>
-      <c r="C15" s="2" t="str">
-        <f>[1]Enums!$A$117</f>
-        <v>Armor Feet</v>
-      </c>
-      <c r="D15" s="2" t="str">
-        <f>D14</f>
+        <v>1926</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>2032</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>2139</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>2206</v>
+      </c>
+      <c r="F15" s="2" t="str">
+        <f>F14</f>
         <v>Fibers (kevlar)</v>
       </c>
-      <c r="E15" s="2" t="str">
-        <f>E14</f>
+      <c r="G15" s="2" t="str">
+        <f>G14</f>
         <v>Kevlar</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>1988</v>
-      </c>
-      <c r="G15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Kevlar Shoes</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H15" s="2" t="s">
+        <v>1982</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15">
+        <v>40</v>
+      </c>
+      <c r="M15" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1931</v>
-      </c>
-      <c r="C16" s="2" t="str">
-        <f>[1]Enums!$A$118</f>
-        <v>Armor Chest</v>
-      </c>
-      <c r="D16" s="2" t="str">
-        <f>D14</f>
+        <v>1927</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>2033</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>2138</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>2205</v>
+      </c>
+      <c r="F16" s="2" t="str">
+        <f>F14</f>
         <v>Fibers (kevlar)</v>
       </c>
-      <c r="E16" s="2" t="str">
-        <f>E14</f>
+      <c r="G16" s="2" t="str">
+        <f>G14</f>
         <v>Kevlar</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>1989</v>
-      </c>
-      <c r="G16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Kevlar Vest</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" s="2" t="s">
+        <v>1983</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16">
+        <v>40</v>
+      </c>
+      <c r="M16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1932</v>
-      </c>
-      <c r="C17" s="2" t="str">
-        <f>[1]Enums!$A$119</f>
-        <v>Armor Headgear</v>
-      </c>
-      <c r="D17" s="2" t="str">
-        <f>D14</f>
+        <v>1928</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>2034</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>2137</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>2204</v>
+      </c>
+      <c r="F17" s="2" t="str">
+        <f>F14</f>
         <v>Fibers (kevlar)</v>
       </c>
-      <c r="E17" s="2" t="str">
-        <f>E14</f>
+      <c r="G17" s="2" t="str">
+        <f>G14</f>
         <v>Kevlar</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>1992</v>
-      </c>
-      <c r="G17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Kevlar Socks</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" s="2" t="s">
+        <v>1985</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17">
+        <v>40</v>
+      </c>
+      <c r="M17" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1933</v>
-      </c>
-      <c r="C18" s="2" t="str">
-        <f>[1]Enums!$A$116</f>
-        <v>Armor Leggings</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1929</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>2136</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1934</v>
-      </c>
-      <c r="C19" s="2" t="str">
-        <f>[1]Enums!$A$117</f>
-        <v>Armor Feet</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1930</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>2135</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C20" s="2" t="str">
-        <f>[1]Enums!$A$118</f>
-        <v>Armor Chest</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1931</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>2134</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1936</v>
-      </c>
-      <c r="C21" s="2" t="str">
-        <f>[1]Enums!$A$119</f>
-        <v>Armor Headgear</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1932</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>2038</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1937</v>
-      </c>
-      <c r="C22" s="2" t="str">
-        <f>[1]Enums!$A$116</f>
-        <v>Armor Leggings</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1933</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>2039</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>2132</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1938</v>
-      </c>
-      <c r="C23" s="2" t="str">
-        <f>[1]Enums!$A$117</f>
-        <v>Armor Feet</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1934</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>2040</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>2131</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1939</v>
-      </c>
-      <c r="C24" s="2" t="str">
-        <f>[1]Enums!$A$118</f>
-        <v>Armor Chest</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1935</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>2041</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>2130</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1940</v>
-      </c>
-      <c r="C25" s="2" t="str">
-        <f>[1]Enums!$A$119</f>
-        <v>Armor Headgear</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1936</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>2042</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>2129</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1941</v>
-      </c>
-      <c r="C26" s="2" t="str">
-        <f>[1]Enums!$A$116</f>
-        <v>Armor Leggings</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1937</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>2043</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>2128</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1942</v>
-      </c>
-      <c r="C27" s="2" t="str">
-        <f>[1]Enums!$A$117</f>
-        <v>Armor Feet</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1938</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>2044</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>2127</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1943</v>
-      </c>
-      <c r="C28" s="2" t="str">
-        <f>[1]Enums!$A$118</f>
-        <v>Armor Chest</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1939</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>2045</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>2126</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1944</v>
-      </c>
-      <c r="C29" s="2" t="str">
-        <f>[1]Enums!$A$119</f>
-        <v>Armor Headgear</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1940</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>2046</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>2125</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1945</v>
-      </c>
-      <c r="C30" s="2" t="str">
-        <f>[1]Enums!$A$116</f>
-        <v>Armor Leggings</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1941</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>2047</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>2124</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1946</v>
-      </c>
-      <c r="C31" s="2" t="str">
-        <f>[1]Enums!$A$117</f>
-        <v>Armor Feet</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1942</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>2048</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>2123</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1947</v>
-      </c>
-      <c r="C32" s="2" t="str">
-        <f>[1]Enums!$A$118</f>
-        <v>Armor Chest</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1943</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>2049</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>2122</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1948</v>
-      </c>
-      <c r="C33" s="2" t="str">
-        <f>[1]Enums!$A$119</f>
-        <v>Armor Headgear</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1944</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>2050</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>2121</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1949</v>
-      </c>
-      <c r="C34" s="2" t="str">
-        <f>[1]Enums!$A$116</f>
-        <v>Armor Leggings</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1945</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>2051</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>2120</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1950</v>
-      </c>
-      <c r="C35" s="2" t="str">
-        <f>[1]Enums!$A$117</f>
-        <v>Armor Feet</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1946</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>2052</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>2119</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1951</v>
-      </c>
-      <c r="C36" s="2" t="str">
-        <f>[1]Enums!$A$118</f>
-        <v>Armor Chest</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1947</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>2053</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1952</v>
-      </c>
-      <c r="C37" s="2" t="str">
-        <f>[1]Enums!$A$119</f>
-        <v>Armor Headgear</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1948</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>2054</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>2117</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1953</v>
-      </c>
-      <c r="C38" s="2" t="str">
-        <f>[1]Enums!$A$116</f>
-        <v>Armor Leggings</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1949</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>2055</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>2116</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1954</v>
-      </c>
-      <c r="C39" s="2" t="str">
-        <f>[1]Enums!$A$117</f>
-        <v>Armor Feet</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1950</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>2056</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>2115</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1955</v>
-      </c>
-      <c r="C40" s="2" t="str">
-        <f>[1]Enums!$A$118</f>
-        <v>Armor Chest</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1951</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>2057</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>2114</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>1956</v>
-      </c>
-      <c r="C41" s="2" t="str">
-        <f>[1]Enums!$A$119</f>
-        <v>Armor Headgear</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1952</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>2058</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>2113</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1953</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>2059</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>2112</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1958</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1954</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>2060</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>2111</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1959</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1955</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>2061</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>2110</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1960</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1956</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>2062</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>2109</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1961</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1957</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>2063</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>2108</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>1962</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1958</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>2064</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>2107</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1963</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1959</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>2065</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>2106</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1964</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1960</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>2066</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>2105</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1965</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1961</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>2067</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>2104</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1966</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1962</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>2068</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>1967</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1963</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>2069</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>2102</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1964</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>2070</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>1969</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1965</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>2071</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>2100</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1966</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>2099</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1967</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>2073</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>2098</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>1972</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1968</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>2074</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>2097</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1973</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1969</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>2075</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>2096</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1974</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1970</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>2076</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>2095</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1971</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>2077</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>2094</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>1976</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1972</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>2078</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>2093</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>1977</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1973</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>2079</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>2092</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>1978</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1974</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>2080</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>2091</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>1979</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1975</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>2081</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1976</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>2082</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>2089</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>1981</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1977</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>2083</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>2088</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>1982</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1978</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>2084</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>2087</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>2.0.0</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>1983</v>
+        <v>1979</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>2085</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>2086</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>2153</v>
       </c>
     </row>
   </sheetData>

--- a/config/Polycraft Polymers.xlsx
+++ b/config/Polycraft Polymers.xlsx
@@ -27,6 +27,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
   </externalReferences>
   <definedNames>
     <definedName name="All_Items">#REF!</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2297" uniqueCount="2231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2250" uniqueCount="2189">
   <si>
     <t>GC</t>
   </si>
@@ -5672,30 +5673,6 @@
     <t>2t</t>
   </si>
   <si>
-    <t>Hoe</t>
-  </si>
-  <si>
-    <t>Sword</t>
-  </si>
-  <si>
-    <t>Spade</t>
-  </si>
-  <si>
-    <t>Pickaxe</t>
-  </si>
-  <si>
-    <t>Knife</t>
-  </si>
-  <si>
-    <t>Base Item</t>
-  </si>
-  <si>
-    <t>Item Name</t>
-  </si>
-  <si>
-    <t>Base Material</t>
-  </si>
-  <si>
     <t>insole</t>
   </si>
   <si>
@@ -5798,195 +5775,6 @@
     <t>32</t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>4x</t>
-  </si>
-  <si>
-    <t>4y</t>
-  </si>
-  <si>
-    <t>4z</t>
-  </si>
-  <si>
-    <t>4A</t>
-  </si>
-  <si>
-    <t>4B</t>
-  </si>
-  <si>
-    <t>4C</t>
-  </si>
-  <si>
-    <t>4D</t>
-  </si>
-  <si>
-    <t>4E</t>
-  </si>
-  <si>
-    <t>4F</t>
-  </si>
-  <si>
-    <t>4G</t>
-  </si>
-  <si>
-    <t>4H</t>
-  </si>
-  <si>
-    <t>4I</t>
-  </si>
-  <si>
-    <t>4J</t>
-  </si>
-  <si>
-    <t>4K</t>
-  </si>
-  <si>
-    <t>4L</t>
-  </si>
-  <si>
-    <t>4M</t>
-  </si>
-  <si>
-    <t>4N</t>
-  </si>
-  <si>
-    <t>4O</t>
-  </si>
-  <si>
-    <t>4P</t>
-  </si>
-  <si>
-    <t>4Q</t>
-  </si>
-  <si>
-    <t>4R</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>4a</t>
-  </si>
-  <si>
-    <t>4b</t>
-  </si>
-  <si>
-    <t>4c</t>
-  </si>
-  <si>
-    <t>4d</t>
-  </si>
-  <si>
-    <t>4e</t>
-  </si>
-  <si>
-    <t>4f</t>
-  </si>
-  <si>
-    <t>4g</t>
-  </si>
-  <si>
-    <t>4h</t>
-  </si>
-  <si>
-    <t>5f</t>
-  </si>
-  <si>
-    <t>5w</t>
-  </si>
-  <si>
-    <t>5x</t>
-  </si>
-  <si>
-    <t>5K</t>
-  </si>
-  <si>
-    <t>5L</t>
-  </si>
-  <si>
-    <t>5M</t>
-  </si>
-  <si>
-    <t>5P</t>
-  </si>
-  <si>
-    <t>5Q</t>
-  </si>
-  <si>
-    <t>5R</t>
-  </si>
-  <si>
-    <t>5S</t>
-  </si>
-  <si>
-    <t>5T</t>
-  </si>
-  <si>
-    <t>5U</t>
-  </si>
-  <si>
-    <t>5V</t>
-  </si>
-  <si>
-    <t>5W</t>
-  </si>
-  <si>
-    <t>5X</t>
-  </si>
-  <si>
-    <t>5Y</t>
-  </si>
-  <si>
-    <t>5Z</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
     <t>Rubber</t>
   </si>
   <si>
@@ -6002,9 +5790,6 @@
     <t>Pleather</t>
   </si>
   <si>
-    <t>Socks</t>
-  </si>
-  <si>
     <t>Nylon</t>
   </si>
   <si>
@@ -6086,9 +5871,6 @@
     <t xml:space="preserve">VelocityOnGround, MovementDurationWear(MCMins), Source 1, Source 2 </t>
   </si>
   <si>
-    <t>Axe</t>
-  </si>
-  <si>
     <t>Durability (Int)</t>
   </si>
   <si>
@@ -6116,384 +5898,6 @@
     <t>13l</t>
   </si>
   <si>
-    <t>13m</t>
-  </si>
-  <si>
-    <t>13n</t>
-  </si>
-  <si>
-    <t>13o</t>
-  </si>
-  <si>
-    <t>13p</t>
-  </si>
-  <si>
-    <t>13q</t>
-  </si>
-  <si>
-    <t>13r</t>
-  </si>
-  <si>
-    <t>13s</t>
-  </si>
-  <si>
-    <t>13t</t>
-  </si>
-  <si>
-    <t>13u</t>
-  </si>
-  <si>
-    <t>13v</t>
-  </si>
-  <si>
-    <t>13w</t>
-  </si>
-  <si>
-    <t>13x</t>
-  </si>
-  <si>
-    <t>13y</t>
-  </si>
-  <si>
-    <t>13z</t>
-  </si>
-  <si>
-    <t>13A</t>
-  </si>
-  <si>
-    <t>13B</t>
-  </si>
-  <si>
-    <t>13C</t>
-  </si>
-  <si>
-    <t>13D</t>
-  </si>
-  <si>
-    <t>13E</t>
-  </si>
-  <si>
-    <t>13F</t>
-  </si>
-  <si>
-    <t>13G</t>
-  </si>
-  <si>
-    <t>13H</t>
-  </si>
-  <si>
-    <t>13I</t>
-  </si>
-  <si>
-    <t>13J</t>
-  </si>
-  <si>
-    <t>13K</t>
-  </si>
-  <si>
-    <t>13L</t>
-  </si>
-  <si>
-    <t>13M</t>
-  </si>
-  <si>
-    <t>13N</t>
-  </si>
-  <si>
-    <t>13O</t>
-  </si>
-  <si>
-    <t>13P</t>
-  </si>
-  <si>
-    <t>13Q</t>
-  </si>
-  <si>
-    <t>13R</t>
-  </si>
-  <si>
-    <t>13S</t>
-  </si>
-  <si>
-    <t>13T</t>
-  </si>
-  <si>
-    <t>13U</t>
-  </si>
-  <si>
-    <t>13V</t>
-  </si>
-  <si>
-    <t>13W</t>
-  </si>
-  <si>
-    <t>13X</t>
-  </si>
-  <si>
-    <t>13Y</t>
-  </si>
-  <si>
-    <t>13Z</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>14a</t>
-  </si>
-  <si>
-    <t>14b</t>
-  </si>
-  <si>
-    <t>14c</t>
-  </si>
-  <si>
-    <t>14d</t>
-  </si>
-  <si>
-    <t>14e</t>
-  </si>
-  <si>
-    <t>14f</t>
-  </si>
-  <si>
-    <t>14g</t>
-  </si>
-  <si>
-    <t>14h</t>
-  </si>
-  <si>
-    <t>14i</t>
-  </si>
-  <si>
-    <t>14j</t>
-  </si>
-  <si>
-    <t>14k</t>
-  </si>
-  <si>
-    <t>14l</t>
-  </si>
-  <si>
-    <t>14m</t>
-  </si>
-  <si>
-    <t>15r</t>
-  </si>
-  <si>
-    <t>15q</t>
-  </si>
-  <si>
-    <t>15p</t>
-  </si>
-  <si>
-    <t>15o</t>
-  </si>
-  <si>
-    <t>15n</t>
-  </si>
-  <si>
-    <t>15m</t>
-  </si>
-  <si>
-    <t>15l</t>
-  </si>
-  <si>
-    <t>15k</t>
-  </si>
-  <si>
-    <t>15j</t>
-  </si>
-  <si>
-    <t>15i</t>
-  </si>
-  <si>
-    <t>15h</t>
-  </si>
-  <si>
-    <t>15g</t>
-  </si>
-  <si>
-    <t>15f</t>
-  </si>
-  <si>
-    <t>15e</t>
-  </si>
-  <si>
-    <t>15d</t>
-  </si>
-  <si>
-    <t>15c</t>
-  </si>
-  <si>
-    <t>15b</t>
-  </si>
-  <si>
-    <t>15a</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>14Z</t>
-  </si>
-  <si>
-    <t>14Y</t>
-  </si>
-  <si>
-    <t>14X</t>
-  </si>
-  <si>
-    <t>14W</t>
-  </si>
-  <si>
-    <t>14V</t>
-  </si>
-  <si>
-    <t>14U</t>
-  </si>
-  <si>
-    <t>14T</t>
-  </si>
-  <si>
-    <t>14S</t>
-  </si>
-  <si>
-    <t>14R</t>
-  </si>
-  <si>
-    <t>14Q</t>
-  </si>
-  <si>
-    <t>14P</t>
-  </si>
-  <si>
-    <t>14O</t>
-  </si>
-  <si>
-    <t>14N</t>
-  </si>
-  <si>
-    <t>14M</t>
-  </si>
-  <si>
-    <t>14L</t>
-  </si>
-  <si>
-    <t>14K</t>
-  </si>
-  <si>
-    <t>14J</t>
-  </si>
-  <si>
-    <t>14I</t>
-  </si>
-  <si>
-    <t>14H</t>
-  </si>
-  <si>
-    <t>14G</t>
-  </si>
-  <si>
-    <t>14F</t>
-  </si>
-  <si>
-    <t>14E</t>
-  </si>
-  <si>
-    <t>14D</t>
-  </si>
-  <si>
-    <t>14C</t>
-  </si>
-  <si>
-    <t>14B</t>
-  </si>
-  <si>
-    <t>14A</t>
-  </si>
-  <si>
-    <t>14z</t>
-  </si>
-  <si>
-    <t>14y</t>
-  </si>
-  <si>
-    <t>14x</t>
-  </si>
-  <si>
-    <t>14w</t>
-  </si>
-  <si>
-    <t>14v</t>
-  </si>
-  <si>
-    <t>14u</t>
-  </si>
-  <si>
-    <t>14t</t>
-  </si>
-  <si>
-    <t>14s</t>
-  </si>
-  <si>
-    <t>14r</t>
-  </si>
-  <si>
     <t>14q</t>
   </si>
   <si>
@@ -6506,195 +5910,6 @@
     <t>14n</t>
   </si>
   <si>
-    <t>16w</t>
-  </si>
-  <si>
-    <t>16v</t>
-  </si>
-  <si>
-    <t>16u</t>
-  </si>
-  <si>
-    <t>16t</t>
-  </si>
-  <si>
-    <t>16s</t>
-  </si>
-  <si>
-    <t>16r</t>
-  </si>
-  <si>
-    <t>16q</t>
-  </si>
-  <si>
-    <t>16p</t>
-  </si>
-  <si>
-    <t>16o</t>
-  </si>
-  <si>
-    <t>16n</t>
-  </si>
-  <si>
-    <t>16m</t>
-  </si>
-  <si>
-    <t>16l</t>
-  </si>
-  <si>
-    <t>16k</t>
-  </si>
-  <si>
-    <t>16j</t>
-  </si>
-  <si>
-    <t>16i</t>
-  </si>
-  <si>
-    <t>16h</t>
-  </si>
-  <si>
-    <t>16g</t>
-  </si>
-  <si>
-    <t>16f</t>
-  </si>
-  <si>
-    <t>16e</t>
-  </si>
-  <si>
-    <t>16d</t>
-  </si>
-  <si>
-    <t>16c</t>
-  </si>
-  <si>
-    <t>16b</t>
-  </si>
-  <si>
-    <t>16a</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>15Z</t>
-  </si>
-  <si>
-    <t>15Y</t>
-  </si>
-  <si>
-    <t>15X</t>
-  </si>
-  <si>
-    <t>15W</t>
-  </si>
-  <si>
-    <t>15V</t>
-  </si>
-  <si>
-    <t>15U</t>
-  </si>
-  <si>
-    <t>15T</t>
-  </si>
-  <si>
-    <t>15S</t>
-  </si>
-  <si>
-    <t>15R</t>
-  </si>
-  <si>
-    <t>15Q</t>
-  </si>
-  <si>
-    <t>15P</t>
-  </si>
-  <si>
-    <t>15O</t>
-  </si>
-  <si>
-    <t>15N</t>
-  </si>
-  <si>
-    <t>15M</t>
-  </si>
-  <si>
-    <t>15L</t>
-  </si>
-  <si>
-    <t>15K</t>
-  </si>
-  <si>
-    <t>15J</t>
-  </si>
-  <si>
-    <t>15I</t>
-  </si>
-  <si>
-    <t>15H</t>
-  </si>
-  <si>
-    <t>15G</t>
-  </si>
-  <si>
-    <t>15F</t>
-  </si>
-  <si>
-    <t>15E</t>
-  </si>
-  <si>
-    <t>15D</t>
-  </si>
-  <si>
-    <t>15C</t>
-  </si>
-  <si>
-    <t>15B</t>
-  </si>
-  <si>
-    <t>15A</t>
-  </si>
-  <si>
-    <t>15z</t>
-  </si>
-  <si>
-    <t>15y</t>
-  </si>
-  <si>
-    <t>15x</t>
-  </si>
-  <si>
-    <t>15w</t>
-  </si>
-  <si>
     <t>15v</t>
   </si>
   <si>
@@ -6738,6 +5953,666 @@
   </si>
   <si>
     <t>Reduction Headgear (Int)</t>
+  </si>
+  <si>
+    <t>Hoe ID</t>
+  </si>
+  <si>
+    <t>Sword ID</t>
+  </si>
+  <si>
+    <t>Spade ID</t>
+  </si>
+  <si>
+    <t>Pickaxe ID</t>
+  </si>
+  <si>
+    <t>Axe ID</t>
+  </si>
+  <si>
+    <t>Knife ID</t>
+  </si>
+  <si>
+    <t>Tool Material Name</t>
+  </si>
+  <si>
+    <t>Crafting Item</t>
+  </si>
+  <si>
+    <t>Crafting Item Head</t>
+  </si>
+  <si>
+    <t>Crafting Item Shaft</t>
+  </si>
+  <si>
+    <t>Efficiency (Int)</t>
+  </si>
+  <si>
+    <t>17a</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>16Z</t>
+  </si>
+  <si>
+    <t>16Y</t>
+  </si>
+  <si>
+    <t>16X</t>
+  </si>
+  <si>
+    <t>16W</t>
+  </si>
+  <si>
+    <t>16V</t>
+  </si>
+  <si>
+    <t>16U</t>
+  </si>
+  <si>
+    <t>16T</t>
+  </si>
+  <si>
+    <t>16S</t>
+  </si>
+  <si>
+    <t>16R</t>
+  </si>
+  <si>
+    <t>16Q</t>
+  </si>
+  <si>
+    <t>16P</t>
+  </si>
+  <si>
+    <t>16O</t>
+  </si>
+  <si>
+    <t>16N</t>
+  </si>
+  <si>
+    <t>16M</t>
+  </si>
+  <si>
+    <t>16L</t>
+  </si>
+  <si>
+    <t>16K</t>
+  </si>
+  <si>
+    <t>16J</t>
+  </si>
+  <si>
+    <t>16I</t>
+  </si>
+  <si>
+    <t>16H</t>
+  </si>
+  <si>
+    <t>16G</t>
+  </si>
+  <si>
+    <t>16F</t>
+  </si>
+  <si>
+    <t>16E</t>
+  </si>
+  <si>
+    <t>16D</t>
+  </si>
+  <si>
+    <t>16C</t>
+  </si>
+  <si>
+    <t>16B</t>
+  </si>
+  <si>
+    <t>16A</t>
+  </si>
+  <si>
+    <t>16z</t>
+  </si>
+  <si>
+    <t>16y</t>
+  </si>
+  <si>
+    <t>16x</t>
+  </si>
+  <si>
+    <t>17O</t>
+  </si>
+  <si>
+    <t>17N</t>
+  </si>
+  <si>
+    <t>17M</t>
+  </si>
+  <si>
+    <t>17L</t>
+  </si>
+  <si>
+    <t>17K</t>
+  </si>
+  <si>
+    <t>17J</t>
+  </si>
+  <si>
+    <t>17I</t>
+  </si>
+  <si>
+    <t>17H</t>
+  </si>
+  <si>
+    <t>17G</t>
+  </si>
+  <si>
+    <t>17F</t>
+  </si>
+  <si>
+    <t>17E</t>
+  </si>
+  <si>
+    <t>17D</t>
+  </si>
+  <si>
+    <t>17C</t>
+  </si>
+  <si>
+    <t>17B</t>
+  </si>
+  <si>
+    <t>17A</t>
+  </si>
+  <si>
+    <t>17z</t>
+  </si>
+  <si>
+    <t>17y</t>
+  </si>
+  <si>
+    <t>17x</t>
+  </si>
+  <si>
+    <t>17w</t>
+  </si>
+  <si>
+    <t>17v</t>
+  </si>
+  <si>
+    <t>17u</t>
+  </si>
+  <si>
+    <t>17t</t>
+  </si>
+  <si>
+    <t>17s</t>
+  </si>
+  <si>
+    <t>17r</t>
+  </si>
+  <si>
+    <t>17q</t>
+  </si>
+  <si>
+    <t>17p</t>
+  </si>
+  <si>
+    <t>17o</t>
+  </si>
+  <si>
+    <t>17n</t>
+  </si>
+  <si>
+    <t>17m</t>
+  </si>
+  <si>
+    <t>17l</t>
+  </si>
+  <si>
+    <t>17k</t>
+  </si>
+  <si>
+    <t>17j</t>
+  </si>
+  <si>
+    <t>17i</t>
+  </si>
+  <si>
+    <t>17h</t>
+  </si>
+  <si>
+    <t>17g</t>
+  </si>
+  <si>
+    <t>17f</t>
+  </si>
+  <si>
+    <t>17e</t>
+  </si>
+  <si>
+    <t>17d</t>
+  </si>
+  <si>
+    <t>17c</t>
+  </si>
+  <si>
+    <t>17b</t>
+  </si>
+  <si>
+    <t>18s</t>
+  </si>
+  <si>
+    <t>18r</t>
+  </si>
+  <si>
+    <t>18q</t>
+  </si>
+  <si>
+    <t>18p</t>
+  </si>
+  <si>
+    <t>18o</t>
+  </si>
+  <si>
+    <t>18n</t>
+  </si>
+  <si>
+    <t>18m</t>
+  </si>
+  <si>
+    <t>18l</t>
+  </si>
+  <si>
+    <t>18k</t>
+  </si>
+  <si>
+    <t>18j</t>
+  </si>
+  <si>
+    <t>18i</t>
+  </si>
+  <si>
+    <t>18h</t>
+  </si>
+  <si>
+    <t>18g</t>
+  </si>
+  <si>
+    <t>18f</t>
+  </si>
+  <si>
+    <t>18e</t>
+  </si>
+  <si>
+    <t>18d</t>
+  </si>
+  <si>
+    <t>18c</t>
+  </si>
+  <si>
+    <t>18b</t>
+  </si>
+  <si>
+    <t>18a</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>17Z</t>
+  </si>
+  <si>
+    <t>17Y</t>
+  </si>
+  <si>
+    <t>17X</t>
+  </si>
+  <si>
+    <t>17W</t>
+  </si>
+  <si>
+    <t>17V</t>
+  </si>
+  <si>
+    <t>17U</t>
+  </si>
+  <si>
+    <t>17T</t>
+  </si>
+  <si>
+    <t>17S</t>
+  </si>
+  <si>
+    <t>17R</t>
+  </si>
+  <si>
+    <t>17Q</t>
+  </si>
+  <si>
+    <t>17P</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>18Z</t>
+  </si>
+  <si>
+    <t>18Y</t>
+  </si>
+  <si>
+    <t>18X</t>
+  </si>
+  <si>
+    <t>18W</t>
+  </si>
+  <si>
+    <t>18V</t>
+  </si>
+  <si>
+    <t>18U</t>
+  </si>
+  <si>
+    <t>18T</t>
+  </si>
+  <si>
+    <t>18S</t>
+  </si>
+  <si>
+    <t>18R</t>
+  </si>
+  <si>
+    <t>18Q</t>
+  </si>
+  <si>
+    <t>18P</t>
+  </si>
+  <si>
+    <t>18O</t>
+  </si>
+  <si>
+    <t>18N</t>
+  </si>
+  <si>
+    <t>18M</t>
+  </si>
+  <si>
+    <t>18L</t>
+  </si>
+  <si>
+    <t>18K</t>
+  </si>
+  <si>
+    <t>18J</t>
+  </si>
+  <si>
+    <t>18I</t>
+  </si>
+  <si>
+    <t>18H</t>
+  </si>
+  <si>
+    <t>18G</t>
+  </si>
+  <si>
+    <t>18F</t>
+  </si>
+  <si>
+    <t>18E</t>
+  </si>
+  <si>
+    <t>18D</t>
+  </si>
+  <si>
+    <t>18C</t>
+  </si>
+  <si>
+    <t>18B</t>
+  </si>
+  <si>
+    <t>18A</t>
+  </si>
+  <si>
+    <t>18z</t>
+  </si>
+  <si>
+    <t>18y</t>
+  </si>
+  <si>
+    <t>18x</t>
+  </si>
+  <si>
+    <t>18w</t>
+  </si>
+  <si>
+    <t>18v</t>
+  </si>
+  <si>
+    <t>18u</t>
+  </si>
+  <si>
+    <t>18t</t>
+  </si>
+  <si>
+    <t>19K</t>
+  </si>
+  <si>
+    <t>19J</t>
+  </si>
+  <si>
+    <t>19I</t>
+  </si>
+  <si>
+    <t>19H</t>
+  </si>
+  <si>
+    <t>19G</t>
+  </si>
+  <si>
+    <t>19F</t>
+  </si>
+  <si>
+    <t>19E</t>
+  </si>
+  <si>
+    <t>19D</t>
+  </si>
+  <si>
+    <t>19C</t>
+  </si>
+  <si>
+    <t>19B</t>
+  </si>
+  <si>
+    <t>19A</t>
+  </si>
+  <si>
+    <t>19z</t>
+  </si>
+  <si>
+    <t>19y</t>
+  </si>
+  <si>
+    <t>19x</t>
+  </si>
+  <si>
+    <t>19w</t>
+  </si>
+  <si>
+    <t>19v</t>
+  </si>
+  <si>
+    <t>19u</t>
+  </si>
+  <si>
+    <t>19t</t>
+  </si>
+  <si>
+    <t>19s</t>
+  </si>
+  <si>
+    <t>19r</t>
+  </si>
+  <si>
+    <t>19q</t>
+  </si>
+  <si>
+    <t>19p</t>
+  </si>
+  <si>
+    <t>19o</t>
+  </si>
+  <si>
+    <t>19n</t>
+  </si>
+  <si>
+    <t>19m</t>
+  </si>
+  <si>
+    <t>19l</t>
+  </si>
+  <si>
+    <t>19k</t>
+  </si>
+  <si>
+    <t>19j</t>
+  </si>
+  <si>
+    <t>19i</t>
+  </si>
+  <si>
+    <t>19h</t>
+  </si>
+  <si>
+    <t>19g</t>
+  </si>
+  <si>
+    <t>19f</t>
+  </si>
+  <si>
+    <t>19e</t>
+  </si>
+  <si>
+    <t>19d</t>
+  </si>
+  <si>
+    <t>19c</t>
+  </si>
+  <si>
+    <t>19b</t>
+  </si>
+  <si>
+    <t>19a</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>19L</t>
+  </si>
+  <si>
+    <t>19M</t>
+  </si>
+  <si>
+    <t>19N</t>
+  </si>
+  <si>
+    <t>Hat</t>
+  </si>
+  <si>
+    <t>Underwater Buff</t>
+  </si>
+  <si>
+    <t>Ladder Buff</t>
+  </si>
+  <si>
+    <t>2.0.0</t>
+  </si>
+  <si>
+    <t>2.0.1</t>
+  </si>
+  <si>
+    <t>2.0.2</t>
   </si>
 </sst>
 </file>
@@ -6842,7 +6717,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6914,6 +6789,9 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6999,11 +6877,6 @@
             <v>1.1.0</v>
           </cell>
         </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>2.0.0</v>
-          </cell>
-        </row>
         <row r="21">
           <cell r="A21" t="str">
             <v>Bag</v>
@@ -7097,6 +6970,16 @@
         <row r="101">
           <cell r="A101" t="str">
             <v>Magic</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="A130" t="str">
+            <v>Composite</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="A131" t="str">
+            <v>Engineered</v>
           </cell>
         </row>
       </sheetData>
@@ -7237,18 +7120,7 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>Steel</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>Stainless Steel</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8">
         <row r="1">
@@ -7319,10 +7191,10 @@
         </row>
         <row r="7">
           <cell r="B7" t="str">
-            <v>Cellulose Diacetate</v>
+            <v>Carbon Fiber</v>
           </cell>
           <cell r="C7" t="str">
-            <v>CDAP</v>
+            <v>Carbon</v>
           </cell>
           <cell r="D7" t="b">
             <v>1</v>
@@ -8658,7 +8530,306 @@
             <v>Plastic Brick (2 x 8)</v>
           </cell>
         </row>
+        <row r="29">
+          <cell r="B29" t="str">
+            <v>Tool Shaft</v>
+          </cell>
+        </row>
       </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Custom Objects"/>
+      <sheetName val="Internal Objects"/>
+      <sheetName val="Ores"/>
+      <sheetName val="Ingots"/>
+      <sheetName val="Compressed Blocks"/>
+      <sheetName val="Catalysts"/>
+      <sheetName val="Element Vessels"/>
+      <sheetName val="Compound Vessels"/>
+      <sheetName val="CV Links"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>Magnesium Ingot</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>Element</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>Magnesium</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>Titanium Ingot</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>Element</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>Titanium</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4" t="str">
+            <v>Manganese Ingot</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>Element</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>Manganese</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5" t="str">
+            <v>Cobalt Ingot</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>Element</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>Cobalt</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6" t="str">
+            <v>Nickel Ingot</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>Element</v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>Nickel</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7" t="str">
+            <v>Copper Ingot</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>Element</v>
+          </cell>
+          <cell r="E7" t="str">
+            <v>Copper</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8" t="str">
+            <v>Zinc Ingot</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>Element</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>Zinc</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9" t="str">
+            <v>Palladium Ingot</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>Element</v>
+          </cell>
+          <cell r="E9" t="str">
+            <v>Palladium</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10" t="str">
+            <v>Silver Ingot</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>Element</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>Silver</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11" t="str">
+            <v>Antimony Ingot</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>Element</v>
+          </cell>
+          <cell r="E11" t="str">
+            <v>Antimony</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12" t="str">
+            <v>Tungsten Ingot</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>Element</v>
+          </cell>
+          <cell r="E12" t="str">
+            <v>Tungsten</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13" t="str">
+            <v>Platinum Ingot</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>Element</v>
+          </cell>
+          <cell r="E13" t="str">
+            <v>Platinum</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14" t="str">
+            <v>Plumbum (Lead) Ingot</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>Element</v>
+          </cell>
+          <cell r="E14" t="str">
+            <v>Plumbum (Lead)</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15" t="str">
+            <v>Bismuth Ingot</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>Element</v>
+          </cell>
+          <cell r="E15" t="str">
+            <v>Bismuth</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16" t="str">
+            <v>Aluminum Ingot</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>Element</v>
+          </cell>
+          <cell r="E16" t="str">
+            <v>Aluminum</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17" t="str">
+            <v>Steel Ingot</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>Alloy</v>
+          </cell>
+          <cell r="E17" t="str">
+            <v>Steel</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="C18" t="str">
+            <v>Stainless Steel Ingot</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>Alloy</v>
+          </cell>
+          <cell r="E18" t="str">
+            <v>Stainless Steel</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="C19" t="str">
+            <v>Brass Ingot</v>
+          </cell>
+          <cell r="D19" t="str">
+            <v>Alloy</v>
+          </cell>
+          <cell r="E19" t="str">
+            <v>Brass</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="C20" t="str">
+            <v>Bronze Ingot</v>
+          </cell>
+          <cell r="D20" t="str">
+            <v>Alloy</v>
+          </cell>
+          <cell r="E20" t="str">
+            <v>Bronze</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21" t="str">
+            <v>Tin Ingot</v>
+          </cell>
+          <cell r="D21" t="str">
+            <v>Element</v>
+          </cell>
+          <cell r="E21" t="str">
+            <v>Tin</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22" t="str">
+            <v>Chrome Ingot</v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>Mineral</v>
+          </cell>
+          <cell r="E22" t="str">
+            <v>Chromite</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>Tungsten Carbide Ingot</v>
+          </cell>
+          <cell r="D23" t="str">
+            <v>Alloy</v>
+          </cell>
+          <cell r="E23" t="str">
+            <v>Tungsten Carbide</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24" t="str">
+            <v>Nichrome Ingot</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>Alloy</v>
+          </cell>
+          <cell r="E24" t="str">
+            <v>Nichrome</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25" t="str">
+            <v>Antimony-Lead Ingot</v>
+          </cell>
+          <cell r="D25" t="str">
+            <v>Alloy</v>
+          </cell>
+          <cell r="E25" t="str">
+            <v>Antimony-Lead</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -8932,8 +9103,8 @@
   </sheetPr>
   <dimension ref="A1:N333"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9263,7 +9434,10 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="str">
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
+      </c>
       <c r="B7" s="3" t="s">
         <v>431</v>
       </c>
@@ -9278,23 +9452,23 @@
       </c>
       <c r="F7" s="1" t="str">
         <f>IF($N7, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Bag (Cellulose Diacetate Pellets)</v>
+        <v>Bag (Carbon Fiber Pellets)</v>
       </c>
       <c r="G7" s="1" t="str">
         <f>IF($N7, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Sack (Cellulose Diacetate Pellets)</v>
+        <v>Sack (Carbon Fiber Pellets)</v>
       </c>
       <c r="H7" s="1" t="str">
         <f>IF($N7, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Powder Keg (Cellulose Diacetate Pellets)</v>
+        <v>Powder Keg (Carbon Fiber Pellets)</v>
       </c>
       <c r="I7" s="1" t="str">
         <f>IF($N7, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Chemical Silo (Cellulose Diacetate Pellets)</v>
+        <v>Chemical Silo (Carbon Fiber Pellets)</v>
       </c>
       <c r="J7" s="1" t="str">
         <f>[1]Polymers!$B7</f>
-        <v>Cellulose Diacetate</v>
+        <v>Carbon Fiber</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -9304,7 +9478,7 @@
       </c>
       <c r="M7" s="2" t="str">
         <f>[1]Polymers!$C7</f>
-        <v>CDAP</v>
+        <v>Carbon</v>
       </c>
       <c r="N7" s="2" t="b">
         <f>[1]Polymers!$D7</f>
@@ -14722,16 +14896,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>1890</v>
+        <v>1882</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>1889</v>
+        <v>1881</v>
       </c>
       <c r="D115" s="16" t="s">
-        <v>1888</v>
+        <v>1880</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>1887</v>
+        <v>1879</v>
       </c>
       <c r="F115" s="1" t="str">
         <f>IF($N115, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
@@ -15433,527 +15607,1318 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="3" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="str">
         <f>[1]Enums!$A$1</f>
         <v>Version</v>
       </c>
-      <c r="B1" s="32" t="str">
-        <f xml:space="preserve"> '[1]Game IDs'!A1</f>
-        <v>Game ID</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>1880</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>1882</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>1881</v>
-      </c>
-      <c r="F1" s="36" t="str">
-        <f xml:space="preserve"> [1]Enums!$A$95</f>
-        <v>Base Material</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>1814</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>1813</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>1784</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>1783</v>
-      </c>
-      <c r="K1" s="28" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B1" s="32" t="s">
+        <v>1969</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>1970</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>1971</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>1972</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>1973</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>1974</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>1978</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>1977</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>1975</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>1941</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>1964</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>1979</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>2184</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>1835</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>1875</v>
-      </c>
-      <c r="D2" s="2" t="str">
-        <f>[1]Alloys!$B$2</f>
-        <v>Steel</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" t="str">
-        <f>[1]Enums!$A$98</f>
-        <v>Iron</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C2" s="3" t="s">
+        <v>2019</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2059</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2099</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>2139</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>2179</v>
+      </c>
+      <c r="H2" s="43" t="str">
+        <f>'Molded Items'!$C$151</f>
+        <v>Tool Shaft (Carbon)</v>
+      </c>
+      <c r="I2" s="43" t="str">
+        <f>[2]Ingots!$C$17</f>
+        <v>Steel Ingot</v>
+      </c>
+      <c r="J2" s="45" t="str">
+        <f>[1]Enums!$A$130&amp;" "&amp;VLOOKUP(I2, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <v>Composite Steel</v>
+      </c>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>1836</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>1876</v>
-      </c>
-      <c r="D3" s="2" t="str">
-        <f>[1]Alloys!$B$2</f>
-        <v>Steel</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="str">
-        <f>[1]Enums!$A$98</f>
-        <v>Iron</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C3" s="3" t="s">
+        <v>2018</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2058</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2098</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>2138</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>2178</v>
+      </c>
+      <c r="H3" s="43" t="str">
+        <f>'Molded Items'!$C$151</f>
+        <v>Tool Shaft (Carbon)</v>
+      </c>
+      <c r="I3" s="43" t="str">
+        <f>[2]Ingots!$C$18</f>
+        <v>Stainless Steel Ingot</v>
+      </c>
+      <c r="J3" s="45" t="str">
+        <f>[1]Enums!$A$130&amp;" "&amp;VLOOKUP(I3, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <v>Composite Stainless Steel</v>
+      </c>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="44"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>1837</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>1877</v>
-      </c>
-      <c r="D4" s="2" t="str">
-        <f>[1]Alloys!$B$2</f>
-        <v>Steel</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" t="str">
-        <f>[1]Enums!$A$98</f>
-        <v>Iron</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C4" s="3" t="s">
+        <v>2017</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2057</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>2097</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>2137</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>2177</v>
+      </c>
+      <c r="H4" s="43" t="str">
+        <f>'Molded Items'!$C$151</f>
+        <v>Tool Shaft (Carbon)</v>
+      </c>
+      <c r="I4" s="43" t="str">
+        <f>[2]Ingots!$C$19</f>
+        <v>Brass Ingot</v>
+      </c>
+      <c r="J4" s="45" t="str">
+        <f>[1]Enums!$A$130&amp;" "&amp;VLOOKUP(I4, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <v>Composite Brass</v>
+      </c>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>1838</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>1878</v>
-      </c>
-      <c r="D5" s="2" t="str">
-        <f>[1]Alloys!$B$2</f>
-        <v>Steel</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="str">
-        <f>[1]Enums!$A$98</f>
-        <v>Iron</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C5" s="3" t="s">
+        <v>2016</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2056</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>2096</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>2136</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>2176</v>
+      </c>
+      <c r="H5" s="43" t="str">
+        <f>'Molded Items'!$C$151</f>
+        <v>Tool Shaft (Carbon)</v>
+      </c>
+      <c r="I5" s="43" t="str">
+        <f>[2]Ingots!$C$20</f>
+        <v>Bronze Ingot</v>
+      </c>
+      <c r="J5" s="45" t="str">
+        <f>[1]Enums!$A$130&amp;" "&amp;VLOOKUP(I5, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <v>Composite Bronze</v>
+      </c>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="44"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>1839</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>2013</v>
-      </c>
-      <c r="D6" s="2" t="str">
-        <f>[1]Alloys!$B$2</f>
-        <v>Steel</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" t="str">
-        <f>[1]Enums!$A$98</f>
-        <v>Iron</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C6" s="3" t="s">
+        <v>2015</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>2055</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>2095</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>2135</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>2175</v>
+      </c>
+      <c r="H6" s="43" t="str">
+        <f>'Molded Items'!$C$151</f>
+        <v>Tool Shaft (Carbon)</v>
+      </c>
+      <c r="I6" s="43" t="str">
+        <f>[2]Ingots!$C$23</f>
+        <v>Tungsten Carbide Ingot</v>
+      </c>
+      <c r="J6" s="45" t="str">
+        <f>[1]Enums!$A$130&amp;" "&amp;VLOOKUP(I6, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <v>Composite Tungsten Carbide</v>
+      </c>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>1840</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>1879</v>
-      </c>
-      <c r="D7" s="2" t="str">
-        <f>[1]Alloys!$B$2</f>
-        <v>Steel</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="str">
-        <f>[1]Enums!$A$98</f>
-        <v>Iron</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C7" s="3" t="s">
+        <v>2014</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>2054</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>2094</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>2134</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>2174</v>
+      </c>
+      <c r="H7" s="43" t="str">
+        <f>'Molded Items'!$C$151</f>
+        <v>Tool Shaft (Carbon)</v>
+      </c>
+      <c r="I7" s="43" t="str">
+        <f>[2]Ingots!$C$24</f>
+        <v>Nichrome Ingot</v>
+      </c>
+      <c r="J7" s="45" t="str">
+        <f>[1]Enums!$A$130&amp;" "&amp;VLOOKUP(I7, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <v>Composite Nichrome</v>
+      </c>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="44"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>1841</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="str">
-        <f>[1]Alloys!$B$2</f>
-        <v>Steel</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" t="str">
-        <f>[1]Enums!$A$98</f>
-        <v>Iron</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C8" s="3" t="s">
+        <v>2013</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>2053</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>2093</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>2133</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>2173</v>
+      </c>
+      <c r="H8" s="43" t="str">
+        <f>'Molded Items'!$C$151</f>
+        <v>Tool Shaft (Carbon)</v>
+      </c>
+      <c r="I8" s="43" t="str">
+        <f>[2]Ingots!$C$25</f>
+        <v>Antimony-Lead Ingot</v>
+      </c>
+      <c r="J8" s="45" t="str">
+        <f>[1]Enums!$A$130&amp;" "&amp;VLOOKUP(I8, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <v>Composite Antimony-Lead</v>
+      </c>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>1842</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="str">
-        <f>[1]Alloys!$B$2</f>
-        <v>Steel</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="str">
-        <f>[1]Enums!$A$98</f>
-        <v>Iron</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C9" s="3" t="s">
+        <v>2012</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>2052</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>2092</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>2132</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>2172</v>
+      </c>
+      <c r="H9" s="44" t="str">
+        <f>'Molded Items'!$C$150</f>
+        <v>Tool Shaft (PEEK)</v>
+      </c>
+      <c r="I9" s="43" t="str">
+        <f>[2]Ingots!$C$17</f>
+        <v>Steel Ingot</v>
+      </c>
+      <c r="J9" s="45" t="str">
+        <f>[1]Enums!$A$131&amp;" "&amp;VLOOKUP(I9, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <v>Engineered Steel</v>
+      </c>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="44"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>1843</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="str">
-        <f>[1]Alloys!$B$2</f>
-        <v>Steel</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" t="str">
-        <f>[1]Enums!$A$98</f>
-        <v>Iron</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C10" s="3" t="s">
+        <v>2011</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>2051</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>2091</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>2131</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>2171</v>
+      </c>
+      <c r="H10" s="44" t="str">
+        <f>'Molded Items'!$C$150</f>
+        <v>Tool Shaft (PEEK)</v>
+      </c>
+      <c r="I10" s="43" t="str">
+        <f>[2]Ingots!$C$18</f>
+        <v>Stainless Steel Ingot</v>
+      </c>
+      <c r="J10" s="45" t="str">
+        <f>[1]Enums!$A$131&amp;" "&amp;VLOOKUP(I10, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <v>Engineered Stainless Steel</v>
+      </c>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>1844</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="str">
-        <f>[1]Alloys!$B$3</f>
-        <v>Stainless Steel</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C11" s="3" t="s">
+        <v>2010</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>2050</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>2090</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>2130</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>2170</v>
+      </c>
+      <c r="H11" s="44" t="str">
+        <f>'Molded Items'!$C$150</f>
+        <v>Tool Shaft (PEEK)</v>
+      </c>
+      <c r="I11" s="43" t="str">
+        <f>[2]Ingots!$C$19</f>
+        <v>Brass Ingot</v>
+      </c>
+      <c r="J11" s="45" t="str">
+        <f>[1]Enums!$A$131&amp;" "&amp;VLOOKUP(I11, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <v>Engineered Brass</v>
+      </c>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="44"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>1845</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C12" s="3" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>2049</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>2089</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>2129</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>2169</v>
+      </c>
+      <c r="H12" s="44" t="str">
+        <f>'Molded Items'!$C$150</f>
+        <v>Tool Shaft (PEEK)</v>
+      </c>
+      <c r="I12" s="43" t="str">
+        <f>[2]Ingots!$C$20</f>
+        <v>Bronze Ingot</v>
+      </c>
+      <c r="J12" s="45" t="str">
+        <f>[1]Enums!$A$131&amp;" "&amp;VLOOKUP(I12, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <v>Engineered Bronze</v>
+      </c>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>1846</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C13" s="3" t="s">
+        <v>2008</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>2048</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>2088</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>2128</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>2168</v>
+      </c>
+      <c r="H13" s="44" t="str">
+        <f>'Molded Items'!$C$150</f>
+        <v>Tool Shaft (PEEK)</v>
+      </c>
+      <c r="I13" s="43" t="str">
+        <f>[2]Ingots!$C$23</f>
+        <v>Tungsten Carbide Ingot</v>
+      </c>
+      <c r="J13" s="45" t="str">
+        <f>[1]Enums!$A$131&amp;" "&amp;VLOOKUP(I13, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <v>Engineered Tungsten Carbide</v>
+      </c>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="44"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>1847</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C14" s="3" t="s">
+        <v>2007</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>2047</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>2087</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>2127</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>2167</v>
+      </c>
+      <c r="H14" s="44" t="str">
+        <f>'Molded Items'!$C$150</f>
+        <v>Tool Shaft (PEEK)</v>
+      </c>
+      <c r="I14" s="43" t="str">
+        <f>[2]Ingots!$C$24</f>
+        <v>Nichrome Ingot</v>
+      </c>
+      <c r="J14" s="45" t="str">
+        <f>[1]Enums!$A$131&amp;" "&amp;VLOOKUP(I14, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <v>Engineered Nichrome</v>
+      </c>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>1848</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
+      <c r="C15" s="3" t="s">
+        <v>2006</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>2046</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>2086</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>2126</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>2166</v>
+      </c>
+      <c r="H15" s="44" t="str">
+        <f>'Molded Items'!$C$150</f>
+        <v>Tool Shaft (PEEK)</v>
+      </c>
+      <c r="I15" s="43" t="str">
+        <f>[2]Ingots!$C$25</f>
+        <v>Antimony-Lead Ingot</v>
+      </c>
+      <c r="J15" s="45" t="str">
+        <f>[1]Enums!$A$131&amp;" "&amp;VLOOKUP(I15, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <v>Engineered Antimony-Lead</v>
+      </c>
+      <c r="K15" s="44"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="44"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="23"/>
       <c r="B16" s="16" t="s">
         <v>1849</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
+      <c r="C16" s="3" t="s">
+        <v>2005</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>2045</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>2085</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>2125</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>2165</v>
+      </c>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="23"/>
       <c r="B17" s="16" t="s">
         <v>1850</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
+      <c r="C17" s="3" t="s">
+        <v>2004</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>2044</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>2084</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>2124</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>2164</v>
+      </c>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="44"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="23"/>
       <c r="B18" s="16" t="s">
         <v>1851</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
+      <c r="C18" s="3" t="s">
+        <v>2003</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>2043</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>2083</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>2123</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>2163</v>
+      </c>
+      <c r="H18" s="43"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="23"/>
       <c r="B19" s="16" t="s">
         <v>1852</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
+      <c r="C19" s="3" t="s">
+        <v>2002</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>2042</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>2082</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>2122</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>2162</v>
+      </c>
+      <c r="H19" s="43"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="23"/>
       <c r="B20" s="16" t="s">
         <v>1853</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
+      <c r="C20" s="3" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>2041</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>2081</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>2121</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>2161</v>
+      </c>
+      <c r="H20" s="43"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="23"/>
       <c r="B21" s="16" t="s">
         <v>1854</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
+      <c r="C21" s="3" t="s">
+        <v>2000</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>2040</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>2080</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>2120</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>2160</v>
+      </c>
+      <c r="H21" s="43"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="23"/>
       <c r="B22" s="16" t="s">
         <v>1855</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
+      <c r="C22" s="3" t="s">
+        <v>1999</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>2079</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>2119</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>2159</v>
+      </c>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="23"/>
       <c r="B23" s="16" t="s">
         <v>1856</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
+      <c r="C23" s="3" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>2038</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>2078</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>2118</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>2158</v>
+      </c>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="23"/>
       <c r="B24" s="16" t="s">
         <v>1857</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
+      <c r="C24" s="3" t="s">
+        <v>1997</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>2037</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>2077</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>2117</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>2157</v>
+      </c>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="23"/>
       <c r="B25" s="16" t="s">
         <v>1858</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
+      <c r="C25" s="3" t="s">
+        <v>1996</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>2036</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>2076</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>2116</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>2156</v>
+      </c>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="23"/>
       <c r="B26" s="16" t="s">
         <v>1859</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
+      <c r="C26" s="3" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>2035</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>2075</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>2115</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>2155</v>
+      </c>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="23"/>
       <c r="B27" s="16" t="s">
         <v>1860</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
+      <c r="C27" s="3" t="s">
+        <v>1994</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>2034</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>2074</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>2114</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>2154</v>
+      </c>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="23"/>
       <c r="B28" s="16" t="s">
         <v>1861</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
+      <c r="C28" s="3" t="s">
+        <v>1993</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>2033</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>2073</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>2113</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>2153</v>
+      </c>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="23"/>
       <c r="B29" s="16" t="s">
         <v>1862</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
+      <c r="C29" s="3" t="s">
+        <v>1992</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>2032</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>2072</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>2112</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>2152</v>
+      </c>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="23"/>
       <c r="B30" s="16" t="s">
         <v>1863</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
+      <c r="C30" s="3" t="s">
+        <v>1991</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>2031</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>2071</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>2111</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>2151</v>
+      </c>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="23"/>
       <c r="B31" s="16" t="s">
         <v>1864</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
+      <c r="C31" s="3" t="s">
+        <v>1990</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>2030</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>2070</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>2110</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>2150</v>
+      </c>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="23"/>
       <c r="B32" s="16" t="s">
         <v>1865</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
+      <c r="C32" s="3" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>2029</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>2069</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>2109</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>2149</v>
+      </c>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="23"/>
       <c r="B33" s="16" t="s">
         <v>1866</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
+      <c r="C33" s="3" t="s">
+        <v>1988</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>2028</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>2108</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>2148</v>
+      </c>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="23"/>
       <c r="B34" s="16" t="s">
         <v>1867</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
+      <c r="C34" s="3" t="s">
+        <v>1987</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>2027</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>2067</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>2107</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>2147</v>
+      </c>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="23"/>
       <c r="B35" s="16" t="s">
         <v>1868</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
+      <c r="C35" s="3" t="s">
+        <v>1986</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>2026</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>2066</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>2106</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>2146</v>
+      </c>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="23"/>
       <c r="B36" s="16" t="s">
         <v>1869</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
+      <c r="C36" s="3" t="s">
+        <v>1985</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>2025</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>2065</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>2105</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>2145</v>
+      </c>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="44"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="23"/>
       <c r="B37" s="16" t="s">
         <v>1870</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
+      <c r="C37" s="3" t="s">
+        <v>1984</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>2024</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>2064</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>2104</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>2144</v>
+      </c>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="23"/>
       <c r="B38" s="16" t="s">
         <v>1871</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
+      <c r="C38" s="3" t="s">
+        <v>1983</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>2023</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>2063</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>2103</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>2143</v>
+      </c>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="23"/>
       <c r="B39" s="16" t="s">
         <v>1872</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
+      <c r="C39" s="3" t="s">
+        <v>1982</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>2022</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>2062</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>2102</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>2142</v>
+      </c>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="23"/>
       <c r="B40" s="16" t="s">
         <v>1873</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
+      <c r="C40" s="3" t="s">
+        <v>1981</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>2061</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>2141</v>
+      </c>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="23"/>
       <c r="B41" s="16" t="s">
         <v>1874</v>
       </c>
+      <c r="C41" s="3" t="s">
+        <v>1980</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>2020</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>2060</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>2100</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>2140</v>
+      </c>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17557,7 +18522,7 @@
         <v>595</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>1902</v>
+        <v>1894</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>566</v>
@@ -19143,9 +20108,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="A7" s="2" t="str">
         <f>Pellets!A7</f>
-        <v>0</v>
+        <v>1.1.0</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>812</v>
@@ -19155,15 +20120,15 @@
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Block (CDAP)</v>
+        <v>Block (Carbon)</v>
       </c>
       <c r="E7" s="1" t="str">
         <f xml:space="preserve"> Pellets!G7</f>
-        <v>Sack (Cellulose Diacetate Pellets)</v>
+        <v>Sack (Carbon Fiber Pellets)</v>
       </c>
       <c r="F7" s="1" t="str">
         <f>VLOOKUP(E7, Pellets!G:M, 7,FALSE)</f>
-        <v>CDAP</v>
+        <v>Carbon</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -22064,10 +23029,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B115" s="40" t="s">
-        <v>1892</v>
+        <v>1884</v>
       </c>
       <c r="C115" s="40" t="s">
-        <v>1893</v>
+        <v>1885</v>
       </c>
       <c r="D115" s="1" t="str">
         <f t="shared" si="3"/>
@@ -22751,7 +23716,7 @@
   </sheetPr>
   <dimension ref="A1:I333"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
@@ -22972,9 +23937,9 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="A7" s="2" t="str">
         <f>Pellets!A7</f>
-        <v>0</v>
+        <v>1.1.0</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>1256</v>
@@ -22990,15 +23955,15 @@
       </c>
       <c r="F7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Slab (CDAP)</v>
+        <v>Slab (Carbon)</v>
       </c>
       <c r="G7" s="1" t="str">
         <f xml:space="preserve"> 'Blocks (Poly)'!D7</f>
-        <v>Block (CDAP)</v>
+        <v>Block (Carbon)</v>
       </c>
       <c r="H7" s="1" t="str">
         <f>VLOOKUP(G7,'Blocks (Poly)'!D:F, 3, FALSE)</f>
-        <v>CDAP</v>
+        <v>Carbon</v>
       </c>
       <c r="I7">
         <f>'Blocks (Poly)'!G7/2</f>
@@ -26649,16 +27614,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B115" s="40" t="s">
-        <v>1894</v>
+        <v>1886</v>
       </c>
       <c r="C115" s="40" t="s">
-        <v>1895</v>
+        <v>1887</v>
       </c>
       <c r="D115" s="40" t="s">
-        <v>1896</v>
+        <v>1888</v>
       </c>
       <c r="E115" s="40" t="s">
-        <v>1897</v>
+        <v>1889</v>
       </c>
       <c r="F115" s="1" t="str">
         <f t="shared" si="3"/>
@@ -27521,9 +28486,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="A7" s="2" t="str">
         <f>Pellets!A7</f>
-        <v>0</v>
+        <v>1.1.0</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>1493</v>
@@ -27533,15 +28498,15 @@
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Wall (CDAP)</v>
+        <v>Wall (Carbon)</v>
       </c>
       <c r="E7" s="1" t="str">
         <f xml:space="preserve"> 'Blocks (Poly)'!D7</f>
-        <v>Block (CDAP)</v>
+        <v>Block (Carbon)</v>
       </c>
       <c r="F7" s="1" t="str">
         <f>VLOOKUP(E7,'Blocks (Poly)'!D:F, 3, FALSE)</f>
-        <v>CDAP</v>
+        <v>Carbon</v>
       </c>
       <c r="G7">
         <f>'Slabs (Poly)'!I7</f>
@@ -30550,10 +31515,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B115" s="40" t="s">
-        <v>1898</v>
+        <v>1890</v>
       </c>
       <c r="C115" s="40" t="s">
-        <v>1899</v>
+        <v>1891</v>
       </c>
       <c r="D115" s="1" t="str">
         <f t="shared" si="3"/>
@@ -31416,9 +32381,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="A7" s="2" t="str">
         <f>Pellets!A7</f>
-        <v>0</v>
+        <v>1.1.0</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>1720</v>
@@ -31428,15 +32393,15 @@
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Stairs (CDAP)</v>
+        <v>Stairs (Carbon)</v>
       </c>
       <c r="E7" s="1" t="str">
         <f xml:space="preserve"> 'Blocks (Poly)'!D7</f>
-        <v>Block (CDAP)</v>
+        <v>Block (Carbon)</v>
       </c>
       <c r="F7" s="1" t="str">
         <f>VLOOKUP(E7,'Blocks (Poly)'!D:F, 3, FALSE)</f>
-        <v>CDAP</v>
+        <v>Carbon</v>
       </c>
       <c r="G7">
         <f>'Slabs (Poly)'!I7</f>
@@ -34445,10 +35410,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B115" s="40" t="s">
-        <v>1900</v>
+        <v>1892</v>
       </c>
       <c r="C115" s="40" t="s">
-        <v>1901</v>
+        <v>1893</v>
       </c>
       <c r="D115" s="1" t="str">
         <f t="shared" si="3"/>
@@ -35131,10 +36096,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -35178,7 +36143,7 @@
         <v>1756</v>
       </c>
       <c r="C2" s="10" t="str">
-        <f t="shared" ref="C2:C28" si="0">D2&amp;" ("&amp;E2&amp;")"</f>
+        <f t="shared" ref="C2:C29" si="0">D2&amp;" ("&amp;E2&amp;")"</f>
         <v>Mold (Grip)</v>
       </c>
       <c r="D2" s="10" t="str">
@@ -35786,7 +36751,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>1886</v>
+        <v>1878</v>
       </c>
       <c r="C27" s="10" t="str">
         <f t="shared" si="0"/>
@@ -35810,7 +36775,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1988</v>
+        <v>1916</v>
       </c>
       <c r="C28" s="10" t="str">
         <f t="shared" si="0"/>
@@ -35825,6 +36790,30 @@
         <v>Battery Case</v>
       </c>
       <c r="F28">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="str">
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>2180</v>
+      </c>
+      <c r="C29" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Mold (Tool Shaft)</v>
+      </c>
+      <c r="D29" s="10" t="str">
+        <f xml:space="preserve"> [1]Enums!$B$73</f>
+        <v>Mold</v>
+      </c>
+      <c r="E29" t="str">
+        <f>'[1]Polymer Objects'!$B29</f>
+        <v>Tool Shaft</v>
+      </c>
+      <c r="F29">
         <v>8192</v>
       </c>
     </row>
@@ -35840,8 +36829,8 @@
   </sheetPr>
   <dimension ref="A1:T156"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView showZeros="0" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="F151" sqref="F151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -36067,7 +37056,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>2012</v>
+        <v>1940</v>
       </c>
       <c r="K4" s="24">
         <v>0.25</v>
@@ -36094,7 +37083,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1992</v>
+        <v>1920</v>
       </c>
       <c r="C5" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D5, Molds!C:E, 3, FALSE)&amp;" ("&amp;F5&amp;")"</f>
@@ -36109,7 +37098,7 @@
         <v>Bag (Styrene-Butadiene Rubber Pellets)</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>1993</v>
+        <v>1921</v>
       </c>
       <c r="G5" s="24">
         <v>12</v>
@@ -36121,7 +37110,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>1994</v>
+        <v>1922</v>
       </c>
       <c r="K5" s="24">
         <v>0.35</v>
@@ -36169,7 +37158,7 @@
         <v>Bag (Ethylene-Vinyl Acetate Pellets)</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>1883</v>
+        <v>1875</v>
       </c>
       <c r="G6" s="24">
         <v>4</v>
@@ -36216,7 +37205,7 @@
         <v>Bag (PolyUrethane Pellets)</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>1884</v>
+        <v>1876</v>
       </c>
       <c r="G7" s="24">
         <v>4</v>
@@ -36260,7 +37249,7 @@
         <v>Bag (Ethylene-Propylene-Diene Monomer Pellets)</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>1885</v>
+        <v>1877</v>
       </c>
       <c r="G8" s="24">
         <v>4</v>
@@ -36304,7 +37293,7 @@
         <v>Bag (PolyIsoPrene Pellets)</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>1905</v>
+        <v>1897</v>
       </c>
       <c r="G9" s="24">
         <v>16</v>
@@ -36344,7 +37333,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>1907</v>
+        <v>1899</v>
       </c>
       <c r="C10" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D10, Molds!C:E, 3, FALSE)&amp;" ("&amp;F10&amp;")"</f>
@@ -36359,7 +37348,7 @@
         <v>Bag (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>1903</v>
+        <v>1895</v>
       </c>
       <c r="G10" s="24">
         <v>16</v>
@@ -36371,7 +37360,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>1997</v>
+        <v>1925</v>
       </c>
       <c r="K10" s="24">
         <v>0.3</v>
@@ -36402,7 +37391,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1995</v>
+        <v>1923</v>
       </c>
       <c r="C11" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D11, Molds!C:E, 3, FALSE)&amp;" ("&amp;F11&amp;")"</f>
@@ -36417,7 +37406,7 @@
         <v>Bag (Styrene-Butadiene Rubber Pellets)</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>1991</v>
+        <v>1919</v>
       </c>
       <c r="G11" s="24">
         <v>16</v>
@@ -36429,7 +37418,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>1996</v>
+        <v>1924</v>
       </c>
       <c r="K11" s="24">
         <v>0.4</v>
@@ -36466,7 +37455,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>1908</v>
+        <v>1900</v>
       </c>
       <c r="C12" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D12, Molds!C:E, 3, FALSE)&amp;" ("&amp;F12&amp;")"</f>
@@ -36481,7 +37470,7 @@
         <v>Bag (Ethylene-Propylene-Diene Monomer Pellets)</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>1904</v>
+        <v>1896</v>
       </c>
       <c r="G12" s="24">
         <v>16</v>
@@ -36493,7 +37482,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>1997</v>
+        <v>1925</v>
       </c>
       <c r="K12" s="24">
         <v>0.5</v>
@@ -36539,7 +37528,7 @@
         <v>Bag (PolyIsoPrene Pellets)</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>1905</v>
+        <v>1897</v>
       </c>
       <c r="G13" s="24">
         <v>12</v>
@@ -36575,7 +37564,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>1909</v>
+        <v>1901</v>
       </c>
       <c r="C14" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D14, Molds!C:E, 3, FALSE)&amp;" ("&amp;F14&amp;")"</f>
@@ -36590,7 +37579,7 @@
         <v>Bag (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>1903</v>
+        <v>1895</v>
       </c>
       <c r="G14" s="24">
         <v>12</v>
@@ -36602,7 +37591,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>1998</v>
+        <v>1926</v>
       </c>
       <c r="K14" s="24">
         <v>0.01</v>
@@ -36629,7 +37618,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1990</v>
+        <v>1918</v>
       </c>
       <c r="C15" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D15, Molds!C:E, 3, FALSE)&amp;" ("&amp;F15&amp;")"</f>
@@ -36644,7 +37633,7 @@
         <v>Bag (Styrene-Butadiene Rubber Pellets)</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>1991</v>
+        <v>1919</v>
       </c>
       <c r="G15" s="24">
         <v>12</v>
@@ -36656,7 +37645,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>2007</v>
+        <v>1935</v>
       </c>
       <c r="K15" s="24">
         <v>5.0000000000000001E-3</v>
@@ -36687,7 +37676,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>1910</v>
+        <v>1902</v>
       </c>
       <c r="C16" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D16, Molds!C:E, 3, FALSE)&amp;" ("&amp;F16&amp;")"</f>
@@ -36702,7 +37691,7 @@
         <v>Bag (Ethylene-Propylene-Diene Monomer Pellets)</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>1904</v>
+        <v>1896</v>
       </c>
       <c r="G16" s="24">
         <v>12</v>
@@ -36714,7 +37703,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>1998</v>
+        <v>1926</v>
       </c>
       <c r="K16" s="24">
         <v>1E-3</v>
@@ -36756,7 +37745,7 @@
         <v>Bag (PolyIsoPrene Pellets)</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>2008</v>
+        <v>1936</v>
       </c>
       <c r="G17" s="24">
         <v>4</v>
@@ -36788,7 +37777,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>2004</v>
+        <v>1932</v>
       </c>
       <c r="C18" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D18, Molds!C:E, 3, FALSE)&amp;" ("&amp;F18&amp;")"</f>
@@ -36803,7 +37792,7 @@
         <v>Bag (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="F18" s="42" t="s">
-        <v>2009</v>
+        <v>1937</v>
       </c>
       <c r="G18" s="24">
         <v>4</v>
@@ -36815,7 +37804,7 @@
         <v>64</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>2003</v>
+        <v>1931</v>
       </c>
       <c r="K18" s="24" t="str">
         <f>Pellets!$F$19</f>
@@ -36838,7 +37827,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>2005</v>
+        <v>1933</v>
       </c>
       <c r="C19" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D19, Molds!C:E, 3, FALSE)&amp;" ("&amp;F19&amp;")"</f>
@@ -36853,7 +37842,7 @@
         <v>Bag (Styrene-Butadiene Rubber Pellets)</v>
       </c>
       <c r="F19" s="42" t="s">
-        <v>2010</v>
+        <v>1938</v>
       </c>
       <c r="G19" s="24">
         <v>4</v>
@@ -36865,7 +37854,7 @@
         <v>64</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>2002</v>
+        <v>1930</v>
       </c>
       <c r="K19" s="24" t="str">
         <f>Pellets!$F$27</f>
@@ -36894,7 +37883,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>2006</v>
+        <v>1934</v>
       </c>
       <c r="C20" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D20, Molds!C:E, 3, FALSE)&amp;" ("&amp;F20&amp;")"</f>
@@ -36909,7 +37898,7 @@
         <v>Bag (Ethylene-Propylene-Diene Monomer Pellets)</v>
       </c>
       <c r="F20" s="42" t="s">
-        <v>2011</v>
+        <v>1939</v>
       </c>
       <c r="G20" s="24">
         <v>4</v>
@@ -36921,7 +37910,7 @@
         <v>64</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>2003</v>
+        <v>1931</v>
       </c>
       <c r="K20" s="22" t="str">
         <f>Pellets!$F$16</f>
@@ -36972,7 +37961,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>1906</v>
+        <v>1898</v>
       </c>
       <c r="K21" s="24">
         <v>20</v>
@@ -36996,7 +37985,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>1911</v>
+        <v>1903</v>
       </c>
       <c r="C22" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D22, Molds!C:E, 3, FALSE)&amp;" ("&amp;F22&amp;")"</f>
@@ -37024,7 +38013,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="24" t="s">
-        <v>1906</v>
+        <v>1898</v>
       </c>
       <c r="K22" s="24">
         <v>200</v>
@@ -37045,7 +38034,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>1912</v>
+        <v>1904</v>
       </c>
       <c r="C23" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D23, Molds!C:E, 3, FALSE)&amp;" ("&amp;F23&amp;")"</f>
@@ -37073,7 +38062,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>1906</v>
+        <v>1898</v>
       </c>
       <c r="K23" s="24">
         <v>2000</v>
@@ -37209,7 +38198,7 @@
         <v>Bag (PolyIsoPrene Pellets)</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>2008</v>
+        <v>1936</v>
       </c>
       <c r="G26" s="24">
         <v>16</v>
@@ -37235,7 +38224,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>2001</v>
+        <v>1929</v>
       </c>
       <c r="C27" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D27, Molds!C:E, 3, FALSE)&amp;" ("&amp;F27&amp;")"</f>
@@ -37250,7 +38239,7 @@
         <v>Bag (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="F27" s="42" t="s">
-        <v>2009</v>
+        <v>1937</v>
       </c>
       <c r="G27" s="24">
         <v>16</v>
@@ -37262,7 +38251,7 @@
         <v>64</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>2003</v>
+        <v>1931</v>
       </c>
       <c r="K27" s="24" t="str">
         <f>Pellets!$F$19</f>
@@ -37284,7 +38273,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>2000</v>
+        <v>1928</v>
       </c>
       <c r="C28" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D28, Molds!C:E, 3, FALSE)&amp;" ("&amp;F28&amp;")"</f>
@@ -37299,7 +38288,7 @@
         <v>Bag (Styrene-Butadiene Rubber Pellets)</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>2010</v>
+        <v>1938</v>
       </c>
       <c r="G28" s="24">
         <v>16</v>
@@ -37311,7 +38300,7 @@
         <v>64</v>
       </c>
       <c r="J28" s="24" t="s">
-        <v>2002</v>
+        <v>1930</v>
       </c>
       <c r="K28" s="24" t="str">
         <f>Pellets!$F$27</f>
@@ -37339,7 +38328,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1999</v>
+        <v>1927</v>
       </c>
       <c r="C29" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D29, Molds!C:E, 3, FALSE)&amp;" ("&amp;F29&amp;")"</f>
@@ -37354,7 +38343,7 @@
         <v>Bag (Ethylene-Propylene-Diene Monomer Pellets)</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>2011</v>
+        <v>1939</v>
       </c>
       <c r="G29" s="24">
         <v>16</v>
@@ -37366,7 +38355,7 @@
         <v>64</v>
       </c>
       <c r="J29" s="24" t="s">
-        <v>2003</v>
+        <v>1931</v>
       </c>
       <c r="K29" s="22" t="str">
         <f>Pellets!$F$16</f>
@@ -37737,16 +38726,16 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="23">
+      <c r="A40" s="23" t="str">
         <f>Pellets!A7</f>
-        <v>0</v>
+        <v>1.1.0</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>560</v>
       </c>
       <c r="C40" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D40, Molds!C:E, 3, FALSE)&amp;" ("&amp;F40&amp;")"</f>
-        <v>Fibers (CDAP)</v>
+        <v>Fibers (Carbon)</v>
       </c>
       <c r="D40" s="24" t="str">
         <f xml:space="preserve"> Molds!$C$8</f>
@@ -37754,11 +38743,11 @@
       </c>
       <c r="E40" s="21" t="str">
         <f>Pellets!G7</f>
-        <v>Sack (Cellulose Diacetate Pellets)</v>
+        <v>Sack (Carbon Fiber Pellets)</v>
       </c>
       <c r="F40" s="21" t="str">
         <f>VLOOKUP(E40, Pellets!G:M, 7,FALSE)</f>
-        <v>CDAP</v>
+        <v>Carbon</v>
       </c>
       <c r="G40" s="24">
         <v>3</v>
@@ -41414,7 +42403,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>1891</v>
+        <v>1883</v>
       </c>
       <c r="C148" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D148, Molds!C:E, 3, FALSE)&amp;" ("&amp;F148&amp;")"</f>
@@ -41448,7 +42437,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>1989</v>
+        <v>1917</v>
       </c>
       <c r="C149" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D149, Molds!C:E, 3, FALSE)&amp;" ("&amp;F149&amp;")"</f>
@@ -41477,12 +42466,72 @@
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A150" s="23"/>
-      <c r="C150" s="22"/>
+      <c r="A150" s="23" t="str">
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>2181</v>
+      </c>
+      <c r="C150" s="22" t="str">
+        <f xml:space="preserve"> VLOOKUP(D150, Molds!C:E, 3, FALSE)&amp;" ("&amp;F150&amp;")"</f>
+        <v>Tool Shaft (PEEK)</v>
+      </c>
+      <c r="D150" s="24" t="str">
+        <f xml:space="preserve"> Molds!$C$29</f>
+        <v>Mold (Tool Shaft)</v>
+      </c>
+      <c r="E150" s="21" t="str">
+        <f>Pellets!$G$47</f>
+        <v>Sack (PolyEther Ether Ketone Pellets)</v>
+      </c>
+      <c r="F150" s="21" t="str">
+        <f>VLOOKUP(E80, Pellets!G:M, 7,FALSE)</f>
+        <v>PEEK</v>
+      </c>
+      <c r="G150" s="21">
+        <v>2</v>
+      </c>
+      <c r="H150" s="21">
+        <v>10</v>
+      </c>
+      <c r="I150" s="21">
+        <v>64</v>
+      </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A151" s="23"/>
-      <c r="C151" s="22"/>
+      <c r="A151" s="23" t="str">
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>2182</v>
+      </c>
+      <c r="C151" s="22" t="str">
+        <f xml:space="preserve"> VLOOKUP(D151, Molds!C:E, 3, FALSE)&amp;" ("&amp;F151&amp;")"</f>
+        <v>Tool Shaft (Carbon)</v>
+      </c>
+      <c r="D151" s="24" t="str">
+        <f xml:space="preserve"> Molds!$C$29</f>
+        <v>Mold (Tool Shaft)</v>
+      </c>
+      <c r="E151" s="21" t="str">
+        <f>Pellets!$G$7</f>
+        <v>Sack (Carbon Fiber Pellets)</v>
+      </c>
+      <c r="F151" s="21" t="str">
+        <f>VLOOKUP(E40, Pellets!G:M, 7,FALSE)</f>
+        <v>Carbon</v>
+      </c>
+      <c r="G151" s="21">
+        <v>2</v>
+      </c>
+      <c r="H151" s="21">
+        <v>10</v>
+      </c>
+      <c r="I151" s="21">
+        <v>64</v>
+      </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="23"/>
@@ -41512,20 +42561,19 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R68"/>
+  <dimension ref="A1:R56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" customWidth="1"/>
     <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="10" max="11" width="21" customWidth="1"/>
+    <col min="8" max="10" width="21" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" customWidth="1"/>
     <col min="13" max="13" width="19.7109375" customWidth="1"/>
     <col min="14" max="14" width="24" customWidth="1"/>
@@ -41540,52 +42588,52 @@
         <v>Version</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>2015</v>
+        <v>1945</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>2016</v>
+        <v>1944</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>2017</v>
+        <v>1942</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>2018</v>
+        <v>1943</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>1882</v>
+        <v>1976</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>2224</v>
+        <v>1962</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>2220</v>
+        <v>1961</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>2221</v>
+        <v>1960</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>2222</v>
+        <v>1958</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>2223</v>
+        <v>1959</v>
       </c>
       <c r="L1" s="36" t="s">
-        <v>2014</v>
+        <v>1941</v>
       </c>
       <c r="M1" s="36" t="s">
-        <v>2226</v>
+        <v>1964</v>
       </c>
       <c r="N1" s="30" t="s">
-        <v>2230</v>
+        <v>1968</v>
       </c>
       <c r="O1" s="30" t="s">
-        <v>2229</v>
+        <v>1967</v>
       </c>
       <c r="P1" s="30" t="s">
-        <v>2227</v>
+        <v>1965</v>
       </c>
       <c r="Q1" s="30" t="s">
-        <v>2228</v>
+        <v>1966</v>
       </c>
       <c r="R1" s="28"/>
     </row>
@@ -41594,36 +42642,36 @@
         <f>[1]Enums!$A$12</f>
         <v>1.1.0</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>1913</v>
+      <c r="B2" s="3" t="s">
+        <v>1957</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>2019</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2152</v>
+        <v>1953</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>1905</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>2219</v>
+        <v>1946</v>
       </c>
       <c r="F2" s="2" t="str">
         <f>'Molded Items'!$C$100</f>
         <v>Fibers (Natural Rubber)</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1980</v>
+        <v>1909</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1981</v>
+        <v>1963</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1982</v>
+        <v>1912</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>1983</v>
+        <v>1910</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>2225</v>
+        <v>1911</v>
       </c>
       <c r="L2">
         <v>20</v>
@@ -41644,1484 +42692,320 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B3" s="16" t="s">
+    <row r="3" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
+        <v>2186</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1952</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>1906</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>1947</v>
+      </c>
+      <c r="F3" s="2" t="str">
+        <f>'Molded Items'!C131</f>
+        <v>Fibers (PVC)</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>1913</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>1912</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1910</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>1911</v>
+      </c>
+      <c r="L3">
+        <v>20</v>
+      </c>
+      <c r="M3">
+        <v>10</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>8</v>
+      </c>
+      <c r="P3">
+        <v>6</v>
+      </c>
+      <c r="Q3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>2187</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1955</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1951</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>1907</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>1948</v>
+      </c>
+      <c r="F4" s="2" t="str">
+        <f>'Molded Items'!C148</f>
+        <v>Fibers (Nylon 6)</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>1914</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>2020</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>2151</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>2218</v>
-      </c>
-      <c r="F3" s="2" t="str">
-        <f>F2</f>
-        <v>Fibers (Natural Rubber)</v>
-      </c>
-      <c r="G3" s="2" t="str">
-        <f>G2</f>
-        <v>Rubber</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2">
-        <v>20</v>
-      </c>
-      <c r="M3" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>1915</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>2021</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>2150</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>2217</v>
-      </c>
-      <c r="F4" s="2" t="str">
-        <f>F2</f>
-        <v>Fibers (Natural Rubber)</v>
-      </c>
-      <c r="G4" s="2" t="str">
-        <f>G2</f>
-        <v>Rubber</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>1912</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>1910</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>1911</v>
+      </c>
       <c r="L4">
         <v>20</v>
       </c>
       <c r="M4">
         <v>10</v>
       </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <v>8</v>
+      </c>
+      <c r="P4">
+        <v>6</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>1916</v>
+      <c r="A5" s="23" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1954</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>2022</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>2149</v>
+        <v>1950</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>1908</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>2216</v>
-      </c>
-      <c r="F5" s="2" t="str">
-        <f>F2</f>
-        <v>Fibers (Natural Rubber)</v>
-      </c>
-      <c r="G5" s="2" t="str">
-        <f>G2</f>
-        <v>Rubber</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>1985</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2">
-        <v>20</v>
-      </c>
-      <c r="M5" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>1917</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>2023</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>2148</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>2215</v>
-      </c>
-      <c r="F6" s="2" t="str">
-        <f>'Molded Items'!C131</f>
-        <v>Fibers (PVC)</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>1984</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>1981</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6">
-        <v>20</v>
-      </c>
-      <c r="M6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>1918</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>2024</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>2147</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>2214</v>
-      </c>
-      <c r="F7" s="2" t="str">
-        <f>F6</f>
-        <v>Fibers (PVC)</v>
-      </c>
-      <c r="G7" s="2" t="str">
-        <f>G6</f>
-        <v>Pleather</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>1982</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2">
-        <v>20</v>
-      </c>
-      <c r="M7" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>1919</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>2025</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>2146</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>2213</v>
-      </c>
-      <c r="F8" s="2" t="str">
-        <f>F6</f>
-        <v>Fibers (PVC)</v>
-      </c>
-      <c r="G8" s="2" t="str">
-        <f>G6</f>
-        <v>Pleather</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>1983</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8">
-        <v>20</v>
-      </c>
-      <c r="M8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>1920</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>2026</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>2145</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>2212</v>
-      </c>
-      <c r="F9" s="2" t="str">
-        <f>F6</f>
-        <v>Fibers (PVC)</v>
-      </c>
-      <c r="G9" s="2" t="str">
-        <f>G6</f>
-        <v>Pleather</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>1985</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2">
-        <v>20</v>
-      </c>
-      <c r="M9" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>1921</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>2027</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>2144</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>2211</v>
-      </c>
-      <c r="F10" s="2" t="str">
-        <f>'Molded Items'!C148</f>
-        <v>Fibers (Nylon 6)</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>1986</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>1981</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10">
-        <v>20</v>
-      </c>
-      <c r="M10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>1922</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>2028</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>2143</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>2210</v>
-      </c>
-      <c r="F11" s="2" t="str">
-        <f>F10</f>
-        <v>Fibers (Nylon 6)</v>
-      </c>
-      <c r="G11" s="2" t="str">
-        <f>G10</f>
-        <v>Nylon</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>1982</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2">
-        <v>20</v>
-      </c>
-      <c r="M11" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>1923</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>2029</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>2142</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>2209</v>
-      </c>
-      <c r="F12" s="2" t="str">
-        <f>F10</f>
-        <v>Fibers (Nylon 6)</v>
-      </c>
-      <c r="G12" s="2" t="str">
-        <f>G10</f>
-        <v>Nylon</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>1983</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12">
-        <v>20</v>
-      </c>
-      <c r="M12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>1924</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>2030</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>2141</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>2208</v>
-      </c>
-      <c r="F13" s="2" t="str">
-        <f>F10</f>
-        <v>Fibers (Nylon 6)</v>
-      </c>
-      <c r="G13" s="2" t="str">
-        <f>G10</f>
-        <v>Nylon</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>1985</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2">
-        <v>20</v>
-      </c>
-      <c r="M13" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>1925</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>2031</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>2140</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>2207</v>
-      </c>
-      <c r="F14" t="str">
+        <v>1949</v>
+      </c>
+      <c r="F5" t="str">
         <f>'Molded Items'!C116</f>
         <v>Fibers (kevlar)</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>1987</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>1981</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14">
+      <c r="G5" s="2" t="s">
+        <v>1915</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>1912</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>1910</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>1911</v>
+      </c>
+      <c r="L5">
         <v>40</v>
       </c>
-      <c r="M14">
+      <c r="M5">
         <v>10</v>
       </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>8</v>
+      </c>
+      <c r="P5">
+        <v>6</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="23"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="23"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="23"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="23"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="23"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="23"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="23"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="23"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="23"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>1926</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>2032</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>2139</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>2206</v>
-      </c>
-      <c r="F15" s="2" t="str">
-        <f>F14</f>
-        <v>Fibers (kevlar)</v>
-      </c>
-      <c r="G15" s="2" t="str">
-        <f>G14</f>
-        <v>Kevlar</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>1982</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15">
-        <v>40</v>
-      </c>
-      <c r="M15" s="2">
-        <v>10</v>
-      </c>
+      <c r="A15" s="23"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>1927</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>2033</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>2138</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>2205</v>
-      </c>
-      <c r="F16" s="2" t="str">
-        <f>F14</f>
-        <v>Fibers (kevlar)</v>
-      </c>
-      <c r="G16" s="2" t="str">
-        <f>G14</f>
-        <v>Kevlar</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>1983</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16">
-        <v>40</v>
-      </c>
-      <c r="M16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>1928</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>2034</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>2137</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>2204</v>
-      </c>
-      <c r="F17" s="2" t="str">
-        <f>F14</f>
-        <v>Fibers (kevlar)</v>
-      </c>
-      <c r="G17" s="2" t="str">
-        <f>G14</f>
-        <v>Kevlar</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>1985</v>
-      </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17">
-        <v>40</v>
-      </c>
-      <c r="M17" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>1929</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>2035</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>2136</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>2203</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>1930</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>2036</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>2135</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>2202</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>1931</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>2037</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>2134</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>2201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>1932</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>2038</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>2133</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>1933</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>2039</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>2132</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>2199</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>1934</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>2040</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>2131</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>2198</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>2041</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>2130</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>2197</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>1936</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>2042</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>2129</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>2196</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>1937</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>2043</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>2128</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>2195</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>1938</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>2044</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>2127</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>2194</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>1939</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>2045</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>2126</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>2193</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>1940</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>2046</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>2125</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>2192</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>1941</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>2047</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>2124</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>2191</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>1942</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>2048</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>2123</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>2190</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>1943</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>2049</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>2122</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>2189</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>1944</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>2050</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>2121</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>2188</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>1945</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>2051</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>2120</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>2187</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>1946</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>2052</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>2119</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>2186</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>1947</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>2053</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>2118</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>2185</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>1948</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>2054</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>2117</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>2184</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>1949</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>2055</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>2116</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>2183</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>1950</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>2056</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>2115</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>2182</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>1951</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>2057</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>2114</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>2181</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>1952</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>2058</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>2113</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>2180</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>1953</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>2059</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>2112</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>2179</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>1954</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>2060</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>2111</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>2178</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>1955</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>2061</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>2110</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>2177</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>1956</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>2062</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>2109</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>2176</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>1957</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>2063</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>2108</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>2175</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>1958</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>2064</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>2107</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>2174</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>1959</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>2065</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>2106</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>2173</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>1960</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>2066</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>2105</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>2172</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>1961</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>2067</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>2104</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>2171</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>1962</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>2068</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>2103</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>2170</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>1963</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>2069</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>2102</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>2169</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>1964</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>2101</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>2168</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>1965</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>2071</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>2100</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>2167</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>1966</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>2072</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>2099</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>2166</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>1967</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>2073</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>2098</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>2165</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>1968</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>2074</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>2097</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>2164</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>1969</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>2075</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>2096</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>2163</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>1970</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>2076</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>2095</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>2162</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>1971</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>2077</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>2094</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>2161</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>1972</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>2078</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>2093</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>2160</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>1973</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>2079</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>2092</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>2159</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>1974</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>2080</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>2091</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>2158</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>1975</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>2081</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>2090</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>2157</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>1976</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>2082</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>2089</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>2156</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>1977</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>2083</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>2088</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>2155</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>1978</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>2084</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>2087</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>2154</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="23" t="str">
-        <f>[1]Enums!$A$13</f>
-        <v>2.0.0</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>1979</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>2085</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>2086</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>2153</v>
-      </c>
+      <c r="A16" s="23"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="23"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="23"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="23"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="23"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="23"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="23"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="23"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="23"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="23"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="23"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="23"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="23"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="23"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="23"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="23"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="23"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="23"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="23"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="23"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="23"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="23"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="23"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="23"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="23"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="23"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="23"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="23"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="23"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="23"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="23"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="23"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="23"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="23"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="23"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="23"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="23"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="23"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="23"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="23"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/Polycraft Polymers.xlsx
+++ b/config/Polycraft Polymers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13710" yWindow="0" windowWidth="27240" windowHeight="14310" tabRatio="826" activeTab="8"/>
+    <workbookView xWindow="13710" yWindow="0" windowWidth="27240" windowHeight="14310" tabRatio="826" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Pellets" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2250" uniqueCount="2189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="2036">
   <si>
     <t>GC</t>
   </si>
@@ -5595,84 +5595,6 @@
     <t>23</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>2a</t>
-  </si>
-  <si>
-    <t>2b</t>
-  </si>
-  <si>
-    <t>2c</t>
-  </si>
-  <si>
-    <t>2d</t>
-  </si>
-  <si>
-    <t>2e</t>
-  </si>
-  <si>
-    <t>2f</t>
-  </si>
-  <si>
-    <t>2g</t>
-  </si>
-  <si>
-    <t>2h</t>
-  </si>
-  <si>
-    <t>2i</t>
-  </si>
-  <si>
-    <t>2j</t>
-  </si>
-  <si>
-    <t>2k</t>
-  </si>
-  <si>
-    <t>2l</t>
-  </si>
-  <si>
-    <t>2m</t>
-  </si>
-  <si>
-    <t>2n</t>
-  </si>
-  <si>
-    <t>2o</t>
-  </si>
-  <si>
-    <t>2p</t>
-  </si>
-  <si>
-    <t>2q</t>
-  </si>
-  <si>
-    <t>2r</t>
-  </si>
-  <si>
-    <t>2s</t>
-  </si>
-  <si>
-    <t>2t</t>
-  </si>
-  <si>
     <t>insole</t>
   </si>
   <si>
@@ -5988,84 +5910,6 @@
     <t>Efficiency (Int)</t>
   </si>
   <si>
-    <t>17a</t>
-  </si>
-  <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>16Z</t>
-  </si>
-  <si>
-    <t>16Y</t>
-  </si>
-  <si>
-    <t>16X</t>
-  </si>
-  <si>
-    <t>16W</t>
-  </si>
-  <si>
-    <t>16V</t>
-  </si>
-  <si>
-    <t>16U</t>
-  </si>
-  <si>
-    <t>16T</t>
-  </si>
-  <si>
-    <t>16S</t>
-  </si>
-  <si>
-    <t>16R</t>
-  </si>
-  <si>
-    <t>16Q</t>
-  </si>
-  <si>
-    <t>16P</t>
-  </si>
-  <si>
-    <t>16O</t>
-  </si>
-  <si>
-    <t>16N</t>
-  </si>
-  <si>
-    <t>16M</t>
-  </si>
-  <si>
-    <t>16L</t>
-  </si>
-  <si>
     <t>16K</t>
   </si>
   <si>
@@ -6108,84 +5952,6 @@
     <t>16x</t>
   </si>
   <si>
-    <t>17O</t>
-  </si>
-  <si>
-    <t>17N</t>
-  </si>
-  <si>
-    <t>17M</t>
-  </si>
-  <si>
-    <t>17L</t>
-  </si>
-  <si>
-    <t>17K</t>
-  </si>
-  <si>
-    <t>17J</t>
-  </si>
-  <si>
-    <t>17I</t>
-  </si>
-  <si>
-    <t>17H</t>
-  </si>
-  <si>
-    <t>17G</t>
-  </si>
-  <si>
-    <t>17F</t>
-  </si>
-  <si>
-    <t>17E</t>
-  </si>
-  <si>
-    <t>17D</t>
-  </si>
-  <si>
-    <t>17C</t>
-  </si>
-  <si>
-    <t>17B</t>
-  </si>
-  <si>
-    <t>17A</t>
-  </si>
-  <si>
-    <t>17z</t>
-  </si>
-  <si>
-    <t>17y</t>
-  </si>
-  <si>
-    <t>17x</t>
-  </si>
-  <si>
-    <t>17w</t>
-  </si>
-  <si>
-    <t>17v</t>
-  </si>
-  <si>
-    <t>17u</t>
-  </si>
-  <si>
-    <t>17t</t>
-  </si>
-  <si>
-    <t>17s</t>
-  </si>
-  <si>
-    <t>17r</t>
-  </si>
-  <si>
-    <t>17q</t>
-  </si>
-  <si>
-    <t>17p</t>
-  </si>
-  <si>
     <t>17o</t>
   </si>
   <si>
@@ -6228,84 +5994,6 @@
     <t>17b</t>
   </si>
   <si>
-    <t>18s</t>
-  </si>
-  <si>
-    <t>18r</t>
-  </si>
-  <si>
-    <t>18q</t>
-  </si>
-  <si>
-    <t>18p</t>
-  </si>
-  <si>
-    <t>18o</t>
-  </si>
-  <si>
-    <t>18n</t>
-  </si>
-  <si>
-    <t>18m</t>
-  </si>
-  <si>
-    <t>18l</t>
-  </si>
-  <si>
-    <t>18k</t>
-  </si>
-  <si>
-    <t>18j</t>
-  </si>
-  <si>
-    <t>18i</t>
-  </si>
-  <si>
-    <t>18h</t>
-  </si>
-  <si>
-    <t>18g</t>
-  </si>
-  <si>
-    <t>18f</t>
-  </si>
-  <si>
-    <t>18e</t>
-  </si>
-  <si>
-    <t>18d</t>
-  </si>
-  <si>
-    <t>18c</t>
-  </si>
-  <si>
-    <t>18b</t>
-  </si>
-  <si>
-    <t>18a</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>188</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>186</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
     <t>182</t>
   </si>
   <si>
@@ -6348,84 +6036,6 @@
     <t>17P</t>
   </si>
   <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>18Z</t>
-  </si>
-  <si>
-    <t>18Y</t>
-  </si>
-  <si>
-    <t>18X</t>
-  </si>
-  <si>
-    <t>18W</t>
-  </si>
-  <si>
-    <t>18V</t>
-  </si>
-  <si>
-    <t>18U</t>
-  </si>
-  <si>
-    <t>18T</t>
-  </si>
-  <si>
-    <t>18S</t>
-  </si>
-  <si>
-    <t>18R</t>
-  </si>
-  <si>
-    <t>18Q</t>
-  </si>
-  <si>
-    <t>18P</t>
-  </si>
-  <si>
-    <t>18O</t>
-  </si>
-  <si>
-    <t>18N</t>
-  </si>
-  <si>
-    <t>18M</t>
-  </si>
-  <si>
-    <t>18L</t>
-  </si>
-  <si>
-    <t>18K</t>
-  </si>
-  <si>
-    <t>18J</t>
-  </si>
-  <si>
-    <t>18I</t>
-  </si>
-  <si>
-    <t>18H</t>
-  </si>
-  <si>
     <t>18G</t>
   </si>
   <si>
@@ -6468,84 +6078,6 @@
     <t>18t</t>
   </si>
   <si>
-    <t>19K</t>
-  </si>
-  <si>
-    <t>19J</t>
-  </si>
-  <si>
-    <t>19I</t>
-  </si>
-  <si>
-    <t>19H</t>
-  </si>
-  <si>
-    <t>19G</t>
-  </si>
-  <si>
-    <t>19F</t>
-  </si>
-  <si>
-    <t>19E</t>
-  </si>
-  <si>
-    <t>19D</t>
-  </si>
-  <si>
-    <t>19C</t>
-  </si>
-  <si>
-    <t>19B</t>
-  </si>
-  <si>
-    <t>19A</t>
-  </si>
-  <si>
-    <t>19z</t>
-  </si>
-  <si>
-    <t>19y</t>
-  </si>
-  <si>
-    <t>19x</t>
-  </si>
-  <si>
-    <t>19w</t>
-  </si>
-  <si>
-    <t>19v</t>
-  </si>
-  <si>
-    <t>19u</t>
-  </si>
-  <si>
-    <t>19t</t>
-  </si>
-  <si>
-    <t>19s</t>
-  </si>
-  <si>
-    <t>19r</t>
-  </si>
-  <si>
-    <t>19q</t>
-  </si>
-  <si>
-    <t>19p</t>
-  </si>
-  <si>
-    <t>19o</t>
-  </si>
-  <si>
-    <t>19n</t>
-  </si>
-  <si>
-    <t>19m</t>
-  </si>
-  <si>
-    <t>19l</t>
-  </si>
-  <si>
     <t>19k</t>
   </si>
   <si>
@@ -6613,6 +6145,15 @@
   </si>
   <si>
     <t>2.0.2</t>
+  </si>
+  <si>
+    <t>Harvest Level</t>
+  </si>
+  <si>
+    <t>MaxUses</t>
+  </si>
+  <si>
+    <t>DmgVsEntity</t>
   </si>
 </sst>
 </file>
@@ -6717,7 +6258,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6792,6 +6333,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14896,16 +14438,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>1882</v>
+        <v>1856</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>1881</v>
+        <v>1855</v>
       </c>
       <c r="D115" s="16" t="s">
-        <v>1880</v>
+        <v>1854</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>1879</v>
+        <v>1853</v>
       </c>
       <c r="F115" s="1" t="str">
         <f>IF($N115, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
@@ -15607,10 +15149,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15622,62 +15164,69 @@
     <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.5703125" customWidth="1"/>
     <col min="10" max="10" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="11" max="12" width="25.28515625" customWidth="1"/>
     <col min="13" max="13" width="15.7109375" customWidth="1"/>
-    <col min="14" max="14" width="19.140625" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" customWidth="1"/>
+    <col min="16" max="16" width="19.140625" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="str">
         <f>[1]Enums!$A$1</f>
         <v>Version</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>1969</v>
+        <v>1943</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>1970</v>
+        <v>1944</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>1971</v>
+        <v>1945</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>1972</v>
+        <v>1946</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>1973</v>
+        <v>1947</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>1974</v>
+        <v>1948</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>1978</v>
+        <v>1952</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>1977</v>
+        <v>1951</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>1975</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>1941</v>
-      </c>
-      <c r="L1" s="36" t="s">
-        <v>1964</v>
+        <v>1949</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>2033</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>2034</v>
       </c>
       <c r="M1" s="28" t="s">
-        <v>1979</v>
-      </c>
-      <c r="N1" s="28" t="s">
-        <v>2184</v>
-      </c>
-      <c r="O1" s="28" t="s">
-        <v>2185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1953</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>2035</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>1938</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>2028</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="str">
         <f>[1]Enums!$A$12</f>
         <v>1.1.0</v>
@@ -15686,19 +15235,19 @@
         <v>1835</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>2019</v>
+        <v>1967</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>2059</v>
+        <v>1981</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>2099</v>
+        <v>1995</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>2139</v>
+        <v>2009</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>2179</v>
+        <v>2023</v>
       </c>
       <c r="H2" s="43" t="str">
         <f>'Molded Items'!$C$151</f>
@@ -15712,11 +15261,29 @@
         <f>[1]Enums!$A$130&amp;" "&amp;VLOOKUP(I2, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Composite Steel</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K2" s="45">
+        <v>3</v>
+      </c>
+      <c r="L2" s="45">
+        <v>2048</v>
+      </c>
+      <c r="M2" s="44">
+        <v>8</v>
+      </c>
+      <c r="N2" s="44">
+        <v>3</v>
+      </c>
+      <c r="O2" s="44">
+        <v>10</v>
+      </c>
+      <c r="P2" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="Q2" s="44">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="str">
         <f>[1]Enums!$A$12</f>
         <v>1.1.0</v>
@@ -15725,19 +15292,19 @@
         <v>1836</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>2018</v>
+        <v>1966</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>2058</v>
+        <v>1980</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>2098</v>
+        <v>1994</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>2138</v>
+        <v>2008</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>2178</v>
+        <v>2022</v>
       </c>
       <c r="H3" s="43" t="str">
         <f>'Molded Items'!$C$151</f>
@@ -15751,11 +15318,29 @@
         <f>[1]Enums!$A$130&amp;" "&amp;VLOOKUP(I3, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Composite Stainless Steel</v>
       </c>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K3" s="45">
+        <v>3</v>
+      </c>
+      <c r="L3" s="45">
+        <v>2048</v>
+      </c>
+      <c r="M3" s="44">
+        <v>8</v>
+      </c>
+      <c r="N3" s="46">
+        <v>3</v>
+      </c>
+      <c r="O3" s="46">
+        <v>10</v>
+      </c>
+      <c r="P3" s="46">
+        <v>2.5</v>
+      </c>
+      <c r="Q3" s="46">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="str">
         <f>[1]Enums!$A$12</f>
         <v>1.1.0</v>
@@ -15764,19 +15349,19 @@
         <v>1837</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>2017</v>
+        <v>1965</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>2057</v>
+        <v>1979</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>2097</v>
+        <v>1993</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>2137</v>
+        <v>2007</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>2177</v>
+        <v>2021</v>
       </c>
       <c r="H4" s="43" t="str">
         <f>'Molded Items'!$C$151</f>
@@ -15790,11 +15375,29 @@
         <f>[1]Enums!$A$130&amp;" "&amp;VLOOKUP(I4, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Composite Brass</v>
       </c>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K4" s="45">
+        <v>3</v>
+      </c>
+      <c r="L4" s="45">
+        <v>2048</v>
+      </c>
+      <c r="M4" s="44">
+        <v>8</v>
+      </c>
+      <c r="N4" s="44">
+        <v>3</v>
+      </c>
+      <c r="O4" s="44">
+        <v>10</v>
+      </c>
+      <c r="P4" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="Q4" s="44">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="str">
         <f>[1]Enums!$A$12</f>
         <v>1.1.0</v>
@@ -15803,19 +15406,19 @@
         <v>1838</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>2016</v>
+        <v>1964</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>2056</v>
+        <v>1978</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>2096</v>
+        <v>1992</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>2136</v>
+        <v>2006</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>2176</v>
+        <v>2020</v>
       </c>
       <c r="H5" s="43" t="str">
         <f>'Molded Items'!$C$151</f>
@@ -15829,11 +15432,29 @@
         <f>[1]Enums!$A$130&amp;" "&amp;VLOOKUP(I5, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Composite Bronze</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="44"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K5" s="45">
+        <v>3</v>
+      </c>
+      <c r="L5" s="45">
+        <v>2048</v>
+      </c>
+      <c r="M5" s="44">
+        <v>8</v>
+      </c>
+      <c r="N5" s="46">
+        <v>3</v>
+      </c>
+      <c r="O5" s="46">
+        <v>10</v>
+      </c>
+      <c r="P5" s="46">
+        <v>2.5</v>
+      </c>
+      <c r="Q5" s="46">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="str">
         <f>[1]Enums!$A$12</f>
         <v>1.1.0</v>
@@ -15842,19 +15463,19 @@
         <v>1839</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>2015</v>
+        <v>1963</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>2055</v>
+        <v>1977</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>2095</v>
+        <v>1991</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>2135</v>
+        <v>2005</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>2175</v>
+        <v>2019</v>
       </c>
       <c r="H6" s="43" t="str">
         <f>'Molded Items'!$C$151</f>
@@ -15868,11 +15489,29 @@
         <f>[1]Enums!$A$130&amp;" "&amp;VLOOKUP(I6, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Composite Tungsten Carbide</v>
       </c>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K6" s="45">
+        <v>3</v>
+      </c>
+      <c r="L6" s="45">
+        <v>2048</v>
+      </c>
+      <c r="M6" s="44">
+        <v>8</v>
+      </c>
+      <c r="N6" s="46">
+        <v>3</v>
+      </c>
+      <c r="O6" s="44">
+        <v>10</v>
+      </c>
+      <c r="P6" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="Q6" s="44">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="str">
         <f>[1]Enums!$A$12</f>
         <v>1.1.0</v>
@@ -15881,19 +15520,19 @@
         <v>1840</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>2014</v>
+        <v>1962</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>2054</v>
+        <v>1976</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>2094</v>
+        <v>1990</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>2134</v>
+        <v>2004</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>2174</v>
+        <v>2018</v>
       </c>
       <c r="H7" s="43" t="str">
         <f>'Molded Items'!$C$151</f>
@@ -15907,11 +15546,29 @@
         <f>[1]Enums!$A$130&amp;" "&amp;VLOOKUP(I7, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Composite Nichrome</v>
       </c>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="44"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K7" s="45">
+        <v>3</v>
+      </c>
+      <c r="L7" s="45">
+        <v>2048</v>
+      </c>
+      <c r="M7" s="44">
+        <v>8</v>
+      </c>
+      <c r="N7" s="46">
+        <v>3</v>
+      </c>
+      <c r="O7" s="46">
+        <v>10</v>
+      </c>
+      <c r="P7" s="46">
+        <v>2.5</v>
+      </c>
+      <c r="Q7" s="46">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="str">
         <f>[1]Enums!$A$12</f>
         <v>1.1.0</v>
@@ -15920,19 +15577,19 @@
         <v>1841</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>2013</v>
+        <v>1961</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>2053</v>
+        <v>1975</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>2093</v>
+        <v>1989</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>2133</v>
+        <v>2003</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>2173</v>
+        <v>2017</v>
       </c>
       <c r="H8" s="43" t="str">
         <f>'Molded Items'!$C$151</f>
@@ -15946,11 +15603,29 @@
         <f>[1]Enums!$A$130&amp;" "&amp;VLOOKUP(I8, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Composite Antimony-Lead</v>
       </c>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K8" s="45">
+        <v>3</v>
+      </c>
+      <c r="L8" s="45">
+        <v>2048</v>
+      </c>
+      <c r="M8" s="44">
+        <v>8</v>
+      </c>
+      <c r="N8" s="46">
+        <v>3</v>
+      </c>
+      <c r="O8" s="44">
+        <v>10</v>
+      </c>
+      <c r="P8" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="Q8" s="44">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="str">
         <f>[1]Enums!$A$12</f>
         <v>1.1.0</v>
@@ -15959,19 +15634,19 @@
         <v>1842</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>2012</v>
+        <v>1960</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>2052</v>
+        <v>1974</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>2092</v>
+        <v>1988</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>2132</v>
+        <v>2002</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>2172</v>
+        <v>2016</v>
       </c>
       <c r="H9" s="44" t="str">
         <f>'Molded Items'!$C$150</f>
@@ -15985,11 +15660,29 @@
         <f>[1]Enums!$A$131&amp;" "&amp;VLOOKUP(I9, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Engineered Steel</v>
       </c>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="44"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K9" s="45">
+        <v>3</v>
+      </c>
+      <c r="L9" s="45">
+        <v>2048</v>
+      </c>
+      <c r="M9" s="44">
+        <v>8</v>
+      </c>
+      <c r="N9" s="46">
+        <v>3</v>
+      </c>
+      <c r="O9" s="46">
+        <v>10</v>
+      </c>
+      <c r="P9" s="46">
+        <v>2.5</v>
+      </c>
+      <c r="Q9" s="46">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="str">
         <f>[1]Enums!$A$12</f>
         <v>1.1.0</v>
@@ -15998,19 +15691,19 @@
         <v>1843</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>2011</v>
+        <v>1959</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>2051</v>
+        <v>1973</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>2091</v>
+        <v>1987</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>2131</v>
+        <v>2001</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>2171</v>
+        <v>2015</v>
       </c>
       <c r="H10" s="44" t="str">
         <f>'Molded Items'!$C$150</f>
@@ -16024,11 +15717,29 @@
         <f>[1]Enums!$A$131&amp;" "&amp;VLOOKUP(I10, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Engineered Stainless Steel</v>
       </c>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K10" s="45">
+        <v>3</v>
+      </c>
+      <c r="L10" s="45">
+        <v>2048</v>
+      </c>
+      <c r="M10" s="44">
+        <v>8</v>
+      </c>
+      <c r="N10" s="46">
+        <v>3</v>
+      </c>
+      <c r="O10" s="44">
+        <v>10</v>
+      </c>
+      <c r="P10" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="Q10" s="44">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="str">
         <f>[1]Enums!$A$12</f>
         <v>1.1.0</v>
@@ -16037,19 +15748,19 @@
         <v>1844</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>2010</v>
+        <v>1958</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>2050</v>
+        <v>1972</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>2090</v>
+        <v>1986</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>2130</v>
+        <v>2000</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>2170</v>
+        <v>2014</v>
       </c>
       <c r="H11" s="44" t="str">
         <f>'Molded Items'!$C$150</f>
@@ -16063,11 +15774,29 @@
         <f>[1]Enums!$A$131&amp;" "&amp;VLOOKUP(I11, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Engineered Brass</v>
       </c>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="44"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K11" s="45">
+        <v>3</v>
+      </c>
+      <c r="L11" s="45">
+        <v>2048</v>
+      </c>
+      <c r="M11" s="44">
+        <v>8</v>
+      </c>
+      <c r="N11" s="46">
+        <v>3</v>
+      </c>
+      <c r="O11" s="46">
+        <v>10</v>
+      </c>
+      <c r="P11" s="46">
+        <v>2.5</v>
+      </c>
+      <c r="Q11" s="46">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="str">
         <f>[1]Enums!$A$12</f>
         <v>1.1.0</v>
@@ -16076,19 +15805,19 @@
         <v>1845</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>2009</v>
+        <v>1957</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>2049</v>
+        <v>1971</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>2089</v>
+        <v>1985</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>2129</v>
+        <v>1999</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>2169</v>
+        <v>2013</v>
       </c>
       <c r="H12" s="44" t="str">
         <f>'Molded Items'!$C$150</f>
@@ -16102,11 +15831,29 @@
         <f>[1]Enums!$A$131&amp;" "&amp;VLOOKUP(I12, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Engineered Bronze</v>
       </c>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K12" s="45">
+        <v>3</v>
+      </c>
+      <c r="L12" s="45">
+        <v>2048</v>
+      </c>
+      <c r="M12" s="44">
+        <v>8</v>
+      </c>
+      <c r="N12" s="46">
+        <v>3</v>
+      </c>
+      <c r="O12" s="44">
+        <v>10</v>
+      </c>
+      <c r="P12" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="Q12" s="44">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="str">
         <f>[1]Enums!$A$12</f>
         <v>1.1.0</v>
@@ -16115,19 +15862,19 @@
         <v>1846</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>2008</v>
+        <v>1956</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>2048</v>
+        <v>1970</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>2088</v>
+        <v>1984</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>2128</v>
+        <v>1998</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>2168</v>
+        <v>2012</v>
       </c>
       <c r="H13" s="44" t="str">
         <f>'Molded Items'!$C$150</f>
@@ -16141,11 +15888,29 @@
         <f>[1]Enums!$A$131&amp;" "&amp;VLOOKUP(I13, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Engineered Tungsten Carbide</v>
       </c>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="44"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K13" s="45">
+        <v>3</v>
+      </c>
+      <c r="L13" s="45">
+        <v>2048</v>
+      </c>
+      <c r="M13" s="44">
+        <v>8</v>
+      </c>
+      <c r="N13" s="46">
+        <v>3</v>
+      </c>
+      <c r="O13" s="46">
+        <v>10</v>
+      </c>
+      <c r="P13" s="46">
+        <v>2.5</v>
+      </c>
+      <c r="Q13" s="46">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="str">
         <f>[1]Enums!$A$12</f>
         <v>1.1.0</v>
@@ -16154,19 +15919,19 @@
         <v>1847</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>2007</v>
+        <v>1955</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>2047</v>
+        <v>1969</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>2087</v>
+        <v>1983</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>2127</v>
+        <v>1997</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>2167</v>
+        <v>2011</v>
       </c>
       <c r="H14" s="44" t="str">
         <f>'Molded Items'!$C$150</f>
@@ -16180,11 +15945,29 @@
         <f>[1]Enums!$A$131&amp;" "&amp;VLOOKUP(I14, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Engineered Nichrome</v>
       </c>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K14" s="45">
+        <v>3</v>
+      </c>
+      <c r="L14" s="45">
+        <v>2048</v>
+      </c>
+      <c r="M14" s="44">
+        <v>8</v>
+      </c>
+      <c r="N14" s="46">
+        <v>3</v>
+      </c>
+      <c r="O14" s="44">
+        <v>10</v>
+      </c>
+      <c r="P14" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="Q14" s="44">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="str">
         <f>[1]Enums!$A$12</f>
         <v>1.1.0</v>
@@ -16193,19 +15976,19 @@
         <v>1848</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>2006</v>
+        <v>1954</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>2046</v>
+        <v>1968</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>2086</v>
+        <v>1982</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>2126</v>
+        <v>1996</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>2166</v>
+        <v>2010</v>
       </c>
       <c r="H15" s="44" t="str">
         <f>'Molded Items'!$C$150</f>
@@ -16219,702 +16002,304 @@
         <f>[1]Enums!$A$131&amp;" "&amp;VLOOKUP(I15, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Engineered Antimony-Lead</v>
       </c>
-      <c r="K15" s="44"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="44"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K15" s="45">
+        <v>3</v>
+      </c>
+      <c r="L15" s="45">
+        <v>2048</v>
+      </c>
+      <c r="M15" s="44">
+        <v>8</v>
+      </c>
+      <c r="N15" s="46">
+        <v>3</v>
+      </c>
+      <c r="O15" s="46">
+        <v>10</v>
+      </c>
+      <c r="P15" s="46">
+        <v>2.5</v>
+      </c>
+      <c r="Q15" s="46">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="23"/>
-      <c r="B16" s="16" t="s">
-        <v>1849</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>2005</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>2045</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>2085</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>2125</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>2165</v>
-      </c>
       <c r="H16" s="44"/>
       <c r="I16" s="44"/>
       <c r="J16" s="44"/>
       <c r="K16" s="44"/>
       <c r="L16" s="44"/>
       <c r="M16" s="44"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="23"/>
-      <c r="B17" s="16" t="s">
-        <v>1850</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>2004</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>2044</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>2084</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>2124</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>2164</v>
-      </c>
       <c r="H17" s="44"/>
       <c r="I17" s="44"/>
       <c r="J17" s="44"/>
       <c r="K17" s="44"/>
-      <c r="L17" s="43"/>
+      <c r="L17" s="44"/>
       <c r="M17" s="44"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="44"/>
+      <c r="O17" s="43"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="23"/>
-      <c r="B18" s="16" t="s">
-        <v>1851</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>2003</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>2043</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>2083</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>2123</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>2163</v>
-      </c>
       <c r="H18" s="43"/>
       <c r="I18" s="44"/>
       <c r="J18" s="44"/>
       <c r="K18" s="44"/>
       <c r="L18" s="44"/>
       <c r="M18" s="44"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="23"/>
-      <c r="B19" s="16" t="s">
-        <v>1852</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>2002</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>2042</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>2082</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>2122</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>2162</v>
-      </c>
       <c r="H19" s="43"/>
       <c r="I19" s="44"/>
       <c r="J19" s="44"/>
       <c r="K19" s="44"/>
       <c r="L19" s="44"/>
       <c r="M19" s="44"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="23"/>
-      <c r="B20" s="16" t="s">
-        <v>1853</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>2001</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>2041</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>2081</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>2121</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>2161</v>
-      </c>
       <c r="H20" s="43"/>
       <c r="I20" s="44"/>
       <c r="J20" s="44"/>
       <c r="K20" s="44"/>
       <c r="L20" s="44"/>
       <c r="M20" s="44"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="23"/>
-      <c r="B21" s="16" t="s">
-        <v>1854</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>2000</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>2040</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>2080</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>2120</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>2160</v>
-      </c>
       <c r="H21" s="43"/>
       <c r="I21" s="44"/>
       <c r="J21" s="44"/>
       <c r="K21" s="44"/>
       <c r="L21" s="44"/>
       <c r="M21" s="44"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="23"/>
-      <c r="B22" s="16" t="s">
-        <v>1855</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>1999</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>2039</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>2079</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>2119</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>2159</v>
-      </c>
       <c r="I22" s="44"/>
       <c r="J22" s="44"/>
       <c r="K22" s="44"/>
       <c r="L22" s="44"/>
       <c r="M22" s="44"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="23"/>
-      <c r="B23" s="16" t="s">
-        <v>1856</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>1998</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>2038</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>2078</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>2118</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>2158</v>
-      </c>
       <c r="I23" s="44"/>
       <c r="J23" s="44"/>
       <c r="K23" s="44"/>
       <c r="L23" s="44"/>
       <c r="M23" s="44"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="23"/>
-      <c r="B24" s="16" t="s">
-        <v>1857</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>1997</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>2037</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>2077</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>2117</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>2157</v>
-      </c>
       <c r="I24" s="44"/>
       <c r="J24" s="44"/>
       <c r="K24" s="44"/>
       <c r="L24" s="44"/>
       <c r="M24" s="44"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="23"/>
-      <c r="B25" s="16" t="s">
-        <v>1858</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>1996</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>2036</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>2076</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>2116</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>2156</v>
-      </c>
       <c r="I25" s="44"/>
       <c r="J25" s="44"/>
       <c r="K25" s="44"/>
       <c r="L25" s="44"/>
       <c r="M25" s="44"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="23"/>
-      <c r="B26" s="16" t="s">
-        <v>1859</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>1995</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>2035</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>2075</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>2115</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>2155</v>
-      </c>
       <c r="I26" s="44"/>
       <c r="J26" s="44"/>
       <c r="K26" s="44"/>
       <c r="L26" s="44"/>
       <c r="M26" s="44"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="23"/>
-      <c r="B27" s="16" t="s">
-        <v>1860</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>1994</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>2034</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>2074</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>2114</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>2154</v>
-      </c>
       <c r="I27" s="44"/>
       <c r="J27" s="44"/>
       <c r="K27" s="44"/>
       <c r="L27" s="44"/>
       <c r="M27" s="44"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="23"/>
-      <c r="B28" s="16" t="s">
-        <v>1861</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>1993</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>2033</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>2073</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>2113</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>2153</v>
-      </c>
       <c r="I28" s="44"/>
       <c r="J28" s="44"/>
       <c r="K28" s="44"/>
       <c r="L28" s="44"/>
       <c r="M28" s="44"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="44"/>
+      <c r="O28" s="44"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="23"/>
-      <c r="B29" s="16" t="s">
-        <v>1862</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>1992</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>2032</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>2072</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>2112</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>2152</v>
-      </c>
       <c r="I29" s="44"/>
       <c r="J29" s="44"/>
       <c r="K29" s="44"/>
       <c r="L29" s="44"/>
       <c r="M29" s="44"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="23"/>
-      <c r="B30" s="16" t="s">
-        <v>1863</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>1991</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>2031</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>2071</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>2111</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>2151</v>
-      </c>
       <c r="I30" s="44"/>
       <c r="J30" s="44"/>
       <c r="K30" s="44"/>
       <c r="L30" s="44"/>
       <c r="M30" s="44"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="44"/>
+      <c r="O30" s="44"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="23"/>
-      <c r="B31" s="16" t="s">
-        <v>1864</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>1990</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>2030</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>2070</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>2110</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>2150</v>
-      </c>
       <c r="H31" s="44"/>
       <c r="I31" s="44"/>
       <c r="J31" s="44"/>
       <c r="K31" s="44"/>
       <c r="L31" s="44"/>
       <c r="M31" s="44"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="23"/>
-      <c r="B32" s="16" t="s">
-        <v>1865</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>1989</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>2029</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>2069</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>2109</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>2149</v>
-      </c>
       <c r="H32" s="44"/>
       <c r="I32" s="44"/>
       <c r="J32" s="44"/>
       <c r="K32" s="44"/>
       <c r="L32" s="44"/>
       <c r="M32" s="44"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="44"/>
+      <c r="O32" s="44"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="23"/>
-      <c r="B33" s="16" t="s">
-        <v>1866</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>1988</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>2028</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>2068</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>2108</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>2148</v>
-      </c>
       <c r="H33" s="44"/>
       <c r="I33" s="44"/>
       <c r="J33" s="44"/>
       <c r="K33" s="44"/>
       <c r="L33" s="44"/>
       <c r="M33" s="44"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="44"/>
+      <c r="O33" s="44"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="23"/>
-      <c r="B34" s="16" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>1987</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>2027</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>2067</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>2107</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>2147</v>
-      </c>
       <c r="H34" s="44"/>
       <c r="I34" s="44"/>
       <c r="J34" s="44"/>
       <c r="K34" s="44"/>
       <c r="L34" s="44"/>
       <c r="M34" s="44"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="44"/>
+      <c r="O34" s="44"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="23"/>
-      <c r="B35" s="16" t="s">
-        <v>1868</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>1986</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>2026</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>2066</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>2106</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>2146</v>
-      </c>
       <c r="H35" s="44"/>
       <c r="I35" s="44"/>
       <c r="J35" s="44"/>
       <c r="K35" s="44"/>
       <c r="L35" s="44"/>
       <c r="M35" s="44"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="44"/>
+      <c r="O35" s="44"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="23"/>
-      <c r="B36" s="16" t="s">
-        <v>1869</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>1985</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>2025</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>2065</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>2105</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>2145</v>
-      </c>
       <c r="H36" s="44"/>
       <c r="I36" s="44"/>
       <c r="J36" s="44"/>
       <c r="K36" s="44"/>
       <c r="L36" s="44"/>
       <c r="M36" s="44"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N36" s="44"/>
+      <c r="O36" s="44"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="23"/>
-      <c r="B37" s="16" t="s">
-        <v>1870</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>1984</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>2024</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>2064</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>2104</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>2144</v>
-      </c>
       <c r="H37" s="44"/>
       <c r="I37" s="44"/>
       <c r="J37" s="44"/>
       <c r="K37" s="44"/>
       <c r="L37" s="44"/>
       <c r="M37" s="44"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37" s="44"/>
+      <c r="O37" s="44"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="23"/>
-      <c r="B38" s="16" t="s">
-        <v>1871</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>1983</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>2023</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>2063</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>2103</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>2143</v>
-      </c>
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
       <c r="J38" s="44"/>
       <c r="K38" s="44"/>
       <c r="L38" s="44"/>
       <c r="M38" s="44"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="44"/>
+      <c r="O38" s="44"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="23"/>
-      <c r="B39" s="16" t="s">
-        <v>1872</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>1982</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>2022</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>2062</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>2102</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>2142</v>
-      </c>
       <c r="H39" s="44"/>
       <c r="I39" s="44"/>
       <c r="J39" s="44"/>
       <c r="K39" s="44"/>
       <c r="L39" s="44"/>
       <c r="M39" s="44"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="44"/>
+      <c r="O39" s="44"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="23"/>
-      <c r="B40" s="16" t="s">
-        <v>1873</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>1981</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>2021</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>2061</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>2101</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>2141</v>
-      </c>
       <c r="H40" s="44"/>
       <c r="I40" s="44"/>
       <c r="J40" s="44"/>
       <c r="K40" s="44"/>
       <c r="L40" s="44"/>
       <c r="M40" s="44"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="44"/>
+      <c r="O40" s="44"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="23"/>
-      <c r="B41" s="16" t="s">
-        <v>1874</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>1980</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>2020</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>2060</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>2100</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>2140</v>
-      </c>
       <c r="H41" s="44"/>
       <c r="I41" s="44"/>
       <c r="J41" s="44"/>
       <c r="K41" s="44"/>
       <c r="L41" s="44"/>
       <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
+      <c r="O41" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18522,7 +17907,7 @@
         <v>595</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>1894</v>
+        <v>1868</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>566</v>
@@ -23029,10 +22414,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B115" s="40" t="s">
-        <v>1884</v>
+        <v>1858</v>
       </c>
       <c r="C115" s="40" t="s">
-        <v>1885</v>
+        <v>1859</v>
       </c>
       <c r="D115" s="1" t="str">
         <f t="shared" si="3"/>
@@ -27614,16 +26999,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B115" s="40" t="s">
-        <v>1886</v>
+        <v>1860</v>
       </c>
       <c r="C115" s="40" t="s">
-        <v>1887</v>
+        <v>1861</v>
       </c>
       <c r="D115" s="40" t="s">
-        <v>1888</v>
+        <v>1862</v>
       </c>
       <c r="E115" s="40" t="s">
-        <v>1889</v>
+        <v>1863</v>
       </c>
       <c r="F115" s="1" t="str">
         <f t="shared" si="3"/>
@@ -31515,10 +30900,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B115" s="40" t="s">
-        <v>1890</v>
+        <v>1864</v>
       </c>
       <c r="C115" s="40" t="s">
-        <v>1891</v>
+        <v>1865</v>
       </c>
       <c r="D115" s="1" t="str">
         <f t="shared" si="3"/>
@@ -35410,10 +34795,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B115" s="40" t="s">
-        <v>1892</v>
+        <v>1866</v>
       </c>
       <c r="C115" s="40" t="s">
-        <v>1893</v>
+        <v>1867</v>
       </c>
       <c r="D115" s="1" t="str">
         <f t="shared" si="3"/>
@@ -36751,7 +36136,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>1878</v>
+        <v>1852</v>
       </c>
       <c r="C27" s="10" t="str">
         <f t="shared" si="0"/>
@@ -36775,7 +36160,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1916</v>
+        <v>1890</v>
       </c>
       <c r="C28" s="10" t="str">
         <f t="shared" si="0"/>
@@ -36799,7 +36184,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>2180</v>
+        <v>2024</v>
       </c>
       <c r="C29" s="10" t="str">
         <f t="shared" si="0"/>
@@ -37056,7 +36441,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>1940</v>
+        <v>1914</v>
       </c>
       <c r="K4" s="24">
         <v>0.25</v>
@@ -37083,7 +36468,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1920</v>
+        <v>1894</v>
       </c>
       <c r="C5" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D5, Molds!C:E, 3, FALSE)&amp;" ("&amp;F5&amp;")"</f>
@@ -37098,7 +36483,7 @@
         <v>Bag (Styrene-Butadiene Rubber Pellets)</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>1921</v>
+        <v>1895</v>
       </c>
       <c r="G5" s="24">
         <v>12</v>
@@ -37110,7 +36495,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>1922</v>
+        <v>1896</v>
       </c>
       <c r="K5" s="24">
         <v>0.35</v>
@@ -37158,7 +36543,7 @@
         <v>Bag (Ethylene-Vinyl Acetate Pellets)</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>1875</v>
+        <v>1849</v>
       </c>
       <c r="G6" s="24">
         <v>4</v>
@@ -37205,7 +36590,7 @@
         <v>Bag (PolyUrethane Pellets)</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>1876</v>
+        <v>1850</v>
       </c>
       <c r="G7" s="24">
         <v>4</v>
@@ -37249,7 +36634,7 @@
         <v>Bag (Ethylene-Propylene-Diene Monomer Pellets)</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>1877</v>
+        <v>1851</v>
       </c>
       <c r="G8" s="24">
         <v>4</v>
@@ -37293,7 +36678,7 @@
         <v>Bag (PolyIsoPrene Pellets)</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>1897</v>
+        <v>1871</v>
       </c>
       <c r="G9" s="24">
         <v>16</v>
@@ -37333,7 +36718,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>1899</v>
+        <v>1873</v>
       </c>
       <c r="C10" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D10, Molds!C:E, 3, FALSE)&amp;" ("&amp;F10&amp;")"</f>
@@ -37348,7 +36733,7 @@
         <v>Bag (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>1895</v>
+        <v>1869</v>
       </c>
       <c r="G10" s="24">
         <v>16</v>
@@ -37360,7 +36745,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>1925</v>
+        <v>1899</v>
       </c>
       <c r="K10" s="24">
         <v>0.3</v>
@@ -37391,7 +36776,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1923</v>
+        <v>1897</v>
       </c>
       <c r="C11" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D11, Molds!C:E, 3, FALSE)&amp;" ("&amp;F11&amp;")"</f>
@@ -37406,7 +36791,7 @@
         <v>Bag (Styrene-Butadiene Rubber Pellets)</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>1919</v>
+        <v>1893</v>
       </c>
       <c r="G11" s="24">
         <v>16</v>
@@ -37418,7 +36803,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>1924</v>
+        <v>1898</v>
       </c>
       <c r="K11" s="24">
         <v>0.4</v>
@@ -37455,7 +36840,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>1900</v>
+        <v>1874</v>
       </c>
       <c r="C12" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D12, Molds!C:E, 3, FALSE)&amp;" ("&amp;F12&amp;")"</f>
@@ -37470,7 +36855,7 @@
         <v>Bag (Ethylene-Propylene-Diene Monomer Pellets)</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>1896</v>
+        <v>1870</v>
       </c>
       <c r="G12" s="24">
         <v>16</v>
@@ -37482,7 +36867,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>1925</v>
+        <v>1899</v>
       </c>
       <c r="K12" s="24">
         <v>0.5</v>
@@ -37528,7 +36913,7 @@
         <v>Bag (PolyIsoPrene Pellets)</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>1897</v>
+        <v>1871</v>
       </c>
       <c r="G13" s="24">
         <v>12</v>
@@ -37564,7 +36949,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>1901</v>
+        <v>1875</v>
       </c>
       <c r="C14" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D14, Molds!C:E, 3, FALSE)&amp;" ("&amp;F14&amp;")"</f>
@@ -37579,7 +36964,7 @@
         <v>Bag (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>1895</v>
+        <v>1869</v>
       </c>
       <c r="G14" s="24">
         <v>12</v>
@@ -37591,7 +36976,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>1926</v>
+        <v>1900</v>
       </c>
       <c r="K14" s="24">
         <v>0.01</v>
@@ -37618,7 +37003,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1918</v>
+        <v>1892</v>
       </c>
       <c r="C15" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D15, Molds!C:E, 3, FALSE)&amp;" ("&amp;F15&amp;")"</f>
@@ -37633,7 +37018,7 @@
         <v>Bag (Styrene-Butadiene Rubber Pellets)</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>1919</v>
+        <v>1893</v>
       </c>
       <c r="G15" s="24">
         <v>12</v>
@@ -37645,7 +37030,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>1935</v>
+        <v>1909</v>
       </c>
       <c r="K15" s="24">
         <v>5.0000000000000001E-3</v>
@@ -37676,7 +37061,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>1902</v>
+        <v>1876</v>
       </c>
       <c r="C16" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D16, Molds!C:E, 3, FALSE)&amp;" ("&amp;F16&amp;")"</f>
@@ -37691,7 +37076,7 @@
         <v>Bag (Ethylene-Propylene-Diene Monomer Pellets)</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>1896</v>
+        <v>1870</v>
       </c>
       <c r="G16" s="24">
         <v>12</v>
@@ -37703,7 +37088,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>1926</v>
+        <v>1900</v>
       </c>
       <c r="K16" s="24">
         <v>1E-3</v>
@@ -37745,7 +37130,7 @@
         <v>Bag (PolyIsoPrene Pellets)</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>1936</v>
+        <v>1910</v>
       </c>
       <c r="G17" s="24">
         <v>4</v>
@@ -37777,7 +37162,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1932</v>
+        <v>1906</v>
       </c>
       <c r="C18" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D18, Molds!C:E, 3, FALSE)&amp;" ("&amp;F18&amp;")"</f>
@@ -37792,7 +37177,7 @@
         <v>Bag (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="F18" s="42" t="s">
-        <v>1937</v>
+        <v>1911</v>
       </c>
       <c r="G18" s="24">
         <v>4</v>
@@ -37804,7 +37189,7 @@
         <v>64</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>1931</v>
+        <v>1905</v>
       </c>
       <c r="K18" s="24" t="str">
         <f>Pellets!$F$19</f>
@@ -37827,7 +37212,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1933</v>
+        <v>1907</v>
       </c>
       <c r="C19" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D19, Molds!C:E, 3, FALSE)&amp;" ("&amp;F19&amp;")"</f>
@@ -37842,7 +37227,7 @@
         <v>Bag (Styrene-Butadiene Rubber Pellets)</v>
       </c>
       <c r="F19" s="42" t="s">
-        <v>1938</v>
+        <v>1912</v>
       </c>
       <c r="G19" s="24">
         <v>4</v>
@@ -37854,7 +37239,7 @@
         <v>64</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>1930</v>
+        <v>1904</v>
       </c>
       <c r="K19" s="24" t="str">
         <f>Pellets!$F$27</f>
@@ -37883,7 +37268,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1934</v>
+        <v>1908</v>
       </c>
       <c r="C20" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D20, Molds!C:E, 3, FALSE)&amp;" ("&amp;F20&amp;")"</f>
@@ -37898,7 +37283,7 @@
         <v>Bag (Ethylene-Propylene-Diene Monomer Pellets)</v>
       </c>
       <c r="F20" s="42" t="s">
-        <v>1939</v>
+        <v>1913</v>
       </c>
       <c r="G20" s="24">
         <v>4</v>
@@ -37910,7 +37295,7 @@
         <v>64</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>1931</v>
+        <v>1905</v>
       </c>
       <c r="K20" s="22" t="str">
         <f>Pellets!$F$16</f>
@@ -37961,7 +37346,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>1898</v>
+        <v>1872</v>
       </c>
       <c r="K21" s="24">
         <v>20</v>
@@ -37985,7 +37370,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>1903</v>
+        <v>1877</v>
       </c>
       <c r="C22" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D22, Molds!C:E, 3, FALSE)&amp;" ("&amp;F22&amp;")"</f>
@@ -38013,7 +37398,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="24" t="s">
-        <v>1898</v>
+        <v>1872</v>
       </c>
       <c r="K22" s="24">
         <v>200</v>
@@ -38034,7 +37419,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>1904</v>
+        <v>1878</v>
       </c>
       <c r="C23" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D23, Molds!C:E, 3, FALSE)&amp;" ("&amp;F23&amp;")"</f>
@@ -38062,7 +37447,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>1898</v>
+        <v>1872</v>
       </c>
       <c r="K23" s="24">
         <v>2000</v>
@@ -38198,7 +37583,7 @@
         <v>Bag (PolyIsoPrene Pellets)</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>1936</v>
+        <v>1910</v>
       </c>
       <c r="G26" s="24">
         <v>16</v>
@@ -38224,7 +37609,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1929</v>
+        <v>1903</v>
       </c>
       <c r="C27" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D27, Molds!C:E, 3, FALSE)&amp;" ("&amp;F27&amp;")"</f>
@@ -38239,7 +37624,7 @@
         <v>Bag (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="F27" s="42" t="s">
-        <v>1937</v>
+        <v>1911</v>
       </c>
       <c r="G27" s="24">
         <v>16</v>
@@ -38251,7 +37636,7 @@
         <v>64</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>1931</v>
+        <v>1905</v>
       </c>
       <c r="K27" s="24" t="str">
         <f>Pellets!$F$19</f>
@@ -38273,7 +37658,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1928</v>
+        <v>1902</v>
       </c>
       <c r="C28" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D28, Molds!C:E, 3, FALSE)&amp;" ("&amp;F28&amp;")"</f>
@@ -38288,7 +37673,7 @@
         <v>Bag (Styrene-Butadiene Rubber Pellets)</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>1938</v>
+        <v>1912</v>
       </c>
       <c r="G28" s="24">
         <v>16</v>
@@ -38300,7 +37685,7 @@
         <v>64</v>
       </c>
       <c r="J28" s="24" t="s">
-        <v>1930</v>
+        <v>1904</v>
       </c>
       <c r="K28" s="24" t="str">
         <f>Pellets!$F$27</f>
@@ -38328,7 +37713,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1927</v>
+        <v>1901</v>
       </c>
       <c r="C29" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D29, Molds!C:E, 3, FALSE)&amp;" ("&amp;F29&amp;")"</f>
@@ -38343,7 +37728,7 @@
         <v>Bag (Ethylene-Propylene-Diene Monomer Pellets)</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>1939</v>
+        <v>1913</v>
       </c>
       <c r="G29" s="24">
         <v>16</v>
@@ -38355,7 +37740,7 @@
         <v>64</v>
       </c>
       <c r="J29" s="24" t="s">
-        <v>1931</v>
+        <v>1905</v>
       </c>
       <c r="K29" s="22" t="str">
         <f>Pellets!$F$16</f>
@@ -42403,7 +41788,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>1883</v>
+        <v>1857</v>
       </c>
       <c r="C148" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D148, Molds!C:E, 3, FALSE)&amp;" ("&amp;F148&amp;")"</f>
@@ -42437,7 +41822,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>1917</v>
+        <v>1891</v>
       </c>
       <c r="C149" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D149, Molds!C:E, 3, FALSE)&amp;" ("&amp;F149&amp;")"</f>
@@ -42471,7 +41856,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>2181</v>
+        <v>2025</v>
       </c>
       <c r="C150" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D150, Molds!C:E, 3, FALSE)&amp;" ("&amp;F150&amp;")"</f>
@@ -42505,7 +41890,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>2182</v>
+        <v>2026</v>
       </c>
       <c r="C151" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D151, Molds!C:E, 3, FALSE)&amp;" ("&amp;F151&amp;")"</f>
@@ -42563,8 +41948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -42588,52 +41973,52 @@
         <v>Version</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>1945</v>
+        <v>1919</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>1944</v>
+        <v>1918</v>
       </c>
       <c r="D1" s="32" t="s">
+        <v>1916</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>1917</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>1950</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>1936</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>1935</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>1934</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>1932</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>1933</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>1915</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>1938</v>
+      </c>
+      <c r="N1" s="30" t="s">
         <v>1942</v>
       </c>
-      <c r="E1" s="32" t="s">
-        <v>1943</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>1976</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>1962</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>1961</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>1960</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>1958</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>1959</v>
-      </c>
-      <c r="L1" s="36" t="s">
+      <c r="O1" s="30" t="s">
         <v>1941</v>
       </c>
-      <c r="M1" s="36" t="s">
-        <v>1964</v>
-      </c>
-      <c r="N1" s="30" t="s">
-        <v>1968</v>
-      </c>
-      <c r="O1" s="30" t="s">
-        <v>1967</v>
-      </c>
       <c r="P1" s="30" t="s">
-        <v>1965</v>
+        <v>1939</v>
       </c>
       <c r="Q1" s="30" t="s">
-        <v>1966</v>
+        <v>1940</v>
       </c>
       <c r="R1" s="28"/>
     </row>
@@ -42643,35 +42028,35 @@
         <v>1.1.0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1957</v>
+        <v>1931</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1953</v>
+        <v>1927</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>1905</v>
+        <v>1879</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>1946</v>
+        <v>1920</v>
       </c>
       <c r="F2" s="2" t="str">
         <f>'Molded Items'!$C$100</f>
         <v>Fibers (Natural Rubber)</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1909</v>
+        <v>1883</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1963</v>
+        <v>1937</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1912</v>
+        <v>1886</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>1910</v>
+        <v>1884</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1911</v>
+        <v>1885</v>
       </c>
       <c r="L2">
         <v>20</v>
@@ -42694,38 +42079,38 @@
     </row>
     <row r="3" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
-        <v>2186</v>
+        <v>2030</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1956</v>
+        <v>1930</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1952</v>
+        <v>1926</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>1906</v>
+        <v>1880</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>1947</v>
+        <v>1921</v>
       </c>
       <c r="F3" s="2" t="str">
         <f>'Molded Items'!C131</f>
         <v>Fibers (PVC)</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1913</v>
+        <v>1887</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>2183</v>
+        <v>2027</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>1912</v>
+        <v>1886</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>1910</v>
+        <v>1884</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1911</v>
+        <v>1885</v>
       </c>
       <c r="L3">
         <v>20</v>
@@ -42748,38 +42133,38 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>2187</v>
+        <v>2031</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1955</v>
+        <v>1929</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1951</v>
+        <v>1925</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>1907</v>
+        <v>1881</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1948</v>
+        <v>1922</v>
       </c>
       <c r="F4" s="2" t="str">
         <f>'Molded Items'!C148</f>
         <v>Fibers (Nylon 6)</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>1914</v>
+        <v>1888</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>2183</v>
+        <v>2027</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>1912</v>
+        <v>1886</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>1910</v>
+        <v>1884</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>1911</v>
+        <v>1885</v>
       </c>
       <c r="L4">
         <v>20</v>
@@ -42802,38 +42187,38 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>2188</v>
+        <v>2032</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1954</v>
+        <v>1928</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1950</v>
+        <v>1924</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>1908</v>
+        <v>1882</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1949</v>
+        <v>1923</v>
       </c>
       <c r="F5" t="str">
         <f>'Molded Items'!C116</f>
         <v>Fibers (kevlar)</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>1915</v>
+        <v>1889</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>2183</v>
+        <v>2027</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>1912</v>
+        <v>1886</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>1910</v>
+        <v>1884</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>1911</v>
+        <v>1885</v>
       </c>
       <c r="L5">
         <v>40</v>

--- a/config/Polycraft Polymers.xlsx
+++ b/config/Polycraft Polymers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16500" yWindow="0" windowWidth="27240" windowHeight="14310" tabRatio="826" activeTab="7"/>
+    <workbookView xWindow="18360" yWindow="0" windowWidth="27240" windowHeight="14310" tabRatio="826"/>
   </bookViews>
   <sheets>
     <sheet name="Pellets" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,6 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -7347,108 +7346,113 @@
             <v>1.1.0</v>
           </cell>
         </row>
-        <row r="21">
-          <cell r="A21" t="str">
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>1.1.1</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
             <v>Bag</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>Flask</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
+            <v>Flask</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
             <v>Sack</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>Cartridge</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
+            <v>Cartridge</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
             <v>Powder Keg</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>Canister</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
+            <v>Canister</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
             <v>Chemical Silo</v>
           </cell>
         </row>
-        <row r="32">
-          <cell r="A32" t="str">
+        <row r="33">
+          <cell r="A33" t="str">
             <v>Chemical Tank</v>
           </cell>
         </row>
-        <row r="69">
-          <cell r="B69" t="str">
+        <row r="70">
+          <cell r="B70" t="str">
             <v>Mold Type</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="B73" t="str">
-            <v>Mold</v>
           </cell>
         </row>
         <row r="74">
           <cell r="B74" t="str">
+            <v>Mold</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75" t="str">
             <v>Metal Die</v>
           </cell>
         </row>
-        <row r="92">
-          <cell r="A92" t="str">
+        <row r="93">
+          <cell r="A93" t="str">
             <v>Gripped</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="A95" t="str">
-            <v>Base Material</v>
           </cell>
         </row>
         <row r="96">
           <cell r="A96" t="str">
-            <v>Wooden</v>
+            <v>Base Material</v>
           </cell>
         </row>
         <row r="97">
           <cell r="A97" t="str">
-            <v>Stone</v>
+            <v>Wooden</v>
           </cell>
         </row>
         <row r="98">
           <cell r="A98" t="str">
-            <v>Iron</v>
+            <v>Stone</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99" t="str">
-            <v>Golden</v>
+            <v>Iron</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100" t="str">
-            <v>Diamond</v>
+            <v>Golden</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101" t="str">
+            <v>Diamond</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102" t="str">
             <v>Magic</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="A130" t="str">
-            <v>Composite</v>
           </cell>
         </row>
         <row r="131">
           <cell r="A131" t="str">
+            <v>Composite</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="A132" t="str">
             <v>Engineered</v>
           </cell>
         </row>
@@ -8411,7 +8415,7 @@
             <v>PolyM-Phenylene Isophthalamide</v>
           </cell>
           <cell r="C74" t="str">
-            <v>PMIA</v>
+            <v>nomex</v>
           </cell>
           <cell r="D74" t="b">
             <v>1</v>
@@ -9583,8 +9587,8 @@
   </sheetPr>
   <dimension ref="A1:N333"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="J60" sqref="J60"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9626,19 +9630,19 @@
         <v>Game ID XL</v>
       </c>
       <c r="F1" s="5" t="str">
-        <f xml:space="preserve"> [1]Enums!$A$21&amp;" ("&amp;J1&amp;")"</f>
+        <f xml:space="preserve"> [1]Enums!$A$22&amp;" ("&amp;J1&amp;")"</f>
         <v>Bag (Pellets)</v>
       </c>
       <c r="G1" s="5" t="str">
-        <f xml:space="preserve"> [1]Enums!$A$24&amp;" ("&amp;J1&amp;")"</f>
+        <f xml:space="preserve"> [1]Enums!$A$25&amp;" ("&amp;J1&amp;")"</f>
         <v>Sack (Pellets)</v>
       </c>
       <c r="H1" s="5" t="str">
-        <f xml:space="preserve"> [1]Enums!$A$27&amp;" ("&amp;J1&amp;")"</f>
+        <f xml:space="preserve"> [1]Enums!$A$28&amp;" ("&amp;J1&amp;")"</f>
         <v>Powder Keg (Pellets)</v>
       </c>
       <c r="I1" s="5" t="str">
-        <f xml:space="preserve"> [1]Enums!$A$30&amp;" ("&amp;J1&amp;")"</f>
+        <f xml:space="preserve"> [1]Enums!$A$31&amp;" ("&amp;J1&amp;")"</f>
         <v>Chemical Silo (Pellets)</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -9674,19 +9678,19 @@
         <v>448</v>
       </c>
       <c r="F2" s="1" t="str">
-        <f>IF($N2, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N2, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
         <v>Flask (Acrylic-Formaldehyde Resin)</v>
       </c>
       <c r="G2" s="1" t="str">
-        <f>IF($N2, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N2, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
         <v>Cartridge (Acrylic-Formaldehyde Resin)</v>
       </c>
       <c r="H2" s="1" t="str">
-        <f>IF($N2, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N2, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
         <v>Canister (Acrylic-Formaldehyde Resin)</v>
       </c>
       <c r="I2" s="1" t="str">
-        <f>IF($N2, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N2, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Tank (Acrylic-Formaldehyde Resin)</v>
       </c>
       <c r="J2" s="1" t="str">
@@ -9726,19 +9730,19 @@
         <v>444</v>
       </c>
       <c r="F3" s="1" t="str">
-        <f>IF($N3, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N3, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Acrylonitrile-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f>IF($N3, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N3, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Acrylonitrile-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="H3" s="1" t="str">
-        <f>IF($N3, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N3, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Acrylonitrile-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="I3" s="1" t="str">
-        <f>IF($N3, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N3, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Acrylonitrile-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="J3" s="1" t="str">
@@ -9775,19 +9779,19 @@
         <v>440</v>
       </c>
       <c r="F4" s="1" t="str">
-        <f>IF($N4, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N4, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
         <v>Flask (Alkyd Resin)</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f>IF($N4, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N4, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
         <v>Cartridge (Alkyd Resin)</v>
       </c>
       <c r="H4" s="1" t="str">
-        <f>IF($N4, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N4, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
         <v>Canister (Alkyd Resin)</v>
       </c>
       <c r="I4" s="1" t="str">
-        <f>IF($N4, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N4, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Tank (Alkyd Resin)</v>
       </c>
       <c r="J4" s="1" t="str">
@@ -9827,19 +9831,19 @@
         <v>436</v>
       </c>
       <c r="F5" s="1" t="str">
-        <f>IF($N5, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N5, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Amorphous PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="G5" s="1" t="str">
-        <f>IF($N5, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N5, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Amorphous PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="H5" s="1" t="str">
-        <f>IF($N5, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N5, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Amorphous PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="I5" s="1" t="str">
-        <f>IF($N5, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N5, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Amorphous PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="J5" s="1" t="str">
@@ -9879,19 +9883,19 @@
         <v>432</v>
       </c>
       <c r="F6" s="1" t="str">
-        <f>IF($N6, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N6, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Bromine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f>IF($N6, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N6, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Bromine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="H6" s="1" t="str">
-        <f>IF($N6, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N6, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Bromine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="I6" s="1" t="str">
-        <f>IF($N6, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N6, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Bromine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="J6" s="1" t="str">
@@ -9931,19 +9935,19 @@
         <v>428</v>
       </c>
       <c r="F7" s="1" t="str">
-        <f>IF($N7, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N7, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Carbon Fiber Pellets)</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f>IF($N7, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N7, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Carbon Fiber Pellets)</v>
       </c>
       <c r="H7" s="1" t="str">
-        <f>IF($N7, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N7, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Carbon Fiber Pellets)</v>
       </c>
       <c r="I7" s="1" t="str">
-        <f>IF($N7, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N7, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Carbon Fiber Pellets)</v>
       </c>
       <c r="J7" s="1" t="str">
@@ -9980,19 +9984,19 @@
         <v>424</v>
       </c>
       <c r="F8" s="1" t="str">
-        <f>IF($N8, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N8, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Cellulose Triacetate Pellets)</v>
       </c>
       <c r="G8" s="1" t="str">
-        <f>IF($N8, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N8, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Cellulose Triacetate Pellets)</v>
       </c>
       <c r="H8" s="1" t="str">
-        <f>IF($N8, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N8, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Cellulose Triacetate Pellets)</v>
       </c>
       <c r="I8" s="1" t="str">
-        <f>IF($N8, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N8, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Cellulose Triacetate Pellets)</v>
       </c>
       <c r="J8" s="1" t="str">
@@ -10032,19 +10036,19 @@
         <v>420</v>
       </c>
       <c r="F9" s="1" t="str">
-        <f>IF($N9, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N9, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Cellulosic Pellets)</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f>IF($N9, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N9, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Cellulosic Pellets)</v>
       </c>
       <c r="H9" s="1" t="str">
-        <f>IF($N9, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N9, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Cellulosic Pellets)</v>
       </c>
       <c r="I9" s="1" t="str">
-        <f>IF($N9, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N9, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Cellulosic Pellets)</v>
       </c>
       <c r="J9" s="1" t="str">
@@ -10084,19 +10088,19 @@
         <v>416</v>
       </c>
       <c r="F10" s="1" t="str">
-        <f>IF($N10, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N10, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Chitin Pellets)</v>
       </c>
       <c r="G10" s="1" t="str">
-        <f>IF($N10, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N10, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Chitin Pellets)</v>
       </c>
       <c r="H10" s="1" t="str">
-        <f>IF($N10, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N10, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Chitin Pellets)</v>
       </c>
       <c r="I10" s="1" t="str">
-        <f>IF($N10, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N10, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Chitin Pellets)</v>
       </c>
       <c r="J10" s="1" t="str">
@@ -10136,19 +10140,19 @@
         <v>412</v>
       </c>
       <c r="F11" s="1" t="str">
-        <f>IF($N11, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N11, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Chlorine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="G11" s="1" t="str">
-        <f>IF($N11, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N11, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Chlorine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="H11" s="1" t="str">
-        <f>IF($N11, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N11, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Chlorine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="I11" s="1" t="str">
-        <f>IF($N11, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N11, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Chlorine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="J11" s="1" t="str">
@@ -10185,19 +10189,19 @@
         <v>408</v>
       </c>
       <c r="F12" s="1" t="str">
-        <f>IF($N12, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N12, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
         <v>Flask (Epoxy Resin)</v>
       </c>
       <c r="G12" s="1" t="str">
-        <f>IF($N12, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N12, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
         <v>Cartridge (Epoxy Resin)</v>
       </c>
       <c r="H12" s="1" t="str">
-        <f>IF($N12, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N12, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
         <v>Canister (Epoxy Resin)</v>
       </c>
       <c r="I12" s="1" t="str">
-        <f>IF($N12, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N12, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Tank (Epoxy Resin)</v>
       </c>
       <c r="J12" s="1" t="str">
@@ -10234,19 +10238,19 @@
         <v>404</v>
       </c>
       <c r="F13" s="1" t="str">
-        <f>IF($N13, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N13, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Ethoxylates Pellets)</v>
       </c>
       <c r="G13" s="1" t="str">
-        <f>IF($N13, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N13, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Ethoxylates Pellets)</v>
       </c>
       <c r="H13" s="1" t="str">
-        <f>IF($N13, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N13, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Ethoxylates Pellets)</v>
       </c>
       <c r="I13" s="1" t="str">
-        <f>IF($N13, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N13, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Ethoxylates Pellets)</v>
       </c>
       <c r="J13" s="1" t="str">
@@ -10286,19 +10290,19 @@
         <v>400</v>
       </c>
       <c r="F14" s="1" t="str">
-        <f>IF($N14, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N14, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Ethylene-Propylene Monomer Pellets)</v>
       </c>
       <c r="G14" s="1" t="str">
-        <f>IF($N14, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N14, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Ethylene-Propylene Monomer Pellets)</v>
       </c>
       <c r="H14" s="1" t="str">
-        <f>IF($N14, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N14, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Ethylene-Propylene Monomer Pellets)</v>
       </c>
       <c r="I14" s="1" t="str">
-        <f>IF($N14, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N14, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Ethylene-Propylene Monomer Pellets)</v>
       </c>
       <c r="J14" s="1" t="str">
@@ -10338,19 +10342,19 @@
         <v>396</v>
       </c>
       <c r="F15" s="1" t="str">
-        <f>IF($N15, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N15, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Ethylene-Propylene-Diene Monomer Pellets)</v>
       </c>
       <c r="G15" s="1" t="str">
-        <f>IF($N15, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N15, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Ethylene-Propylene-Diene Monomer Pellets)</v>
       </c>
       <c r="H15" s="1" t="str">
-        <f>IF($N15, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N15, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Ethylene-Propylene-Diene Monomer Pellets)</v>
       </c>
       <c r="I15" s="1" t="str">
-        <f>IF($N15, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N15, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Ethylene-Propylene-Diene Monomer Pellets)</v>
       </c>
       <c r="J15" s="1" t="str">
@@ -10390,19 +10394,19 @@
         <v>392</v>
       </c>
       <c r="F16" s="1" t="str">
-        <f>IF($N16, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N16, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Ethylene-Vinyl Acetate Pellets)</v>
       </c>
       <c r="G16" s="1" t="str">
-        <f>IF($N16, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N16, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Ethylene-Vinyl Acetate Pellets)</v>
       </c>
       <c r="H16" s="1" t="str">
-        <f>IF($N16, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N16, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Ethylene-Vinyl Acetate Pellets)</v>
       </c>
       <c r="I16" s="1" t="str">
-        <f>IF($N16, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N16, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Ethylene-Vinyl Acetate Pellets)</v>
       </c>
       <c r="J16" s="1" t="str">
@@ -10442,19 +10446,19 @@
         <v>388</v>
       </c>
       <c r="F17" s="1" t="str">
-        <f>IF($N17, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N17, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (High Density PolyEthylene Pellets)</v>
       </c>
       <c r="G17" s="1" t="str">
-        <f>IF($N17, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N17, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (High Density PolyEthylene Pellets)</v>
       </c>
       <c r="H17" s="1" t="str">
-        <f>IF($N17, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N17, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (High Density PolyEthylene Pellets)</v>
       </c>
       <c r="I17" s="1" t="str">
-        <f>IF($N17, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N17, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (High Density PolyEthylene Pellets)</v>
       </c>
       <c r="J17" s="1" t="str">
@@ -10494,19 +10498,19 @@
         <v>384</v>
       </c>
       <c r="F18" s="1" t="str">
-        <f>IF($N18, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N18, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Hydrogenated Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="G18" s="1" t="str">
-        <f>IF($N18, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N18, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Hydrogenated Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="H18" s="1" t="str">
-        <f>IF($N18, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N18, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Hydrogenated Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="I18" s="1" t="str">
-        <f>IF($N18, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N18, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Hydrogenated Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="J18" s="1" t="str">
@@ -10546,19 +10550,19 @@
         <v>380</v>
       </c>
       <c r="F19" s="1" t="str">
-        <f>IF($N19, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N19, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Isobutylene Rubber Pellets)</v>
       </c>
       <c r="G19" s="1" t="str">
-        <f>IF($N19, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N19, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Isobutylene Rubber Pellets)</v>
       </c>
       <c r="H19" s="1" t="str">
-        <f>IF($N19, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N19, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Isobutylene Rubber Pellets)</v>
       </c>
       <c r="I19" s="1" t="str">
-        <f>IF($N19, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N19, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Isobutylene Rubber Pellets)</v>
       </c>
       <c r="J19" s="1" t="str">
@@ -10595,19 +10599,19 @@
         <v>376</v>
       </c>
       <c r="F20" s="1" t="str">
-        <f>IF($N20, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N20, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
         <v>Flask (Lignin)</v>
       </c>
       <c r="G20" s="1" t="str">
-        <f>IF($N20, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N20, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
         <v>Cartridge (Lignin)</v>
       </c>
       <c r="H20" s="1" t="str">
-        <f>IF($N20, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N20, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
         <v>Canister (Lignin)</v>
       </c>
       <c r="I20" s="1" t="str">
-        <f>IF($N20, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N20, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Tank (Lignin)</v>
       </c>
       <c r="J20" s="1" t="str">
@@ -10647,19 +10651,19 @@
         <v>372</v>
       </c>
       <c r="F21" s="1" t="str">
-        <f>IF($N21, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N21, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Linear Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="G21" s="1" t="str">
-        <f>IF($N21, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N21, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Linear Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="H21" s="1" t="str">
-        <f>IF($N21, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N21, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Linear Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="I21" s="1" t="str">
-        <f>IF($N21, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N21, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Linear Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="J21" s="1" t="str">
@@ -10699,19 +10703,19 @@
         <v>368</v>
       </c>
       <c r="F22" s="1" t="str">
-        <f>IF($N22, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N22, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Liquid Crystal Polymer Pellets)</v>
       </c>
       <c r="G22" s="1" t="str">
-        <f>IF($N22, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N22, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Liquid Crystal Polymer Pellets)</v>
       </c>
       <c r="H22" s="1" t="str">
-        <f>IF($N22, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N22, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Liquid Crystal Polymer Pellets)</v>
       </c>
       <c r="I22" s="1" t="str">
-        <f>IF($N22, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N22, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Liquid Crystal Polymer Pellets)</v>
       </c>
       <c r="J22" s="1" t="str">
@@ -10751,19 +10755,19 @@
         <v>364</v>
       </c>
       <c r="F23" s="1" t="str">
-        <f>IF($N23, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N23, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Low Density PolyEthylene Pellets)</v>
       </c>
       <c r="G23" s="1" t="str">
-        <f>IF($N23, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N23, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Low Density PolyEthylene Pellets)</v>
       </c>
       <c r="H23" s="1" t="str">
-        <f>IF($N23, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N23, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Low Density PolyEthylene Pellets)</v>
       </c>
       <c r="I23" s="1" t="str">
-        <f>IF($N23, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N23, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Low Density PolyEthylene Pellets)</v>
       </c>
       <c r="J23" s="1" t="str">
@@ -10803,19 +10807,19 @@
         <v>360</v>
       </c>
       <c r="F24" s="1" t="str">
-        <f>IF($N24, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N24, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Medium Density PolyEthylene Pellets)</v>
       </c>
       <c r="G24" s="1" t="str">
-        <f>IF($N24, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N24, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Medium Density PolyEthylene Pellets)</v>
       </c>
       <c r="H24" s="1" t="str">
-        <f>IF($N24, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N24, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Medium Density PolyEthylene Pellets)</v>
       </c>
       <c r="I24" s="1" t="str">
-        <f>IF($N24, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N24, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Medium Density PolyEthylene Pellets)</v>
       </c>
       <c r="J24" s="1" t="str">
@@ -10852,19 +10856,19 @@
         <v>356</v>
       </c>
       <c r="F25" s="1" t="str">
-        <f>IF($N25, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N25, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
         <v>Flask (Melamine-Formaldehyde Polymers)</v>
       </c>
       <c r="G25" s="1" t="str">
-        <f>IF($N25, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N25, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
         <v>Cartridge (Melamine-Formaldehyde Polymers)</v>
       </c>
       <c r="H25" s="1" t="str">
-        <f>IF($N25, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N25, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
         <v>Canister (Melamine-Formaldehyde Polymers)</v>
       </c>
       <c r="I25" s="1" t="str">
-        <f>IF($N25, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N25, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Tank (Melamine-Formaldehyde Polymers)</v>
       </c>
       <c r="J25" s="1" t="str">
@@ -10904,19 +10908,19 @@
         <v>352</v>
       </c>
       <c r="F26" s="1" t="str">
-        <f>IF($N26, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N26, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Metaldehyde Pellets)</v>
       </c>
       <c r="G26" s="1" t="str">
-        <f>IF($N26, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N26, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Metaldehyde Pellets)</v>
       </c>
       <c r="H26" s="1" t="str">
-        <f>IF($N26, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N26, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Metaldehyde Pellets)</v>
       </c>
       <c r="I26" s="1" t="str">
-        <f>IF($N26, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N26, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Metaldehyde Pellets)</v>
       </c>
       <c r="J26" s="1" t="str">
@@ -10956,19 +10960,19 @@
         <v>348</v>
       </c>
       <c r="F27" s="1" t="str">
-        <f>IF($N27, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N27, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="G27" s="1" t="str">
-        <f>IF($N27, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N27, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="H27" s="1" t="str">
-        <f>IF($N27, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N27, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="I27" s="1" t="str">
-        <f>IF($N27, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N27, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="J27" s="1" t="str">
@@ -11008,19 +11012,19 @@
         <v>344</v>
       </c>
       <c r="F28" s="1" t="str">
-        <f>IF($N28, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N28, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Paraformaldehyde Pellets)</v>
       </c>
       <c r="G28" s="1" t="str">
-        <f>IF($N28, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N28, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Paraformaldehyde Pellets)</v>
       </c>
       <c r="H28" s="1" t="str">
-        <f>IF($N28, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N28, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Paraformaldehyde Pellets)</v>
       </c>
       <c r="I28" s="1" t="str">
-        <f>IF($N28, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N28, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Paraformaldehyde Pellets)</v>
       </c>
       <c r="J28" s="1" t="str">
@@ -11060,19 +11064,19 @@
         <v>340</v>
       </c>
       <c r="F29" s="1" t="str">
-        <f>IF($N29, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N29, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Paraldehyde Pellets)</v>
       </c>
       <c r="G29" s="1" t="str">
-        <f>IF($N29, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N29, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Paraldehyde Pellets)</v>
       </c>
       <c r="H29" s="1" t="str">
-        <f>IF($N29, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N29, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Paraldehyde Pellets)</v>
       </c>
       <c r="I29" s="1" t="str">
-        <f>IF($N29, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N29, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Paraldehyde Pellets)</v>
       </c>
       <c r="J29" s="1" t="str">
@@ -11109,19 +11113,19 @@
         <v>336</v>
       </c>
       <c r="F30" s="1" t="str">
-        <f>IF($N30, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N30, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
         <v>Flask (Phenolic Resin)</v>
       </c>
       <c r="G30" s="1" t="str">
-        <f>IF($N30, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N30, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
         <v>Cartridge (Phenolic Resin)</v>
       </c>
       <c r="H30" s="1" t="str">
-        <f>IF($N30, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N30, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
         <v>Canister (Phenolic Resin)</v>
       </c>
       <c r="I30" s="1" t="str">
-        <f>IF($N30, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N30, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Tank (Phenolic Resin)</v>
       </c>
       <c r="J30" s="1" t="str">
@@ -11161,19 +11165,19 @@
         <v>332</v>
       </c>
       <c r="F31" s="1" t="str">
-        <f>IF($N31, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N31, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Poly(3-Hydroxybutyrate-Co-3-Hydroxyvalerate) Pellets)</v>
       </c>
       <c r="G31" s="1" t="str">
-        <f>IF($N31, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N31, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Poly(3-Hydroxybutyrate-Co-3-Hydroxyvalerate) Pellets)</v>
       </c>
       <c r="H31" s="1" t="str">
-        <f>IF($N31, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N31, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Poly(3-Hydroxybutyrate-Co-3-Hydroxyvalerate) Pellets)</v>
       </c>
       <c r="I31" s="1" t="str">
-        <f>IF($N31, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N31, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Poly(3-Hydroxybutyrate-Co-3-Hydroxyvalerate) Pellets)</v>
       </c>
       <c r="J31" s="1" t="str">
@@ -11210,19 +11214,19 @@
         <v>328</v>
       </c>
       <c r="F32" s="1" t="str">
-        <f>IF($N32, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N32, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Poly1-Butene Pellets)</v>
       </c>
       <c r="G32" s="1" t="str">
-        <f>IF($N32, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N32, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Poly1-Butene Pellets)</v>
       </c>
       <c r="H32" s="1" t="str">
-        <f>IF($N32, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N32, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Poly1-Butene Pellets)</v>
       </c>
       <c r="I32" s="1" t="str">
-        <f>IF($N32, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N32, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Poly1-Butene Pellets)</v>
       </c>
       <c r="J32" s="1" t="str">
@@ -11259,19 +11263,19 @@
         <v>324</v>
       </c>
       <c r="F33" s="1" t="str">
-        <f>IF($N33, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N33, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Poly2,6-Dimethyl-1,4-Phenylene Ether Pellets)</v>
       </c>
       <c r="G33" s="1" t="str">
-        <f>IF($N33, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N33, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Poly2,6-Dimethyl-1,4-Phenylene Ether Pellets)</v>
       </c>
       <c r="H33" s="1" t="str">
-        <f>IF($N33, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N33, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Poly2,6-Dimethyl-1,4-Phenylene Ether Pellets)</v>
       </c>
       <c r="I33" s="1" t="str">
-        <f>IF($N33, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N33, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Poly2,6-Dimethyl-1,4-Phenylene Ether Pellets)</v>
       </c>
       <c r="J33" s="1" t="str">
@@ -11308,19 +11312,19 @@
         <v>320</v>
       </c>
       <c r="F34" s="1" t="str">
-        <f>IF($N34, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N34, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Poly-2-Hydroxy Butyrate Pellets)</v>
       </c>
       <c r="G34" s="1" t="str">
-        <f>IF($N34, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N34, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Poly-2-Hydroxy Butyrate Pellets)</v>
       </c>
       <c r="H34" s="1" t="str">
-        <f>IF($N34, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N34, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Poly-2-Hydroxy Butyrate Pellets)</v>
       </c>
       <c r="I34" s="1" t="str">
-        <f>IF($N34, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N34, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Poly-2-Hydroxy Butyrate Pellets)</v>
       </c>
       <c r="J34" s="1" t="str">
@@ -11357,19 +11361,19 @@
         <v>316</v>
       </c>
       <c r="F35" s="1" t="str">
-        <f>IF($N35, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N35, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Poly2-Hydroxyethyl Methacrylate Pellets)</v>
       </c>
       <c r="G35" s="1" t="str">
-        <f>IF($N35, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N35, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Poly2-Hydroxyethyl Methacrylate Pellets)</v>
       </c>
       <c r="H35" s="1" t="str">
-        <f>IF($N35, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N35, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Poly2-Hydroxyethyl Methacrylate Pellets)</v>
       </c>
       <c r="I35" s="1" t="str">
-        <f>IF($N35, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N35, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Poly2-Hydroxyethyl Methacrylate Pellets)</v>
       </c>
       <c r="J35" s="1" t="str">
@@ -11406,19 +11410,19 @@
         <v>312</v>
       </c>
       <c r="F36" s="1" t="str">
-        <f>IF($N36, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N36, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyAcrylic Ester Pellets)</v>
       </c>
       <c r="G36" s="1" t="str">
-        <f>IF($N36, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N36, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyAcrylic Ester Pellets)</v>
       </c>
       <c r="H36" s="1" t="str">
-        <f>IF($N36, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N36, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyAcrylic Ester Pellets)</v>
       </c>
       <c r="I36" s="1" t="str">
-        <f>IF($N36, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N36, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyAcrylic Ester Pellets)</v>
       </c>
       <c r="J36" s="1" t="str">
@@ -11458,19 +11462,19 @@
         <v>308</v>
       </c>
       <c r="F37" s="1" t="str">
-        <f>IF($N37, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N37, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyAcrylonitrile Pellets)</v>
       </c>
       <c r="G37" s="1" t="str">
-        <f>IF($N37, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N37, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyAcrylonitrile Pellets)</v>
       </c>
       <c r="H37" s="1" t="str">
-        <f>IF($N37, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N37, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyAcrylonitrile Pellets)</v>
       </c>
       <c r="I37" s="1" t="str">
-        <f>IF($N37, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N37, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyAcrylonitrile Pellets)</v>
       </c>
       <c r="J37" s="1" t="str">
@@ -11510,19 +11514,19 @@
         <v>304</v>
       </c>
       <c r="F38" s="1" t="str">
-        <f>IF($N38, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N38, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="G38" s="1" t="str">
-        <f>IF($N38, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N38, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="H38" s="1" t="str">
-        <f>IF($N38, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N38, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="I38" s="1" t="str">
-        <f>IF($N38, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N38, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="J38" s="1" t="str">
@@ -11562,19 +11566,19 @@
         <v>300</v>
       </c>
       <c r="F39" s="1" t="str">
-        <f>IF($N39, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N39, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyButadiene (high-cis) Pellets)</v>
       </c>
       <c r="G39" s="1" t="str">
-        <f>IF($N39, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N39, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyButadiene (high-cis) Pellets)</v>
       </c>
       <c r="H39" s="1" t="str">
-        <f>IF($N39, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N39, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyButadiene (high-cis) Pellets)</v>
       </c>
       <c r="I39" s="1" t="str">
-        <f>IF($N39, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N39, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyButadiene (high-cis) Pellets)</v>
       </c>
       <c r="J39" s="1" t="str">
@@ -11614,19 +11618,19 @@
         <v>296</v>
       </c>
       <c r="F40" s="1" t="str">
-        <f>IF($N40, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N40, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyButylene Succinate Pellets)</v>
       </c>
       <c r="G40" s="1" t="str">
-        <f>IF($N40, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N40, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyButylene Succinate Pellets)</v>
       </c>
       <c r="H40" s="1" t="str">
-        <f>IF($N40, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N40, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyButylene Succinate Pellets)</v>
       </c>
       <c r="I40" s="1" t="str">
-        <f>IF($N40, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N40, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyButylene Succinate Pellets)</v>
       </c>
       <c r="J40" s="1" t="str">
@@ -11666,19 +11670,19 @@
         <v>292</v>
       </c>
       <c r="F41" s="1" t="str">
-        <f>IF($N41, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N41, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyButylene Terephthalate Pellets)</v>
       </c>
       <c r="G41" s="1" t="str">
-        <f>IF($N41, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N41, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyButylene Terephthalate Pellets)</v>
       </c>
       <c r="H41" s="1" t="str">
-        <f>IF($N41, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N41, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyButylene Terephthalate Pellets)</v>
       </c>
       <c r="I41" s="1" t="str">
-        <f>IF($N41, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N41, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyButylene Terephthalate Pellets)</v>
       </c>
       <c r="J41" s="1" t="str">
@@ -11718,19 +11722,19 @@
         <v>288</v>
       </c>
       <c r="F42" s="1" t="str">
-        <f>IF($N42, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N42, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyCaprolactone Pellets)</v>
       </c>
       <c r="G42" s="1" t="str">
-        <f>IF($N42, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N42, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyCaprolactone Pellets)</v>
       </c>
       <c r="H42" s="1" t="str">
-        <f>IF($N42, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N42, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyCaprolactone Pellets)</v>
       </c>
       <c r="I42" s="1" t="str">
-        <f>IF($N42, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N42, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyCaprolactone Pellets)</v>
       </c>
       <c r="J42" s="1" t="str">
@@ -11770,19 +11774,19 @@
         <v>284</v>
       </c>
       <c r="F43" s="1" t="str">
-        <f>IF($N43, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N43, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyCarbonate Pellets)</v>
       </c>
       <c r="G43" s="1" t="str">
-        <f>IF($N43, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N43, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyCarbonate Pellets)</v>
       </c>
       <c r="H43" s="1" t="str">
-        <f>IF($N43, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N43, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyCarbonate Pellets)</v>
       </c>
       <c r="I43" s="1" t="str">
-        <f>IF($N43, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N43, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyCarbonate Pellets)</v>
       </c>
       <c r="J43" s="1" t="str">
@@ -11819,19 +11823,19 @@
         <v>280</v>
       </c>
       <c r="F44" s="1" t="str">
-        <f>IF($N44, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N44, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyChloroPrene Pellets)</v>
       </c>
       <c r="G44" s="1" t="str">
-        <f>IF($N44, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N44, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyChloroPrene Pellets)</v>
       </c>
       <c r="H44" s="1" t="str">
-        <f>IF($N44, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N44, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyChloroPrene Pellets)</v>
       </c>
       <c r="I44" s="1" t="str">
-        <f>IF($N44, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N44, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyChloroPrene Pellets)</v>
       </c>
       <c r="J44" s="1" t="str">
@@ -11868,19 +11872,19 @@
         <v>276</v>
       </c>
       <c r="F45" s="1" t="str">
-        <f>IF($N45, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N45, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyChlorotrifluoroethylene Pellets)</v>
       </c>
       <c r="G45" s="1" t="str">
-        <f>IF($N45, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N45, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyChlorotrifluoroethylene Pellets)</v>
       </c>
       <c r="H45" s="1" t="str">
-        <f>IF($N45, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N45, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyChlorotrifluoroethylene Pellets)</v>
       </c>
       <c r="I45" s="1" t="str">
-        <f>IF($N45, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N45, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyChlorotrifluoroethylene Pellets)</v>
       </c>
       <c r="J45" s="1" t="str">
@@ -11920,19 +11924,19 @@
         <v>272</v>
       </c>
       <c r="F46" s="1" t="str">
-        <f>IF($N46, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N46, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyDiMethylSiloxane Pellets)</v>
       </c>
       <c r="G46" s="1" t="str">
-        <f>IF($N46, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N46, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyDiMethylSiloxane Pellets)</v>
       </c>
       <c r="H46" s="1" t="str">
-        <f>IF($N46, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N46, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyDiMethylSiloxane Pellets)</v>
       </c>
       <c r="I46" s="1" t="str">
-        <f>IF($N46, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N46, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyDiMethylSiloxane Pellets)</v>
       </c>
       <c r="J46" s="1" t="str">
@@ -11972,19 +11976,19 @@
         <v>268</v>
       </c>
       <c r="F47" s="1" t="str">
-        <f>IF($N47, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N47, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEther Ether Ketone Pellets)</v>
       </c>
       <c r="G47" s="1" t="str">
-        <f>IF($N47, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N47, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEther Ether Ketone Pellets)</v>
       </c>
       <c r="H47" s="1" t="str">
-        <f>IF($N47, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N47, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEther Ether Ketone Pellets)</v>
       </c>
       <c r="I47" s="1" t="str">
-        <f>IF($N47, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N47, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEther Ether Ketone Pellets)</v>
       </c>
       <c r="J47" s="1" t="str">
@@ -12024,19 +12028,19 @@
         <v>264</v>
       </c>
       <c r="F48" s="1" t="str">
-        <f>IF($N48, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J48&amp;IF($N48, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N48, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J48&amp;IF($N48, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEtherImide Pellets)</v>
       </c>
       <c r="G48" s="1" t="str">
-        <f>IF($N48, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J48&amp;IF($N48, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N48, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J48&amp;IF($N48, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEtherImide Pellets)</v>
       </c>
       <c r="H48" s="1" t="str">
-        <f>IF($N48, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J48&amp;IF($N48, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N48, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J48&amp;IF($N48, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEtherImide Pellets)</v>
       </c>
       <c r="I48" s="1" t="str">
-        <f>IF($N48, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J48&amp;IF($N48, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N48, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J48&amp;IF($N48, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEtherImide Pellets)</v>
       </c>
       <c r="J48" s="1" t="str">
@@ -12073,19 +12077,19 @@
         <v>260</v>
       </c>
       <c r="F49" s="1" t="str">
-        <f>IF($N49, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J49&amp;IF($N49, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N49, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J49&amp;IF($N49, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthyl Acrylate Pellets)</v>
       </c>
       <c r="G49" s="1" t="str">
-        <f>IF($N49, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J49&amp;IF($N49, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N49, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J49&amp;IF($N49, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthyl Acrylate Pellets)</v>
       </c>
       <c r="H49" s="1" t="str">
-        <f>IF($N49, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J49&amp;IF($N49, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N49, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J49&amp;IF($N49, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthyl Acrylate Pellets)</v>
       </c>
       <c r="I49" s="1" t="str">
-        <f>IF($N49, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J49&amp;IF($N49, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N49, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J49&amp;IF($N49, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthyl Acrylate Pellets)</v>
       </c>
       <c r="J49" s="1" t="str">
@@ -12122,19 +12126,19 @@
         <v>256</v>
       </c>
       <c r="F50" s="1" t="str">
-        <f>IF($N50, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J50&amp;IF($N50, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N50, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J50&amp;IF($N50, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthylene Adipate Pellets)</v>
       </c>
       <c r="G50" s="1" t="str">
-        <f>IF($N50, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J50&amp;IF($N50, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N50, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J50&amp;IF($N50, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthylene Adipate Pellets)</v>
       </c>
       <c r="H50" s="1" t="str">
-        <f>IF($N50, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J50&amp;IF($N50, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N50, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J50&amp;IF($N50, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthylene Adipate Pellets)</v>
       </c>
       <c r="I50" s="1" t="str">
-        <f>IF($N50, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J50&amp;IF($N50, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N50, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J50&amp;IF($N50, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthylene Adipate Pellets)</v>
       </c>
       <c r="J50" s="1" t="str">
@@ -12174,19 +12178,19 @@
         <v>252</v>
       </c>
       <c r="F51" s="1" t="str">
-        <f>IF($N51, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J51&amp;IF($N51, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N51, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J51&amp;IF($N51, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthylene Glycol Pellets)</v>
       </c>
       <c r="G51" s="1" t="str">
-        <f>IF($N51, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J51&amp;IF($N51, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N51, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J51&amp;IF($N51, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthylene Glycol Pellets)</v>
       </c>
       <c r="H51" s="1" t="str">
-        <f>IF($N51, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J51&amp;IF($N51, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N51, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J51&amp;IF($N51, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthylene Glycol Pellets)</v>
       </c>
       <c r="I51" s="1" t="str">
-        <f>IF($N51, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J51&amp;IF($N51, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N51, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J51&amp;IF($N51, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthylene Glycol Pellets)</v>
       </c>
       <c r="J51" s="1" t="str">
@@ -12223,19 +12227,19 @@
         <v>248</v>
       </c>
       <c r="F52" s="1" t="str">
-        <f>IF($N52, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J52&amp;IF($N52, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N52, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J52&amp;IF($N52, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthylene Hexamethylene Dicarbamate Pellets)</v>
       </c>
       <c r="G52" s="1" t="str">
-        <f>IF($N52, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J52&amp;IF($N52, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N52, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J52&amp;IF($N52, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthylene Hexamethylene Dicarbamate Pellets)</v>
       </c>
       <c r="H52" s="1" t="str">
-        <f>IF($N52, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J52&amp;IF($N52, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N52, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J52&amp;IF($N52, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthylene Hexamethylene Dicarbamate Pellets)</v>
       </c>
       <c r="I52" s="1" t="str">
-        <f>IF($N52, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J52&amp;IF($N52, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N52, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J52&amp;IF($N52, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthylene Hexamethylene Dicarbamate Pellets)</v>
       </c>
       <c r="J52" s="1" t="str">
@@ -12275,19 +12279,19 @@
         <v>244</v>
       </c>
       <c r="F53" s="1" t="str">
-        <f>IF($N53, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J53&amp;IF($N53, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N53, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J53&amp;IF($N53, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthylene Naphthalate Pellets)</v>
       </c>
       <c r="G53" s="1" t="str">
-        <f>IF($N53, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J53&amp;IF($N53, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N53, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J53&amp;IF($N53, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthylene Naphthalate Pellets)</v>
       </c>
       <c r="H53" s="1" t="str">
-        <f>IF($N53, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J53&amp;IF($N53, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N53, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J53&amp;IF($N53, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthylene Naphthalate Pellets)</v>
       </c>
       <c r="I53" s="1" t="str">
-        <f>IF($N53, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J53&amp;IF($N53, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N53, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J53&amp;IF($N53, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthylene Naphthalate Pellets)</v>
       </c>
       <c r="J53" s="1" t="str">
@@ -12327,19 +12331,19 @@
         <v>240</v>
       </c>
       <c r="F54" s="1" t="str">
-        <f>IF($N54, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J54&amp;IF($N54, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N54, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J54&amp;IF($N54, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthylene Oxide Pellets)</v>
       </c>
       <c r="G54" s="1" t="str">
-        <f>IF($N54, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J54&amp;IF($N54, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N54, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J54&amp;IF($N54, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthylene Oxide Pellets)</v>
       </c>
       <c r="H54" s="1" t="str">
-        <f>IF($N54, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J54&amp;IF($N54, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N54, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J54&amp;IF($N54, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthylene Oxide Pellets)</v>
       </c>
       <c r="I54" s="1" t="str">
-        <f>IF($N54, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J54&amp;IF($N54, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N54, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J54&amp;IF($N54, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthylene Oxide Pellets)</v>
       </c>
       <c r="J54" s="1" t="str">
@@ -12379,19 +12383,19 @@
         <v>236</v>
       </c>
       <c r="F55" s="1" t="str">
-        <f>IF($N55, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J55&amp;IF($N55, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N55, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J55&amp;IF($N55, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthylene Sulphide Pellets)</v>
       </c>
       <c r="G55" s="1" t="str">
-        <f>IF($N55, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J55&amp;IF($N55, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N55, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J55&amp;IF($N55, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthylene Sulphide Pellets)</v>
       </c>
       <c r="H55" s="1" t="str">
-        <f>IF($N55, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J55&amp;IF($N55, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N55, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J55&amp;IF($N55, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthylene Sulphide Pellets)</v>
       </c>
       <c r="I55" s="1" t="str">
-        <f>IF($N55, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J55&amp;IF($N55, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N55, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J55&amp;IF($N55, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthylene Sulphide Pellets)</v>
       </c>
       <c r="J55" s="1" t="str">
@@ -12431,19 +12435,19 @@
         <v>232</v>
       </c>
       <c r="F56" s="1" t="str">
-        <f>IF($N56, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J56&amp;IF($N56, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N56, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J56&amp;IF($N56, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="G56" s="1" t="str">
-        <f>IF($N56, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J56&amp;IF($N56, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N56, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J56&amp;IF($N56, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="H56" s="1" t="str">
-        <f>IF($N56, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J56&amp;IF($N56, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N56, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J56&amp;IF($N56, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="I56" s="1" t="str">
-        <f>IF($N56, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J56&amp;IF($N56, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N56, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J56&amp;IF($N56, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="J56" s="1" t="str">
@@ -12483,19 +12487,19 @@
         <v>228</v>
       </c>
       <c r="F57" s="1" t="str">
-        <f>IF($N57, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J57&amp;IF($N57, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N57, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J57&amp;IF($N57, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthylene Terephthalate Glycol-Modified Pellets)</v>
       </c>
       <c r="G57" s="1" t="str">
-        <f>IF($N57, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J57&amp;IF($N57, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N57, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J57&amp;IF($N57, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthylene Terephthalate Glycol-Modified Pellets)</v>
       </c>
       <c r="H57" s="1" t="str">
-        <f>IF($N57, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J57&amp;IF($N57, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N57, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J57&amp;IF($N57, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthylene Terephthalate Glycol-Modified Pellets)</v>
       </c>
       <c r="I57" s="1" t="str">
-        <f>IF($N57, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J57&amp;IF($N57, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N57, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J57&amp;IF($N57, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthylene Terephthalate Glycol-Modified Pellets)</v>
       </c>
       <c r="J57" s="1" t="str">
@@ -12535,19 +12539,19 @@
         <v>224</v>
       </c>
       <c r="F58" s="1" t="str">
-        <f>IF($N58, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J58&amp;IF($N58, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N58, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J58&amp;IF($N58, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyGlycolic Acid Pellets)</v>
       </c>
       <c r="G58" s="1" t="str">
-        <f>IF($N58, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J58&amp;IF($N58, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N58, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J58&amp;IF($N58, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyGlycolic Acid Pellets)</v>
       </c>
       <c r="H58" s="1" t="str">
-        <f>IF($N58, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J58&amp;IF($N58, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N58, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J58&amp;IF($N58, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyGlycolic Acid Pellets)</v>
       </c>
       <c r="I58" s="1" t="str">
-        <f>IF($N58, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J58&amp;IF($N58, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N58, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J58&amp;IF($N58, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyGlycolic Acid Pellets)</v>
       </c>
       <c r="J58" s="1" t="str">
@@ -12587,19 +12591,19 @@
         <v>220</v>
       </c>
       <c r="F59" s="1" t="str">
-        <f>IF($N59, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J59&amp;IF($N59, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N59, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J59&amp;IF($N59, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyHexamethylene Adipamide Pellets)</v>
       </c>
       <c r="G59" s="1" t="str">
-        <f>IF($N59, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J59&amp;IF($N59, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N59, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J59&amp;IF($N59, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyHexamethylene Adipamide Pellets)</v>
       </c>
       <c r="H59" s="1" t="str">
-        <f>IF($N59, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J59&amp;IF($N59, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N59, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J59&amp;IF($N59, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyHexamethylene Adipamide Pellets)</v>
       </c>
       <c r="I59" s="1" t="str">
-        <f>IF($N59, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J59&amp;IF($N59, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N59, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J59&amp;IF($N59, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyHexamethylene Adipamide Pellets)</v>
       </c>
       <c r="J59" s="1" t="str">
@@ -12639,19 +12643,19 @@
         <v>216</v>
       </c>
       <c r="F60" s="1" t="str">
-        <f>IF($N60, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J60&amp;IF($N60, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N60, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J60&amp;IF($N60, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyHexamethylene Sebacamide Pellets)</v>
       </c>
       <c r="G60" s="1" t="str">
-        <f>IF($N60, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J60&amp;IF($N60, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N60, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J60&amp;IF($N60, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyHexamethylene Sebacamide Pellets)</v>
       </c>
       <c r="H60" s="1" t="str">
-        <f>IF($N60, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J60&amp;IF($N60, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N60, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J60&amp;IF($N60, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyHexamethylene Sebacamide Pellets)</v>
       </c>
       <c r="I60" s="1" t="str">
-        <f>IF($N60, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J60&amp;IF($N60, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N60, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J60&amp;IF($N60, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyHexamethylene Sebacamide Pellets)</v>
       </c>
       <c r="J60" s="1" t="str">
@@ -12691,19 +12695,19 @@
         <v>212</v>
       </c>
       <c r="F61" s="1" t="str">
-        <f>IF($N61, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J61&amp;IF($N61, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N61, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J61&amp;IF($N61, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyHydroxyalkanoate Pellets)</v>
       </c>
       <c r="G61" s="1" t="str">
-        <f>IF($N61, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J61&amp;IF($N61, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N61, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J61&amp;IF($N61, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyHydroxyalkanoate Pellets)</v>
       </c>
       <c r="H61" s="1" t="str">
-        <f>IF($N61, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J61&amp;IF($N61, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N61, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J61&amp;IF($N61, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyHydroxyalkanoate Pellets)</v>
       </c>
       <c r="I61" s="1" t="str">
-        <f>IF($N61, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J61&amp;IF($N61, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N61, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J61&amp;IF($N61, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyHydroxyalkanoate Pellets)</v>
       </c>
       <c r="J61" s="1" t="str">
@@ -12740,19 +12744,19 @@
         <v>208</v>
       </c>
       <c r="F62" s="1" t="str">
-        <f>IF($N62, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J62&amp;IF($N62, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N62, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J62&amp;IF($N62, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyHydroxybutyrate-Co-Hydroxyvalerate Pellets)</v>
       </c>
       <c r="G62" s="1" t="str">
-        <f>IF($N62, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J62&amp;IF($N62, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N62, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J62&amp;IF($N62, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyHydroxybutyrate-Co-Hydroxyvalerate Pellets)</v>
       </c>
       <c r="H62" s="1" t="str">
-        <f>IF($N62, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J62&amp;IF($N62, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N62, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J62&amp;IF($N62, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyHydroxybutyrate-Co-Hydroxyvalerate Pellets)</v>
       </c>
       <c r="I62" s="1" t="str">
-        <f>IF($N62, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J62&amp;IF($N62, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N62, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J62&amp;IF($N62, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyHydroxybutyrate-Co-Hydroxyvalerate Pellets)</v>
       </c>
       <c r="J62" s="1" t="str">
@@ -12792,19 +12796,19 @@
         <v>204</v>
       </c>
       <c r="F63" s="1" t="str">
-        <f>IF($N63, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J63&amp;IF($N63, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N63, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J63&amp;IF($N63, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyImide Pellets)</v>
       </c>
       <c r="G63" s="1" t="str">
-        <f>IF($N63, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J63&amp;IF($N63, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N63, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J63&amp;IF($N63, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyImide Pellets)</v>
       </c>
       <c r="H63" s="1" t="str">
-        <f>IF($N63, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J63&amp;IF($N63, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N63, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J63&amp;IF($N63, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyImide Pellets)</v>
       </c>
       <c r="I63" s="1" t="str">
-        <f>IF($N63, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J63&amp;IF($N63, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N63, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J63&amp;IF($N63, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyImide Pellets)</v>
       </c>
       <c r="J63" s="1" t="str">
@@ -12841,19 +12845,19 @@
         <v>200</v>
       </c>
       <c r="F64" s="1" t="str">
-        <f>IF($N64, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J64&amp;IF($N64, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N64, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J64&amp;IF($N64, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyIsoBorynl Acrylate Pellets)</v>
       </c>
       <c r="G64" s="1" t="str">
-        <f>IF($N64, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J64&amp;IF($N64, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N64, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J64&amp;IF($N64, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyIsoBorynl Acrylate Pellets)</v>
       </c>
       <c r="H64" s="1" t="str">
-        <f>IF($N64, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J64&amp;IF($N64, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N64, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J64&amp;IF($N64, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyIsoBorynl Acrylate Pellets)</v>
       </c>
       <c r="I64" s="1" t="str">
-        <f>IF($N64, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J64&amp;IF($N64, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N64, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J64&amp;IF($N64, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyIsoBorynl Acrylate Pellets)</v>
       </c>
       <c r="J64" s="1" t="str">
@@ -12890,19 +12894,19 @@
         <v>196</v>
       </c>
       <c r="F65" s="1" t="str">
-        <f>IF($N65, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J65&amp;IF($N65, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N65, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J65&amp;IF($N65, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyIsoButyl Acrylate Pellets)</v>
       </c>
       <c r="G65" s="1" t="str">
-        <f>IF($N65, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J65&amp;IF($N65, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N65, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J65&amp;IF($N65, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyIsoButyl Acrylate Pellets)</v>
       </c>
       <c r="H65" s="1" t="str">
-        <f>IF($N65, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J65&amp;IF($N65, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N65, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J65&amp;IF($N65, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyIsoButyl Acrylate Pellets)</v>
       </c>
       <c r="I65" s="1" t="str">
-        <f>IF($N65, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J65&amp;IF($N65, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N65, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J65&amp;IF($N65, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyIsoButyl Acrylate Pellets)</v>
       </c>
       <c r="J65" s="1" t="str">
@@ -12942,19 +12946,19 @@
         <v>192</v>
       </c>
       <c r="F66" s="1" t="str">
-        <f>IF($N66, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J66&amp;IF($N66, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N66, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J66&amp;IF($N66, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyIsoButylene Pellets)</v>
       </c>
       <c r="G66" s="1" t="str">
-        <f>IF($N66, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J66&amp;IF($N66, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N66, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J66&amp;IF($N66, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyIsoButylene Pellets)</v>
       </c>
       <c r="H66" s="1" t="str">
-        <f>IF($N66, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J66&amp;IF($N66, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N66, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J66&amp;IF($N66, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyIsoButylene Pellets)</v>
       </c>
       <c r="I66" s="1" t="str">
-        <f>IF($N66, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J66&amp;IF($N66, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N66, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J66&amp;IF($N66, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyIsoButylene Pellets)</v>
       </c>
       <c r="J66" s="1" t="str">
@@ -12994,19 +12998,19 @@
         <v>188</v>
       </c>
       <c r="F67" s="1" t="str">
-        <f>IF($N67, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J67&amp;IF($N67, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N67, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J67&amp;IF($N67, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyIsoPrene Pellets)</v>
       </c>
       <c r="G67" s="1" t="str">
-        <f>IF($N67, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J67&amp;IF($N67, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N67, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J67&amp;IF($N67, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyIsoPrene Pellets)</v>
       </c>
       <c r="H67" s="1" t="str">
-        <f>IF($N67, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J67&amp;IF($N67, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N67, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J67&amp;IF($N67, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyIsoPrene Pellets)</v>
       </c>
       <c r="I67" s="1" t="str">
-        <f>IF($N67, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J67&amp;IF($N67, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N67, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J67&amp;IF($N67, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyIsoPrene Pellets)</v>
       </c>
       <c r="J67" s="1" t="str">
@@ -13046,19 +13050,19 @@
         <v>184</v>
       </c>
       <c r="F68" s="1" t="str">
-        <f>IF($N68, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J68&amp;IF($N68, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N68, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J68&amp;IF($N68, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyLactic Acid Pellets)</v>
       </c>
       <c r="G68" s="1" t="str">
-        <f>IF($N68, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J68&amp;IF($N68, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N68, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J68&amp;IF($N68, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyLactic Acid Pellets)</v>
       </c>
       <c r="H68" s="1" t="str">
-        <f>IF($N68, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J68&amp;IF($N68, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N68, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J68&amp;IF($N68, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyLactic Acid Pellets)</v>
       </c>
       <c r="I68" s="1" t="str">
-        <f>IF($N68, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J68&amp;IF($N68, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N68, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J68&amp;IF($N68, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyLactic Acid Pellets)</v>
       </c>
       <c r="J68" s="1" t="str">
@@ -13095,19 +13099,19 @@
         <v>180</v>
       </c>
       <c r="F69" s="1" t="str">
-        <f>IF($N69, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J69&amp;IF($N69, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N69, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J69&amp;IF($N69, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyLactic-Co-Glycolic Acid Pellets)</v>
       </c>
       <c r="G69" s="1" t="str">
-        <f>IF($N69, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J69&amp;IF($N69, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N69, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J69&amp;IF($N69, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyLactic-Co-Glycolic Acid Pellets)</v>
       </c>
       <c r="H69" s="1" t="str">
-        <f>IF($N69, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J69&amp;IF($N69, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N69, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J69&amp;IF($N69, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyLactic-Co-Glycolic Acid Pellets)</v>
       </c>
       <c r="I69" s="1" t="str">
-        <f>IF($N69, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J69&amp;IF($N69, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N69, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J69&amp;IF($N69, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyLactic-Co-Glycolic Acid Pellets)</v>
       </c>
       <c r="J69" s="1" t="str">
@@ -13144,19 +13148,19 @@
         <v>176</v>
       </c>
       <c r="F70" s="1" t="str">
-        <f>IF($N70, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J70&amp;IF($N70, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N70, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J70&amp;IF($N70, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyMethyl Acrylate Pellets)</v>
       </c>
       <c r="G70" s="1" t="str">
-        <f>IF($N70, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J70&amp;IF($N70, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N70, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J70&amp;IF($N70, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyMethyl Acrylate Pellets)</v>
       </c>
       <c r="H70" s="1" t="str">
-        <f>IF($N70, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J70&amp;IF($N70, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N70, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J70&amp;IF($N70, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyMethyl Acrylate Pellets)</v>
       </c>
       <c r="I70" s="1" t="str">
-        <f>IF($N70, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J70&amp;IF($N70, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N70, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J70&amp;IF($N70, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyMethyl Acrylate Pellets)</v>
       </c>
       <c r="J70" s="1" t="str">
@@ -13193,19 +13197,19 @@
         <v>172</v>
       </c>
       <c r="F71" s="1" t="str">
-        <f>IF($N71, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J71&amp;IF($N71, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N71, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J71&amp;IF($N71, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyMethyl Cyanoacrylate Pellets)</v>
       </c>
       <c r="G71" s="1" t="str">
-        <f>IF($N71, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J71&amp;IF($N71, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N71, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J71&amp;IF($N71, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyMethyl Cyanoacrylate Pellets)</v>
       </c>
       <c r="H71" s="1" t="str">
-        <f>IF($N71, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J71&amp;IF($N71, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N71, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J71&amp;IF($N71, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyMethyl Cyanoacrylate Pellets)</v>
       </c>
       <c r="I71" s="1" t="str">
-        <f>IF($N71, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J71&amp;IF($N71, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N71, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J71&amp;IF($N71, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyMethyl Cyanoacrylate Pellets)</v>
       </c>
       <c r="J71" s="1" t="str">
@@ -13242,19 +13246,19 @@
         <v>168</v>
       </c>
       <c r="F72" s="1" t="str">
-        <f>IF($N72, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J72&amp;IF($N72, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N72, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J72&amp;IF($N72, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyMethyl Methacrylate Pellets)</v>
       </c>
       <c r="G72" s="1" t="str">
-        <f>IF($N72, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J72&amp;IF($N72, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N72, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J72&amp;IF($N72, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyMethyl Methacrylate Pellets)</v>
       </c>
       <c r="H72" s="1" t="str">
-        <f>IF($N72, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J72&amp;IF($N72, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N72, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J72&amp;IF($N72, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyMethyl Methacrylate Pellets)</v>
       </c>
       <c r="I72" s="1" t="str">
-        <f>IF($N72, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J72&amp;IF($N72, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N72, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J72&amp;IF($N72, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyMethyl Methacrylate Pellets)</v>
       </c>
       <c r="J72" s="1" t="str">
@@ -13291,19 +13295,19 @@
         <v>164</v>
       </c>
       <c r="F73" s="1" t="str">
-        <f>IF($N73, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J73&amp;IF($N73, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N73, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J73&amp;IF($N73, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyM-Methyl Styrene Pellets)</v>
       </c>
       <c r="G73" s="1" t="str">
-        <f>IF($N73, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J73&amp;IF($N73, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N73, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J73&amp;IF($N73, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyM-Methyl Styrene Pellets)</v>
       </c>
       <c r="H73" s="1" t="str">
-        <f>IF($N73, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J73&amp;IF($N73, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N73, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J73&amp;IF($N73, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyM-Methyl Styrene Pellets)</v>
       </c>
       <c r="I73" s="1" t="str">
-        <f>IF($N73, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J73&amp;IF($N73, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N73, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J73&amp;IF($N73, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyM-Methyl Styrene Pellets)</v>
       </c>
       <c r="J73" s="1" t="str">
@@ -13326,7 +13330,10 @@
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A74" s="2"/>
+      <c r="A74" s="2" t="str">
+        <f>[1]Enums!$A$13</f>
+        <v>1.1.1</v>
+      </c>
       <c r="B74" s="3" t="s">
         <v>163</v>
       </c>
@@ -13340,19 +13347,19 @@
         <v>160</v>
       </c>
       <c r="F74" s="1" t="str">
-        <f>IF($N74, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J74&amp;IF($N74, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N74, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J74&amp;IF($N74, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyM-Phenylene Isophthalamide Pellets)</v>
       </c>
       <c r="G74" s="1" t="str">
-        <f>IF($N74, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J74&amp;IF($N74, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N74, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J74&amp;IF($N74, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyM-Phenylene Isophthalamide Pellets)</v>
       </c>
       <c r="H74" s="1" t="str">
-        <f>IF($N74, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J74&amp;IF($N74, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N74, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J74&amp;IF($N74, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyM-Phenylene Isophthalamide Pellets)</v>
       </c>
       <c r="I74" s="1" t="str">
-        <f>IF($N74, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J74&amp;IF($N74, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N74, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J74&amp;IF($N74, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyM-Phenylene Isophthalamide Pellets)</v>
       </c>
       <c r="J74" s="1" t="str">
@@ -13367,7 +13374,7 @@
       </c>
       <c r="M74" s="2" t="str">
         <f>[1]Polymers!$C74</f>
-        <v>PMIA</v>
+        <v>nomex</v>
       </c>
       <c r="N74" s="2" t="b">
         <f>[1]Polymers!$D74</f>
@@ -13389,19 +13396,19 @@
         <v>156</v>
       </c>
       <c r="F75" s="1" t="str">
-        <f>IF($N75, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J75&amp;IF($N75, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N75, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J75&amp;IF($N75, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyN-Butyl Acrylate Pellets)</v>
       </c>
       <c r="G75" s="1" t="str">
-        <f>IF($N75, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J75&amp;IF($N75, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N75, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J75&amp;IF($N75, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyN-Butyl Acrylate Pellets)</v>
       </c>
       <c r="H75" s="1" t="str">
-        <f>IF($N75, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J75&amp;IF($N75, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N75, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J75&amp;IF($N75, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyN-Butyl Acrylate Pellets)</v>
       </c>
       <c r="I75" s="1" t="str">
-        <f>IF($N75, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J75&amp;IF($N75, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N75, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J75&amp;IF($N75, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyN-Butyl Acrylate Pellets)</v>
       </c>
       <c r="J75" s="1" t="str">
@@ -13441,19 +13448,19 @@
         <v>152</v>
       </c>
       <c r="F76" s="1" t="str">
-        <f>IF($N76, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J76&amp;IF($N76, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N76, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J76&amp;IF($N76, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyOxymethylene Pellets)</v>
       </c>
       <c r="G76" s="1" t="str">
-        <f>IF($N76, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J76&amp;IF($N76, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N76, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J76&amp;IF($N76, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyOxymethylene Pellets)</v>
       </c>
       <c r="H76" s="1" t="str">
-        <f>IF($N76, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J76&amp;IF($N76, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N76, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J76&amp;IF($N76, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyOxymethylene Pellets)</v>
       </c>
       <c r="I76" s="1" t="str">
-        <f>IF($N76, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J76&amp;IF($N76, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N76, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J76&amp;IF($N76, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyOxymethylene Pellets)</v>
       </c>
       <c r="J76" s="1" t="str">
@@ -13490,19 +13497,19 @@
         <v>148</v>
       </c>
       <c r="F77" s="1" t="str">
-        <f>IF($N77, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J77&amp;IF($N77, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N77, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J77&amp;IF($N77, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyPentamethylene Hexamethylene Dicarbamate Pellets)</v>
       </c>
       <c r="G77" s="1" t="str">
-        <f>IF($N77, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J77&amp;IF($N77, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N77, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J77&amp;IF($N77, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyPentamethylene Hexamethylene Dicarbamate Pellets)</v>
       </c>
       <c r="H77" s="1" t="str">
-        <f>IF($N77, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J77&amp;IF($N77, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N77, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J77&amp;IF($N77, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyPentamethylene Hexamethylene Dicarbamate Pellets)</v>
       </c>
       <c r="I77" s="1" t="str">
-        <f>IF($N77, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J77&amp;IF($N77, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N77, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J77&amp;IF($N77, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyPentamethylene Hexamethylene Dicarbamate Pellets)</v>
       </c>
       <c r="J77" s="1" t="str">
@@ -13539,19 +13546,19 @@
         <v>144</v>
       </c>
       <c r="F78" s="1" t="str">
-        <f>IF($N78, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J78&amp;IF($N78, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N78, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J78&amp;IF($N78, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyPhenol Pellets)</v>
       </c>
       <c r="G78" s="1" t="str">
-        <f>IF($N78, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J78&amp;IF($N78, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N78, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J78&amp;IF($N78, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyPhenol Pellets)</v>
       </c>
       <c r="H78" s="1" t="str">
-        <f>IF($N78, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J78&amp;IF($N78, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N78, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J78&amp;IF($N78, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyPhenol Pellets)</v>
       </c>
       <c r="I78" s="1" t="str">
-        <f>IF($N78, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J78&amp;IF($N78, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N78, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J78&amp;IF($N78, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyPhenol Pellets)</v>
       </c>
       <c r="J78" s="1" t="str">
@@ -13588,19 +13595,19 @@
         <v>140</v>
       </c>
       <c r="F79" s="1" t="str">
-        <f>IF($N79, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J79&amp;IF($N79, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N79, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J79&amp;IF($N79, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyPhenylene Oxide Pellets)</v>
       </c>
       <c r="G79" s="1" t="str">
-        <f>IF($N79, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J79&amp;IF($N79, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N79, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J79&amp;IF($N79, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyPhenylene Oxide Pellets)</v>
       </c>
       <c r="H79" s="1" t="str">
-        <f>IF($N79, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J79&amp;IF($N79, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N79, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J79&amp;IF($N79, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyPhenylene Oxide Pellets)</v>
       </c>
       <c r="I79" s="1" t="str">
-        <f>IF($N79, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J79&amp;IF($N79, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N79, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J79&amp;IF($N79, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyPhenylene Oxide Pellets)</v>
       </c>
       <c r="J79" s="1" t="str">
@@ -13637,19 +13644,19 @@
         <v>136</v>
       </c>
       <c r="F80" s="1" t="str">
-        <f>IF($N80, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J80&amp;IF($N80, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N80, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J80&amp;IF($N80, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyPhosphazene Pellets)</v>
       </c>
       <c r="G80" s="1" t="str">
-        <f>IF($N80, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J80&amp;IF($N80, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N80, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J80&amp;IF($N80, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyPhosphazene Pellets)</v>
       </c>
       <c r="H80" s="1" t="str">
-        <f>IF($N80, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J80&amp;IF($N80, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N80, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J80&amp;IF($N80, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyPhosphazene Pellets)</v>
       </c>
       <c r="I80" s="1" t="str">
-        <f>IF($N80, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J80&amp;IF($N80, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N80, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J80&amp;IF($N80, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyPhosphazene Pellets)</v>
       </c>
       <c r="J80" s="1" t="str">
@@ -13686,19 +13693,19 @@
         <v>132</v>
       </c>
       <c r="F81" s="1" t="str">
-        <f>IF($N81, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J81&amp;IF($N81, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N81, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J81&amp;IF($N81, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyP-Methyl Styrene Pellets)</v>
       </c>
       <c r="G81" s="1" t="str">
-        <f>IF($N81, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J81&amp;IF($N81, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N81, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J81&amp;IF($N81, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyP-Methyl Styrene Pellets)</v>
       </c>
       <c r="H81" s="1" t="str">
-        <f>IF($N81, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J81&amp;IF($N81, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N81, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J81&amp;IF($N81, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyP-Methyl Styrene Pellets)</v>
       </c>
       <c r="I81" s="1" t="str">
-        <f>IF($N81, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J81&amp;IF($N81, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N81, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J81&amp;IF($N81, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyP-Methyl Styrene Pellets)</v>
       </c>
       <c r="J81" s="1" t="str">
@@ -13735,19 +13742,19 @@
         <v>128</v>
       </c>
       <c r="F82" s="1" t="str">
-        <f>IF($N82, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J82&amp;IF($N82, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N82, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J82&amp;IF($N82, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyP-Phenylene Sulphide Pellets)</v>
       </c>
       <c r="G82" s="1" t="str">
-        <f>IF($N82, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J82&amp;IF($N82, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N82, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J82&amp;IF($N82, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyP-Phenylene Sulphide Pellets)</v>
       </c>
       <c r="H82" s="1" t="str">
-        <f>IF($N82, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J82&amp;IF($N82, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N82, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J82&amp;IF($N82, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyP-Phenylene Sulphide Pellets)</v>
       </c>
       <c r="I82" s="1" t="str">
-        <f>IF($N82, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J82&amp;IF($N82, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N82, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J82&amp;IF($N82, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyP-Phenylene Sulphide Pellets)</v>
       </c>
       <c r="J82" s="1" t="str">
@@ -13787,19 +13794,19 @@
         <v>124</v>
       </c>
       <c r="F83" s="1" t="str">
-        <f>IF($N83, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J83&amp;IF($N83, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N83, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J83&amp;IF($N83, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyP-Phenylene Terephthalamide Pellets)</v>
       </c>
       <c r="G83" s="1" t="str">
-        <f>IF($N83, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J83&amp;IF($N83, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N83, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J83&amp;IF($N83, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyP-Phenylene Terephthalamide Pellets)</v>
       </c>
       <c r="H83" s="1" t="str">
-        <f>IF($N83, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J83&amp;IF($N83, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N83, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J83&amp;IF($N83, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyP-Phenylene Terephthalamide Pellets)</v>
       </c>
       <c r="I83" s="1" t="str">
-        <f>IF($N83, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J83&amp;IF($N83, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N83, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J83&amp;IF($N83, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyP-Phenylene Terephthalamide Pellets)</v>
       </c>
       <c r="J83" s="1" t="str">
@@ -13839,19 +13846,19 @@
         <v>120</v>
       </c>
       <c r="F84" s="1" t="str">
-        <f>IF($N84, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J84&amp;IF($N84, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N84, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J84&amp;IF($N84, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyPropylene Pellets)</v>
       </c>
       <c r="G84" s="1" t="str">
-        <f>IF($N84, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J84&amp;IF($N84, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N84, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J84&amp;IF($N84, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyPropylene Pellets)</v>
       </c>
       <c r="H84" s="1" t="str">
-        <f>IF($N84, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J84&amp;IF($N84, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N84, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J84&amp;IF($N84, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyPropylene Pellets)</v>
       </c>
       <c r="I84" s="1" t="str">
-        <f>IF($N84, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J84&amp;IF($N84, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N84, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J84&amp;IF($N84, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyPropylene Pellets)</v>
       </c>
       <c r="J84" s="1" t="str">
@@ -13888,19 +13895,19 @@
         <v>116</v>
       </c>
       <c r="F85" s="1" t="str">
-        <f>IF($N85, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J85&amp;IF($N85, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N85, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J85&amp;IF($N85, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyPropylene Glycol Pellets)</v>
       </c>
       <c r="G85" s="1" t="str">
-        <f>IF($N85, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J85&amp;IF($N85, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N85, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J85&amp;IF($N85, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyPropylene Glycol Pellets)</v>
       </c>
       <c r="H85" s="1" t="str">
-        <f>IF($N85, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J85&amp;IF($N85, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N85, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J85&amp;IF($N85, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyPropylene Glycol Pellets)</v>
       </c>
       <c r="I85" s="1" t="str">
-        <f>IF($N85, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J85&amp;IF($N85, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N85, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J85&amp;IF($N85, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyPropylene Glycol Pellets)</v>
       </c>
       <c r="J85" s="1" t="str">
@@ -13937,19 +13944,19 @@
         <v>112</v>
       </c>
       <c r="F86" s="1" t="str">
-        <f>IF($N86, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J86&amp;IF($N86, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N86, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J86&amp;IF($N86, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyPropylene Oxide Pellets)</v>
       </c>
       <c r="G86" s="1" t="str">
-        <f>IF($N86, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J86&amp;IF($N86, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N86, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J86&amp;IF($N86, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyPropylene Oxide Pellets)</v>
       </c>
       <c r="H86" s="1" t="str">
-        <f>IF($N86, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J86&amp;IF($N86, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N86, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J86&amp;IF($N86, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyPropylene Oxide Pellets)</v>
       </c>
       <c r="I86" s="1" t="str">
-        <f>IF($N86, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J86&amp;IF($N86, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N86, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J86&amp;IF($N86, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyPropylene Oxide Pellets)</v>
       </c>
       <c r="J86" s="1" t="str">
@@ -13989,19 +13996,19 @@
         <v>108</v>
       </c>
       <c r="F87" s="1" t="str">
-        <f>IF($N87, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J87&amp;IF($N87, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N87, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J87&amp;IF($N87, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyStyrene Pellets)</v>
       </c>
       <c r="G87" s="1" t="str">
-        <f>IF($N87, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J87&amp;IF($N87, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N87, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J87&amp;IF($N87, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyStyrene Pellets)</v>
       </c>
       <c r="H87" s="1" t="str">
-        <f>IF($N87, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J87&amp;IF($N87, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N87, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J87&amp;IF($N87, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyStyrene Pellets)</v>
       </c>
       <c r="I87" s="1" t="str">
-        <f>IF($N87, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J87&amp;IF($N87, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N87, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J87&amp;IF($N87, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyStyrene Pellets)</v>
       </c>
       <c r="J87" s="1" t="str">
@@ -14038,19 +14045,19 @@
         <v>104</v>
       </c>
       <c r="F88" s="1" t="str">
-        <f>IF($N88, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J88&amp;IF($N88, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N88, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J88&amp;IF($N88, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyTert-Butyl Acrylate Pellets)</v>
       </c>
       <c r="G88" s="1" t="str">
-        <f>IF($N88, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J88&amp;IF($N88, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N88, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J88&amp;IF($N88, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyTert-Butyl Acrylate Pellets)</v>
       </c>
       <c r="H88" s="1" t="str">
-        <f>IF($N88, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J88&amp;IF($N88, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N88, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J88&amp;IF($N88, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyTert-Butyl Acrylate Pellets)</v>
       </c>
       <c r="I88" s="1" t="str">
-        <f>IF($N88, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J88&amp;IF($N88, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N88, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J88&amp;IF($N88, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyTert-Butyl Acrylate Pellets)</v>
       </c>
       <c r="J88" s="1" t="str">
@@ -14090,19 +14097,19 @@
         <v>100</v>
       </c>
       <c r="F89" s="1" t="str">
-        <f>IF($N89, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J89&amp;IF($N89, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N89, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J89&amp;IF($N89, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyTetraFluoroEthylene Pellets)</v>
       </c>
       <c r="G89" s="1" t="str">
-        <f>IF($N89, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J89&amp;IF($N89, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N89, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J89&amp;IF($N89, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyTetraFluoroEthylene Pellets)</v>
       </c>
       <c r="H89" s="1" t="str">
-        <f>IF($N89, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J89&amp;IF($N89, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N89, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J89&amp;IF($N89, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyTetraFluoroEthylene Pellets)</v>
       </c>
       <c r="I89" s="1" t="str">
-        <f>IF($N89, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J89&amp;IF($N89, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N89, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J89&amp;IF($N89, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyTetraFluoroEthylene Pellets)</v>
       </c>
       <c r="J89" s="1" t="str">
@@ -14139,19 +14146,19 @@
         <v>96</v>
       </c>
       <c r="F90" s="1" t="str">
-        <f>IF($N90, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J90&amp;IF($N90, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N90, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J90&amp;IF($N90, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyTetramethylene Ether Glycol Pellets)</v>
       </c>
       <c r="G90" s="1" t="str">
-        <f>IF($N90, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J90&amp;IF($N90, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N90, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J90&amp;IF($N90, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyTetramethylene Ether Glycol Pellets)</v>
       </c>
       <c r="H90" s="1" t="str">
-        <f>IF($N90, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J90&amp;IF($N90, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N90, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J90&amp;IF($N90, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyTetramethylene Ether Glycol Pellets)</v>
       </c>
       <c r="I90" s="1" t="str">
-        <f>IF($N90, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J90&amp;IF($N90, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N90, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J90&amp;IF($N90, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyTetramethylene Ether Glycol Pellets)</v>
       </c>
       <c r="J90" s="1" t="str">
@@ -14188,19 +14195,19 @@
         <v>92</v>
       </c>
       <c r="F91" s="1" t="str">
-        <f>IF($N91, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J91&amp;IF($N91, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N91, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J91&amp;IF($N91, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyTetramethylene Glycol Pellets)</v>
       </c>
       <c r="G91" s="1" t="str">
-        <f>IF($N91, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J91&amp;IF($N91, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N91, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J91&amp;IF($N91, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyTetramethylene Glycol Pellets)</v>
       </c>
       <c r="H91" s="1" t="str">
-        <f>IF($N91, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J91&amp;IF($N91, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N91, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J91&amp;IF($N91, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyTetramethylene Glycol Pellets)</v>
       </c>
       <c r="I91" s="1" t="str">
-        <f>IF($N91, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J91&amp;IF($N91, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N91, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J91&amp;IF($N91, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyTetramethylene Glycol Pellets)</v>
       </c>
       <c r="J91" s="1" t="str">
@@ -14237,19 +14244,19 @@
         <v>88</v>
       </c>
       <c r="F92" s="1" t="str">
-        <f>IF($N92, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J92&amp;IF($N92, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N92, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J92&amp;IF($N92, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyThiazyl Pellets)</v>
       </c>
       <c r="G92" s="1" t="str">
-        <f>IF($N92, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J92&amp;IF($N92, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N92, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J92&amp;IF($N92, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyThiazyl Pellets)</v>
       </c>
       <c r="H92" s="1" t="str">
-        <f>IF($N92, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J92&amp;IF($N92, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N92, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J92&amp;IF($N92, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyThiazyl Pellets)</v>
       </c>
       <c r="I92" s="1" t="str">
-        <f>IF($N92, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J92&amp;IF($N92, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N92, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J92&amp;IF($N92, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyThiazyl Pellets)</v>
       </c>
       <c r="J92" s="1" t="str">
@@ -14289,19 +14296,19 @@
         <v>84</v>
       </c>
       <c r="F93" s="1" t="str">
-        <f>IF($N93, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J93&amp;IF($N93, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N93, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J93&amp;IF($N93, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyTrimethylene Terephthalate Pellets)</v>
       </c>
       <c r="G93" s="1" t="str">
-        <f>IF($N93, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J93&amp;IF($N93, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N93, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J93&amp;IF($N93, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyTrimethylene Terephthalate Pellets)</v>
       </c>
       <c r="H93" s="1" t="str">
-        <f>IF($N93, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J93&amp;IF($N93, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N93, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J93&amp;IF($N93, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyTrimethylene Terephthalate Pellets)</v>
       </c>
       <c r="I93" s="1" t="str">
-        <f>IF($N93, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J93&amp;IF($N93, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N93, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J93&amp;IF($N93, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyTrimethylene Terephthalate Pellets)</v>
       </c>
       <c r="J93" s="1" t="str">
@@ -14341,19 +14348,19 @@
         <v>80</v>
       </c>
       <c r="F94" s="1" t="str">
-        <f>IF($N94, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J94&amp;IF($N94, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N94, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J94&amp;IF($N94, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyUrethane Pellets)</v>
       </c>
       <c r="G94" s="1" t="str">
-        <f>IF($N94, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J94&amp;IF($N94, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N94, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J94&amp;IF($N94, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyUrethane Pellets)</v>
       </c>
       <c r="H94" s="1" t="str">
-        <f>IF($N94, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J94&amp;IF($N94, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N94, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J94&amp;IF($N94, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyUrethane Pellets)</v>
       </c>
       <c r="I94" s="1" t="str">
-        <f>IF($N94, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J94&amp;IF($N94, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N94, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J94&amp;IF($N94, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyUrethane Pellets)</v>
       </c>
       <c r="J94" s="1" t="str">
@@ -14393,19 +14400,19 @@
         <v>76</v>
       </c>
       <c r="F95" s="1" t="str">
-        <f>IF($N95, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J95&amp;IF($N95, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N95, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J95&amp;IF($N95, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinyl Acetate Pellets)</v>
       </c>
       <c r="G95" s="1" t="str">
-        <f>IF($N95, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J95&amp;IF($N95, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N95, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J95&amp;IF($N95, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinyl Acetate Pellets)</v>
       </c>
       <c r="H95" s="1" t="str">
-        <f>IF($N95, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J95&amp;IF($N95, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N95, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J95&amp;IF($N95, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinyl Acetate Pellets)</v>
       </c>
       <c r="I95" s="1" t="str">
-        <f>IF($N95, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J95&amp;IF($N95, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N95, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J95&amp;IF($N95, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinyl Acetate Pellets)</v>
       </c>
       <c r="J95" s="1" t="str">
@@ -14445,19 +14452,19 @@
         <v>72</v>
       </c>
       <c r="F96" s="1" t="str">
-        <f>IF($N96, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J96&amp;IF($N96, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N96, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J96&amp;IF($N96, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinyl Alcohol Pellets)</v>
       </c>
       <c r="G96" s="1" t="str">
-        <f>IF($N96, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J96&amp;IF($N96, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N96, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J96&amp;IF($N96, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinyl Alcohol Pellets)</v>
       </c>
       <c r="H96" s="1" t="str">
-        <f>IF($N96, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J96&amp;IF($N96, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N96, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J96&amp;IF($N96, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinyl Alcohol Pellets)</v>
       </c>
       <c r="I96" s="1" t="str">
-        <f>IF($N96, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J96&amp;IF($N96, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N96, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J96&amp;IF($N96, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinyl Alcohol Pellets)</v>
       </c>
       <c r="J96" s="1" t="str">
@@ -14494,19 +14501,19 @@
         <v>68</v>
       </c>
       <c r="F97" s="1" t="str">
-        <f>IF($N97, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J97&amp;IF($N97, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N97, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J97&amp;IF($N97, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinyl Butyral Pellets)</v>
       </c>
       <c r="G97" s="1" t="str">
-        <f>IF($N97, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J97&amp;IF($N97, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N97, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J97&amp;IF($N97, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinyl Butyral Pellets)</v>
       </c>
       <c r="H97" s="1" t="str">
-        <f>IF($N97, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J97&amp;IF($N97, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N97, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J97&amp;IF($N97, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinyl Butyral Pellets)</v>
       </c>
       <c r="I97" s="1" t="str">
-        <f>IF($N97, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J97&amp;IF($N97, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N97, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J97&amp;IF($N97, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinyl Butyral Pellets)</v>
       </c>
       <c r="J97" s="1" t="str">
@@ -14546,19 +14553,19 @@
         <v>64</v>
       </c>
       <c r="F98" s="1" t="str">
-        <f>IF($N98, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J98&amp;IF($N98, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N98, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J98&amp;IF($N98, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinyl Chloride Pellets)</v>
       </c>
       <c r="G98" s="1" t="str">
-        <f>IF($N98, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J98&amp;IF($N98, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N98, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J98&amp;IF($N98, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinyl Chloride Pellets)</v>
       </c>
       <c r="H98" s="1" t="str">
-        <f>IF($N98, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J98&amp;IF($N98, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N98, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J98&amp;IF($N98, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinyl Chloride Pellets)</v>
       </c>
       <c r="I98" s="1" t="str">
-        <f>IF($N98, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J98&amp;IF($N98, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N98, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J98&amp;IF($N98, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinyl Chloride Pellets)</v>
       </c>
       <c r="J98" s="1" t="str">
@@ -14598,19 +14605,19 @@
         <v>60</v>
       </c>
       <c r="F99" s="1" t="str">
-        <f>IF($N99, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J99&amp;IF($N99, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N99, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J99&amp;IF($N99, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinyl Chloride Acetate Pellets)</v>
       </c>
       <c r="G99" s="1" t="str">
-        <f>IF($N99, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J99&amp;IF($N99, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N99, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J99&amp;IF($N99, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinyl Chloride Acetate Pellets)</v>
       </c>
       <c r="H99" s="1" t="str">
-        <f>IF($N99, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J99&amp;IF($N99, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N99, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J99&amp;IF($N99, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinyl Chloride Acetate Pellets)</v>
       </c>
       <c r="I99" s="1" t="str">
-        <f>IF($N99, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J99&amp;IF($N99, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N99, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J99&amp;IF($N99, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinyl Chloride Acetate Pellets)</v>
       </c>
       <c r="J99" s="1" t="str">
@@ -14647,19 +14654,19 @@
         <v>56</v>
       </c>
       <c r="F100" s="1" t="str">
-        <f>IF($N100, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J100&amp;IF($N100, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N100, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J100&amp;IF($N100, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinyl Fluoride Pellets)</v>
       </c>
       <c r="G100" s="1" t="str">
-        <f>IF($N100, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J100&amp;IF($N100, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N100, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J100&amp;IF($N100, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinyl Fluoride Pellets)</v>
       </c>
       <c r="H100" s="1" t="str">
-        <f>IF($N100, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J100&amp;IF($N100, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N100, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J100&amp;IF($N100, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinyl Fluoride Pellets)</v>
       </c>
       <c r="I100" s="1" t="str">
-        <f>IF($N100, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J100&amp;IF($N100, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N100, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J100&amp;IF($N100, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinyl Fluoride Pellets)</v>
       </c>
       <c r="J100" s="1" t="str">
@@ -14696,19 +14703,19 @@
         <v>52</v>
       </c>
       <c r="F101" s="1" t="str">
-        <f>IF($N101, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J101&amp;IF($N101, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N101, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J101&amp;IF($N101, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinyl Formal Pellets)</v>
       </c>
       <c r="G101" s="1" t="str">
-        <f>IF($N101, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J101&amp;IF($N101, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N101, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J101&amp;IF($N101, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinyl Formal Pellets)</v>
       </c>
       <c r="H101" s="1" t="str">
-        <f>IF($N101, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J101&amp;IF($N101, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N101, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J101&amp;IF($N101, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinyl Formal Pellets)</v>
       </c>
       <c r="I101" s="1" t="str">
-        <f>IF($N101, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J101&amp;IF($N101, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N101, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J101&amp;IF($N101, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinyl Formal Pellets)</v>
       </c>
       <c r="J101" s="1" t="str">
@@ -14745,19 +14752,19 @@
         <v>48</v>
       </c>
       <c r="F102" s="1" t="str">
-        <f>IF($N102, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J102&amp;IF($N102, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N102, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J102&amp;IF($N102, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinyl Methyl Ether Pellets)</v>
       </c>
       <c r="G102" s="1" t="str">
-        <f>IF($N102, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J102&amp;IF($N102, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N102, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J102&amp;IF($N102, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinyl Methyl Ether Pellets)</v>
       </c>
       <c r="H102" s="1" t="str">
-        <f>IF($N102, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J102&amp;IF($N102, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N102, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J102&amp;IF($N102, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinyl Methyl Ether Pellets)</v>
       </c>
       <c r="I102" s="1" t="str">
-        <f>IF($N102, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J102&amp;IF($N102, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N102, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J102&amp;IF($N102, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinyl Methyl Ether Pellets)</v>
       </c>
       <c r="J102" s="1" t="str">
@@ -14794,19 +14801,19 @@
         <v>44</v>
       </c>
       <c r="F103" s="1" t="str">
-        <f>IF($N103, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J103&amp;IF($N103, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N103, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J103&amp;IF($N103, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinylidene Dichloride Pellets)</v>
       </c>
       <c r="G103" s="1" t="str">
-        <f>IF($N103, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J103&amp;IF($N103, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N103, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J103&amp;IF($N103, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinylidene Dichloride Pellets)</v>
       </c>
       <c r="H103" s="1" t="str">
-        <f>IF($N103, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J103&amp;IF($N103, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N103, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J103&amp;IF($N103, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinylidene Dichloride Pellets)</v>
       </c>
       <c r="I103" s="1" t="str">
-        <f>IF($N103, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J103&amp;IF($N103, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N103, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J103&amp;IF($N103, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinylidene Dichloride Pellets)</v>
       </c>
       <c r="J103" s="1" t="str">
@@ -14843,19 +14850,19 @@
         <v>40</v>
       </c>
       <c r="F104" s="1" t="str">
-        <f>IF($N104, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J104&amp;IF($N104, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N104, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J104&amp;IF($N104, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinylidene Fluoride Pellets)</v>
       </c>
       <c r="G104" s="1" t="str">
-        <f>IF($N104, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J104&amp;IF($N104, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N104, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J104&amp;IF($N104, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinylidene Fluoride Pellets)</v>
       </c>
       <c r="H104" s="1" t="str">
-        <f>IF($N104, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J104&amp;IF($N104, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N104, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J104&amp;IF($N104, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinylidene Fluoride Pellets)</v>
       </c>
       <c r="I104" s="1" t="str">
-        <f>IF($N104, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J104&amp;IF($N104, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N104, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J104&amp;IF($N104, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinylidene Fluoride Pellets)</v>
       </c>
       <c r="J104" s="1" t="str">
@@ -14892,19 +14899,19 @@
         <v>36</v>
       </c>
       <c r="F105" s="1" t="str">
-        <f>IF($N105, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J105&amp;IF($N105, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N105, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J105&amp;IF($N105, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinylidene Fluoride-Trifluoroethylene Pellets)</v>
       </c>
       <c r="G105" s="1" t="str">
-        <f>IF($N105, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J105&amp;IF($N105, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N105, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J105&amp;IF($N105, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinylidene Fluoride-Trifluoroethylene Pellets)</v>
       </c>
       <c r="H105" s="1" t="str">
-        <f>IF($N105, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J105&amp;IF($N105, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N105, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J105&amp;IF($N105, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinylidene Fluoride-Trifluoroethylene Pellets)</v>
       </c>
       <c r="I105" s="1" t="str">
-        <f>IF($N105, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J105&amp;IF($N105, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N105, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J105&amp;IF($N105, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinylidene Fluoride-Trifluoroethylene Pellets)</v>
       </c>
       <c r="J105" s="1" t="str">
@@ -14944,19 +14951,19 @@
         <v>32</v>
       </c>
       <c r="F106" s="1" t="str">
-        <f>IF($N106, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J106&amp;IF($N106, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N106, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J106&amp;IF($N106, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Styrene-Acrylonitrile Pellets)</v>
       </c>
       <c r="G106" s="1" t="str">
-        <f>IF($N106, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J106&amp;IF($N106, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N106, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J106&amp;IF($N106, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Styrene-Acrylonitrile Pellets)</v>
       </c>
       <c r="H106" s="1" t="str">
-        <f>IF($N106, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J106&amp;IF($N106, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N106, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J106&amp;IF($N106, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Styrene-Acrylonitrile Pellets)</v>
       </c>
       <c r="I106" s="1" t="str">
-        <f>IF($N106, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J106&amp;IF($N106, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N106, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J106&amp;IF($N106, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Styrene-Acrylonitrile Pellets)</v>
       </c>
       <c r="J106" s="1" t="str">
@@ -14996,19 +15003,19 @@
         <v>28</v>
       </c>
       <c r="F107" s="1" t="str">
-        <f>IF($N107, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J107&amp;IF($N107, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N107, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J107&amp;IF($N107, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Styrene-Butadiene Rubber Pellets)</v>
       </c>
       <c r="G107" s="1" t="str">
-        <f>IF($N107, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J107&amp;IF($N107, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N107, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J107&amp;IF($N107, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Styrene-Butadiene Rubber Pellets)</v>
       </c>
       <c r="H107" s="1" t="str">
-        <f>IF($N107, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J107&amp;IF($N107, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N107, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J107&amp;IF($N107, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Styrene-Butadiene Rubber Pellets)</v>
       </c>
       <c r="I107" s="1" t="str">
-        <f>IF($N107, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J107&amp;IF($N107, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N107, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J107&amp;IF($N107, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Styrene-Butadiene Rubber Pellets)</v>
       </c>
       <c r="J107" s="1" t="str">
@@ -15048,19 +15055,19 @@
         <v>24</v>
       </c>
       <c r="F108" s="1" t="str">
-        <f>IF($N108, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J108&amp;IF($N108, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N108, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J108&amp;IF($N108, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Styrene-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="G108" s="1" t="str">
-        <f>IF($N108, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J108&amp;IF($N108, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N108, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J108&amp;IF($N108, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Styrene-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="H108" s="1" t="str">
-        <f>IF($N108, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J108&amp;IF($N108, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N108, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J108&amp;IF($N108, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Styrene-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="I108" s="1" t="str">
-        <f>IF($N108, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J108&amp;IF($N108, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N108, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J108&amp;IF($N108, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Styrene-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="J108" s="1" t="str">
@@ -15097,19 +15104,19 @@
         <v>20</v>
       </c>
       <c r="F109" s="1" t="str">
-        <f>IF($N109, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J109&amp;IF($N109, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N109, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J109&amp;IF($N109, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Styrene-Isoprene-Styrene Pellets)</v>
       </c>
       <c r="G109" s="1" t="str">
-        <f>IF($N109, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J109&amp;IF($N109, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N109, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J109&amp;IF($N109, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Styrene-Isoprene-Styrene Pellets)</v>
       </c>
       <c r="H109" s="1" t="str">
-        <f>IF($N109, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J109&amp;IF($N109, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N109, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J109&amp;IF($N109, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Styrene-Isoprene-Styrene Pellets)</v>
       </c>
       <c r="I109" s="1" t="str">
-        <f>IF($N109, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J109&amp;IF($N109, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N109, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J109&amp;IF($N109, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Styrene-Isoprene-Styrene Pellets)</v>
       </c>
       <c r="J109" s="1" t="str">
@@ -15146,19 +15153,19 @@
         <v>16</v>
       </c>
       <c r="F110" s="1" t="str">
-        <f>IF($N110, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J110&amp;IF($N110, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N110, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J110&amp;IF($N110, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Styrene-Maleic Anhydride Copolymer Pellets)</v>
       </c>
       <c r="G110" s="1" t="str">
-        <f>IF($N110, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J110&amp;IF($N110, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N110, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J110&amp;IF($N110, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Styrene-Maleic Anhydride Copolymer Pellets)</v>
       </c>
       <c r="H110" s="1" t="str">
-        <f>IF($N110, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J110&amp;IF($N110, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N110, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J110&amp;IF($N110, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Styrene-Maleic Anhydride Copolymer Pellets)</v>
       </c>
       <c r="I110" s="1" t="str">
-        <f>IF($N110, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J110&amp;IF($N110, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N110, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J110&amp;IF($N110, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Styrene-Maleic Anhydride Copolymer Pellets)</v>
       </c>
       <c r="J110" s="1" t="str">
@@ -15198,19 +15205,19 @@
         <v>12</v>
       </c>
       <c r="F111" s="1" t="str">
-        <f>IF($N111, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J111&amp;IF($N111, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N111, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J111&amp;IF($N111, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Ultra-High-Molecular-Weight PolyEthylene Pellets)</v>
       </c>
       <c r="G111" s="1" t="str">
-        <f>IF($N111, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J111&amp;IF($N111, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N111, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J111&amp;IF($N111, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Ultra-High-Molecular-Weight PolyEthylene Pellets)</v>
       </c>
       <c r="H111" s="1" t="str">
-        <f>IF($N111, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J111&amp;IF($N111, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N111, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J111&amp;IF($N111, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Ultra-High-Molecular-Weight PolyEthylene Pellets)</v>
       </c>
       <c r="I111" s="1" t="str">
-        <f>IF($N111, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J111&amp;IF($N111, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N111, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J111&amp;IF($N111, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Ultra-High-Molecular-Weight PolyEthylene Pellets)</v>
       </c>
       <c r="J111" s="1" t="str">
@@ -15247,19 +15254,19 @@
         <v>8</v>
       </c>
       <c r="F112" s="1" t="str">
-        <f>IF($N112, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J112&amp;IF($N112, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N112, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J112&amp;IF($N112, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Urea-Formaldehyde Polymers Pellets)</v>
       </c>
       <c r="G112" s="1" t="str">
-        <f>IF($N112, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J112&amp;IF($N112, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N112, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J112&amp;IF($N112, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Urea-Formaldehyde Polymers Pellets)</v>
       </c>
       <c r="H112" s="1" t="str">
-        <f>IF($N112, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J112&amp;IF($N112, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N112, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J112&amp;IF($N112, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Urea-Formaldehyde Polymers Pellets)</v>
       </c>
       <c r="I112" s="1" t="str">
-        <f>IF($N112, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J112&amp;IF($N112, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N112, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J112&amp;IF($N112, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Urea-Formaldehyde Polymers Pellets)</v>
       </c>
       <c r="J112" s="1" t="str">
@@ -15299,19 +15306,19 @@
         <v>4</v>
       </c>
       <c r="F113" s="1" t="str">
-        <f>IF($N113, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J113&amp;IF($N113, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N113, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J113&amp;IF($N113, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Very-Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="G113" s="1" t="str">
-        <f>IF($N113, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J113&amp;IF($N113, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N113, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J113&amp;IF($N113, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Very-Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="H113" s="1" t="str">
-        <f>IF($N113, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J113&amp;IF($N113, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N113, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J113&amp;IF($N113, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Very-Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="I113" s="1" t="str">
-        <f>IF($N113, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J113&amp;IF($N113, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N113, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J113&amp;IF($N113, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Very-Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="J113" s="1" t="str">
@@ -15351,19 +15358,19 @@
         <v>0</v>
       </c>
       <c r="F114" s="1" t="str">
-        <f>IF($N114, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J114&amp;IF($N114, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N114, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J114&amp;IF($N114, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Vinyl Acetate-Acrylic Acid Pellets)</v>
       </c>
       <c r="G114" s="1" t="str">
-        <f>IF($N114, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J114&amp;IF($N114, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N114, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J114&amp;IF($N114, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Vinyl Acetate-Acrylic Acid Pellets)</v>
       </c>
       <c r="H114" s="1" t="str">
-        <f>IF($N114, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J114&amp;IF($N114, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N114, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J114&amp;IF($N114, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Vinyl Acetate-Acrylic Acid Pellets)</v>
       </c>
       <c r="I114" s="1" t="str">
-        <f>IF($N114, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J114&amp;IF($N114, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N114, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J114&amp;IF($N114, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Vinyl Acetate-Acrylic Acid Pellets)</v>
       </c>
       <c r="J114" s="1" t="str">
@@ -15403,19 +15410,19 @@
         <v>1853</v>
       </c>
       <c r="F115" s="1" t="str">
-        <f>IF($N115, [1]Enums!$A$21, [1]Enums!$A$23)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N115, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Polycaprolactam Pellets)</v>
       </c>
       <c r="G115" s="1" t="str">
-        <f>IF($N115, [1]Enums!$A$24, [1]Enums!$A$26)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N115, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Polycaprolactam Pellets)</v>
       </c>
       <c r="H115" s="1" t="str">
-        <f>IF($N115, [1]Enums!$A$27, [1]Enums!$A$29)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N115, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Polycaprolactam Pellets)</v>
       </c>
       <c r="I115" s="1" t="str">
-        <f>IF($N115, [1]Enums!$A$30, [1]Enums!$A$32)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N115, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Polycaprolactam Pellets)</v>
       </c>
       <c r="J115" s="1" t="str">
@@ -16196,7 +16203,7 @@
         <v>Steel Ingot</v>
       </c>
       <c r="I2" s="45" t="str">
-        <f>[1]Enums!$A$130&amp;" "&amp;VLOOKUP(H2, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$131&amp;" "&amp;VLOOKUP(H2, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Composite Steel</v>
       </c>
       <c r="J2" s="45">
@@ -16244,7 +16251,7 @@
         <v>Stainless Steel Ingot</v>
       </c>
       <c r="I3" s="45" t="str">
-        <f>[1]Enums!$A$130&amp;" "&amp;VLOOKUP(H3, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$131&amp;" "&amp;VLOOKUP(H3, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Composite Stainless Steel</v>
       </c>
       <c r="J3" s="45">
@@ -16292,7 +16299,7 @@
         <v>Brass Ingot</v>
       </c>
       <c r="I4" s="45" t="str">
-        <f>[1]Enums!$A$130&amp;" "&amp;VLOOKUP(H4, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$131&amp;" "&amp;VLOOKUP(H4, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Composite Brass</v>
       </c>
       <c r="J4" s="45">
@@ -16340,7 +16347,7 @@
         <v>Bronze Ingot</v>
       </c>
       <c r="I5" s="45" t="str">
-        <f>[1]Enums!$A$130&amp;" "&amp;VLOOKUP(H5, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$131&amp;" "&amp;VLOOKUP(H5, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Composite Bronze</v>
       </c>
       <c r="J5" s="45">
@@ -16388,7 +16395,7 @@
         <v>Tungsten Carbide Ingot</v>
       </c>
       <c r="I6" s="45" t="str">
-        <f>[1]Enums!$A$130&amp;" "&amp;VLOOKUP(H6, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$131&amp;" "&amp;VLOOKUP(H6, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Composite Tungsten Carbide</v>
       </c>
       <c r="J6" s="45">
@@ -16436,7 +16443,7 @@
         <v>Nichrome Ingot</v>
       </c>
       <c r="I7" s="45" t="str">
-        <f>[1]Enums!$A$130&amp;" "&amp;VLOOKUP(H7, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$131&amp;" "&amp;VLOOKUP(H7, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Composite Nichrome</v>
       </c>
       <c r="J7" s="45">
@@ -16484,7 +16491,7 @@
         <v>Antimony-Lead Ingot</v>
       </c>
       <c r="I8" s="45" t="str">
-        <f>[1]Enums!$A$130&amp;" "&amp;VLOOKUP(H8, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$131&amp;" "&amp;VLOOKUP(H8, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Composite Antimony-Lead</v>
       </c>
       <c r="J8" s="45">
@@ -16532,7 +16539,7 @@
         <v>Steel Ingot</v>
       </c>
       <c r="I9" s="45" t="str">
-        <f>[1]Enums!$A$131&amp;" "&amp;VLOOKUP(H9, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$132&amp;" "&amp;VLOOKUP(H9, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Engineered Steel</v>
       </c>
       <c r="J9" s="45">
@@ -16580,7 +16587,7 @@
         <v>Stainless Steel Ingot</v>
       </c>
       <c r="I10" s="45" t="str">
-        <f>[1]Enums!$A$131&amp;" "&amp;VLOOKUP(H10, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$132&amp;" "&amp;VLOOKUP(H10, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Engineered Stainless Steel</v>
       </c>
       <c r="J10" s="45">
@@ -16628,7 +16635,7 @@
         <v>Brass Ingot</v>
       </c>
       <c r="I11" s="45" t="str">
-        <f>[1]Enums!$A$131&amp;" "&amp;VLOOKUP(H11, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$132&amp;" "&amp;VLOOKUP(H11, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Engineered Brass</v>
       </c>
       <c r="J11" s="45">
@@ -16676,7 +16683,7 @@
         <v>Bronze Ingot</v>
       </c>
       <c r="I12" s="45" t="str">
-        <f>[1]Enums!$A$131&amp;" "&amp;VLOOKUP(H12, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$132&amp;" "&amp;VLOOKUP(H12, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Engineered Bronze</v>
       </c>
       <c r="J12" s="45">
@@ -16724,7 +16731,7 @@
         <v>Tungsten Carbide Ingot</v>
       </c>
       <c r="I13" s="45" t="str">
-        <f>[1]Enums!$A$131&amp;" "&amp;VLOOKUP(H13, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$132&amp;" "&amp;VLOOKUP(H13, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Engineered Tungsten Carbide</v>
       </c>
       <c r="J13" s="45">
@@ -16772,7 +16779,7 @@
         <v>Nichrome Ingot</v>
       </c>
       <c r="I14" s="45" t="str">
-        <f>[1]Enums!$A$131&amp;" "&amp;VLOOKUP(H14, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$132&amp;" "&amp;VLOOKUP(H14, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Engineered Nichrome</v>
       </c>
       <c r="J14" s="45">
@@ -16820,7 +16827,7 @@
         <v>Antimony-Lead Ingot</v>
       </c>
       <c r="I15" s="45" t="str">
-        <f>[1]Enums!$A$131&amp;" "&amp;VLOOKUP(H15, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$132&amp;" "&amp;VLOOKUP(H15, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Engineered Antimony-Lead</v>
       </c>
       <c r="J15" s="45">
@@ -16868,7 +16875,7 @@
         <v>Iron Ingot</v>
       </c>
       <c r="I16" s="45" t="str">
-        <f>[1]Enums!$A$130&amp;" Iron"</f>
+        <f>[1]Enums!$A$131&amp;" Iron"</f>
         <v>Composite Iron</v>
       </c>
       <c r="J16" s="45">
@@ -16916,7 +16923,7 @@
         <v>Iron Ingot</v>
       </c>
       <c r="I17" s="45" t="str">
-        <f>[1]Enums!$A$131&amp;" Iron"</f>
+        <f>[1]Enums!$A$132&amp;" Iron"</f>
         <v>Engineered Iron</v>
       </c>
       <c r="J17" s="45">
@@ -16964,7 +16971,7 @@
         <v>Diamond</v>
       </c>
       <c r="I18" s="45" t="str">
-        <f>[1]Enums!$A$130&amp;" Diamond"</f>
+        <f>[1]Enums!$A$131&amp;" Diamond"</f>
         <v>Composite Diamond</v>
       </c>
       <c r="J18" s="45">
@@ -17012,7 +17019,7 @@
         <v>Diamond</v>
       </c>
       <c r="I19" s="45" t="str">
-        <f>[1]Enums!$A$131&amp;" Diamond"</f>
+        <f>[1]Enums!$A$132&amp;" Diamond"</f>
         <v>Engineered Diamond</v>
       </c>
       <c r="J19" s="45">
@@ -17313,7 +17320,7 @@
         <v>Molded Item</v>
       </c>
       <c r="F1" s="36" t="str">
-        <f xml:space="preserve"> [1]Enums!$A$95</f>
+        <f xml:space="preserve"> [1]Enums!$A$96</f>
         <v>Base Material</v>
       </c>
       <c r="G1" s="30" t="s">
@@ -17341,7 +17348,7 @@
         <v>1812</v>
       </c>
       <c r="C2" s="22" t="str">
-        <f>[1]Enums!$A$92&amp;" "&amp;D2</f>
+        <f>[1]Enums!$A$93&amp;" "&amp;D2</f>
         <v>Gripped Iron Shovel</v>
       </c>
       <c r="D2" s="24" t="str">
@@ -17353,7 +17360,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F2" s="34" t="str">
-        <f>[1]Enums!$A$98</f>
+        <f>[1]Enums!$A$99</f>
         <v>Iron</v>
       </c>
       <c r="G2" s="24">
@@ -17378,7 +17385,7 @@
         <v>1811</v>
       </c>
       <c r="C3" s="22" t="str">
-        <f>[1]Enums!$A$92&amp;" "&amp;D3</f>
+        <f>[1]Enums!$A$93&amp;" "&amp;D3</f>
         <v>Gripped Iron Pickaxe</v>
       </c>
       <c r="D3" s="21" t="str">
@@ -17390,7 +17397,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F3" s="34" t="str">
-        <f>[1]Enums!$A$98</f>
+        <f>[1]Enums!$A$99</f>
         <v>Iron</v>
       </c>
       <c r="G3" s="24">
@@ -17415,7 +17422,7 @@
         <v>1810</v>
       </c>
       <c r="C4" s="22" t="str">
-        <f>[1]Enums!$A$92&amp;" "&amp;D4</f>
+        <f>[1]Enums!$A$93&amp;" "&amp;D4</f>
         <v>Gripped Iron Axe</v>
       </c>
       <c r="D4" s="21" t="str">
@@ -17427,7 +17434,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F4" s="34" t="str">
-        <f>[1]Enums!$A$98</f>
+        <f>[1]Enums!$A$99</f>
         <v>Iron</v>
       </c>
       <c r="G4" s="24">
@@ -17452,7 +17459,7 @@
         <v>1809</v>
       </c>
       <c r="C5" s="22" t="str">
-        <f>[1]Enums!$A$92&amp;" "&amp;D5</f>
+        <f>[1]Enums!$A$93&amp;" "&amp;D5</f>
         <v>Gripped Iron Sword</v>
       </c>
       <c r="D5" s="21" t="str">
@@ -17464,7 +17471,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F5" s="34" t="str">
-        <f>[1]Enums!$A$98</f>
+        <f>[1]Enums!$A$99</f>
         <v>Iron</v>
       </c>
       <c r="G5" s="24">
@@ -17489,7 +17496,7 @@
         <v>1808</v>
       </c>
       <c r="C6" s="22" t="str">
-        <f>[1]Enums!$A$92&amp;" "&amp;D6</f>
+        <f>[1]Enums!$A$93&amp;" "&amp;D6</f>
         <v>Gripped Wooden Sword</v>
       </c>
       <c r="D6" s="21" t="str">
@@ -17501,7 +17508,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F6" s="34" t="str">
-        <f>[1]Enums!$A$96</f>
+        <f>[1]Enums!$A$97</f>
         <v>Wooden</v>
       </c>
       <c r="G6" s="24">
@@ -17526,7 +17533,7 @@
         <v>1807</v>
       </c>
       <c r="C7" s="22" t="str">
-        <f>[1]Enums!$A$92&amp;" "&amp;D7</f>
+        <f>[1]Enums!$A$93&amp;" "&amp;D7</f>
         <v>Gripped Wooden Shovel</v>
       </c>
       <c r="D7" s="21" t="str">
@@ -17538,7 +17545,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F7" s="34" t="str">
-        <f>[1]Enums!$A$96</f>
+        <f>[1]Enums!$A$97</f>
         <v>Wooden</v>
       </c>
       <c r="G7" s="24">
@@ -17563,7 +17570,7 @@
         <v>1806</v>
       </c>
       <c r="C8" s="22" t="str">
-        <f>[1]Enums!$A$92&amp;" "&amp;D8</f>
+        <f>[1]Enums!$A$93&amp;" "&amp;D8</f>
         <v>Gripped Wooden Pickaxe</v>
       </c>
       <c r="D8" s="21" t="str">
@@ -17575,7 +17582,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F8" s="34" t="str">
-        <f>[1]Enums!$A$96</f>
+        <f>[1]Enums!$A$97</f>
         <v>Wooden</v>
       </c>
       <c r="G8" s="24">
@@ -17600,7 +17607,7 @@
         <v>1805</v>
       </c>
       <c r="C9" s="22" t="str">
-        <f>[1]Enums!$A$92&amp;" "&amp;D9</f>
+        <f>[1]Enums!$A$93&amp;" "&amp;D9</f>
         <v>Gripped Wooden Axe</v>
       </c>
       <c r="D9" s="21" t="str">
@@ -17612,7 +17619,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F9" s="34" t="str">
-        <f>[1]Enums!$A$96</f>
+        <f>[1]Enums!$A$97</f>
         <v>Wooden</v>
       </c>
       <c r="G9" s="24">
@@ -17637,7 +17644,7 @@
         <v>1804</v>
       </c>
       <c r="C10" s="22" t="str">
-        <f>[1]Enums!$A$92&amp;" "&amp;D10</f>
+        <f>[1]Enums!$A$93&amp;" "&amp;D10</f>
         <v>Gripped Stone Sword</v>
       </c>
       <c r="D10" s="21" t="str">
@@ -17649,7 +17656,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F10" s="34" t="str">
-        <f>[1]Enums!$A$97</f>
+        <f>[1]Enums!$A$98</f>
         <v>Stone</v>
       </c>
       <c r="G10" s="24">
@@ -17674,7 +17681,7 @@
         <v>1803</v>
       </c>
       <c r="C11" s="22" t="str">
-        <f>[1]Enums!$A$92&amp;" "&amp;D11</f>
+        <f>[1]Enums!$A$93&amp;" "&amp;D11</f>
         <v>Gripped Stone Shovel</v>
       </c>
       <c r="D11" s="21" t="str">
@@ -17686,7 +17693,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F11" s="34" t="str">
-        <f>[1]Enums!$A$97</f>
+        <f>[1]Enums!$A$98</f>
         <v>Stone</v>
       </c>
       <c r="G11" s="24">
@@ -17711,7 +17718,7 @@
         <v>1802</v>
       </c>
       <c r="C12" s="22" t="str">
-        <f>[1]Enums!$A$92&amp;" "&amp;D12</f>
+        <f>[1]Enums!$A$93&amp;" "&amp;D12</f>
         <v>Gripped Stone Pickaxe</v>
       </c>
       <c r="D12" s="21" t="str">
@@ -17723,7 +17730,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F12" s="34" t="str">
-        <f>[1]Enums!$A$97</f>
+        <f>[1]Enums!$A$98</f>
         <v>Stone</v>
       </c>
       <c r="G12" s="24">
@@ -17748,7 +17755,7 @@
         <v>1801</v>
       </c>
       <c r="C13" s="22" t="str">
-        <f>[1]Enums!$A$92&amp;" "&amp;D13</f>
+        <f>[1]Enums!$A$93&amp;" "&amp;D13</f>
         <v>Gripped Stone Axe</v>
       </c>
       <c r="D13" s="21" t="str">
@@ -17760,7 +17767,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F13" s="34" t="str">
-        <f>[1]Enums!$A$97</f>
+        <f>[1]Enums!$A$98</f>
         <v>Stone</v>
       </c>
       <c r="G13" s="24">
@@ -17785,7 +17792,7 @@
         <v>1800</v>
       </c>
       <c r="C14" s="22" t="str">
-        <f>[1]Enums!$A$92&amp;" "&amp;D14</f>
+        <f>[1]Enums!$A$93&amp;" "&amp;D14</f>
         <v>Gripped Diamond Sword</v>
       </c>
       <c r="D14" s="21" t="str">
@@ -17797,7 +17804,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F14" s="34" t="str">
-        <f>[1]Enums!$A$100</f>
+        <f>[1]Enums!$A$101</f>
         <v>Diamond</v>
       </c>
       <c r="G14" s="24">
@@ -17822,7 +17829,7 @@
         <v>1799</v>
       </c>
       <c r="C15" s="22" t="str">
-        <f>[1]Enums!$A$92&amp;" "&amp;D15</f>
+        <f>[1]Enums!$A$93&amp;" "&amp;D15</f>
         <v>Gripped Diamond Shovel</v>
       </c>
       <c r="D15" s="21" t="str">
@@ -17834,7 +17841,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F15" s="34" t="str">
-        <f>[1]Enums!$A$100</f>
+        <f>[1]Enums!$A$101</f>
         <v>Diamond</v>
       </c>
       <c r="G15" s="24">
@@ -17859,7 +17866,7 @@
         <v>1798</v>
       </c>
       <c r="C16" s="22" t="str">
-        <f>[1]Enums!$A$92&amp;" "&amp;D16</f>
+        <f>[1]Enums!$A$93&amp;" "&amp;D16</f>
         <v>Gripped Diamond Pickaxe</v>
       </c>
       <c r="D16" s="21" t="str">
@@ -17871,7 +17878,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F16" s="34" t="str">
-        <f>[1]Enums!$A$100</f>
+        <f>[1]Enums!$A$101</f>
         <v>Diamond</v>
       </c>
       <c r="G16" s="24">
@@ -17896,7 +17903,7 @@
         <v>1797</v>
       </c>
       <c r="C17" s="22" t="str">
-        <f>[1]Enums!$A$92&amp;" "&amp;D17</f>
+        <f>[1]Enums!$A$93&amp;" "&amp;D17</f>
         <v>Gripped Diamond Axe</v>
       </c>
       <c r="D17" s="21" t="str">
@@ -17908,7 +17915,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F17" s="34" t="str">
-        <f>[1]Enums!$A$100</f>
+        <f>[1]Enums!$A$101</f>
         <v>Diamond</v>
       </c>
       <c r="G17" s="24">
@@ -17933,7 +17940,7 @@
         <v>1796</v>
       </c>
       <c r="C18" s="22" t="str">
-        <f>[1]Enums!$A$92&amp;" "&amp;D18</f>
+        <f>[1]Enums!$A$93&amp;" "&amp;D18</f>
         <v>Gripped Golden Sword</v>
       </c>
       <c r="D18" s="21" t="str">
@@ -17945,7 +17952,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F18" s="34" t="str">
-        <f>[1]Enums!$A$99</f>
+        <f>[1]Enums!$A$100</f>
         <v>Golden</v>
       </c>
       <c r="G18" s="24">
@@ -17970,7 +17977,7 @@
         <v>1795</v>
       </c>
       <c r="C19" s="22" t="str">
-        <f>[1]Enums!$A$92&amp;" "&amp;D19</f>
+        <f>[1]Enums!$A$93&amp;" "&amp;D19</f>
         <v>Gripped Golden Shovel</v>
       </c>
       <c r="D19" s="21" t="str">
@@ -17982,7 +17989,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F19" s="34" t="str">
-        <f>[1]Enums!$A$99</f>
+        <f>[1]Enums!$A$100</f>
         <v>Golden</v>
       </c>
       <c r="G19" s="24">
@@ -18007,7 +18014,7 @@
         <v>1794</v>
       </c>
       <c r="C20" s="22" t="str">
-        <f>[1]Enums!$A$92&amp;" "&amp;D20</f>
+        <f>[1]Enums!$A$93&amp;" "&amp;D20</f>
         <v>Gripped Golden Pickaxe</v>
       </c>
       <c r="D20" s="21" t="str">
@@ -18019,7 +18026,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F20" s="34" t="str">
-        <f>[1]Enums!$A$99</f>
+        <f>[1]Enums!$A$100</f>
         <v>Golden</v>
       </c>
       <c r="G20" s="24">
@@ -18044,7 +18051,7 @@
         <v>1793</v>
       </c>
       <c r="C21" s="22" t="str">
-        <f>[1]Enums!$A$92&amp;" "&amp;D21</f>
+        <f>[1]Enums!$A$93&amp;" "&amp;D21</f>
         <v>Gripped Golden Axe</v>
       </c>
       <c r="D21" s="21" t="str">
@@ -18056,7 +18063,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F21" s="34" t="str">
-        <f>[1]Enums!$A$99</f>
+        <f>[1]Enums!$A$100</f>
         <v>Golden</v>
       </c>
       <c r="G21" s="24">
@@ -18081,7 +18088,7 @@
         <v>1792</v>
       </c>
       <c r="C22" s="22" t="str">
-        <f>[1]Enums!$A$92&amp;" "&amp;D22</f>
+        <f>[1]Enums!$A$93&amp;" "&amp;D22</f>
         <v>Gripped Wooden Hoe</v>
       </c>
       <c r="D22" s="21" t="str">
@@ -18093,7 +18100,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F22" s="34" t="str">
-        <f>[1]Enums!$A$96</f>
+        <f>[1]Enums!$A$97</f>
         <v>Wooden</v>
       </c>
       <c r="G22" s="24">
@@ -18118,7 +18125,7 @@
         <v>1791</v>
       </c>
       <c r="C23" s="22" t="str">
-        <f>[1]Enums!$A$92&amp;" "&amp;D23</f>
+        <f>[1]Enums!$A$93&amp;" "&amp;D23</f>
         <v>Gripped Stone Hoe</v>
       </c>
       <c r="D23" s="21" t="str">
@@ -18130,7 +18137,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F23" s="34" t="str">
-        <f>[1]Enums!$A$97</f>
+        <f>[1]Enums!$A$98</f>
         <v>Stone</v>
       </c>
       <c r="G23" s="24">
@@ -18155,7 +18162,7 @@
         <v>1790</v>
       </c>
       <c r="C24" s="22" t="str">
-        <f>[1]Enums!$A$92&amp;" "&amp;D24</f>
+        <f>[1]Enums!$A$93&amp;" "&amp;D24</f>
         <v>Gripped Iron Hoe</v>
       </c>
       <c r="D24" s="21" t="str">
@@ -18167,7 +18174,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F24" s="34" t="str">
-        <f>[1]Enums!$A$98</f>
+        <f>[1]Enums!$A$99</f>
         <v>Iron</v>
       </c>
       <c r="G24" s="24">
@@ -18192,7 +18199,7 @@
         <v>1789</v>
       </c>
       <c r="C25" s="22" t="str">
-        <f>[1]Enums!$A$92&amp;" "&amp;D25</f>
+        <f>[1]Enums!$A$93&amp;" "&amp;D25</f>
         <v>Gripped Diamond Hoe</v>
       </c>
       <c r="D25" s="21" t="str">
@@ -18204,7 +18211,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F25" s="34" t="str">
-        <f>[1]Enums!$A$100</f>
+        <f>[1]Enums!$A$101</f>
         <v>Diamond</v>
       </c>
       <c r="G25" s="24">
@@ -18229,7 +18236,7 @@
         <v>1788</v>
       </c>
       <c r="C26" s="22" t="str">
-        <f>[1]Enums!$A$92&amp;" "&amp;D26</f>
+        <f>[1]Enums!$A$93&amp;" "&amp;D26</f>
         <v>Gripped Golden Hoe</v>
       </c>
       <c r="D26" s="21" t="str">
@@ -18241,7 +18248,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F26" s="34" t="str">
-        <f>[1]Enums!$A$99</f>
+        <f>[1]Enums!$A$100</f>
         <v>Golden</v>
       </c>
       <c r="G26" s="24">
@@ -18303,7 +18310,7 @@
         <v>1832</v>
       </c>
       <c r="D1" s="36" t="str">
-        <f xml:space="preserve"> [1]Enums!$A$95</f>
+        <f xml:space="preserve"> [1]Enums!$A$96</f>
         <v>Base Material</v>
       </c>
       <c r="E1" s="36" t="s">
@@ -18349,7 +18356,7 @@
         <v>Wooden Pogo Stick</v>
       </c>
       <c r="D2" s="34" t="str">
-        <f>[1]Enums!$A$96</f>
+        <f>[1]Enums!$A$97</f>
         <v>Wooden</v>
       </c>
       <c r="E2" s="37">
@@ -18386,7 +18393,7 @@
         <v>Stone Pogo Stick</v>
       </c>
       <c r="D3" s="34" t="str">
-        <f>[1]Enums!$A$97</f>
+        <f>[1]Enums!$A$98</f>
         <v>Stone</v>
       </c>
       <c r="E3" s="37">
@@ -18422,7 +18429,7 @@
         <v>Iron Pogo Stick</v>
       </c>
       <c r="D4" s="34" t="str">
-        <f>[1]Enums!$A$98</f>
+        <f>[1]Enums!$A$99</f>
         <v>Iron</v>
       </c>
       <c r="E4" s="37">
@@ -18458,7 +18465,7 @@
         <v>Golden Pogo Stick</v>
       </c>
       <c r="D5" s="34" t="str">
-        <f>[1]Enums!$A$99</f>
+        <f>[1]Enums!$A$100</f>
         <v>Golden</v>
       </c>
       <c r="E5" s="37">
@@ -18494,7 +18501,7 @@
         <v>Diamond Pogo Stick</v>
       </c>
       <c r="D6" s="34" t="str">
-        <f>[1]Enums!$A$100</f>
+        <f>[1]Enums!$A$101</f>
         <v>Diamond</v>
       </c>
       <c r="E6" s="37">
@@ -18530,7 +18537,7 @@
         <v>Magic Pogo Stick</v>
       </c>
       <c r="D7" s="34" t="str">
-        <f>[1]Enums!$A$101</f>
+        <f>[1]Enums!$A$102</f>
         <v>Magic</v>
       </c>
       <c r="E7" s="37">
@@ -18562,11 +18569,11 @@
         <v>1821</v>
       </c>
       <c r="C8" s="34" t="str">
-        <f>[1]Enums!$A$92&amp;" "&amp;I8</f>
+        <f>[1]Enums!$A$93&amp;" "&amp;I8</f>
         <v>Gripped Wooden Pogo Stick</v>
       </c>
       <c r="D8" s="34" t="str">
-        <f>[1]Enums!$A$96</f>
+        <f>[1]Enums!$A$97</f>
         <v>Wooden</v>
       </c>
       <c r="E8" s="37">
@@ -18606,11 +18613,11 @@
         <v>1820</v>
       </c>
       <c r="C9" s="34" t="str">
-        <f>[1]Enums!$A$92&amp;" "&amp;I9</f>
+        <f>[1]Enums!$A$93&amp;" "&amp;I9</f>
         <v>Gripped Stone Pogo Stick</v>
       </c>
       <c r="D9" s="34" t="str">
-        <f>[1]Enums!$A$97</f>
+        <f>[1]Enums!$A$98</f>
         <v>Stone</v>
       </c>
       <c r="E9" s="37">
@@ -18650,11 +18657,11 @@
         <v>1819</v>
       </c>
       <c r="C10" s="34" t="str">
-        <f>[1]Enums!$A$92&amp;" "&amp;I10</f>
+        <f>[1]Enums!$A$93&amp;" "&amp;I10</f>
         <v>Gripped Iron Pogo Stick</v>
       </c>
       <c r="D10" s="34" t="str">
-        <f>[1]Enums!$A$98</f>
+        <f>[1]Enums!$A$99</f>
         <v>Iron</v>
       </c>
       <c r="E10" s="37">
@@ -18694,11 +18701,11 @@
         <v>1818</v>
       </c>
       <c r="C11" s="34" t="str">
-        <f>[1]Enums!$A$92&amp;" "&amp;I11</f>
+        <f>[1]Enums!$A$93&amp;" "&amp;I11</f>
         <v>Gripped Golden Pogo Stick</v>
       </c>
       <c r="D11" s="34" t="str">
-        <f>[1]Enums!$A$99</f>
+        <f>[1]Enums!$A$100</f>
         <v>Golden</v>
       </c>
       <c r="E11" s="37">
@@ -18738,11 +18745,11 @@
         <v>1817</v>
       </c>
       <c r="C12" s="34" t="str">
-        <f>[1]Enums!$A$92&amp;" "&amp;I12</f>
+        <f>[1]Enums!$A$93&amp;" "&amp;I12</f>
         <v>Gripped Diamond Pogo Stick</v>
       </c>
       <c r="D12" s="34" t="str">
-        <f>[1]Enums!$A$100</f>
+        <f>[1]Enums!$A$101</f>
         <v>Diamond</v>
       </c>
       <c r="E12" s="37">
@@ -22265,9 +22272,9 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="2">
+      <c r="A74" s="2" t="str">
         <f>Pellets!A74</f>
-        <v>0</v>
+        <v>1.1.1</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>678</v>
@@ -22277,7 +22284,7 @@
       </c>
       <c r="D74" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Block (PMIA)</v>
+        <v>Block (nomex)</v>
       </c>
       <c r="E74" s="1" t="str">
         <f xml:space="preserve"> Pellets!G74</f>
@@ -22285,7 +22292,7 @@
       </c>
       <c r="F74" s="1" t="str">
         <f>VLOOKUP(E74, Pellets!G:M, 7,FALSE)</f>
-        <v>PMIA</v>
+        <v>nomex</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -26563,9 +26570,9 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="2">
+      <c r="A74" s="2" t="str">
         <f>Pellets!A74</f>
-        <v>0</v>
+        <v>1.1.1</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>988</v>
@@ -26581,15 +26588,15 @@
       </c>
       <c r="F74" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Slab (PMIA)</v>
+        <v>Slab (nomex)</v>
       </c>
       <c r="G74" s="1" t="str">
         <f xml:space="preserve"> 'Blocks (Poly)'!D74</f>
-        <v>Block (PMIA)</v>
+        <v>Block (nomex)</v>
       </c>
       <c r="H74" s="1" t="str">
         <f>VLOOKUP(G74,'Blocks (Poly)'!D:F, 3, FALSE)</f>
-        <v>PMIA</v>
+        <v>nomex</v>
       </c>
       <c r="I74">
         <f>'Blocks (Poly)'!G74/2</f>
@@ -30710,9 +30717,9 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="2">
+      <c r="A74" s="2" t="str">
         <f>Pellets!A74</f>
-        <v>0</v>
+        <v>1.1.1</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>1359</v>
@@ -30722,15 +30729,15 @@
       </c>
       <c r="D74" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Wall (PMIA)</v>
+        <v>Wall (nomex)</v>
       </c>
       <c r="E74" s="1" t="str">
         <f xml:space="preserve"> 'Blocks (Poly)'!D74</f>
-        <v>Block (PMIA)</v>
+        <v>Block (nomex)</v>
       </c>
       <c r="F74" s="1" t="str">
         <f>VLOOKUP(E74,'Blocks (Poly)'!D:F, 3, FALSE)</f>
-        <v>PMIA</v>
+        <v>nomex</v>
       </c>
       <c r="G74">
         <f>'Slabs (Poly)'!I74</f>
@@ -34605,9 +34612,9 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="2">
+      <c r="A74" s="2" t="str">
         <f>Pellets!A74</f>
-        <v>0</v>
+        <v>1.1.1</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>1586</v>
@@ -34617,15 +34624,15 @@
       </c>
       <c r="D74" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Stairs (PMIA)</v>
+        <v>Stairs (nomex)</v>
       </c>
       <c r="E74" s="1" t="str">
         <f xml:space="preserve"> 'Blocks (Poly)'!D74</f>
-        <v>Block (PMIA)</v>
+        <v>Block (nomex)</v>
       </c>
       <c r="F74" s="1" t="str">
         <f>VLOOKUP(E74,'Blocks (Poly)'!D:F, 3, FALSE)</f>
-        <v>PMIA</v>
+        <v>nomex</v>
       </c>
       <c r="G74">
         <f>'Slabs (Poly)'!I74</f>
@@ -36471,7 +36478,7 @@
         <v>590</v>
       </c>
       <c r="D1" s="7" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$69</f>
+        <f xml:space="preserve"> [1]Enums!$B$70</f>
         <v>Mold Type</v>
       </c>
       <c r="E1" s="19" t="str">
@@ -36495,7 +36502,7 @@
         <v>Mold (Grip)</v>
       </c>
       <c r="D2" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$73</f>
+        <f xml:space="preserve"> [1]Enums!$B$74</f>
         <v>Mold</v>
       </c>
       <c r="E2" s="11" t="str">
@@ -36520,7 +36527,7 @@
         <v>Mold (Running Shoes)</v>
       </c>
       <c r="D3" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$73</f>
+        <f xml:space="preserve"> [1]Enums!$B$74</f>
         <v>Mold</v>
       </c>
       <c r="E3" s="11" t="str">
@@ -36545,7 +36552,7 @@
         <v>Mold (Scuba Fins)</v>
       </c>
       <c r="D4" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$73</f>
+        <f xml:space="preserve"> [1]Enums!$B$74</f>
         <v>Mold</v>
       </c>
       <c r="E4" s="11" t="str">
@@ -36570,7 +36577,7 @@
         <v>Mold (Scuba Mask)</v>
       </c>
       <c r="D5" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$73</f>
+        <f xml:space="preserve"> [1]Enums!$B$74</f>
         <v>Mold</v>
       </c>
       <c r="E5" s="11" t="str">
@@ -36595,7 +36602,7 @@
         <v>Mold (Gasket)</v>
       </c>
       <c r="D6" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$73</f>
+        <f xml:space="preserve"> [1]Enums!$B$74</f>
         <v>Mold</v>
       </c>
       <c r="E6" s="11" t="str">
@@ -36620,7 +36627,7 @@
         <v>Mold (Life Preserver)</v>
       </c>
       <c r="D7" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$73</f>
+        <f xml:space="preserve"> [1]Enums!$B$74</f>
         <v>Mold</v>
       </c>
       <c r="E7" s="11" t="str">
@@ -36645,7 +36652,7 @@
         <v>Metal Die (Fibers)</v>
       </c>
       <c r="D8" s="2" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$74</f>
+        <f xml:space="preserve"> [1]Enums!$B$75</f>
         <v>Metal Die</v>
       </c>
       <c r="E8" s="11" t="str">
@@ -36670,7 +36677,7 @@
         <v>Metal Die (Tether)</v>
       </c>
       <c r="D9" s="2" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$74</f>
+        <f xml:space="preserve"> [1]Enums!$B$75</f>
         <v>Metal Die</v>
       </c>
       <c r="E9" s="11" t="str">
@@ -36695,7 +36702,7 @@
         <v>Metal Die (Cord)</v>
       </c>
       <c r="D10" s="2" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$74</f>
+        <f xml:space="preserve"> [1]Enums!$B$75</f>
         <v>Metal Die</v>
       </c>
       <c r="E10" s="11" t="str">
@@ -36720,7 +36727,7 @@
         <v>Metal Die (Hose)</v>
       </c>
       <c r="D11" s="2" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$74</f>
+        <f xml:space="preserve"> [1]Enums!$B$75</f>
         <v>Metal Die</v>
       </c>
       <c r="E11" s="11" t="str">
@@ -36745,7 +36752,7 @@
         <v>Metal Die (Large Pipe)</v>
       </c>
       <c r="D12" s="2" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$74</f>
+        <f xml:space="preserve"> [1]Enums!$B$75</f>
         <v>Metal Die</v>
       </c>
       <c r="E12" s="11" t="str">
@@ -36770,7 +36777,7 @@
         <v>Mold (Flashlight Shaft)</v>
       </c>
       <c r="D13" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$73</f>
+        <f xml:space="preserve"> [1]Enums!$B$74</f>
         <v>Mold</v>
       </c>
       <c r="E13" s="11" t="str">
@@ -36794,7 +36801,7 @@
         <v>Mold (Plastic Brick (1 x 1))</v>
       </c>
       <c r="D14" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$73</f>
+        <f xml:space="preserve"> [1]Enums!$B$74</f>
         <v>Mold</v>
       </c>
       <c r="E14" t="str">
@@ -36818,7 +36825,7 @@
         <v>Mold (Plastic Brick (1 x 2))</v>
       </c>
       <c r="D15" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$73</f>
+        <f xml:space="preserve"> [1]Enums!$B$74</f>
         <v>Mold</v>
       </c>
       <c r="E15" t="str">
@@ -36842,7 +36849,7 @@
         <v>Mold (Plastic Brick (1 x 3))</v>
       </c>
       <c r="D16" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$73</f>
+        <f xml:space="preserve"> [1]Enums!$B$74</f>
         <v>Mold</v>
       </c>
       <c r="E16" t="str">
@@ -36866,7 +36873,7 @@
         <v>Mold (Plastic Brick (1 x 4))</v>
       </c>
       <c r="D17" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$73</f>
+        <f xml:space="preserve"> [1]Enums!$B$74</f>
         <v>Mold</v>
       </c>
       <c r="E17" t="str">
@@ -36890,7 +36897,7 @@
         <v>Mold (Plastic Brick (2 x 2))</v>
       </c>
       <c r="D18" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$73</f>
+        <f xml:space="preserve"> [1]Enums!$B$74</f>
         <v>Mold</v>
       </c>
       <c r="E18" t="str">
@@ -36914,7 +36921,7 @@
         <v>Mold (Plastic Brick (2 x 3))</v>
       </c>
       <c r="D19" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$73</f>
+        <f xml:space="preserve"> [1]Enums!$B$74</f>
         <v>Mold</v>
       </c>
       <c r="E19" t="str">
@@ -36938,7 +36945,7 @@
         <v>Mold (Plastic Brick (2 x 4))</v>
       </c>
       <c r="D20" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$73</f>
+        <f xml:space="preserve"> [1]Enums!$B$74</f>
         <v>Mold</v>
       </c>
       <c r="E20" t="str">
@@ -36962,7 +36969,7 @@
         <v>Mold (Plastic Brick (3 x 3))</v>
       </c>
       <c r="D21" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$73</f>
+        <f xml:space="preserve"> [1]Enums!$B$74</f>
         <v>Mold</v>
       </c>
       <c r="E21" t="str">
@@ -36986,7 +36993,7 @@
         <v>Mold (Plastic Brick (3 x 4))</v>
       </c>
       <c r="D22" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$73</f>
+        <f xml:space="preserve"> [1]Enums!$B$74</f>
         <v>Mold</v>
       </c>
       <c r="E22" t="str">
@@ -37010,7 +37017,7 @@
         <v>Mold (Plastic Brick (4 x 4))</v>
       </c>
       <c r="D23" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$73</f>
+        <f xml:space="preserve"> [1]Enums!$B$74</f>
         <v>Mold</v>
       </c>
       <c r="E23" t="str">
@@ -37034,7 +37041,7 @@
         <v>Mold (Plastic Brick (1 x 8))</v>
       </c>
       <c r="D24" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$73</f>
+        <f xml:space="preserve"> [1]Enums!$B$74</f>
         <v>Mold</v>
       </c>
       <c r="E24" t="str">
@@ -37058,7 +37065,7 @@
         <v>Mold (Plastic Brick (2 x 8))</v>
       </c>
       <c r="D25" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$73</f>
+        <f xml:space="preserve"> [1]Enums!$B$74</f>
         <v>Mold</v>
       </c>
       <c r="E25" t="str">
@@ -37082,7 +37089,7 @@
         <v>Mold (Heated Knife Handle)</v>
       </c>
       <c r="D26" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$73</f>
+        <f xml:space="preserve"> [1]Enums!$B$74</f>
         <v>Mold</v>
       </c>
       <c r="E26" s="11" t="str">
@@ -37106,7 +37113,7 @@
         <v>Mold (Rubber Sole)</v>
       </c>
       <c r="D27" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$73</f>
+        <f xml:space="preserve"> [1]Enums!$B$74</f>
         <v>Mold</v>
       </c>
       <c r="E27" s="11" t="str">
@@ -37130,7 +37137,7 @@
         <v>Mold (Battery Case)</v>
       </c>
       <c r="D28" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$73</f>
+        <f xml:space="preserve"> [1]Enums!$B$74</f>
         <v>Mold</v>
       </c>
       <c r="E28" s="11" t="str">
@@ -37154,7 +37161,7 @@
         <v>Mold (Tool Shaft)</v>
       </c>
       <c r="D29" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$73</f>
+        <f xml:space="preserve"> [1]Enums!$B$74</f>
         <v>Mold</v>
       </c>
       <c r="E29" t="str">
@@ -37177,7 +37184,7 @@
   </sheetPr>
   <dimension ref="A1:U156"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="C94" workbookViewId="0">
       <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
@@ -41671,16 +41678,16 @@
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A107" s="23">
+      <c r="A107" s="23" t="str">
         <f>Pellets!A74</f>
-        <v>0</v>
+        <v>1.1.1</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>493</v>
       </c>
       <c r="C107" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D107, Molds!C:E, 3, FALSE)&amp;" ("&amp;F107&amp;")"</f>
-        <v>Fibers (PMIA)</v>
+        <v>Fibers (nomex)</v>
       </c>
       <c r="D107" s="24" t="str">
         <f xml:space="preserve"> Molds!$C$8</f>
@@ -41692,7 +41699,7 @@
       </c>
       <c r="F107" s="21" t="str">
         <f>VLOOKUP(E107, Pellets!F:M, 8,FALSE)</f>
-        <v>PMIA</v>
+        <v>nomex</v>
       </c>
       <c r="G107" s="24">
         <v>16</v>

--- a/config/Polycraft Polymers.xlsx
+++ b/config/Polycraft Polymers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18360" yWindow="0" windowWidth="27240" windowHeight="14310" tabRatio="826"/>
+    <workbookView xWindow="19290" yWindow="0" windowWidth="27240" windowHeight="14310" tabRatio="826" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Pellets" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2485" uniqueCount="2345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2487" uniqueCount="2347">
   <si>
     <t>GC</t>
   </si>
@@ -6879,9 +6879,6 @@
     <t>Baseball Cap</t>
   </si>
   <si>
-    <t>Poncho</t>
-  </si>
-  <si>
     <t>Footie</t>
   </si>
   <si>
@@ -7041,9 +7038,6 @@
     <t>Henley</t>
   </si>
   <si>
-    <t>Underwater</t>
-  </si>
-  <si>
     <t>Swimming Cap</t>
   </si>
   <si>
@@ -7081,6 +7075,18 @@
   </si>
   <si>
     <t>The Emperor's New Kevlar</t>
+  </si>
+  <si>
+    <t>5b</t>
+  </si>
+  <si>
+    <t>19l</t>
+  </si>
+  <si>
+    <t>Water Resistant</t>
+  </si>
+  <si>
+    <t>Wetsuit</t>
   </si>
 </sst>
 </file>
@@ -7185,7 +7191,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7261,6 +7267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7351,108 +7358,113 @@
             <v>1.1.1</v>
           </cell>
         </row>
-        <row r="22">
-          <cell r="A22" t="str">
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>1.1.2</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
             <v>Bag</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>Flask</v>
+            <v>Vial</v>
           </cell>
         </row>
-        <row r="25">
-          <cell r="A25" t="str">
+        <row r="26">
+          <cell r="A26" t="str">
             <v>Sack</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>Cartridge</v>
+            <v>Beaker</v>
           </cell>
         </row>
-        <row r="28">
-          <cell r="A28" t="str">
+        <row r="29">
+          <cell r="A29" t="str">
             <v>Powder Keg</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>Canister</v>
+            <v>Drum</v>
           </cell>
         </row>
-        <row r="31">
-          <cell r="A31" t="str">
+        <row r="32">
+          <cell r="A32" t="str">
             <v>Chemical Silo</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>Chemical Tank</v>
+            <v>Chemical Vat</v>
           </cell>
         </row>
-        <row r="70">
-          <cell r="B70" t="str">
+        <row r="71">
+          <cell r="B71" t="str">
             <v>Mold Type</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="B74" t="str">
-            <v>Mold</v>
           </cell>
         </row>
         <row r="75">
           <cell r="B75" t="str">
+            <v>Mold</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76" t="str">
             <v>Metal Die</v>
           </cell>
         </row>
-        <row r="93">
-          <cell r="A93" t="str">
+        <row r="94">
+          <cell r="A94" t="str">
             <v>Gripped</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="A96" t="str">
-            <v>Base Material</v>
           </cell>
         </row>
         <row r="97">
           <cell r="A97" t="str">
-            <v>Wooden</v>
+            <v>Base Material</v>
           </cell>
         </row>
         <row r="98">
           <cell r="A98" t="str">
-            <v>Stone</v>
+            <v>Wooden</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99" t="str">
-            <v>Iron</v>
+            <v>Stone</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100" t="str">
-            <v>Golden</v>
+            <v>Iron</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101" t="str">
-            <v>Diamond</v>
+            <v>Golden</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102" t="str">
+            <v>Diamond</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103" t="str">
             <v>Magic</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="A131" t="str">
-            <v>Composite</v>
           </cell>
         </row>
         <row r="132">
           <cell r="A132" t="str">
+            <v>Composite</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="A133" t="str">
             <v>Engineered</v>
           </cell>
         </row>
@@ -7681,7 +7693,7 @@
             <v>Carbon Fiber</v>
           </cell>
           <cell r="D7" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="8">
@@ -7994,10 +8006,10 @@
         </row>
         <row r="36">
           <cell r="B36" t="str">
-            <v>PolyAcrylic Ester</v>
+            <v>PolyAcrylic Acid</v>
           </cell>
           <cell r="C36" t="str">
-            <v>PAE</v>
+            <v>PAA</v>
           </cell>
           <cell r="D36" t="b">
             <v>1</v>
@@ -9017,6 +9029,11 @@
         <row r="29">
           <cell r="B29" t="str">
             <v>Tool Shaft</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30" t="str">
+            <v>Lighter Body</v>
           </cell>
         </row>
       </sheetData>
@@ -9587,8 +9604,8 @@
   </sheetPr>
   <dimension ref="A1:N333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9597,7 +9614,7 @@
     <col min="3" max="3" width="4.28515625" customWidth="1"/>
     <col min="4" max="4" width="4.7109375" customWidth="1"/>
     <col min="5" max="5" width="4.42578125" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" style="1" customWidth="1"/>
@@ -9630,19 +9647,19 @@
         <v>Game ID XL</v>
       </c>
       <c r="F1" s="5" t="str">
-        <f xml:space="preserve"> [1]Enums!$A$22&amp;" ("&amp;J1&amp;")"</f>
+        <f xml:space="preserve"> [1]Enums!$A$23&amp;" ("&amp;J1&amp;")"</f>
         <v>Bag (Pellets)</v>
       </c>
       <c r="G1" s="5" t="str">
-        <f xml:space="preserve"> [1]Enums!$A$25&amp;" ("&amp;J1&amp;")"</f>
+        <f xml:space="preserve"> [1]Enums!$A$26&amp;" ("&amp;J1&amp;")"</f>
         <v>Sack (Pellets)</v>
       </c>
       <c r="H1" s="5" t="str">
-        <f xml:space="preserve"> [1]Enums!$A$28&amp;" ("&amp;J1&amp;")"</f>
+        <f xml:space="preserve"> [1]Enums!$A$29&amp;" ("&amp;J1&amp;")"</f>
         <v>Powder Keg (Pellets)</v>
       </c>
       <c r="I1" s="5" t="str">
-        <f xml:space="preserve"> [1]Enums!$A$31&amp;" ("&amp;J1&amp;")"</f>
+        <f xml:space="preserve"> [1]Enums!$A$32&amp;" ("&amp;J1&amp;")"</f>
         <v>Chemical Silo (Pellets)</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -9678,20 +9695,20 @@
         <v>448</v>
       </c>
       <c r="F2" s="1" t="str">
-        <f>IF($N2, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Flask (Acrylic-Formaldehyde Resin)</v>
+        <f>IF($N2, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
+        <v>Vial (Acrylic-Formaldehyde Resin)</v>
       </c>
       <c r="G2" s="1" t="str">
-        <f>IF($N2, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Cartridge (Acrylic-Formaldehyde Resin)</v>
+        <f>IF($N2, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
+        <v>Beaker (Acrylic-Formaldehyde Resin)</v>
       </c>
       <c r="H2" s="1" t="str">
-        <f>IF($N2, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Canister (Acrylic-Formaldehyde Resin)</v>
+        <f>IF($N2, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
+        <v>Drum (Acrylic-Formaldehyde Resin)</v>
       </c>
       <c r="I2" s="1" t="str">
-        <f>IF($N2, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Chemical Tank (Acrylic-Formaldehyde Resin)</v>
+        <f>IF($N2, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
+        <v>Chemical Vat (Acrylic-Formaldehyde Resin)</v>
       </c>
       <c r="J2" s="1" t="str">
         <f>[1]Polymers!$B2</f>
@@ -9730,19 +9747,19 @@
         <v>444</v>
       </c>
       <c r="F3" s="1" t="str">
-        <f>IF($N3, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N3, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Acrylonitrile-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f>IF($N3, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N3, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Acrylonitrile-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="H3" s="1" t="str">
-        <f>IF($N3, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N3, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Acrylonitrile-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="I3" s="1" t="str">
-        <f>IF($N3, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N3, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Acrylonitrile-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="J3" s="1" t="str">
@@ -9779,20 +9796,20 @@
         <v>440</v>
       </c>
       <c r="F4" s="1" t="str">
-        <f>IF($N4, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Flask (Alkyd Resin)</v>
+        <f>IF($N4, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
+        <v>Vial (Alkyd Resin)</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f>IF($N4, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Cartridge (Alkyd Resin)</v>
+        <f>IF($N4, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
+        <v>Beaker (Alkyd Resin)</v>
       </c>
       <c r="H4" s="1" t="str">
-        <f>IF($N4, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Canister (Alkyd Resin)</v>
+        <f>IF($N4, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
+        <v>Drum (Alkyd Resin)</v>
       </c>
       <c r="I4" s="1" t="str">
-        <f>IF($N4, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Chemical Tank (Alkyd Resin)</v>
+        <f>IF($N4, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
+        <v>Chemical Vat (Alkyd Resin)</v>
       </c>
       <c r="J4" s="1" t="str">
         <f>[1]Polymers!$B4</f>
@@ -9831,19 +9848,19 @@
         <v>436</v>
       </c>
       <c r="F5" s="1" t="str">
-        <f>IF($N5, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N5, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Amorphous PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="G5" s="1" t="str">
-        <f>IF($N5, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N5, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Amorphous PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="H5" s="1" t="str">
-        <f>IF($N5, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N5, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Amorphous PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="I5" s="1" t="str">
-        <f>IF($N5, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N5, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Amorphous PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="J5" s="1" t="str">
@@ -9883,19 +9900,19 @@
         <v>432</v>
       </c>
       <c r="F6" s="1" t="str">
-        <f>IF($N6, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N6, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Bromine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f>IF($N6, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N6, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Bromine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="H6" s="1" t="str">
-        <f>IF($N6, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N6, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Bromine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="I6" s="1" t="str">
-        <f>IF($N6, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N6, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Bromine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="J6" s="1" t="str">
@@ -9935,20 +9952,20 @@
         <v>428</v>
       </c>
       <c r="F7" s="1" t="str">
-        <f>IF($N7, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Bag (Carbon Fiber Pellets)</v>
+        <f>IF($N7, [1]Enums!$A$23, [1]Enums!$A$23)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
+        <v>Bag (Carbon Fiber)</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f>IF($N7, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Sack (Carbon Fiber Pellets)</v>
+        <f>IF($N7, [1]Enums!$A$26, [1]Enums!$A$26)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
+        <v>Sack (Carbon Fiber)</v>
       </c>
       <c r="H7" s="1" t="str">
-        <f>IF($N7, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Powder Keg (Carbon Fiber Pellets)</v>
+        <f>IF($N7, [1]Enums!$A$29, [1]Enums!$A$29)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
+        <v>Powder Keg (Carbon Fiber)</v>
       </c>
       <c r="I7" s="1" t="str">
-        <f>IF($N7, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Chemical Silo (Carbon Fiber Pellets)</v>
+        <f>IF($N7, [1]Enums!$A$32, [1]Enums!$A$32)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
+        <v>Chemical Silo (Carbon Fiber)</v>
       </c>
       <c r="J7" s="1" t="str">
         <f>[1]Polymers!$B7</f>
@@ -9966,7 +9983,7 @@
       </c>
       <c r="N7" s="2" t="b">
         <f>[1]Polymers!$D7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -9984,19 +10001,19 @@
         <v>424</v>
       </c>
       <c r="F8" s="1" t="str">
-        <f>IF($N8, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N8, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Cellulose Triacetate Pellets)</v>
       </c>
       <c r="G8" s="1" t="str">
-        <f>IF($N8, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N8, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Cellulose Triacetate Pellets)</v>
       </c>
       <c r="H8" s="1" t="str">
-        <f>IF($N8, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N8, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Cellulose Triacetate Pellets)</v>
       </c>
       <c r="I8" s="1" t="str">
-        <f>IF($N8, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N8, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Cellulose Triacetate Pellets)</v>
       </c>
       <c r="J8" s="1" t="str">
@@ -10036,19 +10053,19 @@
         <v>420</v>
       </c>
       <c r="F9" s="1" t="str">
-        <f>IF($N9, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N9, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Cellulosic Pellets)</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f>IF($N9, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N9, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Cellulosic Pellets)</v>
       </c>
       <c r="H9" s="1" t="str">
-        <f>IF($N9, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N9, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Cellulosic Pellets)</v>
       </c>
       <c r="I9" s="1" t="str">
-        <f>IF($N9, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N9, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Cellulosic Pellets)</v>
       </c>
       <c r="J9" s="1" t="str">
@@ -10088,19 +10105,19 @@
         <v>416</v>
       </c>
       <c r="F10" s="1" t="str">
-        <f>IF($N10, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N10, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Chitin Pellets)</v>
       </c>
       <c r="G10" s="1" t="str">
-        <f>IF($N10, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N10, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Chitin Pellets)</v>
       </c>
       <c r="H10" s="1" t="str">
-        <f>IF($N10, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N10, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Chitin Pellets)</v>
       </c>
       <c r="I10" s="1" t="str">
-        <f>IF($N10, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N10, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Chitin Pellets)</v>
       </c>
       <c r="J10" s="1" t="str">
@@ -10140,19 +10157,19 @@
         <v>412</v>
       </c>
       <c r="F11" s="1" t="str">
-        <f>IF($N11, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N11, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Chlorine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="G11" s="1" t="str">
-        <f>IF($N11, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N11, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Chlorine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="H11" s="1" t="str">
-        <f>IF($N11, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N11, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Chlorine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="I11" s="1" t="str">
-        <f>IF($N11, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N11, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Chlorine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="J11" s="1" t="str">
@@ -10175,7 +10192,10 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2" t="str">
+        <f>[1]Enums!$A$14</f>
+        <v>1.1.2</v>
+      </c>
       <c r="B12" s="3" t="s">
         <v>411</v>
       </c>
@@ -10189,20 +10209,20 @@
         <v>408</v>
       </c>
       <c r="F12" s="1" t="str">
-        <f>IF($N12, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Flask (Epoxy Resin)</v>
+        <f>IF($N12, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
+        <v>Vial (Epoxy Resin)</v>
       </c>
       <c r="G12" s="1" t="str">
-        <f>IF($N12, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Cartridge (Epoxy Resin)</v>
+        <f>IF($N12, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
+        <v>Beaker (Epoxy Resin)</v>
       </c>
       <c r="H12" s="1" t="str">
-        <f>IF($N12, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Canister (Epoxy Resin)</v>
+        <f>IF($N12, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
+        <v>Drum (Epoxy Resin)</v>
       </c>
       <c r="I12" s="1" t="str">
-        <f>IF($N12, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Chemical Tank (Epoxy Resin)</v>
+        <f>IF($N12, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
+        <v>Chemical Vat (Epoxy Resin)</v>
       </c>
       <c r="J12" s="1" t="str">
         <f>[1]Polymers!$B12</f>
@@ -10238,19 +10258,19 @@
         <v>404</v>
       </c>
       <c r="F13" s="1" t="str">
-        <f>IF($N13, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N13, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Ethoxylates Pellets)</v>
       </c>
       <c r="G13" s="1" t="str">
-        <f>IF($N13, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N13, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Ethoxylates Pellets)</v>
       </c>
       <c r="H13" s="1" t="str">
-        <f>IF($N13, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N13, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Ethoxylates Pellets)</v>
       </c>
       <c r="I13" s="1" t="str">
-        <f>IF($N13, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N13, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Ethoxylates Pellets)</v>
       </c>
       <c r="J13" s="1" t="str">
@@ -10290,19 +10310,19 @@
         <v>400</v>
       </c>
       <c r="F14" s="1" t="str">
-        <f>IF($N14, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N14, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Ethylene-Propylene Monomer Pellets)</v>
       </c>
       <c r="G14" s="1" t="str">
-        <f>IF($N14, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N14, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Ethylene-Propylene Monomer Pellets)</v>
       </c>
       <c r="H14" s="1" t="str">
-        <f>IF($N14, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N14, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Ethylene-Propylene Monomer Pellets)</v>
       </c>
       <c r="I14" s="1" t="str">
-        <f>IF($N14, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N14, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Ethylene-Propylene Monomer Pellets)</v>
       </c>
       <c r="J14" s="1" t="str">
@@ -10342,19 +10362,19 @@
         <v>396</v>
       </c>
       <c r="F15" s="1" t="str">
-        <f>IF($N15, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N15, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Ethylene-Propylene-Diene Monomer Pellets)</v>
       </c>
       <c r="G15" s="1" t="str">
-        <f>IF($N15, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N15, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Ethylene-Propylene-Diene Monomer Pellets)</v>
       </c>
       <c r="H15" s="1" t="str">
-        <f>IF($N15, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N15, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Ethylene-Propylene-Diene Monomer Pellets)</v>
       </c>
       <c r="I15" s="1" t="str">
-        <f>IF($N15, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N15, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Ethylene-Propylene-Diene Monomer Pellets)</v>
       </c>
       <c r="J15" s="1" t="str">
@@ -10394,19 +10414,19 @@
         <v>392</v>
       </c>
       <c r="F16" s="1" t="str">
-        <f>IF($N16, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N16, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Ethylene-Vinyl Acetate Pellets)</v>
       </c>
       <c r="G16" s="1" t="str">
-        <f>IF($N16, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N16, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Ethylene-Vinyl Acetate Pellets)</v>
       </c>
       <c r="H16" s="1" t="str">
-        <f>IF($N16, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N16, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Ethylene-Vinyl Acetate Pellets)</v>
       </c>
       <c r="I16" s="1" t="str">
-        <f>IF($N16, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N16, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Ethylene-Vinyl Acetate Pellets)</v>
       </c>
       <c r="J16" s="1" t="str">
@@ -10446,19 +10466,19 @@
         <v>388</v>
       </c>
       <c r="F17" s="1" t="str">
-        <f>IF($N17, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N17, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (High Density PolyEthylene Pellets)</v>
       </c>
       <c r="G17" s="1" t="str">
-        <f>IF($N17, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N17, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (High Density PolyEthylene Pellets)</v>
       </c>
       <c r="H17" s="1" t="str">
-        <f>IF($N17, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N17, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (High Density PolyEthylene Pellets)</v>
       </c>
       <c r="I17" s="1" t="str">
-        <f>IF($N17, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N17, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (High Density PolyEthylene Pellets)</v>
       </c>
       <c r="J17" s="1" t="str">
@@ -10498,19 +10518,19 @@
         <v>384</v>
       </c>
       <c r="F18" s="1" t="str">
-        <f>IF($N18, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N18, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Hydrogenated Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="G18" s="1" t="str">
-        <f>IF($N18, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N18, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Hydrogenated Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="H18" s="1" t="str">
-        <f>IF($N18, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N18, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Hydrogenated Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="I18" s="1" t="str">
-        <f>IF($N18, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N18, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Hydrogenated Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="J18" s="1" t="str">
@@ -10550,19 +10570,19 @@
         <v>380</v>
       </c>
       <c r="F19" s="1" t="str">
-        <f>IF($N19, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N19, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Isobutylene Rubber Pellets)</v>
       </c>
       <c r="G19" s="1" t="str">
-        <f>IF($N19, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N19, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Isobutylene Rubber Pellets)</v>
       </c>
       <c r="H19" s="1" t="str">
-        <f>IF($N19, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N19, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Isobutylene Rubber Pellets)</v>
       </c>
       <c r="I19" s="1" t="str">
-        <f>IF($N19, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N19, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Isobutylene Rubber Pellets)</v>
       </c>
       <c r="J19" s="1" t="str">
@@ -10599,20 +10619,20 @@
         <v>376</v>
       </c>
       <c r="F20" s="1" t="str">
-        <f>IF($N20, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Flask (Lignin)</v>
+        <f>IF($N20, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
+        <v>Vial (Lignin)</v>
       </c>
       <c r="G20" s="1" t="str">
-        <f>IF($N20, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Cartridge (Lignin)</v>
+        <f>IF($N20, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
+        <v>Beaker (Lignin)</v>
       </c>
       <c r="H20" s="1" t="str">
-        <f>IF($N20, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Canister (Lignin)</v>
+        <f>IF($N20, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
+        <v>Drum (Lignin)</v>
       </c>
       <c r="I20" s="1" t="str">
-        <f>IF($N20, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Chemical Tank (Lignin)</v>
+        <f>IF($N20, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
+        <v>Chemical Vat (Lignin)</v>
       </c>
       <c r="J20" s="1" t="str">
         <f>[1]Polymers!$B20</f>
@@ -10651,19 +10671,19 @@
         <v>372</v>
       </c>
       <c r="F21" s="1" t="str">
-        <f>IF($N21, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N21, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Linear Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="G21" s="1" t="str">
-        <f>IF($N21, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N21, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Linear Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="H21" s="1" t="str">
-        <f>IF($N21, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N21, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Linear Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="I21" s="1" t="str">
-        <f>IF($N21, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N21, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Linear Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="J21" s="1" t="str">
@@ -10703,19 +10723,19 @@
         <v>368</v>
       </c>
       <c r="F22" s="1" t="str">
-        <f>IF($N22, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N22, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Liquid Crystal Polymer Pellets)</v>
       </c>
       <c r="G22" s="1" t="str">
-        <f>IF($N22, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N22, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Liquid Crystal Polymer Pellets)</v>
       </c>
       <c r="H22" s="1" t="str">
-        <f>IF($N22, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N22, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Liquid Crystal Polymer Pellets)</v>
       </c>
       <c r="I22" s="1" t="str">
-        <f>IF($N22, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N22, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Liquid Crystal Polymer Pellets)</v>
       </c>
       <c r="J22" s="1" t="str">
@@ -10755,19 +10775,19 @@
         <v>364</v>
       </c>
       <c r="F23" s="1" t="str">
-        <f>IF($N23, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N23, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Low Density PolyEthylene Pellets)</v>
       </c>
       <c r="G23" s="1" t="str">
-        <f>IF($N23, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N23, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Low Density PolyEthylene Pellets)</v>
       </c>
       <c r="H23" s="1" t="str">
-        <f>IF($N23, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N23, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Low Density PolyEthylene Pellets)</v>
       </c>
       <c r="I23" s="1" t="str">
-        <f>IF($N23, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N23, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Low Density PolyEthylene Pellets)</v>
       </c>
       <c r="J23" s="1" t="str">
@@ -10807,19 +10827,19 @@
         <v>360</v>
       </c>
       <c r="F24" s="1" t="str">
-        <f>IF($N24, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N24, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Medium Density PolyEthylene Pellets)</v>
       </c>
       <c r="G24" s="1" t="str">
-        <f>IF($N24, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N24, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Medium Density PolyEthylene Pellets)</v>
       </c>
       <c r="H24" s="1" t="str">
-        <f>IF($N24, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N24, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Medium Density PolyEthylene Pellets)</v>
       </c>
       <c r="I24" s="1" t="str">
-        <f>IF($N24, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N24, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Medium Density PolyEthylene Pellets)</v>
       </c>
       <c r="J24" s="1" t="str">
@@ -10856,20 +10876,20 @@
         <v>356</v>
       </c>
       <c r="F25" s="1" t="str">
-        <f>IF($N25, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Flask (Melamine-Formaldehyde Polymers)</v>
+        <f>IF($N25, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
+        <v>Vial (Melamine-Formaldehyde Polymers)</v>
       </c>
       <c r="G25" s="1" t="str">
-        <f>IF($N25, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Cartridge (Melamine-Formaldehyde Polymers)</v>
+        <f>IF($N25, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
+        <v>Beaker (Melamine-Formaldehyde Polymers)</v>
       </c>
       <c r="H25" s="1" t="str">
-        <f>IF($N25, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Canister (Melamine-Formaldehyde Polymers)</v>
+        <f>IF($N25, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
+        <v>Drum (Melamine-Formaldehyde Polymers)</v>
       </c>
       <c r="I25" s="1" t="str">
-        <f>IF($N25, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Chemical Tank (Melamine-Formaldehyde Polymers)</v>
+        <f>IF($N25, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
+        <v>Chemical Vat (Melamine-Formaldehyde Polymers)</v>
       </c>
       <c r="J25" s="1" t="str">
         <f>[1]Polymers!$B25</f>
@@ -10908,19 +10928,19 @@
         <v>352</v>
       </c>
       <c r="F26" s="1" t="str">
-        <f>IF($N26, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N26, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Metaldehyde Pellets)</v>
       </c>
       <c r="G26" s="1" t="str">
-        <f>IF($N26, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N26, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Metaldehyde Pellets)</v>
       </c>
       <c r="H26" s="1" t="str">
-        <f>IF($N26, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N26, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Metaldehyde Pellets)</v>
       </c>
       <c r="I26" s="1" t="str">
-        <f>IF($N26, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N26, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Metaldehyde Pellets)</v>
       </c>
       <c r="J26" s="1" t="str">
@@ -10960,19 +10980,19 @@
         <v>348</v>
       </c>
       <c r="F27" s="1" t="str">
-        <f>IF($N27, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N27, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="G27" s="1" t="str">
-        <f>IF($N27, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N27, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="H27" s="1" t="str">
-        <f>IF($N27, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N27, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="I27" s="1" t="str">
-        <f>IF($N27, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N27, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="J27" s="1" t="str">
@@ -11012,19 +11032,19 @@
         <v>344</v>
       </c>
       <c r="F28" s="1" t="str">
-        <f>IF($N28, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N28, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Paraformaldehyde Pellets)</v>
       </c>
       <c r="G28" s="1" t="str">
-        <f>IF($N28, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N28, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Paraformaldehyde Pellets)</v>
       </c>
       <c r="H28" s="1" t="str">
-        <f>IF($N28, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N28, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Paraformaldehyde Pellets)</v>
       </c>
       <c r="I28" s="1" t="str">
-        <f>IF($N28, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N28, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Paraformaldehyde Pellets)</v>
       </c>
       <c r="J28" s="1" t="str">
@@ -11064,19 +11084,19 @@
         <v>340</v>
       </c>
       <c r="F29" s="1" t="str">
-        <f>IF($N29, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N29, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Paraldehyde Pellets)</v>
       </c>
       <c r="G29" s="1" t="str">
-        <f>IF($N29, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N29, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Paraldehyde Pellets)</v>
       </c>
       <c r="H29" s="1" t="str">
-        <f>IF($N29, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N29, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Paraldehyde Pellets)</v>
       </c>
       <c r="I29" s="1" t="str">
-        <f>IF($N29, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N29, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Paraldehyde Pellets)</v>
       </c>
       <c r="J29" s="1" t="str">
@@ -11113,20 +11133,20 @@
         <v>336</v>
       </c>
       <c r="F30" s="1" t="str">
-        <f>IF($N30, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Flask (Phenolic Resin)</v>
+        <f>IF($N30, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
+        <v>Vial (Phenolic Resin)</v>
       </c>
       <c r="G30" s="1" t="str">
-        <f>IF($N30, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Cartridge (Phenolic Resin)</v>
+        <f>IF($N30, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
+        <v>Beaker (Phenolic Resin)</v>
       </c>
       <c r="H30" s="1" t="str">
-        <f>IF($N30, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Canister (Phenolic Resin)</v>
+        <f>IF($N30, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
+        <v>Drum (Phenolic Resin)</v>
       </c>
       <c r="I30" s="1" t="str">
-        <f>IF($N30, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Chemical Tank (Phenolic Resin)</v>
+        <f>IF($N30, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
+        <v>Chemical Vat (Phenolic Resin)</v>
       </c>
       <c r="J30" s="1" t="str">
         <f>[1]Polymers!$B30</f>
@@ -11165,19 +11185,19 @@
         <v>332</v>
       </c>
       <c r="F31" s="1" t="str">
-        <f>IF($N31, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N31, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Poly(3-Hydroxybutyrate-Co-3-Hydroxyvalerate) Pellets)</v>
       </c>
       <c r="G31" s="1" t="str">
-        <f>IF($N31, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N31, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Poly(3-Hydroxybutyrate-Co-3-Hydroxyvalerate) Pellets)</v>
       </c>
       <c r="H31" s="1" t="str">
-        <f>IF($N31, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N31, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Poly(3-Hydroxybutyrate-Co-3-Hydroxyvalerate) Pellets)</v>
       </c>
       <c r="I31" s="1" t="str">
-        <f>IF($N31, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N31, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Poly(3-Hydroxybutyrate-Co-3-Hydroxyvalerate) Pellets)</v>
       </c>
       <c r="J31" s="1" t="str">
@@ -11214,19 +11234,19 @@
         <v>328</v>
       </c>
       <c r="F32" s="1" t="str">
-        <f>IF($N32, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N32, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Poly1-Butene Pellets)</v>
       </c>
       <c r="G32" s="1" t="str">
-        <f>IF($N32, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N32, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Poly1-Butene Pellets)</v>
       </c>
       <c r="H32" s="1" t="str">
-        <f>IF($N32, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N32, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Poly1-Butene Pellets)</v>
       </c>
       <c r="I32" s="1" t="str">
-        <f>IF($N32, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N32, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Poly1-Butene Pellets)</v>
       </c>
       <c r="J32" s="1" t="str">
@@ -11263,19 +11283,19 @@
         <v>324</v>
       </c>
       <c r="F33" s="1" t="str">
-        <f>IF($N33, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N33, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Poly2,6-Dimethyl-1,4-Phenylene Ether Pellets)</v>
       </c>
       <c r="G33" s="1" t="str">
-        <f>IF($N33, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N33, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Poly2,6-Dimethyl-1,4-Phenylene Ether Pellets)</v>
       </c>
       <c r="H33" s="1" t="str">
-        <f>IF($N33, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N33, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Poly2,6-Dimethyl-1,4-Phenylene Ether Pellets)</v>
       </c>
       <c r="I33" s="1" t="str">
-        <f>IF($N33, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N33, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Poly2,6-Dimethyl-1,4-Phenylene Ether Pellets)</v>
       </c>
       <c r="J33" s="1" t="str">
@@ -11312,19 +11332,19 @@
         <v>320</v>
       </c>
       <c r="F34" s="1" t="str">
-        <f>IF($N34, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N34, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Poly-2-Hydroxy Butyrate Pellets)</v>
       </c>
       <c r="G34" s="1" t="str">
-        <f>IF($N34, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N34, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Poly-2-Hydroxy Butyrate Pellets)</v>
       </c>
       <c r="H34" s="1" t="str">
-        <f>IF($N34, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N34, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Poly-2-Hydroxy Butyrate Pellets)</v>
       </c>
       <c r="I34" s="1" t="str">
-        <f>IF($N34, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N34, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Poly-2-Hydroxy Butyrate Pellets)</v>
       </c>
       <c r="J34" s="1" t="str">
@@ -11361,19 +11381,19 @@
         <v>316</v>
       </c>
       <c r="F35" s="1" t="str">
-        <f>IF($N35, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N35, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Poly2-Hydroxyethyl Methacrylate Pellets)</v>
       </c>
       <c r="G35" s="1" t="str">
-        <f>IF($N35, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N35, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Poly2-Hydroxyethyl Methacrylate Pellets)</v>
       </c>
       <c r="H35" s="1" t="str">
-        <f>IF($N35, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N35, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Poly2-Hydroxyethyl Methacrylate Pellets)</v>
       </c>
       <c r="I35" s="1" t="str">
-        <f>IF($N35, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N35, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Poly2-Hydroxyethyl Methacrylate Pellets)</v>
       </c>
       <c r="J35" s="1" t="str">
@@ -11396,7 +11416,10 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
+      <c r="A36" s="2" t="str">
+        <f>[1]Enums!$A$14</f>
+        <v>1.1.2</v>
+      </c>
       <c r="B36" s="3" t="s">
         <v>315</v>
       </c>
@@ -11410,24 +11433,24 @@
         <v>312</v>
       </c>
       <c r="F36" s="1" t="str">
-        <f>IF($N36, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Bag (PolyAcrylic Ester Pellets)</v>
+        <f>IF($N36, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
+        <v>Bag (PolyAcrylic Acid Pellets)</v>
       </c>
       <c r="G36" s="1" t="str">
-        <f>IF($N36, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Sack (PolyAcrylic Ester Pellets)</v>
+        <f>IF($N36, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
+        <v>Sack (PolyAcrylic Acid Pellets)</v>
       </c>
       <c r="H36" s="1" t="str">
-        <f>IF($N36, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Powder Keg (PolyAcrylic Ester Pellets)</v>
+        <f>IF($N36, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
+        <v>Powder Keg (PolyAcrylic Acid Pellets)</v>
       </c>
       <c r="I36" s="1" t="str">
-        <f>IF($N36, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Chemical Silo (PolyAcrylic Ester Pellets)</v>
+        <f>IF($N36, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
+        <v>Chemical Silo (PolyAcrylic Acid Pellets)</v>
       </c>
       <c r="J36" s="1" t="str">
         <f>[1]Polymers!$B36</f>
-        <v>PolyAcrylic Ester</v>
+        <v>PolyAcrylic Acid</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -11437,7 +11460,7 @@
       </c>
       <c r="M36" s="2" t="str">
         <f>[1]Polymers!$C36</f>
-        <v>PAE</v>
+        <v>PAA</v>
       </c>
       <c r="N36" s="2" t="b">
         <f>[1]Polymers!$D36</f>
@@ -11462,19 +11485,19 @@
         <v>308</v>
       </c>
       <c r="F37" s="1" t="str">
-        <f>IF($N37, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N37, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyAcrylonitrile Pellets)</v>
       </c>
       <c r="G37" s="1" t="str">
-        <f>IF($N37, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N37, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyAcrylonitrile Pellets)</v>
       </c>
       <c r="H37" s="1" t="str">
-        <f>IF($N37, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N37, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyAcrylonitrile Pellets)</v>
       </c>
       <c r="I37" s="1" t="str">
-        <f>IF($N37, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N37, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyAcrylonitrile Pellets)</v>
       </c>
       <c r="J37" s="1" t="str">
@@ -11514,19 +11537,19 @@
         <v>304</v>
       </c>
       <c r="F38" s="1" t="str">
-        <f>IF($N38, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N38, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="G38" s="1" t="str">
-        <f>IF($N38, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N38, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="H38" s="1" t="str">
-        <f>IF($N38, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N38, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="I38" s="1" t="str">
-        <f>IF($N38, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N38, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="J38" s="1" t="str">
@@ -11566,19 +11589,19 @@
         <v>300</v>
       </c>
       <c r="F39" s="1" t="str">
-        <f>IF($N39, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N39, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyButadiene (high-cis) Pellets)</v>
       </c>
       <c r="G39" s="1" t="str">
-        <f>IF($N39, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N39, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyButadiene (high-cis) Pellets)</v>
       </c>
       <c r="H39" s="1" t="str">
-        <f>IF($N39, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N39, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyButadiene (high-cis) Pellets)</v>
       </c>
       <c r="I39" s="1" t="str">
-        <f>IF($N39, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N39, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyButadiene (high-cis) Pellets)</v>
       </c>
       <c r="J39" s="1" t="str">
@@ -11618,19 +11641,19 @@
         <v>296</v>
       </c>
       <c r="F40" s="1" t="str">
-        <f>IF($N40, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N40, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyButylene Succinate Pellets)</v>
       </c>
       <c r="G40" s="1" t="str">
-        <f>IF($N40, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N40, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyButylene Succinate Pellets)</v>
       </c>
       <c r="H40" s="1" t="str">
-        <f>IF($N40, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N40, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyButylene Succinate Pellets)</v>
       </c>
       <c r="I40" s="1" t="str">
-        <f>IF($N40, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N40, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyButylene Succinate Pellets)</v>
       </c>
       <c r="J40" s="1" t="str">
@@ -11670,19 +11693,19 @@
         <v>292</v>
       </c>
       <c r="F41" s="1" t="str">
-        <f>IF($N41, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N41, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyButylene Terephthalate Pellets)</v>
       </c>
       <c r="G41" s="1" t="str">
-        <f>IF($N41, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N41, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyButylene Terephthalate Pellets)</v>
       </c>
       <c r="H41" s="1" t="str">
-        <f>IF($N41, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N41, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyButylene Terephthalate Pellets)</v>
       </c>
       <c r="I41" s="1" t="str">
-        <f>IF($N41, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N41, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyButylene Terephthalate Pellets)</v>
       </c>
       <c r="J41" s="1" t="str">
@@ -11722,19 +11745,19 @@
         <v>288</v>
       </c>
       <c r="F42" s="1" t="str">
-        <f>IF($N42, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N42, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyCaprolactone Pellets)</v>
       </c>
       <c r="G42" s="1" t="str">
-        <f>IF($N42, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N42, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyCaprolactone Pellets)</v>
       </c>
       <c r="H42" s="1" t="str">
-        <f>IF($N42, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N42, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyCaprolactone Pellets)</v>
       </c>
       <c r="I42" s="1" t="str">
-        <f>IF($N42, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N42, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyCaprolactone Pellets)</v>
       </c>
       <c r="J42" s="1" t="str">
@@ -11774,19 +11797,19 @@
         <v>284</v>
       </c>
       <c r="F43" s="1" t="str">
-        <f>IF($N43, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N43, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyCarbonate Pellets)</v>
       </c>
       <c r="G43" s="1" t="str">
-        <f>IF($N43, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N43, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyCarbonate Pellets)</v>
       </c>
       <c r="H43" s="1" t="str">
-        <f>IF($N43, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N43, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyCarbonate Pellets)</v>
       </c>
       <c r="I43" s="1" t="str">
-        <f>IF($N43, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N43, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyCarbonate Pellets)</v>
       </c>
       <c r="J43" s="1" t="str">
@@ -11823,19 +11846,19 @@
         <v>280</v>
       </c>
       <c r="F44" s="1" t="str">
-        <f>IF($N44, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N44, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyChloroPrene Pellets)</v>
       </c>
       <c r="G44" s="1" t="str">
-        <f>IF($N44, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N44, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyChloroPrene Pellets)</v>
       </c>
       <c r="H44" s="1" t="str">
-        <f>IF($N44, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N44, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyChloroPrene Pellets)</v>
       </c>
       <c r="I44" s="1" t="str">
-        <f>IF($N44, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N44, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyChloroPrene Pellets)</v>
       </c>
       <c r="J44" s="1" t="str">
@@ -11872,19 +11895,19 @@
         <v>276</v>
       </c>
       <c r="F45" s="1" t="str">
-        <f>IF($N45, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N45, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyChlorotrifluoroethylene Pellets)</v>
       </c>
       <c r="G45" s="1" t="str">
-        <f>IF($N45, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N45, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyChlorotrifluoroethylene Pellets)</v>
       </c>
       <c r="H45" s="1" t="str">
-        <f>IF($N45, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N45, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyChlorotrifluoroethylene Pellets)</v>
       </c>
       <c r="I45" s="1" t="str">
-        <f>IF($N45, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N45, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyChlorotrifluoroethylene Pellets)</v>
       </c>
       <c r="J45" s="1" t="str">
@@ -11924,19 +11947,19 @@
         <v>272</v>
       </c>
       <c r="F46" s="1" t="str">
-        <f>IF($N46, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N46, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyDiMethylSiloxane Pellets)</v>
       </c>
       <c r="G46" s="1" t="str">
-        <f>IF($N46, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N46, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyDiMethylSiloxane Pellets)</v>
       </c>
       <c r="H46" s="1" t="str">
-        <f>IF($N46, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N46, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyDiMethylSiloxane Pellets)</v>
       </c>
       <c r="I46" s="1" t="str">
-        <f>IF($N46, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N46, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyDiMethylSiloxane Pellets)</v>
       </c>
       <c r="J46" s="1" t="str">
@@ -11976,19 +11999,19 @@
         <v>268</v>
       </c>
       <c r="F47" s="1" t="str">
-        <f>IF($N47, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N47, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEther Ether Ketone Pellets)</v>
       </c>
       <c r="G47" s="1" t="str">
-        <f>IF($N47, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N47, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEther Ether Ketone Pellets)</v>
       </c>
       <c r="H47" s="1" t="str">
-        <f>IF($N47, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N47, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEther Ether Ketone Pellets)</v>
       </c>
       <c r="I47" s="1" t="str">
-        <f>IF($N47, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N47, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEther Ether Ketone Pellets)</v>
       </c>
       <c r="J47" s="1" t="str">
@@ -12028,19 +12051,19 @@
         <v>264</v>
       </c>
       <c r="F48" s="1" t="str">
-        <f>IF($N48, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J48&amp;IF($N48, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N48, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J48&amp;IF($N48, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEtherImide Pellets)</v>
       </c>
       <c r="G48" s="1" t="str">
-        <f>IF($N48, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J48&amp;IF($N48, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N48, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J48&amp;IF($N48, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEtherImide Pellets)</v>
       </c>
       <c r="H48" s="1" t="str">
-        <f>IF($N48, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J48&amp;IF($N48, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N48, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J48&amp;IF($N48, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEtherImide Pellets)</v>
       </c>
       <c r="I48" s="1" t="str">
-        <f>IF($N48, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J48&amp;IF($N48, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N48, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J48&amp;IF($N48, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEtherImide Pellets)</v>
       </c>
       <c r="J48" s="1" t="str">
@@ -12077,19 +12100,19 @@
         <v>260</v>
       </c>
       <c r="F49" s="1" t="str">
-        <f>IF($N49, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J49&amp;IF($N49, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N49, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J49&amp;IF($N49, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthyl Acrylate Pellets)</v>
       </c>
       <c r="G49" s="1" t="str">
-        <f>IF($N49, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J49&amp;IF($N49, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N49, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J49&amp;IF($N49, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthyl Acrylate Pellets)</v>
       </c>
       <c r="H49" s="1" t="str">
-        <f>IF($N49, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J49&amp;IF($N49, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N49, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J49&amp;IF($N49, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthyl Acrylate Pellets)</v>
       </c>
       <c r="I49" s="1" t="str">
-        <f>IF($N49, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J49&amp;IF($N49, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N49, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J49&amp;IF($N49, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthyl Acrylate Pellets)</v>
       </c>
       <c r="J49" s="1" t="str">
@@ -12126,19 +12149,19 @@
         <v>256</v>
       </c>
       <c r="F50" s="1" t="str">
-        <f>IF($N50, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J50&amp;IF($N50, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N50, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J50&amp;IF($N50, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthylene Adipate Pellets)</v>
       </c>
       <c r="G50" s="1" t="str">
-        <f>IF($N50, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J50&amp;IF($N50, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N50, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J50&amp;IF($N50, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthylene Adipate Pellets)</v>
       </c>
       <c r="H50" s="1" t="str">
-        <f>IF($N50, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J50&amp;IF($N50, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N50, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J50&amp;IF($N50, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthylene Adipate Pellets)</v>
       </c>
       <c r="I50" s="1" t="str">
-        <f>IF($N50, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J50&amp;IF($N50, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N50, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J50&amp;IF($N50, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthylene Adipate Pellets)</v>
       </c>
       <c r="J50" s="1" t="str">
@@ -12178,19 +12201,19 @@
         <v>252</v>
       </c>
       <c r="F51" s="1" t="str">
-        <f>IF($N51, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J51&amp;IF($N51, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N51, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J51&amp;IF($N51, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthylene Glycol Pellets)</v>
       </c>
       <c r="G51" s="1" t="str">
-        <f>IF($N51, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J51&amp;IF($N51, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N51, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J51&amp;IF($N51, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthylene Glycol Pellets)</v>
       </c>
       <c r="H51" s="1" t="str">
-        <f>IF($N51, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J51&amp;IF($N51, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N51, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J51&amp;IF($N51, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthylene Glycol Pellets)</v>
       </c>
       <c r="I51" s="1" t="str">
-        <f>IF($N51, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J51&amp;IF($N51, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N51, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J51&amp;IF($N51, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthylene Glycol Pellets)</v>
       </c>
       <c r="J51" s="1" t="str">
@@ -12227,19 +12250,19 @@
         <v>248</v>
       </c>
       <c r="F52" s="1" t="str">
-        <f>IF($N52, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J52&amp;IF($N52, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N52, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J52&amp;IF($N52, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthylene Hexamethylene Dicarbamate Pellets)</v>
       </c>
       <c r="G52" s="1" t="str">
-        <f>IF($N52, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J52&amp;IF($N52, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N52, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J52&amp;IF($N52, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthylene Hexamethylene Dicarbamate Pellets)</v>
       </c>
       <c r="H52" s="1" t="str">
-        <f>IF($N52, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J52&amp;IF($N52, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N52, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J52&amp;IF($N52, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthylene Hexamethylene Dicarbamate Pellets)</v>
       </c>
       <c r="I52" s="1" t="str">
-        <f>IF($N52, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J52&amp;IF($N52, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N52, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J52&amp;IF($N52, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthylene Hexamethylene Dicarbamate Pellets)</v>
       </c>
       <c r="J52" s="1" t="str">
@@ -12279,19 +12302,19 @@
         <v>244</v>
       </c>
       <c r="F53" s="1" t="str">
-        <f>IF($N53, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J53&amp;IF($N53, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N53, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J53&amp;IF($N53, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthylene Naphthalate Pellets)</v>
       </c>
       <c r="G53" s="1" t="str">
-        <f>IF($N53, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J53&amp;IF($N53, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N53, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J53&amp;IF($N53, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthylene Naphthalate Pellets)</v>
       </c>
       <c r="H53" s="1" t="str">
-        <f>IF($N53, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J53&amp;IF($N53, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N53, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J53&amp;IF($N53, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthylene Naphthalate Pellets)</v>
       </c>
       <c r="I53" s="1" t="str">
-        <f>IF($N53, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J53&amp;IF($N53, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N53, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J53&amp;IF($N53, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthylene Naphthalate Pellets)</v>
       </c>
       <c r="J53" s="1" t="str">
@@ -12331,19 +12354,19 @@
         <v>240</v>
       </c>
       <c r="F54" s="1" t="str">
-        <f>IF($N54, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J54&amp;IF($N54, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N54, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J54&amp;IF($N54, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthylene Oxide Pellets)</v>
       </c>
       <c r="G54" s="1" t="str">
-        <f>IF($N54, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J54&amp;IF($N54, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N54, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J54&amp;IF($N54, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthylene Oxide Pellets)</v>
       </c>
       <c r="H54" s="1" t="str">
-        <f>IF($N54, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J54&amp;IF($N54, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N54, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J54&amp;IF($N54, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthylene Oxide Pellets)</v>
       </c>
       <c r="I54" s="1" t="str">
-        <f>IF($N54, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J54&amp;IF($N54, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N54, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J54&amp;IF($N54, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthylene Oxide Pellets)</v>
       </c>
       <c r="J54" s="1" t="str">
@@ -12383,19 +12406,19 @@
         <v>236</v>
       </c>
       <c r="F55" s="1" t="str">
-        <f>IF($N55, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J55&amp;IF($N55, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N55, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J55&amp;IF($N55, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthylene Sulphide Pellets)</v>
       </c>
       <c r="G55" s="1" t="str">
-        <f>IF($N55, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J55&amp;IF($N55, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N55, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J55&amp;IF($N55, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthylene Sulphide Pellets)</v>
       </c>
       <c r="H55" s="1" t="str">
-        <f>IF($N55, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J55&amp;IF($N55, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N55, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J55&amp;IF($N55, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthylene Sulphide Pellets)</v>
       </c>
       <c r="I55" s="1" t="str">
-        <f>IF($N55, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J55&amp;IF($N55, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N55, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J55&amp;IF($N55, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthylene Sulphide Pellets)</v>
       </c>
       <c r="J55" s="1" t="str">
@@ -12435,19 +12458,19 @@
         <v>232</v>
       </c>
       <c r="F56" s="1" t="str">
-        <f>IF($N56, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J56&amp;IF($N56, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N56, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J56&amp;IF($N56, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="G56" s="1" t="str">
-        <f>IF($N56, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J56&amp;IF($N56, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N56, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J56&amp;IF($N56, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="H56" s="1" t="str">
-        <f>IF($N56, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J56&amp;IF($N56, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N56, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J56&amp;IF($N56, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="I56" s="1" t="str">
-        <f>IF($N56, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J56&amp;IF($N56, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N56, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J56&amp;IF($N56, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="J56" s="1" t="str">
@@ -12487,19 +12510,19 @@
         <v>228</v>
       </c>
       <c r="F57" s="1" t="str">
-        <f>IF($N57, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J57&amp;IF($N57, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N57, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J57&amp;IF($N57, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthylene Terephthalate Glycol-Modified Pellets)</v>
       </c>
       <c r="G57" s="1" t="str">
-        <f>IF($N57, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J57&amp;IF($N57, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N57, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J57&amp;IF($N57, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthylene Terephthalate Glycol-Modified Pellets)</v>
       </c>
       <c r="H57" s="1" t="str">
-        <f>IF($N57, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J57&amp;IF($N57, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N57, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J57&amp;IF($N57, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthylene Terephthalate Glycol-Modified Pellets)</v>
       </c>
       <c r="I57" s="1" t="str">
-        <f>IF($N57, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J57&amp;IF($N57, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N57, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J57&amp;IF($N57, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthylene Terephthalate Glycol-Modified Pellets)</v>
       </c>
       <c r="J57" s="1" t="str">
@@ -12539,19 +12562,19 @@
         <v>224</v>
       </c>
       <c r="F58" s="1" t="str">
-        <f>IF($N58, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J58&amp;IF($N58, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N58, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J58&amp;IF($N58, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyGlycolic Acid Pellets)</v>
       </c>
       <c r="G58" s="1" t="str">
-        <f>IF($N58, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J58&amp;IF($N58, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N58, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J58&amp;IF($N58, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyGlycolic Acid Pellets)</v>
       </c>
       <c r="H58" s="1" t="str">
-        <f>IF($N58, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J58&amp;IF($N58, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N58, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J58&amp;IF($N58, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyGlycolic Acid Pellets)</v>
       </c>
       <c r="I58" s="1" t="str">
-        <f>IF($N58, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J58&amp;IF($N58, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N58, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J58&amp;IF($N58, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyGlycolic Acid Pellets)</v>
       </c>
       <c r="J58" s="1" t="str">
@@ -12591,19 +12614,19 @@
         <v>220</v>
       </c>
       <c r="F59" s="1" t="str">
-        <f>IF($N59, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J59&amp;IF($N59, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N59, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J59&amp;IF($N59, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyHexamethylene Adipamide Pellets)</v>
       </c>
       <c r="G59" s="1" t="str">
-        <f>IF($N59, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J59&amp;IF($N59, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N59, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J59&amp;IF($N59, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyHexamethylene Adipamide Pellets)</v>
       </c>
       <c r="H59" s="1" t="str">
-        <f>IF($N59, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J59&amp;IF($N59, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N59, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J59&amp;IF($N59, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyHexamethylene Adipamide Pellets)</v>
       </c>
       <c r="I59" s="1" t="str">
-        <f>IF($N59, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J59&amp;IF($N59, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N59, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J59&amp;IF($N59, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyHexamethylene Adipamide Pellets)</v>
       </c>
       <c r="J59" s="1" t="str">
@@ -12643,19 +12666,19 @@
         <v>216</v>
       </c>
       <c r="F60" s="1" t="str">
-        <f>IF($N60, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J60&amp;IF($N60, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N60, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J60&amp;IF($N60, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyHexamethylene Sebacamide Pellets)</v>
       </c>
       <c r="G60" s="1" t="str">
-        <f>IF($N60, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J60&amp;IF($N60, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N60, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J60&amp;IF($N60, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyHexamethylene Sebacamide Pellets)</v>
       </c>
       <c r="H60" s="1" t="str">
-        <f>IF($N60, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J60&amp;IF($N60, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N60, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J60&amp;IF($N60, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyHexamethylene Sebacamide Pellets)</v>
       </c>
       <c r="I60" s="1" t="str">
-        <f>IF($N60, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J60&amp;IF($N60, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N60, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J60&amp;IF($N60, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyHexamethylene Sebacamide Pellets)</v>
       </c>
       <c r="J60" s="1" t="str">
@@ -12695,19 +12718,19 @@
         <v>212</v>
       </c>
       <c r="F61" s="1" t="str">
-        <f>IF($N61, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J61&amp;IF($N61, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N61, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J61&amp;IF($N61, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyHydroxyalkanoate Pellets)</v>
       </c>
       <c r="G61" s="1" t="str">
-        <f>IF($N61, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J61&amp;IF($N61, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N61, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J61&amp;IF($N61, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyHydroxyalkanoate Pellets)</v>
       </c>
       <c r="H61" s="1" t="str">
-        <f>IF($N61, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J61&amp;IF($N61, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N61, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J61&amp;IF($N61, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyHydroxyalkanoate Pellets)</v>
       </c>
       <c r="I61" s="1" t="str">
-        <f>IF($N61, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J61&amp;IF($N61, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N61, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J61&amp;IF($N61, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyHydroxyalkanoate Pellets)</v>
       </c>
       <c r="J61" s="1" t="str">
@@ -12744,19 +12767,19 @@
         <v>208</v>
       </c>
       <c r="F62" s="1" t="str">
-        <f>IF($N62, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J62&amp;IF($N62, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N62, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J62&amp;IF($N62, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyHydroxybutyrate-Co-Hydroxyvalerate Pellets)</v>
       </c>
       <c r="G62" s="1" t="str">
-        <f>IF($N62, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J62&amp;IF($N62, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N62, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J62&amp;IF($N62, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyHydroxybutyrate-Co-Hydroxyvalerate Pellets)</v>
       </c>
       <c r="H62" s="1" t="str">
-        <f>IF($N62, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J62&amp;IF($N62, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N62, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J62&amp;IF($N62, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyHydroxybutyrate-Co-Hydroxyvalerate Pellets)</v>
       </c>
       <c r="I62" s="1" t="str">
-        <f>IF($N62, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J62&amp;IF($N62, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N62, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J62&amp;IF($N62, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyHydroxybutyrate-Co-Hydroxyvalerate Pellets)</v>
       </c>
       <c r="J62" s="1" t="str">
@@ -12796,19 +12819,19 @@
         <v>204</v>
       </c>
       <c r="F63" s="1" t="str">
-        <f>IF($N63, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J63&amp;IF($N63, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N63, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J63&amp;IF($N63, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyImide Pellets)</v>
       </c>
       <c r="G63" s="1" t="str">
-        <f>IF($N63, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J63&amp;IF($N63, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N63, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J63&amp;IF($N63, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyImide Pellets)</v>
       </c>
       <c r="H63" s="1" t="str">
-        <f>IF($N63, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J63&amp;IF($N63, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N63, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J63&amp;IF($N63, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyImide Pellets)</v>
       </c>
       <c r="I63" s="1" t="str">
-        <f>IF($N63, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J63&amp;IF($N63, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N63, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J63&amp;IF($N63, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyImide Pellets)</v>
       </c>
       <c r="J63" s="1" t="str">
@@ -12845,19 +12868,19 @@
         <v>200</v>
       </c>
       <c r="F64" s="1" t="str">
-        <f>IF($N64, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J64&amp;IF($N64, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N64, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J64&amp;IF($N64, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyIsoBorynl Acrylate Pellets)</v>
       </c>
       <c r="G64" s="1" t="str">
-        <f>IF($N64, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J64&amp;IF($N64, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N64, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J64&amp;IF($N64, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyIsoBorynl Acrylate Pellets)</v>
       </c>
       <c r="H64" s="1" t="str">
-        <f>IF($N64, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J64&amp;IF($N64, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N64, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J64&amp;IF($N64, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyIsoBorynl Acrylate Pellets)</v>
       </c>
       <c r="I64" s="1" t="str">
-        <f>IF($N64, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J64&amp;IF($N64, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N64, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J64&amp;IF($N64, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyIsoBorynl Acrylate Pellets)</v>
       </c>
       <c r="J64" s="1" t="str">
@@ -12894,19 +12917,19 @@
         <v>196</v>
       </c>
       <c r="F65" s="1" t="str">
-        <f>IF($N65, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J65&amp;IF($N65, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N65, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J65&amp;IF($N65, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyIsoButyl Acrylate Pellets)</v>
       </c>
       <c r="G65" s="1" t="str">
-        <f>IF($N65, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J65&amp;IF($N65, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N65, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J65&amp;IF($N65, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyIsoButyl Acrylate Pellets)</v>
       </c>
       <c r="H65" s="1" t="str">
-        <f>IF($N65, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J65&amp;IF($N65, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N65, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J65&amp;IF($N65, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyIsoButyl Acrylate Pellets)</v>
       </c>
       <c r="I65" s="1" t="str">
-        <f>IF($N65, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J65&amp;IF($N65, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N65, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J65&amp;IF($N65, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyIsoButyl Acrylate Pellets)</v>
       </c>
       <c r="J65" s="1" t="str">
@@ -12946,19 +12969,19 @@
         <v>192</v>
       </c>
       <c r="F66" s="1" t="str">
-        <f>IF($N66, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J66&amp;IF($N66, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N66, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J66&amp;IF($N66, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyIsoButylene Pellets)</v>
       </c>
       <c r="G66" s="1" t="str">
-        <f>IF($N66, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J66&amp;IF($N66, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N66, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J66&amp;IF($N66, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyIsoButylene Pellets)</v>
       </c>
       <c r="H66" s="1" t="str">
-        <f>IF($N66, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J66&amp;IF($N66, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N66, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J66&amp;IF($N66, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyIsoButylene Pellets)</v>
       </c>
       <c r="I66" s="1" t="str">
-        <f>IF($N66, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J66&amp;IF($N66, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N66, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J66&amp;IF($N66, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyIsoButylene Pellets)</v>
       </c>
       <c r="J66" s="1" t="str">
@@ -12998,19 +13021,19 @@
         <v>188</v>
       </c>
       <c r="F67" s="1" t="str">
-        <f>IF($N67, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J67&amp;IF($N67, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N67, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J67&amp;IF($N67, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyIsoPrene Pellets)</v>
       </c>
       <c r="G67" s="1" t="str">
-        <f>IF($N67, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J67&amp;IF($N67, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N67, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J67&amp;IF($N67, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyIsoPrene Pellets)</v>
       </c>
       <c r="H67" s="1" t="str">
-        <f>IF($N67, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J67&amp;IF($N67, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N67, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J67&amp;IF($N67, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyIsoPrene Pellets)</v>
       </c>
       <c r="I67" s="1" t="str">
-        <f>IF($N67, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J67&amp;IF($N67, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N67, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J67&amp;IF($N67, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyIsoPrene Pellets)</v>
       </c>
       <c r="J67" s="1" t="str">
@@ -13050,19 +13073,19 @@
         <v>184</v>
       </c>
       <c r="F68" s="1" t="str">
-        <f>IF($N68, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J68&amp;IF($N68, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N68, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J68&amp;IF($N68, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyLactic Acid Pellets)</v>
       </c>
       <c r="G68" s="1" t="str">
-        <f>IF($N68, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J68&amp;IF($N68, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N68, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J68&amp;IF($N68, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyLactic Acid Pellets)</v>
       </c>
       <c r="H68" s="1" t="str">
-        <f>IF($N68, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J68&amp;IF($N68, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N68, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J68&amp;IF($N68, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyLactic Acid Pellets)</v>
       </c>
       <c r="I68" s="1" t="str">
-        <f>IF($N68, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J68&amp;IF($N68, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N68, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J68&amp;IF($N68, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyLactic Acid Pellets)</v>
       </c>
       <c r="J68" s="1" t="str">
@@ -13099,19 +13122,19 @@
         <v>180</v>
       </c>
       <c r="F69" s="1" t="str">
-        <f>IF($N69, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J69&amp;IF($N69, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N69, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J69&amp;IF($N69, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyLactic-Co-Glycolic Acid Pellets)</v>
       </c>
       <c r="G69" s="1" t="str">
-        <f>IF($N69, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J69&amp;IF($N69, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N69, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J69&amp;IF($N69, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyLactic-Co-Glycolic Acid Pellets)</v>
       </c>
       <c r="H69" s="1" t="str">
-        <f>IF($N69, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J69&amp;IF($N69, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N69, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J69&amp;IF($N69, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyLactic-Co-Glycolic Acid Pellets)</v>
       </c>
       <c r="I69" s="1" t="str">
-        <f>IF($N69, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J69&amp;IF($N69, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N69, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J69&amp;IF($N69, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyLactic-Co-Glycolic Acid Pellets)</v>
       </c>
       <c r="J69" s="1" t="str">
@@ -13148,19 +13171,19 @@
         <v>176</v>
       </c>
       <c r="F70" s="1" t="str">
-        <f>IF($N70, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J70&amp;IF($N70, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N70, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J70&amp;IF($N70, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyMethyl Acrylate Pellets)</v>
       </c>
       <c r="G70" s="1" t="str">
-        <f>IF($N70, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J70&amp;IF($N70, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N70, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J70&amp;IF($N70, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyMethyl Acrylate Pellets)</v>
       </c>
       <c r="H70" s="1" t="str">
-        <f>IF($N70, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J70&amp;IF($N70, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N70, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J70&amp;IF($N70, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyMethyl Acrylate Pellets)</v>
       </c>
       <c r="I70" s="1" t="str">
-        <f>IF($N70, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J70&amp;IF($N70, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N70, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J70&amp;IF($N70, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyMethyl Acrylate Pellets)</v>
       </c>
       <c r="J70" s="1" t="str">
@@ -13197,19 +13220,19 @@
         <v>172</v>
       </c>
       <c r="F71" s="1" t="str">
-        <f>IF($N71, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J71&amp;IF($N71, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N71, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J71&amp;IF($N71, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyMethyl Cyanoacrylate Pellets)</v>
       </c>
       <c r="G71" s="1" t="str">
-        <f>IF($N71, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J71&amp;IF($N71, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N71, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J71&amp;IF($N71, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyMethyl Cyanoacrylate Pellets)</v>
       </c>
       <c r="H71" s="1" t="str">
-        <f>IF($N71, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J71&amp;IF($N71, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N71, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J71&amp;IF($N71, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyMethyl Cyanoacrylate Pellets)</v>
       </c>
       <c r="I71" s="1" t="str">
-        <f>IF($N71, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J71&amp;IF($N71, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N71, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J71&amp;IF($N71, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyMethyl Cyanoacrylate Pellets)</v>
       </c>
       <c r="J71" s="1" t="str">
@@ -13246,19 +13269,19 @@
         <v>168</v>
       </c>
       <c r="F72" s="1" t="str">
-        <f>IF($N72, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J72&amp;IF($N72, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N72, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J72&amp;IF($N72, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyMethyl Methacrylate Pellets)</v>
       </c>
       <c r="G72" s="1" t="str">
-        <f>IF($N72, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J72&amp;IF($N72, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N72, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J72&amp;IF($N72, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyMethyl Methacrylate Pellets)</v>
       </c>
       <c r="H72" s="1" t="str">
-        <f>IF($N72, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J72&amp;IF($N72, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N72, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J72&amp;IF($N72, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyMethyl Methacrylate Pellets)</v>
       </c>
       <c r="I72" s="1" t="str">
-        <f>IF($N72, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J72&amp;IF($N72, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N72, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J72&amp;IF($N72, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyMethyl Methacrylate Pellets)</v>
       </c>
       <c r="J72" s="1" t="str">
@@ -13295,19 +13318,19 @@
         <v>164</v>
       </c>
       <c r="F73" s="1" t="str">
-        <f>IF($N73, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J73&amp;IF($N73, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N73, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J73&amp;IF($N73, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyM-Methyl Styrene Pellets)</v>
       </c>
       <c r="G73" s="1" t="str">
-        <f>IF($N73, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J73&amp;IF($N73, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N73, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J73&amp;IF($N73, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyM-Methyl Styrene Pellets)</v>
       </c>
       <c r="H73" s="1" t="str">
-        <f>IF($N73, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J73&amp;IF($N73, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N73, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J73&amp;IF($N73, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyM-Methyl Styrene Pellets)</v>
       </c>
       <c r="I73" s="1" t="str">
-        <f>IF($N73, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J73&amp;IF($N73, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N73, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J73&amp;IF($N73, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyM-Methyl Styrene Pellets)</v>
       </c>
       <c r="J73" s="1" t="str">
@@ -13347,19 +13370,19 @@
         <v>160</v>
       </c>
       <c r="F74" s="1" t="str">
-        <f>IF($N74, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J74&amp;IF($N74, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N74, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J74&amp;IF($N74, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyM-Phenylene Isophthalamide Pellets)</v>
       </c>
       <c r="G74" s="1" t="str">
-        <f>IF($N74, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J74&amp;IF($N74, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N74, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J74&amp;IF($N74, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyM-Phenylene Isophthalamide Pellets)</v>
       </c>
       <c r="H74" s="1" t="str">
-        <f>IF($N74, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J74&amp;IF($N74, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N74, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J74&amp;IF($N74, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyM-Phenylene Isophthalamide Pellets)</v>
       </c>
       <c r="I74" s="1" t="str">
-        <f>IF($N74, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J74&amp;IF($N74, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N74, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J74&amp;IF($N74, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyM-Phenylene Isophthalamide Pellets)</v>
       </c>
       <c r="J74" s="1" t="str">
@@ -13396,19 +13419,19 @@
         <v>156</v>
       </c>
       <c r="F75" s="1" t="str">
-        <f>IF($N75, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J75&amp;IF($N75, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N75, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J75&amp;IF($N75, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyN-Butyl Acrylate Pellets)</v>
       </c>
       <c r="G75" s="1" t="str">
-        <f>IF($N75, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J75&amp;IF($N75, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N75, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J75&amp;IF($N75, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyN-Butyl Acrylate Pellets)</v>
       </c>
       <c r="H75" s="1" t="str">
-        <f>IF($N75, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J75&amp;IF($N75, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N75, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J75&amp;IF($N75, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyN-Butyl Acrylate Pellets)</v>
       </c>
       <c r="I75" s="1" t="str">
-        <f>IF($N75, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J75&amp;IF($N75, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N75, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J75&amp;IF($N75, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyN-Butyl Acrylate Pellets)</v>
       </c>
       <c r="J75" s="1" t="str">
@@ -13448,19 +13471,19 @@
         <v>152</v>
       </c>
       <c r="F76" s="1" t="str">
-        <f>IF($N76, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J76&amp;IF($N76, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N76, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J76&amp;IF($N76, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyOxymethylene Pellets)</v>
       </c>
       <c r="G76" s="1" t="str">
-        <f>IF($N76, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J76&amp;IF($N76, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N76, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J76&amp;IF($N76, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyOxymethylene Pellets)</v>
       </c>
       <c r="H76" s="1" t="str">
-        <f>IF($N76, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J76&amp;IF($N76, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N76, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J76&amp;IF($N76, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyOxymethylene Pellets)</v>
       </c>
       <c r="I76" s="1" t="str">
-        <f>IF($N76, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J76&amp;IF($N76, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N76, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J76&amp;IF($N76, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyOxymethylene Pellets)</v>
       </c>
       <c r="J76" s="1" t="str">
@@ -13497,19 +13520,19 @@
         <v>148</v>
       </c>
       <c r="F77" s="1" t="str">
-        <f>IF($N77, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J77&amp;IF($N77, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N77, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J77&amp;IF($N77, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyPentamethylene Hexamethylene Dicarbamate Pellets)</v>
       </c>
       <c r="G77" s="1" t="str">
-        <f>IF($N77, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J77&amp;IF($N77, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N77, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J77&amp;IF($N77, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyPentamethylene Hexamethylene Dicarbamate Pellets)</v>
       </c>
       <c r="H77" s="1" t="str">
-        <f>IF($N77, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J77&amp;IF($N77, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N77, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J77&amp;IF($N77, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyPentamethylene Hexamethylene Dicarbamate Pellets)</v>
       </c>
       <c r="I77" s="1" t="str">
-        <f>IF($N77, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J77&amp;IF($N77, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N77, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J77&amp;IF($N77, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyPentamethylene Hexamethylene Dicarbamate Pellets)</v>
       </c>
       <c r="J77" s="1" t="str">
@@ -13546,19 +13569,19 @@
         <v>144</v>
       </c>
       <c r="F78" s="1" t="str">
-        <f>IF($N78, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J78&amp;IF($N78, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N78, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J78&amp;IF($N78, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyPhenol Pellets)</v>
       </c>
       <c r="G78" s="1" t="str">
-        <f>IF($N78, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J78&amp;IF($N78, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N78, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J78&amp;IF($N78, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyPhenol Pellets)</v>
       </c>
       <c r="H78" s="1" t="str">
-        <f>IF($N78, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J78&amp;IF($N78, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N78, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J78&amp;IF($N78, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyPhenol Pellets)</v>
       </c>
       <c r="I78" s="1" t="str">
-        <f>IF($N78, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J78&amp;IF($N78, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N78, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J78&amp;IF($N78, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyPhenol Pellets)</v>
       </c>
       <c r="J78" s="1" t="str">
@@ -13595,19 +13618,19 @@
         <v>140</v>
       </c>
       <c r="F79" s="1" t="str">
-        <f>IF($N79, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J79&amp;IF($N79, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N79, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J79&amp;IF($N79, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyPhenylene Oxide Pellets)</v>
       </c>
       <c r="G79" s="1" t="str">
-        <f>IF($N79, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J79&amp;IF($N79, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N79, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J79&amp;IF($N79, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyPhenylene Oxide Pellets)</v>
       </c>
       <c r="H79" s="1" t="str">
-        <f>IF($N79, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J79&amp;IF($N79, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N79, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J79&amp;IF($N79, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyPhenylene Oxide Pellets)</v>
       </c>
       <c r="I79" s="1" t="str">
-        <f>IF($N79, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J79&amp;IF($N79, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N79, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J79&amp;IF($N79, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyPhenylene Oxide Pellets)</v>
       </c>
       <c r="J79" s="1" t="str">
@@ -13644,19 +13667,19 @@
         <v>136</v>
       </c>
       <c r="F80" s="1" t="str">
-        <f>IF($N80, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J80&amp;IF($N80, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N80, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J80&amp;IF($N80, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyPhosphazene Pellets)</v>
       </c>
       <c r="G80" s="1" t="str">
-        <f>IF($N80, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J80&amp;IF($N80, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N80, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J80&amp;IF($N80, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyPhosphazene Pellets)</v>
       </c>
       <c r="H80" s="1" t="str">
-        <f>IF($N80, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J80&amp;IF($N80, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N80, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J80&amp;IF($N80, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyPhosphazene Pellets)</v>
       </c>
       <c r="I80" s="1" t="str">
-        <f>IF($N80, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J80&amp;IF($N80, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N80, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J80&amp;IF($N80, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyPhosphazene Pellets)</v>
       </c>
       <c r="J80" s="1" t="str">
@@ -13693,19 +13716,19 @@
         <v>132</v>
       </c>
       <c r="F81" s="1" t="str">
-        <f>IF($N81, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J81&amp;IF($N81, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N81, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J81&amp;IF($N81, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyP-Methyl Styrene Pellets)</v>
       </c>
       <c r="G81" s="1" t="str">
-        <f>IF($N81, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J81&amp;IF($N81, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N81, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J81&amp;IF($N81, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyP-Methyl Styrene Pellets)</v>
       </c>
       <c r="H81" s="1" t="str">
-        <f>IF($N81, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J81&amp;IF($N81, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N81, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J81&amp;IF($N81, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyP-Methyl Styrene Pellets)</v>
       </c>
       <c r="I81" s="1" t="str">
-        <f>IF($N81, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J81&amp;IF($N81, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N81, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J81&amp;IF($N81, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyP-Methyl Styrene Pellets)</v>
       </c>
       <c r="J81" s="1" t="str">
@@ -13742,19 +13765,19 @@
         <v>128</v>
       </c>
       <c r="F82" s="1" t="str">
-        <f>IF($N82, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J82&amp;IF($N82, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N82, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J82&amp;IF($N82, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyP-Phenylene Sulphide Pellets)</v>
       </c>
       <c r="G82" s="1" t="str">
-        <f>IF($N82, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J82&amp;IF($N82, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N82, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J82&amp;IF($N82, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyP-Phenylene Sulphide Pellets)</v>
       </c>
       <c r="H82" s="1" t="str">
-        <f>IF($N82, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J82&amp;IF($N82, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N82, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J82&amp;IF($N82, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyP-Phenylene Sulphide Pellets)</v>
       </c>
       <c r="I82" s="1" t="str">
-        <f>IF($N82, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J82&amp;IF($N82, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N82, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J82&amp;IF($N82, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyP-Phenylene Sulphide Pellets)</v>
       </c>
       <c r="J82" s="1" t="str">
@@ -13794,19 +13817,19 @@
         <v>124</v>
       </c>
       <c r="F83" s="1" t="str">
-        <f>IF($N83, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J83&amp;IF($N83, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N83, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J83&amp;IF($N83, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyP-Phenylene Terephthalamide Pellets)</v>
       </c>
       <c r="G83" s="1" t="str">
-        <f>IF($N83, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J83&amp;IF($N83, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N83, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J83&amp;IF($N83, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyP-Phenylene Terephthalamide Pellets)</v>
       </c>
       <c r="H83" s="1" t="str">
-        <f>IF($N83, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J83&amp;IF($N83, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N83, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J83&amp;IF($N83, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyP-Phenylene Terephthalamide Pellets)</v>
       </c>
       <c r="I83" s="1" t="str">
-        <f>IF($N83, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J83&amp;IF($N83, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N83, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J83&amp;IF($N83, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyP-Phenylene Terephthalamide Pellets)</v>
       </c>
       <c r="J83" s="1" t="str">
@@ -13846,19 +13869,19 @@
         <v>120</v>
       </c>
       <c r="F84" s="1" t="str">
-        <f>IF($N84, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J84&amp;IF($N84, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N84, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J84&amp;IF($N84, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyPropylene Pellets)</v>
       </c>
       <c r="G84" s="1" t="str">
-        <f>IF($N84, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J84&amp;IF($N84, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N84, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J84&amp;IF($N84, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyPropylene Pellets)</v>
       </c>
       <c r="H84" s="1" t="str">
-        <f>IF($N84, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J84&amp;IF($N84, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N84, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J84&amp;IF($N84, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyPropylene Pellets)</v>
       </c>
       <c r="I84" s="1" t="str">
-        <f>IF($N84, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J84&amp;IF($N84, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N84, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J84&amp;IF($N84, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyPropylene Pellets)</v>
       </c>
       <c r="J84" s="1" t="str">
@@ -13895,19 +13918,19 @@
         <v>116</v>
       </c>
       <c r="F85" s="1" t="str">
-        <f>IF($N85, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J85&amp;IF($N85, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N85, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J85&amp;IF($N85, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyPropylene Glycol Pellets)</v>
       </c>
       <c r="G85" s="1" t="str">
-        <f>IF($N85, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J85&amp;IF($N85, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N85, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J85&amp;IF($N85, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyPropylene Glycol Pellets)</v>
       </c>
       <c r="H85" s="1" t="str">
-        <f>IF($N85, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J85&amp;IF($N85, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N85, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J85&amp;IF($N85, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyPropylene Glycol Pellets)</v>
       </c>
       <c r="I85" s="1" t="str">
-        <f>IF($N85, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J85&amp;IF($N85, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N85, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J85&amp;IF($N85, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyPropylene Glycol Pellets)</v>
       </c>
       <c r="J85" s="1" t="str">
@@ -13944,19 +13967,19 @@
         <v>112</v>
       </c>
       <c r="F86" s="1" t="str">
-        <f>IF($N86, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J86&amp;IF($N86, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N86, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J86&amp;IF($N86, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyPropylene Oxide Pellets)</v>
       </c>
       <c r="G86" s="1" t="str">
-        <f>IF($N86, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J86&amp;IF($N86, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N86, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J86&amp;IF($N86, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyPropylene Oxide Pellets)</v>
       </c>
       <c r="H86" s="1" t="str">
-        <f>IF($N86, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J86&amp;IF($N86, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N86, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J86&amp;IF($N86, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyPropylene Oxide Pellets)</v>
       </c>
       <c r="I86" s="1" t="str">
-        <f>IF($N86, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J86&amp;IF($N86, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N86, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J86&amp;IF($N86, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyPropylene Oxide Pellets)</v>
       </c>
       <c r="J86" s="1" t="str">
@@ -13996,19 +14019,19 @@
         <v>108</v>
       </c>
       <c r="F87" s="1" t="str">
-        <f>IF($N87, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J87&amp;IF($N87, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N87, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J87&amp;IF($N87, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyStyrene Pellets)</v>
       </c>
       <c r="G87" s="1" t="str">
-        <f>IF($N87, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J87&amp;IF($N87, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N87, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J87&amp;IF($N87, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyStyrene Pellets)</v>
       </c>
       <c r="H87" s="1" t="str">
-        <f>IF($N87, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J87&amp;IF($N87, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N87, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J87&amp;IF($N87, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyStyrene Pellets)</v>
       </c>
       <c r="I87" s="1" t="str">
-        <f>IF($N87, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J87&amp;IF($N87, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N87, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J87&amp;IF($N87, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyStyrene Pellets)</v>
       </c>
       <c r="J87" s="1" t="str">
@@ -14045,19 +14068,19 @@
         <v>104</v>
       </c>
       <c r="F88" s="1" t="str">
-        <f>IF($N88, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J88&amp;IF($N88, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N88, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J88&amp;IF($N88, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyTert-Butyl Acrylate Pellets)</v>
       </c>
       <c r="G88" s="1" t="str">
-        <f>IF($N88, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J88&amp;IF($N88, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N88, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J88&amp;IF($N88, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyTert-Butyl Acrylate Pellets)</v>
       </c>
       <c r="H88" s="1" t="str">
-        <f>IF($N88, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J88&amp;IF($N88, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N88, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J88&amp;IF($N88, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyTert-Butyl Acrylate Pellets)</v>
       </c>
       <c r="I88" s="1" t="str">
-        <f>IF($N88, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J88&amp;IF($N88, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N88, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J88&amp;IF($N88, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyTert-Butyl Acrylate Pellets)</v>
       </c>
       <c r="J88" s="1" t="str">
@@ -14097,19 +14120,19 @@
         <v>100</v>
       </c>
       <c r="F89" s="1" t="str">
-        <f>IF($N89, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J89&amp;IF($N89, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N89, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J89&amp;IF($N89, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyTetraFluoroEthylene Pellets)</v>
       </c>
       <c r="G89" s="1" t="str">
-        <f>IF($N89, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J89&amp;IF($N89, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N89, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J89&amp;IF($N89, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyTetraFluoroEthylene Pellets)</v>
       </c>
       <c r="H89" s="1" t="str">
-        <f>IF($N89, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J89&amp;IF($N89, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N89, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J89&amp;IF($N89, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyTetraFluoroEthylene Pellets)</v>
       </c>
       <c r="I89" s="1" t="str">
-        <f>IF($N89, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J89&amp;IF($N89, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N89, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J89&amp;IF($N89, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyTetraFluoroEthylene Pellets)</v>
       </c>
       <c r="J89" s="1" t="str">
@@ -14146,19 +14169,19 @@
         <v>96</v>
       </c>
       <c r="F90" s="1" t="str">
-        <f>IF($N90, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J90&amp;IF($N90, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N90, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J90&amp;IF($N90, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyTetramethylene Ether Glycol Pellets)</v>
       </c>
       <c r="G90" s="1" t="str">
-        <f>IF($N90, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J90&amp;IF($N90, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N90, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J90&amp;IF($N90, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyTetramethylene Ether Glycol Pellets)</v>
       </c>
       <c r="H90" s="1" t="str">
-        <f>IF($N90, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J90&amp;IF($N90, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N90, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J90&amp;IF($N90, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyTetramethylene Ether Glycol Pellets)</v>
       </c>
       <c r="I90" s="1" t="str">
-        <f>IF($N90, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J90&amp;IF($N90, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N90, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J90&amp;IF($N90, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyTetramethylene Ether Glycol Pellets)</v>
       </c>
       <c r="J90" s="1" t="str">
@@ -14195,19 +14218,19 @@
         <v>92</v>
       </c>
       <c r="F91" s="1" t="str">
-        <f>IF($N91, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J91&amp;IF($N91, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N91, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J91&amp;IF($N91, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyTetramethylene Glycol Pellets)</v>
       </c>
       <c r="G91" s="1" t="str">
-        <f>IF($N91, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J91&amp;IF($N91, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N91, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J91&amp;IF($N91, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyTetramethylene Glycol Pellets)</v>
       </c>
       <c r="H91" s="1" t="str">
-        <f>IF($N91, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J91&amp;IF($N91, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N91, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J91&amp;IF($N91, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyTetramethylene Glycol Pellets)</v>
       </c>
       <c r="I91" s="1" t="str">
-        <f>IF($N91, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J91&amp;IF($N91, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N91, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J91&amp;IF($N91, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyTetramethylene Glycol Pellets)</v>
       </c>
       <c r="J91" s="1" t="str">
@@ -14244,19 +14267,19 @@
         <v>88</v>
       </c>
       <c r="F92" s="1" t="str">
-        <f>IF($N92, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J92&amp;IF($N92, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N92, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J92&amp;IF($N92, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyThiazyl Pellets)</v>
       </c>
       <c r="G92" s="1" t="str">
-        <f>IF($N92, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J92&amp;IF($N92, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N92, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J92&amp;IF($N92, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyThiazyl Pellets)</v>
       </c>
       <c r="H92" s="1" t="str">
-        <f>IF($N92, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J92&amp;IF($N92, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N92, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J92&amp;IF($N92, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyThiazyl Pellets)</v>
       </c>
       <c r="I92" s="1" t="str">
-        <f>IF($N92, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J92&amp;IF($N92, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N92, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J92&amp;IF($N92, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyThiazyl Pellets)</v>
       </c>
       <c r="J92" s="1" t="str">
@@ -14296,19 +14319,19 @@
         <v>84</v>
       </c>
       <c r="F93" s="1" t="str">
-        <f>IF($N93, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J93&amp;IF($N93, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N93, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J93&amp;IF($N93, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyTrimethylene Terephthalate Pellets)</v>
       </c>
       <c r="G93" s="1" t="str">
-        <f>IF($N93, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J93&amp;IF($N93, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N93, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J93&amp;IF($N93, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyTrimethylene Terephthalate Pellets)</v>
       </c>
       <c r="H93" s="1" t="str">
-        <f>IF($N93, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J93&amp;IF($N93, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N93, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J93&amp;IF($N93, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyTrimethylene Terephthalate Pellets)</v>
       </c>
       <c r="I93" s="1" t="str">
-        <f>IF($N93, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J93&amp;IF($N93, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N93, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J93&amp;IF($N93, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyTrimethylene Terephthalate Pellets)</v>
       </c>
       <c r="J93" s="1" t="str">
@@ -14348,19 +14371,19 @@
         <v>80</v>
       </c>
       <c r="F94" s="1" t="str">
-        <f>IF($N94, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J94&amp;IF($N94, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N94, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J94&amp;IF($N94, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyUrethane Pellets)</v>
       </c>
       <c r="G94" s="1" t="str">
-        <f>IF($N94, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J94&amp;IF($N94, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N94, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J94&amp;IF($N94, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyUrethane Pellets)</v>
       </c>
       <c r="H94" s="1" t="str">
-        <f>IF($N94, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J94&amp;IF($N94, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N94, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J94&amp;IF($N94, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyUrethane Pellets)</v>
       </c>
       <c r="I94" s="1" t="str">
-        <f>IF($N94, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J94&amp;IF($N94, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N94, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J94&amp;IF($N94, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyUrethane Pellets)</v>
       </c>
       <c r="J94" s="1" t="str">
@@ -14400,19 +14423,19 @@
         <v>76</v>
       </c>
       <c r="F95" s="1" t="str">
-        <f>IF($N95, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J95&amp;IF($N95, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N95, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J95&amp;IF($N95, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinyl Acetate Pellets)</v>
       </c>
       <c r="G95" s="1" t="str">
-        <f>IF($N95, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J95&amp;IF($N95, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N95, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J95&amp;IF($N95, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinyl Acetate Pellets)</v>
       </c>
       <c r="H95" s="1" t="str">
-        <f>IF($N95, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J95&amp;IF($N95, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N95, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J95&amp;IF($N95, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinyl Acetate Pellets)</v>
       </c>
       <c r="I95" s="1" t="str">
-        <f>IF($N95, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J95&amp;IF($N95, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N95, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J95&amp;IF($N95, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinyl Acetate Pellets)</v>
       </c>
       <c r="J95" s="1" t="str">
@@ -14452,19 +14475,19 @@
         <v>72</v>
       </c>
       <c r="F96" s="1" t="str">
-        <f>IF($N96, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J96&amp;IF($N96, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N96, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J96&amp;IF($N96, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinyl Alcohol Pellets)</v>
       </c>
       <c r="G96" s="1" t="str">
-        <f>IF($N96, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J96&amp;IF($N96, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N96, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J96&amp;IF($N96, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinyl Alcohol Pellets)</v>
       </c>
       <c r="H96" s="1" t="str">
-        <f>IF($N96, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J96&amp;IF($N96, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N96, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J96&amp;IF($N96, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinyl Alcohol Pellets)</v>
       </c>
       <c r="I96" s="1" t="str">
-        <f>IF($N96, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J96&amp;IF($N96, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N96, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J96&amp;IF($N96, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinyl Alcohol Pellets)</v>
       </c>
       <c r="J96" s="1" t="str">
@@ -14501,19 +14524,19 @@
         <v>68</v>
       </c>
       <c r="F97" s="1" t="str">
-        <f>IF($N97, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J97&amp;IF($N97, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N97, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J97&amp;IF($N97, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinyl Butyral Pellets)</v>
       </c>
       <c r="G97" s="1" t="str">
-        <f>IF($N97, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J97&amp;IF($N97, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N97, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J97&amp;IF($N97, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinyl Butyral Pellets)</v>
       </c>
       <c r="H97" s="1" t="str">
-        <f>IF($N97, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J97&amp;IF($N97, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N97, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J97&amp;IF($N97, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinyl Butyral Pellets)</v>
       </c>
       <c r="I97" s="1" t="str">
-        <f>IF($N97, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J97&amp;IF($N97, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N97, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J97&amp;IF($N97, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinyl Butyral Pellets)</v>
       </c>
       <c r="J97" s="1" t="str">
@@ -14553,19 +14576,19 @@
         <v>64</v>
       </c>
       <c r="F98" s="1" t="str">
-        <f>IF($N98, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J98&amp;IF($N98, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N98, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J98&amp;IF($N98, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinyl Chloride Pellets)</v>
       </c>
       <c r="G98" s="1" t="str">
-        <f>IF($N98, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J98&amp;IF($N98, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N98, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J98&amp;IF($N98, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinyl Chloride Pellets)</v>
       </c>
       <c r="H98" s="1" t="str">
-        <f>IF($N98, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J98&amp;IF($N98, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N98, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J98&amp;IF($N98, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinyl Chloride Pellets)</v>
       </c>
       <c r="I98" s="1" t="str">
-        <f>IF($N98, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J98&amp;IF($N98, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N98, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J98&amp;IF($N98, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinyl Chloride Pellets)</v>
       </c>
       <c r="J98" s="1" t="str">
@@ -14605,19 +14628,19 @@
         <v>60</v>
       </c>
       <c r="F99" s="1" t="str">
-        <f>IF($N99, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J99&amp;IF($N99, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N99, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J99&amp;IF($N99, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinyl Chloride Acetate Pellets)</v>
       </c>
       <c r="G99" s="1" t="str">
-        <f>IF($N99, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J99&amp;IF($N99, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N99, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J99&amp;IF($N99, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinyl Chloride Acetate Pellets)</v>
       </c>
       <c r="H99" s="1" t="str">
-        <f>IF($N99, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J99&amp;IF($N99, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N99, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J99&amp;IF($N99, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinyl Chloride Acetate Pellets)</v>
       </c>
       <c r="I99" s="1" t="str">
-        <f>IF($N99, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J99&amp;IF($N99, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N99, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J99&amp;IF($N99, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinyl Chloride Acetate Pellets)</v>
       </c>
       <c r="J99" s="1" t="str">
@@ -14654,19 +14677,19 @@
         <v>56</v>
       </c>
       <c r="F100" s="1" t="str">
-        <f>IF($N100, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J100&amp;IF($N100, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N100, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J100&amp;IF($N100, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinyl Fluoride Pellets)</v>
       </c>
       <c r="G100" s="1" t="str">
-        <f>IF($N100, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J100&amp;IF($N100, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N100, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J100&amp;IF($N100, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinyl Fluoride Pellets)</v>
       </c>
       <c r="H100" s="1" t="str">
-        <f>IF($N100, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J100&amp;IF($N100, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N100, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J100&amp;IF($N100, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinyl Fluoride Pellets)</v>
       </c>
       <c r="I100" s="1" t="str">
-        <f>IF($N100, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J100&amp;IF($N100, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N100, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J100&amp;IF($N100, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinyl Fluoride Pellets)</v>
       </c>
       <c r="J100" s="1" t="str">
@@ -14703,19 +14726,19 @@
         <v>52</v>
       </c>
       <c r="F101" s="1" t="str">
-        <f>IF($N101, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J101&amp;IF($N101, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N101, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J101&amp;IF($N101, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinyl Formal Pellets)</v>
       </c>
       <c r="G101" s="1" t="str">
-        <f>IF($N101, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J101&amp;IF($N101, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N101, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J101&amp;IF($N101, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinyl Formal Pellets)</v>
       </c>
       <c r="H101" s="1" t="str">
-        <f>IF($N101, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J101&amp;IF($N101, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N101, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J101&amp;IF($N101, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinyl Formal Pellets)</v>
       </c>
       <c r="I101" s="1" t="str">
-        <f>IF($N101, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J101&amp;IF($N101, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N101, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J101&amp;IF($N101, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinyl Formal Pellets)</v>
       </c>
       <c r="J101" s="1" t="str">
@@ -14752,19 +14775,19 @@
         <v>48</v>
       </c>
       <c r="F102" s="1" t="str">
-        <f>IF($N102, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J102&amp;IF($N102, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N102, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J102&amp;IF($N102, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinyl Methyl Ether Pellets)</v>
       </c>
       <c r="G102" s="1" t="str">
-        <f>IF($N102, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J102&amp;IF($N102, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N102, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J102&amp;IF($N102, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinyl Methyl Ether Pellets)</v>
       </c>
       <c r="H102" s="1" t="str">
-        <f>IF($N102, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J102&amp;IF($N102, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N102, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J102&amp;IF($N102, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinyl Methyl Ether Pellets)</v>
       </c>
       <c r="I102" s="1" t="str">
-        <f>IF($N102, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J102&amp;IF($N102, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N102, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J102&amp;IF($N102, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinyl Methyl Ether Pellets)</v>
       </c>
       <c r="J102" s="1" t="str">
@@ -14801,19 +14824,19 @@
         <v>44</v>
       </c>
       <c r="F103" s="1" t="str">
-        <f>IF($N103, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J103&amp;IF($N103, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N103, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J103&amp;IF($N103, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinylidene Dichloride Pellets)</v>
       </c>
       <c r="G103" s="1" t="str">
-        <f>IF($N103, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J103&amp;IF($N103, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N103, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J103&amp;IF($N103, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinylidene Dichloride Pellets)</v>
       </c>
       <c r="H103" s="1" t="str">
-        <f>IF($N103, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J103&amp;IF($N103, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N103, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J103&amp;IF($N103, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinylidene Dichloride Pellets)</v>
       </c>
       <c r="I103" s="1" t="str">
-        <f>IF($N103, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J103&amp;IF($N103, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N103, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J103&amp;IF($N103, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinylidene Dichloride Pellets)</v>
       </c>
       <c r="J103" s="1" t="str">
@@ -14850,19 +14873,19 @@
         <v>40</v>
       </c>
       <c r="F104" s="1" t="str">
-        <f>IF($N104, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J104&amp;IF($N104, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N104, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J104&amp;IF($N104, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinylidene Fluoride Pellets)</v>
       </c>
       <c r="G104" s="1" t="str">
-        <f>IF($N104, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J104&amp;IF($N104, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N104, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J104&amp;IF($N104, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinylidene Fluoride Pellets)</v>
       </c>
       <c r="H104" s="1" t="str">
-        <f>IF($N104, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J104&amp;IF($N104, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N104, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J104&amp;IF($N104, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinylidene Fluoride Pellets)</v>
       </c>
       <c r="I104" s="1" t="str">
-        <f>IF($N104, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J104&amp;IF($N104, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N104, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J104&amp;IF($N104, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinylidene Fluoride Pellets)</v>
       </c>
       <c r="J104" s="1" t="str">
@@ -14899,19 +14922,19 @@
         <v>36</v>
       </c>
       <c r="F105" s="1" t="str">
-        <f>IF($N105, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J105&amp;IF($N105, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N105, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J105&amp;IF($N105, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinylidene Fluoride-Trifluoroethylene Pellets)</v>
       </c>
       <c r="G105" s="1" t="str">
-        <f>IF($N105, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J105&amp;IF($N105, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N105, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J105&amp;IF($N105, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinylidene Fluoride-Trifluoroethylene Pellets)</v>
       </c>
       <c r="H105" s="1" t="str">
-        <f>IF($N105, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J105&amp;IF($N105, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N105, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J105&amp;IF($N105, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinylidene Fluoride-Trifluoroethylene Pellets)</v>
       </c>
       <c r="I105" s="1" t="str">
-        <f>IF($N105, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J105&amp;IF($N105, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N105, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J105&amp;IF($N105, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinylidene Fluoride-Trifluoroethylene Pellets)</v>
       </c>
       <c r="J105" s="1" t="str">
@@ -14951,19 +14974,19 @@
         <v>32</v>
       </c>
       <c r="F106" s="1" t="str">
-        <f>IF($N106, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J106&amp;IF($N106, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N106, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J106&amp;IF($N106, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Styrene-Acrylonitrile Pellets)</v>
       </c>
       <c r="G106" s="1" t="str">
-        <f>IF($N106, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J106&amp;IF($N106, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N106, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J106&amp;IF($N106, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Styrene-Acrylonitrile Pellets)</v>
       </c>
       <c r="H106" s="1" t="str">
-        <f>IF($N106, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J106&amp;IF($N106, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N106, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J106&amp;IF($N106, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Styrene-Acrylonitrile Pellets)</v>
       </c>
       <c r="I106" s="1" t="str">
-        <f>IF($N106, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J106&amp;IF($N106, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N106, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J106&amp;IF($N106, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Styrene-Acrylonitrile Pellets)</v>
       </c>
       <c r="J106" s="1" t="str">
@@ -15003,19 +15026,19 @@
         <v>28</v>
       </c>
       <c r="F107" s="1" t="str">
-        <f>IF($N107, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J107&amp;IF($N107, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N107, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J107&amp;IF($N107, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Styrene-Butadiene Rubber Pellets)</v>
       </c>
       <c r="G107" s="1" t="str">
-        <f>IF($N107, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J107&amp;IF($N107, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N107, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J107&amp;IF($N107, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Styrene-Butadiene Rubber Pellets)</v>
       </c>
       <c r="H107" s="1" t="str">
-        <f>IF($N107, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J107&amp;IF($N107, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N107, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J107&amp;IF($N107, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Styrene-Butadiene Rubber Pellets)</v>
       </c>
       <c r="I107" s="1" t="str">
-        <f>IF($N107, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J107&amp;IF($N107, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N107, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J107&amp;IF($N107, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Styrene-Butadiene Rubber Pellets)</v>
       </c>
       <c r="J107" s="1" t="str">
@@ -15055,19 +15078,19 @@
         <v>24</v>
       </c>
       <c r="F108" s="1" t="str">
-        <f>IF($N108, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J108&amp;IF($N108, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N108, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J108&amp;IF($N108, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Styrene-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="G108" s="1" t="str">
-        <f>IF($N108, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J108&amp;IF($N108, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N108, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J108&amp;IF($N108, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Styrene-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="H108" s="1" t="str">
-        <f>IF($N108, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J108&amp;IF($N108, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N108, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J108&amp;IF($N108, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Styrene-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="I108" s="1" t="str">
-        <f>IF($N108, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J108&amp;IF($N108, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N108, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J108&amp;IF($N108, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Styrene-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="J108" s="1" t="str">
@@ -15104,19 +15127,19 @@
         <v>20</v>
       </c>
       <c r="F109" s="1" t="str">
-        <f>IF($N109, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J109&amp;IF($N109, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N109, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J109&amp;IF($N109, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Styrene-Isoprene-Styrene Pellets)</v>
       </c>
       <c r="G109" s="1" t="str">
-        <f>IF($N109, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J109&amp;IF($N109, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N109, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J109&amp;IF($N109, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Styrene-Isoprene-Styrene Pellets)</v>
       </c>
       <c r="H109" s="1" t="str">
-        <f>IF($N109, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J109&amp;IF($N109, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N109, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J109&amp;IF($N109, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Styrene-Isoprene-Styrene Pellets)</v>
       </c>
       <c r="I109" s="1" t="str">
-        <f>IF($N109, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J109&amp;IF($N109, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N109, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J109&amp;IF($N109, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Styrene-Isoprene-Styrene Pellets)</v>
       </c>
       <c r="J109" s="1" t="str">
@@ -15153,19 +15176,19 @@
         <v>16</v>
       </c>
       <c r="F110" s="1" t="str">
-        <f>IF($N110, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J110&amp;IF($N110, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N110, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J110&amp;IF($N110, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Styrene-Maleic Anhydride Copolymer Pellets)</v>
       </c>
       <c r="G110" s="1" t="str">
-        <f>IF($N110, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J110&amp;IF($N110, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N110, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J110&amp;IF($N110, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Styrene-Maleic Anhydride Copolymer Pellets)</v>
       </c>
       <c r="H110" s="1" t="str">
-        <f>IF($N110, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J110&amp;IF($N110, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N110, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J110&amp;IF($N110, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Styrene-Maleic Anhydride Copolymer Pellets)</v>
       </c>
       <c r="I110" s="1" t="str">
-        <f>IF($N110, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J110&amp;IF($N110, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N110, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J110&amp;IF($N110, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Styrene-Maleic Anhydride Copolymer Pellets)</v>
       </c>
       <c r="J110" s="1" t="str">
@@ -15205,19 +15228,19 @@
         <v>12</v>
       </c>
       <c r="F111" s="1" t="str">
-        <f>IF($N111, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J111&amp;IF($N111, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N111, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J111&amp;IF($N111, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Ultra-High-Molecular-Weight PolyEthylene Pellets)</v>
       </c>
       <c r="G111" s="1" t="str">
-        <f>IF($N111, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J111&amp;IF($N111, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N111, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J111&amp;IF($N111, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Ultra-High-Molecular-Weight PolyEthylene Pellets)</v>
       </c>
       <c r="H111" s="1" t="str">
-        <f>IF($N111, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J111&amp;IF($N111, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N111, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J111&amp;IF($N111, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Ultra-High-Molecular-Weight PolyEthylene Pellets)</v>
       </c>
       <c r="I111" s="1" t="str">
-        <f>IF($N111, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J111&amp;IF($N111, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N111, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J111&amp;IF($N111, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Ultra-High-Molecular-Weight PolyEthylene Pellets)</v>
       </c>
       <c r="J111" s="1" t="str">
@@ -15254,19 +15277,19 @@
         <v>8</v>
       </c>
       <c r="F112" s="1" t="str">
-        <f>IF($N112, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J112&amp;IF($N112, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N112, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J112&amp;IF($N112, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Urea-Formaldehyde Polymers Pellets)</v>
       </c>
       <c r="G112" s="1" t="str">
-        <f>IF($N112, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J112&amp;IF($N112, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N112, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J112&amp;IF($N112, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Urea-Formaldehyde Polymers Pellets)</v>
       </c>
       <c r="H112" s="1" t="str">
-        <f>IF($N112, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J112&amp;IF($N112, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N112, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J112&amp;IF($N112, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Urea-Formaldehyde Polymers Pellets)</v>
       </c>
       <c r="I112" s="1" t="str">
-        <f>IF($N112, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J112&amp;IF($N112, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N112, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J112&amp;IF($N112, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Urea-Formaldehyde Polymers Pellets)</v>
       </c>
       <c r="J112" s="1" t="str">
@@ -15306,19 +15329,19 @@
         <v>4</v>
       </c>
       <c r="F113" s="1" t="str">
-        <f>IF($N113, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J113&amp;IF($N113, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N113, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J113&amp;IF($N113, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Very-Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="G113" s="1" t="str">
-        <f>IF($N113, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J113&amp;IF($N113, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N113, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J113&amp;IF($N113, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Very-Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="H113" s="1" t="str">
-        <f>IF($N113, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J113&amp;IF($N113, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N113, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J113&amp;IF($N113, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Very-Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="I113" s="1" t="str">
-        <f>IF($N113, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J113&amp;IF($N113, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N113, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J113&amp;IF($N113, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Very-Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="J113" s="1" t="str">
@@ -15358,19 +15381,19 @@
         <v>0</v>
       </c>
       <c r="F114" s="1" t="str">
-        <f>IF($N114, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J114&amp;IF($N114, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N114, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J114&amp;IF($N114, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Vinyl Acetate-Acrylic Acid Pellets)</v>
       </c>
       <c r="G114" s="1" t="str">
-        <f>IF($N114, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J114&amp;IF($N114, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N114, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J114&amp;IF($N114, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Vinyl Acetate-Acrylic Acid Pellets)</v>
       </c>
       <c r="H114" s="1" t="str">
-        <f>IF($N114, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J114&amp;IF($N114, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N114, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J114&amp;IF($N114, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Vinyl Acetate-Acrylic Acid Pellets)</v>
       </c>
       <c r="I114" s="1" t="str">
-        <f>IF($N114, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J114&amp;IF($N114, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N114, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J114&amp;IF($N114, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Vinyl Acetate-Acrylic Acid Pellets)</v>
       </c>
       <c r="J114" s="1" t="str">
@@ -15410,19 +15433,19 @@
         <v>1853</v>
       </c>
       <c r="F115" s="1" t="str">
-        <f>IF($N115, [1]Enums!$A$22, [1]Enums!$A$24)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N115, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Polycaprolactam Pellets)</v>
       </c>
       <c r="G115" s="1" t="str">
-        <f>IF($N115, [1]Enums!$A$25, [1]Enums!$A$27)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N115, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Polycaprolactam Pellets)</v>
       </c>
       <c r="H115" s="1" t="str">
-        <f>IF($N115, [1]Enums!$A$28, [1]Enums!$A$30)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N115, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Polycaprolactam Pellets)</v>
       </c>
       <c r="I115" s="1" t="str">
-        <f>IF($N115, [1]Enums!$A$31, [1]Enums!$A$33)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N115, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Polycaprolactam Pellets)</v>
       </c>
       <c r="J115" s="1" t="str">
@@ -15446,15 +15469,151 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
+      <c r="F116" s="1" t="str">
+        <f>IF($N116, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J116&amp;IF($N116, " "&amp;$J$1, "")&amp;")"</f>
+        <v>Vial (0)</v>
+      </c>
+      <c r="G116" s="1" t="str">
+        <f>IF($N116, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J116&amp;IF($N116, " "&amp;$J$1, "")&amp;")"</f>
+        <v>Beaker (0)</v>
+      </c>
+      <c r="H116" s="1" t="str">
+        <f>IF($N116, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J116&amp;IF($N116, " "&amp;$J$1, "")&amp;")"</f>
+        <v>Drum (0)</v>
+      </c>
+      <c r="I116" s="1" t="str">
+        <f>IF($N116, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J116&amp;IF($N116, " "&amp;$J$1, "")&amp;")"</f>
+        <v>Chemical Vat (0)</v>
+      </c>
+      <c r="J116" s="1">
+        <f>[1]Polymers!$B116</f>
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>10</v>
+      </c>
+      <c r="M116" s="2">
+        <f>[1]Polymers!$C116</f>
+        <v>0</v>
+      </c>
+      <c r="N116" s="2">
+        <f>[1]Polymers!$D116</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
+      <c r="F117" s="1" t="str">
+        <f>IF($N117, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J117&amp;IF($N117, " "&amp;$J$1, "")&amp;")"</f>
+        <v>Vial (0)</v>
+      </c>
+      <c r="G117" s="1" t="str">
+        <f>IF($N117, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J117&amp;IF($N117, " "&amp;$J$1, "")&amp;")"</f>
+        <v>Beaker (0)</v>
+      </c>
+      <c r="H117" s="1" t="str">
+        <f>IF($N117, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J117&amp;IF($N117, " "&amp;$J$1, "")&amp;")"</f>
+        <v>Drum (0)</v>
+      </c>
+      <c r="I117" s="1" t="str">
+        <f>IF($N117, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J117&amp;IF($N117, " "&amp;$J$1, "")&amp;")"</f>
+        <v>Chemical Vat (0)</v>
+      </c>
+      <c r="J117" s="1">
+        <f>[1]Polymers!$B117</f>
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>10</v>
+      </c>
+      <c r="M117" s="2">
+        <f>[1]Polymers!$C117</f>
+        <v>0</v>
+      </c>
+      <c r="N117" s="2">
+        <f>[1]Polymers!$D117</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
+      <c r="F118" s="1" t="str">
+        <f>IF($N118, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J118&amp;IF($N118, " "&amp;$J$1, "")&amp;")"</f>
+        <v>Vial (0)</v>
+      </c>
+      <c r="G118" s="1" t="str">
+        <f>IF($N118, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J118&amp;IF($N118, " "&amp;$J$1, "")&amp;")"</f>
+        <v>Beaker (0)</v>
+      </c>
+      <c r="H118" s="1" t="str">
+        <f>IF($N118, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J118&amp;IF($N118, " "&amp;$J$1, "")&amp;")"</f>
+        <v>Drum (0)</v>
+      </c>
+      <c r="I118" s="1" t="str">
+        <f>IF($N118, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J118&amp;IF($N118, " "&amp;$J$1, "")&amp;")"</f>
+        <v>Chemical Vat (0)</v>
+      </c>
+      <c r="J118" s="1">
+        <f>[1]Polymers!$B118</f>
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>10</v>
+      </c>
+      <c r="M118" s="2">
+        <f>[1]Polymers!$C118</f>
+        <v>0</v>
+      </c>
+      <c r="N118" s="2">
+        <f>[1]Polymers!$D118</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
+      <c r="F119" s="1" t="str">
+        <f>IF($N119, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J119&amp;IF($N119, " "&amp;$J$1, "")&amp;")"</f>
+        <v>Vial (0)</v>
+      </c>
+      <c r="G119" s="1" t="str">
+        <f>IF($N119, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J119&amp;IF($N119, " "&amp;$J$1, "")&amp;")"</f>
+        <v>Beaker (0)</v>
+      </c>
+      <c r="H119" s="1" t="str">
+        <f>IF($N119, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J119&amp;IF($N119, " "&amp;$J$1, "")&amp;")"</f>
+        <v>Drum (0)</v>
+      </c>
+      <c r="I119" s="1" t="str">
+        <f>IF($N119, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J119&amp;IF($N119, " "&amp;$J$1, "")&amp;")"</f>
+        <v>Chemical Vat (0)</v>
+      </c>
+      <c r="J119" s="1">
+        <f>[1]Polymers!$B119</f>
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119">
+        <v>10</v>
+      </c>
+      <c r="M119" s="2">
+        <f>[1]Polymers!$C119</f>
+        <v>0</v>
+      </c>
+      <c r="N119" s="2">
+        <f>[1]Polymers!$D119</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
@@ -16203,7 +16362,7 @@
         <v>Steel Ingot</v>
       </c>
       <c r="I2" s="45" t="str">
-        <f>[1]Enums!$A$131&amp;" "&amp;VLOOKUP(H2, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$132&amp;" "&amp;VLOOKUP(H2, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Composite Steel</v>
       </c>
       <c r="J2" s="45">
@@ -16251,7 +16410,7 @@
         <v>Stainless Steel Ingot</v>
       </c>
       <c r="I3" s="45" t="str">
-        <f>[1]Enums!$A$131&amp;" "&amp;VLOOKUP(H3, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$132&amp;" "&amp;VLOOKUP(H3, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Composite Stainless Steel</v>
       </c>
       <c r="J3" s="45">
@@ -16299,7 +16458,7 @@
         <v>Brass Ingot</v>
       </c>
       <c r="I4" s="45" t="str">
-        <f>[1]Enums!$A$131&amp;" "&amp;VLOOKUP(H4, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$132&amp;" "&amp;VLOOKUP(H4, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Composite Brass</v>
       </c>
       <c r="J4" s="45">
@@ -16347,7 +16506,7 @@
         <v>Bronze Ingot</v>
       </c>
       <c r="I5" s="45" t="str">
-        <f>[1]Enums!$A$131&amp;" "&amp;VLOOKUP(H5, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$132&amp;" "&amp;VLOOKUP(H5, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Composite Bronze</v>
       </c>
       <c r="J5" s="45">
@@ -16395,7 +16554,7 @@
         <v>Tungsten Carbide Ingot</v>
       </c>
       <c r="I6" s="45" t="str">
-        <f>[1]Enums!$A$131&amp;" "&amp;VLOOKUP(H6, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$132&amp;" "&amp;VLOOKUP(H6, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Composite Tungsten Carbide</v>
       </c>
       <c r="J6" s="45">
@@ -16443,7 +16602,7 @@
         <v>Nichrome Ingot</v>
       </c>
       <c r="I7" s="45" t="str">
-        <f>[1]Enums!$A$131&amp;" "&amp;VLOOKUP(H7, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$132&amp;" "&amp;VLOOKUP(H7, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Composite Nichrome</v>
       </c>
       <c r="J7" s="45">
@@ -16491,7 +16650,7 @@
         <v>Antimony-Lead Ingot</v>
       </c>
       <c r="I8" s="45" t="str">
-        <f>[1]Enums!$A$131&amp;" "&amp;VLOOKUP(H8, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$132&amp;" "&amp;VLOOKUP(H8, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Composite Antimony-Lead</v>
       </c>
       <c r="J8" s="45">
@@ -16539,7 +16698,7 @@
         <v>Steel Ingot</v>
       </c>
       <c r="I9" s="45" t="str">
-        <f>[1]Enums!$A$132&amp;" "&amp;VLOOKUP(H9, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$133&amp;" "&amp;VLOOKUP(H9, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Engineered Steel</v>
       </c>
       <c r="J9" s="45">
@@ -16587,7 +16746,7 @@
         <v>Stainless Steel Ingot</v>
       </c>
       <c r="I10" s="45" t="str">
-        <f>[1]Enums!$A$132&amp;" "&amp;VLOOKUP(H10, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$133&amp;" "&amp;VLOOKUP(H10, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Engineered Stainless Steel</v>
       </c>
       <c r="J10" s="45">
@@ -16635,7 +16794,7 @@
         <v>Brass Ingot</v>
       </c>
       <c r="I11" s="45" t="str">
-        <f>[1]Enums!$A$132&amp;" "&amp;VLOOKUP(H11, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$133&amp;" "&amp;VLOOKUP(H11, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Engineered Brass</v>
       </c>
       <c r="J11" s="45">
@@ -16683,7 +16842,7 @@
         <v>Bronze Ingot</v>
       </c>
       <c r="I12" s="45" t="str">
-        <f>[1]Enums!$A$132&amp;" "&amp;VLOOKUP(H12, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$133&amp;" "&amp;VLOOKUP(H12, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Engineered Bronze</v>
       </c>
       <c r="J12" s="45">
@@ -16731,7 +16890,7 @@
         <v>Tungsten Carbide Ingot</v>
       </c>
       <c r="I13" s="45" t="str">
-        <f>[1]Enums!$A$132&amp;" "&amp;VLOOKUP(H13, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$133&amp;" "&amp;VLOOKUP(H13, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Engineered Tungsten Carbide</v>
       </c>
       <c r="J13" s="45">
@@ -16779,7 +16938,7 @@
         <v>Nichrome Ingot</v>
       </c>
       <c r="I14" s="45" t="str">
-        <f>[1]Enums!$A$132&amp;" "&amp;VLOOKUP(H14, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$133&amp;" "&amp;VLOOKUP(H14, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Engineered Nichrome</v>
       </c>
       <c r="J14" s="45">
@@ -16827,7 +16986,7 @@
         <v>Antimony-Lead Ingot</v>
       </c>
       <c r="I15" s="45" t="str">
-        <f>[1]Enums!$A$132&amp;" "&amp;VLOOKUP(H15, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$133&amp;" "&amp;VLOOKUP(H15, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Engineered Antimony-Lead</v>
       </c>
       <c r="J15" s="45">
@@ -16852,19 +17011,19 @@
         <v>1.1.0</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="G16" s="43" t="str">
         <f>'Molded Items'!$C$151</f>
@@ -16875,7 +17034,7 @@
         <v>Iron Ingot</v>
       </c>
       <c r="I16" s="45" t="str">
-        <f>[1]Enums!$A$131&amp;" Iron"</f>
+        <f>[1]Enums!$A$132&amp;" Iron"</f>
         <v>Composite Iron</v>
       </c>
       <c r="J16" s="45">
@@ -16900,19 +17059,19 @@
         <v>1.1.0</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="G17" s="44" t="str">
         <f>'Molded Items'!$C$150</f>
@@ -16923,7 +17082,7 @@
         <v>Iron Ingot</v>
       </c>
       <c r="I17" s="45" t="str">
-        <f>[1]Enums!$A$132&amp;" Iron"</f>
+        <f>[1]Enums!$A$133&amp;" Iron"</f>
         <v>Engineered Iron</v>
       </c>
       <c r="J17" s="45">
@@ -16948,19 +17107,19 @@
         <v>1.1.0</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="G18" s="43" t="str">
         <f>'Molded Items'!$C$151</f>
@@ -16971,7 +17130,7 @@
         <v>Diamond</v>
       </c>
       <c r="I18" s="45" t="str">
-        <f>[1]Enums!$A$131&amp;" Diamond"</f>
+        <f>[1]Enums!$A$132&amp;" Diamond"</f>
         <v>Composite Diamond</v>
       </c>
       <c r="J18" s="45">
@@ -16996,19 +17155,19 @@
         <v>1.1.0</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="G19" s="44" t="str">
         <f>'Molded Items'!$C$150</f>
@@ -17019,7 +17178,7 @@
         <v>Diamond</v>
       </c>
       <c r="I19" s="45" t="str">
-        <f>[1]Enums!$A$132&amp;" Diamond"</f>
+        <f>[1]Enums!$A$133&amp;" Diamond"</f>
         <v>Engineered Diamond</v>
       </c>
       <c r="J19" s="45">
@@ -17320,7 +17479,7 @@
         <v>Molded Item</v>
       </c>
       <c r="F1" s="36" t="str">
-        <f xml:space="preserve"> [1]Enums!$A$96</f>
+        <f xml:space="preserve"> [1]Enums!$A$97</f>
         <v>Base Material</v>
       </c>
       <c r="G1" s="30" t="s">
@@ -17348,7 +17507,7 @@
         <v>1812</v>
       </c>
       <c r="C2" s="22" t="str">
-        <f>[1]Enums!$A$93&amp;" "&amp;D2</f>
+        <f>[1]Enums!$A$94&amp;" "&amp;D2</f>
         <v>Gripped Iron Shovel</v>
       </c>
       <c r="D2" s="24" t="str">
@@ -17360,7 +17519,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F2" s="34" t="str">
-        <f>[1]Enums!$A$99</f>
+        <f>[1]Enums!$A$100</f>
         <v>Iron</v>
       </c>
       <c r="G2" s="24">
@@ -17385,7 +17544,7 @@
         <v>1811</v>
       </c>
       <c r="C3" s="22" t="str">
-        <f>[1]Enums!$A$93&amp;" "&amp;D3</f>
+        <f>[1]Enums!$A$94&amp;" "&amp;D3</f>
         <v>Gripped Iron Pickaxe</v>
       </c>
       <c r="D3" s="21" t="str">
@@ -17397,7 +17556,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F3" s="34" t="str">
-        <f>[1]Enums!$A$99</f>
+        <f>[1]Enums!$A$100</f>
         <v>Iron</v>
       </c>
       <c r="G3" s="24">
@@ -17422,7 +17581,7 @@
         <v>1810</v>
       </c>
       <c r="C4" s="22" t="str">
-        <f>[1]Enums!$A$93&amp;" "&amp;D4</f>
+        <f>[1]Enums!$A$94&amp;" "&amp;D4</f>
         <v>Gripped Iron Axe</v>
       </c>
       <c r="D4" s="21" t="str">
@@ -17434,7 +17593,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F4" s="34" t="str">
-        <f>[1]Enums!$A$99</f>
+        <f>[1]Enums!$A$100</f>
         <v>Iron</v>
       </c>
       <c r="G4" s="24">
@@ -17459,7 +17618,7 @@
         <v>1809</v>
       </c>
       <c r="C5" s="22" t="str">
-        <f>[1]Enums!$A$93&amp;" "&amp;D5</f>
+        <f>[1]Enums!$A$94&amp;" "&amp;D5</f>
         <v>Gripped Iron Sword</v>
       </c>
       <c r="D5" s="21" t="str">
@@ -17471,7 +17630,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F5" s="34" t="str">
-        <f>[1]Enums!$A$99</f>
+        <f>[1]Enums!$A$100</f>
         <v>Iron</v>
       </c>
       <c r="G5" s="24">
@@ -17496,7 +17655,7 @@
         <v>1808</v>
       </c>
       <c r="C6" s="22" t="str">
-        <f>[1]Enums!$A$93&amp;" "&amp;D6</f>
+        <f>[1]Enums!$A$94&amp;" "&amp;D6</f>
         <v>Gripped Wooden Sword</v>
       </c>
       <c r="D6" s="21" t="str">
@@ -17508,7 +17667,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F6" s="34" t="str">
-        <f>[1]Enums!$A$97</f>
+        <f>[1]Enums!$A$98</f>
         <v>Wooden</v>
       </c>
       <c r="G6" s="24">
@@ -17533,7 +17692,7 @@
         <v>1807</v>
       </c>
       <c r="C7" s="22" t="str">
-        <f>[1]Enums!$A$93&amp;" "&amp;D7</f>
+        <f>[1]Enums!$A$94&amp;" "&amp;D7</f>
         <v>Gripped Wooden Shovel</v>
       </c>
       <c r="D7" s="21" t="str">
@@ -17545,7 +17704,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F7" s="34" t="str">
-        <f>[1]Enums!$A$97</f>
+        <f>[1]Enums!$A$98</f>
         <v>Wooden</v>
       </c>
       <c r="G7" s="24">
@@ -17570,7 +17729,7 @@
         <v>1806</v>
       </c>
       <c r="C8" s="22" t="str">
-        <f>[1]Enums!$A$93&amp;" "&amp;D8</f>
+        <f>[1]Enums!$A$94&amp;" "&amp;D8</f>
         <v>Gripped Wooden Pickaxe</v>
       </c>
       <c r="D8" s="21" t="str">
@@ -17582,7 +17741,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F8" s="34" t="str">
-        <f>[1]Enums!$A$97</f>
+        <f>[1]Enums!$A$98</f>
         <v>Wooden</v>
       </c>
       <c r="G8" s="24">
@@ -17607,7 +17766,7 @@
         <v>1805</v>
       </c>
       <c r="C9" s="22" t="str">
-        <f>[1]Enums!$A$93&amp;" "&amp;D9</f>
+        <f>[1]Enums!$A$94&amp;" "&amp;D9</f>
         <v>Gripped Wooden Axe</v>
       </c>
       <c r="D9" s="21" t="str">
@@ -17619,7 +17778,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F9" s="34" t="str">
-        <f>[1]Enums!$A$97</f>
+        <f>[1]Enums!$A$98</f>
         <v>Wooden</v>
       </c>
       <c r="G9" s="24">
@@ -17644,7 +17803,7 @@
         <v>1804</v>
       </c>
       <c r="C10" s="22" t="str">
-        <f>[1]Enums!$A$93&amp;" "&amp;D10</f>
+        <f>[1]Enums!$A$94&amp;" "&amp;D10</f>
         <v>Gripped Stone Sword</v>
       </c>
       <c r="D10" s="21" t="str">
@@ -17656,7 +17815,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F10" s="34" t="str">
-        <f>[1]Enums!$A$98</f>
+        <f>[1]Enums!$A$99</f>
         <v>Stone</v>
       </c>
       <c r="G10" s="24">
@@ -17681,7 +17840,7 @@
         <v>1803</v>
       </c>
       <c r="C11" s="22" t="str">
-        <f>[1]Enums!$A$93&amp;" "&amp;D11</f>
+        <f>[1]Enums!$A$94&amp;" "&amp;D11</f>
         <v>Gripped Stone Shovel</v>
       </c>
       <c r="D11" s="21" t="str">
@@ -17693,7 +17852,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F11" s="34" t="str">
-        <f>[1]Enums!$A$98</f>
+        <f>[1]Enums!$A$99</f>
         <v>Stone</v>
       </c>
       <c r="G11" s="24">
@@ -17718,7 +17877,7 @@
         <v>1802</v>
       </c>
       <c r="C12" s="22" t="str">
-        <f>[1]Enums!$A$93&amp;" "&amp;D12</f>
+        <f>[1]Enums!$A$94&amp;" "&amp;D12</f>
         <v>Gripped Stone Pickaxe</v>
       </c>
       <c r="D12" s="21" t="str">
@@ -17730,7 +17889,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F12" s="34" t="str">
-        <f>[1]Enums!$A$98</f>
+        <f>[1]Enums!$A$99</f>
         <v>Stone</v>
       </c>
       <c r="G12" s="24">
@@ -17755,7 +17914,7 @@
         <v>1801</v>
       </c>
       <c r="C13" s="22" t="str">
-        <f>[1]Enums!$A$93&amp;" "&amp;D13</f>
+        <f>[1]Enums!$A$94&amp;" "&amp;D13</f>
         <v>Gripped Stone Axe</v>
       </c>
       <c r="D13" s="21" t="str">
@@ -17767,7 +17926,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F13" s="34" t="str">
-        <f>[1]Enums!$A$98</f>
+        <f>[1]Enums!$A$99</f>
         <v>Stone</v>
       </c>
       <c r="G13" s="24">
@@ -17792,7 +17951,7 @@
         <v>1800</v>
       </c>
       <c r="C14" s="22" t="str">
-        <f>[1]Enums!$A$93&amp;" "&amp;D14</f>
+        <f>[1]Enums!$A$94&amp;" "&amp;D14</f>
         <v>Gripped Diamond Sword</v>
       </c>
       <c r="D14" s="21" t="str">
@@ -17804,7 +17963,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F14" s="34" t="str">
-        <f>[1]Enums!$A$101</f>
+        <f>[1]Enums!$A$102</f>
         <v>Diamond</v>
       </c>
       <c r="G14" s="24">
@@ -17829,7 +17988,7 @@
         <v>1799</v>
       </c>
       <c r="C15" s="22" t="str">
-        <f>[1]Enums!$A$93&amp;" "&amp;D15</f>
+        <f>[1]Enums!$A$94&amp;" "&amp;D15</f>
         <v>Gripped Diamond Shovel</v>
       </c>
       <c r="D15" s="21" t="str">
@@ -17841,7 +18000,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F15" s="34" t="str">
-        <f>[1]Enums!$A$101</f>
+        <f>[1]Enums!$A$102</f>
         <v>Diamond</v>
       </c>
       <c r="G15" s="24">
@@ -17866,7 +18025,7 @@
         <v>1798</v>
       </c>
       <c r="C16" s="22" t="str">
-        <f>[1]Enums!$A$93&amp;" "&amp;D16</f>
+        <f>[1]Enums!$A$94&amp;" "&amp;D16</f>
         <v>Gripped Diamond Pickaxe</v>
       </c>
       <c r="D16" s="21" t="str">
@@ -17878,7 +18037,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F16" s="34" t="str">
-        <f>[1]Enums!$A$101</f>
+        <f>[1]Enums!$A$102</f>
         <v>Diamond</v>
       </c>
       <c r="G16" s="24">
@@ -17903,7 +18062,7 @@
         <v>1797</v>
       </c>
       <c r="C17" s="22" t="str">
-        <f>[1]Enums!$A$93&amp;" "&amp;D17</f>
+        <f>[1]Enums!$A$94&amp;" "&amp;D17</f>
         <v>Gripped Diamond Axe</v>
       </c>
       <c r="D17" s="21" t="str">
@@ -17915,7 +18074,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F17" s="34" t="str">
-        <f>[1]Enums!$A$101</f>
+        <f>[1]Enums!$A$102</f>
         <v>Diamond</v>
       </c>
       <c r="G17" s="24">
@@ -17940,7 +18099,7 @@
         <v>1796</v>
       </c>
       <c r="C18" s="22" t="str">
-        <f>[1]Enums!$A$93&amp;" "&amp;D18</f>
+        <f>[1]Enums!$A$94&amp;" "&amp;D18</f>
         <v>Gripped Golden Sword</v>
       </c>
       <c r="D18" s="21" t="str">
@@ -17952,7 +18111,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F18" s="34" t="str">
-        <f>[1]Enums!$A$100</f>
+        <f>[1]Enums!$A$101</f>
         <v>Golden</v>
       </c>
       <c r="G18" s="24">
@@ -17977,7 +18136,7 @@
         <v>1795</v>
       </c>
       <c r="C19" s="22" t="str">
-        <f>[1]Enums!$A$93&amp;" "&amp;D19</f>
+        <f>[1]Enums!$A$94&amp;" "&amp;D19</f>
         <v>Gripped Golden Shovel</v>
       </c>
       <c r="D19" s="21" t="str">
@@ -17989,7 +18148,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F19" s="34" t="str">
-        <f>[1]Enums!$A$100</f>
+        <f>[1]Enums!$A$101</f>
         <v>Golden</v>
       </c>
       <c r="G19" s="24">
@@ -18014,7 +18173,7 @@
         <v>1794</v>
       </c>
       <c r="C20" s="22" t="str">
-        <f>[1]Enums!$A$93&amp;" "&amp;D20</f>
+        <f>[1]Enums!$A$94&amp;" "&amp;D20</f>
         <v>Gripped Golden Pickaxe</v>
       </c>
       <c r="D20" s="21" t="str">
@@ -18026,7 +18185,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F20" s="34" t="str">
-        <f>[1]Enums!$A$100</f>
+        <f>[1]Enums!$A$101</f>
         <v>Golden</v>
       </c>
       <c r="G20" s="24">
@@ -18051,7 +18210,7 @@
         <v>1793</v>
       </c>
       <c r="C21" s="22" t="str">
-        <f>[1]Enums!$A$93&amp;" "&amp;D21</f>
+        <f>[1]Enums!$A$94&amp;" "&amp;D21</f>
         <v>Gripped Golden Axe</v>
       </c>
       <c r="D21" s="21" t="str">
@@ -18063,7 +18222,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F21" s="34" t="str">
-        <f>[1]Enums!$A$100</f>
+        <f>[1]Enums!$A$101</f>
         <v>Golden</v>
       </c>
       <c r="G21" s="24">
@@ -18088,7 +18247,7 @@
         <v>1792</v>
       </c>
       <c r="C22" s="22" t="str">
-        <f>[1]Enums!$A$93&amp;" "&amp;D22</f>
+        <f>[1]Enums!$A$94&amp;" "&amp;D22</f>
         <v>Gripped Wooden Hoe</v>
       </c>
       <c r="D22" s="21" t="str">
@@ -18100,7 +18259,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F22" s="34" t="str">
-        <f>[1]Enums!$A$97</f>
+        <f>[1]Enums!$A$98</f>
         <v>Wooden</v>
       </c>
       <c r="G22" s="24">
@@ -18125,7 +18284,7 @@
         <v>1791</v>
       </c>
       <c r="C23" s="22" t="str">
-        <f>[1]Enums!$A$93&amp;" "&amp;D23</f>
+        <f>[1]Enums!$A$94&amp;" "&amp;D23</f>
         <v>Gripped Stone Hoe</v>
       </c>
       <c r="D23" s="21" t="str">
@@ -18137,7 +18296,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F23" s="34" t="str">
-        <f>[1]Enums!$A$98</f>
+        <f>[1]Enums!$A$99</f>
         <v>Stone</v>
       </c>
       <c r="G23" s="24">
@@ -18162,7 +18321,7 @@
         <v>1790</v>
       </c>
       <c r="C24" s="22" t="str">
-        <f>[1]Enums!$A$93&amp;" "&amp;D24</f>
+        <f>[1]Enums!$A$94&amp;" "&amp;D24</f>
         <v>Gripped Iron Hoe</v>
       </c>
       <c r="D24" s="21" t="str">
@@ -18174,7 +18333,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F24" s="34" t="str">
-        <f>[1]Enums!$A$99</f>
+        <f>[1]Enums!$A$100</f>
         <v>Iron</v>
       </c>
       <c r="G24" s="24">
@@ -18199,7 +18358,7 @@
         <v>1789</v>
       </c>
       <c r="C25" s="22" t="str">
-        <f>[1]Enums!$A$93&amp;" "&amp;D25</f>
+        <f>[1]Enums!$A$94&amp;" "&amp;D25</f>
         <v>Gripped Diamond Hoe</v>
       </c>
       <c r="D25" s="21" t="str">
@@ -18211,7 +18370,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F25" s="34" t="str">
-        <f>[1]Enums!$A$101</f>
+        <f>[1]Enums!$A$102</f>
         <v>Diamond</v>
       </c>
       <c r="G25" s="24">
@@ -18236,7 +18395,7 @@
         <v>1788</v>
       </c>
       <c r="C26" s="22" t="str">
-        <f>[1]Enums!$A$93&amp;" "&amp;D26</f>
+        <f>[1]Enums!$A$94&amp;" "&amp;D26</f>
         <v>Gripped Golden Hoe</v>
       </c>
       <c r="D26" s="21" t="str">
@@ -18248,7 +18407,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F26" s="34" t="str">
-        <f>[1]Enums!$A$100</f>
+        <f>[1]Enums!$A$101</f>
         <v>Golden</v>
       </c>
       <c r="G26" s="24">
@@ -18310,7 +18469,7 @@
         <v>1832</v>
       </c>
       <c r="D1" s="36" t="str">
-        <f xml:space="preserve"> [1]Enums!$A$96</f>
+        <f xml:space="preserve"> [1]Enums!$A$97</f>
         <v>Base Material</v>
       </c>
       <c r="E1" s="36" t="s">
@@ -18356,7 +18515,7 @@
         <v>Wooden Pogo Stick</v>
       </c>
       <c r="D2" s="34" t="str">
-        <f>[1]Enums!$A$97</f>
+        <f>[1]Enums!$A$98</f>
         <v>Wooden</v>
       </c>
       <c r="E2" s="37">
@@ -18393,7 +18552,7 @@
         <v>Stone Pogo Stick</v>
       </c>
       <c r="D3" s="34" t="str">
-        <f>[1]Enums!$A$98</f>
+        <f>[1]Enums!$A$99</f>
         <v>Stone</v>
       </c>
       <c r="E3" s="37">
@@ -18429,7 +18588,7 @@
         <v>Iron Pogo Stick</v>
       </c>
       <c r="D4" s="34" t="str">
-        <f>[1]Enums!$A$99</f>
+        <f>[1]Enums!$A$100</f>
         <v>Iron</v>
       </c>
       <c r="E4" s="37">
@@ -18465,7 +18624,7 @@
         <v>Golden Pogo Stick</v>
       </c>
       <c r="D5" s="34" t="str">
-        <f>[1]Enums!$A$100</f>
+        <f>[1]Enums!$A$101</f>
         <v>Golden</v>
       </c>
       <c r="E5" s="37">
@@ -18501,7 +18660,7 @@
         <v>Diamond Pogo Stick</v>
       </c>
       <c r="D6" s="34" t="str">
-        <f>[1]Enums!$A$101</f>
+        <f>[1]Enums!$A$102</f>
         <v>Diamond</v>
       </c>
       <c r="E6" s="37">
@@ -18537,7 +18696,7 @@
         <v>Magic Pogo Stick</v>
       </c>
       <c r="D7" s="34" t="str">
-        <f>[1]Enums!$A$102</f>
+        <f>[1]Enums!$A$103</f>
         <v>Magic</v>
       </c>
       <c r="E7" s="37">
@@ -18569,11 +18728,11 @@
         <v>1821</v>
       </c>
       <c r="C8" s="34" t="str">
-        <f>[1]Enums!$A$93&amp;" "&amp;I8</f>
+        <f>[1]Enums!$A$94&amp;" "&amp;I8</f>
         <v>Gripped Wooden Pogo Stick</v>
       </c>
       <c r="D8" s="34" t="str">
-        <f>[1]Enums!$A$97</f>
+        <f>[1]Enums!$A$98</f>
         <v>Wooden</v>
       </c>
       <c r="E8" s="37">
@@ -18613,11 +18772,11 @@
         <v>1820</v>
       </c>
       <c r="C9" s="34" t="str">
-        <f>[1]Enums!$A$93&amp;" "&amp;I9</f>
+        <f>[1]Enums!$A$94&amp;" "&amp;I9</f>
         <v>Gripped Stone Pogo Stick</v>
       </c>
       <c r="D9" s="34" t="str">
-        <f>[1]Enums!$A$98</f>
+        <f>[1]Enums!$A$99</f>
         <v>Stone</v>
       </c>
       <c r="E9" s="37">
@@ -18657,11 +18816,11 @@
         <v>1819</v>
       </c>
       <c r="C10" s="34" t="str">
-        <f>[1]Enums!$A$93&amp;" "&amp;I10</f>
+        <f>[1]Enums!$A$94&amp;" "&amp;I10</f>
         <v>Gripped Iron Pogo Stick</v>
       </c>
       <c r="D10" s="34" t="str">
-        <f>[1]Enums!$A$99</f>
+        <f>[1]Enums!$A$100</f>
         <v>Iron</v>
       </c>
       <c r="E10" s="37">
@@ -18701,11 +18860,11 @@
         <v>1818</v>
       </c>
       <c r="C11" s="34" t="str">
-        <f>[1]Enums!$A$93&amp;" "&amp;I11</f>
+        <f>[1]Enums!$A$94&amp;" "&amp;I11</f>
         <v>Gripped Golden Pogo Stick</v>
       </c>
       <c r="D11" s="34" t="str">
-        <f>[1]Enums!$A$100</f>
+        <f>[1]Enums!$A$101</f>
         <v>Golden</v>
       </c>
       <c r="E11" s="37">
@@ -18745,11 +18904,11 @@
         <v>1817</v>
       </c>
       <c r="C12" s="34" t="str">
-        <f>[1]Enums!$A$93&amp;" "&amp;I12</f>
+        <f>[1]Enums!$A$94&amp;" "&amp;I12</f>
         <v>Gripped Diamond Pogo Stick</v>
       </c>
       <c r="D12" s="34" t="str">
-        <f>[1]Enums!$A$101</f>
+        <f>[1]Enums!$A$102</f>
         <v>Diamond</v>
       </c>
       <c r="E12" s="37">
@@ -20288,7 +20447,7 @@
   </sheetPr>
   <dimension ref="A1:G333"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
@@ -20344,7 +20503,7 @@
       </c>
       <c r="E2" s="1" t="str">
         <f xml:space="preserve"> Pellets!G2</f>
-        <v>Cartridge (Acrylic-Formaldehyde Resin)</v>
+        <v>Beaker (Acrylic-Formaldehyde Resin)</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>VLOOKUP(E2, Pellets!G:M, 7,FALSE)</f>
@@ -20398,7 +20557,7 @@
       </c>
       <c r="E4" s="1" t="str">
         <f xml:space="preserve"> Pellets!G4</f>
-        <v>Cartridge (Alkyd Resin)</v>
+        <v>Beaker (Alkyd Resin)</v>
       </c>
       <c r="F4" s="1" t="str">
         <f>VLOOKUP(E4, Pellets!G:M, 7,FALSE)</f>
@@ -20479,7 +20638,7 @@
       </c>
       <c r="E7" s="1" t="str">
         <f xml:space="preserve"> Pellets!G7</f>
-        <v>Sack (Carbon Fiber Pellets)</v>
+        <v>Sack (Carbon Fiber)</v>
       </c>
       <c r="F7" s="1" t="str">
         <f>VLOOKUP(E7, Pellets!G:M, 7,FALSE)</f>
@@ -20598,9 +20757,9 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="A12" s="2" t="str">
         <f>Pellets!A12</f>
-        <v>0</v>
+        <v>1.1.2</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>802</v>
@@ -20614,7 +20773,7 @@
       </c>
       <c r="E12" s="1" t="str">
         <f xml:space="preserve"> Pellets!G12</f>
-        <v>Cartridge (Epoxy Resin)</v>
+        <v>Beaker (Epoxy Resin)</v>
       </c>
       <c r="F12" s="1" t="str">
         <f>VLOOKUP(E12, Pellets!G:M, 7,FALSE)</f>
@@ -20830,7 +20989,7 @@
       </c>
       <c r="E20" s="1" t="str">
         <f xml:space="preserve"> Pellets!G20</f>
-        <v>Cartridge (Lignin)</v>
+        <v>Beaker (Lignin)</v>
       </c>
       <c r="F20" s="1" t="str">
         <f>VLOOKUP(E20, Pellets!G:M, 7,FALSE)</f>
@@ -20965,7 +21124,7 @@
       </c>
       <c r="E25" s="1" t="str">
         <f xml:space="preserve"> Pellets!G25</f>
-        <v>Cartridge (Melamine-Formaldehyde Polymers)</v>
+        <v>Beaker (Melamine-Formaldehyde Polymers)</v>
       </c>
       <c r="F25" s="1" t="str">
         <f>VLOOKUP(E25, Pellets!G:M, 7,FALSE)</f>
@@ -21100,7 +21259,7 @@
       </c>
       <c r="E30" s="1" t="str">
         <f xml:space="preserve"> Pellets!G30</f>
-        <v>Cartridge (Phenolic Resin)</v>
+        <v>Beaker (Phenolic Resin)</v>
       </c>
       <c r="F30" s="1" t="str">
         <f>VLOOKUP(E30, Pellets!G:M, 7,FALSE)</f>
@@ -21246,9 +21405,9 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
+      <c r="A36" s="2" t="str">
         <f>Pellets!A36</f>
-        <v>0</v>
+        <v>1.1.2</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>754</v>
@@ -21258,15 +21417,15 @@
       </c>
       <c r="D36" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Block (PAE)</v>
+        <v>Block (PAA)</v>
       </c>
       <c r="E36" s="1" t="str">
         <f xml:space="preserve"> Pellets!G36</f>
-        <v>Sack (PolyAcrylic Ester Pellets)</v>
+        <v>Sack (PolyAcrylic Acid Pellets)</v>
       </c>
       <c r="F36" s="1" t="str">
         <f>VLOOKUP(E36, Pellets!G:M, 7,FALSE)</f>
-        <v>PAE</v>
+        <v>PAA</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -24462,9 +24621,9 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="A12" s="2" t="str">
         <f>Pellets!A12</f>
-        <v>0</v>
+        <v>1.1.2</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>1236</v>
@@ -25278,9 +25437,9 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
+      <c r="A36" s="2" t="str">
         <f>Pellets!A36</f>
-        <v>0</v>
+        <v>1.1.2</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>1140</v>
@@ -25296,15 +25455,15 @@
       </c>
       <c r="F36" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Slab (PAE)</v>
+        <v>Slab (PAA)</v>
       </c>
       <c r="G36" s="1" t="str">
         <f xml:space="preserve"> 'Blocks (Poly)'!D36</f>
-        <v>Block (PAE)</v>
+        <v>Block (PAA)</v>
       </c>
       <c r="H36" s="1" t="str">
         <f>VLOOKUP(G36,'Blocks (Poly)'!D:F, 3, FALSE)</f>
-        <v>PAE</v>
+        <v>PAA</v>
       </c>
       <c r="I36">
         <f>'Blocks (Poly)'!G36/2</f>
@@ -28981,9 +29140,9 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="A12" s="2" t="str">
         <f>Pellets!A12</f>
-        <v>0</v>
+        <v>1.1.2</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>1483</v>
@@ -29653,9 +29812,9 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
+      <c r="A36" s="2" t="str">
         <f>Pellets!A36</f>
-        <v>0</v>
+        <v>1.1.2</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>1435</v>
@@ -29665,15 +29824,15 @@
       </c>
       <c r="D36" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Wall (PAE)</v>
+        <v>Wall (PAA)</v>
       </c>
       <c r="E36" s="1" t="str">
         <f xml:space="preserve"> 'Blocks (Poly)'!D36</f>
-        <v>Block (PAE)</v>
+        <v>Block (PAA)</v>
       </c>
       <c r="F36" s="1" t="str">
         <f>VLOOKUP(E36,'Blocks (Poly)'!D:F, 3, FALSE)</f>
-        <v>PAE</v>
+        <v>PAA</v>
       </c>
       <c r="G36">
         <f>'Slabs (Poly)'!I36</f>
@@ -32876,9 +33035,9 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="A12" s="2" t="str">
         <f>Pellets!A12</f>
-        <v>0</v>
+        <v>1.1.2</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>1710</v>
@@ -33548,9 +33707,9 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
+      <c r="A36" s="2" t="str">
         <f>Pellets!A36</f>
-        <v>0</v>
+        <v>1.1.2</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>1662</v>
@@ -33560,15 +33719,15 @@
       </c>
       <c r="D36" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Stairs (PAE)</v>
+        <v>Stairs (PAA)</v>
       </c>
       <c r="E36" s="1" t="str">
         <f xml:space="preserve"> 'Blocks (Poly)'!D36</f>
-        <v>Block (PAE)</v>
+        <v>Block (PAA)</v>
       </c>
       <c r="F36" s="1" t="str">
         <f>VLOOKUP(E36,'Blocks (Poly)'!D:F, 3, FALSE)</f>
-        <v>PAE</v>
+        <v>PAA</v>
       </c>
       <c r="G36">
         <f>'Slabs (Poly)'!I36</f>
@@ -36451,10 +36610,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -36478,7 +36637,7 @@
         <v>590</v>
       </c>
       <c r="D1" s="7" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$70</f>
+        <f xml:space="preserve"> [1]Enums!$B$71</f>
         <v>Mold Type</v>
       </c>
       <c r="E1" s="19" t="str">
@@ -36498,11 +36657,11 @@
         <v>1756</v>
       </c>
       <c r="C2" s="10" t="str">
-        <f t="shared" ref="C2:C29" si="0">D2&amp;" ("&amp;E2&amp;")"</f>
+        <f t="shared" ref="C2:C30" si="0">D2&amp;" ("&amp;E2&amp;")"</f>
         <v>Mold (Grip)</v>
       </c>
       <c r="D2" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$74</f>
+        <f xml:space="preserve"> [1]Enums!$B$75</f>
         <v>Mold</v>
       </c>
       <c r="E2" s="11" t="str">
@@ -36527,7 +36686,7 @@
         <v>Mold (Running Shoes)</v>
       </c>
       <c r="D3" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$74</f>
+        <f xml:space="preserve"> [1]Enums!$B$75</f>
         <v>Mold</v>
       </c>
       <c r="E3" s="11" t="str">
@@ -36552,7 +36711,7 @@
         <v>Mold (Scuba Fins)</v>
       </c>
       <c r="D4" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$74</f>
+        <f xml:space="preserve"> [1]Enums!$B$75</f>
         <v>Mold</v>
       </c>
       <c r="E4" s="11" t="str">
@@ -36577,7 +36736,7 @@
         <v>Mold (Scuba Mask)</v>
       </c>
       <c r="D5" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$74</f>
+        <f xml:space="preserve"> [1]Enums!$B$75</f>
         <v>Mold</v>
       </c>
       <c r="E5" s="11" t="str">
@@ -36602,7 +36761,7 @@
         <v>Mold (Gasket)</v>
       </c>
       <c r="D6" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$74</f>
+        <f xml:space="preserve"> [1]Enums!$B$75</f>
         <v>Mold</v>
       </c>
       <c r="E6" s="11" t="str">
@@ -36627,7 +36786,7 @@
         <v>Mold (Life Preserver)</v>
       </c>
       <c r="D7" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$74</f>
+        <f xml:space="preserve"> [1]Enums!$B$75</f>
         <v>Mold</v>
       </c>
       <c r="E7" s="11" t="str">
@@ -36652,7 +36811,7 @@
         <v>Metal Die (Fibers)</v>
       </c>
       <c r="D8" s="2" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$75</f>
+        <f xml:space="preserve"> [1]Enums!$B$76</f>
         <v>Metal Die</v>
       </c>
       <c r="E8" s="11" t="str">
@@ -36677,7 +36836,7 @@
         <v>Metal Die (Tether)</v>
       </c>
       <c r="D9" s="2" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$75</f>
+        <f xml:space="preserve"> [1]Enums!$B$76</f>
         <v>Metal Die</v>
       </c>
       <c r="E9" s="11" t="str">
@@ -36702,7 +36861,7 @@
         <v>Metal Die (Cord)</v>
       </c>
       <c r="D10" s="2" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$75</f>
+        <f xml:space="preserve"> [1]Enums!$B$76</f>
         <v>Metal Die</v>
       </c>
       <c r="E10" s="11" t="str">
@@ -36727,7 +36886,7 @@
         <v>Metal Die (Hose)</v>
       </c>
       <c r="D11" s="2" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$75</f>
+        <f xml:space="preserve"> [1]Enums!$B$76</f>
         <v>Metal Die</v>
       </c>
       <c r="E11" s="11" t="str">
@@ -36752,7 +36911,7 @@
         <v>Metal Die (Large Pipe)</v>
       </c>
       <c r="D12" s="2" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$75</f>
+        <f xml:space="preserve"> [1]Enums!$B$76</f>
         <v>Metal Die</v>
       </c>
       <c r="E12" s="11" t="str">
@@ -36777,7 +36936,7 @@
         <v>Mold (Flashlight Shaft)</v>
       </c>
       <c r="D13" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$74</f>
+        <f xml:space="preserve"> [1]Enums!$B$75</f>
         <v>Mold</v>
       </c>
       <c r="E13" s="11" t="str">
@@ -36801,7 +36960,7 @@
         <v>Mold (Plastic Brick (1 x 1))</v>
       </c>
       <c r="D14" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$74</f>
+        <f xml:space="preserve"> [1]Enums!$B$75</f>
         <v>Mold</v>
       </c>
       <c r="E14" t="str">
@@ -36825,7 +36984,7 @@
         <v>Mold (Plastic Brick (1 x 2))</v>
       </c>
       <c r="D15" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$74</f>
+        <f xml:space="preserve"> [1]Enums!$B$75</f>
         <v>Mold</v>
       </c>
       <c r="E15" t="str">
@@ -36849,7 +37008,7 @@
         <v>Mold (Plastic Brick (1 x 3))</v>
       </c>
       <c r="D16" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$74</f>
+        <f xml:space="preserve"> [1]Enums!$B$75</f>
         <v>Mold</v>
       </c>
       <c r="E16" t="str">
@@ -36873,7 +37032,7 @@
         <v>Mold (Plastic Brick (1 x 4))</v>
       </c>
       <c r="D17" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$74</f>
+        <f xml:space="preserve"> [1]Enums!$B$75</f>
         <v>Mold</v>
       </c>
       <c r="E17" t="str">
@@ -36897,7 +37056,7 @@
         <v>Mold (Plastic Brick (2 x 2))</v>
       </c>
       <c r="D18" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$74</f>
+        <f xml:space="preserve"> [1]Enums!$B$75</f>
         <v>Mold</v>
       </c>
       <c r="E18" t="str">
@@ -36921,7 +37080,7 @@
         <v>Mold (Plastic Brick (2 x 3))</v>
       </c>
       <c r="D19" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$74</f>
+        <f xml:space="preserve"> [1]Enums!$B$75</f>
         <v>Mold</v>
       </c>
       <c r="E19" t="str">
@@ -36945,7 +37104,7 @@
         <v>Mold (Plastic Brick (2 x 4))</v>
       </c>
       <c r="D20" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$74</f>
+        <f xml:space="preserve"> [1]Enums!$B$75</f>
         <v>Mold</v>
       </c>
       <c r="E20" t="str">
@@ -36969,7 +37128,7 @@
         <v>Mold (Plastic Brick (3 x 3))</v>
       </c>
       <c r="D21" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$74</f>
+        <f xml:space="preserve"> [1]Enums!$B$75</f>
         <v>Mold</v>
       </c>
       <c r="E21" t="str">
@@ -36993,7 +37152,7 @@
         <v>Mold (Plastic Brick (3 x 4))</v>
       </c>
       <c r="D22" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$74</f>
+        <f xml:space="preserve"> [1]Enums!$B$75</f>
         <v>Mold</v>
       </c>
       <c r="E22" t="str">
@@ -37017,7 +37176,7 @@
         <v>Mold (Plastic Brick (4 x 4))</v>
       </c>
       <c r="D23" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$74</f>
+        <f xml:space="preserve"> [1]Enums!$B$75</f>
         <v>Mold</v>
       </c>
       <c r="E23" t="str">
@@ -37041,7 +37200,7 @@
         <v>Mold (Plastic Brick (1 x 8))</v>
       </c>
       <c r="D24" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$74</f>
+        <f xml:space="preserve"> [1]Enums!$B$75</f>
         <v>Mold</v>
       </c>
       <c r="E24" t="str">
@@ -37065,7 +37224,7 @@
         <v>Mold (Plastic Brick (2 x 8))</v>
       </c>
       <c r="D25" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$74</f>
+        <f xml:space="preserve"> [1]Enums!$B$75</f>
         <v>Mold</v>
       </c>
       <c r="E25" t="str">
@@ -37089,7 +37248,7 @@
         <v>Mold (Heated Knife Handle)</v>
       </c>
       <c r="D26" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$74</f>
+        <f xml:space="preserve"> [1]Enums!$B$75</f>
         <v>Mold</v>
       </c>
       <c r="E26" s="11" t="str">
@@ -37113,7 +37272,7 @@
         <v>Mold (Rubber Sole)</v>
       </c>
       <c r="D27" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$74</f>
+        <f xml:space="preserve"> [1]Enums!$B$75</f>
         <v>Mold</v>
       </c>
       <c r="E27" s="11" t="str">
@@ -37137,7 +37296,7 @@
         <v>Mold (Battery Case)</v>
       </c>
       <c r="D28" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$74</f>
+        <f xml:space="preserve"> [1]Enums!$B$75</f>
         <v>Mold</v>
       </c>
       <c r="E28" s="11" t="str">
@@ -37161,7 +37320,7 @@
         <v>Mold (Tool Shaft)</v>
       </c>
       <c r="D29" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$74</f>
+        <f xml:space="preserve"> [1]Enums!$B$75</f>
         <v>Mold</v>
       </c>
       <c r="E29" t="str">
@@ -37169,6 +37328,30 @@
         <v>Tool Shaft</v>
       </c>
       <c r="F29">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="str">
+        <f>[1]Enums!$A$13</f>
+        <v>1.1.1</v>
+      </c>
+      <c r="B30" s="47" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Mold (Lighter Body)</v>
+      </c>
+      <c r="D30" s="10" t="str">
+        <f xml:space="preserve"> [1]Enums!$B$75</f>
+        <v>Mold</v>
+      </c>
+      <c r="E30" t="str">
+        <f>'[1]Polymer Objects'!$B30</f>
+        <v>Lighter Body</v>
+      </c>
+      <c r="F30">
         <v>8192</v>
       </c>
     </row>
@@ -37184,8 +37367,8 @@
   </sheetPr>
   <dimension ref="A1:U156"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="C94" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -37245,7 +37428,7 @@
         <v>1786</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
       <c r="K1" s="29" t="s">
         <v>1785</v>
@@ -38949,19 +39132,19 @@
       </c>
       <c r="C33" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D33, Molds!C:E, 3, FALSE)&amp;" ("&amp;F33&amp;")"</f>
-        <v>Heated Knife Handle (PS)</v>
+        <v>Heated Knife Handle (Natural Rubber)</v>
       </c>
       <c r="D33" s="24" t="str">
         <f xml:space="preserve"> Molds!C26</f>
         <v>Mold (Heated Knife Handle)</v>
       </c>
       <c r="E33" s="22" t="str">
-        <f>Pellets!$F$87</f>
-        <v>Bag (PolyStyrene Pellets)</v>
+        <f>Pellets!$F$67</f>
+        <v>Bag (PolyIsoPrene Pellets)</v>
       </c>
       <c r="F33" s="21" t="str">
         <f>VLOOKUP(E33, Pellets!F:M, 8,FALSE)</f>
-        <v>PS</v>
+        <v>Natural Rubber</v>
       </c>
       <c r="G33" s="24">
         <v>16</v>
@@ -39031,7 +39214,7 @@
       </c>
       <c r="E35" s="21" t="str">
         <f>Pellets!F2</f>
-        <v>Flask (Acrylic-Formaldehyde Resin)</v>
+        <v>Vial (Acrylic-Formaldehyde Resin)</v>
       </c>
       <c r="F35" s="21" t="str">
         <f>VLOOKUP(E35, Pellets!F:M, 8,FALSE)</f>
@@ -39105,7 +39288,7 @@
       </c>
       <c r="E37" s="21" t="str">
         <f>Pellets!F4</f>
-        <v>Flask (Alkyd Resin)</v>
+        <v>Vial (Alkyd Resin)</v>
       </c>
       <c r="F37" s="21" t="str">
         <f>VLOOKUP(E37, Pellets!F:M, 8,FALSE)</f>
@@ -39216,7 +39399,7 @@
       </c>
       <c r="E40" s="21" t="str">
         <f>Pellets!F7</f>
-        <v>Bag (Carbon Fiber Pellets)</v>
+        <v>Bag (Carbon Fiber)</v>
       </c>
       <c r="F40" s="21" t="str">
         <f>VLOOKUP(E40, Pellets!F:M, 8,FALSE)</f>
@@ -39384,9 +39567,9 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="23">
+      <c r="A45" s="23" t="str">
         <f>Pellets!A12</f>
-        <v>0</v>
+        <v>1.1.2</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>555</v>
@@ -39401,7 +39584,7 @@
       </c>
       <c r="E45" s="21" t="str">
         <f>Pellets!F12</f>
-        <v>Flask (Epoxy Resin)</v>
+        <v>Vial (Epoxy Resin)</v>
       </c>
       <c r="F45" s="21" t="str">
         <f>VLOOKUP(E45, Pellets!F:M, 8,FALSE)</f>
@@ -39697,7 +39880,7 @@
       </c>
       <c r="E53" s="21" t="str">
         <f>Pellets!F20</f>
-        <v>Flask (Lignin)</v>
+        <v>Vial (Lignin)</v>
       </c>
       <c r="F53" s="21" t="str">
         <f>VLOOKUP(E53, Pellets!F:M, 8,FALSE)</f>
@@ -39882,7 +40065,7 @@
       </c>
       <c r="E58" s="21" t="str">
         <f>Pellets!F25</f>
-        <v>Flask (Melamine-Formaldehyde Polymers)</v>
+        <v>Vial (Melamine-Formaldehyde Polymers)</v>
       </c>
       <c r="F58" s="21" t="str">
         <f>VLOOKUP(E58, Pellets!F:M, 8,FALSE)</f>
@@ -40067,7 +40250,7 @@
       </c>
       <c r="E63" s="21" t="str">
         <f>Pellets!F30</f>
-        <v>Flask (Phenolic Resin)</v>
+        <v>Vial (Phenolic Resin)</v>
       </c>
       <c r="F63" s="21" t="str">
         <f>VLOOKUP(E63, Pellets!F:M, 8,FALSE)</f>
@@ -40272,16 +40455,16 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="23">
+      <c r="A69" s="23" t="str">
         <f>Pellets!A36</f>
-        <v>0</v>
+        <v>1.1.2</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>531</v>
       </c>
       <c r="C69" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D69, Molds!C:E, 3, FALSE)&amp;" ("&amp;F69&amp;")"</f>
-        <v>Fibers (PAE)</v>
+        <v>Fibers (PAA)</v>
       </c>
       <c r="D69" s="24" t="str">
         <f xml:space="preserve"> Molds!$C$8</f>
@@ -40289,11 +40472,11 @@
       </c>
       <c r="E69" s="21" t="str">
         <f>Pellets!F36</f>
-        <v>Bag (PolyAcrylic Ester Pellets)</v>
+        <v>Bag (PolyAcrylic Acid Pellets)</v>
       </c>
       <c r="F69" s="21" t="str">
         <f>VLOOKUP(E69, Pellets!F:M, 8,FALSE)</f>
-        <v>PAE</v>
+        <v>PAA</v>
       </c>
       <c r="G69" s="24">
         <v>16</v>
@@ -43323,7 +43506,7 @@
       </c>
       <c r="E151" s="21" t="str">
         <f>Pellets!$F$7</f>
-        <v>Bag (Carbon Fiber Pellets)</v>
+        <v>Bag (Carbon Fiber)</v>
       </c>
       <c r="F151" s="21" t="str">
         <f>VLOOKUP(E40, Pellets!F:M, 8,FALSE)</f>
@@ -43343,8 +43526,41 @@
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A152" s="23"/>
-      <c r="C152" s="22"/>
+      <c r="A152" s="23" t="str">
+        <f>[1]Enums!$A$13</f>
+        <v>1.1.1</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>2344</v>
+      </c>
+      <c r="C152" s="22" t="str">
+        <f xml:space="preserve"> VLOOKUP(D152, Molds!C:E, 3, FALSE)&amp;" ("&amp;F152&amp;")"</f>
+        <v>Lighter Body (LDPE)</v>
+      </c>
+      <c r="D152" s="24" t="str">
+        <f xml:space="preserve"> Molds!$C$30</f>
+        <v>Mold (Lighter Body)</v>
+      </c>
+      <c r="E152" s="21" t="str">
+        <f>Pellets!$F$23</f>
+        <v>Bag (Low Density PolyEthylene Pellets)</v>
+      </c>
+      <c r="F152" s="21" t="str">
+        <f>VLOOKUP(E152, Pellets!F:M, 8,FALSE)</f>
+        <v>LDPE</v>
+      </c>
+      <c r="G152" s="21">
+        <v>2</v>
+      </c>
+      <c r="H152" s="21">
+        <v>5</v>
+      </c>
+      <c r="I152" s="21">
+        <v>64</v>
+      </c>
+      <c r="J152" s="21" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="23"/>
@@ -43373,7 +43589,7 @@
   <dimension ref="A1:R55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -43451,7 +43667,7 @@
         <v>1939</v>
       </c>
       <c r="R1" s="28" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -43592,19 +43808,19 @@
         <v>Fibers (Nylon 6)</v>
       </c>
       <c r="G4" s="40" t="s">
+        <v>2345</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>2330</v>
+      </c>
+      <c r="I4" s="40" t="s">
+        <v>2346</v>
+      </c>
+      <c r="J4" s="40" t="s">
         <v>2331</v>
       </c>
-      <c r="H4" s="40" t="s">
-        <v>2332</v>
-      </c>
-      <c r="I4" s="40" t="s">
-        <v>2277</v>
-      </c>
-      <c r="J4" s="40" t="s">
-        <v>2333</v>
-      </c>
       <c r="K4" s="40" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
       <c r="L4">
         <v>5</v>
@@ -45161,16 +45377,16 @@
         <v>2274</v>
       </c>
       <c r="H31" s="40" t="s">
+        <v>2278</v>
+      </c>
+      <c r="I31" s="40" t="s">
         <v>2279</v>
       </c>
-      <c r="I31" s="40" t="s">
+      <c r="J31" s="40" t="s">
         <v>2280</v>
       </c>
-      <c r="J31" s="40" t="s">
+      <c r="K31" s="40" t="s">
         <v>2281</v>
-      </c>
-      <c r="K31" s="40" t="s">
-        <v>2282</v>
       </c>
       <c r="L31">
         <v>15</v>
@@ -45219,13 +45435,13 @@
         <v>2275</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="I32" s="2" t="s">
+        <v>2291</v>
+      </c>
+      <c r="J32" s="2" t="s">
         <v>2292</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>2293</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>1885</v>
@@ -45274,7 +45490,7 @@
         <v>Fibers (Nylon 6,7)</v>
       </c>
       <c r="G33" s="40" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="H33" s="40" t="s">
         <v>2276</v>
@@ -45286,7 +45502,7 @@
         <v>2151</v>
       </c>
       <c r="K33" s="40" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="L33">
         <v>5</v>
@@ -45332,7 +45548,7 @@
         <v>Fibers (Nylon 6,10)</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>2138</v>
@@ -45390,13 +45606,13 @@
         <v>Fibers (LLDPE)</v>
       </c>
       <c r="G35" s="40" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>2011</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>1884</v>
@@ -45448,19 +45664,19 @@
         <v>Fibers (LDPE)</v>
       </c>
       <c r="G36" s="40" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>2154</v>
       </c>
       <c r="I36" s="2" t="s">
+        <v>2294</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>2296</v>
+      </c>
+      <c r="K36" s="2" t="s">
         <v>2295</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>2297</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>2296</v>
       </c>
       <c r="L36">
         <v>5</v>
@@ -45506,7 +45722,7 @@
         <v>Fibers (MDPE)</v>
       </c>
       <c r="G37" s="40" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>2138</v>
@@ -45564,7 +45780,7 @@
         <v>Fibers (HDPE)</v>
       </c>
       <c r="G38" s="40" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>2011</v>
@@ -45622,19 +45838,19 @@
         <v>Fibers (PEN)</v>
       </c>
       <c r="G39" s="40" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="H39" s="40" t="s">
+        <v>2297</v>
+      </c>
+      <c r="I39" s="40" t="s">
         <v>2298</v>
       </c>
-      <c r="I39" s="40" t="s">
+      <c r="J39" s="40" t="s">
         <v>2299</v>
       </c>
-      <c r="J39" s="40" t="s">
+      <c r="K39" s="40" t="s">
         <v>2300</v>
-      </c>
-      <c r="K39" s="40" t="s">
-        <v>2301</v>
       </c>
       <c r="L39">
         <v>10</v>
@@ -45680,13 +45896,13 @@
         <v>Fibers (PES)</v>
       </c>
       <c r="G40" s="40" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>2134</v>
@@ -45738,19 +45954,19 @@
         <v>Fibers (PET)</v>
       </c>
       <c r="G41" s="40" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="H41" s="40" t="s">
         <v>2011</v>
       </c>
       <c r="I41" s="40" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>1884</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="L41">
         <v>8</v>
@@ -45796,13 +46012,13 @@
         <v>Fibers (PETG)</v>
       </c>
       <c r="G42" s="40" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>2011</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>1884</v>
@@ -45854,16 +46070,16 @@
         <v>Fibers (PP)</v>
       </c>
       <c r="G43" s="40" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>2011</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>1885</v>
@@ -45912,7 +46128,7 @@
         <v>Fibers (PS)</v>
       </c>
       <c r="G44" s="40" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>2011</v>
@@ -45970,7 +46186,7 @@
         <v>Fibers (PU)</v>
       </c>
       <c r="G45" s="40" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>2011</v>
@@ -46028,7 +46244,7 @@
         <v>Fibers (POM)</v>
       </c>
       <c r="G46" s="40" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>2011</v>
@@ -46086,7 +46302,7 @@
         <v>Fibers (UHMWPE)</v>
       </c>
       <c r="G47" s="40" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>1936</v>
@@ -46128,23 +46344,23 @@
         <v>1.1.0</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
       <c r="F48" t="str">
         <f>G5&amp;" "&amp;H5</f>
         <v>Kevlar Helmet</v>
       </c>
       <c r="G48" s="40" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>1936</v>

--- a/config/Polycraft Polymers.xlsx
+++ b/config/Polycraft Polymers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19290" yWindow="0" windowWidth="27240" windowHeight="14310" tabRatio="826" activeTab="7"/>
+    <workbookView xWindow="19290" yWindow="0" windowWidth="27240" windowHeight="14310" tabRatio="826" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Pellets" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2487" uniqueCount="2347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2586" uniqueCount="2400">
   <si>
     <t>GC</t>
   </si>
@@ -6447,15 +6447,9 @@
     <t>Shower Cap</t>
   </si>
   <si>
-    <t>Raincoat</t>
-  </si>
-  <si>
     <t>Trousers</t>
   </si>
   <si>
-    <t>Socks</t>
-  </si>
-  <si>
     <t>Wading Pants</t>
   </si>
   <si>
@@ -6960,9 +6954,6 @@
     <t>Corduroy</t>
   </si>
   <si>
-    <t>Jacker</t>
-  </si>
-  <si>
     <t>Yoga</t>
   </si>
   <si>
@@ -7038,9 +7029,6 @@
     <t>Henley</t>
   </si>
   <si>
-    <t>Swimming Cap</t>
-  </si>
-  <si>
     <t>Tool Belt</t>
   </si>
   <si>
@@ -7087,6 +7075,177 @@
   </si>
   <si>
     <t>Wetsuit</t>
+  </si>
+  <si>
+    <t>Shirt</t>
+  </si>
+  <si>
+    <t>5K</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>16c</t>
+  </si>
+  <si>
+    <t>5L</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>16d</t>
+  </si>
+  <si>
+    <t>5M</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>16e</t>
+  </si>
+  <si>
+    <t>5P</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>15a</t>
+  </si>
+  <si>
+    <t>16f</t>
+  </si>
+  <si>
+    <t>5Q</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>15b</t>
+  </si>
+  <si>
+    <t>16g</t>
+  </si>
+  <si>
+    <t>5R</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>15c</t>
+  </si>
+  <si>
+    <t>16h</t>
+  </si>
+  <si>
+    <t>5S</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>15d</t>
+  </si>
+  <si>
+    <t>16i</t>
+  </si>
+  <si>
+    <t>5T</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>15e</t>
+  </si>
+  <si>
+    <t>16j</t>
+  </si>
+  <si>
+    <t>5U</t>
+  </si>
+  <si>
+    <t>14a</t>
+  </si>
+  <si>
+    <t>15f</t>
+  </si>
+  <si>
+    <t>16k</t>
+  </si>
+  <si>
+    <t>5V</t>
+  </si>
+  <si>
+    <t>14b</t>
+  </si>
+  <si>
+    <t>15g</t>
+  </si>
+  <si>
+    <t>16l</t>
+  </si>
+  <si>
+    <t>5W</t>
+  </si>
+  <si>
+    <t>14c</t>
+  </si>
+  <si>
+    <t>15h</t>
+  </si>
+  <si>
+    <t>16m</t>
+  </si>
+  <si>
+    <t>Synthetic Rubber</t>
+  </si>
+  <si>
+    <t>Butyl Rubber</t>
+  </si>
+  <si>
+    <t>Swim Cap</t>
+  </si>
+  <si>
+    <t>Synthetic Rubber (II)</t>
+  </si>
+  <si>
+    <t>SBR</t>
+  </si>
+  <si>
+    <t>NBR</t>
+  </si>
+  <si>
+    <t>HNBR</t>
+  </si>
+  <si>
+    <t>CIIR</t>
+  </si>
+  <si>
+    <t>BIIR</t>
+  </si>
+  <si>
+    <t>EPDM</t>
+  </si>
+  <si>
+    <t>EVA</t>
+  </si>
+  <si>
+    <t>PUR</t>
+  </si>
+  <si>
+    <t>3A</t>
   </si>
 </sst>
 </file>
@@ -9604,7 +9763,7 @@
   </sheetPr>
   <dimension ref="A1:N333"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
@@ -17011,19 +17170,19 @@
         <v>1.1.0</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>2318</v>
+        <v>2315</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>2317</v>
+        <v>2314</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>2316</v>
+        <v>2313</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>2315</v>
+        <v>2312</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>2314</v>
+        <v>2311</v>
       </c>
       <c r="G16" s="43" t="str">
         <f>'Molded Items'!$C$151</f>
@@ -17059,19 +17218,19 @@
         <v>1.1.0</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>2313</v>
+        <v>2310</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>2312</v>
+        <v>2309</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>2311</v>
+        <v>2308</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>2310</v>
+        <v>2307</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>2309</v>
+        <v>2306</v>
       </c>
       <c r="G17" s="44" t="str">
         <f>'Molded Items'!$C$150</f>
@@ -17107,19 +17266,19 @@
         <v>1.1.0</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>2328</v>
+        <v>2325</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>2327</v>
+        <v>2324</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>2326</v>
+        <v>2323</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>2325</v>
+        <v>2322</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>2324</v>
+        <v>2321</v>
       </c>
       <c r="G18" s="43" t="str">
         <f>'Molded Items'!$C$151</f>
@@ -17155,19 +17314,19 @@
         <v>1.1.0</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>2323</v>
+        <v>2320</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>2322</v>
+        <v>2319</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>2321</v>
+        <v>2318</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>2320</v>
+        <v>2317</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>2319</v>
+        <v>2316</v>
       </c>
       <c r="G19" s="44" t="str">
         <f>'Molded Items'!$C$150</f>
@@ -37337,7 +37496,7 @@
         <v>1.1.1</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>2343</v>
+        <v>2339</v>
       </c>
       <c r="C30" s="10" t="str">
         <f t="shared" si="0"/>
@@ -37367,8 +37526,8 @@
   </sheetPr>
   <dimension ref="A1:U156"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView showZeros="0" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -37428,7 +37587,7 @@
         <v>1786</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>2337</v>
+        <v>2333</v>
       </c>
       <c r="K1" s="29" t="s">
         <v>1785</v>
@@ -43531,7 +43690,7 @@
         <v>1.1.1</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>2344</v>
+        <v>2340</v>
       </c>
       <c r="C152" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D152, Molds!C:E, 3, FALSE)&amp;" ("&amp;F152&amp;")"</f>
@@ -43586,10 +43745,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R55"/>
+  <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" topLeftCell="F25" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -43599,7 +43758,7 @@
     <col min="3" max="3" width="4.28515625" customWidth="1"/>
     <col min="4" max="4" width="3.85546875" customWidth="1"/>
     <col min="5" max="5" width="5" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" customWidth="1"/>
     <col min="8" max="8" width="14.140625" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
@@ -43667,7 +43826,7 @@
         <v>1939</v>
       </c>
       <c r="R1" s="28" t="s">
-        <v>2332</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -43688,8 +43847,8 @@
         <v>1919</v>
       </c>
       <c r="F2" s="2" t="str">
-        <f>'Molded Items'!$C$100</f>
-        <v>Fibers (Natural Rubber)</v>
+        <f>Pellets!$F$67</f>
+        <v>Bag (PolyIsoPrene Pellets)</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>1883</v>
@@ -43698,13 +43857,13 @@
         <v>2132</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>2133</v>
+        <v>2343</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>2136</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>2135</v>
+        <v>2134</v>
+      </c>
+      <c r="K2" s="40" t="s">
+        <v>2332</v>
       </c>
       <c r="L2">
         <v>3</v>
@@ -43716,10 +43875,10 @@
         <v>1</v>
       </c>
       <c r="O2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -43756,7 +43915,7 @@
         <v>2011</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>1884</v>
@@ -43808,19 +43967,19 @@
         <v>Fibers (Nylon 6)</v>
       </c>
       <c r="G4" s="40" t="s">
-        <v>2345</v>
+        <v>2341</v>
       </c>
       <c r="H4" s="40" t="s">
-        <v>2330</v>
+        <v>2152</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>2346</v>
+        <v>1886</v>
       </c>
       <c r="J4" s="40" t="s">
-        <v>2331</v>
+        <v>2327</v>
       </c>
       <c r="K4" s="40" t="s">
-        <v>2336</v>
+        <v>1885</v>
       </c>
       <c r="L4">
         <v>5</v>
@@ -43924,13 +44083,13 @@
         <v>Magnesium Ingot</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>1934</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>1884</v>
@@ -43985,13 +44144,13 @@
         <v>2111</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>2144</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>2145</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>2146</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>2147</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>2148</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>1932</v>
@@ -44043,13 +44202,13 @@
         <v>2112</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>1932</v>
@@ -44104,13 +44263,13 @@
         <v>1936</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="L9">
         <v>15</v>
@@ -44159,16 +44318,16 @@
         <v>2114</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
       <c r="L10">
         <v>15</v>
@@ -44217,16 +44376,16 @@
         <v>2115</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="L11">
         <v>10</v>
@@ -44278,13 +44437,13 @@
         <v>1936</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="L12">
         <v>10</v>
@@ -44333,16 +44492,16 @@
         <v>2117</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="L13">
         <v>7</v>
@@ -44391,16 +44550,16 @@
         <v>2118</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="L14">
         <v>10</v>
@@ -44449,16 +44608,16 @@
         <v>2129</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
       <c r="L15">
         <v>20</v>
@@ -44507,16 +44666,16 @@
         <v>2119</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="L16">
         <v>25</v>
@@ -44565,16 +44724,16 @@
         <v>2120</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>1931</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
       <c r="L17">
         <v>7</v>
@@ -44620,19 +44779,19 @@
         <v>Plumbum (Lead) Ingot</v>
       </c>
       <c r="G18" s="40" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
       <c r="L18">
         <v>15</v>
@@ -44681,16 +44840,16 @@
         <v>2131</v>
       </c>
       <c r="H19" s="2" t="s">
+        <v>2195</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>2196</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>2197</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="K19" s="2" t="s">
         <v>2198</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>2199</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>2200</v>
       </c>
       <c r="L19">
         <v>7</v>
@@ -44742,13 +44901,13 @@
         <v>2011</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
       <c r="L20">
         <v>12</v>
@@ -44797,16 +44956,16 @@
         <v>2128</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="J21" s="2" t="s">
+        <v>2192</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>2194</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>2196</v>
       </c>
       <c r="L21">
         <v>24</v>
@@ -44855,16 +45014,16 @@
         <v>2127</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="J22" s="2" t="s">
+        <v>2192</v>
+      </c>
+      <c r="K22" s="2" t="s">
         <v>2194</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>2196</v>
       </c>
       <c r="L22">
         <v>28</v>
@@ -44913,16 +45072,16 @@
         <v>2126</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="L23">
         <v>18</v>
@@ -44971,16 +45130,16 @@
         <v>2125</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="L24">
         <v>18</v>
@@ -45029,16 +45188,16 @@
         <v>2122</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="L25">
         <v>12</v>
@@ -45087,16 +45246,16 @@
         <v>2123</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="I26" s="2" t="s">
+        <v>2173</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>2175</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>2177</v>
-      </c>
       <c r="K26" s="2" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="L26">
         <v>15</v>
@@ -45145,16 +45304,16 @@
         <v>1346</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="L27">
         <v>33</v>
@@ -45203,16 +45362,16 @@
         <v>2124</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
       <c r="L28">
         <v>10</v>
@@ -45261,16 +45420,16 @@
         <v>2130</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
       <c r="L29">
         <v>32</v>
@@ -45300,35 +45459,35 @@
         <v>1.1.0</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>2199</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>2200</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>2201</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>2202</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>2203</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>2204</v>
       </c>
       <c r="F30" t="str">
         <f>'Molded Items'!C40</f>
         <v>Fibers (Carbon Fiber)</v>
       </c>
       <c r="G30" s="40" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="H30" s="40" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="I30" s="40" t="s">
+        <v>2173</v>
+      </c>
+      <c r="J30" s="40" t="s">
         <v>2175</v>
       </c>
-      <c r="J30" s="40" t="s">
-        <v>2177</v>
-      </c>
       <c r="K30" s="40" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="L30">
         <v>32</v>
@@ -45358,35 +45517,35 @@
         <v>1.1.0</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>2203</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>2204</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>2205</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>2206</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>2207</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>2208</v>
       </c>
       <c r="F31" t="str">
         <f>'Molded Items'!C43</f>
         <v>Fibers (Chitin)</v>
       </c>
       <c r="G31" s="40" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="H31" s="40" t="s">
+        <v>2276</v>
+      </c>
+      <c r="I31" s="40" t="s">
+        <v>2277</v>
+      </c>
+      <c r="J31" s="40" t="s">
         <v>2278</v>
       </c>
-      <c r="I31" s="40" t="s">
+      <c r="K31" s="40" t="s">
         <v>2279</v>
-      </c>
-      <c r="J31" s="40" t="s">
-        <v>2280</v>
-      </c>
-      <c r="K31" s="40" t="s">
-        <v>2281</v>
       </c>
       <c r="L31">
         <v>15</v>
@@ -45416,32 +45575,32 @@
         <v>1.1.0</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>2207</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>2208</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>2209</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>2210</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>2211</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>2212</v>
       </c>
       <c r="F32" t="str">
         <f>'Molded Items'!C70</f>
         <v>Fibers (PAN)</v>
       </c>
       <c r="G32" s="40" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>1885</v>
@@ -45474,35 +45633,35 @@
         <v>1.1.0</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>2211</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>2213</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>2214</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>2215</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>2216</v>
       </c>
       <c r="F33" t="str">
         <f>'Molded Items'!C92</f>
         <v>Fibers (Nylon 6,7)</v>
       </c>
       <c r="G33" s="40" t="s">
-        <v>2308</v>
+        <v>2305</v>
       </c>
       <c r="H33" s="40" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="I33" s="40" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="J33" s="40" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="K33" s="40" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="L33">
         <v>5</v>
@@ -45532,35 +45691,35 @@
         <v>1.1.0</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>2215</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>2216</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>2217</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>2218</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>2219</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>2220</v>
       </c>
       <c r="F34" t="str">
         <f>'Molded Items'!C93</f>
         <v>Fibers (Nylon 6,10)</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>2307</v>
+        <v>2304</v>
       </c>
       <c r="H34" s="2" t="s">
+        <v>2136</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>2139</v>
+      </c>
+      <c r="J34" s="2" t="s">
         <v>2138</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="K34" s="2" t="s">
         <v>2141</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>2140</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>2143</v>
       </c>
       <c r="L34">
         <v>5</v>
@@ -45590,29 +45749,29 @@
         <v>1.1.0</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>2219</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>2220</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>2221</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>2222</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>2223</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>2224</v>
       </c>
       <c r="F35" t="str">
         <f>'Molded Items'!C54</f>
         <v>Fibers (LLDPE)</v>
       </c>
       <c r="G35" s="40" t="s">
-        <v>2334</v>
+        <v>2330</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>2011</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>2333</v>
+        <v>2329</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>1884</v>
@@ -45648,35 +45807,35 @@
         <v>1.1.0</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>2223</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>2224</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>2225</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>2226</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>2227</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>2228</v>
       </c>
       <c r="F36" t="str">
         <f>'Molded Items'!C56</f>
         <v>Fibers (LDPE)</v>
       </c>
       <c r="G36" s="40" t="s">
-        <v>2335</v>
+        <v>2331</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="I36" s="2" t="s">
+        <v>2292</v>
+      </c>
+      <c r="J36" s="2" t="s">
         <v>2294</v>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>2296</v>
-      </c>
       <c r="K36" s="2" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="L36">
         <v>5</v>
@@ -45706,35 +45865,35 @@
         <v>1.1.0</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>2227</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>2228</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>2229</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>2230</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>2231</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>2232</v>
       </c>
       <c r="F37" t="str">
         <f>'Molded Items'!C57</f>
         <v>Fibers (MDPE)</v>
       </c>
       <c r="G37" s="40" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>1884</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="L37">
         <v>8</v>
@@ -45764,29 +45923,29 @@
         <v>1.1.0</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>2231</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>2232</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>2233</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>2234</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>2235</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>2236</v>
       </c>
       <c r="F38" t="str">
         <f>'Molded Items'!C50</f>
         <v>Fibers (HDPE)</v>
       </c>
       <c r="G38" s="40" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>2011</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>1884</v>
@@ -45822,35 +45981,35 @@
         <v>1.1.0</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>2235</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>2236</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>2237</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>2238</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>2239</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>2240</v>
       </c>
       <c r="F39" t="str">
         <f>'Molded Items'!C86</f>
         <v>Fibers (PEN)</v>
       </c>
       <c r="G39" s="40" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
       <c r="H39" s="40" t="s">
+        <v>2295</v>
+      </c>
+      <c r="I39" s="40" t="s">
+        <v>2296</v>
+      </c>
+      <c r="J39" s="40" t="s">
         <v>2297</v>
       </c>
-      <c r="I39" s="40" t="s">
+      <c r="K39" s="40" t="s">
         <v>2298</v>
-      </c>
-      <c r="J39" s="40" t="s">
-        <v>2299</v>
-      </c>
-      <c r="K39" s="40" t="s">
-        <v>2300</v>
       </c>
       <c r="L39">
         <v>10</v>
@@ -45880,32 +46039,32 @@
         <v>1.1.0</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>2239</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>2240</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>2241</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>2242</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>2243</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>2244</v>
       </c>
       <c r="F40" t="str">
         <f>'Molded Items'!C88</f>
         <v>Fibers (PES)</v>
       </c>
       <c r="G40" s="40" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>1885</v>
@@ -45938,35 +46097,35 @@
         <v>1.1.0</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>2243</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>2244</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>2245</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>2246</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>2247</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>2248</v>
       </c>
       <c r="F41" t="str">
         <f>'Molded Items'!C89</f>
         <v>Fibers (PET)</v>
       </c>
       <c r="G41" s="40" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="H41" s="40" t="s">
         <v>2011</v>
       </c>
       <c r="I41" s="40" t="s">
-        <v>2304</v>
+        <v>2135</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>1884</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="L41">
         <v>8</v>
@@ -45996,29 +46155,29 @@
         <v>1.1.0</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>2247</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>2248</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>2249</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>2250</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>2251</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>2252</v>
       </c>
       <c r="F42" t="str">
         <f>'Molded Items'!C90</f>
         <v>Fibers (PETG)</v>
       </c>
       <c r="G42" s="40" t="s">
-        <v>2305</v>
+        <v>2302</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>2011</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>2306</v>
+        <v>2303</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>1884</v>
@@ -46054,32 +46213,32 @@
         <v>1.1.0</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>2251</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>2252</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>2253</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>2254</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>2255</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>2256</v>
       </c>
       <c r="F43" t="str">
         <f>'Molded Items'!C117</f>
         <v>Fibers (PP)</v>
       </c>
       <c r="G43" s="40" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>2011</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>2329</v>
+        <v>2326</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>1885</v>
@@ -46112,23 +46271,23 @@
         <v>1.1.0</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>2255</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>2256</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>2257</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>2258</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>2259</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>2260</v>
       </c>
       <c r="F44" t="str">
         <f>'Molded Items'!C120</f>
         <v>Fibers (PS)</v>
       </c>
       <c r="G44" s="40" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>2011</v>
@@ -46170,29 +46329,29 @@
         <v>1.1.0</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>2260</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>2261</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>2262</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>2263</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>2264</v>
       </c>
       <c r="F45" t="str">
         <f>'Molded Items'!C127</f>
         <v>Fibers (PU)</v>
       </c>
       <c r="G45" s="40" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>2011</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>1884</v>
@@ -46228,29 +46387,29 @@
         <v>1.1.0</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>2263</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>2264</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>2265</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>2266</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>2267</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>2268</v>
       </c>
       <c r="F46" t="str">
         <f>'Molded Items'!C109</f>
         <v>Fibers (POM)</v>
       </c>
       <c r="G46" s="40" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>2011</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>1884</v>
@@ -46286,35 +46445,35 @@
         <v>1.1.0</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>2267</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>2268</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>2269</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>2270</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>2271</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>2272</v>
       </c>
       <c r="F47" t="str">
         <f>'Molded Items'!C144</f>
         <v>Fibers (UHMWPE)</v>
       </c>
       <c r="G47" s="40" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>1936</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>1931</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="L47">
         <v>28</v>
@@ -46344,23 +46503,23 @@
         <v>1.1.0</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>2341</v>
+        <v>2337</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>2340</v>
+        <v>2336</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>2339</v>
+        <v>2335</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>2338</v>
+        <v>2334</v>
       </c>
       <c r="F48" t="str">
         <f>G5&amp;" "&amp;H5</f>
         <v>Kevlar Helmet</v>
       </c>
       <c r="G48" s="40" t="s">
-        <v>2342</v>
+        <v>2338</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>1936</v>
@@ -46396,36 +46555,649 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="23"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="23"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="23"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="23"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="23"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="23"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="23"/>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="23" t="str">
+        <f>[1]Enums!$A$14</f>
+        <v>1.1.2</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>2344</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>2345</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>2346</v>
+      </c>
+      <c r="F49" t="str">
+        <f>Pellets!F66</f>
+        <v>Bag (PolyIsoButylene Pellets)</v>
+      </c>
+      <c r="G49" s="40" t="s">
+        <v>2388</v>
+      </c>
+      <c r="H49" s="40" t="s">
+        <v>2389</v>
+      </c>
+      <c r="I49" s="40" t="s">
+        <v>2342</v>
+      </c>
+      <c r="J49" s="40" t="s">
+        <v>1884</v>
+      </c>
+      <c r="K49" s="40" t="s">
+        <v>2332</v>
+      </c>
+      <c r="L49">
+        <v>5</v>
+      </c>
+      <c r="M49">
+        <v>15</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>3</v>
+      </c>
+      <c r="P49">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>1</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" s="23" t="str">
+        <f>[1]Enums!$A$14</f>
+        <v>1.1.2</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>2347</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>2348</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>2349</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>2350</v>
+      </c>
+      <c r="F50" t="str">
+        <f>Pellets!F38</f>
+        <v>Bag (PolyButadiene (low-cis) Pellets)</v>
+      </c>
+      <c r="G50" s="40" t="s">
+        <v>2387</v>
+      </c>
+      <c r="H50" s="40" t="s">
+        <v>2389</v>
+      </c>
+      <c r="I50" s="40" t="s">
+        <v>2342</v>
+      </c>
+      <c r="J50" s="40" t="s">
+        <v>1884</v>
+      </c>
+      <c r="K50" s="40" t="s">
+        <v>2332</v>
+      </c>
+      <c r="L50">
+        <v>5</v>
+      </c>
+      <c r="M50">
+        <v>15</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>3</v>
+      </c>
+      <c r="P50">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" s="23" t="str">
+        <f>[1]Enums!$A$14</f>
+        <v>1.1.2</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>2352</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>2353</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>2354</v>
+      </c>
+      <c r="F51" t="str">
+        <f>Pellets!F39</f>
+        <v>Bag (PolyButadiene (high-cis) Pellets)</v>
+      </c>
+      <c r="G51" s="40" t="s">
+        <v>2390</v>
+      </c>
+      <c r="H51" s="40" t="s">
+        <v>2389</v>
+      </c>
+      <c r="I51" s="40" t="s">
+        <v>2342</v>
+      </c>
+      <c r="J51" s="40" t="s">
+        <v>1884</v>
+      </c>
+      <c r="K51" s="40" t="s">
+        <v>2332</v>
+      </c>
+      <c r="L51">
+        <v>5</v>
+      </c>
+      <c r="M51">
+        <v>15</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>3</v>
+      </c>
+      <c r="P51">
+        <v>2</v>
+      </c>
+      <c r="Q51">
+        <v>1</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="23" t="str">
+        <f>[1]Enums!$A$14</f>
+        <v>1.1.2</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>2355</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>2356</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>2358</v>
+      </c>
+      <c r="F52" t="str">
+        <f>Pellets!$F$107</f>
+        <v>Bag (Styrene-Butadiene Rubber Pellets)</v>
+      </c>
+      <c r="G52" s="40" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H52" s="40" t="s">
+        <v>2389</v>
+      </c>
+      <c r="I52" s="40" t="s">
+        <v>2342</v>
+      </c>
+      <c r="J52" s="40" t="s">
+        <v>1884</v>
+      </c>
+      <c r="K52" s="40" t="s">
+        <v>2332</v>
+      </c>
+      <c r="L52">
+        <v>10</v>
+      </c>
+      <c r="M52">
+        <v>20</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>3</v>
+      </c>
+      <c r="P52">
+        <v>2</v>
+      </c>
+      <c r="Q52">
+        <v>1</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" s="23" t="str">
+        <f>[1]Enums!$A$14</f>
+        <v>1.1.2</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>2360</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>2361</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>2362</v>
+      </c>
+      <c r="F53" t="str">
+        <f>Pellets!$F$27</f>
+        <v>Bag (Nitrile-Butadiene Rubber Pellets)</v>
+      </c>
+      <c r="G53" s="40" t="s">
+        <v>2392</v>
+      </c>
+      <c r="H53" s="40" t="s">
+        <v>2389</v>
+      </c>
+      <c r="I53" s="40" t="s">
+        <v>2342</v>
+      </c>
+      <c r="J53" s="40" t="s">
+        <v>1884</v>
+      </c>
+      <c r="K53" s="40" t="s">
+        <v>2332</v>
+      </c>
+      <c r="L53">
+        <v>10</v>
+      </c>
+      <c r="M53">
+        <v>20</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>3</v>
+      </c>
+      <c r="P53">
+        <v>2</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" s="23" t="str">
+        <f>[1]Enums!$A$14</f>
+        <v>1.1.2</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>2363</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>2364</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F54" t="str">
+        <f>Pellets!$F$18</f>
+        <v>Bag (Hydrogenated Nitrile-Butadiene Rubber Pellets)</v>
+      </c>
+      <c r="G54" s="40" t="s">
+        <v>2393</v>
+      </c>
+      <c r="H54" s="40" t="s">
+        <v>2389</v>
+      </c>
+      <c r="I54" s="40" t="s">
+        <v>2342</v>
+      </c>
+      <c r="J54" s="40" t="s">
+        <v>1884</v>
+      </c>
+      <c r="K54" s="40" t="s">
+        <v>2332</v>
+      </c>
+      <c r="L54">
+        <v>10</v>
+      </c>
+      <c r="M54">
+        <v>20</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>3</v>
+      </c>
+      <c r="P54">
+        <v>2</v>
+      </c>
+      <c r="Q54">
+        <v>1</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" s="23" t="str">
+        <f>[1]Enums!$A$14</f>
+        <v>1.1.2</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>2367</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>2368</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>2369</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>2370</v>
+      </c>
+      <c r="F55" t="str">
+        <f>Pellets!$F$11</f>
+        <v>Bag (Chlorine Isobutylene-Isoprene Rubber Pellets)</v>
+      </c>
+      <c r="G55" s="40" t="s">
+        <v>2394</v>
+      </c>
+      <c r="H55" s="40" t="s">
+        <v>2389</v>
+      </c>
+      <c r="I55" s="40" t="s">
+        <v>2342</v>
+      </c>
+      <c r="J55" s="40" t="s">
+        <v>1884</v>
+      </c>
+      <c r="K55" s="40" t="s">
+        <v>2332</v>
+      </c>
+      <c r="L55">
+        <v>20</v>
+      </c>
+      <c r="M55">
+        <v>25</v>
+      </c>
+      <c r="N55">
+        <v>2</v>
+      </c>
+      <c r="O55">
+        <v>4</v>
+      </c>
+      <c r="P55">
+        <v>3</v>
+      </c>
+      <c r="Q55">
+        <v>2</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" s="23" t="str">
+        <f>[1]Enums!$A$14</f>
+        <v>1.1.2</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>2371</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>2372</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>2373</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>2374</v>
+      </c>
+      <c r="F56" t="str">
+        <f>Pellets!$F$6</f>
+        <v>Bag (Bromine Isobutylene-Isoprene Rubber Pellets)</v>
+      </c>
+      <c r="G56" s="40" t="s">
+        <v>2395</v>
+      </c>
+      <c r="H56" s="40" t="s">
+        <v>2389</v>
+      </c>
+      <c r="I56" s="40" t="s">
+        <v>2342</v>
+      </c>
+      <c r="J56" s="40" t="s">
+        <v>1884</v>
+      </c>
+      <c r="K56" s="40" t="s">
+        <v>2332</v>
+      </c>
+      <c r="L56">
+        <v>20</v>
+      </c>
+      <c r="M56">
+        <v>25</v>
+      </c>
+      <c r="N56">
+        <v>2</v>
+      </c>
+      <c r="O56">
+        <v>4</v>
+      </c>
+      <c r="P56">
+        <v>3</v>
+      </c>
+      <c r="Q56">
+        <v>2</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" s="23" t="str">
+        <f>[1]Enums!$A$14</f>
+        <v>1.1.2</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>2375</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>2376</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>2377</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>2378</v>
+      </c>
+      <c r="F57" t="str">
+        <f>Pellets!$F$15</f>
+        <v>Bag (Ethylene-Propylene-Diene Monomer Pellets)</v>
+      </c>
+      <c r="G57" s="40" t="s">
+        <v>2396</v>
+      </c>
+      <c r="H57" s="40" t="s">
+        <v>2389</v>
+      </c>
+      <c r="I57" s="40" t="s">
+        <v>2342</v>
+      </c>
+      <c r="J57" s="40" t="s">
+        <v>1884</v>
+      </c>
+      <c r="K57" s="40" t="s">
+        <v>2332</v>
+      </c>
+      <c r="L57">
+        <v>20</v>
+      </c>
+      <c r="M57">
+        <v>25</v>
+      </c>
+      <c r="N57">
+        <v>2</v>
+      </c>
+      <c r="O57">
+        <v>4</v>
+      </c>
+      <c r="P57">
+        <v>3</v>
+      </c>
+      <c r="Q57">
+        <v>2</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58" s="23" t="str">
+        <f>[1]Enums!$A$14</f>
+        <v>1.1.2</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>2379</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>2380</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>2381</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>2382</v>
+      </c>
+      <c r="F58" t="str">
+        <f>Pellets!$F$16</f>
+        <v>Bag (Ethylene-Vinyl Acetate Pellets)</v>
+      </c>
+      <c r="G58" s="40" t="s">
+        <v>2397</v>
+      </c>
+      <c r="H58" s="40" t="s">
+        <v>2389</v>
+      </c>
+      <c r="I58" s="40" t="s">
+        <v>2342</v>
+      </c>
+      <c r="J58" s="40" t="s">
+        <v>1884</v>
+      </c>
+      <c r="K58" s="40" t="s">
+        <v>2332</v>
+      </c>
+      <c r="L58">
+        <v>20</v>
+      </c>
+      <c r="M58">
+        <v>25</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+      <c r="O58">
+        <v>4</v>
+      </c>
+      <c r="P58">
+        <v>3</v>
+      </c>
+      <c r="Q58">
+        <v>2</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59" s="23" t="str">
+        <f>[1]Enums!$A$14</f>
+        <v>1.1.2</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>2383</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>2384</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>2385</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>2386</v>
+      </c>
+      <c r="F59" t="str">
+        <f>Pellets!$F$94</f>
+        <v>Bag (PolyUrethane Pellets)</v>
+      </c>
+      <c r="G59" s="40" t="s">
+        <v>2398</v>
+      </c>
+      <c r="H59" s="40" t="s">
+        <v>2389</v>
+      </c>
+      <c r="I59" s="40" t="s">
+        <v>2342</v>
+      </c>
+      <c r="J59" s="40" t="s">
+        <v>1884</v>
+      </c>
+      <c r="K59" s="40" t="s">
+        <v>2332</v>
+      </c>
+      <c r="L59">
+        <v>20</v>
+      </c>
+      <c r="M59">
+        <v>25</v>
+      </c>
+      <c r="N59">
+        <v>2</v>
+      </c>
+      <c r="O59">
+        <v>4</v>
+      </c>
+      <c r="P59">
+        <v>3</v>
+      </c>
+      <c r="Q59">
+        <v>2</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H60" s="40"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/Polycraft Polymers.xlsx
+++ b/config/Polycraft Polymers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19290" yWindow="0" windowWidth="27240" windowHeight="14310" tabRatio="826" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="21150" yWindow="0" windowWidth="27240" windowHeight="14310" tabRatio="826" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Pellets" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37526,8 +37527,8 @@
   </sheetPr>
   <dimension ref="A1:U156"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="J10" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -43747,7 +43748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F25" workbookViewId="0">
+    <sheetView topLeftCell="F19" workbookViewId="0">
       <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>

--- a/config/Polycraft Polymers.xlsx
+++ b/config/Polycraft Polymers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="21150" yWindow="0" windowWidth="27240" windowHeight="14310" tabRatio="826" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="21150" yWindow="0" windowWidth="27240" windowHeight="14310" tabRatio="826" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Pellets" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2586" uniqueCount="2400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2586" uniqueCount="2401">
   <si>
     <t>GC</t>
   </si>
@@ -7247,6 +7247,9 @@
   </si>
   <si>
     <t>3A</t>
+  </si>
+  <si>
+    <t>Source 1, Source 2</t>
   </si>
 </sst>
 </file>
@@ -7979,7 +7982,7 @@
         </row>
         <row r="19">
           <cell r="B19" t="str">
-            <v>Isobutylene Rubber</v>
+            <v>Isobutylene-Isoprene Rubber</v>
           </cell>
           <cell r="C19" t="str">
             <v>Butyl Rubber</v>
@@ -9764,8 +9767,8 @@
   </sheetPr>
   <dimension ref="A1:N333"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10731,23 +10734,23 @@
       </c>
       <c r="F19" s="1" t="str">
         <f>IF($N19, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Bag (Isobutylene Rubber Pellets)</v>
+        <v>Bag (Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="G19" s="1" t="str">
         <f>IF($N19, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Sack (Isobutylene Rubber Pellets)</v>
+        <v>Sack (Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="H19" s="1" t="str">
         <f>IF($N19, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Powder Keg (Isobutylene Rubber Pellets)</v>
+        <v>Powder Keg (Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="I19" s="1" t="str">
         <f>IF($N19, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Chemical Silo (Isobutylene Rubber Pellets)</v>
+        <v>Chemical Silo (Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="J19" s="1" t="str">
         <f>[1]Polymers!$B19</f>
-        <v>Isobutylene Rubber</v>
+        <v>Isobutylene-Isoprene Rubber</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -20607,8 +20610,8 @@
   </sheetPr>
   <dimension ref="A1:G333"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E121" sqref="E121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21122,7 +21125,7 @@
       </c>
       <c r="E19" s="1" t="str">
         <f xml:space="preserve"> Pellets!G19</f>
-        <v>Sack (Isobutylene Rubber Pellets)</v>
+        <v>Sack (Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="F19" s="1" t="str">
         <f>VLOOKUP(E19, Pellets!G:M, 7,FALSE)</f>
@@ -37527,8 +37530,8 @@
   </sheetPr>
   <dimension ref="A1:U156"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="J10" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView showZeros="0" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -37777,7 +37780,7 @@
       </c>
       <c r="N4" s="24" t="str">
         <f>Pellets!$F$19</f>
-        <v>Bag (Isobutylene Rubber Pellets)</v>
+        <v>Bag (Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="O4" s="22" t="str">
         <f>Pellets!$F$39</f>
@@ -38102,7 +38105,7 @@
       </c>
       <c r="O10" s="24" t="str">
         <f>Pellets!$F$19</f>
-        <v>Bag (Isobutylene Rubber Pellets)</v>
+        <v>Bag (Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="P10" s="22" t="str">
         <f>Pellets!$F$39</f>
@@ -38339,7 +38342,7 @@
       </c>
       <c r="M14" s="24" t="str">
         <f>Pellets!$F$19</f>
-        <v>Bag (Isobutylene Rubber Pellets)</v>
+        <v>Bag (Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="N14" s="22" t="str">
         <f>Pellets!$F$39</f>
@@ -38561,7 +38564,7 @@
       </c>
       <c r="L18" s="24" t="str">
         <f>Pellets!$F$19</f>
-        <v>Bag (Isobutylene Rubber Pellets)</v>
+        <v>Bag (Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="M18" s="22" t="str">
         <f>Pellets!$F$39</f>
@@ -39031,11 +39034,11 @@
         <v>1</v>
       </c>
       <c r="K27" s="24" t="s">
-        <v>1904</v>
+        <v>2400</v>
       </c>
       <c r="L27" s="24" t="str">
         <f>Pellets!$F$19</f>
-        <v>Bag (Isobutylene Rubber Pellets)</v>
+        <v>Bag (Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="M27" s="22" t="str">
         <f>Pellets!$F$39</f>
@@ -40003,7 +40006,7 @@
       </c>
       <c r="E52" s="21" t="str">
         <f>Pellets!F19</f>
-        <v>Bag (Isobutylene Rubber Pellets)</v>
+        <v>Bag (Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="F52" s="21" t="str">
         <f>VLOOKUP(E52, Pellets!F:M, 8,FALSE)</f>

--- a/config/Polycraft Polymers.xlsx
+++ b/config/Polycraft Polymers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="21150" yWindow="0" windowWidth="27240" windowHeight="14310" tabRatio="826" activeTab="2"/>
+    <workbookView xWindow="21150" yWindow="0" windowWidth="27240" windowHeight="14310" tabRatio="826"/>
   </bookViews>
   <sheets>
     <sheet name="Pellets" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2586" uniqueCount="2401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2690" uniqueCount="2505">
   <si>
     <t>GC</t>
   </si>
@@ -7250,6 +7250,318 @@
   </si>
   <si>
     <t>Source 1, Source 2</t>
+  </si>
+  <si>
+    <t>19U</t>
+  </si>
+  <si>
+    <t>1ah</t>
+  </si>
+  <si>
+    <t>1aD</t>
+  </si>
+  <si>
+    <t>1b0</t>
+  </si>
+  <si>
+    <t>19V</t>
+  </si>
+  <si>
+    <t>1ai</t>
+  </si>
+  <si>
+    <t>1aE</t>
+  </si>
+  <si>
+    <t>1b1</t>
+  </si>
+  <si>
+    <t>19W</t>
+  </si>
+  <si>
+    <t>1aj</t>
+  </si>
+  <si>
+    <t>1aF</t>
+  </si>
+  <si>
+    <t>1b2</t>
+  </si>
+  <si>
+    <t>19X</t>
+  </si>
+  <si>
+    <t>1ak</t>
+  </si>
+  <si>
+    <t>1aG</t>
+  </si>
+  <si>
+    <t>1b3</t>
+  </si>
+  <si>
+    <t>19Y</t>
+  </si>
+  <si>
+    <t>1al</t>
+  </si>
+  <si>
+    <t>1aH</t>
+  </si>
+  <si>
+    <t>1b4</t>
+  </si>
+  <si>
+    <t>19Z</t>
+  </si>
+  <si>
+    <t>1am</t>
+  </si>
+  <si>
+    <t>1aI</t>
+  </si>
+  <si>
+    <t>1b5</t>
+  </si>
+  <si>
+    <t>1a0</t>
+  </si>
+  <si>
+    <t>1an</t>
+  </si>
+  <si>
+    <t>1aJ</t>
+  </si>
+  <si>
+    <t>1b6</t>
+  </si>
+  <si>
+    <t>1a1</t>
+  </si>
+  <si>
+    <t>1ao</t>
+  </si>
+  <si>
+    <t>1aK</t>
+  </si>
+  <si>
+    <t>1b7</t>
+  </si>
+  <si>
+    <t>1a2</t>
+  </si>
+  <si>
+    <t>1ap</t>
+  </si>
+  <si>
+    <t>1aL</t>
+  </si>
+  <si>
+    <t>1b8</t>
+  </si>
+  <si>
+    <t>1a3</t>
+  </si>
+  <si>
+    <t>1aq</t>
+  </si>
+  <si>
+    <t>1aM</t>
+  </si>
+  <si>
+    <t>1b9</t>
+  </si>
+  <si>
+    <t>1a4</t>
+  </si>
+  <si>
+    <t>1ar</t>
+  </si>
+  <si>
+    <t>1aN</t>
+  </si>
+  <si>
+    <t>1ba</t>
+  </si>
+  <si>
+    <t>1a5</t>
+  </si>
+  <si>
+    <t>1as</t>
+  </si>
+  <si>
+    <t>1aO</t>
+  </si>
+  <si>
+    <t>1bb</t>
+  </si>
+  <si>
+    <t>1a6</t>
+  </si>
+  <si>
+    <t>1at</t>
+  </si>
+  <si>
+    <t>1aP</t>
+  </si>
+  <si>
+    <t>1bc</t>
+  </si>
+  <si>
+    <t>1a7</t>
+  </si>
+  <si>
+    <t>1au</t>
+  </si>
+  <si>
+    <t>1aQ</t>
+  </si>
+  <si>
+    <t>1bd</t>
+  </si>
+  <si>
+    <t>1a8</t>
+  </si>
+  <si>
+    <t>1av</t>
+  </si>
+  <si>
+    <t>1aR</t>
+  </si>
+  <si>
+    <t>1be</t>
+  </si>
+  <si>
+    <t>1a9</t>
+  </si>
+  <si>
+    <t>1aw</t>
+  </si>
+  <si>
+    <t>1aS</t>
+  </si>
+  <si>
+    <t>1bf</t>
+  </si>
+  <si>
+    <t>1aa</t>
+  </si>
+  <si>
+    <t>1ax</t>
+  </si>
+  <si>
+    <t>1aT</t>
+  </si>
+  <si>
+    <t>1bg</t>
+  </si>
+  <si>
+    <t>1ab</t>
+  </si>
+  <si>
+    <t>1ay</t>
+  </si>
+  <si>
+    <t>1aU</t>
+  </si>
+  <si>
+    <t>1bh</t>
+  </si>
+  <si>
+    <t>1ac</t>
+  </si>
+  <si>
+    <t>1az</t>
+  </si>
+  <si>
+    <t>1aV</t>
+  </si>
+  <si>
+    <t>1bi</t>
+  </si>
+  <si>
+    <t>1ad</t>
+  </si>
+  <si>
+    <t>1aA</t>
+  </si>
+  <si>
+    <t>1aW</t>
+  </si>
+  <si>
+    <t>1bj</t>
+  </si>
+  <si>
+    <t>1ae</t>
+  </si>
+  <si>
+    <t>1aB</t>
+  </si>
+  <si>
+    <t>1aX</t>
+  </si>
+  <si>
+    <t>1bk</t>
+  </si>
+  <si>
+    <t>1af</t>
+  </si>
+  <si>
+    <t>1aC</t>
+  </si>
+  <si>
+    <t>1aY</t>
+  </si>
+  <si>
+    <t>1bl</t>
+  </si>
+  <si>
+    <t>1ag</t>
+  </si>
+  <si>
+    <t>1aZ</t>
+  </si>
+  <si>
+    <t>1bm</t>
+  </si>
+  <si>
+    <t>1bo</t>
+  </si>
+  <si>
+    <t>1bn</t>
+  </si>
+  <si>
+    <t>1bq</t>
+  </si>
+  <si>
+    <t>1bp</t>
+  </si>
+  <si>
+    <t>1bu</t>
+  </si>
+  <si>
+    <t>1bt</t>
+  </si>
+  <si>
+    <t>1bs</t>
+  </si>
+  <si>
+    <t>1br</t>
+  </si>
+  <si>
+    <t>1by</t>
+  </si>
+  <si>
+    <t>1bx</t>
+  </si>
+  <si>
+    <t>1bw</t>
+  </si>
+  <si>
+    <t>1bv</t>
+  </si>
+  <si>
+    <t>Source 1</t>
   </si>
 </sst>
 </file>
@@ -7438,7 +7750,17 @@
     <cellStyle name="Normal 3" xfId="2"/>
     <cellStyle name="Normal 4" xfId="3"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -7464,8 +7786,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="2"/>
+      <tableStyleElement type="headerRow" dxfId="1"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -9045,6 +9367,28 @@
           </cell>
           <cell r="D115" t="b">
             <v>1</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="B116" t="str">
+            <v>Epoxy-Carbon Fiber Resin</v>
+          </cell>
+          <cell r="C116" t="str">
+            <v>Carbon Fiber Resin (E)</v>
+          </cell>
+          <cell r="D116" t="b">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="B117" t="str">
+            <v>Phenolic-Carbon Fiber Resin</v>
+          </cell>
+          <cell r="C117" t="str">
+            <v>Carbon Fiber Resin (P)</v>
+          </cell>
+          <cell r="D117" t="b">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -9767,8 +10111,8 @@
   </sheetPr>
   <dimension ref="A1:N333"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9777,7 +10121,7 @@
     <col min="3" max="3" width="4.28515625" customWidth="1"/>
     <col min="4" max="4" width="4.7109375" customWidth="1"/>
     <col min="5" max="5" width="4.42578125" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" style="1" customWidth="1"/>
@@ -11282,7 +11626,10 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
+      <c r="A30" s="2" t="str">
+        <f>[1]Enums!$A$14</f>
+        <v>1.1.2</v>
+      </c>
       <c r="B30" s="3" t="s">
         <v>339</v>
       </c>
@@ -15631,26 +15978,41 @@
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A116" s="2"/>
+      <c r="A116" s="2" t="str">
+        <f>[1]Enums!$A$14</f>
+        <v>1.1.2</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>2409</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>2410</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>2412</v>
+      </c>
       <c r="F116" s="1" t="str">
         <f>IF($N116, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J116&amp;IF($N116, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Vial (0)</v>
+        <v>Vial (Epoxy-Carbon Fiber Resin)</v>
       </c>
       <c r="G116" s="1" t="str">
         <f>IF($N116, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J116&amp;IF($N116, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Beaker (0)</v>
+        <v>Beaker (Epoxy-Carbon Fiber Resin)</v>
       </c>
       <c r="H116" s="1" t="str">
         <f>IF($N116, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J116&amp;IF($N116, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Drum (0)</v>
+        <v>Drum (Epoxy-Carbon Fiber Resin)</v>
       </c>
       <c r="I116" s="1" t="str">
         <f>IF($N116, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J116&amp;IF($N116, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Chemical Vat (0)</v>
-      </c>
-      <c r="J116" s="1">
+        <v>Chemical Vat (Epoxy-Carbon Fiber Resin)</v>
+      </c>
+      <c r="J116" s="1" t="str">
         <f>[1]Polymers!$B116</f>
-        <v>0</v>
+        <v>Epoxy-Carbon Fiber Resin</v>
       </c>
       <c r="K116">
         <v>1</v>
@@ -15658,36 +16020,51 @@
       <c r="L116">
         <v>10</v>
       </c>
-      <c r="M116" s="2">
+      <c r="M116" s="2" t="str">
         <f>[1]Polymers!$C116</f>
-        <v>0</v>
-      </c>
-      <c r="N116" s="2">
+        <v>Carbon Fiber Resin (E)</v>
+      </c>
+      <c r="N116" s="2" t="b">
         <f>[1]Polymers!$D116</f>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A117" s="2"/>
+      <c r="A117" s="2" t="str">
+        <f>[1]Enums!$A$14</f>
+        <v>1.1.2</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>2413</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>2414</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>2415</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>2416</v>
+      </c>
       <c r="F117" s="1" t="str">
         <f>IF($N117, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J117&amp;IF($N117, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Vial (0)</v>
+        <v>Vial (Phenolic-Carbon Fiber Resin)</v>
       </c>
       <c r="G117" s="1" t="str">
         <f>IF($N117, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J117&amp;IF($N117, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Beaker (0)</v>
+        <v>Beaker (Phenolic-Carbon Fiber Resin)</v>
       </c>
       <c r="H117" s="1" t="str">
         <f>IF($N117, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J117&amp;IF($N117, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Drum (0)</v>
+        <v>Drum (Phenolic-Carbon Fiber Resin)</v>
       </c>
       <c r="I117" s="1" t="str">
         <f>IF($N117, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J117&amp;IF($N117, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Chemical Vat (0)</v>
-      </c>
-      <c r="J117" s="1">
+        <v>Chemical Vat (Phenolic-Carbon Fiber Resin)</v>
+      </c>
+      <c r="J117" s="1" t="str">
         <f>[1]Polymers!$B117</f>
-        <v>0</v>
+        <v>Phenolic-Carbon Fiber Resin</v>
       </c>
       <c r="K117">
         <v>1</v>
@@ -15695,17 +16072,29 @@
       <c r="L117">
         <v>10</v>
       </c>
-      <c r="M117" s="2">
+      <c r="M117" s="2" t="str">
         <f>[1]Polymers!$C117</f>
-        <v>0</v>
-      </c>
-      <c r="N117" s="2">
+        <v>Carbon Fiber Resin (P)</v>
+      </c>
+      <c r="N117" s="2" t="b">
         <f>[1]Polymers!$D117</f>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
+      <c r="B118" s="3" t="s">
+        <v>2417</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>2418</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>2419</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>2420</v>
+      </c>
       <c r="F118" s="1" t="str">
         <f>IF($N118, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J118&amp;IF($N118, " "&amp;$J$1, "")&amp;")"</f>
         <v>Vial (0)</v>
@@ -15743,6 +16132,18 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
+      <c r="B119" s="3" t="s">
+        <v>2421</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>2422</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>2423</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>2424</v>
+      </c>
       <c r="F119" s="1" t="str">
         <f>IF($N119, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J119&amp;IF($N119, " "&amp;$J$1, "")&amp;")"</f>
         <v>Vial (0)</v>
@@ -15780,77 +16181,288 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
+      <c r="B120" s="3" t="s">
+        <v>2425</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>2426</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>2427</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>2428</v>
+      </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
+      <c r="B121" s="3" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>2431</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>2432</v>
+      </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
+      <c r="B122" s="3" t="s">
+        <v>2433</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>2434</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>2435</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>2436</v>
+      </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
+      <c r="B123" s="3" t="s">
+        <v>2437</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>2439</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>2440</v>
+      </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
+      <c r="B124" s="3" t="s">
+        <v>2441</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>2442</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>2443</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>2444</v>
+      </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
+      <c r="B125" s="3" t="s">
+        <v>2445</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>2447</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>2448</v>
+      </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
+      <c r="B126" s="3" t="s">
+        <v>2449</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>2450</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>2451</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>2452</v>
+      </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
+      <c r="B127" s="3" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>2454</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>2455</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>2456</v>
+      </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B128" s="3" t="s">
+        <v>2457</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>2458</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>2459</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="2"/>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B129" s="3" t="s">
+        <v>2461</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>2462</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>2463</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="2"/>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B130" s="3" t="s">
+        <v>2465</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>2466</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>2467</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="2"/>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B131" s="3" t="s">
+        <v>2469</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>2470</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>2471</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="2"/>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B132" s="3" t="s">
+        <v>2473</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>2474</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>2475</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="2"/>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B133" s="3" t="s">
+        <v>2477</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>2478</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="2"/>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B134" s="3" t="s">
+        <v>2481</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>2483</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="2"/>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B135" s="3" t="s">
+        <v>2485</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>2486</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="2"/>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B136" s="3" t="s">
+        <v>2489</v>
+      </c>
+      <c r="C136">
+        <v>142</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="2"/>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="2"/>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B138" s="3"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="2"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="2"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="2"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="2"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="2"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="2"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
@@ -16518,7 +17130,7 @@
       </c>
       <c r="G2" s="43" t="str">
         <f>'Molded Items'!$C$151</f>
-        <v>Tool Shaft (Carbon Fiber)</v>
+        <v>Tool Shaft (Carbon Fiber Composite)</v>
       </c>
       <c r="H2" s="43" t="str">
         <f>[2]Ingots!$C$17</f>
@@ -16566,7 +17178,7 @@
       </c>
       <c r="G3" s="43" t="str">
         <f>'Molded Items'!$C$151</f>
-        <v>Tool Shaft (Carbon Fiber)</v>
+        <v>Tool Shaft (Carbon Fiber Composite)</v>
       </c>
       <c r="H3" s="43" t="str">
         <f>[2]Ingots!$C$18</f>
@@ -16614,7 +17226,7 @@
       </c>
       <c r="G4" s="43" t="str">
         <f>'Molded Items'!$C$151</f>
-        <v>Tool Shaft (Carbon Fiber)</v>
+        <v>Tool Shaft (Carbon Fiber Composite)</v>
       </c>
       <c r="H4" s="43" t="str">
         <f>[2]Ingots!$C$19</f>
@@ -16662,7 +17274,7 @@
       </c>
       <c r="G5" s="43" t="str">
         <f>'Molded Items'!$C$151</f>
-        <v>Tool Shaft (Carbon Fiber)</v>
+        <v>Tool Shaft (Carbon Fiber Composite)</v>
       </c>
       <c r="H5" s="43" t="str">
         <f>[2]Ingots!$C$20</f>
@@ -16710,7 +17322,7 @@
       </c>
       <c r="G6" s="43" t="str">
         <f>'Molded Items'!$C$151</f>
-        <v>Tool Shaft (Carbon Fiber)</v>
+        <v>Tool Shaft (Carbon Fiber Composite)</v>
       </c>
       <c r="H6" s="43" t="str">
         <f>[2]Ingots!$C$23</f>
@@ -16758,7 +17370,7 @@
       </c>
       <c r="G7" s="43" t="str">
         <f>'Molded Items'!$C$151</f>
-        <v>Tool Shaft (Carbon Fiber)</v>
+        <v>Tool Shaft (Carbon Fiber Composite)</v>
       </c>
       <c r="H7" s="43" t="str">
         <f>[2]Ingots!$C$24</f>
@@ -16806,7 +17418,7 @@
       </c>
       <c r="G8" s="43" t="str">
         <f>'Molded Items'!$C$151</f>
-        <v>Tool Shaft (Carbon Fiber)</v>
+        <v>Tool Shaft (Carbon Fiber Composite)</v>
       </c>
       <c r="H8" s="43" t="str">
         <f>[2]Ingots!$C$25</f>
@@ -17190,7 +17802,7 @@
       </c>
       <c r="G16" s="43" t="str">
         <f>'Molded Items'!$C$151</f>
-        <v>Tool Shaft (Carbon Fiber)</v>
+        <v>Tool Shaft (Carbon Fiber Composite)</v>
       </c>
       <c r="H16" s="44" t="str">
         <f>'[1]Items (MC)'!$B$11</f>
@@ -17286,7 +17898,7 @@
       </c>
       <c r="G18" s="43" t="str">
         <f>'Molded Items'!$C$151</f>
-        <v>Tool Shaft (Carbon Fiber)</v>
+        <v>Tool Shaft (Carbon Fiber Composite)</v>
       </c>
       <c r="H18" s="44" t="str">
         <f>'[1]Items (MC)'!$B$10</f>
@@ -19171,7 +19783,7 @@
   <dimension ref="A1:M115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E13"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20610,8 +21222,8 @@
   </sheetPr>
   <dimension ref="A1:G333"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21406,9 +22018,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+      <c r="A30" s="2" t="str">
         <f>Pellets!A30</f>
-        <v>0</v>
+        <v>1.1.2</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>766</v>
@@ -23728,10 +24340,58 @@
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" s="2"/>
+      <c r="A116" s="2" t="str">
+        <f>Pellets!A116</f>
+        <v>1.1.2</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>2493</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>2495</v>
+      </c>
+      <c r="D116" s="1" t="str">
+        <f t="shared" ref="D116:D117" si="4">$D$1&amp;" ("&amp;F116&amp;")"</f>
+        <v>Block (Carbon Fiber Resin (E))</v>
+      </c>
+      <c r="E116" s="1" t="str">
+        <f xml:space="preserve"> Pellets!G116</f>
+        <v>Beaker (Epoxy-Carbon Fiber Resin)</v>
+      </c>
+      <c r="F116" s="1" t="str">
+        <f>VLOOKUP(E116, Pellets!G:M, 7,FALSE)</f>
+        <v>Carbon Fiber Resin (E)</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" s="2"/>
+      <c r="A117" s="2" t="str">
+        <f>Pellets!A117</f>
+        <v>1.1.2</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>2492</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>2494</v>
+      </c>
+      <c r="D117" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Block (Carbon Fiber Resin (P))</v>
+      </c>
+      <c r="E117" s="1" t="str">
+        <f xml:space="preserve"> Pellets!G117</f>
+        <v>Beaker (Phenolic-Carbon Fiber Resin)</v>
+      </c>
+      <c r="F117" s="1" t="str">
+        <f>VLOOKUP(E117, Pellets!G:M, 7,FALSE)</f>
+        <v>Carbon Fiber Resin (P)</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
@@ -24382,6 +25042,9 @@
       <c r="A333" s="2"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B116:B117">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -24394,7 +25057,7 @@
   <dimension ref="A1:I333"/>
   <sheetViews>
     <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+      <selection activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25396,9 +26059,9 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+      <c r="A30" s="2" t="str">
         <f>Pellets!A30</f>
-        <v>0</v>
+        <v>1.1.2</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>1164</v>
@@ -28320,10 +28983,72 @@
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A116" s="2"/>
+      <c r="A116" s="2" t="str">
+        <f>Pellets!A116</f>
+        <v>1.1.2</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>2401</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>2402</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>2403</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>2404</v>
+      </c>
+      <c r="F116" s="1" t="str">
+        <f t="shared" ref="F116:F117" si="4">$F$1&amp;" ("&amp;H116&amp;")"</f>
+        <v>Slab (Carbon Fiber Resin (E))</v>
+      </c>
+      <c r="G116" s="1" t="str">
+        <f xml:space="preserve"> 'Blocks (Poly)'!D116</f>
+        <v>Block (Carbon Fiber Resin (E))</v>
+      </c>
+      <c r="H116" s="1" t="str">
+        <f>VLOOKUP(G116,'Blocks (Poly)'!D:F, 3, FALSE)</f>
+        <v>Carbon Fiber Resin (E)</v>
+      </c>
+      <c r="I116">
+        <f>'Blocks (Poly)'!G116/2</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A117" s="2"/>
+      <c r="A117" s="2" t="str">
+        <f>Pellets!A117</f>
+        <v>1.1.2</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>2405</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>2406</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>2407</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>2408</v>
+      </c>
+      <c r="F117" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Slab (Carbon Fiber Resin (P))</v>
+      </c>
+      <c r="G117" s="1" t="str">
+        <f xml:space="preserve"> 'Blocks (Poly)'!D117</f>
+        <v>Block (Carbon Fiber Resin (P))</v>
+      </c>
+      <c r="H117" s="1" t="str">
+        <f>VLOOKUP(G117,'Blocks (Poly)'!D:F, 3, FALSE)</f>
+        <v>Carbon Fiber Resin (P)</v>
+      </c>
+      <c r="I117">
+        <f>'Blocks (Poly)'!G117/2</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
@@ -28985,8 +29710,8 @@
   </sheetPr>
   <dimension ref="A1:G333"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="I124" sqref="I124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -29807,9 +30532,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+      <c r="A30" s="2" t="str">
         <f>Pellets!A30</f>
-        <v>0</v>
+        <v>1.1.2</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>1447</v>
@@ -32214,10 +32939,58 @@
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" s="2"/>
+      <c r="A116" s="2" t="str">
+        <f>Pellets!A116</f>
+        <v>1.1.2</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>2499</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>2497</v>
+      </c>
+      <c r="D116" s="1" t="str">
+        <f t="shared" ref="D116:D117" si="4">$D$1&amp;" ("&amp;F116&amp;")"</f>
+        <v>Wall (Carbon Fiber Resin (E))</v>
+      </c>
+      <c r="E116" s="1" t="str">
+        <f xml:space="preserve"> 'Blocks (Poly)'!D116</f>
+        <v>Block (Carbon Fiber Resin (E))</v>
+      </c>
+      <c r="F116" s="1" t="str">
+        <f>VLOOKUP(E116,'Blocks (Poly)'!D:F, 3, FALSE)</f>
+        <v>Carbon Fiber Resin (E)</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" s="2"/>
+      <c r="A117" s="2" t="str">
+        <f>Pellets!A117</f>
+        <v>1.1.2</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>2498</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>2496</v>
+      </c>
+      <c r="D117" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Wall (Carbon Fiber Resin (P))</v>
+      </c>
+      <c r="E117" s="1" t="str">
+        <f xml:space="preserve"> 'Blocks (Poly)'!D117</f>
+        <v>Block (Carbon Fiber Resin (P))</v>
+      </c>
+      <c r="F117" s="1" t="str">
+        <f>VLOOKUP(E117,'Blocks (Poly)'!D:F, 3, FALSE)</f>
+        <v>Carbon Fiber Resin (P)</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
@@ -32880,8 +33653,8 @@
   </sheetPr>
   <dimension ref="A1:G333"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="G122" sqref="G122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -33702,9 +34475,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+      <c r="A30" s="2" t="str">
         <f>Pellets!A30</f>
-        <v>0</v>
+        <v>1.1.2</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>1674</v>
@@ -36105,14 +36878,65 @@
         <v>Nylon 6</v>
       </c>
       <c r="G115">
+        <f>'Slabs (Poly)'!I115</f>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" s="2"/>
+      <c r="A116" s="2" t="str">
+        <f>Pellets!A116</f>
+        <v>1.1.2</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>2503</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>2501</v>
+      </c>
+      <c r="D116" s="1" t="str">
+        <f t="shared" ref="D116:D117" si="4">$D$1&amp;" ("&amp;F116&amp;")"</f>
+        <v>Stairs (Carbon Fiber Resin (E))</v>
+      </c>
+      <c r="E116" s="1" t="str">
+        <f xml:space="preserve"> 'Blocks (Poly)'!D116</f>
+        <v>Block (Carbon Fiber Resin (E))</v>
+      </c>
+      <c r="F116" s="1" t="str">
+        <f>VLOOKUP(E116,'Blocks (Poly)'!D:F, 3, FALSE)</f>
+        <v>Carbon Fiber Resin (E)</v>
+      </c>
+      <c r="G116">
+        <f>'Slabs (Poly)'!I116</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" s="2"/>
+      <c r="A117" s="2" t="str">
+        <f>Pellets!A117</f>
+        <v>1.1.2</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>2502</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>2500</v>
+      </c>
+      <c r="D117" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Stairs (Carbon Fiber Resin (P))</v>
+      </c>
+      <c r="E117" s="1" t="str">
+        <f xml:space="preserve"> 'Blocks (Poly)'!D117</f>
+        <v>Block (Carbon Fiber Resin (P))</v>
+      </c>
+      <c r="F117" s="1" t="str">
+        <f>VLOOKUP(E117,'Blocks (Poly)'!D:F, 3, FALSE)</f>
+        <v>Carbon Fiber Resin (P)</v>
+      </c>
+      <c r="G117">
+        <f>'Slabs (Poly)'!I117</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
@@ -36776,7 +37600,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -37530,8 +38354,8 @@
   </sheetPr>
   <dimension ref="A1:U156"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView showZeros="0" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="E160" sqref="E160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -40396,9 +41220,9 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="23">
+      <c r="A63" s="23" t="str">
         <f>Pellets!A30</f>
-        <v>0</v>
+        <v>1.1.2</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>537</v>
@@ -43429,7 +44253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="23">
         <f>Pellets!A112</f>
         <v>0</v>
@@ -43466,7 +44290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="23" t="str">
         <f>Pellets!A113</f>
         <v>1.0.0</v>
@@ -43503,7 +44327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="23" t="str">
         <f>Pellets!A114</f>
         <v>1.0.0</v>
@@ -43540,7 +44364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="23" t="str">
         <f>Pellets!A115</f>
         <v>1.1.0</v>
@@ -43577,7 +44401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="23" t="str">
         <f>[1]Enums!$A$12</f>
         <v>1.1.0</v>
@@ -43614,7 +44438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="23" t="str">
         <f>[1]Enums!$A$12</f>
         <v>1.1.0</v>
@@ -43639,7 +44463,7 @@
         <v>PEEK</v>
       </c>
       <c r="G150" s="21">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H150" s="21">
         <v>10</v>
@@ -43651,7 +44475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="23" t="str">
         <f>[1]Enums!$A$12</f>
         <v>1.1.0</v>
@@ -43661,22 +44485,22 @@
       </c>
       <c r="C151" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D151, Molds!C:E, 3, FALSE)&amp;" ("&amp;F151&amp;")"</f>
-        <v>Tool Shaft (Carbon Fiber)</v>
+        <v>Tool Shaft (Carbon Fiber Composite)</v>
       </c>
       <c r="D151" s="24" t="str">
         <f xml:space="preserve"> Molds!$C$29</f>
         <v>Mold (Tool Shaft)</v>
       </c>
       <c r="E151" s="21" t="str">
-        <f>Pellets!$F$7</f>
-        <v>Bag (Carbon Fiber)</v>
+        <f>Pellets!$F$116</f>
+        <v>Vial (Epoxy-Carbon Fiber Resin)</v>
       </c>
       <c r="F151" s="21" t="str">
-        <f>VLOOKUP(E40, Pellets!F:M, 8,FALSE)</f>
-        <v>Carbon Fiber</v>
+        <f>LEFT(VLOOKUP(E151, Pellets!F:M, 8,FALSE), FIND("(", VLOOKUP(E151, Pellets!F:M, 8,FALSE))-8)&amp;" Composite"</f>
+        <v>Carbon Fiber Composite</v>
       </c>
       <c r="G151" s="21">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H151" s="21">
         <v>10</v>
@@ -43687,8 +44511,15 @@
       <c r="J151" s="24" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K151" s="42" t="s">
+        <v>2504</v>
+      </c>
+      <c r="L151" s="21" t="str">
+        <f>Pellets!$F$117</f>
+        <v>Vial (Phenolic-Carbon Fiber Resin)</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="23" t="str">
         <f>[1]Enums!$A$13</f>
         <v>1.1.1</v>
@@ -43725,19 +44556,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="23"/>
       <c r="C153" s="22"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="23"/>
       <c r="C154" s="22"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" s="23"/>
       <c r="C155" s="22"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="23"/>
       <c r="C156" s="22"/>
     </row>
@@ -43751,7 +44582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView topLeftCell="F19" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>

--- a/config/Polycraft Polymers.xlsx
+++ b/config/Polycraft Polymers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="21150" yWindow="0" windowWidth="27240" windowHeight="14310" tabRatio="826"/>
+    <workbookView xWindow="21150" yWindow="0" windowWidth="27240" windowHeight="14310" tabRatio="826" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Pellets" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2690" uniqueCount="2505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2703" uniqueCount="2518">
   <si>
     <t>GC</t>
   </si>
@@ -7562,6 +7562,45 @@
   </si>
   <si>
     <t>Source 1</t>
+  </si>
+  <si>
+    <t>TileEntity ID</t>
+  </si>
+  <si>
+    <t>1bC</t>
+  </si>
+  <si>
+    <t>1bD</t>
+  </si>
+  <si>
+    <t>1bE</t>
+  </si>
+  <si>
+    <t>1bF</t>
+  </si>
+  <si>
+    <t>1bG</t>
+  </si>
+  <si>
+    <t>1bH</t>
+  </si>
+  <si>
+    <t>1bI</t>
+  </si>
+  <si>
+    <t>1bJ</t>
+  </si>
+  <si>
+    <t>1bK</t>
+  </si>
+  <si>
+    <t>1bL</t>
+  </si>
+  <si>
+    <t>1bM</t>
+  </si>
+  <si>
+    <t>1bN</t>
   </si>
 </sst>
 </file>
@@ -10111,8 +10150,8 @@
   </sheetPr>
   <dimension ref="A1:N333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19780,26 +19819,26 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:M115"/>
+  <dimension ref="A1:N115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="39.42578125" customWidth="1"/>
-    <col min="6" max="6" width="29.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" customWidth="1"/>
-    <col min="10" max="10" width="25.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="39.42578125" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" customWidth="1"/>
+    <col min="11" max="11" width="25.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="str">
         <f>[1]Enums!$A$1</f>
         <v>Version</v>
@@ -19810,36 +19849,39 @@
       <c r="C1" s="14" t="s">
         <v>595</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="14" t="s">
+        <v>2505</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>1868</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>566</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>590</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>589</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>588</v>
       </c>
-      <c r="M1" s="7"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="str">
         <f>[1]Enums!$A$2</f>
         <v>1.0.0</v>
@@ -19850,41 +19892,44 @@
       <c r="C2" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="D2" s="1" t="str">
-        <f>$F2&amp;" "&amp;$D$1&amp;" ("&amp;G2&amp;" x " &amp;H2&amp; ")"</f>
+      <c r="D2" s="3" t="s">
+        <v>2506</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <f>$G2&amp;" "&amp;$E$1&amp;" ("&amp;H2&amp;" x " &amp;I2&amp; ")"</f>
         <v>ABS Brick (1 x 1)</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="F2" s="1" t="str">
         <f xml:space="preserve"> Pellets!$G$3</f>
         <v>Sack (Acrylonitrile-Butadiene-Styrene Pellets)</v>
       </c>
-      <c r="F2" s="1" t="str">
-        <f>VLOOKUP(E2, Pellets!G:M, 7,FALSE)</f>
+      <c r="G2" s="1" t="str">
+        <f>VLOOKUP(F2, Pellets!G:M, 7,FALSE)</f>
         <v>ABS</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2" t="str">
-        <f t="shared" ref="I2:I13" si="0">$D$2</f>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="str">
+        <f t="shared" ref="J2:J13" si="0">$E$2</f>
         <v>ABS Brick (1 x 1)</v>
       </c>
-      <c r="J2" t="str">
+      <c r="K2" t="str">
         <f>Molds!C14</f>
         <v>Mold (Plastic Brick (1 x 1))</v>
       </c>
-      <c r="K2" s="11">
+      <c r="L2" s="11">
         <v>1</v>
       </c>
-      <c r="L2" s="11">
+      <c r="M2" s="11">
         <v>5</v>
       </c>
-      <c r="M2" s="10"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2" s="10"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="str">
         <f>[1]Enums!$A$2</f>
         <v>1.0.0</v>
@@ -19895,41 +19940,44 @@
       <c r="C3" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="D3" s="1" t="str">
-        <f t="shared" ref="D3:D13" si="1">$F3&amp;" "&amp;$D$1&amp;" ("&amp;G3&amp;" x " &amp;H3&amp; ")"</f>
+      <c r="D3" s="3" t="s">
+        <v>2507</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f t="shared" ref="E3:E13" si="1">$G3&amp;" "&amp;$E$1&amp;" ("&amp;H3&amp;" x " &amp;I3&amp; ")"</f>
         <v>ABS Brick (1 x 2)</v>
       </c>
-      <c r="E3" s="1" t="str">
+      <c r="F3" s="1" t="str">
         <f xml:space="preserve"> Pellets!$G$3</f>
         <v>Sack (Acrylonitrile-Butadiene-Styrene Pellets)</v>
       </c>
-      <c r="F3" s="1" t="str">
-        <f>VLOOKUP(E3, Pellets!G:M, 7,FALSE)</f>
+      <c r="G3" s="1" t="str">
+        <f>VLOOKUP(F3, Pellets!G:M, 7,FALSE)</f>
         <v>ABS</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>2</v>
       </c>
-      <c r="I3" t="str">
+      <c r="J3" t="str">
         <f t="shared" si="0"/>
         <v>ABS Brick (1 x 1)</v>
       </c>
-      <c r="J3" t="str">
+      <c r="K3" t="str">
         <f>Molds!C15</f>
         <v>Mold (Plastic Brick (1 x 2))</v>
       </c>
-      <c r="K3" s="11">
+      <c r="L3" s="11">
         <v>1</v>
       </c>
-      <c r="L3" s="11">
+      <c r="M3" s="11">
         <v>5</v>
       </c>
-      <c r="M3" s="10"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3" s="10"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="str">
         <f>[1]Enums!$A$2</f>
         <v>1.0.0</v>
@@ -19940,41 +19988,44 @@
       <c r="C4" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="D4" s="1" t="str">
+      <c r="D4" s="3" t="s">
+        <v>2508</v>
+      </c>
+      <c r="E4" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ABS Brick (1 x 3)</v>
       </c>
-      <c r="E4" s="1" t="str">
+      <c r="F4" s="1" t="str">
         <f xml:space="preserve"> Pellets!$G$3</f>
         <v>Sack (Acrylonitrile-Butadiene-Styrene Pellets)</v>
       </c>
-      <c r="F4" s="1" t="str">
-        <f>VLOOKUP(E4, Pellets!G:M, 7,FALSE)</f>
+      <c r="G4" s="1" t="str">
+        <f>VLOOKUP(F4, Pellets!G:M, 7,FALSE)</f>
         <v>ABS</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>3</v>
       </c>
-      <c r="I4" t="str">
+      <c r="J4" t="str">
         <f t="shared" si="0"/>
         <v>ABS Brick (1 x 1)</v>
       </c>
-      <c r="J4" t="str">
+      <c r="K4" t="str">
         <f>Molds!C16</f>
         <v>Mold (Plastic Brick (1 x 3))</v>
       </c>
-      <c r="K4" s="11">
+      <c r="L4" s="11">
         <v>2</v>
       </c>
-      <c r="L4" s="11">
+      <c r="M4" s="11">
         <v>8</v>
       </c>
-      <c r="M4" s="10"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4" s="10"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="str">
         <f>[1]Enums!$A$2</f>
         <v>1.0.0</v>
@@ -19985,41 +20036,44 @@
       <c r="C5" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="D5" s="1" t="str">
+      <c r="D5" s="3" t="s">
+        <v>2509</v>
+      </c>
+      <c r="E5" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ABS Brick (1 x 4)</v>
       </c>
-      <c r="E5" s="1" t="str">
+      <c r="F5" s="1" t="str">
         <f xml:space="preserve"> Pellets!$G$3</f>
         <v>Sack (Acrylonitrile-Butadiene-Styrene Pellets)</v>
       </c>
-      <c r="F5" s="1" t="str">
-        <f>VLOOKUP(E5, Pellets!G:M, 7,FALSE)</f>
+      <c r="G5" s="1" t="str">
+        <f>VLOOKUP(F5, Pellets!G:M, 7,FALSE)</f>
         <v>ABS</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>4</v>
       </c>
-      <c r="I5" t="str">
+      <c r="J5" t="str">
         <f t="shared" si="0"/>
         <v>ABS Brick (1 x 1)</v>
       </c>
-      <c r="J5" t="str">
+      <c r="K5" t="str">
         <f>Molds!C17</f>
         <v>Mold (Plastic Brick (1 x 4))</v>
       </c>
-      <c r="K5" s="11">
+      <c r="L5" s="11">
         <v>2</v>
       </c>
-      <c r="L5" s="11">
+      <c r="M5" s="11">
         <v>8</v>
       </c>
-      <c r="M5" s="10"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5" s="10"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="str">
         <f>[1]Enums!$A$2</f>
         <v>1.0.0</v>
@@ -20030,41 +20084,44 @@
       <c r="C6" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="D6" s="3" t="s">
+        <v>2510</v>
+      </c>
+      <c r="E6" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ABS Brick (2 x 2)</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="F6" s="1" t="str">
         <f xml:space="preserve"> Pellets!$G$3</f>
         <v>Sack (Acrylonitrile-Butadiene-Styrene Pellets)</v>
       </c>
-      <c r="F6" s="1" t="str">
-        <f>VLOOKUP(E6, Pellets!G:M, 7,FALSE)</f>
+      <c r="G6" s="1" t="str">
+        <f>VLOOKUP(F6, Pellets!G:M, 7,FALSE)</f>
         <v>ABS</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
-      <c r="I6" t="str">
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6" t="str">
         <f t="shared" si="0"/>
         <v>ABS Brick (1 x 1)</v>
       </c>
-      <c r="J6" t="str">
+      <c r="K6" t="str">
         <f>Molds!C18</f>
         <v>Mold (Plastic Brick (2 x 2))</v>
       </c>
-      <c r="K6" s="11">
+      <c r="L6" s="11">
         <v>2</v>
       </c>
-      <c r="L6" s="11">
+      <c r="M6" s="11">
         <v>8</v>
       </c>
-      <c r="M6" s="10"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="str">
         <f>[1]Enums!$A$2</f>
         <v>1.0.0</v>
@@ -20075,41 +20132,44 @@
       <c r="C7" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="D7" s="1" t="str">
+      <c r="D7" s="3" t="s">
+        <v>2511</v>
+      </c>
+      <c r="E7" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ABS Brick (2 x 3)</v>
       </c>
-      <c r="E7" s="1" t="str">
+      <c r="F7" s="1" t="str">
         <f xml:space="preserve"> Pellets!$G$3</f>
         <v>Sack (Acrylonitrile-Butadiene-Styrene Pellets)</v>
       </c>
-      <c r="F7" s="1" t="str">
-        <f>VLOOKUP(E7, Pellets!G:M, 7,FALSE)</f>
+      <c r="G7" s="1" t="str">
+        <f>VLOOKUP(F7, Pellets!G:M, 7,FALSE)</f>
         <v>ABS</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>2</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>3</v>
       </c>
-      <c r="I7" t="str">
+      <c r="J7" t="str">
         <f t="shared" si="0"/>
         <v>ABS Brick (1 x 1)</v>
       </c>
-      <c r="J7" t="str">
+      <c r="K7" t="str">
         <f>Molds!C19</f>
         <v>Mold (Plastic Brick (2 x 3))</v>
       </c>
-      <c r="K7" s="11">
+      <c r="L7" s="11">
         <v>3</v>
       </c>
-      <c r="L7" s="11">
+      <c r="M7" s="11">
         <v>10</v>
       </c>
-      <c r="M7" s="10"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="10"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="str">
         <f>[1]Enums!$A$2</f>
         <v>1.0.0</v>
@@ -20120,41 +20180,44 @@
       <c r="C8" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="D8" s="1" t="str">
+      <c r="D8" s="3" t="s">
+        <v>2512</v>
+      </c>
+      <c r="E8" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ABS Brick (2 x 4)</v>
       </c>
-      <c r="E8" s="1" t="str">
+      <c r="F8" s="1" t="str">
         <f xml:space="preserve"> Pellets!$G$3</f>
         <v>Sack (Acrylonitrile-Butadiene-Styrene Pellets)</v>
       </c>
-      <c r="F8" s="1" t="str">
-        <f>VLOOKUP(E8, Pellets!G:M, 7,FALSE)</f>
+      <c r="G8" s="1" t="str">
+        <f>VLOOKUP(F8, Pellets!G:M, 7,FALSE)</f>
         <v>ABS</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>2</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>4</v>
       </c>
-      <c r="I8" t="str">
+      <c r="J8" t="str">
         <f t="shared" si="0"/>
         <v>ABS Brick (1 x 1)</v>
       </c>
-      <c r="J8" t="str">
+      <c r="K8" t="str">
         <f>Molds!C20</f>
         <v>Mold (Plastic Brick (2 x 4))</v>
       </c>
-      <c r="K8" s="11">
+      <c r="L8" s="11">
         <v>3</v>
       </c>
-      <c r="L8" s="11">
+      <c r="M8" s="11">
         <v>10</v>
       </c>
-      <c r="M8" s="10"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="10"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="str">
         <f>[1]Enums!$A$2</f>
         <v>1.0.0</v>
@@ -20165,41 +20228,44 @@
       <c r="C9" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="D9" s="1" t="str">
+      <c r="D9" s="3" t="s">
+        <v>2513</v>
+      </c>
+      <c r="E9" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ABS Brick (3 x 3)</v>
       </c>
-      <c r="E9" s="1" t="str">
+      <c r="F9" s="1" t="str">
         <f xml:space="preserve"> Pellets!$G$3</f>
         <v>Sack (Acrylonitrile-Butadiene-Styrene Pellets)</v>
       </c>
-      <c r="F9" s="1" t="str">
-        <f>VLOOKUP(E9, Pellets!G:M, 7,FALSE)</f>
+      <c r="G9" s="1" t="str">
+        <f>VLOOKUP(F9, Pellets!G:M, 7,FALSE)</f>
         <v>ABS</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
       </c>
       <c r="H9">
         <v>3</v>
       </c>
-      <c r="I9" t="str">
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9" t="str">
         <f t="shared" si="0"/>
         <v>ABS Brick (1 x 1)</v>
       </c>
-      <c r="J9" t="str">
+      <c r="K9" t="str">
         <f>Molds!C21</f>
         <v>Mold (Plastic Brick (3 x 3))</v>
       </c>
-      <c r="K9" s="11">
+      <c r="L9" s="11">
         <v>3</v>
       </c>
-      <c r="L9" s="11">
+      <c r="M9" s="11">
         <v>10</v>
       </c>
-      <c r="M9" s="10"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="10"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="str">
         <f>[1]Enums!$A$2</f>
         <v>1.0.0</v>
@@ -20210,41 +20276,44 @@
       <c r="C10" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="D10" s="1" t="str">
+      <c r="D10" s="3" t="s">
+        <v>2514</v>
+      </c>
+      <c r="E10" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ABS Brick (3 x 4)</v>
       </c>
-      <c r="E10" s="1" t="str">
+      <c r="F10" s="1" t="str">
         <f xml:space="preserve"> Pellets!$G$3</f>
         <v>Sack (Acrylonitrile-Butadiene-Styrene Pellets)</v>
       </c>
-      <c r="F10" s="1" t="str">
-        <f>VLOOKUP(E10, Pellets!G:M, 7,FALSE)</f>
+      <c r="G10" s="1" t="str">
+        <f>VLOOKUP(F10, Pellets!G:M, 7,FALSE)</f>
         <v>ABS</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>3</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>4</v>
       </c>
-      <c r="I10" t="str">
+      <c r="J10" t="str">
         <f t="shared" si="0"/>
         <v>ABS Brick (1 x 1)</v>
       </c>
-      <c r="J10" t="str">
+      <c r="K10" t="str">
         <f>Molds!C22</f>
         <v>Mold (Plastic Brick (3 x 4))</v>
       </c>
-      <c r="K10" s="11">
+      <c r="L10" s="11">
         <v>3</v>
       </c>
-      <c r="L10" s="11">
+      <c r="M10" s="11">
         <v>10</v>
       </c>
-      <c r="M10" s="10"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="str">
         <f>[1]Enums!$A$2</f>
         <v>1.0.0</v>
@@ -20255,41 +20324,44 @@
       <c r="C11" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="D11" s="1" t="str">
+      <c r="D11" s="3" t="s">
+        <v>2515</v>
+      </c>
+      <c r="E11" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ABS Brick (4 x 4)</v>
       </c>
-      <c r="E11" s="1" t="str">
+      <c r="F11" s="1" t="str">
         <f xml:space="preserve"> Pellets!$G$3</f>
         <v>Sack (Acrylonitrile-Butadiene-Styrene Pellets)</v>
       </c>
-      <c r="F11" s="1" t="str">
-        <f>VLOOKUP(E11, Pellets!G:M, 7,FALSE)</f>
+      <c r="G11" s="1" t="str">
+        <f>VLOOKUP(F11, Pellets!G:M, 7,FALSE)</f>
         <v>ABS</v>
-      </c>
-      <c r="G11">
-        <v>4</v>
       </c>
       <c r="H11">
         <v>4</v>
       </c>
-      <c r="I11" t="str">
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11" t="str">
         <f t="shared" si="0"/>
         <v>ABS Brick (1 x 1)</v>
       </c>
-      <c r="J11" t="str">
+      <c r="K11" t="str">
         <f>Molds!C23</f>
         <v>Mold (Plastic Brick (4 x 4))</v>
       </c>
-      <c r="K11" s="11">
+      <c r="L11" s="11">
         <v>4</v>
       </c>
-      <c r="L11" s="11">
+      <c r="M11" s="11">
         <v>12</v>
       </c>
-      <c r="M11" s="10"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="10"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="str">
         <f>[1]Enums!$A$2</f>
         <v>1.0.0</v>
@@ -20300,41 +20372,44 @@
       <c r="C12" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="D12" s="1" t="str">
+      <c r="D12" s="3" t="s">
+        <v>2516</v>
+      </c>
+      <c r="E12" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ABS Brick (1 x 8)</v>
       </c>
-      <c r="E12" s="1" t="str">
+      <c r="F12" s="1" t="str">
         <f xml:space="preserve"> Pellets!$G$3</f>
         <v>Sack (Acrylonitrile-Butadiene-Styrene Pellets)</v>
       </c>
-      <c r="F12" s="1" t="str">
-        <f>VLOOKUP(E12, Pellets!G:M, 7,FALSE)</f>
+      <c r="G12" s="1" t="str">
+        <f>VLOOKUP(F12, Pellets!G:M, 7,FALSE)</f>
         <v>ABS</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>1</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>8</v>
       </c>
-      <c r="I12" t="str">
+      <c r="J12" t="str">
         <f t="shared" si="0"/>
         <v>ABS Brick (1 x 1)</v>
       </c>
-      <c r="J12" t="str">
+      <c r="K12" t="str">
         <f>Molds!C24</f>
         <v>Mold (Plastic Brick (1 x 8))</v>
       </c>
-      <c r="K12" s="11">
+      <c r="L12" s="11">
         <v>3</v>
       </c>
-      <c r="L12" s="11">
+      <c r="M12" s="11">
         <v>10</v>
       </c>
-      <c r="M12" s="10"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="10"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="str">
         <f>[1]Enums!$A$2</f>
         <v>1.0.0</v>
@@ -20345,869 +20420,974 @@
       <c r="C13" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="D13" s="1" t="str">
+      <c r="D13" s="3" t="s">
+        <v>2517</v>
+      </c>
+      <c r="E13" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ABS Brick (2 x 8)</v>
       </c>
-      <c r="E13" s="1" t="str">
+      <c r="F13" s="1" t="str">
         <f xml:space="preserve"> Pellets!$G$3</f>
         <v>Sack (Acrylonitrile-Butadiene-Styrene Pellets)</v>
       </c>
-      <c r="F13" s="1" t="str">
-        <f>VLOOKUP(E13, Pellets!G:M, 7,FALSE)</f>
+      <c r="G13" s="1" t="str">
+        <f>VLOOKUP(F13, Pellets!G:M, 7,FALSE)</f>
         <v>ABS</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>2</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>8</v>
       </c>
-      <c r="I13" t="str">
+      <c r="J13" t="str">
         <f t="shared" si="0"/>
         <v>ABS Brick (1 x 1)</v>
       </c>
-      <c r="J13" t="str">
+      <c r="K13" t="str">
         <f>Molds!C25</f>
         <v>Mold (Plastic Brick (2 x 8))</v>
       </c>
-      <c r="K13" s="11">
+      <c r="L13" s="11">
         <v>4</v>
       </c>
-      <c r="L13" s="11">
+      <c r="M13" s="11">
         <v>12</v>
       </c>
-      <c r="M13" s="10"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="10"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="K14" s="11"/>
+      <c r="G14" s="1"/>
       <c r="L14" s="11"/>
-      <c r="M14" s="10"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="11"/>
+      <c r="N14" s="10"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="M15" s="10"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G15" s="1"/>
+      <c r="N15" s="10"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="1"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="M16" s="10"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G16" s="1"/>
+      <c r="N16" s="10"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="1"/>
+      <c r="D17" s="3"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="M17" s="10"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G17" s="1"/>
+      <c r="N17" s="10"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="1"/>
+      <c r="D18" s="3"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="M18" s="10"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G18" s="1"/>
+      <c r="N18" s="10"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="1"/>
+      <c r="D19" s="3"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="M19" s="10"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G19" s="1"/>
+      <c r="N19" s="10"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="1"/>
+      <c r="D20" s="3"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="M20" s="10"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G20" s="1"/>
+      <c r="N20" s="10"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="1"/>
+      <c r="D21" s="3"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="M21" s="10"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G21" s="1"/>
+      <c r="N21" s="10"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="1"/>
+      <c r="D22" s="3"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="M22" s="10"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G22" s="1"/>
+      <c r="N22" s="10"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="1"/>
+      <c r="D23" s="3"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="M23" s="10"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G23" s="1"/>
+      <c r="N23" s="10"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="1"/>
+      <c r="D24" s="3"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="M24" s="10"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G24" s="1"/>
+      <c r="N24" s="10"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="1"/>
+      <c r="D25" s="3"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="M25" s="10"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G25" s="1"/>
+      <c r="N25" s="10"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="1"/>
+      <c r="D26" s="3"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="1"/>
+      <c r="D27" s="3"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="1"/>
+      <c r="D28" s="3"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="1"/>
+      <c r="D29" s="3"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="1"/>
+      <c r="D30" s="3"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="1"/>
+      <c r="D31" s="3"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="1"/>
+      <c r="D32" s="3"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="1"/>
+      <c r="D33" s="3"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="1"/>
+      <c r="D34" s="3"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="1"/>
+      <c r="D35" s="3"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="1"/>
+      <c r="D36" s="3"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="1"/>
+      <c r="D37" s="3"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="1"/>
+      <c r="D38" s="3"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="1"/>
+      <c r="D39" s="3"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="1"/>
+      <c r="D40" s="3"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="1"/>
+      <c r="D41" s="3"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="1"/>
+      <c r="D42" s="3"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
-      <c r="D43" s="1"/>
+      <c r="D43" s="3"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="1"/>
+      <c r="D44" s="3"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
-      <c r="D45" s="1"/>
+      <c r="D45" s="3"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="1"/>
+      <c r="D46" s="3"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
-      <c r="D47" s="1"/>
+      <c r="D47" s="3"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
-      <c r="D48" s="1"/>
+      <c r="D48" s="3"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
-      <c r="D49" s="1"/>
+      <c r="D49" s="3"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
-      <c r="D50" s="1"/>
+      <c r="D50" s="3"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
-      <c r="D51" s="1"/>
+      <c r="D51" s="3"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
-      <c r="D52" s="1"/>
+      <c r="D52" s="3"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
-      <c r="D53" s="1"/>
+      <c r="D53" s="3"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
-      <c r="D54" s="1"/>
+      <c r="D54" s="3"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
-      <c r="D55" s="1"/>
+      <c r="D55" s="3"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
-      <c r="D56" s="1"/>
+      <c r="D56" s="3"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
-      <c r="D57" s="1"/>
+      <c r="D57" s="3"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
-      <c r="D58" s="1"/>
+      <c r="D58" s="3"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
-      <c r="D59" s="1"/>
+      <c r="D59" s="3"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
-      <c r="D60" s="1"/>
+      <c r="D60" s="3"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
-      <c r="D61" s="1"/>
+      <c r="D61" s="3"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
-      <c r="D62" s="1"/>
+      <c r="D62" s="3"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
-      <c r="D63" s="1"/>
+      <c r="D63" s="3"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
-      <c r="D64" s="1"/>
+      <c r="D64" s="3"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
-      <c r="D65" s="1"/>
+      <c r="D65" s="3"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
-      <c r="D66" s="1"/>
+      <c r="D66" s="3"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
-      <c r="D67" s="1"/>
+      <c r="D67" s="3"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
-      <c r="D68" s="1"/>
+      <c r="D68" s="3"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
-      <c r="D69" s="1"/>
+      <c r="D69" s="3"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
-      <c r="D70" s="1"/>
+      <c r="D70" s="3"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
-      <c r="D71" s="1"/>
+      <c r="D71" s="3"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
-      <c r="D72" s="1"/>
+      <c r="D72" s="3"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
-      <c r="D73" s="1"/>
+      <c r="D73" s="3"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
-      <c r="D74" s="1"/>
+      <c r="D74" s="3"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
-      <c r="D75" s="1"/>
+      <c r="D75" s="3"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
-      <c r="D76" s="1"/>
+      <c r="D76" s="3"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
-      <c r="D77" s="1"/>
+      <c r="D77" s="3"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
-      <c r="D78" s="1"/>
+      <c r="D78" s="3"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
-      <c r="D79" s="1"/>
+      <c r="D79" s="3"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
-      <c r="D80" s="1"/>
+      <c r="D80" s="3"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
-      <c r="D81" s="1"/>
+      <c r="D81" s="3"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
-      <c r="D82" s="1"/>
+      <c r="D82" s="3"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
-      <c r="D83" s="1"/>
+      <c r="D83" s="3"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
-      <c r="D84" s="1"/>
+      <c r="D84" s="3"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
-      <c r="D85" s="1"/>
+      <c r="D85" s="3"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
-      <c r="D86" s="1"/>
+      <c r="D86" s="3"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
-      <c r="D87" s="1"/>
+      <c r="D87" s="3"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
-      <c r="D88" s="1"/>
+      <c r="D88" s="3"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
-      <c r="D89" s="1"/>
+      <c r="D89" s="3"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
-      <c r="D90" s="1"/>
+      <c r="D90" s="3"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
-      <c r="D91" s="1"/>
+      <c r="D91" s="3"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
-      <c r="D92" s="1"/>
+      <c r="D92" s="3"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
-      <c r="D93" s="1"/>
+      <c r="D93" s="3"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
-      <c r="D94" s="1"/>
+      <c r="D94" s="3"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
-      <c r="D95" s="1"/>
+      <c r="D95" s="3"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
-      <c r="D96" s="1"/>
+      <c r="D96" s="3"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
-      <c r="D97" s="1"/>
+      <c r="D97" s="3"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G97" s="1"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
-      <c r="D98" s="1"/>
+      <c r="D98" s="3"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
-      <c r="D99" s="1"/>
+      <c r="D99" s="3"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G99" s="1"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
-      <c r="D100" s="1"/>
+      <c r="D100" s="3"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G100" s="1"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
-      <c r="D101" s="1"/>
+      <c r="D101" s="3"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G101" s="1"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
-      <c r="D102" s="1"/>
+      <c r="D102" s="3"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G102" s="1"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
-      <c r="D103" s="1"/>
+      <c r="D103" s="3"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G103" s="1"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
-      <c r="D104" s="1"/>
+      <c r="D104" s="3"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G104" s="1"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
-      <c r="D105" s="1"/>
+      <c r="D105" s="3"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G105" s="1"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
-      <c r="D106" s="1"/>
+      <c r="D106" s="3"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G106" s="1"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
-      <c r="D107" s="1"/>
+      <c r="D107" s="3"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G107" s="1"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
-      <c r="D108" s="1"/>
+      <c r="D108" s="3"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G108" s="1"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
-      <c r="D109" s="1"/>
+      <c r="D109" s="3"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G109" s="1"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
-      <c r="D110" s="1"/>
+      <c r="D110" s="3"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G110" s="1"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
-      <c r="D111" s="1"/>
+      <c r="D111" s="3"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G111" s="1"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
-      <c r="D112" s="1"/>
+      <c r="D112" s="3"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G112" s="1"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
-      <c r="D113" s="1"/>
+      <c r="D113" s="3"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G113" s="1"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
-      <c r="D114" s="1"/>
+      <c r="D114" s="3"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G114" s="1"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
-      <c r="D115" s="1"/>
+      <c r="D115" s="3"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -38354,8 +38534,8 @@
   </sheetPr>
   <dimension ref="A1:U156"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="E160" sqref="E160"/>
+    <sheetView showZeros="0" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="G154" sqref="G154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/config/Polycraft Polymers.xlsx
+++ b/config/Polycraft Polymers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="21150" yWindow="0" windowWidth="27240" windowHeight="14310" tabRatio="826" activeTab="1"/>
+    <workbookView xWindow="22080" yWindow="0" windowWidth="27240" windowHeight="14310" tabRatio="826" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Pellets" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,6 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -7887,108 +7886,108 @@
             <v>1.1.2</v>
           </cell>
         </row>
-        <row r="23">
-          <cell r="A23" t="str">
+        <row r="25">
+          <cell r="A25" t="str">
             <v>Bag</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>Vial</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
+            <v>Vial</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
             <v>Sack</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>Beaker</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
+            <v>Beaker</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
             <v>Powder Keg</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>Drum</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
+            <v>Drum</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
             <v>Chemical Silo</v>
           </cell>
         </row>
-        <row r="33">
-          <cell r="A33" t="str">
+        <row r="35">
+          <cell r="A35" t="str">
             <v>Chemical Vat</v>
           </cell>
         </row>
-        <row r="71">
-          <cell r="B71" t="str">
+        <row r="73">
+          <cell r="B73" t="str">
             <v>Mold Type</v>
           </cell>
         </row>
-        <row r="75">
-          <cell r="B75" t="str">
+        <row r="77">
+          <cell r="B77" t="str">
             <v>Mold</v>
           </cell>
         </row>
-        <row r="76">
-          <cell r="B76" t="str">
+        <row r="78">
+          <cell r="B78" t="str">
             <v>Metal Die</v>
           </cell>
         </row>
-        <row r="94">
-          <cell r="A94" t="str">
+        <row r="96">
+          <cell r="A96" t="str">
             <v>Gripped</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="A97" t="str">
-            <v>Base Material</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="A98" t="str">
-            <v>Wooden</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99" t="str">
-            <v>Stone</v>
+            <v>Base Material</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100" t="str">
-            <v>Iron</v>
+            <v>Wooden</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101" t="str">
-            <v>Golden</v>
+            <v>Stone</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102" t="str">
-            <v>Diamond</v>
+            <v>Iron</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103" t="str">
+            <v>Golden</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104" t="str">
+            <v>Diamond</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105" t="str">
             <v>Magic</v>
           </cell>
         </row>
-        <row r="132">
-          <cell r="A132" t="str">
+        <row r="134">
+          <cell r="A134" t="str">
             <v>Composite</v>
           </cell>
         </row>
-        <row r="133">
-          <cell r="A133" t="str">
+        <row r="135">
+          <cell r="A135" t="str">
             <v>Engineered</v>
           </cell>
         </row>
@@ -10150,7 +10149,7 @@
   </sheetPr>
   <dimension ref="A1:N333"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
@@ -10193,19 +10192,19 @@
         <v>Game ID XL</v>
       </c>
       <c r="F1" s="5" t="str">
-        <f xml:space="preserve"> [1]Enums!$A$23&amp;" ("&amp;J1&amp;")"</f>
+        <f xml:space="preserve"> [1]Enums!$A$25&amp;" ("&amp;J1&amp;")"</f>
         <v>Bag (Pellets)</v>
       </c>
       <c r="G1" s="5" t="str">
-        <f xml:space="preserve"> [1]Enums!$A$26&amp;" ("&amp;J1&amp;")"</f>
+        <f xml:space="preserve"> [1]Enums!$A$28&amp;" ("&amp;J1&amp;")"</f>
         <v>Sack (Pellets)</v>
       </c>
       <c r="H1" s="5" t="str">
-        <f xml:space="preserve"> [1]Enums!$A$29&amp;" ("&amp;J1&amp;")"</f>
+        <f xml:space="preserve"> [1]Enums!$A$31&amp;" ("&amp;J1&amp;")"</f>
         <v>Powder Keg (Pellets)</v>
       </c>
       <c r="I1" s="5" t="str">
-        <f xml:space="preserve"> [1]Enums!$A$32&amp;" ("&amp;J1&amp;")"</f>
+        <f xml:space="preserve"> [1]Enums!$A$34&amp;" ("&amp;J1&amp;")"</f>
         <v>Chemical Silo (Pellets)</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -10241,19 +10240,19 @@
         <v>448</v>
       </c>
       <c r="F2" s="1" t="str">
-        <f>IF($N2, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N2, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
         <v>Vial (Acrylic-Formaldehyde Resin)</v>
       </c>
       <c r="G2" s="1" t="str">
-        <f>IF($N2, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N2, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
         <v>Beaker (Acrylic-Formaldehyde Resin)</v>
       </c>
       <c r="H2" s="1" t="str">
-        <f>IF($N2, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N2, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
         <v>Drum (Acrylic-Formaldehyde Resin)</v>
       </c>
       <c r="I2" s="1" t="str">
-        <f>IF($N2, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N2, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Vat (Acrylic-Formaldehyde Resin)</v>
       </c>
       <c r="J2" s="1" t="str">
@@ -10293,19 +10292,19 @@
         <v>444</v>
       </c>
       <c r="F3" s="1" t="str">
-        <f>IF($N3, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N3, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Acrylonitrile-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f>IF($N3, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N3, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Acrylonitrile-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="H3" s="1" t="str">
-        <f>IF($N3, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N3, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Acrylonitrile-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="I3" s="1" t="str">
-        <f>IF($N3, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N3, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Acrylonitrile-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="J3" s="1" t="str">
@@ -10342,19 +10341,19 @@
         <v>440</v>
       </c>
       <c r="F4" s="1" t="str">
-        <f>IF($N4, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N4, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
         <v>Vial (Alkyd Resin)</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f>IF($N4, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N4, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
         <v>Beaker (Alkyd Resin)</v>
       </c>
       <c r="H4" s="1" t="str">
-        <f>IF($N4, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N4, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
         <v>Drum (Alkyd Resin)</v>
       </c>
       <c r="I4" s="1" t="str">
-        <f>IF($N4, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N4, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Vat (Alkyd Resin)</v>
       </c>
       <c r="J4" s="1" t="str">
@@ -10394,19 +10393,19 @@
         <v>436</v>
       </c>
       <c r="F5" s="1" t="str">
-        <f>IF($N5, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N5, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Amorphous PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="G5" s="1" t="str">
-        <f>IF($N5, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N5, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Amorphous PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="H5" s="1" t="str">
-        <f>IF($N5, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N5, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Amorphous PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="I5" s="1" t="str">
-        <f>IF($N5, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N5, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Amorphous PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="J5" s="1" t="str">
@@ -10446,19 +10445,19 @@
         <v>432</v>
       </c>
       <c r="F6" s="1" t="str">
-        <f>IF($N6, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N6, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Bromine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f>IF($N6, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N6, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Bromine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="H6" s="1" t="str">
-        <f>IF($N6, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N6, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Bromine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="I6" s="1" t="str">
-        <f>IF($N6, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N6, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Bromine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="J6" s="1" t="str">
@@ -10498,19 +10497,19 @@
         <v>428</v>
       </c>
       <c r="F7" s="1" t="str">
-        <f>IF($N7, [1]Enums!$A$23, [1]Enums!$A$23)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N7, [1]Enums!$A$25, [1]Enums!$A$25)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Carbon Fiber)</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f>IF($N7, [1]Enums!$A$26, [1]Enums!$A$26)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N7, [1]Enums!$A$28, [1]Enums!$A$28)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Carbon Fiber)</v>
       </c>
       <c r="H7" s="1" t="str">
-        <f>IF($N7, [1]Enums!$A$29, [1]Enums!$A$29)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N7, [1]Enums!$A$31, [1]Enums!$A$31)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Carbon Fiber)</v>
       </c>
       <c r="I7" s="1" t="str">
-        <f>IF($N7, [1]Enums!$A$32, [1]Enums!$A$32)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N7, [1]Enums!$A$34, [1]Enums!$A$34)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Carbon Fiber)</v>
       </c>
       <c r="J7" s="1" t="str">
@@ -10547,19 +10546,19 @@
         <v>424</v>
       </c>
       <c r="F8" s="1" t="str">
-        <f>IF($N8, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N8, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Cellulose Triacetate Pellets)</v>
       </c>
       <c r="G8" s="1" t="str">
-        <f>IF($N8, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N8, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Cellulose Triacetate Pellets)</v>
       </c>
       <c r="H8" s="1" t="str">
-        <f>IF($N8, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N8, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Cellulose Triacetate Pellets)</v>
       </c>
       <c r="I8" s="1" t="str">
-        <f>IF($N8, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N8, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Cellulose Triacetate Pellets)</v>
       </c>
       <c r="J8" s="1" t="str">
@@ -10599,19 +10598,19 @@
         <v>420</v>
       </c>
       <c r="F9" s="1" t="str">
-        <f>IF($N9, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N9, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Cellulosic Pellets)</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f>IF($N9, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N9, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Cellulosic Pellets)</v>
       </c>
       <c r="H9" s="1" t="str">
-        <f>IF($N9, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N9, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Cellulosic Pellets)</v>
       </c>
       <c r="I9" s="1" t="str">
-        <f>IF($N9, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N9, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Cellulosic Pellets)</v>
       </c>
       <c r="J9" s="1" t="str">
@@ -10651,19 +10650,19 @@
         <v>416</v>
       </c>
       <c r="F10" s="1" t="str">
-        <f>IF($N10, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N10, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Chitin Pellets)</v>
       </c>
       <c r="G10" s="1" t="str">
-        <f>IF($N10, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N10, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Chitin Pellets)</v>
       </c>
       <c r="H10" s="1" t="str">
-        <f>IF($N10, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N10, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Chitin Pellets)</v>
       </c>
       <c r="I10" s="1" t="str">
-        <f>IF($N10, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N10, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Chitin Pellets)</v>
       </c>
       <c r="J10" s="1" t="str">
@@ -10703,19 +10702,19 @@
         <v>412</v>
       </c>
       <c r="F11" s="1" t="str">
-        <f>IF($N11, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N11, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Chlorine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="G11" s="1" t="str">
-        <f>IF($N11, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N11, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Chlorine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="H11" s="1" t="str">
-        <f>IF($N11, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N11, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Chlorine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="I11" s="1" t="str">
-        <f>IF($N11, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N11, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Chlorine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="J11" s="1" t="str">
@@ -10755,19 +10754,19 @@
         <v>408</v>
       </c>
       <c r="F12" s="1" t="str">
-        <f>IF($N12, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N12, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
         <v>Vial (Epoxy Resin)</v>
       </c>
       <c r="G12" s="1" t="str">
-        <f>IF($N12, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N12, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
         <v>Beaker (Epoxy Resin)</v>
       </c>
       <c r="H12" s="1" t="str">
-        <f>IF($N12, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N12, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
         <v>Drum (Epoxy Resin)</v>
       </c>
       <c r="I12" s="1" t="str">
-        <f>IF($N12, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N12, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Vat (Epoxy Resin)</v>
       </c>
       <c r="J12" s="1" t="str">
@@ -10804,19 +10803,19 @@
         <v>404</v>
       </c>
       <c r="F13" s="1" t="str">
-        <f>IF($N13, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N13, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Ethoxylates Pellets)</v>
       </c>
       <c r="G13" s="1" t="str">
-        <f>IF($N13, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N13, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Ethoxylates Pellets)</v>
       </c>
       <c r="H13" s="1" t="str">
-        <f>IF($N13, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N13, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Ethoxylates Pellets)</v>
       </c>
       <c r="I13" s="1" t="str">
-        <f>IF($N13, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N13, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Ethoxylates Pellets)</v>
       </c>
       <c r="J13" s="1" t="str">
@@ -10856,19 +10855,19 @@
         <v>400</v>
       </c>
       <c r="F14" s="1" t="str">
-        <f>IF($N14, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N14, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Ethylene-Propylene Monomer Pellets)</v>
       </c>
       <c r="G14" s="1" t="str">
-        <f>IF($N14, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N14, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Ethylene-Propylene Monomer Pellets)</v>
       </c>
       <c r="H14" s="1" t="str">
-        <f>IF($N14, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N14, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Ethylene-Propylene Monomer Pellets)</v>
       </c>
       <c r="I14" s="1" t="str">
-        <f>IF($N14, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N14, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Ethylene-Propylene Monomer Pellets)</v>
       </c>
       <c r="J14" s="1" t="str">
@@ -10908,19 +10907,19 @@
         <v>396</v>
       </c>
       <c r="F15" s="1" t="str">
-        <f>IF($N15, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N15, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Ethylene-Propylene-Diene Monomer Pellets)</v>
       </c>
       <c r="G15" s="1" t="str">
-        <f>IF($N15, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N15, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Ethylene-Propylene-Diene Monomer Pellets)</v>
       </c>
       <c r="H15" s="1" t="str">
-        <f>IF($N15, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N15, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Ethylene-Propylene-Diene Monomer Pellets)</v>
       </c>
       <c r="I15" s="1" t="str">
-        <f>IF($N15, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N15, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Ethylene-Propylene-Diene Monomer Pellets)</v>
       </c>
       <c r="J15" s="1" t="str">
@@ -10960,19 +10959,19 @@
         <v>392</v>
       </c>
       <c r="F16" s="1" t="str">
-        <f>IF($N16, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N16, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Ethylene-Vinyl Acetate Pellets)</v>
       </c>
       <c r="G16" s="1" t="str">
-        <f>IF($N16, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N16, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Ethylene-Vinyl Acetate Pellets)</v>
       </c>
       <c r="H16" s="1" t="str">
-        <f>IF($N16, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N16, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Ethylene-Vinyl Acetate Pellets)</v>
       </c>
       <c r="I16" s="1" t="str">
-        <f>IF($N16, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N16, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Ethylene-Vinyl Acetate Pellets)</v>
       </c>
       <c r="J16" s="1" t="str">
@@ -11012,19 +11011,19 @@
         <v>388</v>
       </c>
       <c r="F17" s="1" t="str">
-        <f>IF($N17, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N17, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (High Density PolyEthylene Pellets)</v>
       </c>
       <c r="G17" s="1" t="str">
-        <f>IF($N17, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N17, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (High Density PolyEthylene Pellets)</v>
       </c>
       <c r="H17" s="1" t="str">
-        <f>IF($N17, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N17, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (High Density PolyEthylene Pellets)</v>
       </c>
       <c r="I17" s="1" t="str">
-        <f>IF($N17, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N17, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (High Density PolyEthylene Pellets)</v>
       </c>
       <c r="J17" s="1" t="str">
@@ -11064,19 +11063,19 @@
         <v>384</v>
       </c>
       <c r="F18" s="1" t="str">
-        <f>IF($N18, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N18, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Hydrogenated Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="G18" s="1" t="str">
-        <f>IF($N18, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N18, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Hydrogenated Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="H18" s="1" t="str">
-        <f>IF($N18, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N18, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Hydrogenated Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="I18" s="1" t="str">
-        <f>IF($N18, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N18, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Hydrogenated Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="J18" s="1" t="str">
@@ -11116,19 +11115,19 @@
         <v>380</v>
       </c>
       <c r="F19" s="1" t="str">
-        <f>IF($N19, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N19, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="G19" s="1" t="str">
-        <f>IF($N19, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N19, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="H19" s="1" t="str">
-        <f>IF($N19, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N19, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="I19" s="1" t="str">
-        <f>IF($N19, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N19, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="J19" s="1" t="str">
@@ -11165,19 +11164,19 @@
         <v>376</v>
       </c>
       <c r="F20" s="1" t="str">
-        <f>IF($N20, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N20, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
         <v>Vial (Lignin)</v>
       </c>
       <c r="G20" s="1" t="str">
-        <f>IF($N20, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N20, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
         <v>Beaker (Lignin)</v>
       </c>
       <c r="H20" s="1" t="str">
-        <f>IF($N20, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N20, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
         <v>Drum (Lignin)</v>
       </c>
       <c r="I20" s="1" t="str">
-        <f>IF($N20, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N20, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Vat (Lignin)</v>
       </c>
       <c r="J20" s="1" t="str">
@@ -11217,19 +11216,19 @@
         <v>372</v>
       </c>
       <c r="F21" s="1" t="str">
-        <f>IF($N21, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N21, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Linear Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="G21" s="1" t="str">
-        <f>IF($N21, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N21, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Linear Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="H21" s="1" t="str">
-        <f>IF($N21, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N21, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Linear Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="I21" s="1" t="str">
-        <f>IF($N21, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N21, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Linear Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="J21" s="1" t="str">
@@ -11269,19 +11268,19 @@
         <v>368</v>
       </c>
       <c r="F22" s="1" t="str">
-        <f>IF($N22, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N22, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Liquid Crystal Polymer Pellets)</v>
       </c>
       <c r="G22" s="1" t="str">
-        <f>IF($N22, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N22, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Liquid Crystal Polymer Pellets)</v>
       </c>
       <c r="H22" s="1" t="str">
-        <f>IF($N22, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N22, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Liquid Crystal Polymer Pellets)</v>
       </c>
       <c r="I22" s="1" t="str">
-        <f>IF($N22, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N22, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Liquid Crystal Polymer Pellets)</v>
       </c>
       <c r="J22" s="1" t="str">
@@ -11321,19 +11320,19 @@
         <v>364</v>
       </c>
       <c r="F23" s="1" t="str">
-        <f>IF($N23, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N23, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Low Density PolyEthylene Pellets)</v>
       </c>
       <c r="G23" s="1" t="str">
-        <f>IF($N23, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N23, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Low Density PolyEthylene Pellets)</v>
       </c>
       <c r="H23" s="1" t="str">
-        <f>IF($N23, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N23, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Low Density PolyEthylene Pellets)</v>
       </c>
       <c r="I23" s="1" t="str">
-        <f>IF($N23, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N23, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Low Density PolyEthylene Pellets)</v>
       </c>
       <c r="J23" s="1" t="str">
@@ -11373,19 +11372,19 @@
         <v>360</v>
       </c>
       <c r="F24" s="1" t="str">
-        <f>IF($N24, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N24, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Medium Density PolyEthylene Pellets)</v>
       </c>
       <c r="G24" s="1" t="str">
-        <f>IF($N24, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N24, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Medium Density PolyEthylene Pellets)</v>
       </c>
       <c r="H24" s="1" t="str">
-        <f>IF($N24, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N24, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Medium Density PolyEthylene Pellets)</v>
       </c>
       <c r="I24" s="1" t="str">
-        <f>IF($N24, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N24, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Medium Density PolyEthylene Pellets)</v>
       </c>
       <c r="J24" s="1" t="str">
@@ -11422,19 +11421,19 @@
         <v>356</v>
       </c>
       <c r="F25" s="1" t="str">
-        <f>IF($N25, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N25, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
         <v>Vial (Melamine-Formaldehyde Polymers)</v>
       </c>
       <c r="G25" s="1" t="str">
-        <f>IF($N25, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N25, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
         <v>Beaker (Melamine-Formaldehyde Polymers)</v>
       </c>
       <c r="H25" s="1" t="str">
-        <f>IF($N25, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N25, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
         <v>Drum (Melamine-Formaldehyde Polymers)</v>
       </c>
       <c r="I25" s="1" t="str">
-        <f>IF($N25, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N25, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Vat (Melamine-Formaldehyde Polymers)</v>
       </c>
       <c r="J25" s="1" t="str">
@@ -11474,19 +11473,19 @@
         <v>352</v>
       </c>
       <c r="F26" s="1" t="str">
-        <f>IF($N26, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N26, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Metaldehyde Pellets)</v>
       </c>
       <c r="G26" s="1" t="str">
-        <f>IF($N26, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N26, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Metaldehyde Pellets)</v>
       </c>
       <c r="H26" s="1" t="str">
-        <f>IF($N26, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N26, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Metaldehyde Pellets)</v>
       </c>
       <c r="I26" s="1" t="str">
-        <f>IF($N26, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N26, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Metaldehyde Pellets)</v>
       </c>
       <c r="J26" s="1" t="str">
@@ -11526,19 +11525,19 @@
         <v>348</v>
       </c>
       <c r="F27" s="1" t="str">
-        <f>IF($N27, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N27, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="G27" s="1" t="str">
-        <f>IF($N27, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N27, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="H27" s="1" t="str">
-        <f>IF($N27, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N27, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="I27" s="1" t="str">
-        <f>IF($N27, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N27, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="J27" s="1" t="str">
@@ -11578,19 +11577,19 @@
         <v>344</v>
       </c>
       <c r="F28" s="1" t="str">
-        <f>IF($N28, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N28, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Paraformaldehyde Pellets)</v>
       </c>
       <c r="G28" s="1" t="str">
-        <f>IF($N28, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N28, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Paraformaldehyde Pellets)</v>
       </c>
       <c r="H28" s="1" t="str">
-        <f>IF($N28, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N28, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Paraformaldehyde Pellets)</v>
       </c>
       <c r="I28" s="1" t="str">
-        <f>IF($N28, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N28, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Paraformaldehyde Pellets)</v>
       </c>
       <c r="J28" s="1" t="str">
@@ -11630,19 +11629,19 @@
         <v>340</v>
       </c>
       <c r="F29" s="1" t="str">
-        <f>IF($N29, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N29, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Paraldehyde Pellets)</v>
       </c>
       <c r="G29" s="1" t="str">
-        <f>IF($N29, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N29, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Paraldehyde Pellets)</v>
       </c>
       <c r="H29" s="1" t="str">
-        <f>IF($N29, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N29, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Paraldehyde Pellets)</v>
       </c>
       <c r="I29" s="1" t="str">
-        <f>IF($N29, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N29, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Paraldehyde Pellets)</v>
       </c>
       <c r="J29" s="1" t="str">
@@ -11682,19 +11681,19 @@
         <v>336</v>
       </c>
       <c r="F30" s="1" t="str">
-        <f>IF($N30, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N30, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
         <v>Vial (Phenolic Resin)</v>
       </c>
       <c r="G30" s="1" t="str">
-        <f>IF($N30, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N30, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
         <v>Beaker (Phenolic Resin)</v>
       </c>
       <c r="H30" s="1" t="str">
-        <f>IF($N30, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N30, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
         <v>Drum (Phenolic Resin)</v>
       </c>
       <c r="I30" s="1" t="str">
-        <f>IF($N30, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N30, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Vat (Phenolic Resin)</v>
       </c>
       <c r="J30" s="1" t="str">
@@ -11734,19 +11733,19 @@
         <v>332</v>
       </c>
       <c r="F31" s="1" t="str">
-        <f>IF($N31, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N31, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Poly(3-Hydroxybutyrate-Co-3-Hydroxyvalerate) Pellets)</v>
       </c>
       <c r="G31" s="1" t="str">
-        <f>IF($N31, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N31, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Poly(3-Hydroxybutyrate-Co-3-Hydroxyvalerate) Pellets)</v>
       </c>
       <c r="H31" s="1" t="str">
-        <f>IF($N31, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N31, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Poly(3-Hydroxybutyrate-Co-3-Hydroxyvalerate) Pellets)</v>
       </c>
       <c r="I31" s="1" t="str">
-        <f>IF($N31, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N31, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Poly(3-Hydroxybutyrate-Co-3-Hydroxyvalerate) Pellets)</v>
       </c>
       <c r="J31" s="1" t="str">
@@ -11783,19 +11782,19 @@
         <v>328</v>
       </c>
       <c r="F32" s="1" t="str">
-        <f>IF($N32, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N32, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Poly1-Butene Pellets)</v>
       </c>
       <c r="G32" s="1" t="str">
-        <f>IF($N32, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N32, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Poly1-Butene Pellets)</v>
       </c>
       <c r="H32" s="1" t="str">
-        <f>IF($N32, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N32, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Poly1-Butene Pellets)</v>
       </c>
       <c r="I32" s="1" t="str">
-        <f>IF($N32, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N32, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Poly1-Butene Pellets)</v>
       </c>
       <c r="J32" s="1" t="str">
@@ -11832,19 +11831,19 @@
         <v>324</v>
       </c>
       <c r="F33" s="1" t="str">
-        <f>IF($N33, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N33, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Poly2,6-Dimethyl-1,4-Phenylene Ether Pellets)</v>
       </c>
       <c r="G33" s="1" t="str">
-        <f>IF($N33, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N33, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Poly2,6-Dimethyl-1,4-Phenylene Ether Pellets)</v>
       </c>
       <c r="H33" s="1" t="str">
-        <f>IF($N33, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N33, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Poly2,6-Dimethyl-1,4-Phenylene Ether Pellets)</v>
       </c>
       <c r="I33" s="1" t="str">
-        <f>IF($N33, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N33, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Poly2,6-Dimethyl-1,4-Phenylene Ether Pellets)</v>
       </c>
       <c r="J33" s="1" t="str">
@@ -11881,19 +11880,19 @@
         <v>320</v>
       </c>
       <c r="F34" s="1" t="str">
-        <f>IF($N34, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N34, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Poly-2-Hydroxy Butyrate Pellets)</v>
       </c>
       <c r="G34" s="1" t="str">
-        <f>IF($N34, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N34, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Poly-2-Hydroxy Butyrate Pellets)</v>
       </c>
       <c r="H34" s="1" t="str">
-        <f>IF($N34, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N34, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Poly-2-Hydroxy Butyrate Pellets)</v>
       </c>
       <c r="I34" s="1" t="str">
-        <f>IF($N34, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N34, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Poly-2-Hydroxy Butyrate Pellets)</v>
       </c>
       <c r="J34" s="1" t="str">
@@ -11930,19 +11929,19 @@
         <v>316</v>
       </c>
       <c r="F35" s="1" t="str">
-        <f>IF($N35, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N35, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Poly2-Hydroxyethyl Methacrylate Pellets)</v>
       </c>
       <c r="G35" s="1" t="str">
-        <f>IF($N35, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N35, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Poly2-Hydroxyethyl Methacrylate Pellets)</v>
       </c>
       <c r="H35" s="1" t="str">
-        <f>IF($N35, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N35, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Poly2-Hydroxyethyl Methacrylate Pellets)</v>
       </c>
       <c r="I35" s="1" t="str">
-        <f>IF($N35, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N35, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Poly2-Hydroxyethyl Methacrylate Pellets)</v>
       </c>
       <c r="J35" s="1" t="str">
@@ -11982,19 +11981,19 @@
         <v>312</v>
       </c>
       <c r="F36" s="1" t="str">
-        <f>IF($N36, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N36, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyAcrylic Acid Pellets)</v>
       </c>
       <c r="G36" s="1" t="str">
-        <f>IF($N36, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N36, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyAcrylic Acid Pellets)</v>
       </c>
       <c r="H36" s="1" t="str">
-        <f>IF($N36, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N36, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyAcrylic Acid Pellets)</v>
       </c>
       <c r="I36" s="1" t="str">
-        <f>IF($N36, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N36, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyAcrylic Acid Pellets)</v>
       </c>
       <c r="J36" s="1" t="str">
@@ -12034,19 +12033,19 @@
         <v>308</v>
       </c>
       <c r="F37" s="1" t="str">
-        <f>IF($N37, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N37, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyAcrylonitrile Pellets)</v>
       </c>
       <c r="G37" s="1" t="str">
-        <f>IF($N37, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N37, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyAcrylonitrile Pellets)</v>
       </c>
       <c r="H37" s="1" t="str">
-        <f>IF($N37, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N37, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyAcrylonitrile Pellets)</v>
       </c>
       <c r="I37" s="1" t="str">
-        <f>IF($N37, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N37, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyAcrylonitrile Pellets)</v>
       </c>
       <c r="J37" s="1" t="str">
@@ -12086,19 +12085,19 @@
         <v>304</v>
       </c>
       <c r="F38" s="1" t="str">
-        <f>IF($N38, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N38, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="G38" s="1" t="str">
-        <f>IF($N38, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N38, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="H38" s="1" t="str">
-        <f>IF($N38, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N38, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="I38" s="1" t="str">
-        <f>IF($N38, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N38, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="J38" s="1" t="str">
@@ -12138,19 +12137,19 @@
         <v>300</v>
       </c>
       <c r="F39" s="1" t="str">
-        <f>IF($N39, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N39, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyButadiene (high-cis) Pellets)</v>
       </c>
       <c r="G39" s="1" t="str">
-        <f>IF($N39, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N39, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyButadiene (high-cis) Pellets)</v>
       </c>
       <c r="H39" s="1" t="str">
-        <f>IF($N39, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N39, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyButadiene (high-cis) Pellets)</v>
       </c>
       <c r="I39" s="1" t="str">
-        <f>IF($N39, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N39, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyButadiene (high-cis) Pellets)</v>
       </c>
       <c r="J39" s="1" t="str">
@@ -12190,19 +12189,19 @@
         <v>296</v>
       </c>
       <c r="F40" s="1" t="str">
-        <f>IF($N40, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N40, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyButylene Succinate Pellets)</v>
       </c>
       <c r="G40" s="1" t="str">
-        <f>IF($N40, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N40, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyButylene Succinate Pellets)</v>
       </c>
       <c r="H40" s="1" t="str">
-        <f>IF($N40, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N40, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyButylene Succinate Pellets)</v>
       </c>
       <c r="I40" s="1" t="str">
-        <f>IF($N40, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N40, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyButylene Succinate Pellets)</v>
       </c>
       <c r="J40" s="1" t="str">
@@ -12242,19 +12241,19 @@
         <v>292</v>
       </c>
       <c r="F41" s="1" t="str">
-        <f>IF($N41, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N41, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyButylene Terephthalate Pellets)</v>
       </c>
       <c r="G41" s="1" t="str">
-        <f>IF($N41, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N41, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyButylene Terephthalate Pellets)</v>
       </c>
       <c r="H41" s="1" t="str">
-        <f>IF($N41, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N41, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyButylene Terephthalate Pellets)</v>
       </c>
       <c r="I41" s="1" t="str">
-        <f>IF($N41, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N41, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyButylene Terephthalate Pellets)</v>
       </c>
       <c r="J41" s="1" t="str">
@@ -12294,19 +12293,19 @@
         <v>288</v>
       </c>
       <c r="F42" s="1" t="str">
-        <f>IF($N42, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N42, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyCaprolactone Pellets)</v>
       </c>
       <c r="G42" s="1" t="str">
-        <f>IF($N42, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N42, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyCaprolactone Pellets)</v>
       </c>
       <c r="H42" s="1" t="str">
-        <f>IF($N42, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N42, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyCaprolactone Pellets)</v>
       </c>
       <c r="I42" s="1" t="str">
-        <f>IF($N42, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N42, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyCaprolactone Pellets)</v>
       </c>
       <c r="J42" s="1" t="str">
@@ -12346,19 +12345,19 @@
         <v>284</v>
       </c>
       <c r="F43" s="1" t="str">
-        <f>IF($N43, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N43, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyCarbonate Pellets)</v>
       </c>
       <c r="G43" s="1" t="str">
-        <f>IF($N43, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N43, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyCarbonate Pellets)</v>
       </c>
       <c r="H43" s="1" t="str">
-        <f>IF($N43, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N43, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyCarbonate Pellets)</v>
       </c>
       <c r="I43" s="1" t="str">
-        <f>IF($N43, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N43, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyCarbonate Pellets)</v>
       </c>
       <c r="J43" s="1" t="str">
@@ -12395,19 +12394,19 @@
         <v>280</v>
       </c>
       <c r="F44" s="1" t="str">
-        <f>IF($N44, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N44, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyChloroPrene Pellets)</v>
       </c>
       <c r="G44" s="1" t="str">
-        <f>IF($N44, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N44, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyChloroPrene Pellets)</v>
       </c>
       <c r="H44" s="1" t="str">
-        <f>IF($N44, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N44, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyChloroPrene Pellets)</v>
       </c>
       <c r="I44" s="1" t="str">
-        <f>IF($N44, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N44, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyChloroPrene Pellets)</v>
       </c>
       <c r="J44" s="1" t="str">
@@ -12444,19 +12443,19 @@
         <v>276</v>
       </c>
       <c r="F45" s="1" t="str">
-        <f>IF($N45, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N45, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyChlorotrifluoroethylene Pellets)</v>
       </c>
       <c r="G45" s="1" t="str">
-        <f>IF($N45, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N45, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyChlorotrifluoroethylene Pellets)</v>
       </c>
       <c r="H45" s="1" t="str">
-        <f>IF($N45, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N45, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyChlorotrifluoroethylene Pellets)</v>
       </c>
       <c r="I45" s="1" t="str">
-        <f>IF($N45, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N45, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyChlorotrifluoroethylene Pellets)</v>
       </c>
       <c r="J45" s="1" t="str">
@@ -12496,19 +12495,19 @@
         <v>272</v>
       </c>
       <c r="F46" s="1" t="str">
-        <f>IF($N46, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N46, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyDiMethylSiloxane Pellets)</v>
       </c>
       <c r="G46" s="1" t="str">
-        <f>IF($N46, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N46, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyDiMethylSiloxane Pellets)</v>
       </c>
       <c r="H46" s="1" t="str">
-        <f>IF($N46, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N46, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyDiMethylSiloxane Pellets)</v>
       </c>
       <c r="I46" s="1" t="str">
-        <f>IF($N46, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N46, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyDiMethylSiloxane Pellets)</v>
       </c>
       <c r="J46" s="1" t="str">
@@ -12548,19 +12547,19 @@
         <v>268</v>
       </c>
       <c r="F47" s="1" t="str">
-        <f>IF($N47, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N47, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEther Ether Ketone Pellets)</v>
       </c>
       <c r="G47" s="1" t="str">
-        <f>IF($N47, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N47, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEther Ether Ketone Pellets)</v>
       </c>
       <c r="H47" s="1" t="str">
-        <f>IF($N47, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N47, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEther Ether Ketone Pellets)</v>
       </c>
       <c r="I47" s="1" t="str">
-        <f>IF($N47, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N47, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEther Ether Ketone Pellets)</v>
       </c>
       <c r="J47" s="1" t="str">
@@ -12600,19 +12599,19 @@
         <v>264</v>
       </c>
       <c r="F48" s="1" t="str">
-        <f>IF($N48, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J48&amp;IF($N48, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N48, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J48&amp;IF($N48, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEtherImide Pellets)</v>
       </c>
       <c r="G48" s="1" t="str">
-        <f>IF($N48, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J48&amp;IF($N48, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N48, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J48&amp;IF($N48, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEtherImide Pellets)</v>
       </c>
       <c r="H48" s="1" t="str">
-        <f>IF($N48, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J48&amp;IF($N48, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N48, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J48&amp;IF($N48, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEtherImide Pellets)</v>
       </c>
       <c r="I48" s="1" t="str">
-        <f>IF($N48, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J48&amp;IF($N48, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N48, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J48&amp;IF($N48, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEtherImide Pellets)</v>
       </c>
       <c r="J48" s="1" t="str">
@@ -12649,19 +12648,19 @@
         <v>260</v>
       </c>
       <c r="F49" s="1" t="str">
-        <f>IF($N49, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J49&amp;IF($N49, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N49, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J49&amp;IF($N49, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthyl Acrylate Pellets)</v>
       </c>
       <c r="G49" s="1" t="str">
-        <f>IF($N49, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J49&amp;IF($N49, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N49, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J49&amp;IF($N49, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthyl Acrylate Pellets)</v>
       </c>
       <c r="H49" s="1" t="str">
-        <f>IF($N49, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J49&amp;IF($N49, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N49, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J49&amp;IF($N49, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthyl Acrylate Pellets)</v>
       </c>
       <c r="I49" s="1" t="str">
-        <f>IF($N49, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J49&amp;IF($N49, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N49, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J49&amp;IF($N49, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthyl Acrylate Pellets)</v>
       </c>
       <c r="J49" s="1" t="str">
@@ -12698,19 +12697,19 @@
         <v>256</v>
       </c>
       <c r="F50" s="1" t="str">
-        <f>IF($N50, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J50&amp;IF($N50, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N50, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J50&amp;IF($N50, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthylene Adipate Pellets)</v>
       </c>
       <c r="G50" s="1" t="str">
-        <f>IF($N50, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J50&amp;IF($N50, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N50, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J50&amp;IF($N50, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthylene Adipate Pellets)</v>
       </c>
       <c r="H50" s="1" t="str">
-        <f>IF($N50, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J50&amp;IF($N50, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N50, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J50&amp;IF($N50, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthylene Adipate Pellets)</v>
       </c>
       <c r="I50" s="1" t="str">
-        <f>IF($N50, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J50&amp;IF($N50, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N50, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J50&amp;IF($N50, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthylene Adipate Pellets)</v>
       </c>
       <c r="J50" s="1" t="str">
@@ -12750,19 +12749,19 @@
         <v>252</v>
       </c>
       <c r="F51" s="1" t="str">
-        <f>IF($N51, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J51&amp;IF($N51, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N51, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J51&amp;IF($N51, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthylene Glycol Pellets)</v>
       </c>
       <c r="G51" s="1" t="str">
-        <f>IF($N51, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J51&amp;IF($N51, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N51, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J51&amp;IF($N51, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthylene Glycol Pellets)</v>
       </c>
       <c r="H51" s="1" t="str">
-        <f>IF($N51, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J51&amp;IF($N51, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N51, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J51&amp;IF($N51, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthylene Glycol Pellets)</v>
       </c>
       <c r="I51" s="1" t="str">
-        <f>IF($N51, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J51&amp;IF($N51, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N51, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J51&amp;IF($N51, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthylene Glycol Pellets)</v>
       </c>
       <c r="J51" s="1" t="str">
@@ -12799,19 +12798,19 @@
         <v>248</v>
       </c>
       <c r="F52" s="1" t="str">
-        <f>IF($N52, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J52&amp;IF($N52, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N52, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J52&amp;IF($N52, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthylene Hexamethylene Dicarbamate Pellets)</v>
       </c>
       <c r="G52" s="1" t="str">
-        <f>IF($N52, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J52&amp;IF($N52, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N52, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J52&amp;IF($N52, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthylene Hexamethylene Dicarbamate Pellets)</v>
       </c>
       <c r="H52" s="1" t="str">
-        <f>IF($N52, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J52&amp;IF($N52, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N52, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J52&amp;IF($N52, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthylene Hexamethylene Dicarbamate Pellets)</v>
       </c>
       <c r="I52" s="1" t="str">
-        <f>IF($N52, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J52&amp;IF($N52, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N52, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J52&amp;IF($N52, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthylene Hexamethylene Dicarbamate Pellets)</v>
       </c>
       <c r="J52" s="1" t="str">
@@ -12851,19 +12850,19 @@
         <v>244</v>
       </c>
       <c r="F53" s="1" t="str">
-        <f>IF($N53, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J53&amp;IF($N53, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N53, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J53&amp;IF($N53, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthylene Naphthalate Pellets)</v>
       </c>
       <c r="G53" s="1" t="str">
-        <f>IF($N53, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J53&amp;IF($N53, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N53, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J53&amp;IF($N53, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthylene Naphthalate Pellets)</v>
       </c>
       <c r="H53" s="1" t="str">
-        <f>IF($N53, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J53&amp;IF($N53, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N53, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J53&amp;IF($N53, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthylene Naphthalate Pellets)</v>
       </c>
       <c r="I53" s="1" t="str">
-        <f>IF($N53, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J53&amp;IF($N53, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N53, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J53&amp;IF($N53, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthylene Naphthalate Pellets)</v>
       </c>
       <c r="J53" s="1" t="str">
@@ -12903,19 +12902,19 @@
         <v>240</v>
       </c>
       <c r="F54" s="1" t="str">
-        <f>IF($N54, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J54&amp;IF($N54, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N54, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J54&amp;IF($N54, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthylene Oxide Pellets)</v>
       </c>
       <c r="G54" s="1" t="str">
-        <f>IF($N54, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J54&amp;IF($N54, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N54, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J54&amp;IF($N54, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthylene Oxide Pellets)</v>
       </c>
       <c r="H54" s="1" t="str">
-        <f>IF($N54, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J54&amp;IF($N54, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N54, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J54&amp;IF($N54, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthylene Oxide Pellets)</v>
       </c>
       <c r="I54" s="1" t="str">
-        <f>IF($N54, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J54&amp;IF($N54, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N54, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J54&amp;IF($N54, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthylene Oxide Pellets)</v>
       </c>
       <c r="J54" s="1" t="str">
@@ -12955,19 +12954,19 @@
         <v>236</v>
       </c>
       <c r="F55" s="1" t="str">
-        <f>IF($N55, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J55&amp;IF($N55, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N55, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J55&amp;IF($N55, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthylene Sulphide Pellets)</v>
       </c>
       <c r="G55" s="1" t="str">
-        <f>IF($N55, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J55&amp;IF($N55, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N55, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J55&amp;IF($N55, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthylene Sulphide Pellets)</v>
       </c>
       <c r="H55" s="1" t="str">
-        <f>IF($N55, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J55&amp;IF($N55, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N55, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J55&amp;IF($N55, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthylene Sulphide Pellets)</v>
       </c>
       <c r="I55" s="1" t="str">
-        <f>IF($N55, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J55&amp;IF($N55, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N55, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J55&amp;IF($N55, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthylene Sulphide Pellets)</v>
       </c>
       <c r="J55" s="1" t="str">
@@ -13007,19 +13006,19 @@
         <v>232</v>
       </c>
       <c r="F56" s="1" t="str">
-        <f>IF($N56, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J56&amp;IF($N56, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N56, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J56&amp;IF($N56, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="G56" s="1" t="str">
-        <f>IF($N56, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J56&amp;IF($N56, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N56, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J56&amp;IF($N56, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="H56" s="1" t="str">
-        <f>IF($N56, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J56&amp;IF($N56, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N56, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J56&amp;IF($N56, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="I56" s="1" t="str">
-        <f>IF($N56, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J56&amp;IF($N56, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N56, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J56&amp;IF($N56, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="J56" s="1" t="str">
@@ -13059,19 +13058,19 @@
         <v>228</v>
       </c>
       <c r="F57" s="1" t="str">
-        <f>IF($N57, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J57&amp;IF($N57, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N57, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J57&amp;IF($N57, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthylene Terephthalate Glycol-Modified Pellets)</v>
       </c>
       <c r="G57" s="1" t="str">
-        <f>IF($N57, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J57&amp;IF($N57, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N57, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J57&amp;IF($N57, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthylene Terephthalate Glycol-Modified Pellets)</v>
       </c>
       <c r="H57" s="1" t="str">
-        <f>IF($N57, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J57&amp;IF($N57, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N57, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J57&amp;IF($N57, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthylene Terephthalate Glycol-Modified Pellets)</v>
       </c>
       <c r="I57" s="1" t="str">
-        <f>IF($N57, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J57&amp;IF($N57, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N57, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J57&amp;IF($N57, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthylene Terephthalate Glycol-Modified Pellets)</v>
       </c>
       <c r="J57" s="1" t="str">
@@ -13111,19 +13110,19 @@
         <v>224</v>
       </c>
       <c r="F58" s="1" t="str">
-        <f>IF($N58, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J58&amp;IF($N58, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N58, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J58&amp;IF($N58, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyGlycolic Acid Pellets)</v>
       </c>
       <c r="G58" s="1" t="str">
-        <f>IF($N58, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J58&amp;IF($N58, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N58, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J58&amp;IF($N58, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyGlycolic Acid Pellets)</v>
       </c>
       <c r="H58" s="1" t="str">
-        <f>IF($N58, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J58&amp;IF($N58, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N58, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J58&amp;IF($N58, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyGlycolic Acid Pellets)</v>
       </c>
       <c r="I58" s="1" t="str">
-        <f>IF($N58, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J58&amp;IF($N58, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N58, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J58&amp;IF($N58, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyGlycolic Acid Pellets)</v>
       </c>
       <c r="J58" s="1" t="str">
@@ -13163,19 +13162,19 @@
         <v>220</v>
       </c>
       <c r="F59" s="1" t="str">
-        <f>IF($N59, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J59&amp;IF($N59, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N59, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J59&amp;IF($N59, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyHexamethylene Adipamide Pellets)</v>
       </c>
       <c r="G59" s="1" t="str">
-        <f>IF($N59, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J59&amp;IF($N59, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N59, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J59&amp;IF($N59, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyHexamethylene Adipamide Pellets)</v>
       </c>
       <c r="H59" s="1" t="str">
-        <f>IF($N59, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J59&amp;IF($N59, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N59, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J59&amp;IF($N59, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyHexamethylene Adipamide Pellets)</v>
       </c>
       <c r="I59" s="1" t="str">
-        <f>IF($N59, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J59&amp;IF($N59, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N59, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J59&amp;IF($N59, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyHexamethylene Adipamide Pellets)</v>
       </c>
       <c r="J59" s="1" t="str">
@@ -13215,19 +13214,19 @@
         <v>216</v>
       </c>
       <c r="F60" s="1" t="str">
-        <f>IF($N60, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J60&amp;IF($N60, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N60, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J60&amp;IF($N60, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyHexamethylene Sebacamide Pellets)</v>
       </c>
       <c r="G60" s="1" t="str">
-        <f>IF($N60, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J60&amp;IF($N60, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N60, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J60&amp;IF($N60, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyHexamethylene Sebacamide Pellets)</v>
       </c>
       <c r="H60" s="1" t="str">
-        <f>IF($N60, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J60&amp;IF($N60, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N60, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J60&amp;IF($N60, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyHexamethylene Sebacamide Pellets)</v>
       </c>
       <c r="I60" s="1" t="str">
-        <f>IF($N60, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J60&amp;IF($N60, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N60, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J60&amp;IF($N60, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyHexamethylene Sebacamide Pellets)</v>
       </c>
       <c r="J60" s="1" t="str">
@@ -13267,19 +13266,19 @@
         <v>212</v>
       </c>
       <c r="F61" s="1" t="str">
-        <f>IF($N61, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J61&amp;IF($N61, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N61, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J61&amp;IF($N61, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyHydroxyalkanoate Pellets)</v>
       </c>
       <c r="G61" s="1" t="str">
-        <f>IF($N61, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J61&amp;IF($N61, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N61, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J61&amp;IF($N61, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyHydroxyalkanoate Pellets)</v>
       </c>
       <c r="H61" s="1" t="str">
-        <f>IF($N61, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J61&amp;IF($N61, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N61, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J61&amp;IF($N61, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyHydroxyalkanoate Pellets)</v>
       </c>
       <c r="I61" s="1" t="str">
-        <f>IF($N61, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J61&amp;IF($N61, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N61, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J61&amp;IF($N61, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyHydroxyalkanoate Pellets)</v>
       </c>
       <c r="J61" s="1" t="str">
@@ -13316,19 +13315,19 @@
         <v>208</v>
       </c>
       <c r="F62" s="1" t="str">
-        <f>IF($N62, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J62&amp;IF($N62, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N62, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J62&amp;IF($N62, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyHydroxybutyrate-Co-Hydroxyvalerate Pellets)</v>
       </c>
       <c r="G62" s="1" t="str">
-        <f>IF($N62, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J62&amp;IF($N62, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N62, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J62&amp;IF($N62, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyHydroxybutyrate-Co-Hydroxyvalerate Pellets)</v>
       </c>
       <c r="H62" s="1" t="str">
-        <f>IF($N62, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J62&amp;IF($N62, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N62, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J62&amp;IF($N62, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyHydroxybutyrate-Co-Hydroxyvalerate Pellets)</v>
       </c>
       <c r="I62" s="1" t="str">
-        <f>IF($N62, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J62&amp;IF($N62, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N62, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J62&amp;IF($N62, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyHydroxybutyrate-Co-Hydroxyvalerate Pellets)</v>
       </c>
       <c r="J62" s="1" t="str">
@@ -13368,19 +13367,19 @@
         <v>204</v>
       </c>
       <c r="F63" s="1" t="str">
-        <f>IF($N63, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J63&amp;IF($N63, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N63, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J63&amp;IF($N63, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyImide Pellets)</v>
       </c>
       <c r="G63" s="1" t="str">
-        <f>IF($N63, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J63&amp;IF($N63, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N63, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J63&amp;IF($N63, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyImide Pellets)</v>
       </c>
       <c r="H63" s="1" t="str">
-        <f>IF($N63, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J63&amp;IF($N63, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N63, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J63&amp;IF($N63, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyImide Pellets)</v>
       </c>
       <c r="I63" s="1" t="str">
-        <f>IF($N63, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J63&amp;IF($N63, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N63, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J63&amp;IF($N63, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyImide Pellets)</v>
       </c>
       <c r="J63" s="1" t="str">
@@ -13417,19 +13416,19 @@
         <v>200</v>
       </c>
       <c r="F64" s="1" t="str">
-        <f>IF($N64, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J64&amp;IF($N64, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N64, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J64&amp;IF($N64, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyIsoBorynl Acrylate Pellets)</v>
       </c>
       <c r="G64" s="1" t="str">
-        <f>IF($N64, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J64&amp;IF($N64, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N64, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J64&amp;IF($N64, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyIsoBorynl Acrylate Pellets)</v>
       </c>
       <c r="H64" s="1" t="str">
-        <f>IF($N64, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J64&amp;IF($N64, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N64, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J64&amp;IF($N64, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyIsoBorynl Acrylate Pellets)</v>
       </c>
       <c r="I64" s="1" t="str">
-        <f>IF($N64, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J64&amp;IF($N64, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N64, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J64&amp;IF($N64, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyIsoBorynl Acrylate Pellets)</v>
       </c>
       <c r="J64" s="1" t="str">
@@ -13466,19 +13465,19 @@
         <v>196</v>
       </c>
       <c r="F65" s="1" t="str">
-        <f>IF($N65, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J65&amp;IF($N65, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N65, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J65&amp;IF($N65, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyIsoButyl Acrylate Pellets)</v>
       </c>
       <c r="G65" s="1" t="str">
-        <f>IF($N65, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J65&amp;IF($N65, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N65, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J65&amp;IF($N65, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyIsoButyl Acrylate Pellets)</v>
       </c>
       <c r="H65" s="1" t="str">
-        <f>IF($N65, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J65&amp;IF($N65, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N65, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J65&amp;IF($N65, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyIsoButyl Acrylate Pellets)</v>
       </c>
       <c r="I65" s="1" t="str">
-        <f>IF($N65, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J65&amp;IF($N65, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N65, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J65&amp;IF($N65, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyIsoButyl Acrylate Pellets)</v>
       </c>
       <c r="J65" s="1" t="str">
@@ -13518,19 +13517,19 @@
         <v>192</v>
       </c>
       <c r="F66" s="1" t="str">
-        <f>IF($N66, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J66&amp;IF($N66, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N66, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J66&amp;IF($N66, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyIsoButylene Pellets)</v>
       </c>
       <c r="G66" s="1" t="str">
-        <f>IF($N66, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J66&amp;IF($N66, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N66, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J66&amp;IF($N66, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyIsoButylene Pellets)</v>
       </c>
       <c r="H66" s="1" t="str">
-        <f>IF($N66, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J66&amp;IF($N66, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N66, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J66&amp;IF($N66, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyIsoButylene Pellets)</v>
       </c>
       <c r="I66" s="1" t="str">
-        <f>IF($N66, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J66&amp;IF($N66, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N66, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J66&amp;IF($N66, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyIsoButylene Pellets)</v>
       </c>
       <c r="J66" s="1" t="str">
@@ -13570,19 +13569,19 @@
         <v>188</v>
       </c>
       <c r="F67" s="1" t="str">
-        <f>IF($N67, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J67&amp;IF($N67, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N67, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J67&amp;IF($N67, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyIsoPrene Pellets)</v>
       </c>
       <c r="G67" s="1" t="str">
-        <f>IF($N67, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J67&amp;IF($N67, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N67, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J67&amp;IF($N67, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyIsoPrene Pellets)</v>
       </c>
       <c r="H67" s="1" t="str">
-        <f>IF($N67, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J67&amp;IF($N67, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N67, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J67&amp;IF($N67, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyIsoPrene Pellets)</v>
       </c>
       <c r="I67" s="1" t="str">
-        <f>IF($N67, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J67&amp;IF($N67, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N67, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J67&amp;IF($N67, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyIsoPrene Pellets)</v>
       </c>
       <c r="J67" s="1" t="str">
@@ -13622,19 +13621,19 @@
         <v>184</v>
       </c>
       <c r="F68" s="1" t="str">
-        <f>IF($N68, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J68&amp;IF($N68, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N68, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J68&amp;IF($N68, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyLactic Acid Pellets)</v>
       </c>
       <c r="G68" s="1" t="str">
-        <f>IF($N68, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J68&amp;IF($N68, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N68, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J68&amp;IF($N68, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyLactic Acid Pellets)</v>
       </c>
       <c r="H68" s="1" t="str">
-        <f>IF($N68, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J68&amp;IF($N68, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N68, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J68&amp;IF($N68, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyLactic Acid Pellets)</v>
       </c>
       <c r="I68" s="1" t="str">
-        <f>IF($N68, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J68&amp;IF($N68, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N68, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J68&amp;IF($N68, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyLactic Acid Pellets)</v>
       </c>
       <c r="J68" s="1" t="str">
@@ -13671,19 +13670,19 @@
         <v>180</v>
       </c>
       <c r="F69" s="1" t="str">
-        <f>IF($N69, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J69&amp;IF($N69, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N69, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J69&amp;IF($N69, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyLactic-Co-Glycolic Acid Pellets)</v>
       </c>
       <c r="G69" s="1" t="str">
-        <f>IF($N69, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J69&amp;IF($N69, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N69, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J69&amp;IF($N69, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyLactic-Co-Glycolic Acid Pellets)</v>
       </c>
       <c r="H69" s="1" t="str">
-        <f>IF($N69, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J69&amp;IF($N69, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N69, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J69&amp;IF($N69, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyLactic-Co-Glycolic Acid Pellets)</v>
       </c>
       <c r="I69" s="1" t="str">
-        <f>IF($N69, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J69&amp;IF($N69, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N69, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J69&amp;IF($N69, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyLactic-Co-Glycolic Acid Pellets)</v>
       </c>
       <c r="J69" s="1" t="str">
@@ -13720,19 +13719,19 @@
         <v>176</v>
       </c>
       <c r="F70" s="1" t="str">
-        <f>IF($N70, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J70&amp;IF($N70, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N70, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J70&amp;IF($N70, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyMethyl Acrylate Pellets)</v>
       </c>
       <c r="G70" s="1" t="str">
-        <f>IF($N70, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J70&amp;IF($N70, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N70, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J70&amp;IF($N70, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyMethyl Acrylate Pellets)</v>
       </c>
       <c r="H70" s="1" t="str">
-        <f>IF($N70, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J70&amp;IF($N70, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N70, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J70&amp;IF($N70, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyMethyl Acrylate Pellets)</v>
       </c>
       <c r="I70" s="1" t="str">
-        <f>IF($N70, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J70&amp;IF($N70, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N70, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J70&amp;IF($N70, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyMethyl Acrylate Pellets)</v>
       </c>
       <c r="J70" s="1" t="str">
@@ -13769,19 +13768,19 @@
         <v>172</v>
       </c>
       <c r="F71" s="1" t="str">
-        <f>IF($N71, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J71&amp;IF($N71, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N71, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J71&amp;IF($N71, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyMethyl Cyanoacrylate Pellets)</v>
       </c>
       <c r="G71" s="1" t="str">
-        <f>IF($N71, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J71&amp;IF($N71, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N71, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J71&amp;IF($N71, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyMethyl Cyanoacrylate Pellets)</v>
       </c>
       <c r="H71" s="1" t="str">
-        <f>IF($N71, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J71&amp;IF($N71, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N71, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J71&amp;IF($N71, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyMethyl Cyanoacrylate Pellets)</v>
       </c>
       <c r="I71" s="1" t="str">
-        <f>IF($N71, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J71&amp;IF($N71, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N71, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J71&amp;IF($N71, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyMethyl Cyanoacrylate Pellets)</v>
       </c>
       <c r="J71" s="1" t="str">
@@ -13818,19 +13817,19 @@
         <v>168</v>
       </c>
       <c r="F72" s="1" t="str">
-        <f>IF($N72, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J72&amp;IF($N72, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N72, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J72&amp;IF($N72, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyMethyl Methacrylate Pellets)</v>
       </c>
       <c r="G72" s="1" t="str">
-        <f>IF($N72, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J72&amp;IF($N72, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N72, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J72&amp;IF($N72, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyMethyl Methacrylate Pellets)</v>
       </c>
       <c r="H72" s="1" t="str">
-        <f>IF($N72, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J72&amp;IF($N72, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N72, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J72&amp;IF($N72, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyMethyl Methacrylate Pellets)</v>
       </c>
       <c r="I72" s="1" t="str">
-        <f>IF($N72, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J72&amp;IF($N72, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N72, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J72&amp;IF($N72, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyMethyl Methacrylate Pellets)</v>
       </c>
       <c r="J72" s="1" t="str">
@@ -13867,19 +13866,19 @@
         <v>164</v>
       </c>
       <c r="F73" s="1" t="str">
-        <f>IF($N73, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J73&amp;IF($N73, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N73, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J73&amp;IF($N73, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyM-Methyl Styrene Pellets)</v>
       </c>
       <c r="G73" s="1" t="str">
-        <f>IF($N73, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J73&amp;IF($N73, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N73, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J73&amp;IF($N73, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyM-Methyl Styrene Pellets)</v>
       </c>
       <c r="H73" s="1" t="str">
-        <f>IF($N73, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J73&amp;IF($N73, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N73, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J73&amp;IF($N73, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyM-Methyl Styrene Pellets)</v>
       </c>
       <c r="I73" s="1" t="str">
-        <f>IF($N73, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J73&amp;IF($N73, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N73, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J73&amp;IF($N73, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyM-Methyl Styrene Pellets)</v>
       </c>
       <c r="J73" s="1" t="str">
@@ -13919,19 +13918,19 @@
         <v>160</v>
       </c>
       <c r="F74" s="1" t="str">
-        <f>IF($N74, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J74&amp;IF($N74, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N74, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J74&amp;IF($N74, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyM-Phenylene Isophthalamide Pellets)</v>
       </c>
       <c r="G74" s="1" t="str">
-        <f>IF($N74, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J74&amp;IF($N74, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N74, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J74&amp;IF($N74, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyM-Phenylene Isophthalamide Pellets)</v>
       </c>
       <c r="H74" s="1" t="str">
-        <f>IF($N74, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J74&amp;IF($N74, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N74, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J74&amp;IF($N74, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyM-Phenylene Isophthalamide Pellets)</v>
       </c>
       <c r="I74" s="1" t="str">
-        <f>IF($N74, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J74&amp;IF($N74, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N74, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J74&amp;IF($N74, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyM-Phenylene Isophthalamide Pellets)</v>
       </c>
       <c r="J74" s="1" t="str">
@@ -13968,19 +13967,19 @@
         <v>156</v>
       </c>
       <c r="F75" s="1" t="str">
-        <f>IF($N75, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J75&amp;IF($N75, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N75, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J75&amp;IF($N75, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyN-Butyl Acrylate Pellets)</v>
       </c>
       <c r="G75" s="1" t="str">
-        <f>IF($N75, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J75&amp;IF($N75, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N75, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J75&amp;IF($N75, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyN-Butyl Acrylate Pellets)</v>
       </c>
       <c r="H75" s="1" t="str">
-        <f>IF($N75, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J75&amp;IF($N75, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N75, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J75&amp;IF($N75, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyN-Butyl Acrylate Pellets)</v>
       </c>
       <c r="I75" s="1" t="str">
-        <f>IF($N75, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J75&amp;IF($N75, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N75, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J75&amp;IF($N75, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyN-Butyl Acrylate Pellets)</v>
       </c>
       <c r="J75" s="1" t="str">
@@ -14020,19 +14019,19 @@
         <v>152</v>
       </c>
       <c r="F76" s="1" t="str">
-        <f>IF($N76, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J76&amp;IF($N76, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N76, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J76&amp;IF($N76, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyOxymethylene Pellets)</v>
       </c>
       <c r="G76" s="1" t="str">
-        <f>IF($N76, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J76&amp;IF($N76, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N76, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J76&amp;IF($N76, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyOxymethylene Pellets)</v>
       </c>
       <c r="H76" s="1" t="str">
-        <f>IF($N76, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J76&amp;IF($N76, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N76, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J76&amp;IF($N76, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyOxymethylene Pellets)</v>
       </c>
       <c r="I76" s="1" t="str">
-        <f>IF($N76, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J76&amp;IF($N76, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N76, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J76&amp;IF($N76, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyOxymethylene Pellets)</v>
       </c>
       <c r="J76" s="1" t="str">
@@ -14069,19 +14068,19 @@
         <v>148</v>
       </c>
       <c r="F77" s="1" t="str">
-        <f>IF($N77, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J77&amp;IF($N77, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N77, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J77&amp;IF($N77, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyPentamethylene Hexamethylene Dicarbamate Pellets)</v>
       </c>
       <c r="G77" s="1" t="str">
-        <f>IF($N77, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J77&amp;IF($N77, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N77, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J77&amp;IF($N77, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyPentamethylene Hexamethylene Dicarbamate Pellets)</v>
       </c>
       <c r="H77" s="1" t="str">
-        <f>IF($N77, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J77&amp;IF($N77, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N77, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J77&amp;IF($N77, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyPentamethylene Hexamethylene Dicarbamate Pellets)</v>
       </c>
       <c r="I77" s="1" t="str">
-        <f>IF($N77, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J77&amp;IF($N77, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N77, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J77&amp;IF($N77, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyPentamethylene Hexamethylene Dicarbamate Pellets)</v>
       </c>
       <c r="J77" s="1" t="str">
@@ -14118,19 +14117,19 @@
         <v>144</v>
       </c>
       <c r="F78" s="1" t="str">
-        <f>IF($N78, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J78&amp;IF($N78, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N78, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J78&amp;IF($N78, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyPhenol Pellets)</v>
       </c>
       <c r="G78" s="1" t="str">
-        <f>IF($N78, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J78&amp;IF($N78, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N78, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J78&amp;IF($N78, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyPhenol Pellets)</v>
       </c>
       <c r="H78" s="1" t="str">
-        <f>IF($N78, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J78&amp;IF($N78, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N78, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J78&amp;IF($N78, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyPhenol Pellets)</v>
       </c>
       <c r="I78" s="1" t="str">
-        <f>IF($N78, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J78&amp;IF($N78, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N78, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J78&amp;IF($N78, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyPhenol Pellets)</v>
       </c>
       <c r="J78" s="1" t="str">
@@ -14167,19 +14166,19 @@
         <v>140</v>
       </c>
       <c r="F79" s="1" t="str">
-        <f>IF($N79, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J79&amp;IF($N79, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N79, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J79&amp;IF($N79, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyPhenylene Oxide Pellets)</v>
       </c>
       <c r="G79" s="1" t="str">
-        <f>IF($N79, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J79&amp;IF($N79, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N79, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J79&amp;IF($N79, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyPhenylene Oxide Pellets)</v>
       </c>
       <c r="H79" s="1" t="str">
-        <f>IF($N79, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J79&amp;IF($N79, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N79, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J79&amp;IF($N79, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyPhenylene Oxide Pellets)</v>
       </c>
       <c r="I79" s="1" t="str">
-        <f>IF($N79, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J79&amp;IF($N79, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N79, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J79&amp;IF($N79, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyPhenylene Oxide Pellets)</v>
       </c>
       <c r="J79" s="1" t="str">
@@ -14216,19 +14215,19 @@
         <v>136</v>
       </c>
       <c r="F80" s="1" t="str">
-        <f>IF($N80, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J80&amp;IF($N80, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N80, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J80&amp;IF($N80, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyPhosphazene Pellets)</v>
       </c>
       <c r="G80" s="1" t="str">
-        <f>IF($N80, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J80&amp;IF($N80, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N80, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J80&amp;IF($N80, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyPhosphazene Pellets)</v>
       </c>
       <c r="H80" s="1" t="str">
-        <f>IF($N80, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J80&amp;IF($N80, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N80, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J80&amp;IF($N80, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyPhosphazene Pellets)</v>
       </c>
       <c r="I80" s="1" t="str">
-        <f>IF($N80, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J80&amp;IF($N80, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N80, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J80&amp;IF($N80, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyPhosphazene Pellets)</v>
       </c>
       <c r="J80" s="1" t="str">
@@ -14265,19 +14264,19 @@
         <v>132</v>
       </c>
       <c r="F81" s="1" t="str">
-        <f>IF($N81, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J81&amp;IF($N81, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N81, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J81&amp;IF($N81, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyP-Methyl Styrene Pellets)</v>
       </c>
       <c r="G81" s="1" t="str">
-        <f>IF($N81, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J81&amp;IF($N81, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N81, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J81&amp;IF($N81, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyP-Methyl Styrene Pellets)</v>
       </c>
       <c r="H81" s="1" t="str">
-        <f>IF($N81, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J81&amp;IF($N81, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N81, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J81&amp;IF($N81, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyP-Methyl Styrene Pellets)</v>
       </c>
       <c r="I81" s="1" t="str">
-        <f>IF($N81, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J81&amp;IF($N81, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N81, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J81&amp;IF($N81, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyP-Methyl Styrene Pellets)</v>
       </c>
       <c r="J81" s="1" t="str">
@@ -14314,19 +14313,19 @@
         <v>128</v>
       </c>
       <c r="F82" s="1" t="str">
-        <f>IF($N82, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J82&amp;IF($N82, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N82, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J82&amp;IF($N82, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyP-Phenylene Sulphide Pellets)</v>
       </c>
       <c r="G82" s="1" t="str">
-        <f>IF($N82, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J82&amp;IF($N82, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N82, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J82&amp;IF($N82, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyP-Phenylene Sulphide Pellets)</v>
       </c>
       <c r="H82" s="1" t="str">
-        <f>IF($N82, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J82&amp;IF($N82, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N82, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J82&amp;IF($N82, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyP-Phenylene Sulphide Pellets)</v>
       </c>
       <c r="I82" s="1" t="str">
-        <f>IF($N82, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J82&amp;IF($N82, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N82, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J82&amp;IF($N82, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyP-Phenylene Sulphide Pellets)</v>
       </c>
       <c r="J82" s="1" t="str">
@@ -14366,19 +14365,19 @@
         <v>124</v>
       </c>
       <c r="F83" s="1" t="str">
-        <f>IF($N83, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J83&amp;IF($N83, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N83, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J83&amp;IF($N83, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyP-Phenylene Terephthalamide Pellets)</v>
       </c>
       <c r="G83" s="1" t="str">
-        <f>IF($N83, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J83&amp;IF($N83, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N83, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J83&amp;IF($N83, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyP-Phenylene Terephthalamide Pellets)</v>
       </c>
       <c r="H83" s="1" t="str">
-        <f>IF($N83, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J83&amp;IF($N83, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N83, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J83&amp;IF($N83, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyP-Phenylene Terephthalamide Pellets)</v>
       </c>
       <c r="I83" s="1" t="str">
-        <f>IF($N83, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J83&amp;IF($N83, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N83, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J83&amp;IF($N83, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyP-Phenylene Terephthalamide Pellets)</v>
       </c>
       <c r="J83" s="1" t="str">
@@ -14418,19 +14417,19 @@
         <v>120</v>
       </c>
       <c r="F84" s="1" t="str">
-        <f>IF($N84, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J84&amp;IF($N84, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N84, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J84&amp;IF($N84, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyPropylene Pellets)</v>
       </c>
       <c r="G84" s="1" t="str">
-        <f>IF($N84, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J84&amp;IF($N84, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N84, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J84&amp;IF($N84, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyPropylene Pellets)</v>
       </c>
       <c r="H84" s="1" t="str">
-        <f>IF($N84, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J84&amp;IF($N84, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N84, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J84&amp;IF($N84, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyPropylene Pellets)</v>
       </c>
       <c r="I84" s="1" t="str">
-        <f>IF($N84, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J84&amp;IF($N84, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N84, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J84&amp;IF($N84, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyPropylene Pellets)</v>
       </c>
       <c r="J84" s="1" t="str">
@@ -14467,19 +14466,19 @@
         <v>116</v>
       </c>
       <c r="F85" s="1" t="str">
-        <f>IF($N85, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J85&amp;IF($N85, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N85, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J85&amp;IF($N85, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyPropylene Glycol Pellets)</v>
       </c>
       <c r="G85" s="1" t="str">
-        <f>IF($N85, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J85&amp;IF($N85, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N85, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J85&amp;IF($N85, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyPropylene Glycol Pellets)</v>
       </c>
       <c r="H85" s="1" t="str">
-        <f>IF($N85, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J85&amp;IF($N85, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N85, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J85&amp;IF($N85, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyPropylene Glycol Pellets)</v>
       </c>
       <c r="I85" s="1" t="str">
-        <f>IF($N85, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J85&amp;IF($N85, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N85, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J85&amp;IF($N85, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyPropylene Glycol Pellets)</v>
       </c>
       <c r="J85" s="1" t="str">
@@ -14516,19 +14515,19 @@
         <v>112</v>
       </c>
       <c r="F86" s="1" t="str">
-        <f>IF($N86, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J86&amp;IF($N86, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N86, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J86&amp;IF($N86, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyPropylene Oxide Pellets)</v>
       </c>
       <c r="G86" s="1" t="str">
-        <f>IF($N86, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J86&amp;IF($N86, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N86, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J86&amp;IF($N86, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyPropylene Oxide Pellets)</v>
       </c>
       <c r="H86" s="1" t="str">
-        <f>IF($N86, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J86&amp;IF($N86, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N86, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J86&amp;IF($N86, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyPropylene Oxide Pellets)</v>
       </c>
       <c r="I86" s="1" t="str">
-        <f>IF($N86, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J86&amp;IF($N86, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N86, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J86&amp;IF($N86, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyPropylene Oxide Pellets)</v>
       </c>
       <c r="J86" s="1" t="str">
@@ -14568,19 +14567,19 @@
         <v>108</v>
       </c>
       <c r="F87" s="1" t="str">
-        <f>IF($N87, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J87&amp;IF($N87, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N87, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J87&amp;IF($N87, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyStyrene Pellets)</v>
       </c>
       <c r="G87" s="1" t="str">
-        <f>IF($N87, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J87&amp;IF($N87, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N87, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J87&amp;IF($N87, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyStyrene Pellets)</v>
       </c>
       <c r="H87" s="1" t="str">
-        <f>IF($N87, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J87&amp;IF($N87, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N87, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J87&amp;IF($N87, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyStyrene Pellets)</v>
       </c>
       <c r="I87" s="1" t="str">
-        <f>IF($N87, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J87&amp;IF($N87, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N87, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J87&amp;IF($N87, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyStyrene Pellets)</v>
       </c>
       <c r="J87" s="1" t="str">
@@ -14617,19 +14616,19 @@
         <v>104</v>
       </c>
       <c r="F88" s="1" t="str">
-        <f>IF($N88, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J88&amp;IF($N88, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N88, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J88&amp;IF($N88, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyTert-Butyl Acrylate Pellets)</v>
       </c>
       <c r="G88" s="1" t="str">
-        <f>IF($N88, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J88&amp;IF($N88, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N88, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J88&amp;IF($N88, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyTert-Butyl Acrylate Pellets)</v>
       </c>
       <c r="H88" s="1" t="str">
-        <f>IF($N88, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J88&amp;IF($N88, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N88, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J88&amp;IF($N88, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyTert-Butyl Acrylate Pellets)</v>
       </c>
       <c r="I88" s="1" t="str">
-        <f>IF($N88, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J88&amp;IF($N88, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N88, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J88&amp;IF($N88, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyTert-Butyl Acrylate Pellets)</v>
       </c>
       <c r="J88" s="1" t="str">
@@ -14669,19 +14668,19 @@
         <v>100</v>
       </c>
       <c r="F89" s="1" t="str">
-        <f>IF($N89, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J89&amp;IF($N89, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N89, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J89&amp;IF($N89, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyTetraFluoroEthylene Pellets)</v>
       </c>
       <c r="G89" s="1" t="str">
-        <f>IF($N89, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J89&amp;IF($N89, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N89, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J89&amp;IF($N89, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyTetraFluoroEthylene Pellets)</v>
       </c>
       <c r="H89" s="1" t="str">
-        <f>IF($N89, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J89&amp;IF($N89, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N89, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J89&amp;IF($N89, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyTetraFluoroEthylene Pellets)</v>
       </c>
       <c r="I89" s="1" t="str">
-        <f>IF($N89, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J89&amp;IF($N89, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N89, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J89&amp;IF($N89, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyTetraFluoroEthylene Pellets)</v>
       </c>
       <c r="J89" s="1" t="str">
@@ -14718,19 +14717,19 @@
         <v>96</v>
       </c>
       <c r="F90" s="1" t="str">
-        <f>IF($N90, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J90&amp;IF($N90, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N90, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J90&amp;IF($N90, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyTetramethylene Ether Glycol Pellets)</v>
       </c>
       <c r="G90" s="1" t="str">
-        <f>IF($N90, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J90&amp;IF($N90, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N90, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J90&amp;IF($N90, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyTetramethylene Ether Glycol Pellets)</v>
       </c>
       <c r="H90" s="1" t="str">
-        <f>IF($N90, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J90&amp;IF($N90, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N90, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J90&amp;IF($N90, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyTetramethylene Ether Glycol Pellets)</v>
       </c>
       <c r="I90" s="1" t="str">
-        <f>IF($N90, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J90&amp;IF($N90, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N90, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J90&amp;IF($N90, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyTetramethylene Ether Glycol Pellets)</v>
       </c>
       <c r="J90" s="1" t="str">
@@ -14767,19 +14766,19 @@
         <v>92</v>
       </c>
       <c r="F91" s="1" t="str">
-        <f>IF($N91, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J91&amp;IF($N91, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N91, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J91&amp;IF($N91, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyTetramethylene Glycol Pellets)</v>
       </c>
       <c r="G91" s="1" t="str">
-        <f>IF($N91, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J91&amp;IF($N91, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N91, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J91&amp;IF($N91, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyTetramethylene Glycol Pellets)</v>
       </c>
       <c r="H91" s="1" t="str">
-        <f>IF($N91, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J91&amp;IF($N91, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N91, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J91&amp;IF($N91, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyTetramethylene Glycol Pellets)</v>
       </c>
       <c r="I91" s="1" t="str">
-        <f>IF($N91, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J91&amp;IF($N91, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N91, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J91&amp;IF($N91, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyTetramethylene Glycol Pellets)</v>
       </c>
       <c r="J91" s="1" t="str">
@@ -14816,19 +14815,19 @@
         <v>88</v>
       </c>
       <c r="F92" s="1" t="str">
-        <f>IF($N92, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J92&amp;IF($N92, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N92, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J92&amp;IF($N92, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyThiazyl Pellets)</v>
       </c>
       <c r="G92" s="1" t="str">
-        <f>IF($N92, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J92&amp;IF($N92, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N92, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J92&amp;IF($N92, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyThiazyl Pellets)</v>
       </c>
       <c r="H92" s="1" t="str">
-        <f>IF($N92, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J92&amp;IF($N92, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N92, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J92&amp;IF($N92, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyThiazyl Pellets)</v>
       </c>
       <c r="I92" s="1" t="str">
-        <f>IF($N92, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J92&amp;IF($N92, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N92, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J92&amp;IF($N92, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyThiazyl Pellets)</v>
       </c>
       <c r="J92" s="1" t="str">
@@ -14868,19 +14867,19 @@
         <v>84</v>
       </c>
       <c r="F93" s="1" t="str">
-        <f>IF($N93, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J93&amp;IF($N93, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N93, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J93&amp;IF($N93, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyTrimethylene Terephthalate Pellets)</v>
       </c>
       <c r="G93" s="1" t="str">
-        <f>IF($N93, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J93&amp;IF($N93, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N93, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J93&amp;IF($N93, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyTrimethylene Terephthalate Pellets)</v>
       </c>
       <c r="H93" s="1" t="str">
-        <f>IF($N93, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J93&amp;IF($N93, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N93, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J93&amp;IF($N93, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyTrimethylene Terephthalate Pellets)</v>
       </c>
       <c r="I93" s="1" t="str">
-        <f>IF($N93, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J93&amp;IF($N93, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N93, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J93&amp;IF($N93, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyTrimethylene Terephthalate Pellets)</v>
       </c>
       <c r="J93" s="1" t="str">
@@ -14920,19 +14919,19 @@
         <v>80</v>
       </c>
       <c r="F94" s="1" t="str">
-        <f>IF($N94, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J94&amp;IF($N94, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N94, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J94&amp;IF($N94, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyUrethane Pellets)</v>
       </c>
       <c r="G94" s="1" t="str">
-        <f>IF($N94, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J94&amp;IF($N94, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N94, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J94&amp;IF($N94, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyUrethane Pellets)</v>
       </c>
       <c r="H94" s="1" t="str">
-        <f>IF($N94, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J94&amp;IF($N94, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N94, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J94&amp;IF($N94, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyUrethane Pellets)</v>
       </c>
       <c r="I94" s="1" t="str">
-        <f>IF($N94, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J94&amp;IF($N94, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N94, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J94&amp;IF($N94, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyUrethane Pellets)</v>
       </c>
       <c r="J94" s="1" t="str">
@@ -14972,19 +14971,19 @@
         <v>76</v>
       </c>
       <c r="F95" s="1" t="str">
-        <f>IF($N95, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J95&amp;IF($N95, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N95, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J95&amp;IF($N95, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinyl Acetate Pellets)</v>
       </c>
       <c r="G95" s="1" t="str">
-        <f>IF($N95, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J95&amp;IF($N95, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N95, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J95&amp;IF($N95, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinyl Acetate Pellets)</v>
       </c>
       <c r="H95" s="1" t="str">
-        <f>IF($N95, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J95&amp;IF($N95, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N95, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J95&amp;IF($N95, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinyl Acetate Pellets)</v>
       </c>
       <c r="I95" s="1" t="str">
-        <f>IF($N95, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J95&amp;IF($N95, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N95, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J95&amp;IF($N95, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinyl Acetate Pellets)</v>
       </c>
       <c r="J95" s="1" t="str">
@@ -15024,19 +15023,19 @@
         <v>72</v>
       </c>
       <c r="F96" s="1" t="str">
-        <f>IF($N96, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J96&amp;IF($N96, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N96, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J96&amp;IF($N96, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinyl Alcohol Pellets)</v>
       </c>
       <c r="G96" s="1" t="str">
-        <f>IF($N96, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J96&amp;IF($N96, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N96, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J96&amp;IF($N96, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinyl Alcohol Pellets)</v>
       </c>
       <c r="H96" s="1" t="str">
-        <f>IF($N96, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J96&amp;IF($N96, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N96, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J96&amp;IF($N96, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinyl Alcohol Pellets)</v>
       </c>
       <c r="I96" s="1" t="str">
-        <f>IF($N96, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J96&amp;IF($N96, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N96, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J96&amp;IF($N96, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinyl Alcohol Pellets)</v>
       </c>
       <c r="J96" s="1" t="str">
@@ -15073,19 +15072,19 @@
         <v>68</v>
       </c>
       <c r="F97" s="1" t="str">
-        <f>IF($N97, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J97&amp;IF($N97, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N97, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J97&amp;IF($N97, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinyl Butyral Pellets)</v>
       </c>
       <c r="G97" s="1" t="str">
-        <f>IF($N97, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J97&amp;IF($N97, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N97, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J97&amp;IF($N97, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinyl Butyral Pellets)</v>
       </c>
       <c r="H97" s="1" t="str">
-        <f>IF($N97, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J97&amp;IF($N97, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N97, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J97&amp;IF($N97, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinyl Butyral Pellets)</v>
       </c>
       <c r="I97" s="1" t="str">
-        <f>IF($N97, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J97&amp;IF($N97, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N97, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J97&amp;IF($N97, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinyl Butyral Pellets)</v>
       </c>
       <c r="J97" s="1" t="str">
@@ -15125,19 +15124,19 @@
         <v>64</v>
       </c>
       <c r="F98" s="1" t="str">
-        <f>IF($N98, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J98&amp;IF($N98, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N98, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J98&amp;IF($N98, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinyl Chloride Pellets)</v>
       </c>
       <c r="G98" s="1" t="str">
-        <f>IF($N98, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J98&amp;IF($N98, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N98, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J98&amp;IF($N98, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinyl Chloride Pellets)</v>
       </c>
       <c r="H98" s="1" t="str">
-        <f>IF($N98, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J98&amp;IF($N98, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N98, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J98&amp;IF($N98, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinyl Chloride Pellets)</v>
       </c>
       <c r="I98" s="1" t="str">
-        <f>IF($N98, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J98&amp;IF($N98, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N98, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J98&amp;IF($N98, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinyl Chloride Pellets)</v>
       </c>
       <c r="J98" s="1" t="str">
@@ -15177,19 +15176,19 @@
         <v>60</v>
       </c>
       <c r="F99" s="1" t="str">
-        <f>IF($N99, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J99&amp;IF($N99, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N99, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J99&amp;IF($N99, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinyl Chloride Acetate Pellets)</v>
       </c>
       <c r="G99" s="1" t="str">
-        <f>IF($N99, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J99&amp;IF($N99, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N99, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J99&amp;IF($N99, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinyl Chloride Acetate Pellets)</v>
       </c>
       <c r="H99" s="1" t="str">
-        <f>IF($N99, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J99&amp;IF($N99, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N99, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J99&amp;IF($N99, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinyl Chloride Acetate Pellets)</v>
       </c>
       <c r="I99" s="1" t="str">
-        <f>IF($N99, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J99&amp;IF($N99, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N99, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J99&amp;IF($N99, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinyl Chloride Acetate Pellets)</v>
       </c>
       <c r="J99" s="1" t="str">
@@ -15226,19 +15225,19 @@
         <v>56</v>
       </c>
       <c r="F100" s="1" t="str">
-        <f>IF($N100, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J100&amp;IF($N100, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N100, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J100&amp;IF($N100, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinyl Fluoride Pellets)</v>
       </c>
       <c r="G100" s="1" t="str">
-        <f>IF($N100, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J100&amp;IF($N100, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N100, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J100&amp;IF($N100, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinyl Fluoride Pellets)</v>
       </c>
       <c r="H100" s="1" t="str">
-        <f>IF($N100, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J100&amp;IF($N100, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N100, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J100&amp;IF($N100, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinyl Fluoride Pellets)</v>
       </c>
       <c r="I100" s="1" t="str">
-        <f>IF($N100, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J100&amp;IF($N100, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N100, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J100&amp;IF($N100, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinyl Fluoride Pellets)</v>
       </c>
       <c r="J100" s="1" t="str">
@@ -15275,19 +15274,19 @@
         <v>52</v>
       </c>
       <c r="F101" s="1" t="str">
-        <f>IF($N101, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J101&amp;IF($N101, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N101, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J101&amp;IF($N101, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinyl Formal Pellets)</v>
       </c>
       <c r="G101" s="1" t="str">
-        <f>IF($N101, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J101&amp;IF($N101, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N101, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J101&amp;IF($N101, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinyl Formal Pellets)</v>
       </c>
       <c r="H101" s="1" t="str">
-        <f>IF($N101, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J101&amp;IF($N101, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N101, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J101&amp;IF($N101, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinyl Formal Pellets)</v>
       </c>
       <c r="I101" s="1" t="str">
-        <f>IF($N101, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J101&amp;IF($N101, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N101, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J101&amp;IF($N101, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinyl Formal Pellets)</v>
       </c>
       <c r="J101" s="1" t="str">
@@ -15324,19 +15323,19 @@
         <v>48</v>
       </c>
       <c r="F102" s="1" t="str">
-        <f>IF($N102, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J102&amp;IF($N102, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N102, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J102&amp;IF($N102, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinyl Methyl Ether Pellets)</v>
       </c>
       <c r="G102" s="1" t="str">
-        <f>IF($N102, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J102&amp;IF($N102, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N102, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J102&amp;IF($N102, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinyl Methyl Ether Pellets)</v>
       </c>
       <c r="H102" s="1" t="str">
-        <f>IF($N102, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J102&amp;IF($N102, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N102, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J102&amp;IF($N102, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinyl Methyl Ether Pellets)</v>
       </c>
       <c r="I102" s="1" t="str">
-        <f>IF($N102, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J102&amp;IF($N102, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N102, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J102&amp;IF($N102, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinyl Methyl Ether Pellets)</v>
       </c>
       <c r="J102" s="1" t="str">
@@ -15373,19 +15372,19 @@
         <v>44</v>
       </c>
       <c r="F103" s="1" t="str">
-        <f>IF($N103, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J103&amp;IF($N103, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N103, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J103&amp;IF($N103, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinylidene Dichloride Pellets)</v>
       </c>
       <c r="G103" s="1" t="str">
-        <f>IF($N103, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J103&amp;IF($N103, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N103, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J103&amp;IF($N103, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinylidene Dichloride Pellets)</v>
       </c>
       <c r="H103" s="1" t="str">
-        <f>IF($N103, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J103&amp;IF($N103, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N103, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J103&amp;IF($N103, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinylidene Dichloride Pellets)</v>
       </c>
       <c r="I103" s="1" t="str">
-        <f>IF($N103, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J103&amp;IF($N103, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N103, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J103&amp;IF($N103, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinylidene Dichloride Pellets)</v>
       </c>
       <c r="J103" s="1" t="str">
@@ -15422,19 +15421,19 @@
         <v>40</v>
       </c>
       <c r="F104" s="1" t="str">
-        <f>IF($N104, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J104&amp;IF($N104, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N104, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J104&amp;IF($N104, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinylidene Fluoride Pellets)</v>
       </c>
       <c r="G104" s="1" t="str">
-        <f>IF($N104, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J104&amp;IF($N104, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N104, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J104&amp;IF($N104, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinylidene Fluoride Pellets)</v>
       </c>
       <c r="H104" s="1" t="str">
-        <f>IF($N104, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J104&amp;IF($N104, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N104, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J104&amp;IF($N104, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinylidene Fluoride Pellets)</v>
       </c>
       <c r="I104" s="1" t="str">
-        <f>IF($N104, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J104&amp;IF($N104, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N104, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J104&amp;IF($N104, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinylidene Fluoride Pellets)</v>
       </c>
       <c r="J104" s="1" t="str">
@@ -15471,19 +15470,19 @@
         <v>36</v>
       </c>
       <c r="F105" s="1" t="str">
-        <f>IF($N105, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J105&amp;IF($N105, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N105, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J105&amp;IF($N105, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinylidene Fluoride-Trifluoroethylene Pellets)</v>
       </c>
       <c r="G105" s="1" t="str">
-        <f>IF($N105, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J105&amp;IF($N105, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N105, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J105&amp;IF($N105, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinylidene Fluoride-Trifluoroethylene Pellets)</v>
       </c>
       <c r="H105" s="1" t="str">
-        <f>IF($N105, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J105&amp;IF($N105, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N105, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J105&amp;IF($N105, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinylidene Fluoride-Trifluoroethylene Pellets)</v>
       </c>
       <c r="I105" s="1" t="str">
-        <f>IF($N105, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J105&amp;IF($N105, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N105, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J105&amp;IF($N105, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinylidene Fluoride-Trifluoroethylene Pellets)</v>
       </c>
       <c r="J105" s="1" t="str">
@@ -15523,19 +15522,19 @@
         <v>32</v>
       </c>
       <c r="F106" s="1" t="str">
-        <f>IF($N106, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J106&amp;IF($N106, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N106, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J106&amp;IF($N106, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Styrene-Acrylonitrile Pellets)</v>
       </c>
       <c r="G106" s="1" t="str">
-        <f>IF($N106, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J106&amp;IF($N106, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N106, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J106&amp;IF($N106, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Styrene-Acrylonitrile Pellets)</v>
       </c>
       <c r="H106" s="1" t="str">
-        <f>IF($N106, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J106&amp;IF($N106, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N106, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J106&amp;IF($N106, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Styrene-Acrylonitrile Pellets)</v>
       </c>
       <c r="I106" s="1" t="str">
-        <f>IF($N106, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J106&amp;IF($N106, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N106, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J106&amp;IF($N106, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Styrene-Acrylonitrile Pellets)</v>
       </c>
       <c r="J106" s="1" t="str">
@@ -15575,19 +15574,19 @@
         <v>28</v>
       </c>
       <c r="F107" s="1" t="str">
-        <f>IF($N107, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J107&amp;IF($N107, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N107, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J107&amp;IF($N107, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Styrene-Butadiene Rubber Pellets)</v>
       </c>
       <c r="G107" s="1" t="str">
-        <f>IF($N107, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J107&amp;IF($N107, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N107, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J107&amp;IF($N107, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Styrene-Butadiene Rubber Pellets)</v>
       </c>
       <c r="H107" s="1" t="str">
-        <f>IF($N107, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J107&amp;IF($N107, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N107, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J107&amp;IF($N107, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Styrene-Butadiene Rubber Pellets)</v>
       </c>
       <c r="I107" s="1" t="str">
-        <f>IF($N107, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J107&amp;IF($N107, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N107, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J107&amp;IF($N107, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Styrene-Butadiene Rubber Pellets)</v>
       </c>
       <c r="J107" s="1" t="str">
@@ -15627,19 +15626,19 @@
         <v>24</v>
       </c>
       <c r="F108" s="1" t="str">
-        <f>IF($N108, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J108&amp;IF($N108, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N108, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J108&amp;IF($N108, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Styrene-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="G108" s="1" t="str">
-        <f>IF($N108, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J108&amp;IF($N108, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N108, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J108&amp;IF($N108, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Styrene-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="H108" s="1" t="str">
-        <f>IF($N108, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J108&amp;IF($N108, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N108, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J108&amp;IF($N108, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Styrene-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="I108" s="1" t="str">
-        <f>IF($N108, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J108&amp;IF($N108, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N108, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J108&amp;IF($N108, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Styrene-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="J108" s="1" t="str">
@@ -15676,19 +15675,19 @@
         <v>20</v>
       </c>
       <c r="F109" s="1" t="str">
-        <f>IF($N109, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J109&amp;IF($N109, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N109, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J109&amp;IF($N109, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Styrene-Isoprene-Styrene Pellets)</v>
       </c>
       <c r="G109" s="1" t="str">
-        <f>IF($N109, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J109&amp;IF($N109, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N109, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J109&amp;IF($N109, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Styrene-Isoprene-Styrene Pellets)</v>
       </c>
       <c r="H109" s="1" t="str">
-        <f>IF($N109, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J109&amp;IF($N109, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N109, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J109&amp;IF($N109, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Styrene-Isoprene-Styrene Pellets)</v>
       </c>
       <c r="I109" s="1" t="str">
-        <f>IF($N109, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J109&amp;IF($N109, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N109, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J109&amp;IF($N109, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Styrene-Isoprene-Styrene Pellets)</v>
       </c>
       <c r="J109" s="1" t="str">
@@ -15725,19 +15724,19 @@
         <v>16</v>
       </c>
       <c r="F110" s="1" t="str">
-        <f>IF($N110, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J110&amp;IF($N110, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N110, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J110&amp;IF($N110, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Styrene-Maleic Anhydride Copolymer Pellets)</v>
       </c>
       <c r="G110" s="1" t="str">
-        <f>IF($N110, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J110&amp;IF($N110, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N110, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J110&amp;IF($N110, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Styrene-Maleic Anhydride Copolymer Pellets)</v>
       </c>
       <c r="H110" s="1" t="str">
-        <f>IF($N110, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J110&amp;IF($N110, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N110, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J110&amp;IF($N110, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Styrene-Maleic Anhydride Copolymer Pellets)</v>
       </c>
       <c r="I110" s="1" t="str">
-        <f>IF($N110, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J110&amp;IF($N110, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N110, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J110&amp;IF($N110, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Styrene-Maleic Anhydride Copolymer Pellets)</v>
       </c>
       <c r="J110" s="1" t="str">
@@ -15777,19 +15776,19 @@
         <v>12</v>
       </c>
       <c r="F111" s="1" t="str">
-        <f>IF($N111, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J111&amp;IF($N111, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N111, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J111&amp;IF($N111, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Ultra-High-Molecular-Weight PolyEthylene Pellets)</v>
       </c>
       <c r="G111" s="1" t="str">
-        <f>IF($N111, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J111&amp;IF($N111, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N111, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J111&amp;IF($N111, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Ultra-High-Molecular-Weight PolyEthylene Pellets)</v>
       </c>
       <c r="H111" s="1" t="str">
-        <f>IF($N111, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J111&amp;IF($N111, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N111, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J111&amp;IF($N111, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Ultra-High-Molecular-Weight PolyEthylene Pellets)</v>
       </c>
       <c r="I111" s="1" t="str">
-        <f>IF($N111, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J111&amp;IF($N111, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N111, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J111&amp;IF($N111, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Ultra-High-Molecular-Weight PolyEthylene Pellets)</v>
       </c>
       <c r="J111" s="1" t="str">
@@ -15826,19 +15825,19 @@
         <v>8</v>
       </c>
       <c r="F112" s="1" t="str">
-        <f>IF($N112, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J112&amp;IF($N112, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N112, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J112&amp;IF($N112, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Urea-Formaldehyde Polymers Pellets)</v>
       </c>
       <c r="G112" s="1" t="str">
-        <f>IF($N112, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J112&amp;IF($N112, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N112, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J112&amp;IF($N112, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Urea-Formaldehyde Polymers Pellets)</v>
       </c>
       <c r="H112" s="1" t="str">
-        <f>IF($N112, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J112&amp;IF($N112, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N112, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J112&amp;IF($N112, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Urea-Formaldehyde Polymers Pellets)</v>
       </c>
       <c r="I112" s="1" t="str">
-        <f>IF($N112, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J112&amp;IF($N112, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N112, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J112&amp;IF($N112, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Urea-Formaldehyde Polymers Pellets)</v>
       </c>
       <c r="J112" s="1" t="str">
@@ -15878,19 +15877,19 @@
         <v>4</v>
       </c>
       <c r="F113" s="1" t="str">
-        <f>IF($N113, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J113&amp;IF($N113, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N113, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J113&amp;IF($N113, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Very-Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="G113" s="1" t="str">
-        <f>IF($N113, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J113&amp;IF($N113, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N113, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J113&amp;IF($N113, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Very-Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="H113" s="1" t="str">
-        <f>IF($N113, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J113&amp;IF($N113, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N113, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J113&amp;IF($N113, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Very-Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="I113" s="1" t="str">
-        <f>IF($N113, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J113&amp;IF($N113, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N113, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J113&amp;IF($N113, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Very-Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="J113" s="1" t="str">
@@ -15930,19 +15929,19 @@
         <v>0</v>
       </c>
       <c r="F114" s="1" t="str">
-        <f>IF($N114, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J114&amp;IF($N114, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N114, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J114&amp;IF($N114, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Vinyl Acetate-Acrylic Acid Pellets)</v>
       </c>
       <c r="G114" s="1" t="str">
-        <f>IF($N114, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J114&amp;IF($N114, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N114, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J114&amp;IF($N114, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Vinyl Acetate-Acrylic Acid Pellets)</v>
       </c>
       <c r="H114" s="1" t="str">
-        <f>IF($N114, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J114&amp;IF($N114, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N114, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J114&amp;IF($N114, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Vinyl Acetate-Acrylic Acid Pellets)</v>
       </c>
       <c r="I114" s="1" t="str">
-        <f>IF($N114, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J114&amp;IF($N114, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N114, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J114&amp;IF($N114, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Vinyl Acetate-Acrylic Acid Pellets)</v>
       </c>
       <c r="J114" s="1" t="str">
@@ -15982,19 +15981,19 @@
         <v>1853</v>
       </c>
       <c r="F115" s="1" t="str">
-        <f>IF($N115, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N115, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Polycaprolactam Pellets)</v>
       </c>
       <c r="G115" s="1" t="str">
-        <f>IF($N115, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N115, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Polycaprolactam Pellets)</v>
       </c>
       <c r="H115" s="1" t="str">
-        <f>IF($N115, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N115, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Polycaprolactam Pellets)</v>
       </c>
       <c r="I115" s="1" t="str">
-        <f>IF($N115, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N115, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Polycaprolactam Pellets)</v>
       </c>
       <c r="J115" s="1" t="str">
@@ -16034,19 +16033,19 @@
         <v>2412</v>
       </c>
       <c r="F116" s="1" t="str">
-        <f>IF($N116, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J116&amp;IF($N116, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N116, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J116&amp;IF($N116, " "&amp;$J$1, "")&amp;")"</f>
         <v>Vial (Epoxy-Carbon Fiber Resin)</v>
       </c>
       <c r="G116" s="1" t="str">
-        <f>IF($N116, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J116&amp;IF($N116, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N116, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J116&amp;IF($N116, " "&amp;$J$1, "")&amp;")"</f>
         <v>Beaker (Epoxy-Carbon Fiber Resin)</v>
       </c>
       <c r="H116" s="1" t="str">
-        <f>IF($N116, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J116&amp;IF($N116, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N116, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J116&amp;IF($N116, " "&amp;$J$1, "")&amp;")"</f>
         <v>Drum (Epoxy-Carbon Fiber Resin)</v>
       </c>
       <c r="I116" s="1" t="str">
-        <f>IF($N116, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J116&amp;IF($N116, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N116, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J116&amp;IF($N116, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Vat (Epoxy-Carbon Fiber Resin)</v>
       </c>
       <c r="J116" s="1" t="str">
@@ -16086,19 +16085,19 @@
         <v>2416</v>
       </c>
       <c r="F117" s="1" t="str">
-        <f>IF($N117, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J117&amp;IF($N117, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N117, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J117&amp;IF($N117, " "&amp;$J$1, "")&amp;")"</f>
         <v>Vial (Phenolic-Carbon Fiber Resin)</v>
       </c>
       <c r="G117" s="1" t="str">
-        <f>IF($N117, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J117&amp;IF($N117, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N117, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J117&amp;IF($N117, " "&amp;$J$1, "")&amp;")"</f>
         <v>Beaker (Phenolic-Carbon Fiber Resin)</v>
       </c>
       <c r="H117" s="1" t="str">
-        <f>IF($N117, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J117&amp;IF($N117, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N117, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J117&amp;IF($N117, " "&amp;$J$1, "")&amp;")"</f>
         <v>Drum (Phenolic-Carbon Fiber Resin)</v>
       </c>
       <c r="I117" s="1" t="str">
-        <f>IF($N117, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J117&amp;IF($N117, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N117, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J117&amp;IF($N117, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Vat (Phenolic-Carbon Fiber Resin)</v>
       </c>
       <c r="J117" s="1" t="str">
@@ -16135,19 +16134,19 @@
         <v>2420</v>
       </c>
       <c r="F118" s="1" t="str">
-        <f>IF($N118, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J118&amp;IF($N118, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N118, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J118&amp;IF($N118, " "&amp;$J$1, "")&amp;")"</f>
         <v>Vial (0)</v>
       </c>
       <c r="G118" s="1" t="str">
-        <f>IF($N118, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J118&amp;IF($N118, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N118, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J118&amp;IF($N118, " "&amp;$J$1, "")&amp;")"</f>
         <v>Beaker (0)</v>
       </c>
       <c r="H118" s="1" t="str">
-        <f>IF($N118, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J118&amp;IF($N118, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N118, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J118&amp;IF($N118, " "&amp;$J$1, "")&amp;")"</f>
         <v>Drum (0)</v>
       </c>
       <c r="I118" s="1" t="str">
-        <f>IF($N118, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J118&amp;IF($N118, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N118, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J118&amp;IF($N118, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Vat (0)</v>
       </c>
       <c r="J118" s="1">
@@ -16184,19 +16183,19 @@
         <v>2424</v>
       </c>
       <c r="F119" s="1" t="str">
-        <f>IF($N119, [1]Enums!$A$23, [1]Enums!$A$24)&amp;" ("&amp;$J119&amp;IF($N119, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N119, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J119&amp;IF($N119, " "&amp;$J$1, "")&amp;")"</f>
         <v>Vial (0)</v>
       </c>
       <c r="G119" s="1" t="str">
-        <f>IF($N119, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J119&amp;IF($N119, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N119, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J119&amp;IF($N119, " "&amp;$J$1, "")&amp;")"</f>
         <v>Beaker (0)</v>
       </c>
       <c r="H119" s="1" t="str">
-        <f>IF($N119, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J119&amp;IF($N119, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N119, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J119&amp;IF($N119, " "&amp;$J$1, "")&amp;")"</f>
         <v>Drum (0)</v>
       </c>
       <c r="I119" s="1" t="str">
-        <f>IF($N119, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J119&amp;IF($N119, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N119, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J119&amp;IF($N119, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Vat (0)</v>
       </c>
       <c r="J119" s="1">
@@ -17176,7 +17175,7 @@
         <v>Steel Ingot</v>
       </c>
       <c r="I2" s="45" t="str">
-        <f>[1]Enums!$A$132&amp;" "&amp;VLOOKUP(H2, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$134&amp;" "&amp;VLOOKUP(H2, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Composite Steel</v>
       </c>
       <c r="J2" s="45">
@@ -17224,7 +17223,7 @@
         <v>Stainless Steel Ingot</v>
       </c>
       <c r="I3" s="45" t="str">
-        <f>[1]Enums!$A$132&amp;" "&amp;VLOOKUP(H3, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$134&amp;" "&amp;VLOOKUP(H3, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Composite Stainless Steel</v>
       </c>
       <c r="J3" s="45">
@@ -17272,7 +17271,7 @@
         <v>Brass Ingot</v>
       </c>
       <c r="I4" s="45" t="str">
-        <f>[1]Enums!$A$132&amp;" "&amp;VLOOKUP(H4, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$134&amp;" "&amp;VLOOKUP(H4, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Composite Brass</v>
       </c>
       <c r="J4" s="45">
@@ -17320,7 +17319,7 @@
         <v>Bronze Ingot</v>
       </c>
       <c r="I5" s="45" t="str">
-        <f>[1]Enums!$A$132&amp;" "&amp;VLOOKUP(H5, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$134&amp;" "&amp;VLOOKUP(H5, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Composite Bronze</v>
       </c>
       <c r="J5" s="45">
@@ -17368,7 +17367,7 @@
         <v>Tungsten Carbide Ingot</v>
       </c>
       <c r="I6" s="45" t="str">
-        <f>[1]Enums!$A$132&amp;" "&amp;VLOOKUP(H6, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$134&amp;" "&amp;VLOOKUP(H6, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Composite Tungsten Carbide</v>
       </c>
       <c r="J6" s="45">
@@ -17416,7 +17415,7 @@
         <v>Nichrome Ingot</v>
       </c>
       <c r="I7" s="45" t="str">
-        <f>[1]Enums!$A$132&amp;" "&amp;VLOOKUP(H7, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$134&amp;" "&amp;VLOOKUP(H7, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Composite Nichrome</v>
       </c>
       <c r="J7" s="45">
@@ -17464,7 +17463,7 @@
         <v>Antimony-Lead Ingot</v>
       </c>
       <c r="I8" s="45" t="str">
-        <f>[1]Enums!$A$132&amp;" "&amp;VLOOKUP(H8, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$134&amp;" "&amp;VLOOKUP(H8, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Composite Antimony-Lead</v>
       </c>
       <c r="J8" s="45">
@@ -17512,7 +17511,7 @@
         <v>Steel Ingot</v>
       </c>
       <c r="I9" s="45" t="str">
-        <f>[1]Enums!$A$133&amp;" "&amp;VLOOKUP(H9, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$135&amp;" "&amp;VLOOKUP(H9, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Engineered Steel</v>
       </c>
       <c r="J9" s="45">
@@ -17560,7 +17559,7 @@
         <v>Stainless Steel Ingot</v>
       </c>
       <c r="I10" s="45" t="str">
-        <f>[1]Enums!$A$133&amp;" "&amp;VLOOKUP(H10, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$135&amp;" "&amp;VLOOKUP(H10, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Engineered Stainless Steel</v>
       </c>
       <c r="J10" s="45">
@@ -17608,7 +17607,7 @@
         <v>Brass Ingot</v>
       </c>
       <c r="I11" s="45" t="str">
-        <f>[1]Enums!$A$133&amp;" "&amp;VLOOKUP(H11, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$135&amp;" "&amp;VLOOKUP(H11, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Engineered Brass</v>
       </c>
       <c r="J11" s="45">
@@ -17656,7 +17655,7 @@
         <v>Bronze Ingot</v>
       </c>
       <c r="I12" s="45" t="str">
-        <f>[1]Enums!$A$133&amp;" "&amp;VLOOKUP(H12, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$135&amp;" "&amp;VLOOKUP(H12, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Engineered Bronze</v>
       </c>
       <c r="J12" s="45">
@@ -17704,7 +17703,7 @@
         <v>Tungsten Carbide Ingot</v>
       </c>
       <c r="I13" s="45" t="str">
-        <f>[1]Enums!$A$133&amp;" "&amp;VLOOKUP(H13, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$135&amp;" "&amp;VLOOKUP(H13, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Engineered Tungsten Carbide</v>
       </c>
       <c r="J13" s="45">
@@ -17752,7 +17751,7 @@
         <v>Nichrome Ingot</v>
       </c>
       <c r="I14" s="45" t="str">
-        <f>[1]Enums!$A$133&amp;" "&amp;VLOOKUP(H14, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$135&amp;" "&amp;VLOOKUP(H14, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Engineered Nichrome</v>
       </c>
       <c r="J14" s="45">
@@ -17800,7 +17799,7 @@
         <v>Antimony-Lead Ingot</v>
       </c>
       <c r="I15" s="45" t="str">
-        <f>[1]Enums!$A$133&amp;" "&amp;VLOOKUP(H15, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$135&amp;" "&amp;VLOOKUP(H15, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Engineered Antimony-Lead</v>
       </c>
       <c r="J15" s="45">
@@ -17848,7 +17847,7 @@
         <v>Iron Ingot</v>
       </c>
       <c r="I16" s="45" t="str">
-        <f>[1]Enums!$A$132&amp;" Iron"</f>
+        <f>[1]Enums!$A$134&amp;" Iron"</f>
         <v>Composite Iron</v>
       </c>
       <c r="J16" s="45">
@@ -17896,7 +17895,7 @@
         <v>Iron Ingot</v>
       </c>
       <c r="I17" s="45" t="str">
-        <f>[1]Enums!$A$133&amp;" Iron"</f>
+        <f>[1]Enums!$A$135&amp;" Iron"</f>
         <v>Engineered Iron</v>
       </c>
       <c r="J17" s="45">
@@ -17944,7 +17943,7 @@
         <v>Diamond</v>
       </c>
       <c r="I18" s="45" t="str">
-        <f>[1]Enums!$A$132&amp;" Diamond"</f>
+        <f>[1]Enums!$A$134&amp;" Diamond"</f>
         <v>Composite Diamond</v>
       </c>
       <c r="J18" s="45">
@@ -17992,7 +17991,7 @@
         <v>Diamond</v>
       </c>
       <c r="I19" s="45" t="str">
-        <f>[1]Enums!$A$133&amp;" Diamond"</f>
+        <f>[1]Enums!$A$135&amp;" Diamond"</f>
         <v>Engineered Diamond</v>
       </c>
       <c r="J19" s="45">
@@ -18293,7 +18292,7 @@
         <v>Molded Item</v>
       </c>
       <c r="F1" s="36" t="str">
-        <f xml:space="preserve"> [1]Enums!$A$97</f>
+        <f xml:space="preserve"> [1]Enums!$A$99</f>
         <v>Base Material</v>
       </c>
       <c r="G1" s="30" t="s">
@@ -18321,7 +18320,7 @@
         <v>1812</v>
       </c>
       <c r="C2" s="22" t="str">
-        <f>[1]Enums!$A$94&amp;" "&amp;D2</f>
+        <f>[1]Enums!$A$96&amp;" "&amp;D2</f>
         <v>Gripped Iron Shovel</v>
       </c>
       <c r="D2" s="24" t="str">
@@ -18333,7 +18332,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F2" s="34" t="str">
-        <f>[1]Enums!$A$100</f>
+        <f>[1]Enums!$A$102</f>
         <v>Iron</v>
       </c>
       <c r="G2" s="24">
@@ -18358,7 +18357,7 @@
         <v>1811</v>
       </c>
       <c r="C3" s="22" t="str">
-        <f>[1]Enums!$A$94&amp;" "&amp;D3</f>
+        <f>[1]Enums!$A$96&amp;" "&amp;D3</f>
         <v>Gripped Iron Pickaxe</v>
       </c>
       <c r="D3" s="21" t="str">
@@ -18370,7 +18369,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F3" s="34" t="str">
-        <f>[1]Enums!$A$100</f>
+        <f>[1]Enums!$A$102</f>
         <v>Iron</v>
       </c>
       <c r="G3" s="24">
@@ -18395,7 +18394,7 @@
         <v>1810</v>
       </c>
       <c r="C4" s="22" t="str">
-        <f>[1]Enums!$A$94&amp;" "&amp;D4</f>
+        <f>[1]Enums!$A$96&amp;" "&amp;D4</f>
         <v>Gripped Iron Axe</v>
       </c>
       <c r="D4" s="21" t="str">
@@ -18407,7 +18406,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F4" s="34" t="str">
-        <f>[1]Enums!$A$100</f>
+        <f>[1]Enums!$A$102</f>
         <v>Iron</v>
       </c>
       <c r="G4" s="24">
@@ -18432,7 +18431,7 @@
         <v>1809</v>
       </c>
       <c r="C5" s="22" t="str">
-        <f>[1]Enums!$A$94&amp;" "&amp;D5</f>
+        <f>[1]Enums!$A$96&amp;" "&amp;D5</f>
         <v>Gripped Iron Sword</v>
       </c>
       <c r="D5" s="21" t="str">
@@ -18444,7 +18443,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F5" s="34" t="str">
-        <f>[1]Enums!$A$100</f>
+        <f>[1]Enums!$A$102</f>
         <v>Iron</v>
       </c>
       <c r="G5" s="24">
@@ -18469,7 +18468,7 @@
         <v>1808</v>
       </c>
       <c r="C6" s="22" t="str">
-        <f>[1]Enums!$A$94&amp;" "&amp;D6</f>
+        <f>[1]Enums!$A$96&amp;" "&amp;D6</f>
         <v>Gripped Wooden Sword</v>
       </c>
       <c r="D6" s="21" t="str">
@@ -18481,7 +18480,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F6" s="34" t="str">
-        <f>[1]Enums!$A$98</f>
+        <f>[1]Enums!$A$100</f>
         <v>Wooden</v>
       </c>
       <c r="G6" s="24">
@@ -18506,7 +18505,7 @@
         <v>1807</v>
       </c>
       <c r="C7" s="22" t="str">
-        <f>[1]Enums!$A$94&amp;" "&amp;D7</f>
+        <f>[1]Enums!$A$96&amp;" "&amp;D7</f>
         <v>Gripped Wooden Shovel</v>
       </c>
       <c r="D7" s="21" t="str">
@@ -18518,7 +18517,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F7" s="34" t="str">
-        <f>[1]Enums!$A$98</f>
+        <f>[1]Enums!$A$100</f>
         <v>Wooden</v>
       </c>
       <c r="G7" s="24">
@@ -18543,7 +18542,7 @@
         <v>1806</v>
       </c>
       <c r="C8" s="22" t="str">
-        <f>[1]Enums!$A$94&amp;" "&amp;D8</f>
+        <f>[1]Enums!$A$96&amp;" "&amp;D8</f>
         <v>Gripped Wooden Pickaxe</v>
       </c>
       <c r="D8" s="21" t="str">
@@ -18555,7 +18554,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F8" s="34" t="str">
-        <f>[1]Enums!$A$98</f>
+        <f>[1]Enums!$A$100</f>
         <v>Wooden</v>
       </c>
       <c r="G8" s="24">
@@ -18580,7 +18579,7 @@
         <v>1805</v>
       </c>
       <c r="C9" s="22" t="str">
-        <f>[1]Enums!$A$94&amp;" "&amp;D9</f>
+        <f>[1]Enums!$A$96&amp;" "&amp;D9</f>
         <v>Gripped Wooden Axe</v>
       </c>
       <c r="D9" s="21" t="str">
@@ -18592,7 +18591,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F9" s="34" t="str">
-        <f>[1]Enums!$A$98</f>
+        <f>[1]Enums!$A$100</f>
         <v>Wooden</v>
       </c>
       <c r="G9" s="24">
@@ -18617,7 +18616,7 @@
         <v>1804</v>
       </c>
       <c r="C10" s="22" t="str">
-        <f>[1]Enums!$A$94&amp;" "&amp;D10</f>
+        <f>[1]Enums!$A$96&amp;" "&amp;D10</f>
         <v>Gripped Stone Sword</v>
       </c>
       <c r="D10" s="21" t="str">
@@ -18629,7 +18628,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F10" s="34" t="str">
-        <f>[1]Enums!$A$99</f>
+        <f>[1]Enums!$A$101</f>
         <v>Stone</v>
       </c>
       <c r="G10" s="24">
@@ -18654,7 +18653,7 @@
         <v>1803</v>
       </c>
       <c r="C11" s="22" t="str">
-        <f>[1]Enums!$A$94&amp;" "&amp;D11</f>
+        <f>[1]Enums!$A$96&amp;" "&amp;D11</f>
         <v>Gripped Stone Shovel</v>
       </c>
       <c r="D11" s="21" t="str">
@@ -18666,7 +18665,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F11" s="34" t="str">
-        <f>[1]Enums!$A$99</f>
+        <f>[1]Enums!$A$101</f>
         <v>Stone</v>
       </c>
       <c r="G11" s="24">
@@ -18691,7 +18690,7 @@
         <v>1802</v>
       </c>
       <c r="C12" s="22" t="str">
-        <f>[1]Enums!$A$94&amp;" "&amp;D12</f>
+        <f>[1]Enums!$A$96&amp;" "&amp;D12</f>
         <v>Gripped Stone Pickaxe</v>
       </c>
       <c r="D12" s="21" t="str">
@@ -18703,7 +18702,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F12" s="34" t="str">
-        <f>[1]Enums!$A$99</f>
+        <f>[1]Enums!$A$101</f>
         <v>Stone</v>
       </c>
       <c r="G12" s="24">
@@ -18728,7 +18727,7 @@
         <v>1801</v>
       </c>
       <c r="C13" s="22" t="str">
-        <f>[1]Enums!$A$94&amp;" "&amp;D13</f>
+        <f>[1]Enums!$A$96&amp;" "&amp;D13</f>
         <v>Gripped Stone Axe</v>
       </c>
       <c r="D13" s="21" t="str">
@@ -18740,7 +18739,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F13" s="34" t="str">
-        <f>[1]Enums!$A$99</f>
+        <f>[1]Enums!$A$101</f>
         <v>Stone</v>
       </c>
       <c r="G13" s="24">
@@ -18765,7 +18764,7 @@
         <v>1800</v>
       </c>
       <c r="C14" s="22" t="str">
-        <f>[1]Enums!$A$94&amp;" "&amp;D14</f>
+        <f>[1]Enums!$A$96&amp;" "&amp;D14</f>
         <v>Gripped Diamond Sword</v>
       </c>
       <c r="D14" s="21" t="str">
@@ -18777,7 +18776,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F14" s="34" t="str">
-        <f>[1]Enums!$A$102</f>
+        <f>[1]Enums!$A$104</f>
         <v>Diamond</v>
       </c>
       <c r="G14" s="24">
@@ -18802,7 +18801,7 @@
         <v>1799</v>
       </c>
       <c r="C15" s="22" t="str">
-        <f>[1]Enums!$A$94&amp;" "&amp;D15</f>
+        <f>[1]Enums!$A$96&amp;" "&amp;D15</f>
         <v>Gripped Diamond Shovel</v>
       </c>
       <c r="D15" s="21" t="str">
@@ -18814,7 +18813,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F15" s="34" t="str">
-        <f>[1]Enums!$A$102</f>
+        <f>[1]Enums!$A$104</f>
         <v>Diamond</v>
       </c>
       <c r="G15" s="24">
@@ -18839,7 +18838,7 @@
         <v>1798</v>
       </c>
       <c r="C16" s="22" t="str">
-        <f>[1]Enums!$A$94&amp;" "&amp;D16</f>
+        <f>[1]Enums!$A$96&amp;" "&amp;D16</f>
         <v>Gripped Diamond Pickaxe</v>
       </c>
       <c r="D16" s="21" t="str">
@@ -18851,7 +18850,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F16" s="34" t="str">
-        <f>[1]Enums!$A$102</f>
+        <f>[1]Enums!$A$104</f>
         <v>Diamond</v>
       </c>
       <c r="G16" s="24">
@@ -18876,7 +18875,7 @@
         <v>1797</v>
       </c>
       <c r="C17" s="22" t="str">
-        <f>[1]Enums!$A$94&amp;" "&amp;D17</f>
+        <f>[1]Enums!$A$96&amp;" "&amp;D17</f>
         <v>Gripped Diamond Axe</v>
       </c>
       <c r="D17" s="21" t="str">
@@ -18888,7 +18887,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F17" s="34" t="str">
-        <f>[1]Enums!$A$102</f>
+        <f>[1]Enums!$A$104</f>
         <v>Diamond</v>
       </c>
       <c r="G17" s="24">
@@ -18913,7 +18912,7 @@
         <v>1796</v>
       </c>
       <c r="C18" s="22" t="str">
-        <f>[1]Enums!$A$94&amp;" "&amp;D18</f>
+        <f>[1]Enums!$A$96&amp;" "&amp;D18</f>
         <v>Gripped Golden Sword</v>
       </c>
       <c r="D18" s="21" t="str">
@@ -18925,7 +18924,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F18" s="34" t="str">
-        <f>[1]Enums!$A$101</f>
+        <f>[1]Enums!$A$103</f>
         <v>Golden</v>
       </c>
       <c r="G18" s="24">
@@ -18950,7 +18949,7 @@
         <v>1795</v>
       </c>
       <c r="C19" s="22" t="str">
-        <f>[1]Enums!$A$94&amp;" "&amp;D19</f>
+        <f>[1]Enums!$A$96&amp;" "&amp;D19</f>
         <v>Gripped Golden Shovel</v>
       </c>
       <c r="D19" s="21" t="str">
@@ -18962,7 +18961,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F19" s="34" t="str">
-        <f>[1]Enums!$A$101</f>
+        <f>[1]Enums!$A$103</f>
         <v>Golden</v>
       </c>
       <c r="G19" s="24">
@@ -18987,7 +18986,7 @@
         <v>1794</v>
       </c>
       <c r="C20" s="22" t="str">
-        <f>[1]Enums!$A$94&amp;" "&amp;D20</f>
+        <f>[1]Enums!$A$96&amp;" "&amp;D20</f>
         <v>Gripped Golden Pickaxe</v>
       </c>
       <c r="D20" s="21" t="str">
@@ -18999,7 +18998,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F20" s="34" t="str">
-        <f>[1]Enums!$A$101</f>
+        <f>[1]Enums!$A$103</f>
         <v>Golden</v>
       </c>
       <c r="G20" s="24">
@@ -19024,7 +19023,7 @@
         <v>1793</v>
       </c>
       <c r="C21" s="22" t="str">
-        <f>[1]Enums!$A$94&amp;" "&amp;D21</f>
+        <f>[1]Enums!$A$96&amp;" "&amp;D21</f>
         <v>Gripped Golden Axe</v>
       </c>
       <c r="D21" s="21" t="str">
@@ -19036,7 +19035,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F21" s="34" t="str">
-        <f>[1]Enums!$A$101</f>
+        <f>[1]Enums!$A$103</f>
         <v>Golden</v>
       </c>
       <c r="G21" s="24">
@@ -19061,7 +19060,7 @@
         <v>1792</v>
       </c>
       <c r="C22" s="22" t="str">
-        <f>[1]Enums!$A$94&amp;" "&amp;D22</f>
+        <f>[1]Enums!$A$96&amp;" "&amp;D22</f>
         <v>Gripped Wooden Hoe</v>
       </c>
       <c r="D22" s="21" t="str">
@@ -19073,7 +19072,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F22" s="34" t="str">
-        <f>[1]Enums!$A$98</f>
+        <f>[1]Enums!$A$100</f>
         <v>Wooden</v>
       </c>
       <c r="G22" s="24">
@@ -19098,7 +19097,7 @@
         <v>1791</v>
       </c>
       <c r="C23" s="22" t="str">
-        <f>[1]Enums!$A$94&amp;" "&amp;D23</f>
+        <f>[1]Enums!$A$96&amp;" "&amp;D23</f>
         <v>Gripped Stone Hoe</v>
       </c>
       <c r="D23" s="21" t="str">
@@ -19110,7 +19109,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F23" s="34" t="str">
-        <f>[1]Enums!$A$99</f>
+        <f>[1]Enums!$A$101</f>
         <v>Stone</v>
       </c>
       <c r="G23" s="24">
@@ -19135,7 +19134,7 @@
         <v>1790</v>
       </c>
       <c r="C24" s="22" t="str">
-        <f>[1]Enums!$A$94&amp;" "&amp;D24</f>
+        <f>[1]Enums!$A$96&amp;" "&amp;D24</f>
         <v>Gripped Iron Hoe</v>
       </c>
       <c r="D24" s="21" t="str">
@@ -19147,7 +19146,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F24" s="34" t="str">
-        <f>[1]Enums!$A$100</f>
+        <f>[1]Enums!$A$102</f>
         <v>Iron</v>
       </c>
       <c r="G24" s="24">
@@ -19172,7 +19171,7 @@
         <v>1789</v>
       </c>
       <c r="C25" s="22" t="str">
-        <f>[1]Enums!$A$94&amp;" "&amp;D25</f>
+        <f>[1]Enums!$A$96&amp;" "&amp;D25</f>
         <v>Gripped Diamond Hoe</v>
       </c>
       <c r="D25" s="21" t="str">
@@ -19184,7 +19183,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F25" s="34" t="str">
-        <f>[1]Enums!$A$102</f>
+        <f>[1]Enums!$A$104</f>
         <v>Diamond</v>
       </c>
       <c r="G25" s="24">
@@ -19209,7 +19208,7 @@
         <v>1788</v>
       </c>
       <c r="C26" s="22" t="str">
-        <f>[1]Enums!$A$94&amp;" "&amp;D26</f>
+        <f>[1]Enums!$A$96&amp;" "&amp;D26</f>
         <v>Gripped Golden Hoe</v>
       </c>
       <c r="D26" s="21" t="str">
@@ -19221,7 +19220,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F26" s="34" t="str">
-        <f>[1]Enums!$A$101</f>
+        <f>[1]Enums!$A$103</f>
         <v>Golden</v>
       </c>
       <c r="G26" s="24">
@@ -19283,7 +19282,7 @@
         <v>1832</v>
       </c>
       <c r="D1" s="36" t="str">
-        <f xml:space="preserve"> [1]Enums!$A$97</f>
+        <f xml:space="preserve"> [1]Enums!$A$99</f>
         <v>Base Material</v>
       </c>
       <c r="E1" s="36" t="s">
@@ -19329,7 +19328,7 @@
         <v>Wooden Pogo Stick</v>
       </c>
       <c r="D2" s="34" t="str">
-        <f>[1]Enums!$A$98</f>
+        <f>[1]Enums!$A$100</f>
         <v>Wooden</v>
       </c>
       <c r="E2" s="37">
@@ -19366,7 +19365,7 @@
         <v>Stone Pogo Stick</v>
       </c>
       <c r="D3" s="34" t="str">
-        <f>[1]Enums!$A$99</f>
+        <f>[1]Enums!$A$101</f>
         <v>Stone</v>
       </c>
       <c r="E3" s="37">
@@ -19402,7 +19401,7 @@
         <v>Iron Pogo Stick</v>
       </c>
       <c r="D4" s="34" t="str">
-        <f>[1]Enums!$A$100</f>
+        <f>[1]Enums!$A$102</f>
         <v>Iron</v>
       </c>
       <c r="E4" s="37">
@@ -19438,7 +19437,7 @@
         <v>Golden Pogo Stick</v>
       </c>
       <c r="D5" s="34" t="str">
-        <f>[1]Enums!$A$101</f>
+        <f>[1]Enums!$A$103</f>
         <v>Golden</v>
       </c>
       <c r="E5" s="37">
@@ -19474,7 +19473,7 @@
         <v>Diamond Pogo Stick</v>
       </c>
       <c r="D6" s="34" t="str">
-        <f>[1]Enums!$A$102</f>
+        <f>[1]Enums!$A$104</f>
         <v>Diamond</v>
       </c>
       <c r="E6" s="37">
@@ -19510,7 +19509,7 @@
         <v>Magic Pogo Stick</v>
       </c>
       <c r="D7" s="34" t="str">
-        <f>[1]Enums!$A$103</f>
+        <f>[1]Enums!$A$105</f>
         <v>Magic</v>
       </c>
       <c r="E7" s="37">
@@ -19542,11 +19541,11 @@
         <v>1821</v>
       </c>
       <c r="C8" s="34" t="str">
-        <f>[1]Enums!$A$94&amp;" "&amp;I8</f>
+        <f>[1]Enums!$A$96&amp;" "&amp;I8</f>
         <v>Gripped Wooden Pogo Stick</v>
       </c>
       <c r="D8" s="34" t="str">
-        <f>[1]Enums!$A$98</f>
+        <f>[1]Enums!$A$100</f>
         <v>Wooden</v>
       </c>
       <c r="E8" s="37">
@@ -19586,11 +19585,11 @@
         <v>1820</v>
       </c>
       <c r="C9" s="34" t="str">
-        <f>[1]Enums!$A$94&amp;" "&amp;I9</f>
+        <f>[1]Enums!$A$96&amp;" "&amp;I9</f>
         <v>Gripped Stone Pogo Stick</v>
       </c>
       <c r="D9" s="34" t="str">
-        <f>[1]Enums!$A$99</f>
+        <f>[1]Enums!$A$101</f>
         <v>Stone</v>
       </c>
       <c r="E9" s="37">
@@ -19630,11 +19629,11 @@
         <v>1819</v>
       </c>
       <c r="C10" s="34" t="str">
-        <f>[1]Enums!$A$94&amp;" "&amp;I10</f>
+        <f>[1]Enums!$A$96&amp;" "&amp;I10</f>
         <v>Gripped Iron Pogo Stick</v>
       </c>
       <c r="D10" s="34" t="str">
-        <f>[1]Enums!$A$100</f>
+        <f>[1]Enums!$A$102</f>
         <v>Iron</v>
       </c>
       <c r="E10" s="37">
@@ -19674,11 +19673,11 @@
         <v>1818</v>
       </c>
       <c r="C11" s="34" t="str">
-        <f>[1]Enums!$A$94&amp;" "&amp;I11</f>
+        <f>[1]Enums!$A$96&amp;" "&amp;I11</f>
         <v>Gripped Golden Pogo Stick</v>
       </c>
       <c r="D11" s="34" t="str">
-        <f>[1]Enums!$A$101</f>
+        <f>[1]Enums!$A$103</f>
         <v>Golden</v>
       </c>
       <c r="E11" s="37">
@@ -19718,11 +19717,11 @@
         <v>1817</v>
       </c>
       <c r="C12" s="34" t="str">
-        <f>[1]Enums!$A$94&amp;" "&amp;I12</f>
+        <f>[1]Enums!$A$96&amp;" "&amp;I12</f>
         <v>Gripped Diamond Pogo Stick</v>
       </c>
       <c r="D12" s="34" t="str">
-        <f>[1]Enums!$A$102</f>
+        <f>[1]Enums!$A$104</f>
         <v>Diamond</v>
       </c>
       <c r="E12" s="37">
@@ -19821,7 +19820,7 @@
   </sheetPr>
   <dimension ref="A1:N115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
@@ -37804,7 +37803,7 @@
         <v>590</v>
       </c>
       <c r="D1" s="7" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$71</f>
+        <f xml:space="preserve"> [1]Enums!$B$73</f>
         <v>Mold Type</v>
       </c>
       <c r="E1" s="19" t="str">
@@ -37828,7 +37827,7 @@
         <v>Mold (Grip)</v>
       </c>
       <c r="D2" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$75</f>
+        <f xml:space="preserve"> [1]Enums!$B$77</f>
         <v>Mold</v>
       </c>
       <c r="E2" s="11" t="str">
@@ -37853,7 +37852,7 @@
         <v>Mold (Running Shoes)</v>
       </c>
       <c r="D3" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$75</f>
+        <f xml:space="preserve"> [1]Enums!$B$77</f>
         <v>Mold</v>
       </c>
       <c r="E3" s="11" t="str">
@@ -37878,7 +37877,7 @@
         <v>Mold (Scuba Fins)</v>
       </c>
       <c r="D4" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$75</f>
+        <f xml:space="preserve"> [1]Enums!$B$77</f>
         <v>Mold</v>
       </c>
       <c r="E4" s="11" t="str">
@@ -37903,7 +37902,7 @@
         <v>Mold (Scuba Mask)</v>
       </c>
       <c r="D5" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$75</f>
+        <f xml:space="preserve"> [1]Enums!$B$77</f>
         <v>Mold</v>
       </c>
       <c r="E5" s="11" t="str">
@@ -37928,7 +37927,7 @@
         <v>Mold (Gasket)</v>
       </c>
       <c r="D6" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$75</f>
+        <f xml:space="preserve"> [1]Enums!$B$77</f>
         <v>Mold</v>
       </c>
       <c r="E6" s="11" t="str">
@@ -37953,7 +37952,7 @@
         <v>Mold (Life Preserver)</v>
       </c>
       <c r="D7" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$75</f>
+        <f xml:space="preserve"> [1]Enums!$B$77</f>
         <v>Mold</v>
       </c>
       <c r="E7" s="11" t="str">
@@ -37978,7 +37977,7 @@
         <v>Metal Die (Fibers)</v>
       </c>
       <c r="D8" s="2" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$76</f>
+        <f xml:space="preserve"> [1]Enums!$B$78</f>
         <v>Metal Die</v>
       </c>
       <c r="E8" s="11" t="str">
@@ -38003,7 +38002,7 @@
         <v>Metal Die (Tether)</v>
       </c>
       <c r="D9" s="2" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$76</f>
+        <f xml:space="preserve"> [1]Enums!$B$78</f>
         <v>Metal Die</v>
       </c>
       <c r="E9" s="11" t="str">
@@ -38028,7 +38027,7 @@
         <v>Metal Die (Cord)</v>
       </c>
       <c r="D10" s="2" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$76</f>
+        <f xml:space="preserve"> [1]Enums!$B$78</f>
         <v>Metal Die</v>
       </c>
       <c r="E10" s="11" t="str">
@@ -38053,7 +38052,7 @@
         <v>Metal Die (Hose)</v>
       </c>
       <c r="D11" s="2" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$76</f>
+        <f xml:space="preserve"> [1]Enums!$B$78</f>
         <v>Metal Die</v>
       </c>
       <c r="E11" s="11" t="str">
@@ -38078,7 +38077,7 @@
         <v>Metal Die (Large Pipe)</v>
       </c>
       <c r="D12" s="2" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$76</f>
+        <f xml:space="preserve"> [1]Enums!$B$78</f>
         <v>Metal Die</v>
       </c>
       <c r="E12" s="11" t="str">
@@ -38103,7 +38102,7 @@
         <v>Mold (Flashlight Shaft)</v>
       </c>
       <c r="D13" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$75</f>
+        <f xml:space="preserve"> [1]Enums!$B$77</f>
         <v>Mold</v>
       </c>
       <c r="E13" s="11" t="str">
@@ -38127,7 +38126,7 @@
         <v>Mold (Plastic Brick (1 x 1))</v>
       </c>
       <c r="D14" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$75</f>
+        <f xml:space="preserve"> [1]Enums!$B$77</f>
         <v>Mold</v>
       </c>
       <c r="E14" t="str">
@@ -38151,7 +38150,7 @@
         <v>Mold (Plastic Brick (1 x 2))</v>
       </c>
       <c r="D15" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$75</f>
+        <f xml:space="preserve"> [1]Enums!$B$77</f>
         <v>Mold</v>
       </c>
       <c r="E15" t="str">
@@ -38175,7 +38174,7 @@
         <v>Mold (Plastic Brick (1 x 3))</v>
       </c>
       <c r="D16" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$75</f>
+        <f xml:space="preserve"> [1]Enums!$B$77</f>
         <v>Mold</v>
       </c>
       <c r="E16" t="str">
@@ -38199,7 +38198,7 @@
         <v>Mold (Plastic Brick (1 x 4))</v>
       </c>
       <c r="D17" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$75</f>
+        <f xml:space="preserve"> [1]Enums!$B$77</f>
         <v>Mold</v>
       </c>
       <c r="E17" t="str">
@@ -38223,7 +38222,7 @@
         <v>Mold (Plastic Brick (2 x 2))</v>
       </c>
       <c r="D18" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$75</f>
+        <f xml:space="preserve"> [1]Enums!$B$77</f>
         <v>Mold</v>
       </c>
       <c r="E18" t="str">
@@ -38247,7 +38246,7 @@
         <v>Mold (Plastic Brick (2 x 3))</v>
       </c>
       <c r="D19" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$75</f>
+        <f xml:space="preserve"> [1]Enums!$B$77</f>
         <v>Mold</v>
       </c>
       <c r="E19" t="str">
@@ -38271,7 +38270,7 @@
         <v>Mold (Plastic Brick (2 x 4))</v>
       </c>
       <c r="D20" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$75</f>
+        <f xml:space="preserve"> [1]Enums!$B$77</f>
         <v>Mold</v>
       </c>
       <c r="E20" t="str">
@@ -38295,7 +38294,7 @@
         <v>Mold (Plastic Brick (3 x 3))</v>
       </c>
       <c r="D21" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$75</f>
+        <f xml:space="preserve"> [1]Enums!$B$77</f>
         <v>Mold</v>
       </c>
       <c r="E21" t="str">
@@ -38319,7 +38318,7 @@
         <v>Mold (Plastic Brick (3 x 4))</v>
       </c>
       <c r="D22" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$75</f>
+        <f xml:space="preserve"> [1]Enums!$B$77</f>
         <v>Mold</v>
       </c>
       <c r="E22" t="str">
@@ -38343,7 +38342,7 @@
         <v>Mold (Plastic Brick (4 x 4))</v>
       </c>
       <c r="D23" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$75</f>
+        <f xml:space="preserve"> [1]Enums!$B$77</f>
         <v>Mold</v>
       </c>
       <c r="E23" t="str">
@@ -38367,7 +38366,7 @@
         <v>Mold (Plastic Brick (1 x 8))</v>
       </c>
       <c r="D24" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$75</f>
+        <f xml:space="preserve"> [1]Enums!$B$77</f>
         <v>Mold</v>
       </c>
       <c r="E24" t="str">
@@ -38391,7 +38390,7 @@
         <v>Mold (Plastic Brick (2 x 8))</v>
       </c>
       <c r="D25" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$75</f>
+        <f xml:space="preserve"> [1]Enums!$B$77</f>
         <v>Mold</v>
       </c>
       <c r="E25" t="str">
@@ -38415,7 +38414,7 @@
         <v>Mold (Heated Knife Handle)</v>
       </c>
       <c r="D26" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$75</f>
+        <f xml:space="preserve"> [1]Enums!$B$77</f>
         <v>Mold</v>
       </c>
       <c r="E26" s="11" t="str">
@@ -38439,7 +38438,7 @@
         <v>Mold (Rubber Sole)</v>
       </c>
       <c r="D27" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$75</f>
+        <f xml:space="preserve"> [1]Enums!$B$77</f>
         <v>Mold</v>
       </c>
       <c r="E27" s="11" t="str">
@@ -38463,7 +38462,7 @@
         <v>Mold (Battery Case)</v>
       </c>
       <c r="D28" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$75</f>
+        <f xml:space="preserve"> [1]Enums!$B$77</f>
         <v>Mold</v>
       </c>
       <c r="E28" s="11" t="str">
@@ -38487,7 +38486,7 @@
         <v>Mold (Tool Shaft)</v>
       </c>
       <c r="D29" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$75</f>
+        <f xml:space="preserve"> [1]Enums!$B$77</f>
         <v>Mold</v>
       </c>
       <c r="E29" t="str">
@@ -38511,7 +38510,7 @@
         <v>Mold (Lighter Body)</v>
       </c>
       <c r="D30" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$75</f>
+        <f xml:space="preserve"> [1]Enums!$B$77</f>
         <v>Mold</v>
       </c>
       <c r="E30" t="str">
@@ -38534,8 +38533,8 @@
   </sheetPr>
   <dimension ref="A1:U156"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="G154" sqref="G154"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/config/Polycraft Polymers.xlsx
+++ b/config/Polycraft Polymers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="22080" yWindow="0" windowWidth="27240" windowHeight="14310" tabRatio="826" activeTab="7"/>
+    <workbookView xWindow="23940" yWindow="0" windowWidth="27240" windowHeight="14310" tabRatio="826" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Pellets" sheetId="1" r:id="rId1"/>
@@ -29889,8 +29889,8 @@
   </sheetPr>
   <dimension ref="A1:G333"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="I124" sqref="I124"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -38533,7 +38533,7 @@
   </sheetPr>
   <dimension ref="A1:U156"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>

--- a/config/Polycraft Polymers.xlsx
+++ b/config/Polycraft Polymers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="23940" yWindow="0" windowWidth="27240" windowHeight="14310" tabRatio="826" activeTab="4"/>
+    <workbookView xWindow="24870" yWindow="0" windowWidth="27240" windowHeight="14310" tabRatio="826" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Pellets" sheetId="1" r:id="rId1"/>
@@ -9488,7 +9488,7 @@
         </row>
         <row r="12">
           <cell r="B12" t="str">
-            <v>Large Pipe</v>
+            <v>Pipe Segment</v>
           </cell>
         </row>
         <row r="13">
@@ -29889,7 +29889,7 @@
   </sheetPr>
   <dimension ref="A1:G333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
@@ -37779,7 +37779,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -38074,7 +38074,7 @@
       </c>
       <c r="C12" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Metal Die (Large Pipe)</v>
+        <v>Metal Die (Pipe Segment)</v>
       </c>
       <c r="D12" s="2" t="str">
         <f xml:space="preserve"> [1]Enums!$B$78</f>
@@ -38082,7 +38082,7 @@
       </c>
       <c r="E12" s="11" t="str">
         <f xml:space="preserve"> '[1]Polymer Objects'!$B$12</f>
-        <v>Large Pipe</v>
+        <v>Pipe Segment</v>
       </c>
       <c r="F12">
         <v>8192</v>
@@ -38533,8 +38533,8 @@
   </sheetPr>
   <dimension ref="A1:U156"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -40173,11 +40173,11 @@
       </c>
       <c r="C30" s="22" t="str">
         <f xml:space="preserve"> VLOOKUP(D30, Molds!C:E, 3, FALSE)&amp;" ("&amp;F30&amp;")"</f>
-        <v>Large Pipe (PP)</v>
+        <v>Pipe Segment (PP)</v>
       </c>
       <c r="D30" s="24" t="str">
         <f xml:space="preserve"> Molds!C12</f>
-        <v>Metal Die (Large Pipe)</v>
+        <v>Metal Die (Pipe Segment)</v>
       </c>
       <c r="E30" s="22" t="str">
         <f>Pellets!$F$84</f>

--- a/config/Polycraft Polymers.xlsx
+++ b/config/Polycraft Polymers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24870" yWindow="0" windowWidth="27240" windowHeight="14310" tabRatio="826" activeTab="7"/>
+    <workbookView xWindow="25800" yWindow="0" windowWidth="27240" windowHeight="14310" tabRatio="826" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Pellets" sheetId="1" r:id="rId1"/>

--- a/config/Polycraft Polymers.xlsx
+++ b/config/Polycraft Polymers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25800" yWindow="0" windowWidth="27240" windowHeight="14310" tabRatio="826" activeTab="7"/>
+    <workbookView xWindow="27660" yWindow="0" windowWidth="27240" windowHeight="14310" tabRatio="826"/>
   </bookViews>
   <sheets>
     <sheet name="Pellets" sheetId="1" r:id="rId1"/>
@@ -7886,108 +7886,108 @@
             <v>1.1.2</v>
           </cell>
         </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>Bag</v>
-          </cell>
-        </row>
         <row r="26">
           <cell r="A26" t="str">
+            <v>Bag</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
             <v>Vial</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>Sack</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
+            <v>Sack</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
             <v>Beaker</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>Powder Keg</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
+            <v>Powder Keg</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
             <v>Drum</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>Chemical Silo</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
+            <v>Chemical Silo</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
             <v>Chemical Vat</v>
           </cell>
         </row>
-        <row r="73">
-          <cell r="B73" t="str">
+        <row r="74">
+          <cell r="B74" t="str">
             <v>Mold Type</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="B77" t="str">
-            <v>Mold</v>
           </cell>
         </row>
         <row r="78">
           <cell r="B78" t="str">
+            <v>Mold</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79" t="str">
             <v>Metal Die</v>
           </cell>
         </row>
-        <row r="96">
-          <cell r="A96" t="str">
+        <row r="97">
+          <cell r="A97" t="str">
             <v>Gripped</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="A99" t="str">
-            <v>Base Material</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100" t="str">
-            <v>Wooden</v>
+            <v>Base Material</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101" t="str">
-            <v>Stone</v>
+            <v>Wooden</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102" t="str">
-            <v>Iron</v>
+            <v>Stone</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103" t="str">
-            <v>Golden</v>
+            <v>Iron</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104" t="str">
-            <v>Diamond</v>
+            <v>Golden</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105" t="str">
+            <v>Diamond</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="A106" t="str">
             <v>Magic</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="A134" t="str">
-            <v>Composite</v>
           </cell>
         </row>
         <row r="135">
           <cell r="A135" t="str">
+            <v>Composite</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="A136" t="str">
             <v>Engineered</v>
           </cell>
         </row>
@@ -10149,8 +10149,8 @@
   </sheetPr>
   <dimension ref="A1:N333"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10192,19 +10192,19 @@
         <v>Game ID XL</v>
       </c>
       <c r="F1" s="5" t="str">
-        <f xml:space="preserve"> [1]Enums!$A$25&amp;" ("&amp;J1&amp;")"</f>
+        <f xml:space="preserve"> [1]Enums!$A$26&amp;" ("&amp;J1&amp;")"</f>
         <v>Bag (Pellets)</v>
       </c>
       <c r="G1" s="5" t="str">
-        <f xml:space="preserve"> [1]Enums!$A$28&amp;" ("&amp;J1&amp;")"</f>
+        <f xml:space="preserve"> [1]Enums!$A$29&amp;" ("&amp;J1&amp;")"</f>
         <v>Sack (Pellets)</v>
       </c>
       <c r="H1" s="5" t="str">
-        <f xml:space="preserve"> [1]Enums!$A$31&amp;" ("&amp;J1&amp;")"</f>
+        <f xml:space="preserve"> [1]Enums!$A$32&amp;" ("&amp;J1&amp;")"</f>
         <v>Powder Keg (Pellets)</v>
       </c>
       <c r="I1" s="5" t="str">
-        <f xml:space="preserve"> [1]Enums!$A$34&amp;" ("&amp;J1&amp;")"</f>
+        <f xml:space="preserve"> [1]Enums!$A$35&amp;" ("&amp;J1&amp;")"</f>
         <v>Chemical Silo (Pellets)</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -10240,19 +10240,19 @@
         <v>448</v>
       </c>
       <c r="F2" s="1" t="str">
-        <f>IF($N2, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N2, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
         <v>Vial (Acrylic-Formaldehyde Resin)</v>
       </c>
       <c r="G2" s="1" t="str">
-        <f>IF($N2, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N2, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
         <v>Beaker (Acrylic-Formaldehyde Resin)</v>
       </c>
       <c r="H2" s="1" t="str">
-        <f>IF($N2, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N2, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
         <v>Drum (Acrylic-Formaldehyde Resin)</v>
       </c>
       <c r="I2" s="1" t="str">
-        <f>IF($N2, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N2, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Vat (Acrylic-Formaldehyde Resin)</v>
       </c>
       <c r="J2" s="1" t="str">
@@ -10292,19 +10292,19 @@
         <v>444</v>
       </c>
       <c r="F3" s="1" t="str">
-        <f>IF($N3, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N3, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Acrylonitrile-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f>IF($N3, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N3, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Acrylonitrile-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="H3" s="1" t="str">
-        <f>IF($N3, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N3, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Acrylonitrile-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="I3" s="1" t="str">
-        <f>IF($N3, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N3, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Acrylonitrile-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="J3" s="1" t="str">
@@ -10341,19 +10341,19 @@
         <v>440</v>
       </c>
       <c r="F4" s="1" t="str">
-        <f>IF($N4, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N4, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
         <v>Vial (Alkyd Resin)</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f>IF($N4, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N4, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
         <v>Beaker (Alkyd Resin)</v>
       </c>
       <c r="H4" s="1" t="str">
-        <f>IF($N4, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N4, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
         <v>Drum (Alkyd Resin)</v>
       </c>
       <c r="I4" s="1" t="str">
-        <f>IF($N4, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N4, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Vat (Alkyd Resin)</v>
       </c>
       <c r="J4" s="1" t="str">
@@ -10393,19 +10393,19 @@
         <v>436</v>
       </c>
       <c r="F5" s="1" t="str">
-        <f>IF($N5, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N5, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Amorphous PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="G5" s="1" t="str">
-        <f>IF($N5, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N5, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Amorphous PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="H5" s="1" t="str">
-        <f>IF($N5, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N5, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Amorphous PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="I5" s="1" t="str">
-        <f>IF($N5, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N5, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Amorphous PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="J5" s="1" t="str">
@@ -10445,19 +10445,19 @@
         <v>432</v>
       </c>
       <c r="F6" s="1" t="str">
-        <f>IF($N6, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N6, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Bromine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f>IF($N6, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N6, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Bromine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="H6" s="1" t="str">
-        <f>IF($N6, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N6, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Bromine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="I6" s="1" t="str">
-        <f>IF($N6, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N6, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Bromine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="J6" s="1" t="str">
@@ -10497,19 +10497,19 @@
         <v>428</v>
       </c>
       <c r="F7" s="1" t="str">
-        <f>IF($N7, [1]Enums!$A$25, [1]Enums!$A$25)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N7, [1]Enums!$A$26, [1]Enums!$A$26)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Carbon Fiber)</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f>IF($N7, [1]Enums!$A$28, [1]Enums!$A$28)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N7, [1]Enums!$A$29, [1]Enums!$A$29)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Carbon Fiber)</v>
       </c>
       <c r="H7" s="1" t="str">
-        <f>IF($N7, [1]Enums!$A$31, [1]Enums!$A$31)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N7, [1]Enums!$A$32, [1]Enums!$A$32)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Carbon Fiber)</v>
       </c>
       <c r="I7" s="1" t="str">
-        <f>IF($N7, [1]Enums!$A$34, [1]Enums!$A$34)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N7, [1]Enums!$A$35, [1]Enums!$A$35)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Carbon Fiber)</v>
       </c>
       <c r="J7" s="1" t="str">
@@ -10546,19 +10546,19 @@
         <v>424</v>
       </c>
       <c r="F8" s="1" t="str">
-        <f>IF($N8, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N8, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Cellulose Triacetate Pellets)</v>
       </c>
       <c r="G8" s="1" t="str">
-        <f>IF($N8, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N8, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Cellulose Triacetate Pellets)</v>
       </c>
       <c r="H8" s="1" t="str">
-        <f>IF($N8, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N8, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Cellulose Triacetate Pellets)</v>
       </c>
       <c r="I8" s="1" t="str">
-        <f>IF($N8, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N8, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Cellulose Triacetate Pellets)</v>
       </c>
       <c r="J8" s="1" t="str">
@@ -10598,19 +10598,19 @@
         <v>420</v>
       </c>
       <c r="F9" s="1" t="str">
-        <f>IF($N9, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N9, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Cellulosic Pellets)</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f>IF($N9, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N9, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Cellulosic Pellets)</v>
       </c>
       <c r="H9" s="1" t="str">
-        <f>IF($N9, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N9, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Cellulosic Pellets)</v>
       </c>
       <c r="I9" s="1" t="str">
-        <f>IF($N9, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N9, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Cellulosic Pellets)</v>
       </c>
       <c r="J9" s="1" t="str">
@@ -10650,19 +10650,19 @@
         <v>416</v>
       </c>
       <c r="F10" s="1" t="str">
-        <f>IF($N10, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N10, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Chitin Pellets)</v>
       </c>
       <c r="G10" s="1" t="str">
-        <f>IF($N10, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N10, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Chitin Pellets)</v>
       </c>
       <c r="H10" s="1" t="str">
-        <f>IF($N10, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N10, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Chitin Pellets)</v>
       </c>
       <c r="I10" s="1" t="str">
-        <f>IF($N10, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N10, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Chitin Pellets)</v>
       </c>
       <c r="J10" s="1" t="str">
@@ -10702,19 +10702,19 @@
         <v>412</v>
       </c>
       <c r="F11" s="1" t="str">
-        <f>IF($N11, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N11, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Chlorine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="G11" s="1" t="str">
-        <f>IF($N11, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N11, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Chlorine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="H11" s="1" t="str">
-        <f>IF($N11, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N11, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Chlorine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="I11" s="1" t="str">
-        <f>IF($N11, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N11, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Chlorine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="J11" s="1" t="str">
@@ -10754,19 +10754,19 @@
         <v>408</v>
       </c>
       <c r="F12" s="1" t="str">
-        <f>IF($N12, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N12, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
         <v>Vial (Epoxy Resin)</v>
       </c>
       <c r="G12" s="1" t="str">
-        <f>IF($N12, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N12, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
         <v>Beaker (Epoxy Resin)</v>
       </c>
       <c r="H12" s="1" t="str">
-        <f>IF($N12, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N12, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
         <v>Drum (Epoxy Resin)</v>
       </c>
       <c r="I12" s="1" t="str">
-        <f>IF($N12, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N12, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Vat (Epoxy Resin)</v>
       </c>
       <c r="J12" s="1" t="str">
@@ -10803,19 +10803,19 @@
         <v>404</v>
       </c>
       <c r="F13" s="1" t="str">
-        <f>IF($N13, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N13, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Ethoxylates Pellets)</v>
       </c>
       <c r="G13" s="1" t="str">
-        <f>IF($N13, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N13, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Ethoxylates Pellets)</v>
       </c>
       <c r="H13" s="1" t="str">
-        <f>IF($N13, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N13, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Ethoxylates Pellets)</v>
       </c>
       <c r="I13" s="1" t="str">
-        <f>IF($N13, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N13, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Ethoxylates Pellets)</v>
       </c>
       <c r="J13" s="1" t="str">
@@ -10855,19 +10855,19 @@
         <v>400</v>
       </c>
       <c r="F14" s="1" t="str">
-        <f>IF($N14, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N14, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Ethylene-Propylene Monomer Pellets)</v>
       </c>
       <c r="G14" s="1" t="str">
-        <f>IF($N14, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N14, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Ethylene-Propylene Monomer Pellets)</v>
       </c>
       <c r="H14" s="1" t="str">
-        <f>IF($N14, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N14, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Ethylene-Propylene Monomer Pellets)</v>
       </c>
       <c r="I14" s="1" t="str">
-        <f>IF($N14, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N14, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Ethylene-Propylene Monomer Pellets)</v>
       </c>
       <c r="J14" s="1" t="str">
@@ -10907,19 +10907,19 @@
         <v>396</v>
       </c>
       <c r="F15" s="1" t="str">
-        <f>IF($N15, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N15, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Ethylene-Propylene-Diene Monomer Pellets)</v>
       </c>
       <c r="G15" s="1" t="str">
-        <f>IF($N15, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N15, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Ethylene-Propylene-Diene Monomer Pellets)</v>
       </c>
       <c r="H15" s="1" t="str">
-        <f>IF($N15, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N15, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Ethylene-Propylene-Diene Monomer Pellets)</v>
       </c>
       <c r="I15" s="1" t="str">
-        <f>IF($N15, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N15, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Ethylene-Propylene-Diene Monomer Pellets)</v>
       </c>
       <c r="J15" s="1" t="str">
@@ -10959,19 +10959,19 @@
         <v>392</v>
       </c>
       <c r="F16" s="1" t="str">
-        <f>IF($N16, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N16, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Ethylene-Vinyl Acetate Pellets)</v>
       </c>
       <c r="G16" s="1" t="str">
-        <f>IF($N16, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N16, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Ethylene-Vinyl Acetate Pellets)</v>
       </c>
       <c r="H16" s="1" t="str">
-        <f>IF($N16, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N16, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Ethylene-Vinyl Acetate Pellets)</v>
       </c>
       <c r="I16" s="1" t="str">
-        <f>IF($N16, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N16, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Ethylene-Vinyl Acetate Pellets)</v>
       </c>
       <c r="J16" s="1" t="str">
@@ -11011,19 +11011,19 @@
         <v>388</v>
       </c>
       <c r="F17" s="1" t="str">
-        <f>IF($N17, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N17, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (High Density PolyEthylene Pellets)</v>
       </c>
       <c r="G17" s="1" t="str">
-        <f>IF($N17, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N17, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (High Density PolyEthylene Pellets)</v>
       </c>
       <c r="H17" s="1" t="str">
-        <f>IF($N17, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N17, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (High Density PolyEthylene Pellets)</v>
       </c>
       <c r="I17" s="1" t="str">
-        <f>IF($N17, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N17, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (High Density PolyEthylene Pellets)</v>
       </c>
       <c r="J17" s="1" t="str">
@@ -11063,19 +11063,19 @@
         <v>384</v>
       </c>
       <c r="F18" s="1" t="str">
-        <f>IF($N18, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N18, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Hydrogenated Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="G18" s="1" t="str">
-        <f>IF($N18, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N18, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Hydrogenated Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="H18" s="1" t="str">
-        <f>IF($N18, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N18, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Hydrogenated Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="I18" s="1" t="str">
-        <f>IF($N18, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N18, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Hydrogenated Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="J18" s="1" t="str">
@@ -11115,19 +11115,19 @@
         <v>380</v>
       </c>
       <c r="F19" s="1" t="str">
-        <f>IF($N19, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N19, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="G19" s="1" t="str">
-        <f>IF($N19, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N19, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="H19" s="1" t="str">
-        <f>IF($N19, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N19, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="I19" s="1" t="str">
-        <f>IF($N19, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N19, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="J19" s="1" t="str">
@@ -11164,19 +11164,19 @@
         <v>376</v>
       </c>
       <c r="F20" s="1" t="str">
-        <f>IF($N20, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N20, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
         <v>Vial (Lignin)</v>
       </c>
       <c r="G20" s="1" t="str">
-        <f>IF($N20, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N20, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
         <v>Beaker (Lignin)</v>
       </c>
       <c r="H20" s="1" t="str">
-        <f>IF($N20, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N20, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
         <v>Drum (Lignin)</v>
       </c>
       <c r="I20" s="1" t="str">
-        <f>IF($N20, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N20, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Vat (Lignin)</v>
       </c>
       <c r="J20" s="1" t="str">
@@ -11216,19 +11216,19 @@
         <v>372</v>
       </c>
       <c r="F21" s="1" t="str">
-        <f>IF($N21, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N21, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Linear Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="G21" s="1" t="str">
-        <f>IF($N21, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N21, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Linear Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="H21" s="1" t="str">
-        <f>IF($N21, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N21, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Linear Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="I21" s="1" t="str">
-        <f>IF($N21, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N21, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Linear Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="J21" s="1" t="str">
@@ -11268,19 +11268,19 @@
         <v>368</v>
       </c>
       <c r="F22" s="1" t="str">
-        <f>IF($N22, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N22, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Liquid Crystal Polymer Pellets)</v>
       </c>
       <c r="G22" s="1" t="str">
-        <f>IF($N22, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N22, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Liquid Crystal Polymer Pellets)</v>
       </c>
       <c r="H22" s="1" t="str">
-        <f>IF($N22, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N22, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Liquid Crystal Polymer Pellets)</v>
       </c>
       <c r="I22" s="1" t="str">
-        <f>IF($N22, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N22, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Liquid Crystal Polymer Pellets)</v>
       </c>
       <c r="J22" s="1" t="str">
@@ -11320,19 +11320,19 @@
         <v>364</v>
       </c>
       <c r="F23" s="1" t="str">
-        <f>IF($N23, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N23, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Low Density PolyEthylene Pellets)</v>
       </c>
       <c r="G23" s="1" t="str">
-        <f>IF($N23, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N23, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Low Density PolyEthylene Pellets)</v>
       </c>
       <c r="H23" s="1" t="str">
-        <f>IF($N23, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N23, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Low Density PolyEthylene Pellets)</v>
       </c>
       <c r="I23" s="1" t="str">
-        <f>IF($N23, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N23, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Low Density PolyEthylene Pellets)</v>
       </c>
       <c r="J23" s="1" t="str">
@@ -11372,19 +11372,19 @@
         <v>360</v>
       </c>
       <c r="F24" s="1" t="str">
-        <f>IF($N24, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N24, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Medium Density PolyEthylene Pellets)</v>
       </c>
       <c r="G24" s="1" t="str">
-        <f>IF($N24, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N24, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Medium Density PolyEthylene Pellets)</v>
       </c>
       <c r="H24" s="1" t="str">
-        <f>IF($N24, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N24, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Medium Density PolyEthylene Pellets)</v>
       </c>
       <c r="I24" s="1" t="str">
-        <f>IF($N24, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N24, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Medium Density PolyEthylene Pellets)</v>
       </c>
       <c r="J24" s="1" t="str">
@@ -11421,19 +11421,19 @@
         <v>356</v>
       </c>
       <c r="F25" s="1" t="str">
-        <f>IF($N25, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N25, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
         <v>Vial (Melamine-Formaldehyde Polymers)</v>
       </c>
       <c r="G25" s="1" t="str">
-        <f>IF($N25, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N25, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
         <v>Beaker (Melamine-Formaldehyde Polymers)</v>
       </c>
       <c r="H25" s="1" t="str">
-        <f>IF($N25, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N25, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
         <v>Drum (Melamine-Formaldehyde Polymers)</v>
       </c>
       <c r="I25" s="1" t="str">
-        <f>IF($N25, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N25, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Vat (Melamine-Formaldehyde Polymers)</v>
       </c>
       <c r="J25" s="1" t="str">
@@ -11473,19 +11473,19 @@
         <v>352</v>
       </c>
       <c r="F26" s="1" t="str">
-        <f>IF($N26, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N26, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Metaldehyde Pellets)</v>
       </c>
       <c r="G26" s="1" t="str">
-        <f>IF($N26, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N26, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Metaldehyde Pellets)</v>
       </c>
       <c r="H26" s="1" t="str">
-        <f>IF($N26, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N26, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Metaldehyde Pellets)</v>
       </c>
       <c r="I26" s="1" t="str">
-        <f>IF($N26, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N26, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Metaldehyde Pellets)</v>
       </c>
       <c r="J26" s="1" t="str">
@@ -11525,19 +11525,19 @@
         <v>348</v>
       </c>
       <c r="F27" s="1" t="str">
-        <f>IF($N27, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N27, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="G27" s="1" t="str">
-        <f>IF($N27, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N27, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="H27" s="1" t="str">
-        <f>IF($N27, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N27, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="I27" s="1" t="str">
-        <f>IF($N27, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N27, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="J27" s="1" t="str">
@@ -11577,19 +11577,19 @@
         <v>344</v>
       </c>
       <c r="F28" s="1" t="str">
-        <f>IF($N28, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N28, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Paraformaldehyde Pellets)</v>
       </c>
       <c r="G28" s="1" t="str">
-        <f>IF($N28, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N28, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Paraformaldehyde Pellets)</v>
       </c>
       <c r="H28" s="1" t="str">
-        <f>IF($N28, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N28, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Paraformaldehyde Pellets)</v>
       </c>
       <c r="I28" s="1" t="str">
-        <f>IF($N28, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N28, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Paraformaldehyde Pellets)</v>
       </c>
       <c r="J28" s="1" t="str">
@@ -11629,19 +11629,19 @@
         <v>340</v>
       </c>
       <c r="F29" s="1" t="str">
-        <f>IF($N29, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N29, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Paraldehyde Pellets)</v>
       </c>
       <c r="G29" s="1" t="str">
-        <f>IF($N29, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N29, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Paraldehyde Pellets)</v>
       </c>
       <c r="H29" s="1" t="str">
-        <f>IF($N29, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N29, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Paraldehyde Pellets)</v>
       </c>
       <c r="I29" s="1" t="str">
-        <f>IF($N29, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N29, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Paraldehyde Pellets)</v>
       </c>
       <c r="J29" s="1" t="str">
@@ -11681,19 +11681,19 @@
         <v>336</v>
       </c>
       <c r="F30" s="1" t="str">
-        <f>IF($N30, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N30, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
         <v>Vial (Phenolic Resin)</v>
       </c>
       <c r="G30" s="1" t="str">
-        <f>IF($N30, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N30, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
         <v>Beaker (Phenolic Resin)</v>
       </c>
       <c r="H30" s="1" t="str">
-        <f>IF($N30, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N30, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
         <v>Drum (Phenolic Resin)</v>
       </c>
       <c r="I30" s="1" t="str">
-        <f>IF($N30, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N30, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Vat (Phenolic Resin)</v>
       </c>
       <c r="J30" s="1" t="str">
@@ -11733,19 +11733,19 @@
         <v>332</v>
       </c>
       <c r="F31" s="1" t="str">
-        <f>IF($N31, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N31, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Poly(3-Hydroxybutyrate-Co-3-Hydroxyvalerate) Pellets)</v>
       </c>
       <c r="G31" s="1" t="str">
-        <f>IF($N31, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N31, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Poly(3-Hydroxybutyrate-Co-3-Hydroxyvalerate) Pellets)</v>
       </c>
       <c r="H31" s="1" t="str">
-        <f>IF($N31, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N31, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Poly(3-Hydroxybutyrate-Co-3-Hydroxyvalerate) Pellets)</v>
       </c>
       <c r="I31" s="1" t="str">
-        <f>IF($N31, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N31, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Poly(3-Hydroxybutyrate-Co-3-Hydroxyvalerate) Pellets)</v>
       </c>
       <c r="J31" s="1" t="str">
@@ -11782,19 +11782,19 @@
         <v>328</v>
       </c>
       <c r="F32" s="1" t="str">
-        <f>IF($N32, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N32, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Poly1-Butene Pellets)</v>
       </c>
       <c r="G32" s="1" t="str">
-        <f>IF($N32, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N32, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Poly1-Butene Pellets)</v>
       </c>
       <c r="H32" s="1" t="str">
-        <f>IF($N32, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N32, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Poly1-Butene Pellets)</v>
       </c>
       <c r="I32" s="1" t="str">
-        <f>IF($N32, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N32, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Poly1-Butene Pellets)</v>
       </c>
       <c r="J32" s="1" t="str">
@@ -11831,19 +11831,19 @@
         <v>324</v>
       </c>
       <c r="F33" s="1" t="str">
-        <f>IF($N33, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N33, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Poly2,6-Dimethyl-1,4-Phenylene Ether Pellets)</v>
       </c>
       <c r="G33" s="1" t="str">
-        <f>IF($N33, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N33, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Poly2,6-Dimethyl-1,4-Phenylene Ether Pellets)</v>
       </c>
       <c r="H33" s="1" t="str">
-        <f>IF($N33, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N33, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Poly2,6-Dimethyl-1,4-Phenylene Ether Pellets)</v>
       </c>
       <c r="I33" s="1" t="str">
-        <f>IF($N33, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N33, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Poly2,6-Dimethyl-1,4-Phenylene Ether Pellets)</v>
       </c>
       <c r="J33" s="1" t="str">
@@ -11880,19 +11880,19 @@
         <v>320</v>
       </c>
       <c r="F34" s="1" t="str">
-        <f>IF($N34, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N34, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Poly-2-Hydroxy Butyrate Pellets)</v>
       </c>
       <c r="G34" s="1" t="str">
-        <f>IF($N34, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N34, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Poly-2-Hydroxy Butyrate Pellets)</v>
       </c>
       <c r="H34" s="1" t="str">
-        <f>IF($N34, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N34, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Poly-2-Hydroxy Butyrate Pellets)</v>
       </c>
       <c r="I34" s="1" t="str">
-        <f>IF($N34, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N34, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Poly-2-Hydroxy Butyrate Pellets)</v>
       </c>
       <c r="J34" s="1" t="str">
@@ -11929,19 +11929,19 @@
         <v>316</v>
       </c>
       <c r="F35" s="1" t="str">
-        <f>IF($N35, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N35, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Poly2-Hydroxyethyl Methacrylate Pellets)</v>
       </c>
       <c r="G35" s="1" t="str">
-        <f>IF($N35, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N35, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Poly2-Hydroxyethyl Methacrylate Pellets)</v>
       </c>
       <c r="H35" s="1" t="str">
-        <f>IF($N35, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N35, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Poly2-Hydroxyethyl Methacrylate Pellets)</v>
       </c>
       <c r="I35" s="1" t="str">
-        <f>IF($N35, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N35, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Poly2-Hydroxyethyl Methacrylate Pellets)</v>
       </c>
       <c r="J35" s="1" t="str">
@@ -11981,19 +11981,19 @@
         <v>312</v>
       </c>
       <c r="F36" s="1" t="str">
-        <f>IF($N36, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N36, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyAcrylic Acid Pellets)</v>
       </c>
       <c r="G36" s="1" t="str">
-        <f>IF($N36, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N36, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyAcrylic Acid Pellets)</v>
       </c>
       <c r="H36" s="1" t="str">
-        <f>IF($N36, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N36, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyAcrylic Acid Pellets)</v>
       </c>
       <c r="I36" s="1" t="str">
-        <f>IF($N36, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N36, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyAcrylic Acid Pellets)</v>
       </c>
       <c r="J36" s="1" t="str">
@@ -12033,19 +12033,19 @@
         <v>308</v>
       </c>
       <c r="F37" s="1" t="str">
-        <f>IF($N37, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N37, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyAcrylonitrile Pellets)</v>
       </c>
       <c r="G37" s="1" t="str">
-        <f>IF($N37, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N37, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyAcrylonitrile Pellets)</v>
       </c>
       <c r="H37" s="1" t="str">
-        <f>IF($N37, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N37, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyAcrylonitrile Pellets)</v>
       </c>
       <c r="I37" s="1" t="str">
-        <f>IF($N37, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N37, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyAcrylonitrile Pellets)</v>
       </c>
       <c r="J37" s="1" t="str">
@@ -12085,19 +12085,19 @@
         <v>304</v>
       </c>
       <c r="F38" s="1" t="str">
-        <f>IF($N38, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N38, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="G38" s="1" t="str">
-        <f>IF($N38, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N38, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="H38" s="1" t="str">
-        <f>IF($N38, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N38, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="I38" s="1" t="str">
-        <f>IF($N38, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N38, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="J38" s="1" t="str">
@@ -12137,19 +12137,19 @@
         <v>300</v>
       </c>
       <c r="F39" s="1" t="str">
-        <f>IF($N39, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N39, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyButadiene (high-cis) Pellets)</v>
       </c>
       <c r="G39" s="1" t="str">
-        <f>IF($N39, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N39, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyButadiene (high-cis) Pellets)</v>
       </c>
       <c r="H39" s="1" t="str">
-        <f>IF($N39, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N39, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyButadiene (high-cis) Pellets)</v>
       </c>
       <c r="I39" s="1" t="str">
-        <f>IF($N39, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N39, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyButadiene (high-cis) Pellets)</v>
       </c>
       <c r="J39" s="1" t="str">
@@ -12189,19 +12189,19 @@
         <v>296</v>
       </c>
       <c r="F40" s="1" t="str">
-        <f>IF($N40, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N40, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyButylene Succinate Pellets)</v>
       </c>
       <c r="G40" s="1" t="str">
-        <f>IF($N40, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N40, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyButylene Succinate Pellets)</v>
       </c>
       <c r="H40" s="1" t="str">
-        <f>IF($N40, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N40, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyButylene Succinate Pellets)</v>
       </c>
       <c r="I40" s="1" t="str">
-        <f>IF($N40, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N40, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyButylene Succinate Pellets)</v>
       </c>
       <c r="J40" s="1" t="str">
@@ -12241,19 +12241,19 @@
         <v>292</v>
       </c>
       <c r="F41" s="1" t="str">
-        <f>IF($N41, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N41, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyButylene Terephthalate Pellets)</v>
       </c>
       <c r="G41" s="1" t="str">
-        <f>IF($N41, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N41, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyButylene Terephthalate Pellets)</v>
       </c>
       <c r="H41" s="1" t="str">
-        <f>IF($N41, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N41, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyButylene Terephthalate Pellets)</v>
       </c>
       <c r="I41" s="1" t="str">
-        <f>IF($N41, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N41, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyButylene Terephthalate Pellets)</v>
       </c>
       <c r="J41" s="1" t="str">
@@ -12293,19 +12293,19 @@
         <v>288</v>
       </c>
       <c r="F42" s="1" t="str">
-        <f>IF($N42, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N42, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyCaprolactone Pellets)</v>
       </c>
       <c r="G42" s="1" t="str">
-        <f>IF($N42, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N42, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyCaprolactone Pellets)</v>
       </c>
       <c r="H42" s="1" t="str">
-        <f>IF($N42, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N42, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyCaprolactone Pellets)</v>
       </c>
       <c r="I42" s="1" t="str">
-        <f>IF($N42, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N42, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyCaprolactone Pellets)</v>
       </c>
       <c r="J42" s="1" t="str">
@@ -12345,19 +12345,19 @@
         <v>284</v>
       </c>
       <c r="F43" s="1" t="str">
-        <f>IF($N43, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N43, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyCarbonate Pellets)</v>
       </c>
       <c r="G43" s="1" t="str">
-        <f>IF($N43, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N43, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyCarbonate Pellets)</v>
       </c>
       <c r="H43" s="1" t="str">
-        <f>IF($N43, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N43, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyCarbonate Pellets)</v>
       </c>
       <c r="I43" s="1" t="str">
-        <f>IF($N43, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N43, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyCarbonate Pellets)</v>
       </c>
       <c r="J43" s="1" t="str">
@@ -12394,19 +12394,19 @@
         <v>280</v>
       </c>
       <c r="F44" s="1" t="str">
-        <f>IF($N44, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N44, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyChloroPrene Pellets)</v>
       </c>
       <c r="G44" s="1" t="str">
-        <f>IF($N44, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N44, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyChloroPrene Pellets)</v>
       </c>
       <c r="H44" s="1" t="str">
-        <f>IF($N44, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N44, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyChloroPrene Pellets)</v>
       </c>
       <c r="I44" s="1" t="str">
-        <f>IF($N44, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N44, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyChloroPrene Pellets)</v>
       </c>
       <c r="J44" s="1" t="str">
@@ -12443,19 +12443,19 @@
         <v>276</v>
       </c>
       <c r="F45" s="1" t="str">
-        <f>IF($N45, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N45, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyChlorotrifluoroethylene Pellets)</v>
       </c>
       <c r="G45" s="1" t="str">
-        <f>IF($N45, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N45, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyChlorotrifluoroethylene Pellets)</v>
       </c>
       <c r="H45" s="1" t="str">
-        <f>IF($N45, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N45, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyChlorotrifluoroethylene Pellets)</v>
       </c>
       <c r="I45" s="1" t="str">
-        <f>IF($N45, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N45, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyChlorotrifluoroethylene Pellets)</v>
       </c>
       <c r="J45" s="1" t="str">
@@ -12495,19 +12495,19 @@
         <v>272</v>
       </c>
       <c r="F46" s="1" t="str">
-        <f>IF($N46, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N46, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyDiMethylSiloxane Pellets)</v>
       </c>
       <c r="G46" s="1" t="str">
-        <f>IF($N46, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N46, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyDiMethylSiloxane Pellets)</v>
       </c>
       <c r="H46" s="1" t="str">
-        <f>IF($N46, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N46, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyDiMethylSiloxane Pellets)</v>
       </c>
       <c r="I46" s="1" t="str">
-        <f>IF($N46, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N46, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyDiMethylSiloxane Pellets)</v>
       </c>
       <c r="J46" s="1" t="str">
@@ -12547,19 +12547,19 @@
         <v>268</v>
       </c>
       <c r="F47" s="1" t="str">
-        <f>IF($N47, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N47, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEther Ether Ketone Pellets)</v>
       </c>
       <c r="G47" s="1" t="str">
-        <f>IF($N47, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N47, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEther Ether Ketone Pellets)</v>
       </c>
       <c r="H47" s="1" t="str">
-        <f>IF($N47, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N47, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEther Ether Ketone Pellets)</v>
       </c>
       <c r="I47" s="1" t="str">
-        <f>IF($N47, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N47, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEther Ether Ketone Pellets)</v>
       </c>
       <c r="J47" s="1" t="str">
@@ -12599,19 +12599,19 @@
         <v>264</v>
       </c>
       <c r="F48" s="1" t="str">
-        <f>IF($N48, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J48&amp;IF($N48, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N48, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J48&amp;IF($N48, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEtherImide Pellets)</v>
       </c>
       <c r="G48" s="1" t="str">
-        <f>IF($N48, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J48&amp;IF($N48, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N48, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J48&amp;IF($N48, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEtherImide Pellets)</v>
       </c>
       <c r="H48" s="1" t="str">
-        <f>IF($N48, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J48&amp;IF($N48, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N48, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J48&amp;IF($N48, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEtherImide Pellets)</v>
       </c>
       <c r="I48" s="1" t="str">
-        <f>IF($N48, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J48&amp;IF($N48, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N48, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J48&amp;IF($N48, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEtherImide Pellets)</v>
       </c>
       <c r="J48" s="1" t="str">
@@ -12648,19 +12648,19 @@
         <v>260</v>
       </c>
       <c r="F49" s="1" t="str">
-        <f>IF($N49, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J49&amp;IF($N49, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N49, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J49&amp;IF($N49, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthyl Acrylate Pellets)</v>
       </c>
       <c r="G49" s="1" t="str">
-        <f>IF($N49, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J49&amp;IF($N49, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N49, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J49&amp;IF($N49, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthyl Acrylate Pellets)</v>
       </c>
       <c r="H49" s="1" t="str">
-        <f>IF($N49, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J49&amp;IF($N49, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N49, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J49&amp;IF($N49, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthyl Acrylate Pellets)</v>
       </c>
       <c r="I49" s="1" t="str">
-        <f>IF($N49, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J49&amp;IF($N49, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N49, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J49&amp;IF($N49, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthyl Acrylate Pellets)</v>
       </c>
       <c r="J49" s="1" t="str">
@@ -12697,19 +12697,19 @@
         <v>256</v>
       </c>
       <c r="F50" s="1" t="str">
-        <f>IF($N50, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J50&amp;IF($N50, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N50, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J50&amp;IF($N50, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthylene Adipate Pellets)</v>
       </c>
       <c r="G50" s="1" t="str">
-        <f>IF($N50, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J50&amp;IF($N50, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N50, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J50&amp;IF($N50, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthylene Adipate Pellets)</v>
       </c>
       <c r="H50" s="1" t="str">
-        <f>IF($N50, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J50&amp;IF($N50, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N50, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J50&amp;IF($N50, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthylene Adipate Pellets)</v>
       </c>
       <c r="I50" s="1" t="str">
-        <f>IF($N50, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J50&amp;IF($N50, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N50, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J50&amp;IF($N50, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthylene Adipate Pellets)</v>
       </c>
       <c r="J50" s="1" t="str">
@@ -12749,19 +12749,19 @@
         <v>252</v>
       </c>
       <c r="F51" s="1" t="str">
-        <f>IF($N51, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J51&amp;IF($N51, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N51, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J51&amp;IF($N51, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthylene Glycol Pellets)</v>
       </c>
       <c r="G51" s="1" t="str">
-        <f>IF($N51, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J51&amp;IF($N51, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N51, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J51&amp;IF($N51, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthylene Glycol Pellets)</v>
       </c>
       <c r="H51" s="1" t="str">
-        <f>IF($N51, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J51&amp;IF($N51, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N51, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J51&amp;IF($N51, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthylene Glycol Pellets)</v>
       </c>
       <c r="I51" s="1" t="str">
-        <f>IF($N51, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J51&amp;IF($N51, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N51, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J51&amp;IF($N51, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthylene Glycol Pellets)</v>
       </c>
       <c r="J51" s="1" t="str">
@@ -12798,19 +12798,19 @@
         <v>248</v>
       </c>
       <c r="F52" s="1" t="str">
-        <f>IF($N52, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J52&amp;IF($N52, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N52, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J52&amp;IF($N52, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthylene Hexamethylene Dicarbamate Pellets)</v>
       </c>
       <c r="G52" s="1" t="str">
-        <f>IF($N52, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J52&amp;IF($N52, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N52, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J52&amp;IF($N52, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthylene Hexamethylene Dicarbamate Pellets)</v>
       </c>
       <c r="H52" s="1" t="str">
-        <f>IF($N52, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J52&amp;IF($N52, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N52, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J52&amp;IF($N52, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthylene Hexamethylene Dicarbamate Pellets)</v>
       </c>
       <c r="I52" s="1" t="str">
-        <f>IF($N52, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J52&amp;IF($N52, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N52, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J52&amp;IF($N52, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthylene Hexamethylene Dicarbamate Pellets)</v>
       </c>
       <c r="J52" s="1" t="str">
@@ -12850,19 +12850,19 @@
         <v>244</v>
       </c>
       <c r="F53" s="1" t="str">
-        <f>IF($N53, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J53&amp;IF($N53, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N53, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J53&amp;IF($N53, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthylene Naphthalate Pellets)</v>
       </c>
       <c r="G53" s="1" t="str">
-        <f>IF($N53, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J53&amp;IF($N53, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N53, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J53&amp;IF($N53, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthylene Naphthalate Pellets)</v>
       </c>
       <c r="H53" s="1" t="str">
-        <f>IF($N53, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J53&amp;IF($N53, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N53, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J53&amp;IF($N53, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthylene Naphthalate Pellets)</v>
       </c>
       <c r="I53" s="1" t="str">
-        <f>IF($N53, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J53&amp;IF($N53, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N53, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J53&amp;IF($N53, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthylene Naphthalate Pellets)</v>
       </c>
       <c r="J53" s="1" t="str">
@@ -12902,19 +12902,19 @@
         <v>240</v>
       </c>
       <c r="F54" s="1" t="str">
-        <f>IF($N54, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J54&amp;IF($N54, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N54, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J54&amp;IF($N54, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthylene Oxide Pellets)</v>
       </c>
       <c r="G54" s="1" t="str">
-        <f>IF($N54, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J54&amp;IF($N54, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N54, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J54&amp;IF($N54, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthylene Oxide Pellets)</v>
       </c>
       <c r="H54" s="1" t="str">
-        <f>IF($N54, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J54&amp;IF($N54, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N54, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J54&amp;IF($N54, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthylene Oxide Pellets)</v>
       </c>
       <c r="I54" s="1" t="str">
-        <f>IF($N54, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J54&amp;IF($N54, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N54, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J54&amp;IF($N54, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthylene Oxide Pellets)</v>
       </c>
       <c r="J54" s="1" t="str">
@@ -12954,19 +12954,19 @@
         <v>236</v>
       </c>
       <c r="F55" s="1" t="str">
-        <f>IF($N55, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J55&amp;IF($N55, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N55, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J55&amp;IF($N55, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthylene Sulphide Pellets)</v>
       </c>
       <c r="G55" s="1" t="str">
-        <f>IF($N55, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J55&amp;IF($N55, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N55, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J55&amp;IF($N55, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthylene Sulphide Pellets)</v>
       </c>
       <c r="H55" s="1" t="str">
-        <f>IF($N55, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J55&amp;IF($N55, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N55, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J55&amp;IF($N55, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthylene Sulphide Pellets)</v>
       </c>
       <c r="I55" s="1" t="str">
-        <f>IF($N55, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J55&amp;IF($N55, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N55, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J55&amp;IF($N55, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthylene Sulphide Pellets)</v>
       </c>
       <c r="J55" s="1" t="str">
@@ -13006,19 +13006,19 @@
         <v>232</v>
       </c>
       <c r="F56" s="1" t="str">
-        <f>IF($N56, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J56&amp;IF($N56, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N56, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J56&amp;IF($N56, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="G56" s="1" t="str">
-        <f>IF($N56, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J56&amp;IF($N56, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N56, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J56&amp;IF($N56, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="H56" s="1" t="str">
-        <f>IF($N56, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J56&amp;IF($N56, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N56, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J56&amp;IF($N56, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="I56" s="1" t="str">
-        <f>IF($N56, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J56&amp;IF($N56, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N56, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J56&amp;IF($N56, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="J56" s="1" t="str">
@@ -13058,19 +13058,19 @@
         <v>228</v>
       </c>
       <c r="F57" s="1" t="str">
-        <f>IF($N57, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J57&amp;IF($N57, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N57, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J57&amp;IF($N57, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthylene Terephthalate Glycol-Modified Pellets)</v>
       </c>
       <c r="G57" s="1" t="str">
-        <f>IF($N57, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J57&amp;IF($N57, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N57, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J57&amp;IF($N57, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthylene Terephthalate Glycol-Modified Pellets)</v>
       </c>
       <c r="H57" s="1" t="str">
-        <f>IF($N57, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J57&amp;IF($N57, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N57, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J57&amp;IF($N57, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthylene Terephthalate Glycol-Modified Pellets)</v>
       </c>
       <c r="I57" s="1" t="str">
-        <f>IF($N57, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J57&amp;IF($N57, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N57, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J57&amp;IF($N57, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthylene Terephthalate Glycol-Modified Pellets)</v>
       </c>
       <c r="J57" s="1" t="str">
@@ -13110,19 +13110,19 @@
         <v>224</v>
       </c>
       <c r="F58" s="1" t="str">
-        <f>IF($N58, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J58&amp;IF($N58, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N58, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J58&amp;IF($N58, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyGlycolic Acid Pellets)</v>
       </c>
       <c r="G58" s="1" t="str">
-        <f>IF($N58, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J58&amp;IF($N58, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N58, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J58&amp;IF($N58, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyGlycolic Acid Pellets)</v>
       </c>
       <c r="H58" s="1" t="str">
-        <f>IF($N58, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J58&amp;IF($N58, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N58, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J58&amp;IF($N58, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyGlycolic Acid Pellets)</v>
       </c>
       <c r="I58" s="1" t="str">
-        <f>IF($N58, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J58&amp;IF($N58, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N58, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J58&amp;IF($N58, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyGlycolic Acid Pellets)</v>
       </c>
       <c r="J58" s="1" t="str">
@@ -13162,19 +13162,19 @@
         <v>220</v>
       </c>
       <c r="F59" s="1" t="str">
-        <f>IF($N59, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J59&amp;IF($N59, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N59, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J59&amp;IF($N59, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyHexamethylene Adipamide Pellets)</v>
       </c>
       <c r="G59" s="1" t="str">
-        <f>IF($N59, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J59&amp;IF($N59, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N59, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J59&amp;IF($N59, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyHexamethylene Adipamide Pellets)</v>
       </c>
       <c r="H59" s="1" t="str">
-        <f>IF($N59, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J59&amp;IF($N59, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N59, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J59&amp;IF($N59, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyHexamethylene Adipamide Pellets)</v>
       </c>
       <c r="I59" s="1" t="str">
-        <f>IF($N59, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J59&amp;IF($N59, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N59, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J59&amp;IF($N59, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyHexamethylene Adipamide Pellets)</v>
       </c>
       <c r="J59" s="1" t="str">
@@ -13214,19 +13214,19 @@
         <v>216</v>
       </c>
       <c r="F60" s="1" t="str">
-        <f>IF($N60, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J60&amp;IF($N60, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N60, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J60&amp;IF($N60, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyHexamethylene Sebacamide Pellets)</v>
       </c>
       <c r="G60" s="1" t="str">
-        <f>IF($N60, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J60&amp;IF($N60, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N60, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J60&amp;IF($N60, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyHexamethylene Sebacamide Pellets)</v>
       </c>
       <c r="H60" s="1" t="str">
-        <f>IF($N60, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J60&amp;IF($N60, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N60, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J60&amp;IF($N60, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyHexamethylene Sebacamide Pellets)</v>
       </c>
       <c r="I60" s="1" t="str">
-        <f>IF($N60, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J60&amp;IF($N60, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N60, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J60&amp;IF($N60, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyHexamethylene Sebacamide Pellets)</v>
       </c>
       <c r="J60" s="1" t="str">
@@ -13266,19 +13266,19 @@
         <v>212</v>
       </c>
       <c r="F61" s="1" t="str">
-        <f>IF($N61, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J61&amp;IF($N61, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N61, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J61&amp;IF($N61, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyHydroxyalkanoate Pellets)</v>
       </c>
       <c r="G61" s="1" t="str">
-        <f>IF($N61, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J61&amp;IF($N61, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N61, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J61&amp;IF($N61, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyHydroxyalkanoate Pellets)</v>
       </c>
       <c r="H61" s="1" t="str">
-        <f>IF($N61, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J61&amp;IF($N61, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N61, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J61&amp;IF($N61, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyHydroxyalkanoate Pellets)</v>
       </c>
       <c r="I61" s="1" t="str">
-        <f>IF($N61, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J61&amp;IF($N61, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N61, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J61&amp;IF($N61, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyHydroxyalkanoate Pellets)</v>
       </c>
       <c r="J61" s="1" t="str">
@@ -13315,19 +13315,19 @@
         <v>208</v>
       </c>
       <c r="F62" s="1" t="str">
-        <f>IF($N62, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J62&amp;IF($N62, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N62, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J62&amp;IF($N62, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyHydroxybutyrate-Co-Hydroxyvalerate Pellets)</v>
       </c>
       <c r="G62" s="1" t="str">
-        <f>IF($N62, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J62&amp;IF($N62, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N62, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J62&amp;IF($N62, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyHydroxybutyrate-Co-Hydroxyvalerate Pellets)</v>
       </c>
       <c r="H62" s="1" t="str">
-        <f>IF($N62, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J62&amp;IF($N62, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N62, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J62&amp;IF($N62, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyHydroxybutyrate-Co-Hydroxyvalerate Pellets)</v>
       </c>
       <c r="I62" s="1" t="str">
-        <f>IF($N62, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J62&amp;IF($N62, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N62, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J62&amp;IF($N62, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyHydroxybutyrate-Co-Hydroxyvalerate Pellets)</v>
       </c>
       <c r="J62" s="1" t="str">
@@ -13367,19 +13367,19 @@
         <v>204</v>
       </c>
       <c r="F63" s="1" t="str">
-        <f>IF($N63, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J63&amp;IF($N63, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N63, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J63&amp;IF($N63, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyImide Pellets)</v>
       </c>
       <c r="G63" s="1" t="str">
-        <f>IF($N63, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J63&amp;IF($N63, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N63, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J63&amp;IF($N63, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyImide Pellets)</v>
       </c>
       <c r="H63" s="1" t="str">
-        <f>IF($N63, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J63&amp;IF($N63, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N63, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J63&amp;IF($N63, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyImide Pellets)</v>
       </c>
       <c r="I63" s="1" t="str">
-        <f>IF($N63, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J63&amp;IF($N63, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N63, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J63&amp;IF($N63, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyImide Pellets)</v>
       </c>
       <c r="J63" s="1" t="str">
@@ -13416,19 +13416,19 @@
         <v>200</v>
       </c>
       <c r="F64" s="1" t="str">
-        <f>IF($N64, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J64&amp;IF($N64, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N64, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J64&amp;IF($N64, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyIsoBorynl Acrylate Pellets)</v>
       </c>
       <c r="G64" s="1" t="str">
-        <f>IF($N64, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J64&amp;IF($N64, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N64, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J64&amp;IF($N64, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyIsoBorynl Acrylate Pellets)</v>
       </c>
       <c r="H64" s="1" t="str">
-        <f>IF($N64, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J64&amp;IF($N64, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N64, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J64&amp;IF($N64, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyIsoBorynl Acrylate Pellets)</v>
       </c>
       <c r="I64" s="1" t="str">
-        <f>IF($N64, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J64&amp;IF($N64, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N64, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J64&amp;IF($N64, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyIsoBorynl Acrylate Pellets)</v>
       </c>
       <c r="J64" s="1" t="str">
@@ -13465,19 +13465,19 @@
         <v>196</v>
       </c>
       <c r="F65" s="1" t="str">
-        <f>IF($N65, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J65&amp;IF($N65, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N65, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J65&amp;IF($N65, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyIsoButyl Acrylate Pellets)</v>
       </c>
       <c r="G65" s="1" t="str">
-        <f>IF($N65, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J65&amp;IF($N65, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N65, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J65&amp;IF($N65, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyIsoButyl Acrylate Pellets)</v>
       </c>
       <c r="H65" s="1" t="str">
-        <f>IF($N65, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J65&amp;IF($N65, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N65, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J65&amp;IF($N65, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyIsoButyl Acrylate Pellets)</v>
       </c>
       <c r="I65" s="1" t="str">
-        <f>IF($N65, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J65&amp;IF($N65, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N65, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J65&amp;IF($N65, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyIsoButyl Acrylate Pellets)</v>
       </c>
       <c r="J65" s="1" t="str">
@@ -13517,19 +13517,19 @@
         <v>192</v>
       </c>
       <c r="F66" s="1" t="str">
-        <f>IF($N66, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J66&amp;IF($N66, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N66, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J66&amp;IF($N66, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyIsoButylene Pellets)</v>
       </c>
       <c r="G66" s="1" t="str">
-        <f>IF($N66, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J66&amp;IF($N66, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N66, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J66&amp;IF($N66, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyIsoButylene Pellets)</v>
       </c>
       <c r="H66" s="1" t="str">
-        <f>IF($N66, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J66&amp;IF($N66, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N66, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J66&amp;IF($N66, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyIsoButylene Pellets)</v>
       </c>
       <c r="I66" s="1" t="str">
-        <f>IF($N66, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J66&amp;IF($N66, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N66, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J66&amp;IF($N66, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyIsoButylene Pellets)</v>
       </c>
       <c r="J66" s="1" t="str">
@@ -13569,19 +13569,19 @@
         <v>188</v>
       </c>
       <c r="F67" s="1" t="str">
-        <f>IF($N67, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J67&amp;IF($N67, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N67, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J67&amp;IF($N67, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyIsoPrene Pellets)</v>
       </c>
       <c r="G67" s="1" t="str">
-        <f>IF($N67, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J67&amp;IF($N67, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N67, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J67&amp;IF($N67, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyIsoPrene Pellets)</v>
       </c>
       <c r="H67" s="1" t="str">
-        <f>IF($N67, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J67&amp;IF($N67, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N67, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J67&amp;IF($N67, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyIsoPrene Pellets)</v>
       </c>
       <c r="I67" s="1" t="str">
-        <f>IF($N67, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J67&amp;IF($N67, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N67, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J67&amp;IF($N67, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyIsoPrene Pellets)</v>
       </c>
       <c r="J67" s="1" t="str">
@@ -13621,19 +13621,19 @@
         <v>184</v>
       </c>
       <c r="F68" s="1" t="str">
-        <f>IF($N68, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J68&amp;IF($N68, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N68, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J68&amp;IF($N68, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyLactic Acid Pellets)</v>
       </c>
       <c r="G68" s="1" t="str">
-        <f>IF($N68, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J68&amp;IF($N68, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N68, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J68&amp;IF($N68, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyLactic Acid Pellets)</v>
       </c>
       <c r="H68" s="1" t="str">
-        <f>IF($N68, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J68&amp;IF($N68, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N68, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J68&amp;IF($N68, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyLactic Acid Pellets)</v>
       </c>
       <c r="I68" s="1" t="str">
-        <f>IF($N68, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J68&amp;IF($N68, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N68, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J68&amp;IF($N68, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyLactic Acid Pellets)</v>
       </c>
       <c r="J68" s="1" t="str">
@@ -13670,19 +13670,19 @@
         <v>180</v>
       </c>
       <c r="F69" s="1" t="str">
-        <f>IF($N69, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J69&amp;IF($N69, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N69, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J69&amp;IF($N69, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyLactic-Co-Glycolic Acid Pellets)</v>
       </c>
       <c r="G69" s="1" t="str">
-        <f>IF($N69, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J69&amp;IF($N69, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N69, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J69&amp;IF($N69, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyLactic-Co-Glycolic Acid Pellets)</v>
       </c>
       <c r="H69" s="1" t="str">
-        <f>IF($N69, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J69&amp;IF($N69, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N69, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J69&amp;IF($N69, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyLactic-Co-Glycolic Acid Pellets)</v>
       </c>
       <c r="I69" s="1" t="str">
-        <f>IF($N69, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J69&amp;IF($N69, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N69, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J69&amp;IF($N69, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyLactic-Co-Glycolic Acid Pellets)</v>
       </c>
       <c r="J69" s="1" t="str">
@@ -13719,19 +13719,19 @@
         <v>176</v>
       </c>
       <c r="F70" s="1" t="str">
-        <f>IF($N70, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J70&amp;IF($N70, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N70, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J70&amp;IF($N70, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyMethyl Acrylate Pellets)</v>
       </c>
       <c r="G70" s="1" t="str">
-        <f>IF($N70, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J70&amp;IF($N70, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N70, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J70&amp;IF($N70, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyMethyl Acrylate Pellets)</v>
       </c>
       <c r="H70" s="1" t="str">
-        <f>IF($N70, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J70&amp;IF($N70, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N70, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J70&amp;IF($N70, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyMethyl Acrylate Pellets)</v>
       </c>
       <c r="I70" s="1" t="str">
-        <f>IF($N70, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J70&amp;IF($N70, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N70, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J70&amp;IF($N70, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyMethyl Acrylate Pellets)</v>
       </c>
       <c r="J70" s="1" t="str">
@@ -13768,19 +13768,19 @@
         <v>172</v>
       </c>
       <c r="F71" s="1" t="str">
-        <f>IF($N71, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J71&amp;IF($N71, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N71, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J71&amp;IF($N71, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyMethyl Cyanoacrylate Pellets)</v>
       </c>
       <c r="G71" s="1" t="str">
-        <f>IF($N71, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J71&amp;IF($N71, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N71, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J71&amp;IF($N71, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyMethyl Cyanoacrylate Pellets)</v>
       </c>
       <c r="H71" s="1" t="str">
-        <f>IF($N71, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J71&amp;IF($N71, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N71, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J71&amp;IF($N71, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyMethyl Cyanoacrylate Pellets)</v>
       </c>
       <c r="I71" s="1" t="str">
-        <f>IF($N71, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J71&amp;IF($N71, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N71, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J71&amp;IF($N71, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyMethyl Cyanoacrylate Pellets)</v>
       </c>
       <c r="J71" s="1" t="str">
@@ -13817,19 +13817,19 @@
         <v>168</v>
       </c>
       <c r="F72" s="1" t="str">
-        <f>IF($N72, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J72&amp;IF($N72, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N72, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J72&amp;IF($N72, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyMethyl Methacrylate Pellets)</v>
       </c>
       <c r="G72" s="1" t="str">
-        <f>IF($N72, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J72&amp;IF($N72, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N72, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J72&amp;IF($N72, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyMethyl Methacrylate Pellets)</v>
       </c>
       <c r="H72" s="1" t="str">
-        <f>IF($N72, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J72&amp;IF($N72, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N72, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J72&amp;IF($N72, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyMethyl Methacrylate Pellets)</v>
       </c>
       <c r="I72" s="1" t="str">
-        <f>IF($N72, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J72&amp;IF($N72, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N72, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J72&amp;IF($N72, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyMethyl Methacrylate Pellets)</v>
       </c>
       <c r="J72" s="1" t="str">
@@ -13866,19 +13866,19 @@
         <v>164</v>
       </c>
       <c r="F73" s="1" t="str">
-        <f>IF($N73, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J73&amp;IF($N73, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N73, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J73&amp;IF($N73, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyM-Methyl Styrene Pellets)</v>
       </c>
       <c r="G73" s="1" t="str">
-        <f>IF($N73, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J73&amp;IF($N73, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N73, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J73&amp;IF($N73, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyM-Methyl Styrene Pellets)</v>
       </c>
       <c r="H73" s="1" t="str">
-        <f>IF($N73, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J73&amp;IF($N73, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N73, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J73&amp;IF($N73, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyM-Methyl Styrene Pellets)</v>
       </c>
       <c r="I73" s="1" t="str">
-        <f>IF($N73, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J73&amp;IF($N73, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N73, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J73&amp;IF($N73, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyM-Methyl Styrene Pellets)</v>
       </c>
       <c r="J73" s="1" t="str">
@@ -13918,19 +13918,19 @@
         <v>160</v>
       </c>
       <c r="F74" s="1" t="str">
-        <f>IF($N74, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J74&amp;IF($N74, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N74, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J74&amp;IF($N74, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyM-Phenylene Isophthalamide Pellets)</v>
       </c>
       <c r="G74" s="1" t="str">
-        <f>IF($N74, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J74&amp;IF($N74, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N74, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J74&amp;IF($N74, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyM-Phenylene Isophthalamide Pellets)</v>
       </c>
       <c r="H74" s="1" t="str">
-        <f>IF($N74, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J74&amp;IF($N74, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N74, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J74&amp;IF($N74, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyM-Phenylene Isophthalamide Pellets)</v>
       </c>
       <c r="I74" s="1" t="str">
-        <f>IF($N74, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J74&amp;IF($N74, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N74, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J74&amp;IF($N74, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyM-Phenylene Isophthalamide Pellets)</v>
       </c>
       <c r="J74" s="1" t="str">
@@ -13967,19 +13967,19 @@
         <v>156</v>
       </c>
       <c r="F75" s="1" t="str">
-        <f>IF($N75, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J75&amp;IF($N75, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N75, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J75&amp;IF($N75, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyN-Butyl Acrylate Pellets)</v>
       </c>
       <c r="G75" s="1" t="str">
-        <f>IF($N75, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J75&amp;IF($N75, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N75, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J75&amp;IF($N75, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyN-Butyl Acrylate Pellets)</v>
       </c>
       <c r="H75" s="1" t="str">
-        <f>IF($N75, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J75&amp;IF($N75, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N75, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J75&amp;IF($N75, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyN-Butyl Acrylate Pellets)</v>
       </c>
       <c r="I75" s="1" t="str">
-        <f>IF($N75, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J75&amp;IF($N75, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N75, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J75&amp;IF($N75, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyN-Butyl Acrylate Pellets)</v>
       </c>
       <c r="J75" s="1" t="str">
@@ -14019,19 +14019,19 @@
         <v>152</v>
       </c>
       <c r="F76" s="1" t="str">
-        <f>IF($N76, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J76&amp;IF($N76, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N76, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J76&amp;IF($N76, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyOxymethylene Pellets)</v>
       </c>
       <c r="G76" s="1" t="str">
-        <f>IF($N76, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J76&amp;IF($N76, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N76, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J76&amp;IF($N76, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyOxymethylene Pellets)</v>
       </c>
       <c r="H76" s="1" t="str">
-        <f>IF($N76, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J76&amp;IF($N76, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N76, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J76&amp;IF($N76, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyOxymethylene Pellets)</v>
       </c>
       <c r="I76" s="1" t="str">
-        <f>IF($N76, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J76&amp;IF($N76, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N76, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J76&amp;IF($N76, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyOxymethylene Pellets)</v>
       </c>
       <c r="J76" s="1" t="str">
@@ -14068,19 +14068,19 @@
         <v>148</v>
       </c>
       <c r="F77" s="1" t="str">
-        <f>IF($N77, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J77&amp;IF($N77, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N77, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J77&amp;IF($N77, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyPentamethylene Hexamethylene Dicarbamate Pellets)</v>
       </c>
       <c r="G77" s="1" t="str">
-        <f>IF($N77, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J77&amp;IF($N77, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N77, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J77&amp;IF($N77, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyPentamethylene Hexamethylene Dicarbamate Pellets)</v>
       </c>
       <c r="H77" s="1" t="str">
-        <f>IF($N77, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J77&amp;IF($N77, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N77, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J77&amp;IF($N77, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyPentamethylene Hexamethylene Dicarbamate Pellets)</v>
       </c>
       <c r="I77" s="1" t="str">
-        <f>IF($N77, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J77&amp;IF($N77, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N77, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J77&amp;IF($N77, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyPentamethylene Hexamethylene Dicarbamate Pellets)</v>
       </c>
       <c r="J77" s="1" t="str">
@@ -14117,19 +14117,19 @@
         <v>144</v>
       </c>
       <c r="F78" s="1" t="str">
-        <f>IF($N78, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J78&amp;IF($N78, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N78, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J78&amp;IF($N78, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyPhenol Pellets)</v>
       </c>
       <c r="G78" s="1" t="str">
-        <f>IF($N78, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J78&amp;IF($N78, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N78, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J78&amp;IF($N78, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyPhenol Pellets)</v>
       </c>
       <c r="H78" s="1" t="str">
-        <f>IF($N78, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J78&amp;IF($N78, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N78, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J78&amp;IF($N78, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyPhenol Pellets)</v>
       </c>
       <c r="I78" s="1" t="str">
-        <f>IF($N78, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J78&amp;IF($N78, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N78, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J78&amp;IF($N78, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyPhenol Pellets)</v>
       </c>
       <c r="J78" s="1" t="str">
@@ -14166,19 +14166,19 @@
         <v>140</v>
       </c>
       <c r="F79" s="1" t="str">
-        <f>IF($N79, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J79&amp;IF($N79, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N79, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J79&amp;IF($N79, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyPhenylene Oxide Pellets)</v>
       </c>
       <c r="G79" s="1" t="str">
-        <f>IF($N79, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J79&amp;IF($N79, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N79, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J79&amp;IF($N79, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyPhenylene Oxide Pellets)</v>
       </c>
       <c r="H79" s="1" t="str">
-        <f>IF($N79, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J79&amp;IF($N79, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N79, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J79&amp;IF($N79, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyPhenylene Oxide Pellets)</v>
       </c>
       <c r="I79" s="1" t="str">
-        <f>IF($N79, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J79&amp;IF($N79, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N79, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J79&amp;IF($N79, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyPhenylene Oxide Pellets)</v>
       </c>
       <c r="J79" s="1" t="str">
@@ -14215,19 +14215,19 @@
         <v>136</v>
       </c>
       <c r="F80" s="1" t="str">
-        <f>IF($N80, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J80&amp;IF($N80, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N80, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J80&amp;IF($N80, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyPhosphazene Pellets)</v>
       </c>
       <c r="G80" s="1" t="str">
-        <f>IF($N80, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J80&amp;IF($N80, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N80, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J80&amp;IF($N80, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyPhosphazene Pellets)</v>
       </c>
       <c r="H80" s="1" t="str">
-        <f>IF($N80, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J80&amp;IF($N80, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N80, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J80&amp;IF($N80, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyPhosphazene Pellets)</v>
       </c>
       <c r="I80" s="1" t="str">
-        <f>IF($N80, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J80&amp;IF($N80, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N80, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J80&amp;IF($N80, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyPhosphazene Pellets)</v>
       </c>
       <c r="J80" s="1" t="str">
@@ -14264,19 +14264,19 @@
         <v>132</v>
       </c>
       <c r="F81" s="1" t="str">
-        <f>IF($N81, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J81&amp;IF($N81, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N81, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J81&amp;IF($N81, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyP-Methyl Styrene Pellets)</v>
       </c>
       <c r="G81" s="1" t="str">
-        <f>IF($N81, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J81&amp;IF($N81, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N81, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J81&amp;IF($N81, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyP-Methyl Styrene Pellets)</v>
       </c>
       <c r="H81" s="1" t="str">
-        <f>IF($N81, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J81&amp;IF($N81, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N81, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J81&amp;IF($N81, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyP-Methyl Styrene Pellets)</v>
       </c>
       <c r="I81" s="1" t="str">
-        <f>IF($N81, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J81&amp;IF($N81, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N81, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J81&amp;IF($N81, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyP-Methyl Styrene Pellets)</v>
       </c>
       <c r="J81" s="1" t="str">
@@ -14313,19 +14313,19 @@
         <v>128</v>
       </c>
       <c r="F82" s="1" t="str">
-        <f>IF($N82, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J82&amp;IF($N82, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N82, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J82&amp;IF($N82, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyP-Phenylene Sulphide Pellets)</v>
       </c>
       <c r="G82" s="1" t="str">
-        <f>IF($N82, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J82&amp;IF($N82, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N82, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J82&amp;IF($N82, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyP-Phenylene Sulphide Pellets)</v>
       </c>
       <c r="H82" s="1" t="str">
-        <f>IF($N82, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J82&amp;IF($N82, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N82, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J82&amp;IF($N82, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyP-Phenylene Sulphide Pellets)</v>
       </c>
       <c r="I82" s="1" t="str">
-        <f>IF($N82, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J82&amp;IF($N82, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N82, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J82&amp;IF($N82, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyP-Phenylene Sulphide Pellets)</v>
       </c>
       <c r="J82" s="1" t="str">
@@ -14365,19 +14365,19 @@
         <v>124</v>
       </c>
       <c r="F83" s="1" t="str">
-        <f>IF($N83, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J83&amp;IF($N83, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N83, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J83&amp;IF($N83, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyP-Phenylene Terephthalamide Pellets)</v>
       </c>
       <c r="G83" s="1" t="str">
-        <f>IF($N83, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J83&amp;IF($N83, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N83, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J83&amp;IF($N83, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyP-Phenylene Terephthalamide Pellets)</v>
       </c>
       <c r="H83" s="1" t="str">
-        <f>IF($N83, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J83&amp;IF($N83, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N83, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J83&amp;IF($N83, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyP-Phenylene Terephthalamide Pellets)</v>
       </c>
       <c r="I83" s="1" t="str">
-        <f>IF($N83, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J83&amp;IF($N83, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N83, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J83&amp;IF($N83, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyP-Phenylene Terephthalamide Pellets)</v>
       </c>
       <c r="J83" s="1" t="str">
@@ -14417,19 +14417,19 @@
         <v>120</v>
       </c>
       <c r="F84" s="1" t="str">
-        <f>IF($N84, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J84&amp;IF($N84, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N84, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J84&amp;IF($N84, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyPropylene Pellets)</v>
       </c>
       <c r="G84" s="1" t="str">
-        <f>IF($N84, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J84&amp;IF($N84, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N84, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J84&amp;IF($N84, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyPropylene Pellets)</v>
       </c>
       <c r="H84" s="1" t="str">
-        <f>IF($N84, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J84&amp;IF($N84, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N84, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J84&amp;IF($N84, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyPropylene Pellets)</v>
       </c>
       <c r="I84" s="1" t="str">
-        <f>IF($N84, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J84&amp;IF($N84, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N84, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J84&amp;IF($N84, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyPropylene Pellets)</v>
       </c>
       <c r="J84" s="1" t="str">
@@ -14466,19 +14466,19 @@
         <v>116</v>
       </c>
       <c r="F85" s="1" t="str">
-        <f>IF($N85, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J85&amp;IF($N85, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N85, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J85&amp;IF($N85, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyPropylene Glycol Pellets)</v>
       </c>
       <c r="G85" s="1" t="str">
-        <f>IF($N85, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J85&amp;IF($N85, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N85, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J85&amp;IF($N85, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyPropylene Glycol Pellets)</v>
       </c>
       <c r="H85" s="1" t="str">
-        <f>IF($N85, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J85&amp;IF($N85, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N85, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J85&amp;IF($N85, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyPropylene Glycol Pellets)</v>
       </c>
       <c r="I85" s="1" t="str">
-        <f>IF($N85, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J85&amp;IF($N85, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N85, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J85&amp;IF($N85, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyPropylene Glycol Pellets)</v>
       </c>
       <c r="J85" s="1" t="str">
@@ -14515,19 +14515,19 @@
         <v>112</v>
       </c>
       <c r="F86" s="1" t="str">
-        <f>IF($N86, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J86&amp;IF($N86, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N86, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J86&amp;IF($N86, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyPropylene Oxide Pellets)</v>
       </c>
       <c r="G86" s="1" t="str">
-        <f>IF($N86, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J86&amp;IF($N86, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N86, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J86&amp;IF($N86, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyPropylene Oxide Pellets)</v>
       </c>
       <c r="H86" s="1" t="str">
-        <f>IF($N86, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J86&amp;IF($N86, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N86, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J86&amp;IF($N86, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyPropylene Oxide Pellets)</v>
       </c>
       <c r="I86" s="1" t="str">
-        <f>IF($N86, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J86&amp;IF($N86, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N86, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J86&amp;IF($N86, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyPropylene Oxide Pellets)</v>
       </c>
       <c r="J86" s="1" t="str">
@@ -14567,19 +14567,19 @@
         <v>108</v>
       </c>
       <c r="F87" s="1" t="str">
-        <f>IF($N87, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J87&amp;IF($N87, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N87, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J87&amp;IF($N87, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyStyrene Pellets)</v>
       </c>
       <c r="G87" s="1" t="str">
-        <f>IF($N87, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J87&amp;IF($N87, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N87, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J87&amp;IF($N87, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyStyrene Pellets)</v>
       </c>
       <c r="H87" s="1" t="str">
-        <f>IF($N87, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J87&amp;IF($N87, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N87, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J87&amp;IF($N87, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyStyrene Pellets)</v>
       </c>
       <c r="I87" s="1" t="str">
-        <f>IF($N87, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J87&amp;IF($N87, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N87, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J87&amp;IF($N87, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyStyrene Pellets)</v>
       </c>
       <c r="J87" s="1" t="str">
@@ -14616,19 +14616,19 @@
         <v>104</v>
       </c>
       <c r="F88" s="1" t="str">
-        <f>IF($N88, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J88&amp;IF($N88, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N88, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J88&amp;IF($N88, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyTert-Butyl Acrylate Pellets)</v>
       </c>
       <c r="G88" s="1" t="str">
-        <f>IF($N88, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J88&amp;IF($N88, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N88, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J88&amp;IF($N88, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyTert-Butyl Acrylate Pellets)</v>
       </c>
       <c r="H88" s="1" t="str">
-        <f>IF($N88, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J88&amp;IF($N88, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N88, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J88&amp;IF($N88, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyTert-Butyl Acrylate Pellets)</v>
       </c>
       <c r="I88" s="1" t="str">
-        <f>IF($N88, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J88&amp;IF($N88, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N88, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J88&amp;IF($N88, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyTert-Butyl Acrylate Pellets)</v>
       </c>
       <c r="J88" s="1" t="str">
@@ -14668,19 +14668,19 @@
         <v>100</v>
       </c>
       <c r="F89" s="1" t="str">
-        <f>IF($N89, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J89&amp;IF($N89, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N89, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J89&amp;IF($N89, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyTetraFluoroEthylene Pellets)</v>
       </c>
       <c r="G89" s="1" t="str">
-        <f>IF($N89, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J89&amp;IF($N89, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N89, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J89&amp;IF($N89, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyTetraFluoroEthylene Pellets)</v>
       </c>
       <c r="H89" s="1" t="str">
-        <f>IF($N89, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J89&amp;IF($N89, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N89, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J89&amp;IF($N89, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyTetraFluoroEthylene Pellets)</v>
       </c>
       <c r="I89" s="1" t="str">
-        <f>IF($N89, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J89&amp;IF($N89, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N89, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J89&amp;IF($N89, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyTetraFluoroEthylene Pellets)</v>
       </c>
       <c r="J89" s="1" t="str">
@@ -14717,19 +14717,19 @@
         <v>96</v>
       </c>
       <c r="F90" s="1" t="str">
-        <f>IF($N90, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J90&amp;IF($N90, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N90, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J90&amp;IF($N90, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyTetramethylene Ether Glycol Pellets)</v>
       </c>
       <c r="G90" s="1" t="str">
-        <f>IF($N90, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J90&amp;IF($N90, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N90, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J90&amp;IF($N90, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyTetramethylene Ether Glycol Pellets)</v>
       </c>
       <c r="H90" s="1" t="str">
-        <f>IF($N90, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J90&amp;IF($N90, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N90, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J90&amp;IF($N90, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyTetramethylene Ether Glycol Pellets)</v>
       </c>
       <c r="I90" s="1" t="str">
-        <f>IF($N90, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J90&amp;IF($N90, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N90, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J90&amp;IF($N90, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyTetramethylene Ether Glycol Pellets)</v>
       </c>
       <c r="J90" s="1" t="str">
@@ -14766,19 +14766,19 @@
         <v>92</v>
       </c>
       <c r="F91" s="1" t="str">
-        <f>IF($N91, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J91&amp;IF($N91, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N91, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J91&amp;IF($N91, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyTetramethylene Glycol Pellets)</v>
       </c>
       <c r="G91" s="1" t="str">
-        <f>IF($N91, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J91&amp;IF($N91, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N91, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J91&amp;IF($N91, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyTetramethylene Glycol Pellets)</v>
       </c>
       <c r="H91" s="1" t="str">
-        <f>IF($N91, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J91&amp;IF($N91, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N91, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J91&amp;IF($N91, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyTetramethylene Glycol Pellets)</v>
       </c>
       <c r="I91" s="1" t="str">
-        <f>IF($N91, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J91&amp;IF($N91, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N91, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J91&amp;IF($N91, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyTetramethylene Glycol Pellets)</v>
       </c>
       <c r="J91" s="1" t="str">
@@ -14815,19 +14815,19 @@
         <v>88</v>
       </c>
       <c r="F92" s="1" t="str">
-        <f>IF($N92, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J92&amp;IF($N92, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N92, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J92&amp;IF($N92, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyThiazyl Pellets)</v>
       </c>
       <c r="G92" s="1" t="str">
-        <f>IF($N92, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J92&amp;IF($N92, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N92, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J92&amp;IF($N92, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyThiazyl Pellets)</v>
       </c>
       <c r="H92" s="1" t="str">
-        <f>IF($N92, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J92&amp;IF($N92, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N92, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J92&amp;IF($N92, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyThiazyl Pellets)</v>
       </c>
       <c r="I92" s="1" t="str">
-        <f>IF($N92, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J92&amp;IF($N92, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N92, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J92&amp;IF($N92, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyThiazyl Pellets)</v>
       </c>
       <c r="J92" s="1" t="str">
@@ -14867,19 +14867,19 @@
         <v>84</v>
       </c>
       <c r="F93" s="1" t="str">
-        <f>IF($N93, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J93&amp;IF($N93, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N93, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J93&amp;IF($N93, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyTrimethylene Terephthalate Pellets)</v>
       </c>
       <c r="G93" s="1" t="str">
-        <f>IF($N93, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J93&amp;IF($N93, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N93, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J93&amp;IF($N93, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyTrimethylene Terephthalate Pellets)</v>
       </c>
       <c r="H93" s="1" t="str">
-        <f>IF($N93, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J93&amp;IF($N93, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N93, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J93&amp;IF($N93, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyTrimethylene Terephthalate Pellets)</v>
       </c>
       <c r="I93" s="1" t="str">
-        <f>IF($N93, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J93&amp;IF($N93, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N93, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J93&amp;IF($N93, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyTrimethylene Terephthalate Pellets)</v>
       </c>
       <c r="J93" s="1" t="str">
@@ -14919,19 +14919,19 @@
         <v>80</v>
       </c>
       <c r="F94" s="1" t="str">
-        <f>IF($N94, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J94&amp;IF($N94, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N94, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J94&amp;IF($N94, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyUrethane Pellets)</v>
       </c>
       <c r="G94" s="1" t="str">
-        <f>IF($N94, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J94&amp;IF($N94, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N94, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J94&amp;IF($N94, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyUrethane Pellets)</v>
       </c>
       <c r="H94" s="1" t="str">
-        <f>IF($N94, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J94&amp;IF($N94, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N94, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J94&amp;IF($N94, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyUrethane Pellets)</v>
       </c>
       <c r="I94" s="1" t="str">
-        <f>IF($N94, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J94&amp;IF($N94, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N94, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J94&amp;IF($N94, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyUrethane Pellets)</v>
       </c>
       <c r="J94" s="1" t="str">
@@ -14971,19 +14971,19 @@
         <v>76</v>
       </c>
       <c r="F95" s="1" t="str">
-        <f>IF($N95, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J95&amp;IF($N95, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N95, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J95&amp;IF($N95, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinyl Acetate Pellets)</v>
       </c>
       <c r="G95" s="1" t="str">
-        <f>IF($N95, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J95&amp;IF($N95, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N95, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J95&amp;IF($N95, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinyl Acetate Pellets)</v>
       </c>
       <c r="H95" s="1" t="str">
-        <f>IF($N95, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J95&amp;IF($N95, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N95, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J95&amp;IF($N95, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinyl Acetate Pellets)</v>
       </c>
       <c r="I95" s="1" t="str">
-        <f>IF($N95, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J95&amp;IF($N95, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N95, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J95&amp;IF($N95, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinyl Acetate Pellets)</v>
       </c>
       <c r="J95" s="1" t="str">
@@ -15023,19 +15023,19 @@
         <v>72</v>
       </c>
       <c r="F96" s="1" t="str">
-        <f>IF($N96, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J96&amp;IF($N96, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N96, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J96&amp;IF($N96, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinyl Alcohol Pellets)</v>
       </c>
       <c r="G96" s="1" t="str">
-        <f>IF($N96, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J96&amp;IF($N96, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N96, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J96&amp;IF($N96, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinyl Alcohol Pellets)</v>
       </c>
       <c r="H96" s="1" t="str">
-        <f>IF($N96, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J96&amp;IF($N96, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N96, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J96&amp;IF($N96, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinyl Alcohol Pellets)</v>
       </c>
       <c r="I96" s="1" t="str">
-        <f>IF($N96, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J96&amp;IF($N96, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N96, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J96&amp;IF($N96, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinyl Alcohol Pellets)</v>
       </c>
       <c r="J96" s="1" t="str">
@@ -15072,19 +15072,19 @@
         <v>68</v>
       </c>
       <c r="F97" s="1" t="str">
-        <f>IF($N97, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J97&amp;IF($N97, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N97, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J97&amp;IF($N97, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinyl Butyral Pellets)</v>
       </c>
       <c r="G97" s="1" t="str">
-        <f>IF($N97, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J97&amp;IF($N97, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N97, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J97&amp;IF($N97, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinyl Butyral Pellets)</v>
       </c>
       <c r="H97" s="1" t="str">
-        <f>IF($N97, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J97&amp;IF($N97, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N97, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J97&amp;IF($N97, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinyl Butyral Pellets)</v>
       </c>
       <c r="I97" s="1" t="str">
-        <f>IF($N97, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J97&amp;IF($N97, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N97, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J97&amp;IF($N97, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinyl Butyral Pellets)</v>
       </c>
       <c r="J97" s="1" t="str">
@@ -15124,19 +15124,19 @@
         <v>64</v>
       </c>
       <c r="F98" s="1" t="str">
-        <f>IF($N98, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J98&amp;IF($N98, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N98, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J98&amp;IF($N98, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinyl Chloride Pellets)</v>
       </c>
       <c r="G98" s="1" t="str">
-        <f>IF($N98, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J98&amp;IF($N98, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N98, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J98&amp;IF($N98, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinyl Chloride Pellets)</v>
       </c>
       <c r="H98" s="1" t="str">
-        <f>IF($N98, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J98&amp;IF($N98, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N98, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J98&amp;IF($N98, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinyl Chloride Pellets)</v>
       </c>
       <c r="I98" s="1" t="str">
-        <f>IF($N98, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J98&amp;IF($N98, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N98, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J98&amp;IF($N98, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinyl Chloride Pellets)</v>
       </c>
       <c r="J98" s="1" t="str">
@@ -15176,19 +15176,19 @@
         <v>60</v>
       </c>
       <c r="F99" s="1" t="str">
-        <f>IF($N99, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J99&amp;IF($N99, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N99, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J99&amp;IF($N99, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinyl Chloride Acetate Pellets)</v>
       </c>
       <c r="G99" s="1" t="str">
-        <f>IF($N99, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J99&amp;IF($N99, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N99, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J99&amp;IF($N99, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinyl Chloride Acetate Pellets)</v>
       </c>
       <c r="H99" s="1" t="str">
-        <f>IF($N99, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J99&amp;IF($N99, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N99, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J99&amp;IF($N99, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinyl Chloride Acetate Pellets)</v>
       </c>
       <c r="I99" s="1" t="str">
-        <f>IF($N99, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J99&amp;IF($N99, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N99, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J99&amp;IF($N99, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinyl Chloride Acetate Pellets)</v>
       </c>
       <c r="J99" s="1" t="str">
@@ -15225,19 +15225,19 @@
         <v>56</v>
       </c>
       <c r="F100" s="1" t="str">
-        <f>IF($N100, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J100&amp;IF($N100, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N100, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J100&amp;IF($N100, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinyl Fluoride Pellets)</v>
       </c>
       <c r="G100" s="1" t="str">
-        <f>IF($N100, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J100&amp;IF($N100, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N100, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J100&amp;IF($N100, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinyl Fluoride Pellets)</v>
       </c>
       <c r="H100" s="1" t="str">
-        <f>IF($N100, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J100&amp;IF($N100, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N100, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J100&amp;IF($N100, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinyl Fluoride Pellets)</v>
       </c>
       <c r="I100" s="1" t="str">
-        <f>IF($N100, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J100&amp;IF($N100, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N100, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J100&amp;IF($N100, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinyl Fluoride Pellets)</v>
       </c>
       <c r="J100" s="1" t="str">
@@ -15274,19 +15274,19 @@
         <v>52</v>
       </c>
       <c r="F101" s="1" t="str">
-        <f>IF($N101, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J101&amp;IF($N101, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N101, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J101&amp;IF($N101, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinyl Formal Pellets)</v>
       </c>
       <c r="G101" s="1" t="str">
-        <f>IF($N101, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J101&amp;IF($N101, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N101, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J101&amp;IF($N101, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinyl Formal Pellets)</v>
       </c>
       <c r="H101" s="1" t="str">
-        <f>IF($N101, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J101&amp;IF($N101, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N101, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J101&amp;IF($N101, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinyl Formal Pellets)</v>
       </c>
       <c r="I101" s="1" t="str">
-        <f>IF($N101, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J101&amp;IF($N101, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N101, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J101&amp;IF($N101, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinyl Formal Pellets)</v>
       </c>
       <c r="J101" s="1" t="str">
@@ -15323,19 +15323,19 @@
         <v>48</v>
       </c>
       <c r="F102" s="1" t="str">
-        <f>IF($N102, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J102&amp;IF($N102, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N102, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J102&amp;IF($N102, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinyl Methyl Ether Pellets)</v>
       </c>
       <c r="G102" s="1" t="str">
-        <f>IF($N102, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J102&amp;IF($N102, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N102, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J102&amp;IF($N102, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinyl Methyl Ether Pellets)</v>
       </c>
       <c r="H102" s="1" t="str">
-        <f>IF($N102, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J102&amp;IF($N102, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N102, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J102&amp;IF($N102, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinyl Methyl Ether Pellets)</v>
       </c>
       <c r="I102" s="1" t="str">
-        <f>IF($N102, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J102&amp;IF($N102, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N102, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J102&amp;IF($N102, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinyl Methyl Ether Pellets)</v>
       </c>
       <c r="J102" s="1" t="str">
@@ -15372,19 +15372,19 @@
         <v>44</v>
       </c>
       <c r="F103" s="1" t="str">
-        <f>IF($N103, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J103&amp;IF($N103, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N103, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J103&amp;IF($N103, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinylidene Dichloride Pellets)</v>
       </c>
       <c r="G103" s="1" t="str">
-        <f>IF($N103, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J103&amp;IF($N103, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N103, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J103&amp;IF($N103, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinylidene Dichloride Pellets)</v>
       </c>
       <c r="H103" s="1" t="str">
-        <f>IF($N103, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J103&amp;IF($N103, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N103, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J103&amp;IF($N103, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinylidene Dichloride Pellets)</v>
       </c>
       <c r="I103" s="1" t="str">
-        <f>IF($N103, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J103&amp;IF($N103, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N103, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J103&amp;IF($N103, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinylidene Dichloride Pellets)</v>
       </c>
       <c r="J103" s="1" t="str">
@@ -15421,19 +15421,19 @@
         <v>40</v>
       </c>
       <c r="F104" s="1" t="str">
-        <f>IF($N104, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J104&amp;IF($N104, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N104, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J104&amp;IF($N104, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinylidene Fluoride Pellets)</v>
       </c>
       <c r="G104" s="1" t="str">
-        <f>IF($N104, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J104&amp;IF($N104, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N104, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J104&amp;IF($N104, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinylidene Fluoride Pellets)</v>
       </c>
       <c r="H104" s="1" t="str">
-        <f>IF($N104, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J104&amp;IF($N104, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N104, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J104&amp;IF($N104, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinylidene Fluoride Pellets)</v>
       </c>
       <c r="I104" s="1" t="str">
-        <f>IF($N104, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J104&amp;IF($N104, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N104, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J104&amp;IF($N104, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinylidene Fluoride Pellets)</v>
       </c>
       <c r="J104" s="1" t="str">
@@ -15470,19 +15470,19 @@
         <v>36</v>
       </c>
       <c r="F105" s="1" t="str">
-        <f>IF($N105, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J105&amp;IF($N105, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N105, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J105&amp;IF($N105, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinylidene Fluoride-Trifluoroethylene Pellets)</v>
       </c>
       <c r="G105" s="1" t="str">
-        <f>IF($N105, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J105&amp;IF($N105, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N105, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J105&amp;IF($N105, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinylidene Fluoride-Trifluoroethylene Pellets)</v>
       </c>
       <c r="H105" s="1" t="str">
-        <f>IF($N105, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J105&amp;IF($N105, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N105, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J105&amp;IF($N105, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinylidene Fluoride-Trifluoroethylene Pellets)</v>
       </c>
       <c r="I105" s="1" t="str">
-        <f>IF($N105, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J105&amp;IF($N105, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N105, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J105&amp;IF($N105, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinylidene Fluoride-Trifluoroethylene Pellets)</v>
       </c>
       <c r="J105" s="1" t="str">
@@ -15522,19 +15522,19 @@
         <v>32</v>
       </c>
       <c r="F106" s="1" t="str">
-        <f>IF($N106, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J106&amp;IF($N106, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N106, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J106&amp;IF($N106, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Styrene-Acrylonitrile Pellets)</v>
       </c>
       <c r="G106" s="1" t="str">
-        <f>IF($N106, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J106&amp;IF($N106, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N106, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J106&amp;IF($N106, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Styrene-Acrylonitrile Pellets)</v>
       </c>
       <c r="H106" s="1" t="str">
-        <f>IF($N106, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J106&amp;IF($N106, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N106, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J106&amp;IF($N106, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Styrene-Acrylonitrile Pellets)</v>
       </c>
       <c r="I106" s="1" t="str">
-        <f>IF($N106, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J106&amp;IF($N106, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N106, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J106&amp;IF($N106, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Styrene-Acrylonitrile Pellets)</v>
       </c>
       <c r="J106" s="1" t="str">
@@ -15574,19 +15574,19 @@
         <v>28</v>
       </c>
       <c r="F107" s="1" t="str">
-        <f>IF($N107, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J107&amp;IF($N107, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N107, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J107&amp;IF($N107, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Styrene-Butadiene Rubber Pellets)</v>
       </c>
       <c r="G107" s="1" t="str">
-        <f>IF($N107, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J107&amp;IF($N107, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N107, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J107&amp;IF($N107, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Styrene-Butadiene Rubber Pellets)</v>
       </c>
       <c r="H107" s="1" t="str">
-        <f>IF($N107, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J107&amp;IF($N107, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N107, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J107&amp;IF($N107, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Styrene-Butadiene Rubber Pellets)</v>
       </c>
       <c r="I107" s="1" t="str">
-        <f>IF($N107, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J107&amp;IF($N107, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N107, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J107&amp;IF($N107, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Styrene-Butadiene Rubber Pellets)</v>
       </c>
       <c r="J107" s="1" t="str">
@@ -15626,19 +15626,19 @@
         <v>24</v>
       </c>
       <c r="F108" s="1" t="str">
-        <f>IF($N108, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J108&amp;IF($N108, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N108, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J108&amp;IF($N108, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Styrene-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="G108" s="1" t="str">
-        <f>IF($N108, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J108&amp;IF($N108, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N108, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J108&amp;IF($N108, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Styrene-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="H108" s="1" t="str">
-        <f>IF($N108, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J108&amp;IF($N108, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N108, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J108&amp;IF($N108, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Styrene-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="I108" s="1" t="str">
-        <f>IF($N108, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J108&amp;IF($N108, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N108, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J108&amp;IF($N108, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Styrene-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="J108" s="1" t="str">
@@ -15675,19 +15675,19 @@
         <v>20</v>
       </c>
       <c r="F109" s="1" t="str">
-        <f>IF($N109, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J109&amp;IF($N109, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N109, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J109&amp;IF($N109, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Styrene-Isoprene-Styrene Pellets)</v>
       </c>
       <c r="G109" s="1" t="str">
-        <f>IF($N109, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J109&amp;IF($N109, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N109, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J109&amp;IF($N109, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Styrene-Isoprene-Styrene Pellets)</v>
       </c>
       <c r="H109" s="1" t="str">
-        <f>IF($N109, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J109&amp;IF($N109, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N109, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J109&amp;IF($N109, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Styrene-Isoprene-Styrene Pellets)</v>
       </c>
       <c r="I109" s="1" t="str">
-        <f>IF($N109, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J109&amp;IF($N109, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N109, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J109&amp;IF($N109, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Styrene-Isoprene-Styrene Pellets)</v>
       </c>
       <c r="J109" s="1" t="str">
@@ -15724,19 +15724,19 @@
         <v>16</v>
       </c>
       <c r="F110" s="1" t="str">
-        <f>IF($N110, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J110&amp;IF($N110, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N110, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J110&amp;IF($N110, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Styrene-Maleic Anhydride Copolymer Pellets)</v>
       </c>
       <c r="G110" s="1" t="str">
-        <f>IF($N110, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J110&amp;IF($N110, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N110, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J110&amp;IF($N110, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Styrene-Maleic Anhydride Copolymer Pellets)</v>
       </c>
       <c r="H110" s="1" t="str">
-        <f>IF($N110, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J110&amp;IF($N110, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N110, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J110&amp;IF($N110, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Styrene-Maleic Anhydride Copolymer Pellets)</v>
       </c>
       <c r="I110" s="1" t="str">
-        <f>IF($N110, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J110&amp;IF($N110, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N110, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J110&amp;IF($N110, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Styrene-Maleic Anhydride Copolymer Pellets)</v>
       </c>
       <c r="J110" s="1" t="str">
@@ -15776,19 +15776,19 @@
         <v>12</v>
       </c>
       <c r="F111" s="1" t="str">
-        <f>IF($N111, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J111&amp;IF($N111, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N111, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J111&amp;IF($N111, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Ultra-High-Molecular-Weight PolyEthylene Pellets)</v>
       </c>
       <c r="G111" s="1" t="str">
-        <f>IF($N111, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J111&amp;IF($N111, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N111, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J111&amp;IF($N111, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Ultra-High-Molecular-Weight PolyEthylene Pellets)</v>
       </c>
       <c r="H111" s="1" t="str">
-        <f>IF($N111, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J111&amp;IF($N111, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N111, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J111&amp;IF($N111, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Ultra-High-Molecular-Weight PolyEthylene Pellets)</v>
       </c>
       <c r="I111" s="1" t="str">
-        <f>IF($N111, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J111&amp;IF($N111, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N111, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J111&amp;IF($N111, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Ultra-High-Molecular-Weight PolyEthylene Pellets)</v>
       </c>
       <c r="J111" s="1" t="str">
@@ -15825,19 +15825,19 @@
         <v>8</v>
       </c>
       <c r="F112" s="1" t="str">
-        <f>IF($N112, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J112&amp;IF($N112, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N112, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J112&amp;IF($N112, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Urea-Formaldehyde Polymers Pellets)</v>
       </c>
       <c r="G112" s="1" t="str">
-        <f>IF($N112, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J112&amp;IF($N112, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N112, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J112&amp;IF($N112, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Urea-Formaldehyde Polymers Pellets)</v>
       </c>
       <c r="H112" s="1" t="str">
-        <f>IF($N112, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J112&amp;IF($N112, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N112, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J112&amp;IF($N112, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Urea-Formaldehyde Polymers Pellets)</v>
       </c>
       <c r="I112" s="1" t="str">
-        <f>IF($N112, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J112&amp;IF($N112, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N112, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J112&amp;IF($N112, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Urea-Formaldehyde Polymers Pellets)</v>
       </c>
       <c r="J112" s="1" t="str">
@@ -15877,19 +15877,19 @@
         <v>4</v>
       </c>
       <c r="F113" s="1" t="str">
-        <f>IF($N113, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J113&amp;IF($N113, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N113, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J113&amp;IF($N113, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Very-Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="G113" s="1" t="str">
-        <f>IF($N113, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J113&amp;IF($N113, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N113, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J113&amp;IF($N113, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Very-Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="H113" s="1" t="str">
-        <f>IF($N113, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J113&amp;IF($N113, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N113, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J113&amp;IF($N113, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Very-Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="I113" s="1" t="str">
-        <f>IF($N113, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J113&amp;IF($N113, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N113, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J113&amp;IF($N113, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Very-Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="J113" s="1" t="str">
@@ -15929,19 +15929,19 @@
         <v>0</v>
       </c>
       <c r="F114" s="1" t="str">
-        <f>IF($N114, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J114&amp;IF($N114, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N114, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J114&amp;IF($N114, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Vinyl Acetate-Acrylic Acid Pellets)</v>
       </c>
       <c r="G114" s="1" t="str">
-        <f>IF($N114, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J114&amp;IF($N114, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N114, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J114&amp;IF($N114, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Vinyl Acetate-Acrylic Acid Pellets)</v>
       </c>
       <c r="H114" s="1" t="str">
-        <f>IF($N114, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J114&amp;IF($N114, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N114, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J114&amp;IF($N114, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Vinyl Acetate-Acrylic Acid Pellets)</v>
       </c>
       <c r="I114" s="1" t="str">
-        <f>IF($N114, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J114&amp;IF($N114, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N114, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J114&amp;IF($N114, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Vinyl Acetate-Acrylic Acid Pellets)</v>
       </c>
       <c r="J114" s="1" t="str">
@@ -15981,19 +15981,19 @@
         <v>1853</v>
       </c>
       <c r="F115" s="1" t="str">
-        <f>IF($N115, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N115, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Polycaprolactam Pellets)</v>
       </c>
       <c r="G115" s="1" t="str">
-        <f>IF($N115, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N115, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Polycaprolactam Pellets)</v>
       </c>
       <c r="H115" s="1" t="str">
-        <f>IF($N115, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N115, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Polycaprolactam Pellets)</v>
       </c>
       <c r="I115" s="1" t="str">
-        <f>IF($N115, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N115, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Polycaprolactam Pellets)</v>
       </c>
       <c r="J115" s="1" t="str">
@@ -16033,19 +16033,19 @@
         <v>2412</v>
       </c>
       <c r="F116" s="1" t="str">
-        <f>IF($N116, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J116&amp;IF($N116, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N116, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J116&amp;IF($N116, " "&amp;$J$1, "")&amp;")"</f>
         <v>Vial (Epoxy-Carbon Fiber Resin)</v>
       </c>
       <c r="G116" s="1" t="str">
-        <f>IF($N116, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J116&amp;IF($N116, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N116, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J116&amp;IF($N116, " "&amp;$J$1, "")&amp;")"</f>
         <v>Beaker (Epoxy-Carbon Fiber Resin)</v>
       </c>
       <c r="H116" s="1" t="str">
-        <f>IF($N116, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J116&amp;IF($N116, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N116, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J116&amp;IF($N116, " "&amp;$J$1, "")&amp;")"</f>
         <v>Drum (Epoxy-Carbon Fiber Resin)</v>
       </c>
       <c r="I116" s="1" t="str">
-        <f>IF($N116, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J116&amp;IF($N116, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N116, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J116&amp;IF($N116, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Vat (Epoxy-Carbon Fiber Resin)</v>
       </c>
       <c r="J116" s="1" t="str">
@@ -16085,19 +16085,19 @@
         <v>2416</v>
       </c>
       <c r="F117" s="1" t="str">
-        <f>IF($N117, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J117&amp;IF($N117, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N117, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J117&amp;IF($N117, " "&amp;$J$1, "")&amp;")"</f>
         <v>Vial (Phenolic-Carbon Fiber Resin)</v>
       </c>
       <c r="G117" s="1" t="str">
-        <f>IF($N117, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J117&amp;IF($N117, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N117, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J117&amp;IF($N117, " "&amp;$J$1, "")&amp;")"</f>
         <v>Beaker (Phenolic-Carbon Fiber Resin)</v>
       </c>
       <c r="H117" s="1" t="str">
-        <f>IF($N117, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J117&amp;IF($N117, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N117, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J117&amp;IF($N117, " "&amp;$J$1, "")&amp;")"</f>
         <v>Drum (Phenolic-Carbon Fiber Resin)</v>
       </c>
       <c r="I117" s="1" t="str">
-        <f>IF($N117, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J117&amp;IF($N117, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N117, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J117&amp;IF($N117, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Vat (Phenolic-Carbon Fiber Resin)</v>
       </c>
       <c r="J117" s="1" t="str">
@@ -16134,19 +16134,19 @@
         <v>2420</v>
       </c>
       <c r="F118" s="1" t="str">
-        <f>IF($N118, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J118&amp;IF($N118, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N118, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J118&amp;IF($N118, " "&amp;$J$1, "")&amp;")"</f>
         <v>Vial (0)</v>
       </c>
       <c r="G118" s="1" t="str">
-        <f>IF($N118, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J118&amp;IF($N118, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N118, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J118&amp;IF($N118, " "&amp;$J$1, "")&amp;")"</f>
         <v>Beaker (0)</v>
       </c>
       <c r="H118" s="1" t="str">
-        <f>IF($N118, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J118&amp;IF($N118, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N118, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J118&amp;IF($N118, " "&amp;$J$1, "")&amp;")"</f>
         <v>Drum (0)</v>
       </c>
       <c r="I118" s="1" t="str">
-        <f>IF($N118, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J118&amp;IF($N118, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N118, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J118&amp;IF($N118, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Vat (0)</v>
       </c>
       <c r="J118" s="1">
@@ -16183,19 +16183,19 @@
         <v>2424</v>
       </c>
       <c r="F119" s="1" t="str">
-        <f>IF($N119, [1]Enums!$A$25, [1]Enums!$A$26)&amp;" ("&amp;$J119&amp;IF($N119, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N119, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J119&amp;IF($N119, " "&amp;$J$1, "")&amp;")"</f>
         <v>Vial (0)</v>
       </c>
       <c r="G119" s="1" t="str">
-        <f>IF($N119, [1]Enums!$A$28, [1]Enums!$A$29)&amp;" ("&amp;$J119&amp;IF($N119, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N119, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J119&amp;IF($N119, " "&amp;$J$1, "")&amp;")"</f>
         <v>Beaker (0)</v>
       </c>
       <c r="H119" s="1" t="str">
-        <f>IF($N119, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J119&amp;IF($N119, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N119, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J119&amp;IF($N119, " "&amp;$J$1, "")&amp;")"</f>
         <v>Drum (0)</v>
       </c>
       <c r="I119" s="1" t="str">
-        <f>IF($N119, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J119&amp;IF($N119, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N119, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J119&amp;IF($N119, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Vat (0)</v>
       </c>
       <c r="J119" s="1">
@@ -17175,7 +17175,7 @@
         <v>Steel Ingot</v>
       </c>
       <c r="I2" s="45" t="str">
-        <f>[1]Enums!$A$134&amp;" "&amp;VLOOKUP(H2, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$135&amp;" "&amp;VLOOKUP(H2, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Composite Steel</v>
       </c>
       <c r="J2" s="45">
@@ -17223,7 +17223,7 @@
         <v>Stainless Steel Ingot</v>
       </c>
       <c r="I3" s="45" t="str">
-        <f>[1]Enums!$A$134&amp;" "&amp;VLOOKUP(H3, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$135&amp;" "&amp;VLOOKUP(H3, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Composite Stainless Steel</v>
       </c>
       <c r="J3" s="45">
@@ -17271,7 +17271,7 @@
         <v>Brass Ingot</v>
       </c>
       <c r="I4" s="45" t="str">
-        <f>[1]Enums!$A$134&amp;" "&amp;VLOOKUP(H4, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$135&amp;" "&amp;VLOOKUP(H4, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Composite Brass</v>
       </c>
       <c r="J4" s="45">
@@ -17319,7 +17319,7 @@
         <v>Bronze Ingot</v>
       </c>
       <c r="I5" s="45" t="str">
-        <f>[1]Enums!$A$134&amp;" "&amp;VLOOKUP(H5, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$135&amp;" "&amp;VLOOKUP(H5, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Composite Bronze</v>
       </c>
       <c r="J5" s="45">
@@ -17367,7 +17367,7 @@
         <v>Tungsten Carbide Ingot</v>
       </c>
       <c r="I6" s="45" t="str">
-        <f>[1]Enums!$A$134&amp;" "&amp;VLOOKUP(H6, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$135&amp;" "&amp;VLOOKUP(H6, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Composite Tungsten Carbide</v>
       </c>
       <c r="J6" s="45">
@@ -17415,7 +17415,7 @@
         <v>Nichrome Ingot</v>
       </c>
       <c r="I7" s="45" t="str">
-        <f>[1]Enums!$A$134&amp;" "&amp;VLOOKUP(H7, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$135&amp;" "&amp;VLOOKUP(H7, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Composite Nichrome</v>
       </c>
       <c r="J7" s="45">
@@ -17463,7 +17463,7 @@
         <v>Antimony-Lead Ingot</v>
       </c>
       <c r="I8" s="45" t="str">
-        <f>[1]Enums!$A$134&amp;" "&amp;VLOOKUP(H8, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$135&amp;" "&amp;VLOOKUP(H8, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Composite Antimony-Lead</v>
       </c>
       <c r="J8" s="45">
@@ -17511,7 +17511,7 @@
         <v>Steel Ingot</v>
       </c>
       <c r="I9" s="45" t="str">
-        <f>[1]Enums!$A$135&amp;" "&amp;VLOOKUP(H9, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$136&amp;" "&amp;VLOOKUP(H9, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Engineered Steel</v>
       </c>
       <c r="J9" s="45">
@@ -17559,7 +17559,7 @@
         <v>Stainless Steel Ingot</v>
       </c>
       <c r="I10" s="45" t="str">
-        <f>[1]Enums!$A$135&amp;" "&amp;VLOOKUP(H10, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$136&amp;" "&amp;VLOOKUP(H10, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Engineered Stainless Steel</v>
       </c>
       <c r="J10" s="45">
@@ -17607,7 +17607,7 @@
         <v>Brass Ingot</v>
       </c>
       <c r="I11" s="45" t="str">
-        <f>[1]Enums!$A$135&amp;" "&amp;VLOOKUP(H11, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$136&amp;" "&amp;VLOOKUP(H11, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Engineered Brass</v>
       </c>
       <c r="J11" s="45">
@@ -17655,7 +17655,7 @@
         <v>Bronze Ingot</v>
       </c>
       <c r="I12" s="45" t="str">
-        <f>[1]Enums!$A$135&amp;" "&amp;VLOOKUP(H12, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$136&amp;" "&amp;VLOOKUP(H12, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Engineered Bronze</v>
       </c>
       <c r="J12" s="45">
@@ -17703,7 +17703,7 @@
         <v>Tungsten Carbide Ingot</v>
       </c>
       <c r="I13" s="45" t="str">
-        <f>[1]Enums!$A$135&amp;" "&amp;VLOOKUP(H13, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$136&amp;" "&amp;VLOOKUP(H13, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Engineered Tungsten Carbide</v>
       </c>
       <c r="J13" s="45">
@@ -17751,7 +17751,7 @@
         <v>Nichrome Ingot</v>
       </c>
       <c r="I14" s="45" t="str">
-        <f>[1]Enums!$A$135&amp;" "&amp;VLOOKUP(H14, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$136&amp;" "&amp;VLOOKUP(H14, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Engineered Nichrome</v>
       </c>
       <c r="J14" s="45">
@@ -17799,7 +17799,7 @@
         <v>Antimony-Lead Ingot</v>
       </c>
       <c r="I15" s="45" t="str">
-        <f>[1]Enums!$A$135&amp;" "&amp;VLOOKUP(H15, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$136&amp;" "&amp;VLOOKUP(H15, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Engineered Antimony-Lead</v>
       </c>
       <c r="J15" s="45">
@@ -17847,7 +17847,7 @@
         <v>Iron Ingot</v>
       </c>
       <c r="I16" s="45" t="str">
-        <f>[1]Enums!$A$134&amp;" Iron"</f>
+        <f>[1]Enums!$A$135&amp;" Iron"</f>
         <v>Composite Iron</v>
       </c>
       <c r="J16" s="45">
@@ -17895,7 +17895,7 @@
         <v>Iron Ingot</v>
       </c>
       <c r="I17" s="45" t="str">
-        <f>[1]Enums!$A$135&amp;" Iron"</f>
+        <f>[1]Enums!$A$136&amp;" Iron"</f>
         <v>Engineered Iron</v>
       </c>
       <c r="J17" s="45">
@@ -17943,7 +17943,7 @@
         <v>Diamond</v>
       </c>
       <c r="I18" s="45" t="str">
-        <f>[1]Enums!$A$134&amp;" Diamond"</f>
+        <f>[1]Enums!$A$135&amp;" Diamond"</f>
         <v>Composite Diamond</v>
       </c>
       <c r="J18" s="45">
@@ -17991,7 +17991,7 @@
         <v>Diamond</v>
       </c>
       <c r="I19" s="45" t="str">
-        <f>[1]Enums!$A$135&amp;" Diamond"</f>
+        <f>[1]Enums!$A$136&amp;" Diamond"</f>
         <v>Engineered Diamond</v>
       </c>
       <c r="J19" s="45">
@@ -18292,7 +18292,7 @@
         <v>Molded Item</v>
       </c>
       <c r="F1" s="36" t="str">
-        <f xml:space="preserve"> [1]Enums!$A$99</f>
+        <f xml:space="preserve"> [1]Enums!$A$100</f>
         <v>Base Material</v>
       </c>
       <c r="G1" s="30" t="s">
@@ -18320,7 +18320,7 @@
         <v>1812</v>
       </c>
       <c r="C2" s="22" t="str">
-        <f>[1]Enums!$A$96&amp;" "&amp;D2</f>
+        <f>[1]Enums!$A$97&amp;" "&amp;D2</f>
         <v>Gripped Iron Shovel</v>
       </c>
       <c r="D2" s="24" t="str">
@@ -18332,7 +18332,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F2" s="34" t="str">
-        <f>[1]Enums!$A$102</f>
+        <f>[1]Enums!$A$103</f>
         <v>Iron</v>
       </c>
       <c r="G2" s="24">
@@ -18357,7 +18357,7 @@
         <v>1811</v>
       </c>
       <c r="C3" s="22" t="str">
-        <f>[1]Enums!$A$96&amp;" "&amp;D3</f>
+        <f>[1]Enums!$A$97&amp;" "&amp;D3</f>
         <v>Gripped Iron Pickaxe</v>
       </c>
       <c r="D3" s="21" t="str">
@@ -18369,7 +18369,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F3" s="34" t="str">
-        <f>[1]Enums!$A$102</f>
+        <f>[1]Enums!$A$103</f>
         <v>Iron</v>
       </c>
       <c r="G3" s="24">
@@ -18394,7 +18394,7 @@
         <v>1810</v>
       </c>
       <c r="C4" s="22" t="str">
-        <f>[1]Enums!$A$96&amp;" "&amp;D4</f>
+        <f>[1]Enums!$A$97&amp;" "&amp;D4</f>
         <v>Gripped Iron Axe</v>
       </c>
       <c r="D4" s="21" t="str">
@@ -18406,7 +18406,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F4" s="34" t="str">
-        <f>[1]Enums!$A$102</f>
+        <f>[1]Enums!$A$103</f>
         <v>Iron</v>
       </c>
       <c r="G4" s="24">
@@ -18431,7 +18431,7 @@
         <v>1809</v>
       </c>
       <c r="C5" s="22" t="str">
-        <f>[1]Enums!$A$96&amp;" "&amp;D5</f>
+        <f>[1]Enums!$A$97&amp;" "&amp;D5</f>
         <v>Gripped Iron Sword</v>
       </c>
       <c r="D5" s="21" t="str">
@@ -18443,7 +18443,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F5" s="34" t="str">
-        <f>[1]Enums!$A$102</f>
+        <f>[1]Enums!$A$103</f>
         <v>Iron</v>
       </c>
       <c r="G5" s="24">
@@ -18468,7 +18468,7 @@
         <v>1808</v>
       </c>
       <c r="C6" s="22" t="str">
-        <f>[1]Enums!$A$96&amp;" "&amp;D6</f>
+        <f>[1]Enums!$A$97&amp;" "&amp;D6</f>
         <v>Gripped Wooden Sword</v>
       </c>
       <c r="D6" s="21" t="str">
@@ -18480,7 +18480,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F6" s="34" t="str">
-        <f>[1]Enums!$A$100</f>
+        <f>[1]Enums!$A$101</f>
         <v>Wooden</v>
       </c>
       <c r="G6" s="24">
@@ -18505,7 +18505,7 @@
         <v>1807</v>
       </c>
       <c r="C7" s="22" t="str">
-        <f>[1]Enums!$A$96&amp;" "&amp;D7</f>
+        <f>[1]Enums!$A$97&amp;" "&amp;D7</f>
         <v>Gripped Wooden Shovel</v>
       </c>
       <c r="D7" s="21" t="str">
@@ -18517,7 +18517,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F7" s="34" t="str">
-        <f>[1]Enums!$A$100</f>
+        <f>[1]Enums!$A$101</f>
         <v>Wooden</v>
       </c>
       <c r="G7" s="24">
@@ -18542,7 +18542,7 @@
         <v>1806</v>
       </c>
       <c r="C8" s="22" t="str">
-        <f>[1]Enums!$A$96&amp;" "&amp;D8</f>
+        <f>[1]Enums!$A$97&amp;" "&amp;D8</f>
         <v>Gripped Wooden Pickaxe</v>
       </c>
       <c r="D8" s="21" t="str">
@@ -18554,7 +18554,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F8" s="34" t="str">
-        <f>[1]Enums!$A$100</f>
+        <f>[1]Enums!$A$101</f>
         <v>Wooden</v>
       </c>
       <c r="G8" s="24">
@@ -18579,7 +18579,7 @@
         <v>1805</v>
       </c>
       <c r="C9" s="22" t="str">
-        <f>[1]Enums!$A$96&amp;" "&amp;D9</f>
+        <f>[1]Enums!$A$97&amp;" "&amp;D9</f>
         <v>Gripped Wooden Axe</v>
       </c>
       <c r="D9" s="21" t="str">
@@ -18591,7 +18591,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F9" s="34" t="str">
-        <f>[1]Enums!$A$100</f>
+        <f>[1]Enums!$A$101</f>
         <v>Wooden</v>
       </c>
       <c r="G9" s="24">
@@ -18616,7 +18616,7 @@
         <v>1804</v>
       </c>
       <c r="C10" s="22" t="str">
-        <f>[1]Enums!$A$96&amp;" "&amp;D10</f>
+        <f>[1]Enums!$A$97&amp;" "&amp;D10</f>
         <v>Gripped Stone Sword</v>
       </c>
       <c r="D10" s="21" t="str">
@@ -18628,7 +18628,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F10" s="34" t="str">
-        <f>[1]Enums!$A$101</f>
+        <f>[1]Enums!$A$102</f>
         <v>Stone</v>
       </c>
       <c r="G10" s="24">
@@ -18653,7 +18653,7 @@
         <v>1803</v>
       </c>
       <c r="C11" s="22" t="str">
-        <f>[1]Enums!$A$96&amp;" "&amp;D11</f>
+        <f>[1]Enums!$A$97&amp;" "&amp;D11</f>
         <v>Gripped Stone Shovel</v>
       </c>
       <c r="D11" s="21" t="str">
@@ -18665,7 +18665,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F11" s="34" t="str">
-        <f>[1]Enums!$A$101</f>
+        <f>[1]Enums!$A$102</f>
         <v>Stone</v>
       </c>
       <c r="G11" s="24">
@@ -18690,7 +18690,7 @@
         <v>1802</v>
       </c>
       <c r="C12" s="22" t="str">
-        <f>[1]Enums!$A$96&amp;" "&amp;D12</f>
+        <f>[1]Enums!$A$97&amp;" "&amp;D12</f>
         <v>Gripped Stone Pickaxe</v>
       </c>
       <c r="D12" s="21" t="str">
@@ -18702,7 +18702,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F12" s="34" t="str">
-        <f>[1]Enums!$A$101</f>
+        <f>[1]Enums!$A$102</f>
         <v>Stone</v>
       </c>
       <c r="G12" s="24">
@@ -18727,7 +18727,7 @@
         <v>1801</v>
       </c>
       <c r="C13" s="22" t="str">
-        <f>[1]Enums!$A$96&amp;" "&amp;D13</f>
+        <f>[1]Enums!$A$97&amp;" "&amp;D13</f>
         <v>Gripped Stone Axe</v>
       </c>
       <c r="D13" s="21" t="str">
@@ -18739,7 +18739,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F13" s="34" t="str">
-        <f>[1]Enums!$A$101</f>
+        <f>[1]Enums!$A$102</f>
         <v>Stone</v>
       </c>
       <c r="G13" s="24">
@@ -18764,7 +18764,7 @@
         <v>1800</v>
       </c>
       <c r="C14" s="22" t="str">
-        <f>[1]Enums!$A$96&amp;" "&amp;D14</f>
+        <f>[1]Enums!$A$97&amp;" "&amp;D14</f>
         <v>Gripped Diamond Sword</v>
       </c>
       <c r="D14" s="21" t="str">
@@ -18776,7 +18776,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F14" s="34" t="str">
-        <f>[1]Enums!$A$104</f>
+        <f>[1]Enums!$A$105</f>
         <v>Diamond</v>
       </c>
       <c r="G14" s="24">
@@ -18801,7 +18801,7 @@
         <v>1799</v>
       </c>
       <c r="C15" s="22" t="str">
-        <f>[1]Enums!$A$96&amp;" "&amp;D15</f>
+        <f>[1]Enums!$A$97&amp;" "&amp;D15</f>
         <v>Gripped Diamond Shovel</v>
       </c>
       <c r="D15" s="21" t="str">
@@ -18813,7 +18813,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F15" s="34" t="str">
-        <f>[1]Enums!$A$104</f>
+        <f>[1]Enums!$A$105</f>
         <v>Diamond</v>
       </c>
       <c r="G15" s="24">
@@ -18838,7 +18838,7 @@
         <v>1798</v>
       </c>
       <c r="C16" s="22" t="str">
-        <f>[1]Enums!$A$96&amp;" "&amp;D16</f>
+        <f>[1]Enums!$A$97&amp;" "&amp;D16</f>
         <v>Gripped Diamond Pickaxe</v>
       </c>
       <c r="D16" s="21" t="str">
@@ -18850,7 +18850,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F16" s="34" t="str">
-        <f>[1]Enums!$A$104</f>
+        <f>[1]Enums!$A$105</f>
         <v>Diamond</v>
       </c>
       <c r="G16" s="24">
@@ -18875,7 +18875,7 @@
         <v>1797</v>
       </c>
       <c r="C17" s="22" t="str">
-        <f>[1]Enums!$A$96&amp;" "&amp;D17</f>
+        <f>[1]Enums!$A$97&amp;" "&amp;D17</f>
         <v>Gripped Diamond Axe</v>
       </c>
       <c r="D17" s="21" t="str">
@@ -18887,7 +18887,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F17" s="34" t="str">
-        <f>[1]Enums!$A$104</f>
+        <f>[1]Enums!$A$105</f>
         <v>Diamond</v>
       </c>
       <c r="G17" s="24">
@@ -18912,7 +18912,7 @@
         <v>1796</v>
       </c>
       <c r="C18" s="22" t="str">
-        <f>[1]Enums!$A$96&amp;" "&amp;D18</f>
+        <f>[1]Enums!$A$97&amp;" "&amp;D18</f>
         <v>Gripped Golden Sword</v>
       </c>
       <c r="D18" s="21" t="str">
@@ -18924,7 +18924,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F18" s="34" t="str">
-        <f>[1]Enums!$A$103</f>
+        <f>[1]Enums!$A$104</f>
         <v>Golden</v>
       </c>
       <c r="G18" s="24">
@@ -18949,7 +18949,7 @@
         <v>1795</v>
       </c>
       <c r="C19" s="22" t="str">
-        <f>[1]Enums!$A$96&amp;" "&amp;D19</f>
+        <f>[1]Enums!$A$97&amp;" "&amp;D19</f>
         <v>Gripped Golden Shovel</v>
       </c>
       <c r="D19" s="21" t="str">
@@ -18961,7 +18961,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F19" s="34" t="str">
-        <f>[1]Enums!$A$103</f>
+        <f>[1]Enums!$A$104</f>
         <v>Golden</v>
       </c>
       <c r="G19" s="24">
@@ -18986,7 +18986,7 @@
         <v>1794</v>
       </c>
       <c r="C20" s="22" t="str">
-        <f>[1]Enums!$A$96&amp;" "&amp;D20</f>
+        <f>[1]Enums!$A$97&amp;" "&amp;D20</f>
         <v>Gripped Golden Pickaxe</v>
       </c>
       <c r="D20" s="21" t="str">
@@ -18998,7 +18998,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F20" s="34" t="str">
-        <f>[1]Enums!$A$103</f>
+        <f>[1]Enums!$A$104</f>
         <v>Golden</v>
       </c>
       <c r="G20" s="24">
@@ -19023,7 +19023,7 @@
         <v>1793</v>
       </c>
       <c r="C21" s="22" t="str">
-        <f>[1]Enums!$A$96&amp;" "&amp;D21</f>
+        <f>[1]Enums!$A$97&amp;" "&amp;D21</f>
         <v>Gripped Golden Axe</v>
       </c>
       <c r="D21" s="21" t="str">
@@ -19035,7 +19035,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F21" s="34" t="str">
-        <f>[1]Enums!$A$103</f>
+        <f>[1]Enums!$A$104</f>
         <v>Golden</v>
       </c>
       <c r="G21" s="24">
@@ -19060,7 +19060,7 @@
         <v>1792</v>
       </c>
       <c r="C22" s="22" t="str">
-        <f>[1]Enums!$A$96&amp;" "&amp;D22</f>
+        <f>[1]Enums!$A$97&amp;" "&amp;D22</f>
         <v>Gripped Wooden Hoe</v>
       </c>
       <c r="D22" s="21" t="str">
@@ -19072,7 +19072,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F22" s="34" t="str">
-        <f>[1]Enums!$A$100</f>
+        <f>[1]Enums!$A$101</f>
         <v>Wooden</v>
       </c>
       <c r="G22" s="24">
@@ -19097,7 +19097,7 @@
         <v>1791</v>
       </c>
       <c r="C23" s="22" t="str">
-        <f>[1]Enums!$A$96&amp;" "&amp;D23</f>
+        <f>[1]Enums!$A$97&amp;" "&amp;D23</f>
         <v>Gripped Stone Hoe</v>
       </c>
       <c r="D23" s="21" t="str">
@@ -19109,7 +19109,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F23" s="34" t="str">
-        <f>[1]Enums!$A$101</f>
+        <f>[1]Enums!$A$102</f>
         <v>Stone</v>
       </c>
       <c r="G23" s="24">
@@ -19134,7 +19134,7 @@
         <v>1790</v>
       </c>
       <c r="C24" s="22" t="str">
-        <f>[1]Enums!$A$96&amp;" "&amp;D24</f>
+        <f>[1]Enums!$A$97&amp;" "&amp;D24</f>
         <v>Gripped Iron Hoe</v>
       </c>
       <c r="D24" s="21" t="str">
@@ -19146,7 +19146,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F24" s="34" t="str">
-        <f>[1]Enums!$A$102</f>
+        <f>[1]Enums!$A$103</f>
         <v>Iron</v>
       </c>
       <c r="G24" s="24">
@@ -19171,7 +19171,7 @@
         <v>1789</v>
       </c>
       <c r="C25" s="22" t="str">
-        <f>[1]Enums!$A$96&amp;" "&amp;D25</f>
+        <f>[1]Enums!$A$97&amp;" "&amp;D25</f>
         <v>Gripped Diamond Hoe</v>
       </c>
       <c r="D25" s="21" t="str">
@@ -19183,7 +19183,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F25" s="34" t="str">
-        <f>[1]Enums!$A$104</f>
+        <f>[1]Enums!$A$105</f>
         <v>Diamond</v>
       </c>
       <c r="G25" s="24">
@@ -19208,7 +19208,7 @@
         <v>1788</v>
       </c>
       <c r="C26" s="22" t="str">
-        <f>[1]Enums!$A$96&amp;" "&amp;D26</f>
+        <f>[1]Enums!$A$97&amp;" "&amp;D26</f>
         <v>Gripped Golden Hoe</v>
       </c>
       <c r="D26" s="21" t="str">
@@ -19220,7 +19220,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F26" s="34" t="str">
-        <f>[1]Enums!$A$103</f>
+        <f>[1]Enums!$A$104</f>
         <v>Golden</v>
       </c>
       <c r="G26" s="24">
@@ -19282,7 +19282,7 @@
         <v>1832</v>
       </c>
       <c r="D1" s="36" t="str">
-        <f xml:space="preserve"> [1]Enums!$A$99</f>
+        <f xml:space="preserve"> [1]Enums!$A$100</f>
         <v>Base Material</v>
       </c>
       <c r="E1" s="36" t="s">
@@ -19328,7 +19328,7 @@
         <v>Wooden Pogo Stick</v>
       </c>
       <c r="D2" s="34" t="str">
-        <f>[1]Enums!$A$100</f>
+        <f>[1]Enums!$A$101</f>
         <v>Wooden</v>
       </c>
       <c r="E2" s="37">
@@ -19365,7 +19365,7 @@
         <v>Stone Pogo Stick</v>
       </c>
       <c r="D3" s="34" t="str">
-        <f>[1]Enums!$A$101</f>
+        <f>[1]Enums!$A$102</f>
         <v>Stone</v>
       </c>
       <c r="E3" s="37">
@@ -19401,7 +19401,7 @@
         <v>Iron Pogo Stick</v>
       </c>
       <c r="D4" s="34" t="str">
-        <f>[1]Enums!$A$102</f>
+        <f>[1]Enums!$A$103</f>
         <v>Iron</v>
       </c>
       <c r="E4" s="37">
@@ -19437,7 +19437,7 @@
         <v>Golden Pogo Stick</v>
       </c>
       <c r="D5" s="34" t="str">
-        <f>[1]Enums!$A$103</f>
+        <f>[1]Enums!$A$104</f>
         <v>Golden</v>
       </c>
       <c r="E5" s="37">
@@ -19473,7 +19473,7 @@
         <v>Diamond Pogo Stick</v>
       </c>
       <c r="D6" s="34" t="str">
-        <f>[1]Enums!$A$104</f>
+        <f>[1]Enums!$A$105</f>
         <v>Diamond</v>
       </c>
       <c r="E6" s="37">
@@ -19509,7 +19509,7 @@
         <v>Magic Pogo Stick</v>
       </c>
       <c r="D7" s="34" t="str">
-        <f>[1]Enums!$A$105</f>
+        <f>[1]Enums!$A$106</f>
         <v>Magic</v>
       </c>
       <c r="E7" s="37">
@@ -19541,11 +19541,11 @@
         <v>1821</v>
       </c>
       <c r="C8" s="34" t="str">
-        <f>[1]Enums!$A$96&amp;" "&amp;I8</f>
+        <f>[1]Enums!$A$97&amp;" "&amp;I8</f>
         <v>Gripped Wooden Pogo Stick</v>
       </c>
       <c r="D8" s="34" t="str">
-        <f>[1]Enums!$A$100</f>
+        <f>[1]Enums!$A$101</f>
         <v>Wooden</v>
       </c>
       <c r="E8" s="37">
@@ -19585,11 +19585,11 @@
         <v>1820</v>
       </c>
       <c r="C9" s="34" t="str">
-        <f>[1]Enums!$A$96&amp;" "&amp;I9</f>
+        <f>[1]Enums!$A$97&amp;" "&amp;I9</f>
         <v>Gripped Stone Pogo Stick</v>
       </c>
       <c r="D9" s="34" t="str">
-        <f>[1]Enums!$A$101</f>
+        <f>[1]Enums!$A$102</f>
         <v>Stone</v>
       </c>
       <c r="E9" s="37">
@@ -19629,11 +19629,11 @@
         <v>1819</v>
       </c>
       <c r="C10" s="34" t="str">
-        <f>[1]Enums!$A$96&amp;" "&amp;I10</f>
+        <f>[1]Enums!$A$97&amp;" "&amp;I10</f>
         <v>Gripped Iron Pogo Stick</v>
       </c>
       <c r="D10" s="34" t="str">
-        <f>[1]Enums!$A$102</f>
+        <f>[1]Enums!$A$103</f>
         <v>Iron</v>
       </c>
       <c r="E10" s="37">
@@ -19673,11 +19673,11 @@
         <v>1818</v>
       </c>
       <c r="C11" s="34" t="str">
-        <f>[1]Enums!$A$96&amp;" "&amp;I11</f>
+        <f>[1]Enums!$A$97&amp;" "&amp;I11</f>
         <v>Gripped Golden Pogo Stick</v>
       </c>
       <c r="D11" s="34" t="str">
-        <f>[1]Enums!$A$103</f>
+        <f>[1]Enums!$A$104</f>
         <v>Golden</v>
       </c>
       <c r="E11" s="37">
@@ -19717,11 +19717,11 @@
         <v>1817</v>
       </c>
       <c r="C12" s="34" t="str">
-        <f>[1]Enums!$A$96&amp;" "&amp;I12</f>
+        <f>[1]Enums!$A$97&amp;" "&amp;I12</f>
         <v>Gripped Diamond Pogo Stick</v>
       </c>
       <c r="D12" s="34" t="str">
-        <f>[1]Enums!$A$104</f>
+        <f>[1]Enums!$A$105</f>
         <v>Diamond</v>
       </c>
       <c r="E12" s="37">
@@ -37803,7 +37803,7 @@
         <v>590</v>
       </c>
       <c r="D1" s="7" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$73</f>
+        <f xml:space="preserve"> [1]Enums!$B$74</f>
         <v>Mold Type</v>
       </c>
       <c r="E1" s="19" t="str">
@@ -37827,7 +37827,7 @@
         <v>Mold (Grip)</v>
       </c>
       <c r="D2" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$77</f>
+        <f xml:space="preserve"> [1]Enums!$B$78</f>
         <v>Mold</v>
       </c>
       <c r="E2" s="11" t="str">
@@ -37852,7 +37852,7 @@
         <v>Mold (Running Shoes)</v>
       </c>
       <c r="D3" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$77</f>
+        <f xml:space="preserve"> [1]Enums!$B$78</f>
         <v>Mold</v>
       </c>
       <c r="E3" s="11" t="str">
@@ -37877,7 +37877,7 @@
         <v>Mold (Scuba Fins)</v>
       </c>
       <c r="D4" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$77</f>
+        <f xml:space="preserve"> [1]Enums!$B$78</f>
         <v>Mold</v>
       </c>
       <c r="E4" s="11" t="str">
@@ -37902,7 +37902,7 @@
         <v>Mold (Scuba Mask)</v>
       </c>
       <c r="D5" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$77</f>
+        <f xml:space="preserve"> [1]Enums!$B$78</f>
         <v>Mold</v>
       </c>
       <c r="E5" s="11" t="str">
@@ -37927,7 +37927,7 @@
         <v>Mold (Gasket)</v>
       </c>
       <c r="D6" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$77</f>
+        <f xml:space="preserve"> [1]Enums!$B$78</f>
         <v>Mold</v>
       </c>
       <c r="E6" s="11" t="str">
@@ -37952,7 +37952,7 @@
         <v>Mold (Life Preserver)</v>
       </c>
       <c r="D7" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$77</f>
+        <f xml:space="preserve"> [1]Enums!$B$78</f>
         <v>Mold</v>
       </c>
       <c r="E7" s="11" t="str">
@@ -37977,7 +37977,7 @@
         <v>Metal Die (Fibers)</v>
       </c>
       <c r="D8" s="2" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$78</f>
+        <f xml:space="preserve"> [1]Enums!$B$79</f>
         <v>Metal Die</v>
       </c>
       <c r="E8" s="11" t="str">
@@ -38002,7 +38002,7 @@
         <v>Metal Die (Tether)</v>
       </c>
       <c r="D9" s="2" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$78</f>
+        <f xml:space="preserve"> [1]Enums!$B$79</f>
         <v>Metal Die</v>
       </c>
       <c r="E9" s="11" t="str">
@@ -38027,7 +38027,7 @@
         <v>Metal Die (Cord)</v>
       </c>
       <c r="D10" s="2" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$78</f>
+        <f xml:space="preserve"> [1]Enums!$B$79</f>
         <v>Metal Die</v>
       </c>
       <c r="E10" s="11" t="str">
@@ -38052,7 +38052,7 @@
         <v>Metal Die (Hose)</v>
       </c>
       <c r="D11" s="2" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$78</f>
+        <f xml:space="preserve"> [1]Enums!$B$79</f>
         <v>Metal Die</v>
       </c>
       <c r="E11" s="11" t="str">
@@ -38077,7 +38077,7 @@
         <v>Metal Die (Pipe Segment)</v>
       </c>
       <c r="D12" s="2" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$78</f>
+        <f xml:space="preserve"> [1]Enums!$B$79</f>
         <v>Metal Die</v>
       </c>
       <c r="E12" s="11" t="str">
@@ -38102,7 +38102,7 @@
         <v>Mold (Flashlight Shaft)</v>
       </c>
       <c r="D13" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$77</f>
+        <f xml:space="preserve"> [1]Enums!$B$78</f>
         <v>Mold</v>
       </c>
       <c r="E13" s="11" t="str">
@@ -38126,7 +38126,7 @@
         <v>Mold (Plastic Brick (1 x 1))</v>
       </c>
       <c r="D14" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$77</f>
+        <f xml:space="preserve"> [1]Enums!$B$78</f>
         <v>Mold</v>
       </c>
       <c r="E14" t="str">
@@ -38150,7 +38150,7 @@
         <v>Mold (Plastic Brick (1 x 2))</v>
       </c>
       <c r="D15" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$77</f>
+        <f xml:space="preserve"> [1]Enums!$B$78</f>
         <v>Mold</v>
       </c>
       <c r="E15" t="str">
@@ -38174,7 +38174,7 @@
         <v>Mold (Plastic Brick (1 x 3))</v>
       </c>
       <c r="D16" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$77</f>
+        <f xml:space="preserve"> [1]Enums!$B$78</f>
         <v>Mold</v>
       </c>
       <c r="E16" t="str">
@@ -38198,7 +38198,7 @@
         <v>Mold (Plastic Brick (1 x 4))</v>
       </c>
       <c r="D17" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$77</f>
+        <f xml:space="preserve"> [1]Enums!$B$78</f>
         <v>Mold</v>
       </c>
       <c r="E17" t="str">
@@ -38222,7 +38222,7 @@
         <v>Mold (Plastic Brick (2 x 2))</v>
       </c>
       <c r="D18" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$77</f>
+        <f xml:space="preserve"> [1]Enums!$B$78</f>
         <v>Mold</v>
       </c>
       <c r="E18" t="str">
@@ -38246,7 +38246,7 @@
         <v>Mold (Plastic Brick (2 x 3))</v>
       </c>
       <c r="D19" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$77</f>
+        <f xml:space="preserve"> [1]Enums!$B$78</f>
         <v>Mold</v>
       </c>
       <c r="E19" t="str">
@@ -38270,7 +38270,7 @@
         <v>Mold (Plastic Brick (2 x 4))</v>
       </c>
       <c r="D20" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$77</f>
+        <f xml:space="preserve"> [1]Enums!$B$78</f>
         <v>Mold</v>
       </c>
       <c r="E20" t="str">
@@ -38294,7 +38294,7 @@
         <v>Mold (Plastic Brick (3 x 3))</v>
       </c>
       <c r="D21" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$77</f>
+        <f xml:space="preserve"> [1]Enums!$B$78</f>
         <v>Mold</v>
       </c>
       <c r="E21" t="str">
@@ -38318,7 +38318,7 @@
         <v>Mold (Plastic Brick (3 x 4))</v>
       </c>
       <c r="D22" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$77</f>
+        <f xml:space="preserve"> [1]Enums!$B$78</f>
         <v>Mold</v>
       </c>
       <c r="E22" t="str">
@@ -38342,7 +38342,7 @@
         <v>Mold (Plastic Brick (4 x 4))</v>
       </c>
       <c r="D23" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$77</f>
+        <f xml:space="preserve"> [1]Enums!$B$78</f>
         <v>Mold</v>
       </c>
       <c r="E23" t="str">
@@ -38366,7 +38366,7 @@
         <v>Mold (Plastic Brick (1 x 8))</v>
       </c>
       <c r="D24" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$77</f>
+        <f xml:space="preserve"> [1]Enums!$B$78</f>
         <v>Mold</v>
       </c>
       <c r="E24" t="str">
@@ -38390,7 +38390,7 @@
         <v>Mold (Plastic Brick (2 x 8))</v>
       </c>
       <c r="D25" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$77</f>
+        <f xml:space="preserve"> [1]Enums!$B$78</f>
         <v>Mold</v>
       </c>
       <c r="E25" t="str">
@@ -38414,7 +38414,7 @@
         <v>Mold (Heated Knife Handle)</v>
       </c>
       <c r="D26" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$77</f>
+        <f xml:space="preserve"> [1]Enums!$B$78</f>
         <v>Mold</v>
       </c>
       <c r="E26" s="11" t="str">
@@ -38438,7 +38438,7 @@
         <v>Mold (Rubber Sole)</v>
       </c>
       <c r="D27" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$77</f>
+        <f xml:space="preserve"> [1]Enums!$B$78</f>
         <v>Mold</v>
       </c>
       <c r="E27" s="11" t="str">
@@ -38462,7 +38462,7 @@
         <v>Mold (Battery Case)</v>
       </c>
       <c r="D28" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$77</f>
+        <f xml:space="preserve"> [1]Enums!$B$78</f>
         <v>Mold</v>
       </c>
       <c r="E28" s="11" t="str">
@@ -38486,7 +38486,7 @@
         <v>Mold (Tool Shaft)</v>
       </c>
       <c r="D29" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$77</f>
+        <f xml:space="preserve"> [1]Enums!$B$78</f>
         <v>Mold</v>
       </c>
       <c r="E29" t="str">
@@ -38510,7 +38510,7 @@
         <v>Mold (Lighter Body)</v>
       </c>
       <c r="D30" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$77</f>
+        <f xml:space="preserve"> [1]Enums!$B$78</f>
         <v>Mold</v>
       </c>
       <c r="E30" t="str">
@@ -38533,8 +38533,8 @@
   </sheetPr>
   <dimension ref="A1:U156"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:D30"/>
+    <sheetView showZeros="0" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="E152" sqref="E152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/config/Polycraft Polymers.xlsx
+++ b/config/Polycraft Polymers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="27660" yWindow="0" windowWidth="27240" windowHeight="14310" tabRatio="826"/>
+    <workbookView xWindow="28590" yWindow="0" windowWidth="27240" windowHeight="14310" tabRatio="826"/>
   </bookViews>
   <sheets>
     <sheet name="Pellets" sheetId="1" r:id="rId1"/>
@@ -7886,108 +7886,108 @@
             <v>1.1.2</v>
           </cell>
         </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>Bag</v>
-          </cell>
-        </row>
         <row r="27">
           <cell r="A27" t="str">
+            <v>Bag</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
             <v>Vial</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>Sack</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
+            <v>Sack</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
             <v>Beaker</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>Powder Keg</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
+            <v>Powder Keg</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
             <v>Drum</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>Chemical Silo</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36" t="str">
+            <v>Chemical Silo</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
             <v>Chemical Vat</v>
           </cell>
         </row>
-        <row r="74">
-          <cell r="B74" t="str">
+        <row r="75">
+          <cell r="B75" t="str">
             <v>Mold Type</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="B78" t="str">
-            <v>Mold</v>
           </cell>
         </row>
         <row r="79">
           <cell r="B79" t="str">
+            <v>Mold</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="B80" t="str">
             <v>Metal Die</v>
           </cell>
         </row>
-        <row r="97">
-          <cell r="A97" t="str">
+        <row r="98">
+          <cell r="A98" t="str">
             <v>Gripped</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="A100" t="str">
-            <v>Base Material</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101" t="str">
-            <v>Wooden</v>
+            <v>Base Material</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102" t="str">
-            <v>Stone</v>
+            <v>Wooden</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103" t="str">
-            <v>Iron</v>
+            <v>Stone</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104" t="str">
-            <v>Golden</v>
+            <v>Iron</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105" t="str">
-            <v>Diamond</v>
+            <v>Golden</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106" t="str">
+            <v>Diamond</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="A107" t="str">
             <v>Magic</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="A135" t="str">
-            <v>Composite</v>
           </cell>
         </row>
         <row r="136">
           <cell r="A136" t="str">
+            <v>Composite</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="A137" t="str">
             <v>Engineered</v>
           </cell>
         </row>
@@ -10192,19 +10192,19 @@
         <v>Game ID XL</v>
       </c>
       <c r="F1" s="5" t="str">
-        <f xml:space="preserve"> [1]Enums!$A$26&amp;" ("&amp;J1&amp;")"</f>
+        <f xml:space="preserve"> [1]Enums!$A$27&amp;" ("&amp;J1&amp;")"</f>
         <v>Bag (Pellets)</v>
       </c>
       <c r="G1" s="5" t="str">
-        <f xml:space="preserve"> [1]Enums!$A$29&amp;" ("&amp;J1&amp;")"</f>
+        <f xml:space="preserve"> [1]Enums!$A$30&amp;" ("&amp;J1&amp;")"</f>
         <v>Sack (Pellets)</v>
       </c>
       <c r="H1" s="5" t="str">
-        <f xml:space="preserve"> [1]Enums!$A$32&amp;" ("&amp;J1&amp;")"</f>
+        <f xml:space="preserve"> [1]Enums!$A$33&amp;" ("&amp;J1&amp;")"</f>
         <v>Powder Keg (Pellets)</v>
       </c>
       <c r="I1" s="5" t="str">
-        <f xml:space="preserve"> [1]Enums!$A$35&amp;" ("&amp;J1&amp;")"</f>
+        <f xml:space="preserve"> [1]Enums!$A$36&amp;" ("&amp;J1&amp;")"</f>
         <v>Chemical Silo (Pellets)</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -10240,19 +10240,19 @@
         <v>448</v>
       </c>
       <c r="F2" s="1" t="str">
-        <f>IF($N2, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N2, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
         <v>Vial (Acrylic-Formaldehyde Resin)</v>
       </c>
       <c r="G2" s="1" t="str">
-        <f>IF($N2, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N2, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
         <v>Beaker (Acrylic-Formaldehyde Resin)</v>
       </c>
       <c r="H2" s="1" t="str">
-        <f>IF($N2, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N2, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
         <v>Drum (Acrylic-Formaldehyde Resin)</v>
       </c>
       <c r="I2" s="1" t="str">
-        <f>IF($N2, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N2, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Vat (Acrylic-Formaldehyde Resin)</v>
       </c>
       <c r="J2" s="1" t="str">
@@ -10292,19 +10292,19 @@
         <v>444</v>
       </c>
       <c r="F3" s="1" t="str">
-        <f>IF($N3, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N3, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Acrylonitrile-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f>IF($N3, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N3, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Acrylonitrile-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="H3" s="1" t="str">
-        <f>IF($N3, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N3, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Acrylonitrile-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="I3" s="1" t="str">
-        <f>IF($N3, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N3, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Acrylonitrile-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="J3" s="1" t="str">
@@ -10341,19 +10341,19 @@
         <v>440</v>
       </c>
       <c r="F4" s="1" t="str">
-        <f>IF($N4, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N4, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
         <v>Vial (Alkyd Resin)</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f>IF($N4, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N4, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
         <v>Beaker (Alkyd Resin)</v>
       </c>
       <c r="H4" s="1" t="str">
-        <f>IF($N4, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N4, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
         <v>Drum (Alkyd Resin)</v>
       </c>
       <c r="I4" s="1" t="str">
-        <f>IF($N4, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N4, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Vat (Alkyd Resin)</v>
       </c>
       <c r="J4" s="1" t="str">
@@ -10393,19 +10393,19 @@
         <v>436</v>
       </c>
       <c r="F5" s="1" t="str">
-        <f>IF($N5, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N5, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Amorphous PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="G5" s="1" t="str">
-        <f>IF($N5, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N5, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Amorphous PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="H5" s="1" t="str">
-        <f>IF($N5, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N5, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Amorphous PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="I5" s="1" t="str">
-        <f>IF($N5, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N5, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Amorphous PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="J5" s="1" t="str">
@@ -10445,19 +10445,19 @@
         <v>432</v>
       </c>
       <c r="F6" s="1" t="str">
-        <f>IF($N6, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N6, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Bromine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f>IF($N6, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N6, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Bromine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="H6" s="1" t="str">
-        <f>IF($N6, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N6, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Bromine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="I6" s="1" t="str">
-        <f>IF($N6, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N6, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Bromine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="J6" s="1" t="str">
@@ -10497,19 +10497,19 @@
         <v>428</v>
       </c>
       <c r="F7" s="1" t="str">
-        <f>IF($N7, [1]Enums!$A$26, [1]Enums!$A$26)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N7, [1]Enums!$A$27, [1]Enums!$A$27)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Carbon Fiber)</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f>IF($N7, [1]Enums!$A$29, [1]Enums!$A$29)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N7, [1]Enums!$A$30, [1]Enums!$A$30)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Carbon Fiber)</v>
       </c>
       <c r="H7" s="1" t="str">
-        <f>IF($N7, [1]Enums!$A$32, [1]Enums!$A$32)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N7, [1]Enums!$A$33, [1]Enums!$A$33)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Carbon Fiber)</v>
       </c>
       <c r="I7" s="1" t="str">
-        <f>IF($N7, [1]Enums!$A$35, [1]Enums!$A$35)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N7, [1]Enums!$A$36, [1]Enums!$A$36)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Carbon Fiber)</v>
       </c>
       <c r="J7" s="1" t="str">
@@ -10546,19 +10546,19 @@
         <v>424</v>
       </c>
       <c r="F8" s="1" t="str">
-        <f>IF($N8, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N8, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Cellulose Triacetate Pellets)</v>
       </c>
       <c r="G8" s="1" t="str">
-        <f>IF($N8, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N8, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Cellulose Triacetate Pellets)</v>
       </c>
       <c r="H8" s="1" t="str">
-        <f>IF($N8, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N8, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Cellulose Triacetate Pellets)</v>
       </c>
       <c r="I8" s="1" t="str">
-        <f>IF($N8, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N8, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Cellulose Triacetate Pellets)</v>
       </c>
       <c r="J8" s="1" t="str">
@@ -10598,19 +10598,19 @@
         <v>420</v>
       </c>
       <c r="F9" s="1" t="str">
-        <f>IF($N9, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N9, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Cellulosic Pellets)</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f>IF($N9, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N9, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Cellulosic Pellets)</v>
       </c>
       <c r="H9" s="1" t="str">
-        <f>IF($N9, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N9, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Cellulosic Pellets)</v>
       </c>
       <c r="I9" s="1" t="str">
-        <f>IF($N9, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N9, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Cellulosic Pellets)</v>
       </c>
       <c r="J9" s="1" t="str">
@@ -10650,19 +10650,19 @@
         <v>416</v>
       </c>
       <c r="F10" s="1" t="str">
-        <f>IF($N10, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N10, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Chitin Pellets)</v>
       </c>
       <c r="G10" s="1" t="str">
-        <f>IF($N10, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N10, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Chitin Pellets)</v>
       </c>
       <c r="H10" s="1" t="str">
-        <f>IF($N10, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N10, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Chitin Pellets)</v>
       </c>
       <c r="I10" s="1" t="str">
-        <f>IF($N10, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N10, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Chitin Pellets)</v>
       </c>
       <c r="J10" s="1" t="str">
@@ -10702,19 +10702,19 @@
         <v>412</v>
       </c>
       <c r="F11" s="1" t="str">
-        <f>IF($N11, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N11, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Chlorine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="G11" s="1" t="str">
-        <f>IF($N11, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N11, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Chlorine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="H11" s="1" t="str">
-        <f>IF($N11, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N11, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Chlorine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="I11" s="1" t="str">
-        <f>IF($N11, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N11, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Chlorine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="J11" s="1" t="str">
@@ -10754,19 +10754,19 @@
         <v>408</v>
       </c>
       <c r="F12" s="1" t="str">
-        <f>IF($N12, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N12, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
         <v>Vial (Epoxy Resin)</v>
       </c>
       <c r="G12" s="1" t="str">
-        <f>IF($N12, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N12, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
         <v>Beaker (Epoxy Resin)</v>
       </c>
       <c r="H12" s="1" t="str">
-        <f>IF($N12, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N12, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
         <v>Drum (Epoxy Resin)</v>
       </c>
       <c r="I12" s="1" t="str">
-        <f>IF($N12, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N12, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Vat (Epoxy Resin)</v>
       </c>
       <c r="J12" s="1" t="str">
@@ -10803,19 +10803,19 @@
         <v>404</v>
       </c>
       <c r="F13" s="1" t="str">
-        <f>IF($N13, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N13, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Ethoxylates Pellets)</v>
       </c>
       <c r="G13" s="1" t="str">
-        <f>IF($N13, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N13, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Ethoxylates Pellets)</v>
       </c>
       <c r="H13" s="1" t="str">
-        <f>IF($N13, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N13, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Ethoxylates Pellets)</v>
       </c>
       <c r="I13" s="1" t="str">
-        <f>IF($N13, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N13, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Ethoxylates Pellets)</v>
       </c>
       <c r="J13" s="1" t="str">
@@ -10855,19 +10855,19 @@
         <v>400</v>
       </c>
       <c r="F14" s="1" t="str">
-        <f>IF($N14, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N14, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Ethylene-Propylene Monomer Pellets)</v>
       </c>
       <c r="G14" s="1" t="str">
-        <f>IF($N14, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N14, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Ethylene-Propylene Monomer Pellets)</v>
       </c>
       <c r="H14" s="1" t="str">
-        <f>IF($N14, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N14, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Ethylene-Propylene Monomer Pellets)</v>
       </c>
       <c r="I14" s="1" t="str">
-        <f>IF($N14, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N14, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Ethylene-Propylene Monomer Pellets)</v>
       </c>
       <c r="J14" s="1" t="str">
@@ -10907,19 +10907,19 @@
         <v>396</v>
       </c>
       <c r="F15" s="1" t="str">
-        <f>IF($N15, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N15, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Ethylene-Propylene-Diene Monomer Pellets)</v>
       </c>
       <c r="G15" s="1" t="str">
-        <f>IF($N15, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N15, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Ethylene-Propylene-Diene Monomer Pellets)</v>
       </c>
       <c r="H15" s="1" t="str">
-        <f>IF($N15, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N15, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Ethylene-Propylene-Diene Monomer Pellets)</v>
       </c>
       <c r="I15" s="1" t="str">
-        <f>IF($N15, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N15, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Ethylene-Propylene-Diene Monomer Pellets)</v>
       </c>
       <c r="J15" s="1" t="str">
@@ -10959,19 +10959,19 @@
         <v>392</v>
       </c>
       <c r="F16" s="1" t="str">
-        <f>IF($N16, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N16, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Ethylene-Vinyl Acetate Pellets)</v>
       </c>
       <c r="G16" s="1" t="str">
-        <f>IF($N16, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N16, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Ethylene-Vinyl Acetate Pellets)</v>
       </c>
       <c r="H16" s="1" t="str">
-        <f>IF($N16, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N16, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Ethylene-Vinyl Acetate Pellets)</v>
       </c>
       <c r="I16" s="1" t="str">
-        <f>IF($N16, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N16, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Ethylene-Vinyl Acetate Pellets)</v>
       </c>
       <c r="J16" s="1" t="str">
@@ -11011,19 +11011,19 @@
         <v>388</v>
       </c>
       <c r="F17" s="1" t="str">
-        <f>IF($N17, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N17, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (High Density PolyEthylene Pellets)</v>
       </c>
       <c r="G17" s="1" t="str">
-        <f>IF($N17, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N17, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (High Density PolyEthylene Pellets)</v>
       </c>
       <c r="H17" s="1" t="str">
-        <f>IF($N17, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N17, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (High Density PolyEthylene Pellets)</v>
       </c>
       <c r="I17" s="1" t="str">
-        <f>IF($N17, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N17, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (High Density PolyEthylene Pellets)</v>
       </c>
       <c r="J17" s="1" t="str">
@@ -11063,19 +11063,19 @@
         <v>384</v>
       </c>
       <c r="F18" s="1" t="str">
-        <f>IF($N18, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N18, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Hydrogenated Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="G18" s="1" t="str">
-        <f>IF($N18, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N18, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Hydrogenated Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="H18" s="1" t="str">
-        <f>IF($N18, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N18, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Hydrogenated Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="I18" s="1" t="str">
-        <f>IF($N18, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N18, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Hydrogenated Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="J18" s="1" t="str">
@@ -11115,19 +11115,19 @@
         <v>380</v>
       </c>
       <c r="F19" s="1" t="str">
-        <f>IF($N19, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N19, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="G19" s="1" t="str">
-        <f>IF($N19, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N19, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="H19" s="1" t="str">
-        <f>IF($N19, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N19, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="I19" s="1" t="str">
-        <f>IF($N19, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N19, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="J19" s="1" t="str">
@@ -11164,19 +11164,19 @@
         <v>376</v>
       </c>
       <c r="F20" s="1" t="str">
-        <f>IF($N20, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N20, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
         <v>Vial (Lignin)</v>
       </c>
       <c r="G20" s="1" t="str">
-        <f>IF($N20, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N20, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
         <v>Beaker (Lignin)</v>
       </c>
       <c r="H20" s="1" t="str">
-        <f>IF($N20, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N20, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
         <v>Drum (Lignin)</v>
       </c>
       <c r="I20" s="1" t="str">
-        <f>IF($N20, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N20, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Vat (Lignin)</v>
       </c>
       <c r="J20" s="1" t="str">
@@ -11216,19 +11216,19 @@
         <v>372</v>
       </c>
       <c r="F21" s="1" t="str">
-        <f>IF($N21, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N21, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Linear Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="G21" s="1" t="str">
-        <f>IF($N21, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N21, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Linear Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="H21" s="1" t="str">
-        <f>IF($N21, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N21, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Linear Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="I21" s="1" t="str">
-        <f>IF($N21, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N21, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Linear Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="J21" s="1" t="str">
@@ -11268,19 +11268,19 @@
         <v>368</v>
       </c>
       <c r="F22" s="1" t="str">
-        <f>IF($N22, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N22, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Liquid Crystal Polymer Pellets)</v>
       </c>
       <c r="G22" s="1" t="str">
-        <f>IF($N22, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N22, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Liquid Crystal Polymer Pellets)</v>
       </c>
       <c r="H22" s="1" t="str">
-        <f>IF($N22, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N22, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Liquid Crystal Polymer Pellets)</v>
       </c>
       <c r="I22" s="1" t="str">
-        <f>IF($N22, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N22, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Liquid Crystal Polymer Pellets)</v>
       </c>
       <c r="J22" s="1" t="str">
@@ -11320,19 +11320,19 @@
         <v>364</v>
       </c>
       <c r="F23" s="1" t="str">
-        <f>IF($N23, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N23, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Low Density PolyEthylene Pellets)</v>
       </c>
       <c r="G23" s="1" t="str">
-        <f>IF($N23, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N23, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Low Density PolyEthylene Pellets)</v>
       </c>
       <c r="H23" s="1" t="str">
-        <f>IF($N23, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N23, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Low Density PolyEthylene Pellets)</v>
       </c>
       <c r="I23" s="1" t="str">
-        <f>IF($N23, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N23, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Low Density PolyEthylene Pellets)</v>
       </c>
       <c r="J23" s="1" t="str">
@@ -11372,19 +11372,19 @@
         <v>360</v>
       </c>
       <c r="F24" s="1" t="str">
-        <f>IF($N24, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N24, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Medium Density PolyEthylene Pellets)</v>
       </c>
       <c r="G24" s="1" t="str">
-        <f>IF($N24, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N24, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Medium Density PolyEthylene Pellets)</v>
       </c>
       <c r="H24" s="1" t="str">
-        <f>IF($N24, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N24, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Medium Density PolyEthylene Pellets)</v>
       </c>
       <c r="I24" s="1" t="str">
-        <f>IF($N24, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N24, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Medium Density PolyEthylene Pellets)</v>
       </c>
       <c r="J24" s="1" t="str">
@@ -11421,19 +11421,19 @@
         <v>356</v>
       </c>
       <c r="F25" s="1" t="str">
-        <f>IF($N25, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N25, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
         <v>Vial (Melamine-Formaldehyde Polymers)</v>
       </c>
       <c r="G25" s="1" t="str">
-        <f>IF($N25, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N25, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
         <v>Beaker (Melamine-Formaldehyde Polymers)</v>
       </c>
       <c r="H25" s="1" t="str">
-        <f>IF($N25, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N25, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
         <v>Drum (Melamine-Formaldehyde Polymers)</v>
       </c>
       <c r="I25" s="1" t="str">
-        <f>IF($N25, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N25, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Vat (Melamine-Formaldehyde Polymers)</v>
       </c>
       <c r="J25" s="1" t="str">
@@ -11473,19 +11473,19 @@
         <v>352</v>
       </c>
       <c r="F26" s="1" t="str">
-        <f>IF($N26, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N26, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Metaldehyde Pellets)</v>
       </c>
       <c r="G26" s="1" t="str">
-        <f>IF($N26, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N26, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Metaldehyde Pellets)</v>
       </c>
       <c r="H26" s="1" t="str">
-        <f>IF($N26, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N26, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Metaldehyde Pellets)</v>
       </c>
       <c r="I26" s="1" t="str">
-        <f>IF($N26, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N26, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Metaldehyde Pellets)</v>
       </c>
       <c r="J26" s="1" t="str">
@@ -11525,19 +11525,19 @@
         <v>348</v>
       </c>
       <c r="F27" s="1" t="str">
-        <f>IF($N27, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N27, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="G27" s="1" t="str">
-        <f>IF($N27, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N27, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="H27" s="1" t="str">
-        <f>IF($N27, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N27, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="I27" s="1" t="str">
-        <f>IF($N27, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N27, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="J27" s="1" t="str">
@@ -11577,19 +11577,19 @@
         <v>344</v>
       </c>
       <c r="F28" s="1" t="str">
-        <f>IF($N28, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N28, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Paraformaldehyde Pellets)</v>
       </c>
       <c r="G28" s="1" t="str">
-        <f>IF($N28, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N28, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Paraformaldehyde Pellets)</v>
       </c>
       <c r="H28" s="1" t="str">
-        <f>IF($N28, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N28, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Paraformaldehyde Pellets)</v>
       </c>
       <c r="I28" s="1" t="str">
-        <f>IF($N28, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N28, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Paraformaldehyde Pellets)</v>
       </c>
       <c r="J28" s="1" t="str">
@@ -11629,19 +11629,19 @@
         <v>340</v>
       </c>
       <c r="F29" s="1" t="str">
-        <f>IF($N29, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N29, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Paraldehyde Pellets)</v>
       </c>
       <c r="G29" s="1" t="str">
-        <f>IF($N29, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N29, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Paraldehyde Pellets)</v>
       </c>
       <c r="H29" s="1" t="str">
-        <f>IF($N29, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N29, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Paraldehyde Pellets)</v>
       </c>
       <c r="I29" s="1" t="str">
-        <f>IF($N29, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N29, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Paraldehyde Pellets)</v>
       </c>
       <c r="J29" s="1" t="str">
@@ -11681,19 +11681,19 @@
         <v>336</v>
       </c>
       <c r="F30" s="1" t="str">
-        <f>IF($N30, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N30, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
         <v>Vial (Phenolic Resin)</v>
       </c>
       <c r="G30" s="1" t="str">
-        <f>IF($N30, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N30, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
         <v>Beaker (Phenolic Resin)</v>
       </c>
       <c r="H30" s="1" t="str">
-        <f>IF($N30, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N30, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
         <v>Drum (Phenolic Resin)</v>
       </c>
       <c r="I30" s="1" t="str">
-        <f>IF($N30, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N30, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Vat (Phenolic Resin)</v>
       </c>
       <c r="J30" s="1" t="str">
@@ -11733,19 +11733,19 @@
         <v>332</v>
       </c>
       <c r="F31" s="1" t="str">
-        <f>IF($N31, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N31, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Poly(3-Hydroxybutyrate-Co-3-Hydroxyvalerate) Pellets)</v>
       </c>
       <c r="G31" s="1" t="str">
-        <f>IF($N31, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N31, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Poly(3-Hydroxybutyrate-Co-3-Hydroxyvalerate) Pellets)</v>
       </c>
       <c r="H31" s="1" t="str">
-        <f>IF($N31, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N31, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Poly(3-Hydroxybutyrate-Co-3-Hydroxyvalerate) Pellets)</v>
       </c>
       <c r="I31" s="1" t="str">
-        <f>IF($N31, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N31, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Poly(3-Hydroxybutyrate-Co-3-Hydroxyvalerate) Pellets)</v>
       </c>
       <c r="J31" s="1" t="str">
@@ -11782,19 +11782,19 @@
         <v>328</v>
       </c>
       <c r="F32" s="1" t="str">
-        <f>IF($N32, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N32, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Poly1-Butene Pellets)</v>
       </c>
       <c r="G32" s="1" t="str">
-        <f>IF($N32, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N32, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Poly1-Butene Pellets)</v>
       </c>
       <c r="H32" s="1" t="str">
-        <f>IF($N32, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N32, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Poly1-Butene Pellets)</v>
       </c>
       <c r="I32" s="1" t="str">
-        <f>IF($N32, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N32, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Poly1-Butene Pellets)</v>
       </c>
       <c r="J32" s="1" t="str">
@@ -11831,19 +11831,19 @@
         <v>324</v>
       </c>
       <c r="F33" s="1" t="str">
-        <f>IF($N33, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N33, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Poly2,6-Dimethyl-1,4-Phenylene Ether Pellets)</v>
       </c>
       <c r="G33" s="1" t="str">
-        <f>IF($N33, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N33, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Poly2,6-Dimethyl-1,4-Phenylene Ether Pellets)</v>
       </c>
       <c r="H33" s="1" t="str">
-        <f>IF($N33, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N33, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Poly2,6-Dimethyl-1,4-Phenylene Ether Pellets)</v>
       </c>
       <c r="I33" s="1" t="str">
-        <f>IF($N33, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N33, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Poly2,6-Dimethyl-1,4-Phenylene Ether Pellets)</v>
       </c>
       <c r="J33" s="1" t="str">
@@ -11880,19 +11880,19 @@
         <v>320</v>
       </c>
       <c r="F34" s="1" t="str">
-        <f>IF($N34, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N34, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Poly-2-Hydroxy Butyrate Pellets)</v>
       </c>
       <c r="G34" s="1" t="str">
-        <f>IF($N34, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N34, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Poly-2-Hydroxy Butyrate Pellets)</v>
       </c>
       <c r="H34" s="1" t="str">
-        <f>IF($N34, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N34, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Poly-2-Hydroxy Butyrate Pellets)</v>
       </c>
       <c r="I34" s="1" t="str">
-        <f>IF($N34, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N34, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Poly-2-Hydroxy Butyrate Pellets)</v>
       </c>
       <c r="J34" s="1" t="str">
@@ -11929,19 +11929,19 @@
         <v>316</v>
       </c>
       <c r="F35" s="1" t="str">
-        <f>IF($N35, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N35, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Poly2-Hydroxyethyl Methacrylate Pellets)</v>
       </c>
       <c r="G35" s="1" t="str">
-        <f>IF($N35, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N35, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Poly2-Hydroxyethyl Methacrylate Pellets)</v>
       </c>
       <c r="H35" s="1" t="str">
-        <f>IF($N35, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N35, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Poly2-Hydroxyethyl Methacrylate Pellets)</v>
       </c>
       <c r="I35" s="1" t="str">
-        <f>IF($N35, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N35, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Poly2-Hydroxyethyl Methacrylate Pellets)</v>
       </c>
       <c r="J35" s="1" t="str">
@@ -11981,19 +11981,19 @@
         <v>312</v>
       </c>
       <c r="F36" s="1" t="str">
-        <f>IF($N36, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N36, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyAcrylic Acid Pellets)</v>
       </c>
       <c r="G36" s="1" t="str">
-        <f>IF($N36, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N36, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyAcrylic Acid Pellets)</v>
       </c>
       <c r="H36" s="1" t="str">
-        <f>IF($N36, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N36, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyAcrylic Acid Pellets)</v>
       </c>
       <c r="I36" s="1" t="str">
-        <f>IF($N36, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N36, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyAcrylic Acid Pellets)</v>
       </c>
       <c r="J36" s="1" t="str">
@@ -12033,19 +12033,19 @@
         <v>308</v>
       </c>
       <c r="F37" s="1" t="str">
-        <f>IF($N37, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N37, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyAcrylonitrile Pellets)</v>
       </c>
       <c r="G37" s="1" t="str">
-        <f>IF($N37, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N37, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyAcrylonitrile Pellets)</v>
       </c>
       <c r="H37" s="1" t="str">
-        <f>IF($N37, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N37, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyAcrylonitrile Pellets)</v>
       </c>
       <c r="I37" s="1" t="str">
-        <f>IF($N37, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N37, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyAcrylonitrile Pellets)</v>
       </c>
       <c r="J37" s="1" t="str">
@@ -12085,19 +12085,19 @@
         <v>304</v>
       </c>
       <c r="F38" s="1" t="str">
-        <f>IF($N38, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N38, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="G38" s="1" t="str">
-        <f>IF($N38, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N38, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="H38" s="1" t="str">
-        <f>IF($N38, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N38, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="I38" s="1" t="str">
-        <f>IF($N38, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N38, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="J38" s="1" t="str">
@@ -12137,19 +12137,19 @@
         <v>300</v>
       </c>
       <c r="F39" s="1" t="str">
-        <f>IF($N39, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N39, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyButadiene (high-cis) Pellets)</v>
       </c>
       <c r="G39" s="1" t="str">
-        <f>IF($N39, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N39, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyButadiene (high-cis) Pellets)</v>
       </c>
       <c r="H39" s="1" t="str">
-        <f>IF($N39, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N39, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyButadiene (high-cis) Pellets)</v>
       </c>
       <c r="I39" s="1" t="str">
-        <f>IF($N39, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N39, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyButadiene (high-cis) Pellets)</v>
       </c>
       <c r="J39" s="1" t="str">
@@ -12189,19 +12189,19 @@
         <v>296</v>
       </c>
       <c r="F40" s="1" t="str">
-        <f>IF($N40, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N40, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyButylene Succinate Pellets)</v>
       </c>
       <c r="G40" s="1" t="str">
-        <f>IF($N40, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N40, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyButylene Succinate Pellets)</v>
       </c>
       <c r="H40" s="1" t="str">
-        <f>IF($N40, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N40, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyButylene Succinate Pellets)</v>
       </c>
       <c r="I40" s="1" t="str">
-        <f>IF($N40, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N40, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyButylene Succinate Pellets)</v>
       </c>
       <c r="J40" s="1" t="str">
@@ -12241,19 +12241,19 @@
         <v>292</v>
       </c>
       <c r="F41" s="1" t="str">
-        <f>IF($N41, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N41, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyButylene Terephthalate Pellets)</v>
       </c>
       <c r="G41" s="1" t="str">
-        <f>IF($N41, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N41, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyButylene Terephthalate Pellets)</v>
       </c>
       <c r="H41" s="1" t="str">
-        <f>IF($N41, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N41, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyButylene Terephthalate Pellets)</v>
       </c>
       <c r="I41" s="1" t="str">
-        <f>IF($N41, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N41, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyButylene Terephthalate Pellets)</v>
       </c>
       <c r="J41" s="1" t="str">
@@ -12293,19 +12293,19 @@
         <v>288</v>
       </c>
       <c r="F42" s="1" t="str">
-        <f>IF($N42, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N42, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyCaprolactone Pellets)</v>
       </c>
       <c r="G42" s="1" t="str">
-        <f>IF($N42, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N42, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyCaprolactone Pellets)</v>
       </c>
       <c r="H42" s="1" t="str">
-        <f>IF($N42, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N42, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyCaprolactone Pellets)</v>
       </c>
       <c r="I42" s="1" t="str">
-        <f>IF($N42, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N42, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyCaprolactone Pellets)</v>
       </c>
       <c r="J42" s="1" t="str">
@@ -12345,19 +12345,19 @@
         <v>284</v>
       </c>
       <c r="F43" s="1" t="str">
-        <f>IF($N43, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N43, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyCarbonate Pellets)</v>
       </c>
       <c r="G43" s="1" t="str">
-        <f>IF($N43, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N43, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyCarbonate Pellets)</v>
       </c>
       <c r="H43" s="1" t="str">
-        <f>IF($N43, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N43, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyCarbonate Pellets)</v>
       </c>
       <c r="I43" s="1" t="str">
-        <f>IF($N43, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N43, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyCarbonate Pellets)</v>
       </c>
       <c r="J43" s="1" t="str">
@@ -12394,19 +12394,19 @@
         <v>280</v>
       </c>
       <c r="F44" s="1" t="str">
-        <f>IF($N44, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N44, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyChloroPrene Pellets)</v>
       </c>
       <c r="G44" s="1" t="str">
-        <f>IF($N44, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N44, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyChloroPrene Pellets)</v>
       </c>
       <c r="H44" s="1" t="str">
-        <f>IF($N44, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N44, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyChloroPrene Pellets)</v>
       </c>
       <c r="I44" s="1" t="str">
-        <f>IF($N44, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N44, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyChloroPrene Pellets)</v>
       </c>
       <c r="J44" s="1" t="str">
@@ -12443,19 +12443,19 @@
         <v>276</v>
       </c>
       <c r="F45" s="1" t="str">
-        <f>IF($N45, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N45, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyChlorotrifluoroethylene Pellets)</v>
       </c>
       <c r="G45" s="1" t="str">
-        <f>IF($N45, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N45, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyChlorotrifluoroethylene Pellets)</v>
       </c>
       <c r="H45" s="1" t="str">
-        <f>IF($N45, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N45, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyChlorotrifluoroethylene Pellets)</v>
       </c>
       <c r="I45" s="1" t="str">
-        <f>IF($N45, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N45, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyChlorotrifluoroethylene Pellets)</v>
       </c>
       <c r="J45" s="1" t="str">
@@ -12495,19 +12495,19 @@
         <v>272</v>
       </c>
       <c r="F46" s="1" t="str">
-        <f>IF($N46, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N46, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyDiMethylSiloxane Pellets)</v>
       </c>
       <c r="G46" s="1" t="str">
-        <f>IF($N46, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N46, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyDiMethylSiloxane Pellets)</v>
       </c>
       <c r="H46" s="1" t="str">
-        <f>IF($N46, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N46, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyDiMethylSiloxane Pellets)</v>
       </c>
       <c r="I46" s="1" t="str">
-        <f>IF($N46, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N46, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyDiMethylSiloxane Pellets)</v>
       </c>
       <c r="J46" s="1" t="str">
@@ -12547,19 +12547,19 @@
         <v>268</v>
       </c>
       <c r="F47" s="1" t="str">
-        <f>IF($N47, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N47, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEther Ether Ketone Pellets)</v>
       </c>
       <c r="G47" s="1" t="str">
-        <f>IF($N47, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N47, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEther Ether Ketone Pellets)</v>
       </c>
       <c r="H47" s="1" t="str">
-        <f>IF($N47, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N47, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEther Ether Ketone Pellets)</v>
       </c>
       <c r="I47" s="1" t="str">
-        <f>IF($N47, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N47, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEther Ether Ketone Pellets)</v>
       </c>
       <c r="J47" s="1" t="str">
@@ -12599,19 +12599,19 @@
         <v>264</v>
       </c>
       <c r="F48" s="1" t="str">
-        <f>IF($N48, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J48&amp;IF($N48, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N48, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J48&amp;IF($N48, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEtherImide Pellets)</v>
       </c>
       <c r="G48" s="1" t="str">
-        <f>IF($N48, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J48&amp;IF($N48, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N48, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J48&amp;IF($N48, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEtherImide Pellets)</v>
       </c>
       <c r="H48" s="1" t="str">
-        <f>IF($N48, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J48&amp;IF($N48, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N48, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J48&amp;IF($N48, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEtherImide Pellets)</v>
       </c>
       <c r="I48" s="1" t="str">
-        <f>IF($N48, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J48&amp;IF($N48, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N48, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J48&amp;IF($N48, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEtherImide Pellets)</v>
       </c>
       <c r="J48" s="1" t="str">
@@ -12648,19 +12648,19 @@
         <v>260</v>
       </c>
       <c r="F49" s="1" t="str">
-        <f>IF($N49, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J49&amp;IF($N49, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N49, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J49&amp;IF($N49, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthyl Acrylate Pellets)</v>
       </c>
       <c r="G49" s="1" t="str">
-        <f>IF($N49, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J49&amp;IF($N49, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N49, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J49&amp;IF($N49, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthyl Acrylate Pellets)</v>
       </c>
       <c r="H49" s="1" t="str">
-        <f>IF($N49, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J49&amp;IF($N49, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N49, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J49&amp;IF($N49, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthyl Acrylate Pellets)</v>
       </c>
       <c r="I49" s="1" t="str">
-        <f>IF($N49, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J49&amp;IF($N49, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N49, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J49&amp;IF($N49, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthyl Acrylate Pellets)</v>
       </c>
       <c r="J49" s="1" t="str">
@@ -12697,19 +12697,19 @@
         <v>256</v>
       </c>
       <c r="F50" s="1" t="str">
-        <f>IF($N50, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J50&amp;IF($N50, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N50, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J50&amp;IF($N50, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthylene Adipate Pellets)</v>
       </c>
       <c r="G50" s="1" t="str">
-        <f>IF($N50, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J50&amp;IF($N50, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N50, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J50&amp;IF($N50, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthylene Adipate Pellets)</v>
       </c>
       <c r="H50" s="1" t="str">
-        <f>IF($N50, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J50&amp;IF($N50, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N50, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J50&amp;IF($N50, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthylene Adipate Pellets)</v>
       </c>
       <c r="I50" s="1" t="str">
-        <f>IF($N50, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J50&amp;IF($N50, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N50, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J50&amp;IF($N50, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthylene Adipate Pellets)</v>
       </c>
       <c r="J50" s="1" t="str">
@@ -12749,19 +12749,19 @@
         <v>252</v>
       </c>
       <c r="F51" s="1" t="str">
-        <f>IF($N51, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J51&amp;IF($N51, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N51, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J51&amp;IF($N51, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthylene Glycol Pellets)</v>
       </c>
       <c r="G51" s="1" t="str">
-        <f>IF($N51, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J51&amp;IF($N51, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N51, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J51&amp;IF($N51, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthylene Glycol Pellets)</v>
       </c>
       <c r="H51" s="1" t="str">
-        <f>IF($N51, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J51&amp;IF($N51, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N51, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J51&amp;IF($N51, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthylene Glycol Pellets)</v>
       </c>
       <c r="I51" s="1" t="str">
-        <f>IF($N51, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J51&amp;IF($N51, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N51, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J51&amp;IF($N51, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthylene Glycol Pellets)</v>
       </c>
       <c r="J51" s="1" t="str">
@@ -12798,19 +12798,19 @@
         <v>248</v>
       </c>
       <c r="F52" s="1" t="str">
-        <f>IF($N52, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J52&amp;IF($N52, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N52, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J52&amp;IF($N52, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthylene Hexamethylene Dicarbamate Pellets)</v>
       </c>
       <c r="G52" s="1" t="str">
-        <f>IF($N52, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J52&amp;IF($N52, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N52, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J52&amp;IF($N52, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthylene Hexamethylene Dicarbamate Pellets)</v>
       </c>
       <c r="H52" s="1" t="str">
-        <f>IF($N52, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J52&amp;IF($N52, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N52, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J52&amp;IF($N52, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthylene Hexamethylene Dicarbamate Pellets)</v>
       </c>
       <c r="I52" s="1" t="str">
-        <f>IF($N52, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J52&amp;IF($N52, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N52, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J52&amp;IF($N52, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthylene Hexamethylene Dicarbamate Pellets)</v>
       </c>
       <c r="J52" s="1" t="str">
@@ -12850,19 +12850,19 @@
         <v>244</v>
       </c>
       <c r="F53" s="1" t="str">
-        <f>IF($N53, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J53&amp;IF($N53, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N53, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J53&amp;IF($N53, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthylene Naphthalate Pellets)</v>
       </c>
       <c r="G53" s="1" t="str">
-        <f>IF($N53, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J53&amp;IF($N53, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N53, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J53&amp;IF($N53, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthylene Naphthalate Pellets)</v>
       </c>
       <c r="H53" s="1" t="str">
-        <f>IF($N53, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J53&amp;IF($N53, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N53, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J53&amp;IF($N53, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthylene Naphthalate Pellets)</v>
       </c>
       <c r="I53" s="1" t="str">
-        <f>IF($N53, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J53&amp;IF($N53, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N53, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J53&amp;IF($N53, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthylene Naphthalate Pellets)</v>
       </c>
       <c r="J53" s="1" t="str">
@@ -12902,19 +12902,19 @@
         <v>240</v>
       </c>
       <c r="F54" s="1" t="str">
-        <f>IF($N54, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J54&amp;IF($N54, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N54, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J54&amp;IF($N54, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthylene Oxide Pellets)</v>
       </c>
       <c r="G54" s="1" t="str">
-        <f>IF($N54, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J54&amp;IF($N54, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N54, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J54&amp;IF($N54, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthylene Oxide Pellets)</v>
       </c>
       <c r="H54" s="1" t="str">
-        <f>IF($N54, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J54&amp;IF($N54, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N54, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J54&amp;IF($N54, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthylene Oxide Pellets)</v>
       </c>
       <c r="I54" s="1" t="str">
-        <f>IF($N54, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J54&amp;IF($N54, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N54, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J54&amp;IF($N54, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthylene Oxide Pellets)</v>
       </c>
       <c r="J54" s="1" t="str">
@@ -12954,19 +12954,19 @@
         <v>236</v>
       </c>
       <c r="F55" s="1" t="str">
-        <f>IF($N55, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J55&amp;IF($N55, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N55, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J55&amp;IF($N55, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthylene Sulphide Pellets)</v>
       </c>
       <c r="G55" s="1" t="str">
-        <f>IF($N55, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J55&amp;IF($N55, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N55, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J55&amp;IF($N55, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthylene Sulphide Pellets)</v>
       </c>
       <c r="H55" s="1" t="str">
-        <f>IF($N55, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J55&amp;IF($N55, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N55, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J55&amp;IF($N55, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthylene Sulphide Pellets)</v>
       </c>
       <c r="I55" s="1" t="str">
-        <f>IF($N55, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J55&amp;IF($N55, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N55, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J55&amp;IF($N55, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthylene Sulphide Pellets)</v>
       </c>
       <c r="J55" s="1" t="str">
@@ -13006,19 +13006,19 @@
         <v>232</v>
       </c>
       <c r="F56" s="1" t="str">
-        <f>IF($N56, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J56&amp;IF($N56, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N56, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J56&amp;IF($N56, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="G56" s="1" t="str">
-        <f>IF($N56, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J56&amp;IF($N56, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N56, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J56&amp;IF($N56, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="H56" s="1" t="str">
-        <f>IF($N56, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J56&amp;IF($N56, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N56, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J56&amp;IF($N56, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="I56" s="1" t="str">
-        <f>IF($N56, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J56&amp;IF($N56, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N56, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J56&amp;IF($N56, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="J56" s="1" t="str">
@@ -13058,19 +13058,19 @@
         <v>228</v>
       </c>
       <c r="F57" s="1" t="str">
-        <f>IF($N57, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J57&amp;IF($N57, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N57, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J57&amp;IF($N57, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthylene Terephthalate Glycol-Modified Pellets)</v>
       </c>
       <c r="G57" s="1" t="str">
-        <f>IF($N57, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J57&amp;IF($N57, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N57, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J57&amp;IF($N57, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthylene Terephthalate Glycol-Modified Pellets)</v>
       </c>
       <c r="H57" s="1" t="str">
-        <f>IF($N57, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J57&amp;IF($N57, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N57, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J57&amp;IF($N57, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthylene Terephthalate Glycol-Modified Pellets)</v>
       </c>
       <c r="I57" s="1" t="str">
-        <f>IF($N57, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J57&amp;IF($N57, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N57, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J57&amp;IF($N57, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthylene Terephthalate Glycol-Modified Pellets)</v>
       </c>
       <c r="J57" s="1" t="str">
@@ -13110,19 +13110,19 @@
         <v>224</v>
       </c>
       <c r="F58" s="1" t="str">
-        <f>IF($N58, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J58&amp;IF($N58, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N58, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J58&amp;IF($N58, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyGlycolic Acid Pellets)</v>
       </c>
       <c r="G58" s="1" t="str">
-        <f>IF($N58, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J58&amp;IF($N58, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N58, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J58&amp;IF($N58, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyGlycolic Acid Pellets)</v>
       </c>
       <c r="H58" s="1" t="str">
-        <f>IF($N58, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J58&amp;IF($N58, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N58, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J58&amp;IF($N58, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyGlycolic Acid Pellets)</v>
       </c>
       <c r="I58" s="1" t="str">
-        <f>IF($N58, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J58&amp;IF($N58, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N58, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J58&amp;IF($N58, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyGlycolic Acid Pellets)</v>
       </c>
       <c r="J58" s="1" t="str">
@@ -13162,19 +13162,19 @@
         <v>220</v>
       </c>
       <c r="F59" s="1" t="str">
-        <f>IF($N59, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J59&amp;IF($N59, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N59, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J59&amp;IF($N59, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyHexamethylene Adipamide Pellets)</v>
       </c>
       <c r="G59" s="1" t="str">
-        <f>IF($N59, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J59&amp;IF($N59, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N59, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J59&amp;IF($N59, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyHexamethylene Adipamide Pellets)</v>
       </c>
       <c r="H59" s="1" t="str">
-        <f>IF($N59, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J59&amp;IF($N59, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N59, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J59&amp;IF($N59, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyHexamethylene Adipamide Pellets)</v>
       </c>
       <c r="I59" s="1" t="str">
-        <f>IF($N59, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J59&amp;IF($N59, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N59, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J59&amp;IF($N59, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyHexamethylene Adipamide Pellets)</v>
       </c>
       <c r="J59" s="1" t="str">
@@ -13214,19 +13214,19 @@
         <v>216</v>
       </c>
       <c r="F60" s="1" t="str">
-        <f>IF($N60, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J60&amp;IF($N60, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N60, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J60&amp;IF($N60, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyHexamethylene Sebacamide Pellets)</v>
       </c>
       <c r="G60" s="1" t="str">
-        <f>IF($N60, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J60&amp;IF($N60, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N60, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J60&amp;IF($N60, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyHexamethylene Sebacamide Pellets)</v>
       </c>
       <c r="H60" s="1" t="str">
-        <f>IF($N60, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J60&amp;IF($N60, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N60, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J60&amp;IF($N60, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyHexamethylene Sebacamide Pellets)</v>
       </c>
       <c r="I60" s="1" t="str">
-        <f>IF($N60, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J60&amp;IF($N60, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N60, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J60&amp;IF($N60, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyHexamethylene Sebacamide Pellets)</v>
       </c>
       <c r="J60" s="1" t="str">
@@ -13266,19 +13266,19 @@
         <v>212</v>
       </c>
       <c r="F61" s="1" t="str">
-        <f>IF($N61, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J61&amp;IF($N61, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N61, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J61&amp;IF($N61, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyHydroxyalkanoate Pellets)</v>
       </c>
       <c r="G61" s="1" t="str">
-        <f>IF($N61, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J61&amp;IF($N61, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N61, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J61&amp;IF($N61, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyHydroxyalkanoate Pellets)</v>
       </c>
       <c r="H61" s="1" t="str">
-        <f>IF($N61, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J61&amp;IF($N61, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N61, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J61&amp;IF($N61, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyHydroxyalkanoate Pellets)</v>
       </c>
       <c r="I61" s="1" t="str">
-        <f>IF($N61, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J61&amp;IF($N61, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N61, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J61&amp;IF($N61, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyHydroxyalkanoate Pellets)</v>
       </c>
       <c r="J61" s="1" t="str">
@@ -13315,19 +13315,19 @@
         <v>208</v>
       </c>
       <c r="F62" s="1" t="str">
-        <f>IF($N62, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J62&amp;IF($N62, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N62, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J62&amp;IF($N62, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyHydroxybutyrate-Co-Hydroxyvalerate Pellets)</v>
       </c>
       <c r="G62" s="1" t="str">
-        <f>IF($N62, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J62&amp;IF($N62, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N62, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J62&amp;IF($N62, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyHydroxybutyrate-Co-Hydroxyvalerate Pellets)</v>
       </c>
       <c r="H62" s="1" t="str">
-        <f>IF($N62, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J62&amp;IF($N62, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N62, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J62&amp;IF($N62, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyHydroxybutyrate-Co-Hydroxyvalerate Pellets)</v>
       </c>
       <c r="I62" s="1" t="str">
-        <f>IF($N62, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J62&amp;IF($N62, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N62, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J62&amp;IF($N62, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyHydroxybutyrate-Co-Hydroxyvalerate Pellets)</v>
       </c>
       <c r="J62" s="1" t="str">
@@ -13367,19 +13367,19 @@
         <v>204</v>
       </c>
       <c r="F63" s="1" t="str">
-        <f>IF($N63, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J63&amp;IF($N63, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N63, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J63&amp;IF($N63, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyImide Pellets)</v>
       </c>
       <c r="G63" s="1" t="str">
-        <f>IF($N63, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J63&amp;IF($N63, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N63, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J63&amp;IF($N63, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyImide Pellets)</v>
       </c>
       <c r="H63" s="1" t="str">
-        <f>IF($N63, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J63&amp;IF($N63, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N63, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J63&amp;IF($N63, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyImide Pellets)</v>
       </c>
       <c r="I63" s="1" t="str">
-        <f>IF($N63, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J63&amp;IF($N63, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N63, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J63&amp;IF($N63, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyImide Pellets)</v>
       </c>
       <c r="J63" s="1" t="str">
@@ -13416,19 +13416,19 @@
         <v>200</v>
       </c>
       <c r="F64" s="1" t="str">
-        <f>IF($N64, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J64&amp;IF($N64, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N64, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J64&amp;IF($N64, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyIsoBorynl Acrylate Pellets)</v>
       </c>
       <c r="G64" s="1" t="str">
-        <f>IF($N64, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J64&amp;IF($N64, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N64, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J64&amp;IF($N64, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyIsoBorynl Acrylate Pellets)</v>
       </c>
       <c r="H64" s="1" t="str">
-        <f>IF($N64, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J64&amp;IF($N64, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N64, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J64&amp;IF($N64, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyIsoBorynl Acrylate Pellets)</v>
       </c>
       <c r="I64" s="1" t="str">
-        <f>IF($N64, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J64&amp;IF($N64, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N64, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J64&amp;IF($N64, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyIsoBorynl Acrylate Pellets)</v>
       </c>
       <c r="J64" s="1" t="str">
@@ -13465,19 +13465,19 @@
         <v>196</v>
       </c>
       <c r="F65" s="1" t="str">
-        <f>IF($N65, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J65&amp;IF($N65, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N65, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J65&amp;IF($N65, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyIsoButyl Acrylate Pellets)</v>
       </c>
       <c r="G65" s="1" t="str">
-        <f>IF($N65, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J65&amp;IF($N65, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N65, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J65&amp;IF($N65, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyIsoButyl Acrylate Pellets)</v>
       </c>
       <c r="H65" s="1" t="str">
-        <f>IF($N65, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J65&amp;IF($N65, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N65, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J65&amp;IF($N65, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyIsoButyl Acrylate Pellets)</v>
       </c>
       <c r="I65" s="1" t="str">
-        <f>IF($N65, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J65&amp;IF($N65, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N65, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J65&amp;IF($N65, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyIsoButyl Acrylate Pellets)</v>
       </c>
       <c r="J65" s="1" t="str">
@@ -13517,19 +13517,19 @@
         <v>192</v>
       </c>
       <c r="F66" s="1" t="str">
-        <f>IF($N66, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J66&amp;IF($N66, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N66, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J66&amp;IF($N66, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyIsoButylene Pellets)</v>
       </c>
       <c r="G66" s="1" t="str">
-        <f>IF($N66, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J66&amp;IF($N66, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N66, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J66&amp;IF($N66, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyIsoButylene Pellets)</v>
       </c>
       <c r="H66" s="1" t="str">
-        <f>IF($N66, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J66&amp;IF($N66, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N66, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J66&amp;IF($N66, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyIsoButylene Pellets)</v>
       </c>
       <c r="I66" s="1" t="str">
-        <f>IF($N66, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J66&amp;IF($N66, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N66, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J66&amp;IF($N66, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyIsoButylene Pellets)</v>
       </c>
       <c r="J66" s="1" t="str">
@@ -13569,19 +13569,19 @@
         <v>188</v>
       </c>
       <c r="F67" s="1" t="str">
-        <f>IF($N67, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J67&amp;IF($N67, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N67, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J67&amp;IF($N67, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyIsoPrene Pellets)</v>
       </c>
       <c r="G67" s="1" t="str">
-        <f>IF($N67, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J67&amp;IF($N67, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N67, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J67&amp;IF($N67, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyIsoPrene Pellets)</v>
       </c>
       <c r="H67" s="1" t="str">
-        <f>IF($N67, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J67&amp;IF($N67, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N67, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J67&amp;IF($N67, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyIsoPrene Pellets)</v>
       </c>
       <c r="I67" s="1" t="str">
-        <f>IF($N67, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J67&amp;IF($N67, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N67, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J67&amp;IF($N67, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyIsoPrene Pellets)</v>
       </c>
       <c r="J67" s="1" t="str">
@@ -13621,19 +13621,19 @@
         <v>184</v>
       </c>
       <c r="F68" s="1" t="str">
-        <f>IF($N68, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J68&amp;IF($N68, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N68, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J68&amp;IF($N68, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyLactic Acid Pellets)</v>
       </c>
       <c r="G68" s="1" t="str">
-        <f>IF($N68, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J68&amp;IF($N68, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N68, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J68&amp;IF($N68, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyLactic Acid Pellets)</v>
       </c>
       <c r="H68" s="1" t="str">
-        <f>IF($N68, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J68&amp;IF($N68, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N68, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J68&amp;IF($N68, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyLactic Acid Pellets)</v>
       </c>
       <c r="I68" s="1" t="str">
-        <f>IF($N68, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J68&amp;IF($N68, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N68, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J68&amp;IF($N68, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyLactic Acid Pellets)</v>
       </c>
       <c r="J68" s="1" t="str">
@@ -13670,19 +13670,19 @@
         <v>180</v>
       </c>
       <c r="F69" s="1" t="str">
-        <f>IF($N69, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J69&amp;IF($N69, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N69, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J69&amp;IF($N69, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyLactic-Co-Glycolic Acid Pellets)</v>
       </c>
       <c r="G69" s="1" t="str">
-        <f>IF($N69, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J69&amp;IF($N69, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N69, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J69&amp;IF($N69, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyLactic-Co-Glycolic Acid Pellets)</v>
       </c>
       <c r="H69" s="1" t="str">
-        <f>IF($N69, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J69&amp;IF($N69, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N69, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J69&amp;IF($N69, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyLactic-Co-Glycolic Acid Pellets)</v>
       </c>
       <c r="I69" s="1" t="str">
-        <f>IF($N69, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J69&amp;IF($N69, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N69, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J69&amp;IF($N69, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyLactic-Co-Glycolic Acid Pellets)</v>
       </c>
       <c r="J69" s="1" t="str">
@@ -13719,19 +13719,19 @@
         <v>176</v>
       </c>
       <c r="F70" s="1" t="str">
-        <f>IF($N70, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J70&amp;IF($N70, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N70, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J70&amp;IF($N70, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyMethyl Acrylate Pellets)</v>
       </c>
       <c r="G70" s="1" t="str">
-        <f>IF($N70, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J70&amp;IF($N70, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N70, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J70&amp;IF($N70, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyMethyl Acrylate Pellets)</v>
       </c>
       <c r="H70" s="1" t="str">
-        <f>IF($N70, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J70&amp;IF($N70, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N70, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J70&amp;IF($N70, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyMethyl Acrylate Pellets)</v>
       </c>
       <c r="I70" s="1" t="str">
-        <f>IF($N70, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J70&amp;IF($N70, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N70, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J70&amp;IF($N70, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyMethyl Acrylate Pellets)</v>
       </c>
       <c r="J70" s="1" t="str">
@@ -13768,19 +13768,19 @@
         <v>172</v>
       </c>
       <c r="F71" s="1" t="str">
-        <f>IF($N71, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J71&amp;IF($N71, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N71, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J71&amp;IF($N71, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyMethyl Cyanoacrylate Pellets)</v>
       </c>
       <c r="G71" s="1" t="str">
-        <f>IF($N71, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J71&amp;IF($N71, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N71, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J71&amp;IF($N71, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyMethyl Cyanoacrylate Pellets)</v>
       </c>
       <c r="H71" s="1" t="str">
-        <f>IF($N71, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J71&amp;IF($N71, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N71, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J71&amp;IF($N71, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyMethyl Cyanoacrylate Pellets)</v>
       </c>
       <c r="I71" s="1" t="str">
-        <f>IF($N71, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J71&amp;IF($N71, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N71, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J71&amp;IF($N71, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyMethyl Cyanoacrylate Pellets)</v>
       </c>
       <c r="J71" s="1" t="str">
@@ -13817,19 +13817,19 @@
         <v>168</v>
       </c>
       <c r="F72" s="1" t="str">
-        <f>IF($N72, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J72&amp;IF($N72, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N72, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J72&amp;IF($N72, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyMethyl Methacrylate Pellets)</v>
       </c>
       <c r="G72" s="1" t="str">
-        <f>IF($N72, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J72&amp;IF($N72, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N72, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J72&amp;IF($N72, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyMethyl Methacrylate Pellets)</v>
       </c>
       <c r="H72" s="1" t="str">
-        <f>IF($N72, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J72&amp;IF($N72, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N72, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J72&amp;IF($N72, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyMethyl Methacrylate Pellets)</v>
       </c>
       <c r="I72" s="1" t="str">
-        <f>IF($N72, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J72&amp;IF($N72, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N72, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J72&amp;IF($N72, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyMethyl Methacrylate Pellets)</v>
       </c>
       <c r="J72" s="1" t="str">
@@ -13866,19 +13866,19 @@
         <v>164</v>
       </c>
       <c r="F73" s="1" t="str">
-        <f>IF($N73, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J73&amp;IF($N73, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N73, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J73&amp;IF($N73, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyM-Methyl Styrene Pellets)</v>
       </c>
       <c r="G73" s="1" t="str">
-        <f>IF($N73, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J73&amp;IF($N73, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N73, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J73&amp;IF($N73, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyM-Methyl Styrene Pellets)</v>
       </c>
       <c r="H73" s="1" t="str">
-        <f>IF($N73, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J73&amp;IF($N73, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N73, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J73&amp;IF($N73, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyM-Methyl Styrene Pellets)</v>
       </c>
       <c r="I73" s="1" t="str">
-        <f>IF($N73, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J73&amp;IF($N73, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N73, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J73&amp;IF($N73, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyM-Methyl Styrene Pellets)</v>
       </c>
       <c r="J73" s="1" t="str">
@@ -13918,19 +13918,19 @@
         <v>160</v>
       </c>
       <c r="F74" s="1" t="str">
-        <f>IF($N74, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J74&amp;IF($N74, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N74, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J74&amp;IF($N74, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyM-Phenylene Isophthalamide Pellets)</v>
       </c>
       <c r="G74" s="1" t="str">
-        <f>IF($N74, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J74&amp;IF($N74, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N74, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J74&amp;IF($N74, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyM-Phenylene Isophthalamide Pellets)</v>
       </c>
       <c r="H74" s="1" t="str">
-        <f>IF($N74, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J74&amp;IF($N74, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N74, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J74&amp;IF($N74, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyM-Phenylene Isophthalamide Pellets)</v>
       </c>
       <c r="I74" s="1" t="str">
-        <f>IF($N74, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J74&amp;IF($N74, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N74, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J74&amp;IF($N74, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyM-Phenylene Isophthalamide Pellets)</v>
       </c>
       <c r="J74" s="1" t="str">
@@ -13967,19 +13967,19 @@
         <v>156</v>
       </c>
       <c r="F75" s="1" t="str">
-        <f>IF($N75, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J75&amp;IF($N75, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N75, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J75&amp;IF($N75, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyN-Butyl Acrylate Pellets)</v>
       </c>
       <c r="G75" s="1" t="str">
-        <f>IF($N75, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J75&amp;IF($N75, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N75, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J75&amp;IF($N75, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyN-Butyl Acrylate Pellets)</v>
       </c>
       <c r="H75" s="1" t="str">
-        <f>IF($N75, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J75&amp;IF($N75, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N75, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J75&amp;IF($N75, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyN-Butyl Acrylate Pellets)</v>
       </c>
       <c r="I75" s="1" t="str">
-        <f>IF($N75, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J75&amp;IF($N75, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N75, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J75&amp;IF($N75, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyN-Butyl Acrylate Pellets)</v>
       </c>
       <c r="J75" s="1" t="str">
@@ -14019,19 +14019,19 @@
         <v>152</v>
       </c>
       <c r="F76" s="1" t="str">
-        <f>IF($N76, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J76&amp;IF($N76, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N76, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J76&amp;IF($N76, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyOxymethylene Pellets)</v>
       </c>
       <c r="G76" s="1" t="str">
-        <f>IF($N76, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J76&amp;IF($N76, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N76, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J76&amp;IF($N76, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyOxymethylene Pellets)</v>
       </c>
       <c r="H76" s="1" t="str">
-        <f>IF($N76, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J76&amp;IF($N76, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N76, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J76&amp;IF($N76, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyOxymethylene Pellets)</v>
       </c>
       <c r="I76" s="1" t="str">
-        <f>IF($N76, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J76&amp;IF($N76, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N76, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J76&amp;IF($N76, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyOxymethylene Pellets)</v>
       </c>
       <c r="J76" s="1" t="str">
@@ -14068,19 +14068,19 @@
         <v>148</v>
       </c>
       <c r="F77" s="1" t="str">
-        <f>IF($N77, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J77&amp;IF($N77, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N77, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J77&amp;IF($N77, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyPentamethylene Hexamethylene Dicarbamate Pellets)</v>
       </c>
       <c r="G77" s="1" t="str">
-        <f>IF($N77, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J77&amp;IF($N77, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N77, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J77&amp;IF($N77, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyPentamethylene Hexamethylene Dicarbamate Pellets)</v>
       </c>
       <c r="H77" s="1" t="str">
-        <f>IF($N77, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J77&amp;IF($N77, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N77, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J77&amp;IF($N77, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyPentamethylene Hexamethylene Dicarbamate Pellets)</v>
       </c>
       <c r="I77" s="1" t="str">
-        <f>IF($N77, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J77&amp;IF($N77, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N77, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J77&amp;IF($N77, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyPentamethylene Hexamethylene Dicarbamate Pellets)</v>
       </c>
       <c r="J77" s="1" t="str">
@@ -14117,19 +14117,19 @@
         <v>144</v>
       </c>
       <c r="F78" s="1" t="str">
-        <f>IF($N78, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J78&amp;IF($N78, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N78, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J78&amp;IF($N78, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyPhenol Pellets)</v>
       </c>
       <c r="G78" s="1" t="str">
-        <f>IF($N78, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J78&amp;IF($N78, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N78, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J78&amp;IF($N78, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyPhenol Pellets)</v>
       </c>
       <c r="H78" s="1" t="str">
-        <f>IF($N78, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J78&amp;IF($N78, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N78, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J78&amp;IF($N78, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyPhenol Pellets)</v>
       </c>
       <c r="I78" s="1" t="str">
-        <f>IF($N78, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J78&amp;IF($N78, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N78, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J78&amp;IF($N78, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyPhenol Pellets)</v>
       </c>
       <c r="J78" s="1" t="str">
@@ -14166,19 +14166,19 @@
         <v>140</v>
       </c>
       <c r="F79" s="1" t="str">
-        <f>IF($N79, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J79&amp;IF($N79, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N79, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J79&amp;IF($N79, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyPhenylene Oxide Pellets)</v>
       </c>
       <c r="G79" s="1" t="str">
-        <f>IF($N79, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J79&amp;IF($N79, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N79, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J79&amp;IF($N79, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyPhenylene Oxide Pellets)</v>
       </c>
       <c r="H79" s="1" t="str">
-        <f>IF($N79, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J79&amp;IF($N79, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N79, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J79&amp;IF($N79, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyPhenylene Oxide Pellets)</v>
       </c>
       <c r="I79" s="1" t="str">
-        <f>IF($N79, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J79&amp;IF($N79, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N79, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J79&amp;IF($N79, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyPhenylene Oxide Pellets)</v>
       </c>
       <c r="J79" s="1" t="str">
@@ -14215,19 +14215,19 @@
         <v>136</v>
       </c>
       <c r="F80" s="1" t="str">
-        <f>IF($N80, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J80&amp;IF($N80, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N80, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J80&amp;IF($N80, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyPhosphazene Pellets)</v>
       </c>
       <c r="G80" s="1" t="str">
-        <f>IF($N80, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J80&amp;IF($N80, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N80, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J80&amp;IF($N80, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyPhosphazene Pellets)</v>
       </c>
       <c r="H80" s="1" t="str">
-        <f>IF($N80, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J80&amp;IF($N80, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N80, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J80&amp;IF($N80, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyPhosphazene Pellets)</v>
       </c>
       <c r="I80" s="1" t="str">
-        <f>IF($N80, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J80&amp;IF($N80, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N80, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J80&amp;IF($N80, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyPhosphazene Pellets)</v>
       </c>
       <c r="J80" s="1" t="str">
@@ -14264,19 +14264,19 @@
         <v>132</v>
       </c>
       <c r="F81" s="1" t="str">
-        <f>IF($N81, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J81&amp;IF($N81, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N81, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J81&amp;IF($N81, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyP-Methyl Styrene Pellets)</v>
       </c>
       <c r="G81" s="1" t="str">
-        <f>IF($N81, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J81&amp;IF($N81, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N81, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J81&amp;IF($N81, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyP-Methyl Styrene Pellets)</v>
       </c>
       <c r="H81" s="1" t="str">
-        <f>IF($N81, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J81&amp;IF($N81, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N81, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J81&amp;IF($N81, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyP-Methyl Styrene Pellets)</v>
       </c>
       <c r="I81" s="1" t="str">
-        <f>IF($N81, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J81&amp;IF($N81, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N81, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J81&amp;IF($N81, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyP-Methyl Styrene Pellets)</v>
       </c>
       <c r="J81" s="1" t="str">
@@ -14313,19 +14313,19 @@
         <v>128</v>
       </c>
       <c r="F82" s="1" t="str">
-        <f>IF($N82, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J82&amp;IF($N82, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N82, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J82&amp;IF($N82, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyP-Phenylene Sulphide Pellets)</v>
       </c>
       <c r="G82" s="1" t="str">
-        <f>IF($N82, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J82&amp;IF($N82, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N82, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J82&amp;IF($N82, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyP-Phenylene Sulphide Pellets)</v>
       </c>
       <c r="H82" s="1" t="str">
-        <f>IF($N82, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J82&amp;IF($N82, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N82, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J82&amp;IF($N82, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyP-Phenylene Sulphide Pellets)</v>
       </c>
       <c r="I82" s="1" t="str">
-        <f>IF($N82, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J82&amp;IF($N82, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N82, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J82&amp;IF($N82, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyP-Phenylene Sulphide Pellets)</v>
       </c>
       <c r="J82" s="1" t="str">
@@ -14365,19 +14365,19 @@
         <v>124</v>
       </c>
       <c r="F83" s="1" t="str">
-        <f>IF($N83, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J83&amp;IF($N83, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N83, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J83&amp;IF($N83, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyP-Phenylene Terephthalamide Pellets)</v>
       </c>
       <c r="G83" s="1" t="str">
-        <f>IF($N83, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J83&amp;IF($N83, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N83, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J83&amp;IF($N83, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyP-Phenylene Terephthalamide Pellets)</v>
       </c>
       <c r="H83" s="1" t="str">
-        <f>IF($N83, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J83&amp;IF($N83, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N83, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J83&amp;IF($N83, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyP-Phenylene Terephthalamide Pellets)</v>
       </c>
       <c r="I83" s="1" t="str">
-        <f>IF($N83, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J83&amp;IF($N83, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N83, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J83&amp;IF($N83, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyP-Phenylene Terephthalamide Pellets)</v>
       </c>
       <c r="J83" s="1" t="str">
@@ -14417,19 +14417,19 @@
         <v>120</v>
       </c>
       <c r="F84" s="1" t="str">
-        <f>IF($N84, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J84&amp;IF($N84, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N84, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J84&amp;IF($N84, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyPropylene Pellets)</v>
       </c>
       <c r="G84" s="1" t="str">
-        <f>IF($N84, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J84&amp;IF($N84, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N84, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J84&amp;IF($N84, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyPropylene Pellets)</v>
       </c>
       <c r="H84" s="1" t="str">
-        <f>IF($N84, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J84&amp;IF($N84, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N84, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J84&amp;IF($N84, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyPropylene Pellets)</v>
       </c>
       <c r="I84" s="1" t="str">
-        <f>IF($N84, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J84&amp;IF($N84, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N84, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J84&amp;IF($N84, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyPropylene Pellets)</v>
       </c>
       <c r="J84" s="1" t="str">
@@ -14466,19 +14466,19 @@
         <v>116</v>
       </c>
       <c r="F85" s="1" t="str">
-        <f>IF($N85, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J85&amp;IF($N85, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N85, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J85&amp;IF($N85, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyPropylene Glycol Pellets)</v>
       </c>
       <c r="G85" s="1" t="str">
-        <f>IF($N85, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J85&amp;IF($N85, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N85, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J85&amp;IF($N85, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyPropylene Glycol Pellets)</v>
       </c>
       <c r="H85" s="1" t="str">
-        <f>IF($N85, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J85&amp;IF($N85, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N85, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J85&amp;IF($N85, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyPropylene Glycol Pellets)</v>
       </c>
       <c r="I85" s="1" t="str">
-        <f>IF($N85, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J85&amp;IF($N85, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N85, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J85&amp;IF($N85, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyPropylene Glycol Pellets)</v>
       </c>
       <c r="J85" s="1" t="str">
@@ -14515,19 +14515,19 @@
         <v>112</v>
       </c>
       <c r="F86" s="1" t="str">
-        <f>IF($N86, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J86&amp;IF($N86, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N86, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J86&amp;IF($N86, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyPropylene Oxide Pellets)</v>
       </c>
       <c r="G86" s="1" t="str">
-        <f>IF($N86, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J86&amp;IF($N86, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N86, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J86&amp;IF($N86, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyPropylene Oxide Pellets)</v>
       </c>
       <c r="H86" s="1" t="str">
-        <f>IF($N86, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J86&amp;IF($N86, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N86, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J86&amp;IF($N86, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyPropylene Oxide Pellets)</v>
       </c>
       <c r="I86" s="1" t="str">
-        <f>IF($N86, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J86&amp;IF($N86, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N86, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J86&amp;IF($N86, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyPropylene Oxide Pellets)</v>
       </c>
       <c r="J86" s="1" t="str">
@@ -14567,19 +14567,19 @@
         <v>108</v>
       </c>
       <c r="F87" s="1" t="str">
-        <f>IF($N87, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J87&amp;IF($N87, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N87, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J87&amp;IF($N87, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyStyrene Pellets)</v>
       </c>
       <c r="G87" s="1" t="str">
-        <f>IF($N87, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J87&amp;IF($N87, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N87, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J87&amp;IF($N87, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyStyrene Pellets)</v>
       </c>
       <c r="H87" s="1" t="str">
-        <f>IF($N87, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J87&amp;IF($N87, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N87, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J87&amp;IF($N87, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyStyrene Pellets)</v>
       </c>
       <c r="I87" s="1" t="str">
-        <f>IF($N87, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J87&amp;IF($N87, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N87, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J87&amp;IF($N87, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyStyrene Pellets)</v>
       </c>
       <c r="J87" s="1" t="str">
@@ -14616,19 +14616,19 @@
         <v>104</v>
       </c>
       <c r="F88" s="1" t="str">
-        <f>IF($N88, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J88&amp;IF($N88, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N88, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J88&amp;IF($N88, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyTert-Butyl Acrylate Pellets)</v>
       </c>
       <c r="G88" s="1" t="str">
-        <f>IF($N88, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J88&amp;IF($N88, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N88, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J88&amp;IF($N88, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyTert-Butyl Acrylate Pellets)</v>
       </c>
       <c r="H88" s="1" t="str">
-        <f>IF($N88, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J88&amp;IF($N88, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N88, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J88&amp;IF($N88, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyTert-Butyl Acrylate Pellets)</v>
       </c>
       <c r="I88" s="1" t="str">
-        <f>IF($N88, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J88&amp;IF($N88, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N88, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J88&amp;IF($N88, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyTert-Butyl Acrylate Pellets)</v>
       </c>
       <c r="J88" s="1" t="str">
@@ -14668,19 +14668,19 @@
         <v>100</v>
       </c>
       <c r="F89" s="1" t="str">
-        <f>IF($N89, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J89&amp;IF($N89, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N89, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J89&amp;IF($N89, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyTetraFluoroEthylene Pellets)</v>
       </c>
       <c r="G89" s="1" t="str">
-        <f>IF($N89, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J89&amp;IF($N89, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N89, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J89&amp;IF($N89, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyTetraFluoroEthylene Pellets)</v>
       </c>
       <c r="H89" s="1" t="str">
-        <f>IF($N89, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J89&amp;IF($N89, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N89, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J89&amp;IF($N89, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyTetraFluoroEthylene Pellets)</v>
       </c>
       <c r="I89" s="1" t="str">
-        <f>IF($N89, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J89&amp;IF($N89, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N89, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J89&amp;IF($N89, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyTetraFluoroEthylene Pellets)</v>
       </c>
       <c r="J89" s="1" t="str">
@@ -14717,19 +14717,19 @@
         <v>96</v>
       </c>
       <c r="F90" s="1" t="str">
-        <f>IF($N90, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J90&amp;IF($N90, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N90, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J90&amp;IF($N90, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyTetramethylene Ether Glycol Pellets)</v>
       </c>
       <c r="G90" s="1" t="str">
-        <f>IF($N90, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J90&amp;IF($N90, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N90, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J90&amp;IF($N90, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyTetramethylene Ether Glycol Pellets)</v>
       </c>
       <c r="H90" s="1" t="str">
-        <f>IF($N90, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J90&amp;IF($N90, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N90, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J90&amp;IF($N90, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyTetramethylene Ether Glycol Pellets)</v>
       </c>
       <c r="I90" s="1" t="str">
-        <f>IF($N90, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J90&amp;IF($N90, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N90, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J90&amp;IF($N90, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyTetramethylene Ether Glycol Pellets)</v>
       </c>
       <c r="J90" s="1" t="str">
@@ -14766,19 +14766,19 @@
         <v>92</v>
       </c>
       <c r="F91" s="1" t="str">
-        <f>IF($N91, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J91&amp;IF($N91, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N91, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J91&amp;IF($N91, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyTetramethylene Glycol Pellets)</v>
       </c>
       <c r="G91" s="1" t="str">
-        <f>IF($N91, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J91&amp;IF($N91, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N91, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J91&amp;IF($N91, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyTetramethylene Glycol Pellets)</v>
       </c>
       <c r="H91" s="1" t="str">
-        <f>IF($N91, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J91&amp;IF($N91, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N91, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J91&amp;IF($N91, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyTetramethylene Glycol Pellets)</v>
       </c>
       <c r="I91" s="1" t="str">
-        <f>IF($N91, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J91&amp;IF($N91, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N91, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J91&amp;IF($N91, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyTetramethylene Glycol Pellets)</v>
       </c>
       <c r="J91" s="1" t="str">
@@ -14815,19 +14815,19 @@
         <v>88</v>
       </c>
       <c r="F92" s="1" t="str">
-        <f>IF($N92, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J92&amp;IF($N92, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N92, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J92&amp;IF($N92, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyThiazyl Pellets)</v>
       </c>
       <c r="G92" s="1" t="str">
-        <f>IF($N92, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J92&amp;IF($N92, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N92, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J92&amp;IF($N92, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyThiazyl Pellets)</v>
       </c>
       <c r="H92" s="1" t="str">
-        <f>IF($N92, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J92&amp;IF($N92, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N92, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J92&amp;IF($N92, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyThiazyl Pellets)</v>
       </c>
       <c r="I92" s="1" t="str">
-        <f>IF($N92, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J92&amp;IF($N92, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N92, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J92&amp;IF($N92, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyThiazyl Pellets)</v>
       </c>
       <c r="J92" s="1" t="str">
@@ -14867,19 +14867,19 @@
         <v>84</v>
       </c>
       <c r="F93" s="1" t="str">
-        <f>IF($N93, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J93&amp;IF($N93, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N93, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J93&amp;IF($N93, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyTrimethylene Terephthalate Pellets)</v>
       </c>
       <c r="G93" s="1" t="str">
-        <f>IF($N93, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J93&amp;IF($N93, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N93, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J93&amp;IF($N93, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyTrimethylene Terephthalate Pellets)</v>
       </c>
       <c r="H93" s="1" t="str">
-        <f>IF($N93, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J93&amp;IF($N93, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N93, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J93&amp;IF($N93, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyTrimethylene Terephthalate Pellets)</v>
       </c>
       <c r="I93" s="1" t="str">
-        <f>IF($N93, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J93&amp;IF($N93, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N93, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J93&amp;IF($N93, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyTrimethylene Terephthalate Pellets)</v>
       </c>
       <c r="J93" s="1" t="str">
@@ -14919,19 +14919,19 @@
         <v>80</v>
       </c>
       <c r="F94" s="1" t="str">
-        <f>IF($N94, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J94&amp;IF($N94, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N94, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J94&amp;IF($N94, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyUrethane Pellets)</v>
       </c>
       <c r="G94" s="1" t="str">
-        <f>IF($N94, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J94&amp;IF($N94, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N94, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J94&amp;IF($N94, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyUrethane Pellets)</v>
       </c>
       <c r="H94" s="1" t="str">
-        <f>IF($N94, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J94&amp;IF($N94, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N94, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J94&amp;IF($N94, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyUrethane Pellets)</v>
       </c>
       <c r="I94" s="1" t="str">
-        <f>IF($N94, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J94&amp;IF($N94, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N94, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J94&amp;IF($N94, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyUrethane Pellets)</v>
       </c>
       <c r="J94" s="1" t="str">
@@ -14971,19 +14971,19 @@
         <v>76</v>
       </c>
       <c r="F95" s="1" t="str">
-        <f>IF($N95, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J95&amp;IF($N95, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N95, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J95&amp;IF($N95, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinyl Acetate Pellets)</v>
       </c>
       <c r="G95" s="1" t="str">
-        <f>IF($N95, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J95&amp;IF($N95, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N95, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J95&amp;IF($N95, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinyl Acetate Pellets)</v>
       </c>
       <c r="H95" s="1" t="str">
-        <f>IF($N95, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J95&amp;IF($N95, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N95, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J95&amp;IF($N95, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinyl Acetate Pellets)</v>
       </c>
       <c r="I95" s="1" t="str">
-        <f>IF($N95, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J95&amp;IF($N95, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N95, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J95&amp;IF($N95, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinyl Acetate Pellets)</v>
       </c>
       <c r="J95" s="1" t="str">
@@ -15023,19 +15023,19 @@
         <v>72</v>
       </c>
       <c r="F96" s="1" t="str">
-        <f>IF($N96, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J96&amp;IF($N96, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N96, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J96&amp;IF($N96, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinyl Alcohol Pellets)</v>
       </c>
       <c r="G96" s="1" t="str">
-        <f>IF($N96, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J96&amp;IF($N96, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N96, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J96&amp;IF($N96, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinyl Alcohol Pellets)</v>
       </c>
       <c r="H96" s="1" t="str">
-        <f>IF($N96, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J96&amp;IF($N96, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N96, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J96&amp;IF($N96, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinyl Alcohol Pellets)</v>
       </c>
       <c r="I96" s="1" t="str">
-        <f>IF($N96, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J96&amp;IF($N96, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N96, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J96&amp;IF($N96, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinyl Alcohol Pellets)</v>
       </c>
       <c r="J96" s="1" t="str">
@@ -15072,19 +15072,19 @@
         <v>68</v>
       </c>
       <c r="F97" s="1" t="str">
-        <f>IF($N97, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J97&amp;IF($N97, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N97, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J97&amp;IF($N97, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinyl Butyral Pellets)</v>
       </c>
       <c r="G97" s="1" t="str">
-        <f>IF($N97, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J97&amp;IF($N97, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N97, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J97&amp;IF($N97, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinyl Butyral Pellets)</v>
       </c>
       <c r="H97" s="1" t="str">
-        <f>IF($N97, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J97&amp;IF($N97, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N97, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J97&amp;IF($N97, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinyl Butyral Pellets)</v>
       </c>
       <c r="I97" s="1" t="str">
-        <f>IF($N97, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J97&amp;IF($N97, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N97, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J97&amp;IF($N97, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinyl Butyral Pellets)</v>
       </c>
       <c r="J97" s="1" t="str">
@@ -15124,19 +15124,19 @@
         <v>64</v>
       </c>
       <c r="F98" s="1" t="str">
-        <f>IF($N98, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J98&amp;IF($N98, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N98, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J98&amp;IF($N98, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinyl Chloride Pellets)</v>
       </c>
       <c r="G98" s="1" t="str">
-        <f>IF($N98, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J98&amp;IF($N98, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N98, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J98&amp;IF($N98, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinyl Chloride Pellets)</v>
       </c>
       <c r="H98" s="1" t="str">
-        <f>IF($N98, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J98&amp;IF($N98, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N98, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J98&amp;IF($N98, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinyl Chloride Pellets)</v>
       </c>
       <c r="I98" s="1" t="str">
-        <f>IF($N98, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J98&amp;IF($N98, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N98, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J98&amp;IF($N98, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinyl Chloride Pellets)</v>
       </c>
       <c r="J98" s="1" t="str">
@@ -15176,19 +15176,19 @@
         <v>60</v>
       </c>
       <c r="F99" s="1" t="str">
-        <f>IF($N99, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J99&amp;IF($N99, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N99, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J99&amp;IF($N99, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinyl Chloride Acetate Pellets)</v>
       </c>
       <c r="G99" s="1" t="str">
-        <f>IF($N99, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J99&amp;IF($N99, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N99, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J99&amp;IF($N99, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinyl Chloride Acetate Pellets)</v>
       </c>
       <c r="H99" s="1" t="str">
-        <f>IF($N99, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J99&amp;IF($N99, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N99, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J99&amp;IF($N99, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinyl Chloride Acetate Pellets)</v>
       </c>
       <c r="I99" s="1" t="str">
-        <f>IF($N99, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J99&amp;IF($N99, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N99, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J99&amp;IF($N99, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinyl Chloride Acetate Pellets)</v>
       </c>
       <c r="J99" s="1" t="str">
@@ -15225,19 +15225,19 @@
         <v>56</v>
       </c>
       <c r="F100" s="1" t="str">
-        <f>IF($N100, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J100&amp;IF($N100, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N100, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J100&amp;IF($N100, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinyl Fluoride Pellets)</v>
       </c>
       <c r="G100" s="1" t="str">
-        <f>IF($N100, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J100&amp;IF($N100, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N100, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J100&amp;IF($N100, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinyl Fluoride Pellets)</v>
       </c>
       <c r="H100" s="1" t="str">
-        <f>IF($N100, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J100&amp;IF($N100, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N100, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J100&amp;IF($N100, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinyl Fluoride Pellets)</v>
       </c>
       <c r="I100" s="1" t="str">
-        <f>IF($N100, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J100&amp;IF($N100, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N100, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J100&amp;IF($N100, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinyl Fluoride Pellets)</v>
       </c>
       <c r="J100" s="1" t="str">
@@ -15274,19 +15274,19 @@
         <v>52</v>
       </c>
       <c r="F101" s="1" t="str">
-        <f>IF($N101, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J101&amp;IF($N101, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N101, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J101&amp;IF($N101, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinyl Formal Pellets)</v>
       </c>
       <c r="G101" s="1" t="str">
-        <f>IF($N101, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J101&amp;IF($N101, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N101, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J101&amp;IF($N101, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinyl Formal Pellets)</v>
       </c>
       <c r="H101" s="1" t="str">
-        <f>IF($N101, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J101&amp;IF($N101, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N101, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J101&amp;IF($N101, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinyl Formal Pellets)</v>
       </c>
       <c r="I101" s="1" t="str">
-        <f>IF($N101, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J101&amp;IF($N101, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N101, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J101&amp;IF($N101, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinyl Formal Pellets)</v>
       </c>
       <c r="J101" s="1" t="str">
@@ -15323,19 +15323,19 @@
         <v>48</v>
       </c>
       <c r="F102" s="1" t="str">
-        <f>IF($N102, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J102&amp;IF($N102, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N102, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J102&amp;IF($N102, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinyl Methyl Ether Pellets)</v>
       </c>
       <c r="G102" s="1" t="str">
-        <f>IF($N102, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J102&amp;IF($N102, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N102, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J102&amp;IF($N102, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinyl Methyl Ether Pellets)</v>
       </c>
       <c r="H102" s="1" t="str">
-        <f>IF($N102, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J102&amp;IF($N102, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N102, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J102&amp;IF($N102, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinyl Methyl Ether Pellets)</v>
       </c>
       <c r="I102" s="1" t="str">
-        <f>IF($N102, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J102&amp;IF($N102, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N102, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J102&amp;IF($N102, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinyl Methyl Ether Pellets)</v>
       </c>
       <c r="J102" s="1" t="str">
@@ -15372,19 +15372,19 @@
         <v>44</v>
       </c>
       <c r="F103" s="1" t="str">
-        <f>IF($N103, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J103&amp;IF($N103, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N103, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J103&amp;IF($N103, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinylidene Dichloride Pellets)</v>
       </c>
       <c r="G103" s="1" t="str">
-        <f>IF($N103, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J103&amp;IF($N103, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N103, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J103&amp;IF($N103, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinylidene Dichloride Pellets)</v>
       </c>
       <c r="H103" s="1" t="str">
-        <f>IF($N103, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J103&amp;IF($N103, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N103, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J103&amp;IF($N103, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinylidene Dichloride Pellets)</v>
       </c>
       <c r="I103" s="1" t="str">
-        <f>IF($N103, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J103&amp;IF($N103, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N103, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J103&amp;IF($N103, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinylidene Dichloride Pellets)</v>
       </c>
       <c r="J103" s="1" t="str">
@@ -15421,19 +15421,19 @@
         <v>40</v>
       </c>
       <c r="F104" s="1" t="str">
-        <f>IF($N104, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J104&amp;IF($N104, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N104, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J104&amp;IF($N104, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinylidene Fluoride Pellets)</v>
       </c>
       <c r="G104" s="1" t="str">
-        <f>IF($N104, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J104&amp;IF($N104, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N104, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J104&amp;IF($N104, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinylidene Fluoride Pellets)</v>
       </c>
       <c r="H104" s="1" t="str">
-        <f>IF($N104, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J104&amp;IF($N104, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N104, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J104&amp;IF($N104, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinylidene Fluoride Pellets)</v>
       </c>
       <c r="I104" s="1" t="str">
-        <f>IF($N104, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J104&amp;IF($N104, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N104, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J104&amp;IF($N104, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinylidene Fluoride Pellets)</v>
       </c>
       <c r="J104" s="1" t="str">
@@ -15470,19 +15470,19 @@
         <v>36</v>
       </c>
       <c r="F105" s="1" t="str">
-        <f>IF($N105, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J105&amp;IF($N105, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N105, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J105&amp;IF($N105, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinylidene Fluoride-Trifluoroethylene Pellets)</v>
       </c>
       <c r="G105" s="1" t="str">
-        <f>IF($N105, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J105&amp;IF($N105, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N105, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J105&amp;IF($N105, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinylidene Fluoride-Trifluoroethylene Pellets)</v>
       </c>
       <c r="H105" s="1" t="str">
-        <f>IF($N105, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J105&amp;IF($N105, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N105, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J105&amp;IF($N105, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinylidene Fluoride-Trifluoroethylene Pellets)</v>
       </c>
       <c r="I105" s="1" t="str">
-        <f>IF($N105, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J105&amp;IF($N105, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N105, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J105&amp;IF($N105, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinylidene Fluoride-Trifluoroethylene Pellets)</v>
       </c>
       <c r="J105" s="1" t="str">
@@ -15522,19 +15522,19 @@
         <v>32</v>
       </c>
       <c r="F106" s="1" t="str">
-        <f>IF($N106, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J106&amp;IF($N106, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N106, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J106&amp;IF($N106, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Styrene-Acrylonitrile Pellets)</v>
       </c>
       <c r="G106" s="1" t="str">
-        <f>IF($N106, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J106&amp;IF($N106, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N106, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J106&amp;IF($N106, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Styrene-Acrylonitrile Pellets)</v>
       </c>
       <c r="H106" s="1" t="str">
-        <f>IF($N106, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J106&amp;IF($N106, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N106, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J106&amp;IF($N106, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Styrene-Acrylonitrile Pellets)</v>
       </c>
       <c r="I106" s="1" t="str">
-        <f>IF($N106, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J106&amp;IF($N106, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N106, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J106&amp;IF($N106, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Styrene-Acrylonitrile Pellets)</v>
       </c>
       <c r="J106" s="1" t="str">
@@ -15574,19 +15574,19 @@
         <v>28</v>
       </c>
       <c r="F107" s="1" t="str">
-        <f>IF($N107, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J107&amp;IF($N107, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N107, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J107&amp;IF($N107, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Styrene-Butadiene Rubber Pellets)</v>
       </c>
       <c r="G107" s="1" t="str">
-        <f>IF($N107, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J107&amp;IF($N107, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N107, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J107&amp;IF($N107, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Styrene-Butadiene Rubber Pellets)</v>
       </c>
       <c r="H107" s="1" t="str">
-        <f>IF($N107, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J107&amp;IF($N107, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N107, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J107&amp;IF($N107, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Styrene-Butadiene Rubber Pellets)</v>
       </c>
       <c r="I107" s="1" t="str">
-        <f>IF($N107, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J107&amp;IF($N107, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N107, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J107&amp;IF($N107, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Styrene-Butadiene Rubber Pellets)</v>
       </c>
       <c r="J107" s="1" t="str">
@@ -15626,19 +15626,19 @@
         <v>24</v>
       </c>
       <c r="F108" s="1" t="str">
-        <f>IF($N108, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J108&amp;IF($N108, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N108, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J108&amp;IF($N108, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Styrene-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="G108" s="1" t="str">
-        <f>IF($N108, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J108&amp;IF($N108, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N108, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J108&amp;IF($N108, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Styrene-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="H108" s="1" t="str">
-        <f>IF($N108, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J108&amp;IF($N108, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N108, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J108&amp;IF($N108, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Styrene-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="I108" s="1" t="str">
-        <f>IF($N108, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J108&amp;IF($N108, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N108, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J108&amp;IF($N108, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Styrene-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="J108" s="1" t="str">
@@ -15675,19 +15675,19 @@
         <v>20</v>
       </c>
       <c r="F109" s="1" t="str">
-        <f>IF($N109, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J109&amp;IF($N109, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N109, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J109&amp;IF($N109, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Styrene-Isoprene-Styrene Pellets)</v>
       </c>
       <c r="G109" s="1" t="str">
-        <f>IF($N109, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J109&amp;IF($N109, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N109, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J109&amp;IF($N109, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Styrene-Isoprene-Styrene Pellets)</v>
       </c>
       <c r="H109" s="1" t="str">
-        <f>IF($N109, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J109&amp;IF($N109, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N109, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J109&amp;IF($N109, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Styrene-Isoprene-Styrene Pellets)</v>
       </c>
       <c r="I109" s="1" t="str">
-        <f>IF($N109, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J109&amp;IF($N109, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N109, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J109&amp;IF($N109, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Styrene-Isoprene-Styrene Pellets)</v>
       </c>
       <c r="J109" s="1" t="str">
@@ -15724,19 +15724,19 @@
         <v>16</v>
       </c>
       <c r="F110" s="1" t="str">
-        <f>IF($N110, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J110&amp;IF($N110, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N110, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J110&amp;IF($N110, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Styrene-Maleic Anhydride Copolymer Pellets)</v>
       </c>
       <c r="G110" s="1" t="str">
-        <f>IF($N110, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J110&amp;IF($N110, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N110, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J110&amp;IF($N110, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Styrene-Maleic Anhydride Copolymer Pellets)</v>
       </c>
       <c r="H110" s="1" t="str">
-        <f>IF($N110, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J110&amp;IF($N110, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N110, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J110&amp;IF($N110, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Styrene-Maleic Anhydride Copolymer Pellets)</v>
       </c>
       <c r="I110" s="1" t="str">
-        <f>IF($N110, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J110&amp;IF($N110, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N110, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J110&amp;IF($N110, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Styrene-Maleic Anhydride Copolymer Pellets)</v>
       </c>
       <c r="J110" s="1" t="str">
@@ -15776,19 +15776,19 @@
         <v>12</v>
       </c>
       <c r="F111" s="1" t="str">
-        <f>IF($N111, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J111&amp;IF($N111, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N111, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J111&amp;IF($N111, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Ultra-High-Molecular-Weight PolyEthylene Pellets)</v>
       </c>
       <c r="G111" s="1" t="str">
-        <f>IF($N111, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J111&amp;IF($N111, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N111, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J111&amp;IF($N111, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Ultra-High-Molecular-Weight PolyEthylene Pellets)</v>
       </c>
       <c r="H111" s="1" t="str">
-        <f>IF($N111, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J111&amp;IF($N111, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N111, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J111&amp;IF($N111, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Ultra-High-Molecular-Weight PolyEthylene Pellets)</v>
       </c>
       <c r="I111" s="1" t="str">
-        <f>IF($N111, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J111&amp;IF($N111, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N111, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J111&amp;IF($N111, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Ultra-High-Molecular-Weight PolyEthylene Pellets)</v>
       </c>
       <c r="J111" s="1" t="str">
@@ -15825,19 +15825,19 @@
         <v>8</v>
       </c>
       <c r="F112" s="1" t="str">
-        <f>IF($N112, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J112&amp;IF($N112, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N112, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J112&amp;IF($N112, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Urea-Formaldehyde Polymers Pellets)</v>
       </c>
       <c r="G112" s="1" t="str">
-        <f>IF($N112, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J112&amp;IF($N112, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N112, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J112&amp;IF($N112, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Urea-Formaldehyde Polymers Pellets)</v>
       </c>
       <c r="H112" s="1" t="str">
-        <f>IF($N112, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J112&amp;IF($N112, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N112, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J112&amp;IF($N112, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Urea-Formaldehyde Polymers Pellets)</v>
       </c>
       <c r="I112" s="1" t="str">
-        <f>IF($N112, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J112&amp;IF($N112, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N112, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J112&amp;IF($N112, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Urea-Formaldehyde Polymers Pellets)</v>
       </c>
       <c r="J112" s="1" t="str">
@@ -15877,19 +15877,19 @@
         <v>4</v>
       </c>
       <c r="F113" s="1" t="str">
-        <f>IF($N113, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J113&amp;IF($N113, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N113, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J113&amp;IF($N113, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Very-Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="G113" s="1" t="str">
-        <f>IF($N113, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J113&amp;IF($N113, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N113, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J113&amp;IF($N113, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Very-Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="H113" s="1" t="str">
-        <f>IF($N113, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J113&amp;IF($N113, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N113, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J113&amp;IF($N113, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Very-Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="I113" s="1" t="str">
-        <f>IF($N113, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J113&amp;IF($N113, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N113, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J113&amp;IF($N113, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Very-Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="J113" s="1" t="str">
@@ -15929,19 +15929,19 @@
         <v>0</v>
       </c>
       <c r="F114" s="1" t="str">
-        <f>IF($N114, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J114&amp;IF($N114, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N114, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J114&amp;IF($N114, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Vinyl Acetate-Acrylic Acid Pellets)</v>
       </c>
       <c r="G114" s="1" t="str">
-        <f>IF($N114, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J114&amp;IF($N114, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N114, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J114&amp;IF($N114, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Vinyl Acetate-Acrylic Acid Pellets)</v>
       </c>
       <c r="H114" s="1" t="str">
-        <f>IF($N114, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J114&amp;IF($N114, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N114, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J114&amp;IF($N114, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Vinyl Acetate-Acrylic Acid Pellets)</v>
       </c>
       <c r="I114" s="1" t="str">
-        <f>IF($N114, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J114&amp;IF($N114, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N114, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J114&amp;IF($N114, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Vinyl Acetate-Acrylic Acid Pellets)</v>
       </c>
       <c r="J114" s="1" t="str">
@@ -15981,19 +15981,19 @@
         <v>1853</v>
       </c>
       <c r="F115" s="1" t="str">
-        <f>IF($N115, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N115, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Polycaprolactam Pellets)</v>
       </c>
       <c r="G115" s="1" t="str">
-        <f>IF($N115, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N115, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Polycaprolactam Pellets)</v>
       </c>
       <c r="H115" s="1" t="str">
-        <f>IF($N115, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N115, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Polycaprolactam Pellets)</v>
       </c>
       <c r="I115" s="1" t="str">
-        <f>IF($N115, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N115, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Polycaprolactam Pellets)</v>
       </c>
       <c r="J115" s="1" t="str">
@@ -16033,19 +16033,19 @@
         <v>2412</v>
       </c>
       <c r="F116" s="1" t="str">
-        <f>IF($N116, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J116&amp;IF($N116, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N116, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J116&amp;IF($N116, " "&amp;$J$1, "")&amp;")"</f>
         <v>Vial (Epoxy-Carbon Fiber Resin)</v>
       </c>
       <c r="G116" s="1" t="str">
-        <f>IF($N116, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J116&amp;IF($N116, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N116, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J116&amp;IF($N116, " "&amp;$J$1, "")&amp;")"</f>
         <v>Beaker (Epoxy-Carbon Fiber Resin)</v>
       </c>
       <c r="H116" s="1" t="str">
-        <f>IF($N116, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J116&amp;IF($N116, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N116, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J116&amp;IF($N116, " "&amp;$J$1, "")&amp;")"</f>
         <v>Drum (Epoxy-Carbon Fiber Resin)</v>
       </c>
       <c r="I116" s="1" t="str">
-        <f>IF($N116, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J116&amp;IF($N116, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N116, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J116&amp;IF($N116, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Vat (Epoxy-Carbon Fiber Resin)</v>
       </c>
       <c r="J116" s="1" t="str">
@@ -16085,19 +16085,19 @@
         <v>2416</v>
       </c>
       <c r="F117" s="1" t="str">
-        <f>IF($N117, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J117&amp;IF($N117, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N117, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J117&amp;IF($N117, " "&amp;$J$1, "")&amp;")"</f>
         <v>Vial (Phenolic-Carbon Fiber Resin)</v>
       </c>
       <c r="G117" s="1" t="str">
-        <f>IF($N117, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J117&amp;IF($N117, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N117, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J117&amp;IF($N117, " "&amp;$J$1, "")&amp;")"</f>
         <v>Beaker (Phenolic-Carbon Fiber Resin)</v>
       </c>
       <c r="H117" s="1" t="str">
-        <f>IF($N117, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J117&amp;IF($N117, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N117, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J117&amp;IF($N117, " "&amp;$J$1, "")&amp;")"</f>
         <v>Drum (Phenolic-Carbon Fiber Resin)</v>
       </c>
       <c r="I117" s="1" t="str">
-        <f>IF($N117, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J117&amp;IF($N117, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N117, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J117&amp;IF($N117, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Vat (Phenolic-Carbon Fiber Resin)</v>
       </c>
       <c r="J117" s="1" t="str">
@@ -16134,19 +16134,19 @@
         <v>2420</v>
       </c>
       <c r="F118" s="1" t="str">
-        <f>IF($N118, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J118&amp;IF($N118, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N118, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J118&amp;IF($N118, " "&amp;$J$1, "")&amp;")"</f>
         <v>Vial (0)</v>
       </c>
       <c r="G118" s="1" t="str">
-        <f>IF($N118, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J118&amp;IF($N118, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N118, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J118&amp;IF($N118, " "&amp;$J$1, "")&amp;")"</f>
         <v>Beaker (0)</v>
       </c>
       <c r="H118" s="1" t="str">
-        <f>IF($N118, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J118&amp;IF($N118, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N118, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J118&amp;IF($N118, " "&amp;$J$1, "")&amp;")"</f>
         <v>Drum (0)</v>
       </c>
       <c r="I118" s="1" t="str">
-        <f>IF($N118, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J118&amp;IF($N118, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N118, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J118&amp;IF($N118, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Vat (0)</v>
       </c>
       <c r="J118" s="1">
@@ -16183,19 +16183,19 @@
         <v>2424</v>
       </c>
       <c r="F119" s="1" t="str">
-        <f>IF($N119, [1]Enums!$A$26, [1]Enums!$A$27)&amp;" ("&amp;$J119&amp;IF($N119, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N119, [1]Enums!$A$27, [1]Enums!$A$28)&amp;" ("&amp;$J119&amp;IF($N119, " "&amp;$J$1, "")&amp;")"</f>
         <v>Vial (0)</v>
       </c>
       <c r="G119" s="1" t="str">
-        <f>IF($N119, [1]Enums!$A$29, [1]Enums!$A$30)&amp;" ("&amp;$J119&amp;IF($N119, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N119, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J119&amp;IF($N119, " "&amp;$J$1, "")&amp;")"</f>
         <v>Beaker (0)</v>
       </c>
       <c r="H119" s="1" t="str">
-        <f>IF($N119, [1]Enums!$A$32, [1]Enums!$A$33)&amp;" ("&amp;$J119&amp;IF($N119, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N119, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J119&amp;IF($N119, " "&amp;$J$1, "")&amp;")"</f>
         <v>Drum (0)</v>
       </c>
       <c r="I119" s="1" t="str">
-        <f>IF($N119, [1]Enums!$A$35, [1]Enums!$A$36)&amp;" ("&amp;$J119&amp;IF($N119, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N119, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J119&amp;IF($N119, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Vat (0)</v>
       </c>
       <c r="J119" s="1">
@@ -17175,7 +17175,7 @@
         <v>Steel Ingot</v>
       </c>
       <c r="I2" s="45" t="str">
-        <f>[1]Enums!$A$135&amp;" "&amp;VLOOKUP(H2, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$136&amp;" "&amp;VLOOKUP(H2, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Composite Steel</v>
       </c>
       <c r="J2" s="45">
@@ -17223,7 +17223,7 @@
         <v>Stainless Steel Ingot</v>
       </c>
       <c r="I3" s="45" t="str">
-        <f>[1]Enums!$A$135&amp;" "&amp;VLOOKUP(H3, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$136&amp;" "&amp;VLOOKUP(H3, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Composite Stainless Steel</v>
       </c>
       <c r="J3" s="45">
@@ -17271,7 +17271,7 @@
         <v>Brass Ingot</v>
       </c>
       <c r="I4" s="45" t="str">
-        <f>[1]Enums!$A$135&amp;" "&amp;VLOOKUP(H4, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$136&amp;" "&amp;VLOOKUP(H4, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Composite Brass</v>
       </c>
       <c r="J4" s="45">
@@ -17319,7 +17319,7 @@
         <v>Bronze Ingot</v>
       </c>
       <c r="I5" s="45" t="str">
-        <f>[1]Enums!$A$135&amp;" "&amp;VLOOKUP(H5, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$136&amp;" "&amp;VLOOKUP(H5, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Composite Bronze</v>
       </c>
       <c r="J5" s="45">
@@ -17367,7 +17367,7 @@
         <v>Tungsten Carbide Ingot</v>
       </c>
       <c r="I6" s="45" t="str">
-        <f>[1]Enums!$A$135&amp;" "&amp;VLOOKUP(H6, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$136&amp;" "&amp;VLOOKUP(H6, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Composite Tungsten Carbide</v>
       </c>
       <c r="J6" s="45">
@@ -17415,7 +17415,7 @@
         <v>Nichrome Ingot</v>
       </c>
       <c r="I7" s="45" t="str">
-        <f>[1]Enums!$A$135&amp;" "&amp;VLOOKUP(H7, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$136&amp;" "&amp;VLOOKUP(H7, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Composite Nichrome</v>
       </c>
       <c r="J7" s="45">
@@ -17463,7 +17463,7 @@
         <v>Antimony-Lead Ingot</v>
       </c>
       <c r="I8" s="45" t="str">
-        <f>[1]Enums!$A$135&amp;" "&amp;VLOOKUP(H8, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$136&amp;" "&amp;VLOOKUP(H8, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Composite Antimony-Lead</v>
       </c>
       <c r="J8" s="45">
@@ -17511,7 +17511,7 @@
         <v>Steel Ingot</v>
       </c>
       <c r="I9" s="45" t="str">
-        <f>[1]Enums!$A$136&amp;" "&amp;VLOOKUP(H9, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$137&amp;" "&amp;VLOOKUP(H9, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Engineered Steel</v>
       </c>
       <c r="J9" s="45">
@@ -17559,7 +17559,7 @@
         <v>Stainless Steel Ingot</v>
       </c>
       <c r="I10" s="45" t="str">
-        <f>[1]Enums!$A$136&amp;" "&amp;VLOOKUP(H10, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$137&amp;" "&amp;VLOOKUP(H10, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Engineered Stainless Steel</v>
       </c>
       <c r="J10" s="45">
@@ -17607,7 +17607,7 @@
         <v>Brass Ingot</v>
       </c>
       <c r="I11" s="45" t="str">
-        <f>[1]Enums!$A$136&amp;" "&amp;VLOOKUP(H11, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$137&amp;" "&amp;VLOOKUP(H11, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Engineered Brass</v>
       </c>
       <c r="J11" s="45">
@@ -17655,7 +17655,7 @@
         <v>Bronze Ingot</v>
       </c>
       <c r="I12" s="45" t="str">
-        <f>[1]Enums!$A$136&amp;" "&amp;VLOOKUP(H12, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$137&amp;" "&amp;VLOOKUP(H12, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Engineered Bronze</v>
       </c>
       <c r="J12" s="45">
@@ -17703,7 +17703,7 @@
         <v>Tungsten Carbide Ingot</v>
       </c>
       <c r="I13" s="45" t="str">
-        <f>[1]Enums!$A$136&amp;" "&amp;VLOOKUP(H13, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$137&amp;" "&amp;VLOOKUP(H13, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Engineered Tungsten Carbide</v>
       </c>
       <c r="J13" s="45">
@@ -17751,7 +17751,7 @@
         <v>Nichrome Ingot</v>
       </c>
       <c r="I14" s="45" t="str">
-        <f>[1]Enums!$A$136&amp;" "&amp;VLOOKUP(H14, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$137&amp;" "&amp;VLOOKUP(H14, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Engineered Nichrome</v>
       </c>
       <c r="J14" s="45">
@@ -17799,7 +17799,7 @@
         <v>Antimony-Lead Ingot</v>
       </c>
       <c r="I15" s="45" t="str">
-        <f>[1]Enums!$A$136&amp;" "&amp;VLOOKUP(H15, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$137&amp;" "&amp;VLOOKUP(H15, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Engineered Antimony-Lead</v>
       </c>
       <c r="J15" s="45">
@@ -17847,7 +17847,7 @@
         <v>Iron Ingot</v>
       </c>
       <c r="I16" s="45" t="str">
-        <f>[1]Enums!$A$135&amp;" Iron"</f>
+        <f>[1]Enums!$A$136&amp;" Iron"</f>
         <v>Composite Iron</v>
       </c>
       <c r="J16" s="45">
@@ -17895,7 +17895,7 @@
         <v>Iron Ingot</v>
       </c>
       <c r="I17" s="45" t="str">
-        <f>[1]Enums!$A$136&amp;" Iron"</f>
+        <f>[1]Enums!$A$137&amp;" Iron"</f>
         <v>Engineered Iron</v>
       </c>
       <c r="J17" s="45">
@@ -17943,7 +17943,7 @@
         <v>Diamond</v>
       </c>
       <c r="I18" s="45" t="str">
-        <f>[1]Enums!$A$135&amp;" Diamond"</f>
+        <f>[1]Enums!$A$136&amp;" Diamond"</f>
         <v>Composite Diamond</v>
       </c>
       <c r="J18" s="45">
@@ -17991,7 +17991,7 @@
         <v>Diamond</v>
       </c>
       <c r="I19" s="45" t="str">
-        <f>[1]Enums!$A$136&amp;" Diamond"</f>
+        <f>[1]Enums!$A$137&amp;" Diamond"</f>
         <v>Engineered Diamond</v>
       </c>
       <c r="J19" s="45">
@@ -18292,7 +18292,7 @@
         <v>Molded Item</v>
       </c>
       <c r="F1" s="36" t="str">
-        <f xml:space="preserve"> [1]Enums!$A$100</f>
+        <f xml:space="preserve"> [1]Enums!$A$101</f>
         <v>Base Material</v>
       </c>
       <c r="G1" s="30" t="s">
@@ -18320,7 +18320,7 @@
         <v>1812</v>
       </c>
       <c r="C2" s="22" t="str">
-        <f>[1]Enums!$A$97&amp;" "&amp;D2</f>
+        <f>[1]Enums!$A$98&amp;" "&amp;D2</f>
         <v>Gripped Iron Shovel</v>
       </c>
       <c r="D2" s="24" t="str">
@@ -18332,7 +18332,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F2" s="34" t="str">
-        <f>[1]Enums!$A$103</f>
+        <f>[1]Enums!$A$104</f>
         <v>Iron</v>
       </c>
       <c r="G2" s="24">
@@ -18357,7 +18357,7 @@
         <v>1811</v>
       </c>
       <c r="C3" s="22" t="str">
-        <f>[1]Enums!$A$97&amp;" "&amp;D3</f>
+        <f>[1]Enums!$A$98&amp;" "&amp;D3</f>
         <v>Gripped Iron Pickaxe</v>
       </c>
       <c r="D3" s="21" t="str">
@@ -18369,7 +18369,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F3" s="34" t="str">
-        <f>[1]Enums!$A$103</f>
+        <f>[1]Enums!$A$104</f>
         <v>Iron</v>
       </c>
       <c r="G3" s="24">
@@ -18394,7 +18394,7 @@
         <v>1810</v>
       </c>
       <c r="C4" s="22" t="str">
-        <f>[1]Enums!$A$97&amp;" "&amp;D4</f>
+        <f>[1]Enums!$A$98&amp;" "&amp;D4</f>
         <v>Gripped Iron Axe</v>
       </c>
       <c r="D4" s="21" t="str">
@@ -18406,7 +18406,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F4" s="34" t="str">
-        <f>[1]Enums!$A$103</f>
+        <f>[1]Enums!$A$104</f>
         <v>Iron</v>
       </c>
       <c r="G4" s="24">
@@ -18431,7 +18431,7 @@
         <v>1809</v>
       </c>
       <c r="C5" s="22" t="str">
-        <f>[1]Enums!$A$97&amp;" "&amp;D5</f>
+        <f>[1]Enums!$A$98&amp;" "&amp;D5</f>
         <v>Gripped Iron Sword</v>
       </c>
       <c r="D5" s="21" t="str">
@@ -18443,7 +18443,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F5" s="34" t="str">
-        <f>[1]Enums!$A$103</f>
+        <f>[1]Enums!$A$104</f>
         <v>Iron</v>
       </c>
       <c r="G5" s="24">
@@ -18468,7 +18468,7 @@
         <v>1808</v>
       </c>
       <c r="C6" s="22" t="str">
-        <f>[1]Enums!$A$97&amp;" "&amp;D6</f>
+        <f>[1]Enums!$A$98&amp;" "&amp;D6</f>
         <v>Gripped Wooden Sword</v>
       </c>
       <c r="D6" s="21" t="str">
@@ -18480,7 +18480,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F6" s="34" t="str">
-        <f>[1]Enums!$A$101</f>
+        <f>[1]Enums!$A$102</f>
         <v>Wooden</v>
       </c>
       <c r="G6" s="24">
@@ -18505,7 +18505,7 @@
         <v>1807</v>
       </c>
       <c r="C7" s="22" t="str">
-        <f>[1]Enums!$A$97&amp;" "&amp;D7</f>
+        <f>[1]Enums!$A$98&amp;" "&amp;D7</f>
         <v>Gripped Wooden Shovel</v>
       </c>
       <c r="D7" s="21" t="str">
@@ -18517,7 +18517,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F7" s="34" t="str">
-        <f>[1]Enums!$A$101</f>
+        <f>[1]Enums!$A$102</f>
         <v>Wooden</v>
       </c>
       <c r="G7" s="24">
@@ -18542,7 +18542,7 @@
         <v>1806</v>
       </c>
       <c r="C8" s="22" t="str">
-        <f>[1]Enums!$A$97&amp;" "&amp;D8</f>
+        <f>[1]Enums!$A$98&amp;" "&amp;D8</f>
         <v>Gripped Wooden Pickaxe</v>
       </c>
       <c r="D8" s="21" t="str">
@@ -18554,7 +18554,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F8" s="34" t="str">
-        <f>[1]Enums!$A$101</f>
+        <f>[1]Enums!$A$102</f>
         <v>Wooden</v>
       </c>
       <c r="G8" s="24">
@@ -18579,7 +18579,7 @@
         <v>1805</v>
       </c>
       <c r="C9" s="22" t="str">
-        <f>[1]Enums!$A$97&amp;" "&amp;D9</f>
+        <f>[1]Enums!$A$98&amp;" "&amp;D9</f>
         <v>Gripped Wooden Axe</v>
       </c>
       <c r="D9" s="21" t="str">
@@ -18591,7 +18591,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F9" s="34" t="str">
-        <f>[1]Enums!$A$101</f>
+        <f>[1]Enums!$A$102</f>
         <v>Wooden</v>
       </c>
       <c r="G9" s="24">
@@ -18616,7 +18616,7 @@
         <v>1804</v>
       </c>
       <c r="C10" s="22" t="str">
-        <f>[1]Enums!$A$97&amp;" "&amp;D10</f>
+        <f>[1]Enums!$A$98&amp;" "&amp;D10</f>
         <v>Gripped Stone Sword</v>
       </c>
       <c r="D10" s="21" t="str">
@@ -18628,7 +18628,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F10" s="34" t="str">
-        <f>[1]Enums!$A$102</f>
+        <f>[1]Enums!$A$103</f>
         <v>Stone</v>
       </c>
       <c r="G10" s="24">
@@ -18653,7 +18653,7 @@
         <v>1803</v>
       </c>
       <c r="C11" s="22" t="str">
-        <f>[1]Enums!$A$97&amp;" "&amp;D11</f>
+        <f>[1]Enums!$A$98&amp;" "&amp;D11</f>
         <v>Gripped Stone Shovel</v>
       </c>
       <c r="D11" s="21" t="str">
@@ -18665,7 +18665,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F11" s="34" t="str">
-        <f>[1]Enums!$A$102</f>
+        <f>[1]Enums!$A$103</f>
         <v>Stone</v>
       </c>
       <c r="G11" s="24">
@@ -18690,7 +18690,7 @@
         <v>1802</v>
       </c>
       <c r="C12" s="22" t="str">
-        <f>[1]Enums!$A$97&amp;" "&amp;D12</f>
+        <f>[1]Enums!$A$98&amp;" "&amp;D12</f>
         <v>Gripped Stone Pickaxe</v>
       </c>
       <c r="D12" s="21" t="str">
@@ -18702,7 +18702,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F12" s="34" t="str">
-        <f>[1]Enums!$A$102</f>
+        <f>[1]Enums!$A$103</f>
         <v>Stone</v>
       </c>
       <c r="G12" s="24">
@@ -18727,7 +18727,7 @@
         <v>1801</v>
       </c>
       <c r="C13" s="22" t="str">
-        <f>[1]Enums!$A$97&amp;" "&amp;D13</f>
+        <f>[1]Enums!$A$98&amp;" "&amp;D13</f>
         <v>Gripped Stone Axe</v>
       </c>
       <c r="D13" s="21" t="str">
@@ -18739,7 +18739,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F13" s="34" t="str">
-        <f>[1]Enums!$A$102</f>
+        <f>[1]Enums!$A$103</f>
         <v>Stone</v>
       </c>
       <c r="G13" s="24">
@@ -18764,7 +18764,7 @@
         <v>1800</v>
       </c>
       <c r="C14" s="22" t="str">
-        <f>[1]Enums!$A$97&amp;" "&amp;D14</f>
+        <f>[1]Enums!$A$98&amp;" "&amp;D14</f>
         <v>Gripped Diamond Sword</v>
       </c>
       <c r="D14" s="21" t="str">
@@ -18776,7 +18776,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F14" s="34" t="str">
-        <f>[1]Enums!$A$105</f>
+        <f>[1]Enums!$A$106</f>
         <v>Diamond</v>
       </c>
       <c r="G14" s="24">
@@ -18801,7 +18801,7 @@
         <v>1799</v>
       </c>
       <c r="C15" s="22" t="str">
-        <f>[1]Enums!$A$97&amp;" "&amp;D15</f>
+        <f>[1]Enums!$A$98&amp;" "&amp;D15</f>
         <v>Gripped Diamond Shovel</v>
       </c>
       <c r="D15" s="21" t="str">
@@ -18813,7 +18813,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F15" s="34" t="str">
-        <f>[1]Enums!$A$105</f>
+        <f>[1]Enums!$A$106</f>
         <v>Diamond</v>
       </c>
       <c r="G15" s="24">
@@ -18838,7 +18838,7 @@
         <v>1798</v>
       </c>
       <c r="C16" s="22" t="str">
-        <f>[1]Enums!$A$97&amp;" "&amp;D16</f>
+        <f>[1]Enums!$A$98&amp;" "&amp;D16</f>
         <v>Gripped Diamond Pickaxe</v>
       </c>
       <c r="D16" s="21" t="str">
@@ -18850,7 +18850,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F16" s="34" t="str">
-        <f>[1]Enums!$A$105</f>
+        <f>[1]Enums!$A$106</f>
         <v>Diamond</v>
       </c>
       <c r="G16" s="24">
@@ -18875,7 +18875,7 @@
         <v>1797</v>
       </c>
       <c r="C17" s="22" t="str">
-        <f>[1]Enums!$A$97&amp;" "&amp;D17</f>
+        <f>[1]Enums!$A$98&amp;" "&amp;D17</f>
         <v>Gripped Diamond Axe</v>
       </c>
       <c r="D17" s="21" t="str">
@@ -18887,7 +18887,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F17" s="34" t="str">
-        <f>[1]Enums!$A$105</f>
+        <f>[1]Enums!$A$106</f>
         <v>Diamond</v>
       </c>
       <c r="G17" s="24">
@@ -18912,7 +18912,7 @@
         <v>1796</v>
       </c>
       <c r="C18" s="22" t="str">
-        <f>[1]Enums!$A$97&amp;" "&amp;D18</f>
+        <f>[1]Enums!$A$98&amp;" "&amp;D18</f>
         <v>Gripped Golden Sword</v>
       </c>
       <c r="D18" s="21" t="str">
@@ -18924,7 +18924,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F18" s="34" t="str">
-        <f>[1]Enums!$A$104</f>
+        <f>[1]Enums!$A$105</f>
         <v>Golden</v>
       </c>
       <c r="G18" s="24">
@@ -18949,7 +18949,7 @@
         <v>1795</v>
       </c>
       <c r="C19" s="22" t="str">
-        <f>[1]Enums!$A$97&amp;" "&amp;D19</f>
+        <f>[1]Enums!$A$98&amp;" "&amp;D19</f>
         <v>Gripped Golden Shovel</v>
       </c>
       <c r="D19" s="21" t="str">
@@ -18961,7 +18961,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F19" s="34" t="str">
-        <f>[1]Enums!$A$104</f>
+        <f>[1]Enums!$A$105</f>
         <v>Golden</v>
       </c>
       <c r="G19" s="24">
@@ -18986,7 +18986,7 @@
         <v>1794</v>
       </c>
       <c r="C20" s="22" t="str">
-        <f>[1]Enums!$A$97&amp;" "&amp;D20</f>
+        <f>[1]Enums!$A$98&amp;" "&amp;D20</f>
         <v>Gripped Golden Pickaxe</v>
       </c>
       <c r="D20" s="21" t="str">
@@ -18998,7 +18998,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F20" s="34" t="str">
-        <f>[1]Enums!$A$104</f>
+        <f>[1]Enums!$A$105</f>
         <v>Golden</v>
       </c>
       <c r="G20" s="24">
@@ -19023,7 +19023,7 @@
         <v>1793</v>
       </c>
       <c r="C21" s="22" t="str">
-        <f>[1]Enums!$A$97&amp;" "&amp;D21</f>
+        <f>[1]Enums!$A$98&amp;" "&amp;D21</f>
         <v>Gripped Golden Axe</v>
       </c>
       <c r="D21" s="21" t="str">
@@ -19035,7 +19035,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F21" s="34" t="str">
-        <f>[1]Enums!$A$104</f>
+        <f>[1]Enums!$A$105</f>
         <v>Golden</v>
       </c>
       <c r="G21" s="24">
@@ -19060,7 +19060,7 @@
         <v>1792</v>
       </c>
       <c r="C22" s="22" t="str">
-        <f>[1]Enums!$A$97&amp;" "&amp;D22</f>
+        <f>[1]Enums!$A$98&amp;" "&amp;D22</f>
         <v>Gripped Wooden Hoe</v>
       </c>
       <c r="D22" s="21" t="str">
@@ -19072,7 +19072,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F22" s="34" t="str">
-        <f>[1]Enums!$A$101</f>
+        <f>[1]Enums!$A$102</f>
         <v>Wooden</v>
       </c>
       <c r="G22" s="24">
@@ -19097,7 +19097,7 @@
         <v>1791</v>
       </c>
       <c r="C23" s="22" t="str">
-        <f>[1]Enums!$A$97&amp;" "&amp;D23</f>
+        <f>[1]Enums!$A$98&amp;" "&amp;D23</f>
         <v>Gripped Stone Hoe</v>
       </c>
       <c r="D23" s="21" t="str">
@@ -19109,7 +19109,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F23" s="34" t="str">
-        <f>[1]Enums!$A$102</f>
+        <f>[1]Enums!$A$103</f>
         <v>Stone</v>
       </c>
       <c r="G23" s="24">
@@ -19134,7 +19134,7 @@
         <v>1790</v>
       </c>
       <c r="C24" s="22" t="str">
-        <f>[1]Enums!$A$97&amp;" "&amp;D24</f>
+        <f>[1]Enums!$A$98&amp;" "&amp;D24</f>
         <v>Gripped Iron Hoe</v>
       </c>
       <c r="D24" s="21" t="str">
@@ -19146,7 +19146,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F24" s="34" t="str">
-        <f>[1]Enums!$A$103</f>
+        <f>[1]Enums!$A$104</f>
         <v>Iron</v>
       </c>
       <c r="G24" s="24">
@@ -19171,7 +19171,7 @@
         <v>1789</v>
       </c>
       <c r="C25" s="22" t="str">
-        <f>[1]Enums!$A$97&amp;" "&amp;D25</f>
+        <f>[1]Enums!$A$98&amp;" "&amp;D25</f>
         <v>Gripped Diamond Hoe</v>
       </c>
       <c r="D25" s="21" t="str">
@@ -19183,7 +19183,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F25" s="34" t="str">
-        <f>[1]Enums!$A$105</f>
+        <f>[1]Enums!$A$106</f>
         <v>Diamond</v>
       </c>
       <c r="G25" s="24">
@@ -19208,7 +19208,7 @@
         <v>1788</v>
       </c>
       <c r="C26" s="22" t="str">
-        <f>[1]Enums!$A$97&amp;" "&amp;D26</f>
+        <f>[1]Enums!$A$98&amp;" "&amp;D26</f>
         <v>Gripped Golden Hoe</v>
       </c>
       <c r="D26" s="21" t="str">
@@ -19220,7 +19220,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F26" s="34" t="str">
-        <f>[1]Enums!$A$104</f>
+        <f>[1]Enums!$A$105</f>
         <v>Golden</v>
       </c>
       <c r="G26" s="24">
@@ -19282,7 +19282,7 @@
         <v>1832</v>
       </c>
       <c r="D1" s="36" t="str">
-        <f xml:space="preserve"> [1]Enums!$A$100</f>
+        <f xml:space="preserve"> [1]Enums!$A$101</f>
         <v>Base Material</v>
       </c>
       <c r="E1" s="36" t="s">
@@ -19328,7 +19328,7 @@
         <v>Wooden Pogo Stick</v>
       </c>
       <c r="D2" s="34" t="str">
-        <f>[1]Enums!$A$101</f>
+        <f>[1]Enums!$A$102</f>
         <v>Wooden</v>
       </c>
       <c r="E2" s="37">
@@ -19365,7 +19365,7 @@
         <v>Stone Pogo Stick</v>
       </c>
       <c r="D3" s="34" t="str">
-        <f>[1]Enums!$A$102</f>
+        <f>[1]Enums!$A$103</f>
         <v>Stone</v>
       </c>
       <c r="E3" s="37">
@@ -19401,7 +19401,7 @@
         <v>Iron Pogo Stick</v>
       </c>
       <c r="D4" s="34" t="str">
-        <f>[1]Enums!$A$103</f>
+        <f>[1]Enums!$A$104</f>
         <v>Iron</v>
       </c>
       <c r="E4" s="37">
@@ -19437,7 +19437,7 @@
         <v>Golden Pogo Stick</v>
       </c>
       <c r="D5" s="34" t="str">
-        <f>[1]Enums!$A$104</f>
+        <f>[1]Enums!$A$105</f>
         <v>Golden</v>
       </c>
       <c r="E5" s="37">
@@ -19473,7 +19473,7 @@
         <v>Diamond Pogo Stick</v>
       </c>
       <c r="D6" s="34" t="str">
-        <f>[1]Enums!$A$105</f>
+        <f>[1]Enums!$A$106</f>
         <v>Diamond</v>
       </c>
       <c r="E6" s="37">
@@ -19509,7 +19509,7 @@
         <v>Magic Pogo Stick</v>
       </c>
       <c r="D7" s="34" t="str">
-        <f>[1]Enums!$A$106</f>
+        <f>[1]Enums!$A$107</f>
         <v>Magic</v>
       </c>
       <c r="E7" s="37">
@@ -19541,11 +19541,11 @@
         <v>1821</v>
       </c>
       <c r="C8" s="34" t="str">
-        <f>[1]Enums!$A$97&amp;" "&amp;I8</f>
+        <f>[1]Enums!$A$98&amp;" "&amp;I8</f>
         <v>Gripped Wooden Pogo Stick</v>
       </c>
       <c r="D8" s="34" t="str">
-        <f>[1]Enums!$A$101</f>
+        <f>[1]Enums!$A$102</f>
         <v>Wooden</v>
       </c>
       <c r="E8" s="37">
@@ -19585,11 +19585,11 @@
         <v>1820</v>
       </c>
       <c r="C9" s="34" t="str">
-        <f>[1]Enums!$A$97&amp;" "&amp;I9</f>
+        <f>[1]Enums!$A$98&amp;" "&amp;I9</f>
         <v>Gripped Stone Pogo Stick</v>
       </c>
       <c r="D9" s="34" t="str">
-        <f>[1]Enums!$A$102</f>
+        <f>[1]Enums!$A$103</f>
         <v>Stone</v>
       </c>
       <c r="E9" s="37">
@@ -19629,11 +19629,11 @@
         <v>1819</v>
       </c>
       <c r="C10" s="34" t="str">
-        <f>[1]Enums!$A$97&amp;" "&amp;I10</f>
+        <f>[1]Enums!$A$98&amp;" "&amp;I10</f>
         <v>Gripped Iron Pogo Stick</v>
       </c>
       <c r="D10" s="34" t="str">
-        <f>[1]Enums!$A$103</f>
+        <f>[1]Enums!$A$104</f>
         <v>Iron</v>
       </c>
       <c r="E10" s="37">
@@ -19673,11 +19673,11 @@
         <v>1818</v>
       </c>
       <c r="C11" s="34" t="str">
-        <f>[1]Enums!$A$97&amp;" "&amp;I11</f>
+        <f>[1]Enums!$A$98&amp;" "&amp;I11</f>
         <v>Gripped Golden Pogo Stick</v>
       </c>
       <c r="D11" s="34" t="str">
-        <f>[1]Enums!$A$104</f>
+        <f>[1]Enums!$A$105</f>
         <v>Golden</v>
       </c>
       <c r="E11" s="37">
@@ -19717,11 +19717,11 @@
         <v>1817</v>
       </c>
       <c r="C12" s="34" t="str">
-        <f>[1]Enums!$A$97&amp;" "&amp;I12</f>
+        <f>[1]Enums!$A$98&amp;" "&amp;I12</f>
         <v>Gripped Diamond Pogo Stick</v>
       </c>
       <c r="D12" s="34" t="str">
-        <f>[1]Enums!$A$105</f>
+        <f>[1]Enums!$A$106</f>
         <v>Diamond</v>
       </c>
       <c r="E12" s="37">
@@ -37803,7 +37803,7 @@
         <v>590</v>
       </c>
       <c r="D1" s="7" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$74</f>
+        <f xml:space="preserve"> [1]Enums!$B$75</f>
         <v>Mold Type</v>
       </c>
       <c r="E1" s="19" t="str">
@@ -37827,7 +37827,7 @@
         <v>Mold (Grip)</v>
       </c>
       <c r="D2" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$78</f>
+        <f xml:space="preserve"> [1]Enums!$B$79</f>
         <v>Mold</v>
       </c>
       <c r="E2" s="11" t="str">
@@ -37852,7 +37852,7 @@
         <v>Mold (Running Shoes)</v>
       </c>
       <c r="D3" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$78</f>
+        <f xml:space="preserve"> [1]Enums!$B$79</f>
         <v>Mold</v>
       </c>
       <c r="E3" s="11" t="str">
@@ -37877,7 +37877,7 @@
         <v>Mold (Scuba Fins)</v>
       </c>
       <c r="D4" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$78</f>
+        <f xml:space="preserve"> [1]Enums!$B$79</f>
         <v>Mold</v>
       </c>
       <c r="E4" s="11" t="str">
@@ -37902,7 +37902,7 @@
         <v>Mold (Scuba Mask)</v>
       </c>
       <c r="D5" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$78</f>
+        <f xml:space="preserve"> [1]Enums!$B$79</f>
         <v>Mold</v>
       </c>
       <c r="E5" s="11" t="str">
@@ -37927,7 +37927,7 @@
         <v>Mold (Gasket)</v>
       </c>
       <c r="D6" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$78</f>
+        <f xml:space="preserve"> [1]Enums!$B$79</f>
         <v>Mold</v>
       </c>
       <c r="E6" s="11" t="str">
@@ -37952,7 +37952,7 @@
         <v>Mold (Life Preserver)</v>
       </c>
       <c r="D7" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$78</f>
+        <f xml:space="preserve"> [1]Enums!$B$79</f>
         <v>Mold</v>
       </c>
       <c r="E7" s="11" t="str">
@@ -37977,7 +37977,7 @@
         <v>Metal Die (Fibers)</v>
       </c>
       <c r="D8" s="2" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$79</f>
+        <f xml:space="preserve"> [1]Enums!$B$80</f>
         <v>Metal Die</v>
       </c>
       <c r="E8" s="11" t="str">
@@ -38002,7 +38002,7 @@
         <v>Metal Die (Tether)</v>
       </c>
       <c r="D9" s="2" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$79</f>
+        <f xml:space="preserve"> [1]Enums!$B$80</f>
         <v>Metal Die</v>
       </c>
       <c r="E9" s="11" t="str">
@@ -38027,7 +38027,7 @@
         <v>Metal Die (Cord)</v>
       </c>
       <c r="D10" s="2" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$79</f>
+        <f xml:space="preserve"> [1]Enums!$B$80</f>
         <v>Metal Die</v>
       </c>
       <c r="E10" s="11" t="str">
@@ -38052,7 +38052,7 @@
         <v>Metal Die (Hose)</v>
       </c>
       <c r="D11" s="2" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$79</f>
+        <f xml:space="preserve"> [1]Enums!$B$80</f>
         <v>Metal Die</v>
       </c>
       <c r="E11" s="11" t="str">
@@ -38077,7 +38077,7 @@
         <v>Metal Die (Pipe Segment)</v>
       </c>
       <c r="D12" s="2" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$79</f>
+        <f xml:space="preserve"> [1]Enums!$B$80</f>
         <v>Metal Die</v>
       </c>
       <c r="E12" s="11" t="str">
@@ -38102,7 +38102,7 @@
         <v>Mold (Flashlight Shaft)</v>
       </c>
       <c r="D13" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$78</f>
+        <f xml:space="preserve"> [1]Enums!$B$79</f>
         <v>Mold</v>
       </c>
       <c r="E13" s="11" t="str">
@@ -38126,7 +38126,7 @@
         <v>Mold (Plastic Brick (1 x 1))</v>
       </c>
       <c r="D14" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$78</f>
+        <f xml:space="preserve"> [1]Enums!$B$79</f>
         <v>Mold</v>
       </c>
       <c r="E14" t="str">
@@ -38150,7 +38150,7 @@
         <v>Mold (Plastic Brick (1 x 2))</v>
       </c>
       <c r="D15" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$78</f>
+        <f xml:space="preserve"> [1]Enums!$B$79</f>
         <v>Mold</v>
       </c>
       <c r="E15" t="str">
@@ -38174,7 +38174,7 @@
         <v>Mold (Plastic Brick (1 x 3))</v>
       </c>
       <c r="D16" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$78</f>
+        <f xml:space="preserve"> [1]Enums!$B$79</f>
         <v>Mold</v>
       </c>
       <c r="E16" t="str">
@@ -38198,7 +38198,7 @@
         <v>Mold (Plastic Brick (1 x 4))</v>
       </c>
       <c r="D17" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$78</f>
+        <f xml:space="preserve"> [1]Enums!$B$79</f>
         <v>Mold</v>
       </c>
       <c r="E17" t="str">
@@ -38222,7 +38222,7 @@
         <v>Mold (Plastic Brick (2 x 2))</v>
       </c>
       <c r="D18" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$78</f>
+        <f xml:space="preserve"> [1]Enums!$B$79</f>
         <v>Mold</v>
       </c>
       <c r="E18" t="str">
@@ -38246,7 +38246,7 @@
         <v>Mold (Plastic Brick (2 x 3))</v>
       </c>
       <c r="D19" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$78</f>
+        <f xml:space="preserve"> [1]Enums!$B$79</f>
         <v>Mold</v>
       </c>
       <c r="E19" t="str">
@@ -38270,7 +38270,7 @@
         <v>Mold (Plastic Brick (2 x 4))</v>
       </c>
       <c r="D20" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$78</f>
+        <f xml:space="preserve"> [1]Enums!$B$79</f>
         <v>Mold</v>
       </c>
       <c r="E20" t="str">
@@ -38294,7 +38294,7 @@
         <v>Mold (Plastic Brick (3 x 3))</v>
       </c>
       <c r="D21" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$78</f>
+        <f xml:space="preserve"> [1]Enums!$B$79</f>
         <v>Mold</v>
       </c>
       <c r="E21" t="str">
@@ -38318,7 +38318,7 @@
         <v>Mold (Plastic Brick (3 x 4))</v>
       </c>
       <c r="D22" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$78</f>
+        <f xml:space="preserve"> [1]Enums!$B$79</f>
         <v>Mold</v>
       </c>
       <c r="E22" t="str">
@@ -38342,7 +38342,7 @@
         <v>Mold (Plastic Brick (4 x 4))</v>
       </c>
       <c r="D23" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$78</f>
+        <f xml:space="preserve"> [1]Enums!$B$79</f>
         <v>Mold</v>
       </c>
       <c r="E23" t="str">
@@ -38366,7 +38366,7 @@
         <v>Mold (Plastic Brick (1 x 8))</v>
       </c>
       <c r="D24" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$78</f>
+        <f xml:space="preserve"> [1]Enums!$B$79</f>
         <v>Mold</v>
       </c>
       <c r="E24" t="str">
@@ -38390,7 +38390,7 @@
         <v>Mold (Plastic Brick (2 x 8))</v>
       </c>
       <c r="D25" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$78</f>
+        <f xml:space="preserve"> [1]Enums!$B$79</f>
         <v>Mold</v>
       </c>
       <c r="E25" t="str">
@@ -38414,7 +38414,7 @@
         <v>Mold (Heated Knife Handle)</v>
       </c>
       <c r="D26" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$78</f>
+        <f xml:space="preserve"> [1]Enums!$B$79</f>
         <v>Mold</v>
       </c>
       <c r="E26" s="11" t="str">
@@ -38438,7 +38438,7 @@
         <v>Mold (Rubber Sole)</v>
       </c>
       <c r="D27" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$78</f>
+        <f xml:space="preserve"> [1]Enums!$B$79</f>
         <v>Mold</v>
       </c>
       <c r="E27" s="11" t="str">
@@ -38462,7 +38462,7 @@
         <v>Mold (Battery Case)</v>
       </c>
       <c r="D28" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$78</f>
+        <f xml:space="preserve"> [1]Enums!$B$79</f>
         <v>Mold</v>
       </c>
       <c r="E28" s="11" t="str">
@@ -38486,7 +38486,7 @@
         <v>Mold (Tool Shaft)</v>
       </c>
       <c r="D29" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$78</f>
+        <f xml:space="preserve"> [1]Enums!$B$79</f>
         <v>Mold</v>
       </c>
       <c r="E29" t="str">
@@ -38510,7 +38510,7 @@
         <v>Mold (Lighter Body)</v>
       </c>
       <c r="D30" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$78</f>
+        <f xml:space="preserve"> [1]Enums!$B$79</f>
         <v>Mold</v>
       </c>
       <c r="E30" t="str">

--- a/config/Polycraft Polymers.xlsx
+++ b/config/Polycraft Polymers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28590" yWindow="0" windowWidth="27240" windowHeight="14310" tabRatio="826"/>
+    <workbookView xWindow="28590" yWindow="0" windowWidth="27240" windowHeight="14310" tabRatio="826" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Pellets" sheetId="1" r:id="rId1"/>
@@ -10149,7 +10149,7 @@
   </sheetPr>
   <dimension ref="A1:N333"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -29889,8 +29889,8 @@
   </sheetPr>
   <dimension ref="A1:G333"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -38533,8 +38533,8 @@
   </sheetPr>
   <dimension ref="A1:U156"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="E152" sqref="E152"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E116" sqref="E116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/config/Polycraft Polymers.xlsx
+++ b/config/Polycraft Polymers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="20670" windowHeight="10035" tabRatio="826" activeTab="10"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="20670" windowHeight="10035" tabRatio="826" firstSheet="2" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Pellets" sheetId="1" r:id="rId1"/>
@@ -10807,7 +10807,7 @@
   </sheetPr>
   <dimension ref="A1:N333"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
@@ -19139,8 +19139,8 @@
   </sheetPr>
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25261,8 +25261,8 @@
   </sheetPr>
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -29579,7 +29579,7 @@
   </sheetPr>
   <dimension ref="A1:G333"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="G127" sqref="G127"/>
     </sheetView>
   </sheetViews>

--- a/config/Polycraft Polymers.xlsx
+++ b/config/Polycraft Polymers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="20670" windowHeight="10035" tabRatio="826" firstSheet="2" activeTab="13"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="20670" windowHeight="10035" tabRatio="826" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Pellets" sheetId="1" r:id="rId1"/>
@@ -10231,6 +10231,7 @@
       <sheetName val="Internal Objects"/>
       <sheetName val="Ores"/>
       <sheetName val="Ingots"/>
+      <sheetName val="Nuggets"/>
       <sheetName val="Compressed Blocks"/>
       <sheetName val="Catalysts"/>
       <sheetName val="Element Vessels"/>
@@ -10534,6 +10535,7 @@
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -25261,7 +25263,7 @@
   </sheetPr>
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -46310,7 +46312,7 @@
   </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>

--- a/config/Polycraft Polymers.xlsx
+++ b/config/Polycraft Polymers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="20670" windowHeight="10035" tabRatio="826" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="20670" windowHeight="10035" tabRatio="826" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Pellets" sheetId="1" r:id="rId1"/>
@@ -46312,8 +46312,8 @@
   </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -47139,8 +47139,8 @@
   </sheetPr>
   <dimension ref="A1:U156"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="J159" sqref="J159"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/config/Polycraft Polymers.xlsx
+++ b/config/Polycraft Polymers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="20670" windowHeight="10035" tabRatio="826" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="20670" windowHeight="10035" tabRatio="826"/>
   </bookViews>
   <sheets>
     <sheet name="Pellets" sheetId="1" r:id="rId1"/>
@@ -9095,7 +9095,7 @@
         </row>
         <row r="33">
           <cell r="B33" t="str">
-            <v>Poly2,6-Dimethyl-1,4-Phenylene Ether</v>
+            <v>Poly2-6-Dimethyl-1-4-Phenylene Ether</v>
           </cell>
           <cell r="C33" t="str">
             <v>PDPE</v>
@@ -10809,8 +10809,8 @@
   </sheetPr>
   <dimension ref="A1:N333"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10886,7 +10886,10 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
       <c r="B2" s="3" t="s">
         <v>451</v>
       </c>
@@ -10987,7 +10990,10 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
       <c r="B4" s="3" t="s">
         <v>443</v>
       </c>
@@ -11192,7 +11198,10 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
       <c r="B8" s="3" t="s">
         <v>427</v>
       </c>
@@ -11449,7 +11458,10 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
       <c r="B13" s="3" t="s">
         <v>407</v>
       </c>
@@ -11810,7 +11822,10 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
       <c r="B20" s="3" t="s">
         <v>379</v>
       </c>
@@ -12067,7 +12082,10 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
+      <c r="A25" s="2" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
       <c r="B25" s="3" t="s">
         <v>359</v>
       </c>
@@ -12428,7 +12446,10 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
+      <c r="A32" s="2" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
       <c r="B32" s="3" t="s">
         <v>331</v>
       </c>
@@ -12477,7 +12498,10 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
+      <c r="A33" s="2" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
       <c r="B33" s="3" t="s">
         <v>327</v>
       </c>
@@ -12492,23 +12516,23 @@
       </c>
       <c r="F33" s="1" t="str">
         <f>IF($N33, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Bag (Poly2,6-Dimethyl-1,4-Phenylene Ether Pellets)</v>
+        <v>Bag (Poly2-6-Dimethyl-1-4-Phenylene Ether Pellets)</v>
       </c>
       <c r="G33" s="1" t="str">
         <f>IF($N33, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Sack (Poly2,6-Dimethyl-1,4-Phenylene Ether Pellets)</v>
+        <v>Sack (Poly2-6-Dimethyl-1-4-Phenylene Ether Pellets)</v>
       </c>
       <c r="H33" s="1" t="str">
         <f>IF($N33, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Powder Keg (Poly2,6-Dimethyl-1,4-Phenylene Ether Pellets)</v>
+        <v>Powder Keg (Poly2-6-Dimethyl-1-4-Phenylene Ether Pellets)</v>
       </c>
       <c r="I33" s="1" t="str">
         <f>IF($N33, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
-        <v>Chemical Silo (Poly2,6-Dimethyl-1,4-Phenylene Ether Pellets)</v>
+        <v>Chemical Silo (Poly2-6-Dimethyl-1-4-Phenylene Ether Pellets)</v>
       </c>
       <c r="J33" s="1" t="str">
         <f>[1]Polymers!$B33</f>
-        <v>Poly2,6-Dimethyl-1,4-Phenylene Ether</v>
+        <v>Poly2-6-Dimethyl-1-4-Phenylene Ether</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -12526,7 +12550,10 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
+      <c r="A34" s="2" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
       <c r="B34" s="3" t="s">
         <v>323</v>
       </c>
@@ -12575,7 +12602,10 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
+      <c r="A35" s="2" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
       <c r="B35" s="3" t="s">
         <v>319</v>
       </c>
@@ -13040,7 +13070,10 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
+      <c r="A44" s="2" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
       <c r="B44" s="3" t="s">
         <v>283</v>
       </c>
@@ -13089,7 +13122,10 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
+      <c r="A45" s="2" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
       <c r="B45" s="3" t="s">
         <v>279</v>
       </c>
@@ -13294,7 +13330,10 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
+      <c r="A49" s="2" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
       <c r="B49" s="3" t="s">
         <v>263</v>
       </c>
@@ -13343,7 +13382,10 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
+      <c r="A50" s="2" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
       <c r="B50" s="3" t="s">
         <v>259</v>
       </c>
@@ -13444,7 +13486,10 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
+      <c r="A52" s="2" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
       <c r="B52" s="3" t="s">
         <v>251</v>
       </c>
@@ -14062,7 +14107,10 @@
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="2"/>
+      <c r="A64" s="2" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
       <c r="B64" s="3" t="s">
         <v>203</v>
       </c>
@@ -14111,7 +14159,10 @@
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A65" s="2"/>
+      <c r="A65" s="2" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
       <c r="B65" s="3" t="s">
         <v>199</v>
       </c>
@@ -14316,7 +14367,10 @@
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A69" s="2"/>
+      <c r="A69" s="2" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
       <c r="B69" s="3" t="s">
         <v>183</v>
       </c>
@@ -14365,7 +14419,10 @@
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A70" s="2"/>
+      <c r="A70" s="2" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
       <c r="B70" s="3" t="s">
         <v>179</v>
       </c>
@@ -14414,7 +14471,10 @@
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A71" s="2"/>
+      <c r="A71" s="2" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
       <c r="B71" s="3" t="s">
         <v>175</v>
       </c>
@@ -14463,7 +14523,10 @@
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A72" s="2"/>
+      <c r="A72" s="2" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
       <c r="B72" s="3" t="s">
         <v>171</v>
       </c>
@@ -14512,7 +14575,10 @@
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73" s="2"/>
+      <c r="A73" s="2" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
       <c r="B73" s="3" t="s">
         <v>167</v>
       </c>
@@ -14613,7 +14679,10 @@
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A75" s="2"/>
+      <c r="A75" s="2" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
       <c r="B75" s="3" t="s">
         <v>159</v>
       </c>
@@ -14714,7 +14783,10 @@
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A77" s="2"/>
+      <c r="A77" s="2" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
       <c r="B77" s="3" t="s">
         <v>151</v>
       </c>
@@ -14763,7 +14835,10 @@
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A78" s="2"/>
+      <c r="A78" s="2" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
       <c r="B78" s="3" t="s">
         <v>147</v>
       </c>
@@ -14812,7 +14887,10 @@
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A79" s="2"/>
+      <c r="A79" s="2" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
       <c r="B79" s="3" t="s">
         <v>143</v>
       </c>
@@ -14861,7 +14939,10 @@
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A80" s="2"/>
+      <c r="A80" s="2" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
       <c r="B80" s="3" t="s">
         <v>139</v>
       </c>
@@ -14910,7 +14991,10 @@
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A81" s="2"/>
+      <c r="A81" s="2" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
       <c r="B81" s="3" t="s">
         <v>135</v>
       </c>
@@ -14959,7 +15043,10 @@
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A82" s="2"/>
+      <c r="A82" s="2" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
       <c r="B82" s="3" t="s">
         <v>131</v>
       </c>
@@ -15112,7 +15199,10 @@
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A85" s="2"/>
+      <c r="A85" s="2" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
       <c r="B85" s="3" t="s">
         <v>119</v>
       </c>
@@ -15161,7 +15251,10 @@
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A86" s="2"/>
+      <c r="A86" s="2" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
       <c r="B86" s="3" t="s">
         <v>115</v>
       </c>
@@ -15262,7 +15355,10 @@
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A88" s="2"/>
+      <c r="A88" s="2" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
       <c r="B88" s="3" t="s">
         <v>107</v>
       </c>
@@ -15363,7 +15459,10 @@
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A90" s="2"/>
+      <c r="A90" s="2" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
       <c r="B90" s="3" t="s">
         <v>99</v>
       </c>
@@ -15412,7 +15511,10 @@
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A91" s="2"/>
+      <c r="A91" s="2" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
       <c r="B91" s="3" t="s">
         <v>95</v>
       </c>
@@ -15461,7 +15563,10 @@
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A92" s="2"/>
+      <c r="A92" s="2" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
       <c r="B92" s="3" t="s">
         <v>91</v>
       </c>
@@ -15718,7 +15823,10 @@
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A97" s="2"/>
+      <c r="A97" s="2" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
       <c r="B97" s="3" t="s">
         <v>71</v>
       </c>
@@ -15871,7 +15979,10 @@
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A100" s="2"/>
+      <c r="A100" s="2" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
       <c r="B100" s="3" t="s">
         <v>59</v>
       </c>
@@ -15920,7 +16031,10 @@
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A101" s="2"/>
+      <c r="A101" s="2" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
       <c r="B101" s="3" t="s">
         <v>55</v>
       </c>
@@ -15969,7 +16083,10 @@
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A102" s="2"/>
+      <c r="A102" s="2" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
       <c r="B102" s="3" t="s">
         <v>51</v>
       </c>
@@ -16018,7 +16135,10 @@
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A103" s="2"/>
+      <c r="A103" s="2" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
       <c r="B103" s="3" t="s">
         <v>47</v>
       </c>
@@ -16067,7 +16187,10 @@
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A104" s="2"/>
+      <c r="A104" s="2" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
       <c r="B104" s="3" t="s">
         <v>43</v>
       </c>
@@ -16116,7 +16239,10 @@
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A105" s="2"/>
+      <c r="A105" s="2" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
       <c r="B105" s="3" t="s">
         <v>39</v>
       </c>
@@ -16321,7 +16447,10 @@
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A109" s="2"/>
+      <c r="A109" s="2" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
       <c r="B109" s="3" t="s">
         <v>23</v>
       </c>
@@ -16370,7 +16499,10 @@
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A110" s="2"/>
+      <c r="A110" s="2" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
       <c r="B110" s="3" t="s">
         <v>19</v>
       </c>
@@ -16471,7 +16603,10 @@
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A112" s="2"/>
+      <c r="A112" s="2" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
       <c r="B112" s="3" t="s">
         <v>11</v>
       </c>
@@ -19596,7 +19731,7 @@
         <v>Wafer (Processor) [2 of 8]</v>
       </c>
       <c r="I10" t="str">
-        <f>H9</f>
+        <f t="shared" ref="I10:I16" si="0">H9</f>
         <v>Wafer (Processor) [1 of 8]</v>
       </c>
       <c r="J10" t="str">
@@ -19642,7 +19777,7 @@
         <v>Wafer (Processor) [3 of 8]</v>
       </c>
       <c r="I11" t="str">
-        <f>H10</f>
+        <f t="shared" si="0"/>
         <v>Wafer (Processor) [2 of 8]</v>
       </c>
       <c r="J11" t="str">
@@ -19688,7 +19823,7 @@
         <v>Wafer (Processor) [4 of 8]</v>
       </c>
       <c r="I12" t="str">
-        <f>H11</f>
+        <f t="shared" si="0"/>
         <v>Wafer (Processor) [3 of 8]</v>
       </c>
       <c r="J12" t="str">
@@ -19734,7 +19869,7 @@
         <v>Wafer (Processor) [5 of 8]</v>
       </c>
       <c r="I13" t="str">
-        <f>H12</f>
+        <f t="shared" si="0"/>
         <v>Wafer (Processor) [4 of 8]</v>
       </c>
       <c r="J13" t="str">
@@ -19780,7 +19915,7 @@
         <v>Wafer (Processor) [6 of 8]</v>
       </c>
       <c r="I14" t="str">
-        <f>H13</f>
+        <f t="shared" si="0"/>
         <v>Wafer (Processor) [5 of 8]</v>
       </c>
       <c r="J14" t="str">
@@ -19826,7 +19961,7 @@
         <v>Wafer (Processor) [7 of 8]</v>
       </c>
       <c r="I15" t="str">
-        <f>H14</f>
+        <f t="shared" si="0"/>
         <v>Wafer (Processor) [6 of 8]</v>
       </c>
       <c r="J15" t="str">
@@ -19872,7 +20007,7 @@
         <v>Wafer (Processor)</v>
       </c>
       <c r="I16" t="str">
-        <f>H15</f>
+        <f t="shared" si="0"/>
         <v>Wafer (Processor) [7 of 8]</v>
       </c>
       <c r="J16" t="str">
@@ -20424,7 +20559,7 @@
         <v>Wafer (Low Power Radio) [2 of 8]</v>
       </c>
       <c r="I28" t="str">
-        <f>H27</f>
+        <f t="shared" ref="I28:I34" si="1">H27</f>
         <v>Wafer (Low Power Radio) [1 of 8]</v>
       </c>
       <c r="J28" t="str">
@@ -20470,7 +20605,7 @@
         <v>Wafer (Low Power Radio) [3 of 8]</v>
       </c>
       <c r="I29" t="str">
-        <f>H28</f>
+        <f t="shared" si="1"/>
         <v>Wafer (Low Power Radio) [2 of 8]</v>
       </c>
       <c r="J29" t="str">
@@ -20516,7 +20651,7 @@
         <v>Wafer (Low Power Radio) [4 of 8]</v>
       </c>
       <c r="I30" t="str">
-        <f>H29</f>
+        <f t="shared" si="1"/>
         <v>Wafer (Low Power Radio) [3 of 8]</v>
       </c>
       <c r="J30" t="str">
@@ -20562,7 +20697,7 @@
         <v>Wafer (Low Power Radio) [5 of 8]</v>
       </c>
       <c r="I31" t="str">
-        <f>H30</f>
+        <f t="shared" si="1"/>
         <v>Wafer (Low Power Radio) [4 of 8]</v>
       </c>
       <c r="J31" t="str">
@@ -20608,7 +20743,7 @@
         <v>Wafer (Low Power Radio) [6 of 8]</v>
       </c>
       <c r="I32" t="str">
-        <f>H31</f>
+        <f t="shared" si="1"/>
         <v>Wafer (Low Power Radio) [5 of 8]</v>
       </c>
       <c r="J32" t="str">
@@ -20654,7 +20789,7 @@
         <v>Wafer (Low Power Radio) [7 of 8]</v>
       </c>
       <c r="I33" t="str">
-        <f>H32</f>
+        <f t="shared" si="1"/>
         <v>Wafer (Low Power Radio) [6 of 8]</v>
       </c>
       <c r="J33" t="str">
@@ -20700,7 +20835,7 @@
         <v>Wafer (Low Power Radio)</v>
       </c>
       <c r="I34" t="str">
-        <f>H33</f>
+        <f t="shared" si="1"/>
         <v>Wafer (Low Power Radio) [7 of 8]</v>
       </c>
       <c r="J34" t="str">
@@ -20792,7 +20927,7 @@
         <v>Wafer (DSP) [2 of 8]</v>
       </c>
       <c r="I36" t="str">
-        <f>H35</f>
+        <f t="shared" ref="I36:I42" si="2">H35</f>
         <v>Wafer (DSP) [1 of 8]</v>
       </c>
       <c r="J36" t="str">
@@ -20838,7 +20973,7 @@
         <v>Wafer (DSP) [3 of 8]</v>
       </c>
       <c r="I37" t="str">
-        <f>H36</f>
+        <f t="shared" si="2"/>
         <v>Wafer (DSP) [2 of 8]</v>
       </c>
       <c r="J37" t="str">
@@ -20884,7 +21019,7 @@
         <v>Wafer (DSP) [4 of 8]</v>
       </c>
       <c r="I38" t="str">
-        <f>H37</f>
+        <f t="shared" si="2"/>
         <v>Wafer (DSP) [3 of 8]</v>
       </c>
       <c r="J38" t="str">
@@ -20930,7 +21065,7 @@
         <v>Wafer (DSP) [5 of 8]</v>
       </c>
       <c r="I39" t="str">
-        <f>H38</f>
+        <f t="shared" si="2"/>
         <v>Wafer (DSP) [4 of 8]</v>
       </c>
       <c r="J39" t="str">
@@ -20976,7 +21111,7 @@
         <v>Wafer (DSP) [6 of 8]</v>
       </c>
       <c r="I40" t="str">
-        <f>H39</f>
+        <f t="shared" si="2"/>
         <v>Wafer (DSP) [5 of 8]</v>
       </c>
       <c r="J40" t="str">
@@ -21022,7 +21157,7 @@
         <v>Wafer (DSP) [7 of 8]</v>
       </c>
       <c r="I41" t="str">
-        <f>H40</f>
+        <f t="shared" si="2"/>
         <v>Wafer (DSP) [6 of 8]</v>
       </c>
       <c r="J41" t="str">
@@ -21068,7 +21203,7 @@
         <v>Wafer (DSP)</v>
       </c>
       <c r="I42" t="str">
-        <f>H41</f>
+        <f t="shared" si="2"/>
         <v>Wafer (DSP) [7 of 8]</v>
       </c>
       <c r="J42" t="str">
@@ -25264,7 +25399,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -29581,7 +29716,7 @@
   </sheetPr>
   <dimension ref="A1:G333"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="G127" sqref="G127"/>
     </sheetView>
   </sheetViews>
@@ -29621,9 +29756,9 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="A2" s="2" t="str">
         <f>Pellets!A2</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>822</v>
@@ -29675,9 +29810,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4" s="2" t="str">
         <f>Pellets!A4</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>818</v>
@@ -29783,9 +29918,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="A8" s="2" t="str">
         <f>Pellets!A8</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>810</v>
@@ -29918,9 +30053,9 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="A13" s="2" t="str">
         <f>Pellets!A13</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>800</v>
@@ -30107,9 +30242,9 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="A20" s="2" t="str">
         <f>Pellets!A20</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>786</v>
@@ -30242,9 +30377,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+      <c r="A25" s="2" t="str">
         <f>Pellets!A25</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>776</v>
@@ -30431,9 +30566,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+      <c r="A32" s="2" t="str">
         <f>Pellets!A32</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>762</v>
@@ -30458,9 +30593,9 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+      <c r="A33" s="2" t="str">
         <f>Pellets!A33</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>760</v>
@@ -30474,7 +30609,7 @@
       </c>
       <c r="E33" s="1" t="str">
         <f xml:space="preserve"> Pellets!G33</f>
-        <v>Sack (Poly2,6-Dimethyl-1,4-Phenylene Ether Pellets)</v>
+        <v>Sack (Poly2-6-Dimethyl-1-4-Phenylene Ether Pellets)</v>
       </c>
       <c r="F33" s="1" t="str">
         <f>VLOOKUP(E33, Pellets!G:M, 7,FALSE)</f>
@@ -30485,9 +30620,9 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
+      <c r="A34" s="2" t="str">
         <f>Pellets!A34</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>758</v>
@@ -30512,9 +30647,9 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
+      <c r="A35" s="2" t="str">
         <f>Pellets!A35</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>756</v>
@@ -30755,9 +30890,9 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
+      <c r="A44" s="2" t="str">
         <f>Pellets!A44</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>738</v>
@@ -30782,9 +30917,9 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
+      <c r="A45" s="2" t="str">
         <f>Pellets!A45</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>736</v>
@@ -30890,9 +31025,9 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
+      <c r="A49" s="2" t="str">
         <f>Pellets!A49</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>728</v>
@@ -30917,9 +31052,9 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
+      <c r="A50" s="2" t="str">
         <f>Pellets!A50</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>726</v>
@@ -30971,9 +31106,9 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
+      <c r="A52" s="2" t="str">
         <f>Pellets!A52</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>722</v>
@@ -31295,9 +31430,9 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="2">
+      <c r="A64" s="2" t="str">
         <f>Pellets!A64</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>698</v>
@@ -31322,9 +31457,9 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="2">
+      <c r="A65" s="2" t="str">
         <f>Pellets!A65</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>696</v>
@@ -31430,9 +31565,9 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="2">
+      <c r="A69" s="2" t="str">
         <f>Pellets!A69</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>688</v>
@@ -31457,9 +31592,9 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="2">
+      <c r="A70" s="2" t="str">
         <f>Pellets!A70</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>686</v>
@@ -31484,9 +31619,9 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="2">
+      <c r="A71" s="2" t="str">
         <f>Pellets!A71</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>684</v>
@@ -31511,9 +31646,9 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="2">
+      <c r="A72" s="2" t="str">
         <f>Pellets!A72</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>682</v>
@@ -31538,9 +31673,9 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="2">
+      <c r="A73" s="2" t="str">
         <f>Pellets!A73</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>680</v>
@@ -31592,9 +31727,9 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="2">
+      <c r="A75" s="2" t="str">
         <f>Pellets!A75</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>676</v>
@@ -31646,9 +31781,9 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="2">
+      <c r="A77" s="2" t="str">
         <f>Pellets!A77</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>672</v>
@@ -31673,9 +31808,9 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="2">
+      <c r="A78" s="2" t="str">
         <f>Pellets!A78</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>670</v>
@@ -31700,9 +31835,9 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="2">
+      <c r="A79" s="2" t="str">
         <f>Pellets!A79</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>668</v>
@@ -31727,9 +31862,9 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="2">
+      <c r="A80" s="2" t="str">
         <f>Pellets!A80</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>666</v>
@@ -31754,9 +31889,9 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="2">
+      <c r="A81" s="2" t="str">
         <f>Pellets!A81</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>664</v>
@@ -31781,9 +31916,9 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="2">
+      <c r="A82" s="2" t="str">
         <f>Pellets!A82</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>662</v>
@@ -31862,9 +31997,9 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="2">
+      <c r="A85" s="2" t="str">
         <f>Pellets!A85</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>656</v>
@@ -31889,9 +32024,9 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="2">
+      <c r="A86" s="2" t="str">
         <f>Pellets!A86</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>654</v>
@@ -31943,9 +32078,9 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="2">
+      <c r="A88" s="2" t="str">
         <f>Pellets!A88</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>650</v>
@@ -31997,9 +32132,9 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="2">
+      <c r="A90" s="2" t="str">
         <f>Pellets!A90</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>646</v>
@@ -32024,9 +32159,9 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="2">
+      <c r="A91" s="2" t="str">
         <f>Pellets!A91</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>644</v>
@@ -32051,9 +32186,9 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="2">
+      <c r="A92" s="2" t="str">
         <f>Pellets!A92</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>642</v>
@@ -32186,9 +32321,9 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="2">
+      <c r="A97" s="2" t="str">
         <f>Pellets!A97</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>632</v>
@@ -32267,9 +32402,9 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="2">
+      <c r="A100" s="2" t="str">
         <f>Pellets!A100</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>626</v>
@@ -32294,9 +32429,9 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="2">
+      <c r="A101" s="2" t="str">
         <f>Pellets!A101</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>624</v>
@@ -32321,9 +32456,9 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="2">
+      <c r="A102" s="2" t="str">
         <f>Pellets!A102</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>622</v>
@@ -32348,9 +32483,9 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" s="2">
+      <c r="A103" s="2" t="str">
         <f>Pellets!A103</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>620</v>
@@ -32375,9 +32510,9 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="2">
+      <c r="A104" s="2" t="str">
         <f>Pellets!A104</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>618</v>
@@ -32402,9 +32537,9 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="2">
+      <c r="A105" s="2" t="str">
         <f>Pellets!A105</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>616</v>
@@ -32510,9 +32645,9 @@
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" s="2">
+      <c r="A109" s="2" t="str">
         <f>Pellets!A109</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>608</v>
@@ -32537,9 +32672,9 @@
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="2">
+      <c r="A110" s="2" t="str">
         <f>Pellets!A110</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>606</v>
@@ -32591,9 +32726,9 @@
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="2">
+      <c r="A112" s="2" t="str">
         <f>Pellets!A112</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>602</v>
@@ -33514,9 +33649,9 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="A2" s="2" t="str">
         <f>Pellets!A2</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1276</v>
@@ -33582,9 +33717,9 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4" s="2" t="str">
         <f>Pellets!A4</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>1268</v>
@@ -33718,9 +33853,9 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="A8" s="2" t="str">
         <f>Pellets!A8</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>1252</v>
@@ -33888,9 +34023,9 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="A13" s="2" t="str">
         <f>Pellets!A13</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>1232</v>
@@ -34126,9 +34261,9 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="A20" s="2" t="str">
         <f>Pellets!A20</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>1204</v>
@@ -34296,9 +34431,9 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+      <c r="A25" s="2" t="str">
         <f>Pellets!A25</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>1184</v>
@@ -34534,9 +34669,9 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+      <c r="A32" s="2" t="str">
         <f>Pellets!A32</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>1156</v>
@@ -34568,9 +34703,9 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+      <c r="A33" s="2" t="str">
         <f>Pellets!A33</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>1152</v>
@@ -34602,9 +34737,9 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
+      <c r="A34" s="2" t="str">
         <f>Pellets!A34</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>1148</v>
@@ -34636,9 +34771,9 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
+      <c r="A35" s="2" t="str">
         <f>Pellets!A35</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>1144</v>
@@ -34942,9 +35077,9 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
+      <c r="A44" s="2" t="str">
         <f>Pellets!A44</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>1108</v>
@@ -34976,9 +35111,9 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
+      <c r="A45" s="2" t="str">
         <f>Pellets!A45</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>1104</v>
@@ -35112,9 +35247,9 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
+      <c r="A49" s="2" t="str">
         <f>Pellets!A49</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>1088</v>
@@ -35146,9 +35281,9 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
+      <c r="A50" s="2" t="str">
         <f>Pellets!A50</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>1084</v>
@@ -35214,9 +35349,9 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
+      <c r="A52" s="2" t="str">
         <f>Pellets!A52</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>1076</v>
@@ -35622,9 +35757,9 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="2">
+      <c r="A64" s="2" t="str">
         <f>Pellets!A64</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>1028</v>
@@ -35656,9 +35791,9 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="2">
+      <c r="A65" s="2" t="str">
         <f>Pellets!A65</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>1024</v>
@@ -35792,9 +35927,9 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="2">
+      <c r="A69" s="2" t="str">
         <f>Pellets!A69</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>1008</v>
@@ -35826,9 +35961,9 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="2">
+      <c r="A70" s="2" t="str">
         <f>Pellets!A70</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>1004</v>
@@ -35860,9 +35995,9 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="2">
+      <c r="A71" s="2" t="str">
         <f>Pellets!A71</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>1000</v>
@@ -35894,9 +36029,9 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="2">
+      <c r="A72" s="2" t="str">
         <f>Pellets!A72</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>996</v>
@@ -35928,9 +36063,9 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="2">
+      <c r="A73" s="2" t="str">
         <f>Pellets!A73</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>992</v>
@@ -35996,9 +36131,9 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="2">
+      <c r="A75" s="2" t="str">
         <f>Pellets!A75</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>984</v>
@@ -36064,9 +36199,9 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="2">
+      <c r="A77" s="2" t="str">
         <f>Pellets!A77</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>976</v>
@@ -36098,9 +36233,9 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="2">
+      <c r="A78" s="2" t="str">
         <f>Pellets!A78</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>972</v>
@@ -36132,9 +36267,9 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="2">
+      <c r="A79" s="2" t="str">
         <f>Pellets!A79</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>968</v>
@@ -36166,9 +36301,9 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="2">
+      <c r="A80" s="2" t="str">
         <f>Pellets!A80</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>964</v>
@@ -36200,9 +36335,9 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="2">
+      <c r="A81" s="2" t="str">
         <f>Pellets!A81</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>960</v>
@@ -36234,9 +36369,9 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="2">
+      <c r="A82" s="2" t="str">
         <f>Pellets!A82</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>956</v>
@@ -36336,9 +36471,9 @@
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="2">
+      <c r="A85" s="2" t="str">
         <f>Pellets!A85</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>944</v>
@@ -36370,9 +36505,9 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="2">
+      <c r="A86" s="2" t="str">
         <f>Pellets!A86</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>940</v>
@@ -36438,9 +36573,9 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="2">
+      <c r="A88" s="2" t="str">
         <f>Pellets!A88</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>932</v>
@@ -36506,9 +36641,9 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="2">
+      <c r="A90" s="2" t="str">
         <f>Pellets!A90</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>924</v>
@@ -36540,9 +36675,9 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="2">
+      <c r="A91" s="2" t="str">
         <f>Pellets!A91</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>920</v>
@@ -36574,9 +36709,9 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="2">
+      <c r="A92" s="2" t="str">
         <f>Pellets!A92</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>916</v>
@@ -36744,9 +36879,9 @@
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="2">
+      <c r="A97" s="2" t="str">
         <f>Pellets!A97</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>896</v>
@@ -36846,9 +36981,9 @@
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100" s="2">
+      <c r="A100" s="2" t="str">
         <f>Pellets!A100</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>884</v>
@@ -36880,9 +37015,9 @@
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="2">
+      <c r="A101" s="2" t="str">
         <f>Pellets!A101</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>880</v>
@@ -36914,9 +37049,9 @@
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="2">
+      <c r="A102" s="2" t="str">
         <f>Pellets!A102</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>876</v>
@@ -36948,9 +37083,9 @@
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="2">
+      <c r="A103" s="2" t="str">
         <f>Pellets!A103</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>872</v>
@@ -36982,9 +37117,9 @@
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="2">
+      <c r="A104" s="2" t="str">
         <f>Pellets!A104</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>868</v>
@@ -37016,9 +37151,9 @@
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="2">
+      <c r="A105" s="2" t="str">
         <f>Pellets!A105</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>864</v>
@@ -37152,9 +37287,9 @@
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109" s="2">
+      <c r="A109" s="2" t="str">
         <f>Pellets!A109</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>848</v>
@@ -37186,9 +37321,9 @@
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110" s="2">
+      <c r="A110" s="2" t="str">
         <f>Pellets!A110</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>844</v>
@@ -37254,9 +37389,9 @@
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A112" s="2">
+      <c r="A112" s="2" t="str">
         <f>Pellets!A112</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>836</v>
@@ -38178,7 +38313,7 @@
   <dimension ref="A1:G333"/>
   <sheetViews>
     <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="J123" sqref="J123"/>
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -38215,9 +38350,9 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="A2" s="2" t="str">
         <f>Pellets!A2</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1503</v>
@@ -38271,9 +38406,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4" s="2" t="str">
         <f>Pellets!A4</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>1499</v>
@@ -38383,9 +38518,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="A8" s="2" t="str">
         <f>Pellets!A8</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>1491</v>
@@ -38523,9 +38658,9 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="A13" s="2" t="str">
         <f>Pellets!A13</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>1481</v>
@@ -38719,9 +38854,9 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="A20" s="2" t="str">
         <f>Pellets!A20</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>1467</v>
@@ -38859,9 +38994,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+      <c r="A25" s="2" t="str">
         <f>Pellets!A25</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>1457</v>
@@ -39055,9 +39190,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+      <c r="A32" s="2" t="str">
         <f>Pellets!A32</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>1443</v>
@@ -39083,9 +39218,9 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+      <c r="A33" s="2" t="str">
         <f>Pellets!A33</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>1441</v>
@@ -39111,9 +39246,9 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
+      <c r="A34" s="2" t="str">
         <f>Pellets!A34</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>1439</v>
@@ -39139,9 +39274,9 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
+      <c r="A35" s="2" t="str">
         <f>Pellets!A35</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>1437</v>
@@ -39391,9 +39526,9 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
+      <c r="A44" s="2" t="str">
         <f>Pellets!A44</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>1419</v>
@@ -39419,9 +39554,9 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
+      <c r="A45" s="2" t="str">
         <f>Pellets!A45</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>1417</v>
@@ -39531,9 +39666,9 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
+      <c r="A49" s="2" t="str">
         <f>Pellets!A49</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>1409</v>
@@ -39559,9 +39694,9 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
+      <c r="A50" s="2" t="str">
         <f>Pellets!A50</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>1407</v>
@@ -39615,9 +39750,9 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
+      <c r="A52" s="2" t="str">
         <f>Pellets!A52</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>1403</v>
@@ -39951,9 +40086,9 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="2">
+      <c r="A64" s="2" t="str">
         <f>Pellets!A64</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>1379</v>
@@ -39979,9 +40114,9 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="2">
+      <c r="A65" s="2" t="str">
         <f>Pellets!A65</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>1377</v>
@@ -40091,9 +40226,9 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="2">
+      <c r="A69" s="2" t="str">
         <f>Pellets!A69</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>1369</v>
@@ -40119,9 +40254,9 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="2">
+      <c r="A70" s="2" t="str">
         <f>Pellets!A70</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>1367</v>
@@ -40147,9 +40282,9 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="2">
+      <c r="A71" s="2" t="str">
         <f>Pellets!A71</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>1365</v>
@@ -40175,9 +40310,9 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="2">
+      <c r="A72" s="2" t="str">
         <f>Pellets!A72</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>1363</v>
@@ -40203,9 +40338,9 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="2">
+      <c r="A73" s="2" t="str">
         <f>Pellets!A73</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>1361</v>
@@ -40259,9 +40394,9 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="2">
+      <c r="A75" s="2" t="str">
         <f>Pellets!A75</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>1357</v>
@@ -40315,9 +40450,9 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="2">
+      <c r="A77" s="2" t="str">
         <f>Pellets!A77</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>1353</v>
@@ -40343,9 +40478,9 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="2">
+      <c r="A78" s="2" t="str">
         <f>Pellets!A78</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>1351</v>
@@ -40371,9 +40506,9 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="2">
+      <c r="A79" s="2" t="str">
         <f>Pellets!A79</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>1349</v>
@@ -40399,9 +40534,9 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="2">
+      <c r="A80" s="2" t="str">
         <f>Pellets!A80</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>1347</v>
@@ -40427,9 +40562,9 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="2">
+      <c r="A81" s="2" t="str">
         <f>Pellets!A81</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>1345</v>
@@ -40455,9 +40590,9 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="2">
+      <c r="A82" s="2" t="str">
         <f>Pellets!A82</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>1343</v>
@@ -40539,9 +40674,9 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="2">
+      <c r="A85" s="2" t="str">
         <f>Pellets!A85</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>1337</v>
@@ -40567,9 +40702,9 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="2">
+      <c r="A86" s="2" t="str">
         <f>Pellets!A86</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>1335</v>
@@ -40623,9 +40758,9 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="2">
+      <c r="A88" s="2" t="str">
         <f>Pellets!A88</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>1331</v>
@@ -40679,9 +40814,9 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="2">
+      <c r="A90" s="2" t="str">
         <f>Pellets!A90</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>1327</v>
@@ -40707,9 +40842,9 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="2">
+      <c r="A91" s="2" t="str">
         <f>Pellets!A91</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>1325</v>
@@ -40735,9 +40870,9 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="2">
+      <c r="A92" s="2" t="str">
         <f>Pellets!A92</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>1323</v>
@@ -40875,9 +41010,9 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="2">
+      <c r="A97" s="2" t="str">
         <f>Pellets!A97</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>1313</v>
@@ -40959,9 +41094,9 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="2">
+      <c r="A100" s="2" t="str">
         <f>Pellets!A100</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>1307</v>
@@ -40987,9 +41122,9 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="2">
+      <c r="A101" s="2" t="str">
         <f>Pellets!A101</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>1305</v>
@@ -41015,9 +41150,9 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="2">
+      <c r="A102" s="2" t="str">
         <f>Pellets!A102</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>1303</v>
@@ -41043,9 +41178,9 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" s="2">
+      <c r="A103" s="2" t="str">
         <f>Pellets!A103</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>1301</v>
@@ -41071,9 +41206,9 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="2">
+      <c r="A104" s="2" t="str">
         <f>Pellets!A104</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>1299</v>
@@ -41099,9 +41234,9 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="2">
+      <c r="A105" s="2" t="str">
         <f>Pellets!A105</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>1297</v>
@@ -41211,9 +41346,9 @@
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" s="2">
+      <c r="A109" s="2" t="str">
         <f>Pellets!A109</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>1289</v>
@@ -41239,9 +41374,9 @@
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="2">
+      <c r="A110" s="2" t="str">
         <f>Pellets!A110</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>1287</v>
@@ -41295,9 +41430,9 @@
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="2">
+      <c r="A112" s="2" t="str">
         <f>Pellets!A112</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>1283</v>
@@ -41514,10 +41649,7 @@
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" s="2">
-        <f>Pellets!A120</f>
-        <v>0</v>
-      </c>
+      <c r="A120" s="2"/>
       <c r="B120" s="3" t="s">
         <v>2577</v>
       </c>
@@ -41541,10 +41673,7 @@
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="2">
-        <f>Pellets!A121</f>
-        <v>0</v>
-      </c>
+      <c r="A121" s="2"/>
       <c r="B121" s="3" t="s">
         <v>2578</v>
       </c>
@@ -42217,7 +42346,7 @@
   <dimension ref="A1:G333"/>
   <sheetViews>
     <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="I125" sqref="I125"/>
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -42254,9 +42383,9 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="A2" s="2" t="str">
         <f>Pellets!A2</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1730</v>
@@ -42310,9 +42439,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4" s="2" t="str">
         <f>Pellets!A4</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>1726</v>
@@ -42422,9 +42551,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="A8" s="2" t="str">
         <f>Pellets!A8</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>1718</v>
@@ -42562,9 +42691,9 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="A13" s="2" t="str">
         <f>Pellets!A13</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>1708</v>
@@ -42758,9 +42887,9 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="A20" s="2" t="str">
         <f>Pellets!A20</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>1694</v>
@@ -42898,9 +43027,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+      <c r="A25" s="2" t="str">
         <f>Pellets!A25</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>1684</v>
@@ -43094,9 +43223,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+      <c r="A32" s="2" t="str">
         <f>Pellets!A32</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>1670</v>
@@ -43122,9 +43251,9 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+      <c r="A33" s="2" t="str">
         <f>Pellets!A33</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>1668</v>
@@ -43150,9 +43279,9 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
+      <c r="A34" s="2" t="str">
         <f>Pellets!A34</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>1666</v>
@@ -43178,9 +43307,9 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
+      <c r="A35" s="2" t="str">
         <f>Pellets!A35</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>1664</v>
@@ -43430,9 +43559,9 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
+      <c r="A44" s="2" t="str">
         <f>Pellets!A44</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>1646</v>
@@ -43458,9 +43587,9 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
+      <c r="A45" s="2" t="str">
         <f>Pellets!A45</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>1644</v>
@@ -43570,9 +43699,9 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
+      <c r="A49" s="2" t="str">
         <f>Pellets!A49</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>1636</v>
@@ -43598,9 +43727,9 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
+      <c r="A50" s="2" t="str">
         <f>Pellets!A50</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>1634</v>
@@ -43654,9 +43783,9 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
+      <c r="A52" s="2" t="str">
         <f>Pellets!A52</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>1630</v>
@@ -43990,9 +44119,9 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="2">
+      <c r="A64" s="2" t="str">
         <f>Pellets!A64</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>1606</v>
@@ -44018,9 +44147,9 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="2">
+      <c r="A65" s="2" t="str">
         <f>Pellets!A65</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>1604</v>
@@ -44130,9 +44259,9 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="2">
+      <c r="A69" s="2" t="str">
         <f>Pellets!A69</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>1596</v>
@@ -44158,9 +44287,9 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="2">
+      <c r="A70" s="2" t="str">
         <f>Pellets!A70</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>1594</v>
@@ -44186,9 +44315,9 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="2">
+      <c r="A71" s="2" t="str">
         <f>Pellets!A71</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>1592</v>
@@ -44214,9 +44343,9 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="2">
+      <c r="A72" s="2" t="str">
         <f>Pellets!A72</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>1590</v>
@@ -44242,9 +44371,9 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="2">
+      <c r="A73" s="2" t="str">
         <f>Pellets!A73</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>1588</v>
@@ -44298,9 +44427,9 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="2">
+      <c r="A75" s="2" t="str">
         <f>Pellets!A75</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>1584</v>
@@ -44354,9 +44483,9 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="2">
+      <c r="A77" s="2" t="str">
         <f>Pellets!A77</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>1580</v>
@@ -44382,9 +44511,9 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="2">
+      <c r="A78" s="2" t="str">
         <f>Pellets!A78</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>1578</v>
@@ -44410,9 +44539,9 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="2">
+      <c r="A79" s="2" t="str">
         <f>Pellets!A79</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>1576</v>
@@ -44438,9 +44567,9 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="2">
+      <c r="A80" s="2" t="str">
         <f>Pellets!A80</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>1574</v>
@@ -44466,9 +44595,9 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="2">
+      <c r="A81" s="2" t="str">
         <f>Pellets!A81</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>1572</v>
@@ -44494,9 +44623,9 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="2">
+      <c r="A82" s="2" t="str">
         <f>Pellets!A82</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>1570</v>
@@ -44578,9 +44707,9 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="2">
+      <c r="A85" s="2" t="str">
         <f>Pellets!A85</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>1564</v>
@@ -44606,9 +44735,9 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="2">
+      <c r="A86" s="2" t="str">
         <f>Pellets!A86</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>1562</v>
@@ -44662,9 +44791,9 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="2">
+      <c r="A88" s="2" t="str">
         <f>Pellets!A88</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>1558</v>
@@ -44718,9 +44847,9 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="2">
+      <c r="A90" s="2" t="str">
         <f>Pellets!A90</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>1554</v>
@@ -44746,9 +44875,9 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="2">
+      <c r="A91" s="2" t="str">
         <f>Pellets!A91</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>1552</v>
@@ -44774,9 +44903,9 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="2">
+      <c r="A92" s="2" t="str">
         <f>Pellets!A92</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>1550</v>
@@ -44914,9 +45043,9 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="2">
+      <c r="A97" s="2" t="str">
         <f>Pellets!A97</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>1540</v>
@@ -44998,9 +45127,9 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="2">
+      <c r="A100" s="2" t="str">
         <f>Pellets!A100</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>1534</v>
@@ -45026,9 +45155,9 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="2">
+      <c r="A101" s="2" t="str">
         <f>Pellets!A101</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>1532</v>
@@ -45054,9 +45183,9 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="2">
+      <c r="A102" s="2" t="str">
         <f>Pellets!A102</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>1530</v>
@@ -45082,9 +45211,9 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" s="2">
+      <c r="A103" s="2" t="str">
         <f>Pellets!A103</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>1528</v>
@@ -45110,9 +45239,9 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="2">
+      <c r="A104" s="2" t="str">
         <f>Pellets!A104</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>1526</v>
@@ -45138,9 +45267,9 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="2">
+      <c r="A105" s="2" t="str">
         <f>Pellets!A105</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>1524</v>
@@ -45250,9 +45379,9 @@
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" s="2">
+      <c r="A109" s="2" t="str">
         <f>Pellets!A109</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>1516</v>
@@ -45278,9 +45407,9 @@
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="2">
+      <c r="A110" s="2" t="str">
         <f>Pellets!A110</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>1514</v>
@@ -45334,9 +45463,9 @@
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="2">
+      <c r="A112" s="2" t="str">
         <f>Pellets!A112</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>1510</v>
@@ -45558,10 +45687,7 @@
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" s="2">
-        <f>Pellets!A120</f>
-        <v>0</v>
-      </c>
+      <c r="A120" s="2"/>
       <c r="B120" s="3" t="s">
         <v>2581</v>
       </c>
@@ -45586,10 +45712,7 @@
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="2">
-        <f>Pellets!A121</f>
-        <v>0</v>
-      </c>
+      <c r="A121" s="2"/>
       <c r="B121" s="3" t="s">
         <v>2582</v>
       </c>
@@ -45614,10 +45737,7 @@
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="2">
-        <f>Pellets!A122</f>
-        <v>0</v>
-      </c>
+      <c r="A122" s="2"/>
       <c r="B122" s="3" t="s">
         <v>2583</v>
       </c>
@@ -45642,10 +45762,7 @@
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="2">
-        <f>Pellets!A123</f>
-        <v>0</v>
-      </c>
+      <c r="A123" s="2"/>
       <c r="B123" s="3" t="s">
         <v>2584</v>
       </c>
@@ -47139,7 +47256,7 @@
   </sheetPr>
   <dimension ref="A1:U156"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A112" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
@@ -48969,9 +49086,9 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="23">
+      <c r="A35" s="23" t="str">
         <f>Pellets!A2</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>565</v>
@@ -49043,9 +49160,9 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="23">
+      <c r="A37" s="23" t="str">
         <f>Pellets!A4</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>563</v>
@@ -49191,9 +49308,9 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="23">
+      <c r="A41" s="23" t="str">
         <f>Pellets!A8</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>559</v>
@@ -49376,9 +49493,9 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="23">
+      <c r="A46" s="23" t="str">
         <f>Pellets!A13</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>554</v>
@@ -49635,9 +49752,9 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="23">
+      <c r="A53" s="23" t="str">
         <f>Pellets!A20</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>547</v>
@@ -49820,9 +49937,9 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="23">
+      <c r="A58" s="23" t="str">
         <f>Pellets!A25</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>542</v>
@@ -50079,9 +50196,9 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="23">
+      <c r="A65" s="23" t="str">
         <f>Pellets!A32</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>535</v>
@@ -50116,9 +50233,9 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="23">
+      <c r="A66" s="23" t="str">
         <f>Pellets!A33</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>534</v>
@@ -50133,7 +50250,7 @@
       </c>
       <c r="E66" s="21" t="str">
         <f>Pellets!F33</f>
-        <v>Bag (Poly2,6-Dimethyl-1,4-Phenylene Ether Pellets)</v>
+        <v>Bag (Poly2-6-Dimethyl-1-4-Phenylene Ether Pellets)</v>
       </c>
       <c r="F66" s="21" t="str">
         <f>VLOOKUP(E66, Pellets!F:M, 8,FALSE)</f>
@@ -50153,9 +50270,9 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="23">
+      <c r="A67" s="23" t="str">
         <f>Pellets!A34</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>533</v>
@@ -50190,9 +50307,9 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="23">
+      <c r="A68" s="23" t="str">
         <f>Pellets!A35</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>532</v>
@@ -50523,9 +50640,9 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="23">
+      <c r="A77" s="23" t="str">
         <f>Pellets!A44</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>523</v>
@@ -50560,9 +50677,9 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="23">
+      <c r="A78" s="23" t="str">
         <f>Pellets!A45</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>522</v>
@@ -50708,9 +50825,9 @@
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="23">
+      <c r="A82" s="23" t="str">
         <f>Pellets!A49</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>518</v>
@@ -50745,9 +50862,9 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="23">
+      <c r="A83" s="23" t="str">
         <f>Pellets!A50</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>517</v>
@@ -50819,9 +50936,9 @@
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" s="23">
+      <c r="A85" s="23" t="str">
         <f>Pellets!A52</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>515</v>
@@ -51263,9 +51380,9 @@
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97" s="23">
+      <c r="A97" s="23" t="str">
         <f>Pellets!A64</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>503</v>
@@ -51300,9 +51417,9 @@
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="23">
+      <c r="A98" s="23" t="str">
         <f>Pellets!A65</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>502</v>
@@ -51448,9 +51565,9 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102" s="23">
+      <c r="A102" s="23" t="str">
         <f>Pellets!A69</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>498</v>
@@ -51485,9 +51602,9 @@
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A103" s="23">
+      <c r="A103" s="23" t="str">
         <f>Pellets!A70</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>497</v>
@@ -51522,9 +51639,9 @@
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104" s="23">
+      <c r="A104" s="23" t="str">
         <f>Pellets!A71</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>496</v>
@@ -51559,9 +51676,9 @@
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A105" s="23">
+      <c r="A105" s="23" t="str">
         <f>Pellets!A72</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>495</v>
@@ -51596,9 +51713,9 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A106" s="23">
+      <c r="A106" s="23" t="str">
         <f>Pellets!A73</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>494</v>
@@ -51670,9 +51787,9 @@
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A108" s="23">
+      <c r="A108" s="23" t="str">
         <f>Pellets!A75</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>492</v>
@@ -51744,9 +51861,9 @@
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A110" s="23">
+      <c r="A110" s="23" t="str">
         <f>Pellets!A77</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>490</v>
@@ -51781,9 +51898,9 @@
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A111" s="23">
+      <c r="A111" s="23" t="str">
         <f>Pellets!A78</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>489</v>
@@ -51818,9 +51935,9 @@
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A112" s="23">
+      <c r="A112" s="23" t="str">
         <f>Pellets!A79</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>488</v>
@@ -51855,9 +51972,9 @@
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A113" s="23">
+      <c r="A113" s="23" t="str">
         <f>Pellets!A80</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>487</v>
@@ -51892,9 +52009,9 @@
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A114" s="23">
+      <c r="A114" s="23" t="str">
         <f>Pellets!A81</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>486</v>
@@ -51929,9 +52046,9 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A115" s="23">
+      <c r="A115" s="23" t="str">
         <f>Pellets!A82</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>485</v>
@@ -52040,9 +52157,9 @@
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A118" s="23">
+      <c r="A118" s="23" t="str">
         <f>Pellets!A85</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>482</v>
@@ -52077,9 +52194,9 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A119" s="23">
+      <c r="A119" s="23" t="str">
         <f>Pellets!A86</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>481</v>
@@ -52151,9 +52268,9 @@
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A121" s="23">
+      <c r="A121" s="23" t="str">
         <f>Pellets!A88</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>479</v>
@@ -52225,9 +52342,9 @@
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A123" s="23">
+      <c r="A123" s="23" t="str">
         <f>Pellets!A90</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>477</v>
@@ -52262,9 +52379,9 @@
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A124" s="23">
+      <c r="A124" s="23" t="str">
         <f>Pellets!A91</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>476</v>
@@ -52299,9 +52416,9 @@
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A125" s="23">
+      <c r="A125" s="23" t="str">
         <f>Pellets!A92</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>475</v>
@@ -52484,9 +52601,9 @@
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A130" s="23">
+      <c r="A130" s="23" t="str">
         <f>Pellets!A97</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>470</v>
@@ -52595,9 +52712,9 @@
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A133" s="23">
+      <c r="A133" s="23" t="str">
         <f>Pellets!A100</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>467</v>
@@ -52632,9 +52749,9 @@
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A134" s="23">
+      <c r="A134" s="23" t="str">
         <f>Pellets!A101</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>466</v>
@@ -52669,9 +52786,9 @@
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A135" s="23">
+      <c r="A135" s="23" t="str">
         <f>Pellets!A102</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>465</v>
@@ -52706,9 +52823,9 @@
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A136" s="23">
+      <c r="A136" s="23" t="str">
         <f>Pellets!A103</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>464</v>
@@ -52743,9 +52860,9 @@
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A137" s="23">
+      <c r="A137" s="23" t="str">
         <f>Pellets!A104</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>463</v>
@@ -52780,9 +52897,9 @@
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A138" s="23">
+      <c r="A138" s="23" t="str">
         <f>Pellets!A105</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>462</v>
@@ -52928,9 +53045,9 @@
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A142" s="23">
+      <c r="A142" s="23" t="str">
         <f>Pellets!A109</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>458</v>
@@ -52965,9 +53082,9 @@
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A143" s="23">
+      <c r="A143" s="23" t="str">
         <f>Pellets!A110</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>457</v>
@@ -53039,9 +53156,9 @@
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A145" s="23">
+      <c r="A145" s="23" t="str">
         <f>Pellets!A112</f>
-        <v>0</v>
+        <v>1.3.2</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>455</v>
@@ -53527,7 +53644,7 @@
         <v>2678</v>
       </c>
       <c r="C2" s="50" t="str">
-        <f>D2&amp;" ("&amp;E2&amp;")"</f>
+        <f t="shared" ref="C2:C10" si="0">D2&amp;" ("&amp;E2&amp;")"</f>
         <v>Wafer (Solar Cell)</v>
       </c>
       <c r="D2" s="50" t="str">
@@ -53554,7 +53671,7 @@
         <v>2679</v>
       </c>
       <c r="C3" s="50" t="str">
-        <f>D3&amp;" ("&amp;E3&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>Wafer (Processor)</v>
       </c>
       <c r="D3" s="50" t="str">
@@ -53581,7 +53698,7 @@
         <v>2680</v>
       </c>
       <c r="C4" s="50" t="str">
-        <f>D4&amp;" ("&amp;E4&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>Wafer (Temperature Sensor)</v>
       </c>
       <c r="D4" s="50" t="str">
@@ -53608,7 +53725,7 @@
         <v>2681</v>
       </c>
       <c r="C5" s="50" t="str">
-        <f>D5&amp;" ("&amp;E5&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>Wafer (Pressure Sensor)</v>
       </c>
       <c r="D5" s="50" t="str">
@@ -53635,7 +53752,7 @@
         <v>2682</v>
       </c>
       <c r="C6" s="50" t="str">
-        <f>D6&amp;" ("&amp;E6&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>Wafer (Low Power Radio)</v>
       </c>
       <c r="D6" s="50" t="str">
@@ -53662,7 +53779,7 @@
         <v>2683</v>
       </c>
       <c r="C7" s="50" t="str">
-        <f>D7&amp;" ("&amp;E7&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>Wafer (DSP)</v>
       </c>
       <c r="D7" s="50" t="str">
@@ -53689,7 +53806,7 @@
         <v>2684</v>
       </c>
       <c r="C8" s="50" t="str">
-        <f>D8&amp;" ("&amp;E8&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>Wafer (Digital Analog Convertor)</v>
       </c>
       <c r="D8" s="50" t="str">
@@ -53716,7 +53833,7 @@
         <v>2685</v>
       </c>
       <c r="C9" s="50" t="str">
-        <f>D9&amp;" ("&amp;E9&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>Wafer (Amplifier)</v>
       </c>
       <c r="D9" s="50" t="str">
@@ -53743,7 +53860,7 @@
         <v>2686</v>
       </c>
       <c r="C10" s="50" t="str">
-        <f>D10&amp;" ("&amp;E10&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>Wafer (OLED Array)</v>
       </c>
       <c r="D10" s="50" t="str">

--- a/config/Polycraft Polymers.xlsx
+++ b/config/Polycraft Polymers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="20670" windowHeight="10035" tabRatio="826"/>
+    <workbookView xWindow="5580" yWindow="0" windowWidth="20670" windowHeight="10035" tabRatio="826" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Pellets" sheetId="1" r:id="rId1"/>
@@ -10809,8 +10809,8 @@
   </sheetPr>
   <dimension ref="A1:N333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10990,10 +10990,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="str">
-        <f>[1]Enums!$A$21</f>
-        <v>1.3.2</v>
-      </c>
+      <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
         <v>443</v>
       </c>
@@ -11198,10 +11195,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="str">
-        <f>[1]Enums!$A$21</f>
-        <v>1.3.2</v>
-      </c>
+      <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
         <v>427</v>
       </c>
@@ -11458,10 +11452,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="str">
-        <f>[1]Enums!$A$21</f>
-        <v>1.3.2</v>
-      </c>
+      <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
         <v>407</v>
       </c>
@@ -11822,10 +11813,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="str">
-        <f>[1]Enums!$A$21</f>
-        <v>1.3.2</v>
-      </c>
+      <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
         <v>379</v>
       </c>
@@ -12082,10 +12070,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="str">
-        <f>[1]Enums!$A$21</f>
-        <v>1.3.2</v>
-      </c>
+      <c r="A25" s="2"/>
       <c r="B25" s="3" t="s">
         <v>359</v>
       </c>
@@ -13122,10 +13107,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="str">
-        <f>[1]Enums!$A$21</f>
-        <v>1.3.2</v>
-      </c>
+      <c r="A45" s="2"/>
       <c r="B45" s="3" t="s">
         <v>279</v>
       </c>
@@ -13330,10 +13312,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="str">
-        <f>[1]Enums!$A$21</f>
-        <v>1.3.2</v>
-      </c>
+      <c r="A49" s="2"/>
       <c r="B49" s="3" t="s">
         <v>263</v>
       </c>
@@ -13382,10 +13361,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="str">
-        <f>[1]Enums!$A$21</f>
-        <v>1.3.2</v>
-      </c>
+      <c r="A50" s="2"/>
       <c r="B50" s="3" t="s">
         <v>259</v>
       </c>
@@ -13486,10 +13462,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="str">
-        <f>[1]Enums!$A$21</f>
-        <v>1.3.2</v>
-      </c>
+      <c r="A52" s="2"/>
       <c r="B52" s="3" t="s">
         <v>251</v>
       </c>
@@ -14107,10 +14080,7 @@
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="str">
-        <f>[1]Enums!$A$21</f>
-        <v>1.3.2</v>
-      </c>
+      <c r="A64" s="2"/>
       <c r="B64" s="3" t="s">
         <v>203</v>
       </c>
@@ -14159,10 +14129,7 @@
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="str">
-        <f>[1]Enums!$A$21</f>
-        <v>1.3.2</v>
-      </c>
+      <c r="A65" s="2"/>
       <c r="B65" s="3" t="s">
         <v>199</v>
       </c>
@@ -14367,10 +14334,7 @@
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="str">
-        <f>[1]Enums!$A$21</f>
-        <v>1.3.2</v>
-      </c>
+      <c r="A69" s="2"/>
       <c r="B69" s="3" t="s">
         <v>183</v>
       </c>
@@ -14471,10 +14435,7 @@
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="str">
-        <f>[1]Enums!$A$21</f>
-        <v>1.3.2</v>
-      </c>
+      <c r="A71" s="2"/>
       <c r="B71" s="3" t="s">
         <v>175</v>
       </c>
@@ -14679,10 +14640,7 @@
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="str">
-        <f>[1]Enums!$A$21</f>
-        <v>1.3.2</v>
-      </c>
+      <c r="A75" s="2"/>
       <c r="B75" s="3" t="s">
         <v>159</v>
       </c>
@@ -14783,10 +14741,7 @@
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="str">
-        <f>[1]Enums!$A$21</f>
-        <v>1.3.2</v>
-      </c>
+      <c r="A77" s="2"/>
       <c r="B77" s="3" t="s">
         <v>151</v>
       </c>
@@ -14887,10 +14842,7 @@
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="str">
-        <f>[1]Enums!$A$21</f>
-        <v>1.3.2</v>
-      </c>
+      <c r="A79" s="2"/>
       <c r="B79" s="3" t="s">
         <v>143</v>
       </c>
@@ -14939,10 +14891,7 @@
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="str">
-        <f>[1]Enums!$A$21</f>
-        <v>1.3.2</v>
-      </c>
+      <c r="A80" s="2"/>
       <c r="B80" s="3" t="s">
         <v>139</v>
       </c>
@@ -14991,10 +14940,7 @@
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="str">
-        <f>[1]Enums!$A$21</f>
-        <v>1.3.2</v>
-      </c>
+      <c r="A81" s="2"/>
       <c r="B81" s="3" t="s">
         <v>135</v>
       </c>
@@ -15043,10 +14989,7 @@
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="str">
-        <f>[1]Enums!$A$21</f>
-        <v>1.3.2</v>
-      </c>
+      <c r="A82" s="2"/>
       <c r="B82" s="3" t="s">
         <v>131</v>
       </c>
@@ -15199,10 +15142,7 @@
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="str">
-        <f>[1]Enums!$A$21</f>
-        <v>1.3.2</v>
-      </c>
+      <c r="A85" s="2"/>
       <c r="B85" s="3" t="s">
         <v>119</v>
       </c>
@@ -15251,10 +15191,7 @@
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="str">
-        <f>[1]Enums!$A$21</f>
-        <v>1.3.2</v>
-      </c>
+      <c r="A86" s="2"/>
       <c r="B86" s="3" t="s">
         <v>115</v>
       </c>
@@ -15355,10 +15292,7 @@
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="str">
-        <f>[1]Enums!$A$21</f>
-        <v>1.3.2</v>
-      </c>
+      <c r="A88" s="2"/>
       <c r="B88" s="3" t="s">
         <v>107</v>
       </c>
@@ -15459,10 +15393,7 @@
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="str">
-        <f>[1]Enums!$A$21</f>
-        <v>1.3.2</v>
-      </c>
+      <c r="A90" s="2"/>
       <c r="B90" s="3" t="s">
         <v>99</v>
       </c>
@@ -15511,10 +15442,7 @@
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="str">
-        <f>[1]Enums!$A$21</f>
-        <v>1.3.2</v>
-      </c>
+      <c r="A91" s="2"/>
       <c r="B91" s="3" t="s">
         <v>95</v>
       </c>
@@ -15563,10 +15491,7 @@
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="str">
-        <f>[1]Enums!$A$21</f>
-        <v>1.3.2</v>
-      </c>
+      <c r="A92" s="2"/>
       <c r="B92" s="3" t="s">
         <v>91</v>
       </c>
@@ -15823,10 +15748,7 @@
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="str">
-        <f>[1]Enums!$A$21</f>
-        <v>1.3.2</v>
-      </c>
+      <c r="A97" s="2"/>
       <c r="B97" s="3" t="s">
         <v>71</v>
       </c>
@@ -15979,10 +15901,7 @@
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="str">
-        <f>[1]Enums!$A$21</f>
-        <v>1.3.2</v>
-      </c>
+      <c r="A100" s="2"/>
       <c r="B100" s="3" t="s">
         <v>59</v>
       </c>
@@ -16031,10 +15950,7 @@
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="str">
-        <f>[1]Enums!$A$21</f>
-        <v>1.3.2</v>
-      </c>
+      <c r="A101" s="2"/>
       <c r="B101" s="3" t="s">
         <v>55</v>
       </c>
@@ -16083,10 +15999,7 @@
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="str">
-        <f>[1]Enums!$A$21</f>
-        <v>1.3.2</v>
-      </c>
+      <c r="A102" s="2"/>
       <c r="B102" s="3" t="s">
         <v>51</v>
       </c>
@@ -16135,10 +16048,7 @@
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="str">
-        <f>[1]Enums!$A$21</f>
-        <v>1.3.2</v>
-      </c>
+      <c r="A103" s="2"/>
       <c r="B103" s="3" t="s">
         <v>47</v>
       </c>
@@ -16187,10 +16097,7 @@
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="str">
-        <f>[1]Enums!$A$21</f>
-        <v>1.3.2</v>
-      </c>
+      <c r="A104" s="2"/>
       <c r="B104" s="3" t="s">
         <v>43</v>
       </c>
@@ -16239,10 +16146,7 @@
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="str">
-        <f>[1]Enums!$A$21</f>
-        <v>1.3.2</v>
-      </c>
+      <c r="A105" s="2"/>
       <c r="B105" s="3" t="s">
         <v>39</v>
       </c>
@@ -16499,10 +16403,7 @@
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="str">
-        <f>[1]Enums!$A$21</f>
-        <v>1.3.2</v>
-      </c>
+      <c r="A110" s="2"/>
       <c r="B110" s="3" t="s">
         <v>19</v>
       </c>
@@ -16603,10 +16504,7 @@
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="str">
-        <f>[1]Enums!$A$21</f>
-        <v>1.3.2</v>
-      </c>
+      <c r="A112" s="2"/>
       <c r="B112" s="3" t="s">
         <v>11</v>
       </c>
@@ -29716,7 +29614,7 @@
   </sheetPr>
   <dimension ref="A1:G333"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G127" sqref="G127"/>
     </sheetView>
   </sheetViews>
@@ -29810,9 +29708,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="2">
         <f>Pellets!A4</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>818</v>
@@ -29918,9 +29816,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="str">
+      <c r="A8" s="2">
         <f>Pellets!A8</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>810</v>
@@ -30053,9 +29951,9 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="str">
+      <c r="A13" s="2">
         <f>Pellets!A13</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>800</v>
@@ -30242,9 +30140,9 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="str">
+      <c r="A20" s="2">
         <f>Pellets!A20</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>786</v>
@@ -30377,9 +30275,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="str">
+      <c r="A25" s="2">
         <f>Pellets!A25</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>776</v>
@@ -30917,9 +30815,9 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="str">
+      <c r="A45" s="2">
         <f>Pellets!A45</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>736</v>
@@ -31025,9 +30923,9 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="str">
+      <c r="A49" s="2">
         <f>Pellets!A49</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>728</v>
@@ -31052,9 +30950,9 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="str">
+      <c r="A50" s="2">
         <f>Pellets!A50</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>726</v>
@@ -31106,9 +31004,9 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="str">
+      <c r="A52" s="2">
         <f>Pellets!A52</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>722</v>
@@ -31430,9 +31328,9 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="str">
+      <c r="A64" s="2">
         <f>Pellets!A64</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>698</v>
@@ -31457,9 +31355,9 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="str">
+      <c r="A65" s="2">
         <f>Pellets!A65</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>696</v>
@@ -31565,9 +31463,9 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="str">
+      <c r="A69" s="2">
         <f>Pellets!A69</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>688</v>
@@ -31619,9 +31517,9 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="str">
+      <c r="A71" s="2">
         <f>Pellets!A71</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>684</v>
@@ -31727,9 +31625,9 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="str">
+      <c r="A75" s="2">
         <f>Pellets!A75</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>676</v>
@@ -31781,9 +31679,9 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="str">
+      <c r="A77" s="2">
         <f>Pellets!A77</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>672</v>
@@ -31835,9 +31733,9 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="str">
+      <c r="A79" s="2">
         <f>Pellets!A79</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>668</v>
@@ -31862,9 +31760,9 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="str">
+      <c r="A80" s="2">
         <f>Pellets!A80</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>666</v>
@@ -31889,9 +31787,9 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="str">
+      <c r="A81" s="2">
         <f>Pellets!A81</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>664</v>
@@ -31916,9 +31814,9 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="str">
+      <c r="A82" s="2">
         <f>Pellets!A82</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>662</v>
@@ -31997,9 +31895,9 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="str">
+      <c r="A85" s="2">
         <f>Pellets!A85</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>656</v>
@@ -32024,9 +31922,9 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="str">
+      <c r="A86" s="2">
         <f>Pellets!A86</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>654</v>
@@ -32078,9 +31976,9 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="str">
+      <c r="A88" s="2">
         <f>Pellets!A88</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>650</v>
@@ -32132,9 +32030,9 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="str">
+      <c r="A90" s="2">
         <f>Pellets!A90</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>646</v>
@@ -32159,9 +32057,9 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="str">
+      <c r="A91" s="2">
         <f>Pellets!A91</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>644</v>
@@ -32186,9 +32084,9 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="str">
+      <c r="A92" s="2">
         <f>Pellets!A92</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>642</v>
@@ -32321,9 +32219,9 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="str">
+      <c r="A97" s="2">
         <f>Pellets!A97</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>632</v>
@@ -32402,9 +32300,9 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="str">
+      <c r="A100" s="2">
         <f>Pellets!A100</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>626</v>
@@ -32429,9 +32327,9 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="str">
+      <c r="A101" s="2">
         <f>Pellets!A101</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>624</v>
@@ -32456,9 +32354,9 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="str">
+      <c r="A102" s="2">
         <f>Pellets!A102</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>622</v>
@@ -32483,9 +32381,9 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="str">
+      <c r="A103" s="2">
         <f>Pellets!A103</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>620</v>
@@ -32510,9 +32408,9 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="str">
+      <c r="A104" s="2">
         <f>Pellets!A104</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>618</v>
@@ -32537,9 +32435,9 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="str">
+      <c r="A105" s="2">
         <f>Pellets!A105</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>616</v>
@@ -32672,9 +32570,9 @@
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="str">
+      <c r="A110" s="2">
         <f>Pellets!A110</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>606</v>
@@ -32726,9 +32624,9 @@
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="str">
+      <c r="A112" s="2">
         <f>Pellets!A112</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>602</v>
@@ -33717,9 +33615,9 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="2">
         <f>Pellets!A4</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>1268</v>
@@ -33853,9 +33751,9 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="str">
+      <c r="A8" s="2">
         <f>Pellets!A8</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>1252</v>
@@ -34023,9 +33921,9 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="str">
+      <c r="A13" s="2">
         <f>Pellets!A13</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>1232</v>
@@ -34261,9 +34159,9 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="str">
+      <c r="A20" s="2">
         <f>Pellets!A20</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>1204</v>
@@ -34431,9 +34329,9 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="str">
+      <c r="A25" s="2">
         <f>Pellets!A25</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>1184</v>
@@ -35111,9 +35009,9 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="str">
+      <c r="A45" s="2">
         <f>Pellets!A45</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>1104</v>
@@ -35247,9 +35145,9 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="str">
+      <c r="A49" s="2">
         <f>Pellets!A49</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>1088</v>
@@ -35281,9 +35179,9 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="str">
+      <c r="A50" s="2">
         <f>Pellets!A50</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>1084</v>
@@ -35349,9 +35247,9 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="str">
+      <c r="A52" s="2">
         <f>Pellets!A52</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>1076</v>
@@ -35757,9 +35655,9 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="str">
+      <c r="A64" s="2">
         <f>Pellets!A64</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>1028</v>
@@ -35791,9 +35689,9 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="str">
+      <c r="A65" s="2">
         <f>Pellets!A65</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>1024</v>
@@ -35927,9 +35825,9 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="str">
+      <c r="A69" s="2">
         <f>Pellets!A69</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>1008</v>
@@ -35995,9 +35893,9 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="str">
+      <c r="A71" s="2">
         <f>Pellets!A71</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>1000</v>
@@ -36131,9 +36029,9 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="str">
+      <c r="A75" s="2">
         <f>Pellets!A75</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>984</v>
@@ -36199,9 +36097,9 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="str">
+      <c r="A77" s="2">
         <f>Pellets!A77</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>976</v>
@@ -36267,9 +36165,9 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="str">
+      <c r="A79" s="2">
         <f>Pellets!A79</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>968</v>
@@ -36301,9 +36199,9 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="str">
+      <c r="A80" s="2">
         <f>Pellets!A80</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>964</v>
@@ -36335,9 +36233,9 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="str">
+      <c r="A81" s="2">
         <f>Pellets!A81</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>960</v>
@@ -36369,9 +36267,9 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="str">
+      <c r="A82" s="2">
         <f>Pellets!A82</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>956</v>
@@ -36471,9 +36369,9 @@
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="str">
+      <c r="A85" s="2">
         <f>Pellets!A85</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>944</v>
@@ -36505,9 +36403,9 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="str">
+      <c r="A86" s="2">
         <f>Pellets!A86</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>940</v>
@@ -36573,9 +36471,9 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="str">
+      <c r="A88" s="2">
         <f>Pellets!A88</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>932</v>
@@ -36641,9 +36539,9 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="str">
+      <c r="A90" s="2">
         <f>Pellets!A90</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>924</v>
@@ -36675,9 +36573,9 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="str">
+      <c r="A91" s="2">
         <f>Pellets!A91</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>920</v>
@@ -36709,9 +36607,9 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="str">
+      <c r="A92" s="2">
         <f>Pellets!A92</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>916</v>
@@ -36879,9 +36777,9 @@
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="str">
+      <c r="A97" s="2">
         <f>Pellets!A97</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>896</v>
@@ -36981,9 +36879,9 @@
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="str">
+      <c r="A100" s="2">
         <f>Pellets!A100</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>884</v>
@@ -37015,9 +36913,9 @@
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="str">
+      <c r="A101" s="2">
         <f>Pellets!A101</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>880</v>
@@ -37049,9 +36947,9 @@
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="str">
+      <c r="A102" s="2">
         <f>Pellets!A102</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>876</v>
@@ -37083,9 +36981,9 @@
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="str">
+      <c r="A103" s="2">
         <f>Pellets!A103</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>872</v>
@@ -37117,9 +37015,9 @@
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="str">
+      <c r="A104" s="2">
         <f>Pellets!A104</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>868</v>
@@ -37151,9 +37049,9 @@
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="str">
+      <c r="A105" s="2">
         <f>Pellets!A105</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>864</v>
@@ -37321,9 +37219,9 @@
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="str">
+      <c r="A110" s="2">
         <f>Pellets!A110</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>844</v>
@@ -37389,9 +37287,9 @@
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="str">
+      <c r="A112" s="2">
         <f>Pellets!A112</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>836</v>
@@ -38406,9 +38304,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="2">
         <f>Pellets!A4</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>1499</v>
@@ -38518,9 +38416,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="str">
+      <c r="A8" s="2">
         <f>Pellets!A8</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>1491</v>
@@ -38658,9 +38556,9 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="str">
+      <c r="A13" s="2">
         <f>Pellets!A13</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>1481</v>
@@ -38854,9 +38752,9 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="str">
+      <c r="A20" s="2">
         <f>Pellets!A20</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>1467</v>
@@ -38994,9 +38892,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="str">
+      <c r="A25" s="2">
         <f>Pellets!A25</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>1457</v>
@@ -39554,9 +39452,9 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="str">
+      <c r="A45" s="2">
         <f>Pellets!A45</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>1417</v>
@@ -39666,9 +39564,9 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="str">
+      <c r="A49" s="2">
         <f>Pellets!A49</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>1409</v>
@@ -39694,9 +39592,9 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="str">
+      <c r="A50" s="2">
         <f>Pellets!A50</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>1407</v>
@@ -39750,9 +39648,9 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="str">
+      <c r="A52" s="2">
         <f>Pellets!A52</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>1403</v>
@@ -40086,9 +39984,9 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="str">
+      <c r="A64" s="2">
         <f>Pellets!A64</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>1379</v>
@@ -40114,9 +40012,9 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="str">
+      <c r="A65" s="2">
         <f>Pellets!A65</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>1377</v>
@@ -40226,9 +40124,9 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="str">
+      <c r="A69" s="2">
         <f>Pellets!A69</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>1369</v>
@@ -40282,9 +40180,9 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="str">
+      <c r="A71" s="2">
         <f>Pellets!A71</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>1365</v>
@@ -40394,9 +40292,9 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="str">
+      <c r="A75" s="2">
         <f>Pellets!A75</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>1357</v>
@@ -40450,9 +40348,9 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="str">
+      <c r="A77" s="2">
         <f>Pellets!A77</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>1353</v>
@@ -40506,9 +40404,9 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="str">
+      <c r="A79" s="2">
         <f>Pellets!A79</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>1349</v>
@@ -40534,9 +40432,9 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="str">
+      <c r="A80" s="2">
         <f>Pellets!A80</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>1347</v>
@@ -40562,9 +40460,9 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="str">
+      <c r="A81" s="2">
         <f>Pellets!A81</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>1345</v>
@@ -40590,9 +40488,9 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="str">
+      <c r="A82" s="2">
         <f>Pellets!A82</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>1343</v>
@@ -40674,9 +40572,9 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="str">
+      <c r="A85" s="2">
         <f>Pellets!A85</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>1337</v>
@@ -40702,9 +40600,9 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="str">
+      <c r="A86" s="2">
         <f>Pellets!A86</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>1335</v>
@@ -40758,9 +40656,9 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="str">
+      <c r="A88" s="2">
         <f>Pellets!A88</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>1331</v>
@@ -40814,9 +40712,9 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="str">
+      <c r="A90" s="2">
         <f>Pellets!A90</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>1327</v>
@@ -40842,9 +40740,9 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="str">
+      <c r="A91" s="2">
         <f>Pellets!A91</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>1325</v>
@@ -40870,9 +40768,9 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="str">
+      <c r="A92" s="2">
         <f>Pellets!A92</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>1323</v>
@@ -41010,9 +40908,9 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="str">
+      <c r="A97" s="2">
         <f>Pellets!A97</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>1313</v>
@@ -41094,9 +40992,9 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="str">
+      <c r="A100" s="2">
         <f>Pellets!A100</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>1307</v>
@@ -41122,9 +41020,9 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="str">
+      <c r="A101" s="2">
         <f>Pellets!A101</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>1305</v>
@@ -41150,9 +41048,9 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="str">
+      <c r="A102" s="2">
         <f>Pellets!A102</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>1303</v>
@@ -41178,9 +41076,9 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="str">
+      <c r="A103" s="2">
         <f>Pellets!A103</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>1301</v>
@@ -41206,9 +41104,9 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="str">
+      <c r="A104" s="2">
         <f>Pellets!A104</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>1299</v>
@@ -41234,9 +41132,9 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="str">
+      <c r="A105" s="2">
         <f>Pellets!A105</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>1297</v>
@@ -41374,9 +41272,9 @@
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="str">
+      <c r="A110" s="2">
         <f>Pellets!A110</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>1287</v>
@@ -41430,9 +41328,9 @@
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="str">
+      <c r="A112" s="2">
         <f>Pellets!A112</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>1283</v>
@@ -42345,7 +42243,7 @@
   </sheetPr>
   <dimension ref="A1:G333"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
       <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
@@ -42439,9 +42337,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="2">
         <f>Pellets!A4</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>1726</v>
@@ -42551,9 +42449,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="str">
+      <c r="A8" s="2">
         <f>Pellets!A8</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>1718</v>
@@ -42691,9 +42589,9 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="str">
+      <c r="A13" s="2">
         <f>Pellets!A13</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>1708</v>
@@ -42887,9 +42785,9 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="str">
+      <c r="A20" s="2">
         <f>Pellets!A20</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>1694</v>
@@ -43027,9 +42925,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="str">
+      <c r="A25" s="2">
         <f>Pellets!A25</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>1684</v>
@@ -43587,9 +43485,9 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="str">
+      <c r="A45" s="2">
         <f>Pellets!A45</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>1644</v>
@@ -43699,9 +43597,9 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="str">
+      <c r="A49" s="2">
         <f>Pellets!A49</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>1636</v>
@@ -43727,9 +43625,9 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="str">
+      <c r="A50" s="2">
         <f>Pellets!A50</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>1634</v>
@@ -43783,9 +43681,9 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="str">
+      <c r="A52" s="2">
         <f>Pellets!A52</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>1630</v>
@@ -44119,9 +44017,9 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="str">
+      <c r="A64" s="2">
         <f>Pellets!A64</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>1606</v>
@@ -44147,9 +44045,9 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="str">
+      <c r="A65" s="2">
         <f>Pellets!A65</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>1604</v>
@@ -44259,9 +44157,9 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="str">
+      <c r="A69" s="2">
         <f>Pellets!A69</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>1596</v>
@@ -44315,9 +44213,9 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="str">
+      <c r="A71" s="2">
         <f>Pellets!A71</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>1592</v>
@@ -44427,9 +44325,9 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="str">
+      <c r="A75" s="2">
         <f>Pellets!A75</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>1584</v>
@@ -44483,9 +44381,9 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="str">
+      <c r="A77" s="2">
         <f>Pellets!A77</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>1580</v>
@@ -44539,9 +44437,9 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="str">
+      <c r="A79" s="2">
         <f>Pellets!A79</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>1576</v>
@@ -44567,9 +44465,9 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="str">
+      <c r="A80" s="2">
         <f>Pellets!A80</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>1574</v>
@@ -44595,9 +44493,9 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="str">
+      <c r="A81" s="2">
         <f>Pellets!A81</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>1572</v>
@@ -44623,9 +44521,9 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="str">
+      <c r="A82" s="2">
         <f>Pellets!A82</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>1570</v>
@@ -44707,9 +44605,9 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="str">
+      <c r="A85" s="2">
         <f>Pellets!A85</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>1564</v>
@@ -44735,9 +44633,9 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="str">
+      <c r="A86" s="2">
         <f>Pellets!A86</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>1562</v>
@@ -44791,9 +44689,9 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="str">
+      <c r="A88" s="2">
         <f>Pellets!A88</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>1558</v>
@@ -44847,9 +44745,9 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="str">
+      <c r="A90" s="2">
         <f>Pellets!A90</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>1554</v>
@@ -44875,9 +44773,9 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="str">
+      <c r="A91" s="2">
         <f>Pellets!A91</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>1552</v>
@@ -44903,9 +44801,9 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="str">
+      <c r="A92" s="2">
         <f>Pellets!A92</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>1550</v>
@@ -45043,9 +44941,9 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="str">
+      <c r="A97" s="2">
         <f>Pellets!A97</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>1540</v>
@@ -45127,9 +45025,9 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="str">
+      <c r="A100" s="2">
         <f>Pellets!A100</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>1534</v>
@@ -45155,9 +45053,9 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="str">
+      <c r="A101" s="2">
         <f>Pellets!A101</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>1532</v>
@@ -45183,9 +45081,9 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="str">
+      <c r="A102" s="2">
         <f>Pellets!A102</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>1530</v>
@@ -45211,9 +45109,9 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="str">
+      <c r="A103" s="2">
         <f>Pellets!A103</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>1528</v>
@@ -45239,9 +45137,9 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="str">
+      <c r="A104" s="2">
         <f>Pellets!A104</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>1526</v>
@@ -45267,9 +45165,9 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="str">
+      <c r="A105" s="2">
         <f>Pellets!A105</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>1524</v>
@@ -45407,9 +45305,9 @@
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="str">
+      <c r="A110" s="2">
         <f>Pellets!A110</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>1514</v>
@@ -45463,9 +45361,9 @@
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="str">
+      <c r="A112" s="2">
         <f>Pellets!A112</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>1510</v>
@@ -49160,9 +49058,9 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="23" t="str">
+      <c r="A37" s="23">
         <f>Pellets!A4</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>563</v>
@@ -49308,9 +49206,9 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="23" t="str">
+      <c r="A41" s="23">
         <f>Pellets!A8</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>559</v>
@@ -49493,9 +49391,9 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="23" t="str">
+      <c r="A46" s="23">
         <f>Pellets!A13</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>554</v>
@@ -49752,9 +49650,9 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="23" t="str">
+      <c r="A53" s="23">
         <f>Pellets!A20</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>547</v>
@@ -49937,9 +49835,9 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="23" t="str">
+      <c r="A58" s="23">
         <f>Pellets!A25</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>542</v>
@@ -50677,9 +50575,9 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="23" t="str">
+      <c r="A78" s="23">
         <f>Pellets!A45</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>522</v>
@@ -50825,9 +50723,9 @@
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="23" t="str">
+      <c r="A82" s="23">
         <f>Pellets!A49</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>518</v>
@@ -50862,9 +50760,9 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="23" t="str">
+      <c r="A83" s="23">
         <f>Pellets!A50</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>517</v>
@@ -50936,9 +50834,9 @@
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" s="23" t="str">
+      <c r="A85" s="23">
         <f>Pellets!A52</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>515</v>
@@ -51380,9 +51278,9 @@
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97" s="23" t="str">
+      <c r="A97" s="23">
         <f>Pellets!A64</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>503</v>
@@ -51417,9 +51315,9 @@
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="23" t="str">
+      <c r="A98" s="23">
         <f>Pellets!A65</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>502</v>
@@ -51565,9 +51463,9 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102" s="23" t="str">
+      <c r="A102" s="23">
         <f>Pellets!A69</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>498</v>
@@ -51639,9 +51537,9 @@
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104" s="23" t="str">
+      <c r="A104" s="23">
         <f>Pellets!A71</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>496</v>
@@ -51787,9 +51685,9 @@
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A108" s="23" t="str">
+      <c r="A108" s="23">
         <f>Pellets!A75</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>492</v>
@@ -51861,9 +51759,9 @@
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A110" s="23" t="str">
+      <c r="A110" s="23">
         <f>Pellets!A77</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>490</v>
@@ -51935,9 +51833,9 @@
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A112" s="23" t="str">
+      <c r="A112" s="23">
         <f>Pellets!A79</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>488</v>
@@ -51972,9 +51870,9 @@
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A113" s="23" t="str">
+      <c r="A113" s="23">
         <f>Pellets!A80</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>487</v>
@@ -52009,9 +51907,9 @@
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A114" s="23" t="str">
+      <c r="A114" s="23">
         <f>Pellets!A81</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>486</v>
@@ -52046,9 +51944,9 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A115" s="23" t="str">
+      <c r="A115" s="23">
         <f>Pellets!A82</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>485</v>
@@ -52157,9 +52055,9 @@
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A118" s="23" t="str">
+      <c r="A118" s="23">
         <f>Pellets!A85</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>482</v>
@@ -52194,9 +52092,9 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A119" s="23" t="str">
+      <c r="A119" s="23">
         <f>Pellets!A86</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>481</v>
@@ -52268,9 +52166,9 @@
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A121" s="23" t="str">
+      <c r="A121" s="23">
         <f>Pellets!A88</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>479</v>
@@ -52342,9 +52240,9 @@
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A123" s="23" t="str">
+      <c r="A123" s="23">
         <f>Pellets!A90</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>477</v>
@@ -52379,9 +52277,9 @@
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A124" s="23" t="str">
+      <c r="A124" s="23">
         <f>Pellets!A91</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>476</v>
@@ -52416,9 +52314,9 @@
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A125" s="23" t="str">
+      <c r="A125" s="23">
         <f>Pellets!A92</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>475</v>
@@ -52601,9 +52499,9 @@
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A130" s="23" t="str">
+      <c r="A130" s="23">
         <f>Pellets!A97</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>470</v>
@@ -52712,9 +52610,9 @@
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A133" s="23" t="str">
+      <c r="A133" s="23">
         <f>Pellets!A100</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>467</v>
@@ -52749,9 +52647,9 @@
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A134" s="23" t="str">
+      <c r="A134" s="23">
         <f>Pellets!A101</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>466</v>
@@ -52786,9 +52684,9 @@
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A135" s="23" t="str">
+      <c r="A135" s="23">
         <f>Pellets!A102</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>465</v>
@@ -52823,9 +52721,9 @@
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A136" s="23" t="str">
+      <c r="A136" s="23">
         <f>Pellets!A103</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>464</v>
@@ -52860,9 +52758,9 @@
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A137" s="23" t="str">
+      <c r="A137" s="23">
         <f>Pellets!A104</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>463</v>
@@ -52897,9 +52795,9 @@
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A138" s="23" t="str">
+      <c r="A138" s="23">
         <f>Pellets!A105</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>462</v>
@@ -53082,9 +52980,9 @@
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A143" s="23" t="str">
+      <c r="A143" s="23">
         <f>Pellets!A110</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>457</v>
@@ -53156,9 +53054,9 @@
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A145" s="23" t="str">
+      <c r="A145" s="23">
         <f>Pellets!A112</f>
-        <v>1.3.2</v>
+        <v>0</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>455</v>

--- a/config/Polycraft Polymers.xlsx
+++ b/config/Polycraft Polymers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="0" windowWidth="20670" windowHeight="10035" tabRatio="826" activeTab="5"/>
+    <workbookView xWindow="6510" yWindow="0" windowWidth="20670" windowHeight="10035" tabRatio="826" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Pellets" sheetId="1" r:id="rId1"/>
@@ -10809,7 +10809,7 @@
   </sheetPr>
   <dimension ref="A1:N333"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
@@ -21832,8 +21832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -38210,8 +38210,8 @@
   </sheetPr>
   <dimension ref="A1:G333"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="C127" sqref="C127"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="L75" sqref="L75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -42243,7 +42243,7 @@
   </sheetPr>
   <dimension ref="A1:G333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
@@ -47154,8 +47154,8 @@
   </sheetPr>
   <dimension ref="A1:U156"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C133" sqref="C133"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="I140" sqref="I140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -53277,8 +53277,8 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="23" t="str">
-        <f>[1]Enums!$A$12</f>
-        <v>1.1.0</v>
+        <f>[1]Enums!$A$14</f>
+        <v>1.1.2</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>2010</v>

--- a/config/Polycraft Polymers.xlsx
+++ b/config/Polycraft Polymers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="0" windowWidth="20670" windowHeight="10035" tabRatio="826" activeTab="7"/>
+    <workbookView xWindow="8370" yWindow="0" windowWidth="20670" windowHeight="10035" tabRatio="826" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Pellets" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2942" uniqueCount="2708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2946" uniqueCount="2711">
   <si>
     <t>GC</t>
   </si>
@@ -8176,6 +8176,15 @@
   </si>
   <si>
     <t>Silicon Wafer (Ruined)</t>
+  </si>
+  <si>
+    <t>1fu</t>
+  </si>
+  <si>
+    <t>1fv</t>
+  </si>
+  <si>
+    <t>1fw</t>
   </si>
 </sst>
 </file>
@@ -8475,118 +8484,123 @@
             <v>1.3.2</v>
           </cell>
         </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>Bag</v>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>1.3.3</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>Vial</v>
+            <v>Bag</v>
           </cell>
         </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>Sack</v>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>Vial</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>Beaker</v>
+            <v>Sack</v>
           </cell>
         </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>Powder Keg</v>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>Beaker</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>Drum</v>
+            <v>Powder Keg</v>
           </cell>
         </row>
-        <row r="39">
-          <cell r="A39" t="str">
-            <v>Chemical Silo</v>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>Drum</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40" t="str">
+            <v>Chemical Silo</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
             <v>Chemical Vat</v>
           </cell>
         </row>
-        <row r="79">
-          <cell r="B79" t="str">
+        <row r="80">
+          <cell r="B80" t="str">
             <v>Mold Type</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="B83" t="str">
-            <v>Mold</v>
           </cell>
         </row>
         <row r="84">
           <cell r="B84" t="str">
-            <v>Metal Die</v>
+            <v>Mold</v>
           </cell>
         </row>
-        <row r="91">
-          <cell r="B91" t="str">
-            <v>Wafer</v>
+        <row r="85">
+          <cell r="B85" t="str">
+            <v>Metal Die</v>
           </cell>
         </row>
         <row r="92">
           <cell r="B92" t="str">
+            <v>Wafer</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="B93" t="str">
             <v>Mask</v>
           </cell>
         </row>
-        <row r="107">
-          <cell r="A107" t="str">
+        <row r="108">
+          <cell r="A108" t="str">
             <v>Gripped</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="A110" t="str">
-            <v>Base Material</v>
           </cell>
         </row>
         <row r="111">
           <cell r="A111" t="str">
-            <v>Wooden</v>
+            <v>Base Material</v>
           </cell>
         </row>
         <row r="112">
           <cell r="A112" t="str">
-            <v>Stone</v>
+            <v>Wooden</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113" t="str">
-            <v>Iron</v>
+            <v>Stone</v>
           </cell>
         </row>
         <row r="114">
           <cell r="A114" t="str">
-            <v>Golden</v>
+            <v>Iron</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115" t="str">
-            <v>Diamond</v>
+            <v>Golden</v>
           </cell>
         </row>
         <row r="116">
           <cell r="A116" t="str">
-            <v>Magic</v>
+            <v>Diamond</v>
           </cell>
         </row>
-        <row r="145">
-          <cell r="A145" t="str">
-            <v>Composite</v>
+        <row r="117">
+          <cell r="A117" t="str">
+            <v>Magic</v>
           </cell>
         </row>
         <row r="146">
           <cell r="A146" t="str">
+            <v>Composite</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="A147" t="str">
             <v>Engineered</v>
           </cell>
         </row>
@@ -10217,6 +10231,11 @@
             <v>HAM Radio Case</v>
           </cell>
         </row>
+        <row r="34">
+          <cell r="B34" t="str">
+            <v>Flagpole Segment</v>
+          </cell>
+        </row>
       </sheetData>
     </sheetDataSet>
   </externalBook>
@@ -10852,19 +10871,19 @@
         <v>Game ID XL</v>
       </c>
       <c r="F1" s="5" t="str">
-        <f xml:space="preserve"> [1]Enums!$A$30&amp;" ("&amp;J1&amp;")"</f>
+        <f xml:space="preserve"> [1]Enums!$A$31&amp;" ("&amp;J1&amp;")"</f>
         <v>Bag (Pellets)</v>
       </c>
       <c r="G1" s="5" t="str">
-        <f xml:space="preserve"> [1]Enums!$A$33&amp;" ("&amp;J1&amp;")"</f>
+        <f xml:space="preserve"> [1]Enums!$A$34&amp;" ("&amp;J1&amp;")"</f>
         <v>Sack (Pellets)</v>
       </c>
       <c r="H1" s="5" t="str">
-        <f xml:space="preserve"> [1]Enums!$A$36&amp;" ("&amp;J1&amp;")"</f>
+        <f xml:space="preserve"> [1]Enums!$A$37&amp;" ("&amp;J1&amp;")"</f>
         <v>Powder Keg (Pellets)</v>
       </c>
       <c r="I1" s="5" t="str">
-        <f xml:space="preserve"> [1]Enums!$A$39&amp;" ("&amp;J1&amp;")"</f>
+        <f xml:space="preserve"> [1]Enums!$A$40&amp;" ("&amp;J1&amp;")"</f>
         <v>Chemical Silo (Pellets)</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -10903,19 +10922,19 @@
         <v>448</v>
       </c>
       <c r="F2" s="1" t="str">
-        <f>IF($N2, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N2, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
         <v>Vial (Acrylic-Formaldehyde Resin)</v>
       </c>
       <c r="G2" s="1" t="str">
-        <f>IF($N2, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N2, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
         <v>Beaker (Acrylic-Formaldehyde Resin)</v>
       </c>
       <c r="H2" s="1" t="str">
-        <f>IF($N2, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N2, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
         <v>Drum (Acrylic-Formaldehyde Resin)</v>
       </c>
       <c r="I2" s="1" t="str">
-        <f>IF($N2, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N2, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Vat (Acrylic-Formaldehyde Resin)</v>
       </c>
       <c r="J2" s="1" t="str">
@@ -10955,19 +10974,19 @@
         <v>444</v>
       </c>
       <c r="F3" s="1" t="str">
-        <f>IF($N3, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N3, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Acrylonitrile-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f>IF($N3, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N3, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Acrylonitrile-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="H3" s="1" t="str">
-        <f>IF($N3, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N3, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Acrylonitrile-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="I3" s="1" t="str">
-        <f>IF($N3, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N3, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Acrylonitrile-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="J3" s="1" t="str">
@@ -11004,19 +11023,19 @@
         <v>440</v>
       </c>
       <c r="F4" s="1" t="str">
-        <f>IF($N4, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N4, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
         <v>Vial (Alkyd Resin)</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f>IF($N4, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N4, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
         <v>Beaker (Alkyd Resin)</v>
       </c>
       <c r="H4" s="1" t="str">
-        <f>IF($N4, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N4, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
         <v>Drum (Alkyd Resin)</v>
       </c>
       <c r="I4" s="1" t="str">
-        <f>IF($N4, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N4, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Vat (Alkyd Resin)</v>
       </c>
       <c r="J4" s="1" t="str">
@@ -11056,19 +11075,19 @@
         <v>436</v>
       </c>
       <c r="F5" s="1" t="str">
-        <f>IF($N5, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N5, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Amorphous PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="G5" s="1" t="str">
-        <f>IF($N5, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N5, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Amorphous PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="H5" s="1" t="str">
-        <f>IF($N5, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N5, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Amorphous PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="I5" s="1" t="str">
-        <f>IF($N5, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N5, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Amorphous PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="J5" s="1" t="str">
@@ -11108,19 +11127,19 @@
         <v>432</v>
       </c>
       <c r="F6" s="1" t="str">
-        <f>IF($N6, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N6, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Bromine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f>IF($N6, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N6, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Bromine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="H6" s="1" t="str">
-        <f>IF($N6, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N6, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Bromine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="I6" s="1" t="str">
-        <f>IF($N6, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N6, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Bromine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="J6" s="1" t="str">
@@ -11160,19 +11179,19 @@
         <v>428</v>
       </c>
       <c r="F7" s="1" t="str">
-        <f>IF($N7, [1]Enums!$A$30, [1]Enums!$A$30)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N7, [1]Enums!$A$31, [1]Enums!$A$31)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Carbon Fiber)</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f>IF($N7, [1]Enums!$A$33, [1]Enums!$A$33)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N7, [1]Enums!$A$34, [1]Enums!$A$34)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Carbon Fiber)</v>
       </c>
       <c r="H7" s="1" t="str">
-        <f>IF($N7, [1]Enums!$A$36, [1]Enums!$A$36)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N7, [1]Enums!$A$37, [1]Enums!$A$37)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Carbon Fiber)</v>
       </c>
       <c r="I7" s="1" t="str">
-        <f>IF($N7, [1]Enums!$A$39, [1]Enums!$A$39)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N7, [1]Enums!$A$40, [1]Enums!$A$40)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Carbon Fiber)</v>
       </c>
       <c r="J7" s="1" t="str">
@@ -11209,19 +11228,19 @@
         <v>424</v>
       </c>
       <c r="F8" s="1" t="str">
-        <f>IF($N8, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N8, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Cellulose Triacetate Pellets)</v>
       </c>
       <c r="G8" s="1" t="str">
-        <f>IF($N8, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N8, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Cellulose Triacetate Pellets)</v>
       </c>
       <c r="H8" s="1" t="str">
-        <f>IF($N8, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N8, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Cellulose Triacetate Pellets)</v>
       </c>
       <c r="I8" s="1" t="str">
-        <f>IF($N8, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N8, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Cellulose Triacetate Pellets)</v>
       </c>
       <c r="J8" s="1" t="str">
@@ -11261,19 +11280,19 @@
         <v>420</v>
       </c>
       <c r="F9" s="1" t="str">
-        <f>IF($N9, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N9, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Cellulosic Pellets)</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f>IF($N9, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N9, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Cellulosic Pellets)</v>
       </c>
       <c r="H9" s="1" t="str">
-        <f>IF($N9, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N9, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Cellulosic Pellets)</v>
       </c>
       <c r="I9" s="1" t="str">
-        <f>IF($N9, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N9, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Cellulosic Pellets)</v>
       </c>
       <c r="J9" s="1" t="str">
@@ -11313,19 +11332,19 @@
         <v>416</v>
       </c>
       <c r="F10" s="1" t="str">
-        <f>IF($N10, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N10, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Chitin Pellets)</v>
       </c>
       <c r="G10" s="1" t="str">
-        <f>IF($N10, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N10, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Chitin Pellets)</v>
       </c>
       <c r="H10" s="1" t="str">
-        <f>IF($N10, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N10, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Chitin Pellets)</v>
       </c>
       <c r="I10" s="1" t="str">
-        <f>IF($N10, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N10, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Chitin Pellets)</v>
       </c>
       <c r="J10" s="1" t="str">
@@ -11365,19 +11384,19 @@
         <v>412</v>
       </c>
       <c r="F11" s="1" t="str">
-        <f>IF($N11, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N11, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Chlorine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="G11" s="1" t="str">
-        <f>IF($N11, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N11, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Chlorine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="H11" s="1" t="str">
-        <f>IF($N11, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N11, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Chlorine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="I11" s="1" t="str">
-        <f>IF($N11, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N11, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Chlorine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="J11" s="1" t="str">
@@ -11417,19 +11436,19 @@
         <v>408</v>
       </c>
       <c r="F12" s="1" t="str">
-        <f>IF($N12, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N12, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
         <v>Vial (Epoxy Resin)</v>
       </c>
       <c r="G12" s="1" t="str">
-        <f>IF($N12, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N12, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
         <v>Beaker (Epoxy Resin)</v>
       </c>
       <c r="H12" s="1" t="str">
-        <f>IF($N12, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N12, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
         <v>Drum (Epoxy Resin)</v>
       </c>
       <c r="I12" s="1" t="str">
-        <f>IF($N12, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N12, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Vat (Epoxy Resin)</v>
       </c>
       <c r="J12" s="1" t="str">
@@ -11466,19 +11485,19 @@
         <v>404</v>
       </c>
       <c r="F13" s="1" t="str">
-        <f>IF($N13, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N13, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Ethoxylates Pellets)</v>
       </c>
       <c r="G13" s="1" t="str">
-        <f>IF($N13, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N13, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Ethoxylates Pellets)</v>
       </c>
       <c r="H13" s="1" t="str">
-        <f>IF($N13, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N13, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Ethoxylates Pellets)</v>
       </c>
       <c r="I13" s="1" t="str">
-        <f>IF($N13, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N13, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Ethoxylates Pellets)</v>
       </c>
       <c r="J13" s="1" t="str">
@@ -11518,19 +11537,19 @@
         <v>400</v>
       </c>
       <c r="F14" s="1" t="str">
-        <f>IF($N14, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N14, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Ethylene-Propylene Monomer Pellets)</v>
       </c>
       <c r="G14" s="1" t="str">
-        <f>IF($N14, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N14, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Ethylene-Propylene Monomer Pellets)</v>
       </c>
       <c r="H14" s="1" t="str">
-        <f>IF($N14, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N14, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Ethylene-Propylene Monomer Pellets)</v>
       </c>
       <c r="I14" s="1" t="str">
-        <f>IF($N14, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N14, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Ethylene-Propylene Monomer Pellets)</v>
       </c>
       <c r="J14" s="1" t="str">
@@ -11570,19 +11589,19 @@
         <v>396</v>
       </c>
       <c r="F15" s="1" t="str">
-        <f>IF($N15, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N15, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Ethylene-Propylene-Diene Monomer Pellets)</v>
       </c>
       <c r="G15" s="1" t="str">
-        <f>IF($N15, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N15, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Ethylene-Propylene-Diene Monomer Pellets)</v>
       </c>
       <c r="H15" s="1" t="str">
-        <f>IF($N15, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N15, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Ethylene-Propylene-Diene Monomer Pellets)</v>
       </c>
       <c r="I15" s="1" t="str">
-        <f>IF($N15, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N15, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Ethylene-Propylene-Diene Monomer Pellets)</v>
       </c>
       <c r="J15" s="1" t="str">
@@ -11622,19 +11641,19 @@
         <v>392</v>
       </c>
       <c r="F16" s="1" t="str">
-        <f>IF($N16, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N16, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Ethylene-Vinyl Acetate Pellets)</v>
       </c>
       <c r="G16" s="1" t="str">
-        <f>IF($N16, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N16, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Ethylene-Vinyl Acetate Pellets)</v>
       </c>
       <c r="H16" s="1" t="str">
-        <f>IF($N16, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N16, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Ethylene-Vinyl Acetate Pellets)</v>
       </c>
       <c r="I16" s="1" t="str">
-        <f>IF($N16, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N16, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Ethylene-Vinyl Acetate Pellets)</v>
       </c>
       <c r="J16" s="1" t="str">
@@ -11674,19 +11693,19 @@
         <v>388</v>
       </c>
       <c r="F17" s="1" t="str">
-        <f>IF($N17, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N17, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (High Density PolyEthylene Pellets)</v>
       </c>
       <c r="G17" s="1" t="str">
-        <f>IF($N17, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N17, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (High Density PolyEthylene Pellets)</v>
       </c>
       <c r="H17" s="1" t="str">
-        <f>IF($N17, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N17, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (High Density PolyEthylene Pellets)</v>
       </c>
       <c r="I17" s="1" t="str">
-        <f>IF($N17, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N17, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (High Density PolyEthylene Pellets)</v>
       </c>
       <c r="J17" s="1" t="str">
@@ -11726,19 +11745,19 @@
         <v>384</v>
       </c>
       <c r="F18" s="1" t="str">
-        <f>IF($N18, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N18, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Hydrogenated Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="G18" s="1" t="str">
-        <f>IF($N18, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N18, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Hydrogenated Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="H18" s="1" t="str">
-        <f>IF($N18, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N18, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Hydrogenated Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="I18" s="1" t="str">
-        <f>IF($N18, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N18, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Hydrogenated Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="J18" s="1" t="str">
@@ -11778,19 +11797,19 @@
         <v>380</v>
       </c>
       <c r="F19" s="1" t="str">
-        <f>IF($N19, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N19, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="G19" s="1" t="str">
-        <f>IF($N19, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N19, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="H19" s="1" t="str">
-        <f>IF($N19, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N19, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="I19" s="1" t="str">
-        <f>IF($N19, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N19, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="J19" s="1" t="str">
@@ -11827,19 +11846,19 @@
         <v>376</v>
       </c>
       <c r="F20" s="1" t="str">
-        <f>IF($N20, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N20, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
         <v>Vial (Lignin)</v>
       </c>
       <c r="G20" s="1" t="str">
-        <f>IF($N20, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N20, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
         <v>Beaker (Lignin)</v>
       </c>
       <c r="H20" s="1" t="str">
-        <f>IF($N20, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N20, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
         <v>Drum (Lignin)</v>
       </c>
       <c r="I20" s="1" t="str">
-        <f>IF($N20, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N20, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Vat (Lignin)</v>
       </c>
       <c r="J20" s="1" t="str">
@@ -11879,19 +11898,19 @@
         <v>372</v>
       </c>
       <c r="F21" s="1" t="str">
-        <f>IF($N21, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N21, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Linear Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="G21" s="1" t="str">
-        <f>IF($N21, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N21, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Linear Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="H21" s="1" t="str">
-        <f>IF($N21, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N21, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Linear Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="I21" s="1" t="str">
-        <f>IF($N21, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N21, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Linear Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="J21" s="1" t="str">
@@ -11931,19 +11950,19 @@
         <v>368</v>
       </c>
       <c r="F22" s="1" t="str">
-        <f>IF($N22, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N22, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Liquid Crystal Polymer Pellets)</v>
       </c>
       <c r="G22" s="1" t="str">
-        <f>IF($N22, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N22, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Liquid Crystal Polymer Pellets)</v>
       </c>
       <c r="H22" s="1" t="str">
-        <f>IF($N22, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N22, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Liquid Crystal Polymer Pellets)</v>
       </c>
       <c r="I22" s="1" t="str">
-        <f>IF($N22, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N22, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Liquid Crystal Polymer Pellets)</v>
       </c>
       <c r="J22" s="1" t="str">
@@ -11983,19 +12002,19 @@
         <v>364</v>
       </c>
       <c r="F23" s="1" t="str">
-        <f>IF($N23, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N23, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Low Density PolyEthylene Pellets)</v>
       </c>
       <c r="G23" s="1" t="str">
-        <f>IF($N23, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N23, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Low Density PolyEthylene Pellets)</v>
       </c>
       <c r="H23" s="1" t="str">
-        <f>IF($N23, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N23, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Low Density PolyEthylene Pellets)</v>
       </c>
       <c r="I23" s="1" t="str">
-        <f>IF($N23, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N23, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Low Density PolyEthylene Pellets)</v>
       </c>
       <c r="J23" s="1" t="str">
@@ -12035,19 +12054,19 @@
         <v>360</v>
       </c>
       <c r="F24" s="1" t="str">
-        <f>IF($N24, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N24, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Medium Density PolyEthylene Pellets)</v>
       </c>
       <c r="G24" s="1" t="str">
-        <f>IF($N24, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N24, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Medium Density PolyEthylene Pellets)</v>
       </c>
       <c r="H24" s="1" t="str">
-        <f>IF($N24, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N24, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Medium Density PolyEthylene Pellets)</v>
       </c>
       <c r="I24" s="1" t="str">
-        <f>IF($N24, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N24, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Medium Density PolyEthylene Pellets)</v>
       </c>
       <c r="J24" s="1" t="str">
@@ -12084,19 +12103,19 @@
         <v>356</v>
       </c>
       <c r="F25" s="1" t="str">
-        <f>IF($N25, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N25, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
         <v>Vial (Melamine-Formaldehyde Polymers)</v>
       </c>
       <c r="G25" s="1" t="str">
-        <f>IF($N25, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N25, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
         <v>Beaker (Melamine-Formaldehyde Polymers)</v>
       </c>
       <c r="H25" s="1" t="str">
-        <f>IF($N25, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N25, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
         <v>Drum (Melamine-Formaldehyde Polymers)</v>
       </c>
       <c r="I25" s="1" t="str">
-        <f>IF($N25, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N25, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Vat (Melamine-Formaldehyde Polymers)</v>
       </c>
       <c r="J25" s="1" t="str">
@@ -12136,19 +12155,19 @@
         <v>352</v>
       </c>
       <c r="F26" s="1" t="str">
-        <f>IF($N26, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N26, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Metaldehyde Pellets)</v>
       </c>
       <c r="G26" s="1" t="str">
-        <f>IF($N26, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N26, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Metaldehyde Pellets)</v>
       </c>
       <c r="H26" s="1" t="str">
-        <f>IF($N26, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N26, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Metaldehyde Pellets)</v>
       </c>
       <c r="I26" s="1" t="str">
-        <f>IF($N26, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N26, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Metaldehyde Pellets)</v>
       </c>
       <c r="J26" s="1" t="str">
@@ -12188,19 +12207,19 @@
         <v>348</v>
       </c>
       <c r="F27" s="1" t="str">
-        <f>IF($N27, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N27, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="G27" s="1" t="str">
-        <f>IF($N27, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N27, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="H27" s="1" t="str">
-        <f>IF($N27, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N27, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="I27" s="1" t="str">
-        <f>IF($N27, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N27, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="J27" s="1" t="str">
@@ -12240,19 +12259,19 @@
         <v>344</v>
       </c>
       <c r="F28" s="1" t="str">
-        <f>IF($N28, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N28, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Paraformaldehyde Pellets)</v>
       </c>
       <c r="G28" s="1" t="str">
-        <f>IF($N28, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N28, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Paraformaldehyde Pellets)</v>
       </c>
       <c r="H28" s="1" t="str">
-        <f>IF($N28, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N28, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Paraformaldehyde Pellets)</v>
       </c>
       <c r="I28" s="1" t="str">
-        <f>IF($N28, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N28, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Paraformaldehyde Pellets)</v>
       </c>
       <c r="J28" s="1" t="str">
@@ -12292,19 +12311,19 @@
         <v>340</v>
       </c>
       <c r="F29" s="1" t="str">
-        <f>IF($N29, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N29, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Paraldehyde Pellets)</v>
       </c>
       <c r="G29" s="1" t="str">
-        <f>IF($N29, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N29, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Paraldehyde Pellets)</v>
       </c>
       <c r="H29" s="1" t="str">
-        <f>IF($N29, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N29, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Paraldehyde Pellets)</v>
       </c>
       <c r="I29" s="1" t="str">
-        <f>IF($N29, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N29, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Paraldehyde Pellets)</v>
       </c>
       <c r="J29" s="1" t="str">
@@ -12344,19 +12363,19 @@
         <v>336</v>
       </c>
       <c r="F30" s="1" t="str">
-        <f>IF($N30, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N30, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
         <v>Vial (Phenolic Resin)</v>
       </c>
       <c r="G30" s="1" t="str">
-        <f>IF($N30, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N30, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
         <v>Beaker (Phenolic Resin)</v>
       </c>
       <c r="H30" s="1" t="str">
-        <f>IF($N30, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N30, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
         <v>Drum (Phenolic Resin)</v>
       </c>
       <c r="I30" s="1" t="str">
-        <f>IF($N30, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N30, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Vat (Phenolic Resin)</v>
       </c>
       <c r="J30" s="1" t="str">
@@ -12396,19 +12415,19 @@
         <v>332</v>
       </c>
       <c r="F31" s="1" t="str">
-        <f>IF($N31, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N31, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Poly(3-Hydroxybutyrate-Co-3-Hydroxyvalerate) Pellets)</v>
       </c>
       <c r="G31" s="1" t="str">
-        <f>IF($N31, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N31, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Poly(3-Hydroxybutyrate-Co-3-Hydroxyvalerate) Pellets)</v>
       </c>
       <c r="H31" s="1" t="str">
-        <f>IF($N31, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N31, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Poly(3-Hydroxybutyrate-Co-3-Hydroxyvalerate) Pellets)</v>
       </c>
       <c r="I31" s="1" t="str">
-        <f>IF($N31, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N31, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Poly(3-Hydroxybutyrate-Co-3-Hydroxyvalerate) Pellets)</v>
       </c>
       <c r="J31" s="1" t="str">
@@ -12448,19 +12467,19 @@
         <v>328</v>
       </c>
       <c r="F32" s="1" t="str">
-        <f>IF($N32, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N32, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Poly1-Butene Pellets)</v>
       </c>
       <c r="G32" s="1" t="str">
-        <f>IF($N32, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N32, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Poly1-Butene Pellets)</v>
       </c>
       <c r="H32" s="1" t="str">
-        <f>IF($N32, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N32, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Poly1-Butene Pellets)</v>
       </c>
       <c r="I32" s="1" t="str">
-        <f>IF($N32, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N32, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Poly1-Butene Pellets)</v>
       </c>
       <c r="J32" s="1" t="str">
@@ -12500,19 +12519,19 @@
         <v>324</v>
       </c>
       <c r="F33" s="1" t="str">
-        <f>IF($N33, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N33, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Poly2-6-Dimethyl-1-4-Phenylene Ether Pellets)</v>
       </c>
       <c r="G33" s="1" t="str">
-        <f>IF($N33, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N33, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Poly2-6-Dimethyl-1-4-Phenylene Ether Pellets)</v>
       </c>
       <c r="H33" s="1" t="str">
-        <f>IF($N33, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N33, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Poly2-6-Dimethyl-1-4-Phenylene Ether Pellets)</v>
       </c>
       <c r="I33" s="1" t="str">
-        <f>IF($N33, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N33, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Poly2-6-Dimethyl-1-4-Phenylene Ether Pellets)</v>
       </c>
       <c r="J33" s="1" t="str">
@@ -12552,19 +12571,19 @@
         <v>320</v>
       </c>
       <c r="F34" s="1" t="str">
-        <f>IF($N34, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N34, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Poly-2-Hydroxy Butyrate Pellets)</v>
       </c>
       <c r="G34" s="1" t="str">
-        <f>IF($N34, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N34, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Poly-2-Hydroxy Butyrate Pellets)</v>
       </c>
       <c r="H34" s="1" t="str">
-        <f>IF($N34, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N34, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Poly-2-Hydroxy Butyrate Pellets)</v>
       </c>
       <c r="I34" s="1" t="str">
-        <f>IF($N34, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N34, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Poly-2-Hydroxy Butyrate Pellets)</v>
       </c>
       <c r="J34" s="1" t="str">
@@ -12604,19 +12623,19 @@
         <v>316</v>
       </c>
       <c r="F35" s="1" t="str">
-        <f>IF($N35, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N35, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Poly2-Hydroxyethyl Methacrylate Pellets)</v>
       </c>
       <c r="G35" s="1" t="str">
-        <f>IF($N35, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N35, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Poly2-Hydroxyethyl Methacrylate Pellets)</v>
       </c>
       <c r="H35" s="1" t="str">
-        <f>IF($N35, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N35, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Poly2-Hydroxyethyl Methacrylate Pellets)</v>
       </c>
       <c r="I35" s="1" t="str">
-        <f>IF($N35, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N35, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Poly2-Hydroxyethyl Methacrylate Pellets)</v>
       </c>
       <c r="J35" s="1" t="str">
@@ -12656,19 +12675,19 @@
         <v>312</v>
       </c>
       <c r="F36" s="1" t="str">
-        <f>IF($N36, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N36, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyAcrylic Acid Pellets)</v>
       </c>
       <c r="G36" s="1" t="str">
-        <f>IF($N36, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N36, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyAcrylic Acid Pellets)</v>
       </c>
       <c r="H36" s="1" t="str">
-        <f>IF($N36, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N36, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyAcrylic Acid Pellets)</v>
       </c>
       <c r="I36" s="1" t="str">
-        <f>IF($N36, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N36, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyAcrylic Acid Pellets)</v>
       </c>
       <c r="J36" s="1" t="str">
@@ -12708,19 +12727,19 @@
         <v>308</v>
       </c>
       <c r="F37" s="1" t="str">
-        <f>IF($N37, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N37, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyAcrylonitrile Pellets)</v>
       </c>
       <c r="G37" s="1" t="str">
-        <f>IF($N37, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N37, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyAcrylonitrile Pellets)</v>
       </c>
       <c r="H37" s="1" t="str">
-        <f>IF($N37, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N37, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyAcrylonitrile Pellets)</v>
       </c>
       <c r="I37" s="1" t="str">
-        <f>IF($N37, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N37, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyAcrylonitrile Pellets)</v>
       </c>
       <c r="J37" s="1" t="str">
@@ -12760,19 +12779,19 @@
         <v>304</v>
       </c>
       <c r="F38" s="1" t="str">
-        <f>IF($N38, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N38, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="G38" s="1" t="str">
-        <f>IF($N38, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N38, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="H38" s="1" t="str">
-        <f>IF($N38, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N38, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="I38" s="1" t="str">
-        <f>IF($N38, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N38, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="J38" s="1" t="str">
@@ -12812,19 +12831,19 @@
         <v>300</v>
       </c>
       <c r="F39" s="1" t="str">
-        <f>IF($N39, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N39, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyButadiene (high-cis) Pellets)</v>
       </c>
       <c r="G39" s="1" t="str">
-        <f>IF($N39, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N39, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyButadiene (high-cis) Pellets)</v>
       </c>
       <c r="H39" s="1" t="str">
-        <f>IF($N39, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N39, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyButadiene (high-cis) Pellets)</v>
       </c>
       <c r="I39" s="1" t="str">
-        <f>IF($N39, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N39, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyButadiene (high-cis) Pellets)</v>
       </c>
       <c r="J39" s="1" t="str">
@@ -12864,19 +12883,19 @@
         <v>296</v>
       </c>
       <c r="F40" s="1" t="str">
-        <f>IF($N40, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N40, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyButylene Succinate Pellets)</v>
       </c>
       <c r="G40" s="1" t="str">
-        <f>IF($N40, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N40, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyButylene Succinate Pellets)</v>
       </c>
       <c r="H40" s="1" t="str">
-        <f>IF($N40, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N40, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyButylene Succinate Pellets)</v>
       </c>
       <c r="I40" s="1" t="str">
-        <f>IF($N40, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N40, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyButylene Succinate Pellets)</v>
       </c>
       <c r="J40" s="1" t="str">
@@ -12916,19 +12935,19 @@
         <v>292</v>
       </c>
       <c r="F41" s="1" t="str">
-        <f>IF($N41, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N41, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyButylene Terephthalate Pellets)</v>
       </c>
       <c r="G41" s="1" t="str">
-        <f>IF($N41, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N41, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyButylene Terephthalate Pellets)</v>
       </c>
       <c r="H41" s="1" t="str">
-        <f>IF($N41, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N41, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyButylene Terephthalate Pellets)</v>
       </c>
       <c r="I41" s="1" t="str">
-        <f>IF($N41, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N41, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyButylene Terephthalate Pellets)</v>
       </c>
       <c r="J41" s="1" t="str">
@@ -12968,19 +12987,19 @@
         <v>288</v>
       </c>
       <c r="F42" s="1" t="str">
-        <f>IF($N42, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N42, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyCaprolactone Pellets)</v>
       </c>
       <c r="G42" s="1" t="str">
-        <f>IF($N42, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N42, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyCaprolactone Pellets)</v>
       </c>
       <c r="H42" s="1" t="str">
-        <f>IF($N42, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N42, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyCaprolactone Pellets)</v>
       </c>
       <c r="I42" s="1" t="str">
-        <f>IF($N42, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N42, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyCaprolactone Pellets)</v>
       </c>
       <c r="J42" s="1" t="str">
@@ -13020,19 +13039,19 @@
         <v>284</v>
       </c>
       <c r="F43" s="1" t="str">
-        <f>IF($N43, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N43, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyCarbonate Pellets)</v>
       </c>
       <c r="G43" s="1" t="str">
-        <f>IF($N43, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N43, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyCarbonate Pellets)</v>
       </c>
       <c r="H43" s="1" t="str">
-        <f>IF($N43, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N43, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyCarbonate Pellets)</v>
       </c>
       <c r="I43" s="1" t="str">
-        <f>IF($N43, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N43, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyCarbonate Pellets)</v>
       </c>
       <c r="J43" s="1" t="str">
@@ -13072,19 +13091,19 @@
         <v>280</v>
       </c>
       <c r="F44" s="1" t="str">
-        <f>IF($N44, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N44, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyChloroPrene Pellets)</v>
       </c>
       <c r="G44" s="1" t="str">
-        <f>IF($N44, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N44, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyChloroPrene Pellets)</v>
       </c>
       <c r="H44" s="1" t="str">
-        <f>IF($N44, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N44, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyChloroPrene Pellets)</v>
       </c>
       <c r="I44" s="1" t="str">
-        <f>IF($N44, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N44, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyChloroPrene Pellets)</v>
       </c>
       <c r="J44" s="1" t="str">
@@ -13121,19 +13140,19 @@
         <v>276</v>
       </c>
       <c r="F45" s="1" t="str">
-        <f>IF($N45, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N45, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyChlorotrifluoroethylene Pellets)</v>
       </c>
       <c r="G45" s="1" t="str">
-        <f>IF($N45, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N45, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyChlorotrifluoroethylene Pellets)</v>
       </c>
       <c r="H45" s="1" t="str">
-        <f>IF($N45, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N45, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyChlorotrifluoroethylene Pellets)</v>
       </c>
       <c r="I45" s="1" t="str">
-        <f>IF($N45, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N45, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyChlorotrifluoroethylene Pellets)</v>
       </c>
       <c r="J45" s="1" t="str">
@@ -13173,19 +13192,19 @@
         <v>272</v>
       </c>
       <c r="F46" s="1" t="str">
-        <f>IF($N46, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N46, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyDiMethylSiloxane Pellets)</v>
       </c>
       <c r="G46" s="1" t="str">
-        <f>IF($N46, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N46, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyDiMethylSiloxane Pellets)</v>
       </c>
       <c r="H46" s="1" t="str">
-        <f>IF($N46, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N46, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyDiMethylSiloxane Pellets)</v>
       </c>
       <c r="I46" s="1" t="str">
-        <f>IF($N46, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N46, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyDiMethylSiloxane Pellets)</v>
       </c>
       <c r="J46" s="1" t="str">
@@ -13225,19 +13244,19 @@
         <v>268</v>
       </c>
       <c r="F47" s="1" t="str">
-        <f>IF($N47, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N47, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEther Ether Ketone Pellets)</v>
       </c>
       <c r="G47" s="1" t="str">
-        <f>IF($N47, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N47, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEther Ether Ketone Pellets)</v>
       </c>
       <c r="H47" s="1" t="str">
-        <f>IF($N47, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N47, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEther Ether Ketone Pellets)</v>
       </c>
       <c r="I47" s="1" t="str">
-        <f>IF($N47, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N47, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEther Ether Ketone Pellets)</v>
       </c>
       <c r="J47" s="1" t="str">
@@ -13277,19 +13296,19 @@
         <v>264</v>
       </c>
       <c r="F48" s="1" t="str">
-        <f>IF($N48, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J48&amp;IF($N48, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N48, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J48&amp;IF($N48, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEtherImide Pellets)</v>
       </c>
       <c r="G48" s="1" t="str">
-        <f>IF($N48, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J48&amp;IF($N48, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N48, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J48&amp;IF($N48, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEtherImide Pellets)</v>
       </c>
       <c r="H48" s="1" t="str">
-        <f>IF($N48, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J48&amp;IF($N48, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N48, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J48&amp;IF($N48, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEtherImide Pellets)</v>
       </c>
       <c r="I48" s="1" t="str">
-        <f>IF($N48, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J48&amp;IF($N48, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N48, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J48&amp;IF($N48, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEtherImide Pellets)</v>
       </c>
       <c r="J48" s="1" t="str">
@@ -13326,19 +13345,19 @@
         <v>260</v>
       </c>
       <c r="F49" s="1" t="str">
-        <f>IF($N49, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J49&amp;IF($N49, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N49, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J49&amp;IF($N49, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthyl Acrylate Pellets)</v>
       </c>
       <c r="G49" s="1" t="str">
-        <f>IF($N49, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J49&amp;IF($N49, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N49, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J49&amp;IF($N49, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthyl Acrylate Pellets)</v>
       </c>
       <c r="H49" s="1" t="str">
-        <f>IF($N49, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J49&amp;IF($N49, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N49, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J49&amp;IF($N49, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthyl Acrylate Pellets)</v>
       </c>
       <c r="I49" s="1" t="str">
-        <f>IF($N49, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J49&amp;IF($N49, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N49, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J49&amp;IF($N49, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthyl Acrylate Pellets)</v>
       </c>
       <c r="J49" s="1" t="str">
@@ -13375,19 +13394,19 @@
         <v>256</v>
       </c>
       <c r="F50" s="1" t="str">
-        <f>IF($N50, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J50&amp;IF($N50, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N50, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J50&amp;IF($N50, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthylene Adipate Pellets)</v>
       </c>
       <c r="G50" s="1" t="str">
-        <f>IF($N50, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J50&amp;IF($N50, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N50, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J50&amp;IF($N50, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthylene Adipate Pellets)</v>
       </c>
       <c r="H50" s="1" t="str">
-        <f>IF($N50, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J50&amp;IF($N50, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N50, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J50&amp;IF($N50, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthylene Adipate Pellets)</v>
       </c>
       <c r="I50" s="1" t="str">
-        <f>IF($N50, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J50&amp;IF($N50, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N50, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J50&amp;IF($N50, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthylene Adipate Pellets)</v>
       </c>
       <c r="J50" s="1" t="str">
@@ -13427,19 +13446,19 @@
         <v>252</v>
       </c>
       <c r="F51" s="1" t="str">
-        <f>IF($N51, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J51&amp;IF($N51, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N51, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J51&amp;IF($N51, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthylene Glycol Pellets)</v>
       </c>
       <c r="G51" s="1" t="str">
-        <f>IF($N51, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J51&amp;IF($N51, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N51, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J51&amp;IF($N51, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthylene Glycol Pellets)</v>
       </c>
       <c r="H51" s="1" t="str">
-        <f>IF($N51, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J51&amp;IF($N51, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N51, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J51&amp;IF($N51, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthylene Glycol Pellets)</v>
       </c>
       <c r="I51" s="1" t="str">
-        <f>IF($N51, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J51&amp;IF($N51, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N51, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J51&amp;IF($N51, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthylene Glycol Pellets)</v>
       </c>
       <c r="J51" s="1" t="str">
@@ -13476,19 +13495,19 @@
         <v>248</v>
       </c>
       <c r="F52" s="1" t="str">
-        <f>IF($N52, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J52&amp;IF($N52, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N52, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J52&amp;IF($N52, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthylene Hexamethylene Dicarbamate Pellets)</v>
       </c>
       <c r="G52" s="1" t="str">
-        <f>IF($N52, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J52&amp;IF($N52, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N52, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J52&amp;IF($N52, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthylene Hexamethylene Dicarbamate Pellets)</v>
       </c>
       <c r="H52" s="1" t="str">
-        <f>IF($N52, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J52&amp;IF($N52, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N52, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J52&amp;IF($N52, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthylene Hexamethylene Dicarbamate Pellets)</v>
       </c>
       <c r="I52" s="1" t="str">
-        <f>IF($N52, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J52&amp;IF($N52, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N52, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J52&amp;IF($N52, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthylene Hexamethylene Dicarbamate Pellets)</v>
       </c>
       <c r="J52" s="1" t="str">
@@ -13528,19 +13547,19 @@
         <v>244</v>
       </c>
       <c r="F53" s="1" t="str">
-        <f>IF($N53, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J53&amp;IF($N53, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N53, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J53&amp;IF($N53, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthylene Naphthalate Pellets)</v>
       </c>
       <c r="G53" s="1" t="str">
-        <f>IF($N53, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J53&amp;IF($N53, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N53, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J53&amp;IF($N53, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthylene Naphthalate Pellets)</v>
       </c>
       <c r="H53" s="1" t="str">
-        <f>IF($N53, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J53&amp;IF($N53, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N53, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J53&amp;IF($N53, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthylene Naphthalate Pellets)</v>
       </c>
       <c r="I53" s="1" t="str">
-        <f>IF($N53, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J53&amp;IF($N53, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N53, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J53&amp;IF($N53, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthylene Naphthalate Pellets)</v>
       </c>
       <c r="J53" s="1" t="str">
@@ -13580,19 +13599,19 @@
         <v>240</v>
       </c>
       <c r="F54" s="1" t="str">
-        <f>IF($N54, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J54&amp;IF($N54, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N54, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J54&amp;IF($N54, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthylene Oxide Pellets)</v>
       </c>
       <c r="G54" s="1" t="str">
-        <f>IF($N54, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J54&amp;IF($N54, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N54, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J54&amp;IF($N54, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthylene Oxide Pellets)</v>
       </c>
       <c r="H54" s="1" t="str">
-        <f>IF($N54, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J54&amp;IF($N54, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N54, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J54&amp;IF($N54, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthylene Oxide Pellets)</v>
       </c>
       <c r="I54" s="1" t="str">
-        <f>IF($N54, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J54&amp;IF($N54, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N54, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J54&amp;IF($N54, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthylene Oxide Pellets)</v>
       </c>
       <c r="J54" s="1" t="str">
@@ -13632,19 +13651,19 @@
         <v>236</v>
       </c>
       <c r="F55" s="1" t="str">
-        <f>IF($N55, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J55&amp;IF($N55, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N55, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J55&amp;IF($N55, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthylene Sulphide Pellets)</v>
       </c>
       <c r="G55" s="1" t="str">
-        <f>IF($N55, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J55&amp;IF($N55, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N55, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J55&amp;IF($N55, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthylene Sulphide Pellets)</v>
       </c>
       <c r="H55" s="1" t="str">
-        <f>IF($N55, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J55&amp;IF($N55, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N55, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J55&amp;IF($N55, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthylene Sulphide Pellets)</v>
       </c>
       <c r="I55" s="1" t="str">
-        <f>IF($N55, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J55&amp;IF($N55, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N55, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J55&amp;IF($N55, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthylene Sulphide Pellets)</v>
       </c>
       <c r="J55" s="1" t="str">
@@ -13684,19 +13703,19 @@
         <v>232</v>
       </c>
       <c r="F56" s="1" t="str">
-        <f>IF($N56, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J56&amp;IF($N56, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N56, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J56&amp;IF($N56, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="G56" s="1" t="str">
-        <f>IF($N56, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J56&amp;IF($N56, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N56, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J56&amp;IF($N56, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="H56" s="1" t="str">
-        <f>IF($N56, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J56&amp;IF($N56, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N56, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J56&amp;IF($N56, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="I56" s="1" t="str">
-        <f>IF($N56, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J56&amp;IF($N56, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N56, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J56&amp;IF($N56, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="J56" s="1" t="str">
@@ -13736,19 +13755,19 @@
         <v>228</v>
       </c>
       <c r="F57" s="1" t="str">
-        <f>IF($N57, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J57&amp;IF($N57, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N57, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J57&amp;IF($N57, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEthylene Terephthalate Glycol-Modified Pellets)</v>
       </c>
       <c r="G57" s="1" t="str">
-        <f>IF($N57, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J57&amp;IF($N57, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N57, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J57&amp;IF($N57, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEthylene Terephthalate Glycol-Modified Pellets)</v>
       </c>
       <c r="H57" s="1" t="str">
-        <f>IF($N57, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J57&amp;IF($N57, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N57, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J57&amp;IF($N57, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEthylene Terephthalate Glycol-Modified Pellets)</v>
       </c>
       <c r="I57" s="1" t="str">
-        <f>IF($N57, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J57&amp;IF($N57, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N57, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J57&amp;IF($N57, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyEthylene Terephthalate Glycol-Modified Pellets)</v>
       </c>
       <c r="J57" s="1" t="str">
@@ -13788,19 +13807,19 @@
         <v>224</v>
       </c>
       <c r="F58" s="1" t="str">
-        <f>IF($N58, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J58&amp;IF($N58, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N58, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J58&amp;IF($N58, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyGlycolic Acid Pellets)</v>
       </c>
       <c r="G58" s="1" t="str">
-        <f>IF($N58, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J58&amp;IF($N58, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N58, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J58&amp;IF($N58, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyGlycolic Acid Pellets)</v>
       </c>
       <c r="H58" s="1" t="str">
-        <f>IF($N58, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J58&amp;IF($N58, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N58, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J58&amp;IF($N58, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyGlycolic Acid Pellets)</v>
       </c>
       <c r="I58" s="1" t="str">
-        <f>IF($N58, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J58&amp;IF($N58, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N58, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J58&amp;IF($N58, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyGlycolic Acid Pellets)</v>
       </c>
       <c r="J58" s="1" t="str">
@@ -13840,19 +13859,19 @@
         <v>220</v>
       </c>
       <c r="F59" s="1" t="str">
-        <f>IF($N59, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J59&amp;IF($N59, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N59, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J59&amp;IF($N59, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyHexamethylene Adipamide Pellets)</v>
       </c>
       <c r="G59" s="1" t="str">
-        <f>IF($N59, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J59&amp;IF($N59, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N59, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J59&amp;IF($N59, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyHexamethylene Adipamide Pellets)</v>
       </c>
       <c r="H59" s="1" t="str">
-        <f>IF($N59, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J59&amp;IF($N59, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N59, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J59&amp;IF($N59, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyHexamethylene Adipamide Pellets)</v>
       </c>
       <c r="I59" s="1" t="str">
-        <f>IF($N59, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J59&amp;IF($N59, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N59, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J59&amp;IF($N59, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyHexamethylene Adipamide Pellets)</v>
       </c>
       <c r="J59" s="1" t="str">
@@ -13892,19 +13911,19 @@
         <v>216</v>
       </c>
       <c r="F60" s="1" t="str">
-        <f>IF($N60, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J60&amp;IF($N60, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N60, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J60&amp;IF($N60, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyHexamethylene Sebacamide Pellets)</v>
       </c>
       <c r="G60" s="1" t="str">
-        <f>IF($N60, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J60&amp;IF($N60, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N60, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J60&amp;IF($N60, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyHexamethylene Sebacamide Pellets)</v>
       </c>
       <c r="H60" s="1" t="str">
-        <f>IF($N60, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J60&amp;IF($N60, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N60, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J60&amp;IF($N60, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyHexamethylene Sebacamide Pellets)</v>
       </c>
       <c r="I60" s="1" t="str">
-        <f>IF($N60, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J60&amp;IF($N60, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N60, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J60&amp;IF($N60, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyHexamethylene Sebacamide Pellets)</v>
       </c>
       <c r="J60" s="1" t="str">
@@ -13944,19 +13963,19 @@
         <v>212</v>
       </c>
       <c r="F61" s="1" t="str">
-        <f>IF($N61, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J61&amp;IF($N61, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N61, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J61&amp;IF($N61, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyHydroxyalkanoate Pellets)</v>
       </c>
       <c r="G61" s="1" t="str">
-        <f>IF($N61, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J61&amp;IF($N61, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N61, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J61&amp;IF($N61, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyHydroxyalkanoate Pellets)</v>
       </c>
       <c r="H61" s="1" t="str">
-        <f>IF($N61, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J61&amp;IF($N61, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N61, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J61&amp;IF($N61, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyHydroxyalkanoate Pellets)</v>
       </c>
       <c r="I61" s="1" t="str">
-        <f>IF($N61, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J61&amp;IF($N61, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N61, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J61&amp;IF($N61, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyHydroxyalkanoate Pellets)</v>
       </c>
       <c r="J61" s="1" t="str">
@@ -13993,19 +14012,19 @@
         <v>208</v>
       </c>
       <c r="F62" s="1" t="str">
-        <f>IF($N62, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J62&amp;IF($N62, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N62, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J62&amp;IF($N62, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyHydroxybutyrate-Co-Hydroxyvalerate Pellets)</v>
       </c>
       <c r="G62" s="1" t="str">
-        <f>IF($N62, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J62&amp;IF($N62, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N62, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J62&amp;IF($N62, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyHydroxybutyrate-Co-Hydroxyvalerate Pellets)</v>
       </c>
       <c r="H62" s="1" t="str">
-        <f>IF($N62, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J62&amp;IF($N62, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N62, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J62&amp;IF($N62, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyHydroxybutyrate-Co-Hydroxyvalerate Pellets)</v>
       </c>
       <c r="I62" s="1" t="str">
-        <f>IF($N62, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J62&amp;IF($N62, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N62, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J62&amp;IF($N62, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyHydroxybutyrate-Co-Hydroxyvalerate Pellets)</v>
       </c>
       <c r="J62" s="1" t="str">
@@ -14045,19 +14064,19 @@
         <v>204</v>
       </c>
       <c r="F63" s="1" t="str">
-        <f>IF($N63, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J63&amp;IF($N63, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N63, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J63&amp;IF($N63, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyImide Pellets)</v>
       </c>
       <c r="G63" s="1" t="str">
-        <f>IF($N63, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J63&amp;IF($N63, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N63, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J63&amp;IF($N63, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyImide Pellets)</v>
       </c>
       <c r="H63" s="1" t="str">
-        <f>IF($N63, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J63&amp;IF($N63, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N63, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J63&amp;IF($N63, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyImide Pellets)</v>
       </c>
       <c r="I63" s="1" t="str">
-        <f>IF($N63, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J63&amp;IF($N63, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N63, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J63&amp;IF($N63, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyImide Pellets)</v>
       </c>
       <c r="J63" s="1" t="str">
@@ -14094,19 +14113,19 @@
         <v>200</v>
       </c>
       <c r="F64" s="1" t="str">
-        <f>IF($N64, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J64&amp;IF($N64, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N64, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J64&amp;IF($N64, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyIsoBorynl Acrylate Pellets)</v>
       </c>
       <c r="G64" s="1" t="str">
-        <f>IF($N64, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J64&amp;IF($N64, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N64, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J64&amp;IF($N64, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyIsoBorynl Acrylate Pellets)</v>
       </c>
       <c r="H64" s="1" t="str">
-        <f>IF($N64, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J64&amp;IF($N64, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N64, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J64&amp;IF($N64, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyIsoBorynl Acrylate Pellets)</v>
       </c>
       <c r="I64" s="1" t="str">
-        <f>IF($N64, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J64&amp;IF($N64, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N64, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J64&amp;IF($N64, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyIsoBorynl Acrylate Pellets)</v>
       </c>
       <c r="J64" s="1" t="str">
@@ -14143,19 +14162,19 @@
         <v>196</v>
       </c>
       <c r="F65" s="1" t="str">
-        <f>IF($N65, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J65&amp;IF($N65, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N65, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J65&amp;IF($N65, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyIsoButyl Acrylate Pellets)</v>
       </c>
       <c r="G65" s="1" t="str">
-        <f>IF($N65, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J65&amp;IF($N65, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N65, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J65&amp;IF($N65, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyIsoButyl Acrylate Pellets)</v>
       </c>
       <c r="H65" s="1" t="str">
-        <f>IF($N65, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J65&amp;IF($N65, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N65, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J65&amp;IF($N65, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyIsoButyl Acrylate Pellets)</v>
       </c>
       <c r="I65" s="1" t="str">
-        <f>IF($N65, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J65&amp;IF($N65, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N65, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J65&amp;IF($N65, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyIsoButyl Acrylate Pellets)</v>
       </c>
       <c r="J65" s="1" t="str">
@@ -14195,19 +14214,19 @@
         <v>192</v>
       </c>
       <c r="F66" s="1" t="str">
-        <f>IF($N66, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J66&amp;IF($N66, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N66, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J66&amp;IF($N66, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyIsoButylene Pellets)</v>
       </c>
       <c r="G66" s="1" t="str">
-        <f>IF($N66, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J66&amp;IF($N66, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N66, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J66&amp;IF($N66, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyIsoButylene Pellets)</v>
       </c>
       <c r="H66" s="1" t="str">
-        <f>IF($N66, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J66&amp;IF($N66, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N66, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J66&amp;IF($N66, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyIsoButylene Pellets)</v>
       </c>
       <c r="I66" s="1" t="str">
-        <f>IF($N66, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J66&amp;IF($N66, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N66, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J66&amp;IF($N66, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyIsoButylene Pellets)</v>
       </c>
       <c r="J66" s="1" t="str">
@@ -14247,19 +14266,19 @@
         <v>188</v>
       </c>
       <c r="F67" s="1" t="str">
-        <f>IF($N67, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J67&amp;IF($N67, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N67, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J67&amp;IF($N67, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyIsoPrene Pellets)</v>
       </c>
       <c r="G67" s="1" t="str">
-        <f>IF($N67, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J67&amp;IF($N67, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N67, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J67&amp;IF($N67, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyIsoPrene Pellets)</v>
       </c>
       <c r="H67" s="1" t="str">
-        <f>IF($N67, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J67&amp;IF($N67, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N67, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J67&amp;IF($N67, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyIsoPrene Pellets)</v>
       </c>
       <c r="I67" s="1" t="str">
-        <f>IF($N67, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J67&amp;IF($N67, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N67, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J67&amp;IF($N67, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyIsoPrene Pellets)</v>
       </c>
       <c r="J67" s="1" t="str">
@@ -14299,19 +14318,19 @@
         <v>184</v>
       </c>
       <c r="F68" s="1" t="str">
-        <f>IF($N68, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J68&amp;IF($N68, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N68, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J68&amp;IF($N68, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyLactic Acid Pellets)</v>
       </c>
       <c r="G68" s="1" t="str">
-        <f>IF($N68, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J68&amp;IF($N68, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N68, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J68&amp;IF($N68, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyLactic Acid Pellets)</v>
       </c>
       <c r="H68" s="1" t="str">
-        <f>IF($N68, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J68&amp;IF($N68, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N68, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J68&amp;IF($N68, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyLactic Acid Pellets)</v>
       </c>
       <c r="I68" s="1" t="str">
-        <f>IF($N68, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J68&amp;IF($N68, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N68, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J68&amp;IF($N68, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyLactic Acid Pellets)</v>
       </c>
       <c r="J68" s="1" t="str">
@@ -14348,19 +14367,19 @@
         <v>180</v>
       </c>
       <c r="F69" s="1" t="str">
-        <f>IF($N69, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J69&amp;IF($N69, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N69, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J69&amp;IF($N69, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyLactic-Co-Glycolic Acid Pellets)</v>
       </c>
       <c r="G69" s="1" t="str">
-        <f>IF($N69, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J69&amp;IF($N69, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N69, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J69&amp;IF($N69, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyLactic-Co-Glycolic Acid Pellets)</v>
       </c>
       <c r="H69" s="1" t="str">
-        <f>IF($N69, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J69&amp;IF($N69, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N69, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J69&amp;IF($N69, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyLactic-Co-Glycolic Acid Pellets)</v>
       </c>
       <c r="I69" s="1" t="str">
-        <f>IF($N69, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J69&amp;IF($N69, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N69, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J69&amp;IF($N69, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyLactic-Co-Glycolic Acid Pellets)</v>
       </c>
       <c r="J69" s="1" t="str">
@@ -14400,19 +14419,19 @@
         <v>176</v>
       </c>
       <c r="F70" s="1" t="str">
-        <f>IF($N70, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J70&amp;IF($N70, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N70, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J70&amp;IF($N70, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyMethyl Acrylate Pellets)</v>
       </c>
       <c r="G70" s="1" t="str">
-        <f>IF($N70, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J70&amp;IF($N70, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N70, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J70&amp;IF($N70, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyMethyl Acrylate Pellets)</v>
       </c>
       <c r="H70" s="1" t="str">
-        <f>IF($N70, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J70&amp;IF($N70, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N70, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J70&amp;IF($N70, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyMethyl Acrylate Pellets)</v>
       </c>
       <c r="I70" s="1" t="str">
-        <f>IF($N70, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J70&amp;IF($N70, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N70, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J70&amp;IF($N70, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyMethyl Acrylate Pellets)</v>
       </c>
       <c r="J70" s="1" t="str">
@@ -14449,19 +14468,19 @@
         <v>172</v>
       </c>
       <c r="F71" s="1" t="str">
-        <f>IF($N71, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J71&amp;IF($N71, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N71, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J71&amp;IF($N71, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyMethyl Cyanoacrylate Pellets)</v>
       </c>
       <c r="G71" s="1" t="str">
-        <f>IF($N71, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J71&amp;IF($N71, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N71, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J71&amp;IF($N71, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyMethyl Cyanoacrylate Pellets)</v>
       </c>
       <c r="H71" s="1" t="str">
-        <f>IF($N71, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J71&amp;IF($N71, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N71, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J71&amp;IF($N71, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyMethyl Cyanoacrylate Pellets)</v>
       </c>
       <c r="I71" s="1" t="str">
-        <f>IF($N71, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J71&amp;IF($N71, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N71, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J71&amp;IF($N71, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyMethyl Cyanoacrylate Pellets)</v>
       </c>
       <c r="J71" s="1" t="str">
@@ -14501,19 +14520,19 @@
         <v>168</v>
       </c>
       <c r="F72" s="1" t="str">
-        <f>IF($N72, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J72&amp;IF($N72, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N72, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J72&amp;IF($N72, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyMethyl Methacrylate Pellets)</v>
       </c>
       <c r="G72" s="1" t="str">
-        <f>IF($N72, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J72&amp;IF($N72, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N72, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J72&amp;IF($N72, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyMethyl Methacrylate Pellets)</v>
       </c>
       <c r="H72" s="1" t="str">
-        <f>IF($N72, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J72&amp;IF($N72, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N72, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J72&amp;IF($N72, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyMethyl Methacrylate Pellets)</v>
       </c>
       <c r="I72" s="1" t="str">
-        <f>IF($N72, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J72&amp;IF($N72, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N72, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J72&amp;IF($N72, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyMethyl Methacrylate Pellets)</v>
       </c>
       <c r="J72" s="1" t="str">
@@ -14553,19 +14572,19 @@
         <v>164</v>
       </c>
       <c r="F73" s="1" t="str">
-        <f>IF($N73, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J73&amp;IF($N73, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N73, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J73&amp;IF($N73, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyM-Methyl Styrene Pellets)</v>
       </c>
       <c r="G73" s="1" t="str">
-        <f>IF($N73, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J73&amp;IF($N73, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N73, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J73&amp;IF($N73, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyM-Methyl Styrene Pellets)</v>
       </c>
       <c r="H73" s="1" t="str">
-        <f>IF($N73, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J73&amp;IF($N73, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N73, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J73&amp;IF($N73, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyM-Methyl Styrene Pellets)</v>
       </c>
       <c r="I73" s="1" t="str">
-        <f>IF($N73, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J73&amp;IF($N73, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N73, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J73&amp;IF($N73, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyM-Methyl Styrene Pellets)</v>
       </c>
       <c r="J73" s="1" t="str">
@@ -14605,19 +14624,19 @@
         <v>160</v>
       </c>
       <c r="F74" s="1" t="str">
-        <f>IF($N74, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J74&amp;IF($N74, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N74, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J74&amp;IF($N74, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyM-Phenylene Isophthalamide Pellets)</v>
       </c>
       <c r="G74" s="1" t="str">
-        <f>IF($N74, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J74&amp;IF($N74, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N74, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J74&amp;IF($N74, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyM-Phenylene Isophthalamide Pellets)</v>
       </c>
       <c r="H74" s="1" t="str">
-        <f>IF($N74, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J74&amp;IF($N74, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N74, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J74&amp;IF($N74, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyM-Phenylene Isophthalamide Pellets)</v>
       </c>
       <c r="I74" s="1" t="str">
-        <f>IF($N74, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J74&amp;IF($N74, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N74, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J74&amp;IF($N74, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyM-Phenylene Isophthalamide Pellets)</v>
       </c>
       <c r="J74" s="1" t="str">
@@ -14654,19 +14673,19 @@
         <v>156</v>
       </c>
       <c r="F75" s="1" t="str">
-        <f>IF($N75, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J75&amp;IF($N75, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N75, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J75&amp;IF($N75, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyN-Butyl Acrylate Pellets)</v>
       </c>
       <c r="G75" s="1" t="str">
-        <f>IF($N75, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J75&amp;IF($N75, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N75, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J75&amp;IF($N75, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyN-Butyl Acrylate Pellets)</v>
       </c>
       <c r="H75" s="1" t="str">
-        <f>IF($N75, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J75&amp;IF($N75, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N75, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J75&amp;IF($N75, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyN-Butyl Acrylate Pellets)</v>
       </c>
       <c r="I75" s="1" t="str">
-        <f>IF($N75, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J75&amp;IF($N75, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N75, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J75&amp;IF($N75, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyN-Butyl Acrylate Pellets)</v>
       </c>
       <c r="J75" s="1" t="str">
@@ -14706,19 +14725,19 @@
         <v>152</v>
       </c>
       <c r="F76" s="1" t="str">
-        <f>IF($N76, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J76&amp;IF($N76, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N76, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J76&amp;IF($N76, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyOxymethylene Pellets)</v>
       </c>
       <c r="G76" s="1" t="str">
-        <f>IF($N76, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J76&amp;IF($N76, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N76, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J76&amp;IF($N76, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyOxymethylene Pellets)</v>
       </c>
       <c r="H76" s="1" t="str">
-        <f>IF($N76, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J76&amp;IF($N76, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N76, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J76&amp;IF($N76, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyOxymethylene Pellets)</v>
       </c>
       <c r="I76" s="1" t="str">
-        <f>IF($N76, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J76&amp;IF($N76, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N76, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J76&amp;IF($N76, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyOxymethylene Pellets)</v>
       </c>
       <c r="J76" s="1" t="str">
@@ -14755,19 +14774,19 @@
         <v>148</v>
       </c>
       <c r="F77" s="1" t="str">
-        <f>IF($N77, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J77&amp;IF($N77, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N77, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J77&amp;IF($N77, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyPentamethylene Hexamethylene Dicarbamate Pellets)</v>
       </c>
       <c r="G77" s="1" t="str">
-        <f>IF($N77, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J77&amp;IF($N77, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N77, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J77&amp;IF($N77, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyPentamethylene Hexamethylene Dicarbamate Pellets)</v>
       </c>
       <c r="H77" s="1" t="str">
-        <f>IF($N77, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J77&amp;IF($N77, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N77, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J77&amp;IF($N77, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyPentamethylene Hexamethylene Dicarbamate Pellets)</v>
       </c>
       <c r="I77" s="1" t="str">
-        <f>IF($N77, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J77&amp;IF($N77, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N77, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J77&amp;IF($N77, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyPentamethylene Hexamethylene Dicarbamate Pellets)</v>
       </c>
       <c r="J77" s="1" t="str">
@@ -14807,19 +14826,19 @@
         <v>144</v>
       </c>
       <c r="F78" s="1" t="str">
-        <f>IF($N78, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J78&amp;IF($N78, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N78, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J78&amp;IF($N78, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyPhenol Pellets)</v>
       </c>
       <c r="G78" s="1" t="str">
-        <f>IF($N78, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J78&amp;IF($N78, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N78, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J78&amp;IF($N78, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyPhenol Pellets)</v>
       </c>
       <c r="H78" s="1" t="str">
-        <f>IF($N78, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J78&amp;IF($N78, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N78, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J78&amp;IF($N78, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyPhenol Pellets)</v>
       </c>
       <c r="I78" s="1" t="str">
-        <f>IF($N78, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J78&amp;IF($N78, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N78, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J78&amp;IF($N78, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyPhenol Pellets)</v>
       </c>
       <c r="J78" s="1" t="str">
@@ -14856,19 +14875,19 @@
         <v>140</v>
       </c>
       <c r="F79" s="1" t="str">
-        <f>IF($N79, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J79&amp;IF($N79, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N79, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J79&amp;IF($N79, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyPhenylene Oxide Pellets)</v>
       </c>
       <c r="G79" s="1" t="str">
-        <f>IF($N79, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J79&amp;IF($N79, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N79, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J79&amp;IF($N79, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyPhenylene Oxide Pellets)</v>
       </c>
       <c r="H79" s="1" t="str">
-        <f>IF($N79, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J79&amp;IF($N79, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N79, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J79&amp;IF($N79, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyPhenylene Oxide Pellets)</v>
       </c>
       <c r="I79" s="1" t="str">
-        <f>IF($N79, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J79&amp;IF($N79, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N79, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J79&amp;IF($N79, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyPhenylene Oxide Pellets)</v>
       </c>
       <c r="J79" s="1" t="str">
@@ -14905,19 +14924,19 @@
         <v>136</v>
       </c>
       <c r="F80" s="1" t="str">
-        <f>IF($N80, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J80&amp;IF($N80, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N80, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J80&amp;IF($N80, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyPhosphazene Pellets)</v>
       </c>
       <c r="G80" s="1" t="str">
-        <f>IF($N80, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J80&amp;IF($N80, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N80, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J80&amp;IF($N80, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyPhosphazene Pellets)</v>
       </c>
       <c r="H80" s="1" t="str">
-        <f>IF($N80, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J80&amp;IF($N80, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N80, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J80&amp;IF($N80, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyPhosphazene Pellets)</v>
       </c>
       <c r="I80" s="1" t="str">
-        <f>IF($N80, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J80&amp;IF($N80, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N80, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J80&amp;IF($N80, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyPhosphazene Pellets)</v>
       </c>
       <c r="J80" s="1" t="str">
@@ -14954,19 +14973,19 @@
         <v>132</v>
       </c>
       <c r="F81" s="1" t="str">
-        <f>IF($N81, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J81&amp;IF($N81, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N81, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J81&amp;IF($N81, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyP-Methyl Styrene Pellets)</v>
       </c>
       <c r="G81" s="1" t="str">
-        <f>IF($N81, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J81&amp;IF($N81, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N81, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J81&amp;IF($N81, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyP-Methyl Styrene Pellets)</v>
       </c>
       <c r="H81" s="1" t="str">
-        <f>IF($N81, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J81&amp;IF($N81, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N81, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J81&amp;IF($N81, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyP-Methyl Styrene Pellets)</v>
       </c>
       <c r="I81" s="1" t="str">
-        <f>IF($N81, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J81&amp;IF($N81, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N81, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J81&amp;IF($N81, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyP-Methyl Styrene Pellets)</v>
       </c>
       <c r="J81" s="1" t="str">
@@ -15003,19 +15022,19 @@
         <v>128</v>
       </c>
       <c r="F82" s="1" t="str">
-        <f>IF($N82, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J82&amp;IF($N82, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N82, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J82&amp;IF($N82, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyP-Phenylene Sulphide Pellets)</v>
       </c>
       <c r="G82" s="1" t="str">
-        <f>IF($N82, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J82&amp;IF($N82, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N82, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J82&amp;IF($N82, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyP-Phenylene Sulphide Pellets)</v>
       </c>
       <c r="H82" s="1" t="str">
-        <f>IF($N82, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J82&amp;IF($N82, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N82, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J82&amp;IF($N82, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyP-Phenylene Sulphide Pellets)</v>
       </c>
       <c r="I82" s="1" t="str">
-        <f>IF($N82, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J82&amp;IF($N82, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N82, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J82&amp;IF($N82, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyP-Phenylene Sulphide Pellets)</v>
       </c>
       <c r="J82" s="1" t="str">
@@ -15055,19 +15074,19 @@
         <v>124</v>
       </c>
       <c r="F83" s="1" t="str">
-        <f>IF($N83, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J83&amp;IF($N83, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N83, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J83&amp;IF($N83, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyP-Phenylene Terephthalamide Pellets)</v>
       </c>
       <c r="G83" s="1" t="str">
-        <f>IF($N83, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J83&amp;IF($N83, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N83, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J83&amp;IF($N83, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyP-Phenylene Terephthalamide Pellets)</v>
       </c>
       <c r="H83" s="1" t="str">
-        <f>IF($N83, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J83&amp;IF($N83, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N83, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J83&amp;IF($N83, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyP-Phenylene Terephthalamide Pellets)</v>
       </c>
       <c r="I83" s="1" t="str">
-        <f>IF($N83, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J83&amp;IF($N83, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N83, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J83&amp;IF($N83, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyP-Phenylene Terephthalamide Pellets)</v>
       </c>
       <c r="J83" s="1" t="str">
@@ -15107,19 +15126,19 @@
         <v>120</v>
       </c>
       <c r="F84" s="1" t="str">
-        <f>IF($N84, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J84&amp;IF($N84, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N84, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J84&amp;IF($N84, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyPropylene Pellets)</v>
       </c>
       <c r="G84" s="1" t="str">
-        <f>IF($N84, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J84&amp;IF($N84, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N84, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J84&amp;IF($N84, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyPropylene Pellets)</v>
       </c>
       <c r="H84" s="1" t="str">
-        <f>IF($N84, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J84&amp;IF($N84, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N84, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J84&amp;IF($N84, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyPropylene Pellets)</v>
       </c>
       <c r="I84" s="1" t="str">
-        <f>IF($N84, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J84&amp;IF($N84, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N84, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J84&amp;IF($N84, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyPropylene Pellets)</v>
       </c>
       <c r="J84" s="1" t="str">
@@ -15156,19 +15175,19 @@
         <v>116</v>
       </c>
       <c r="F85" s="1" t="str">
-        <f>IF($N85, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J85&amp;IF($N85, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N85, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J85&amp;IF($N85, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyPropylene Glycol Pellets)</v>
       </c>
       <c r="G85" s="1" t="str">
-        <f>IF($N85, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J85&amp;IF($N85, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N85, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J85&amp;IF($N85, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyPropylene Glycol Pellets)</v>
       </c>
       <c r="H85" s="1" t="str">
-        <f>IF($N85, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J85&amp;IF($N85, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N85, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J85&amp;IF($N85, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyPropylene Glycol Pellets)</v>
       </c>
       <c r="I85" s="1" t="str">
-        <f>IF($N85, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J85&amp;IF($N85, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N85, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J85&amp;IF($N85, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyPropylene Glycol Pellets)</v>
       </c>
       <c r="J85" s="1" t="str">
@@ -15205,19 +15224,19 @@
         <v>112</v>
       </c>
       <c r="F86" s="1" t="str">
-        <f>IF($N86, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J86&amp;IF($N86, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N86, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J86&amp;IF($N86, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyPropylene Oxide Pellets)</v>
       </c>
       <c r="G86" s="1" t="str">
-        <f>IF($N86, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J86&amp;IF($N86, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N86, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J86&amp;IF($N86, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyPropylene Oxide Pellets)</v>
       </c>
       <c r="H86" s="1" t="str">
-        <f>IF($N86, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J86&amp;IF($N86, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N86, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J86&amp;IF($N86, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyPropylene Oxide Pellets)</v>
       </c>
       <c r="I86" s="1" t="str">
-        <f>IF($N86, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J86&amp;IF($N86, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N86, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J86&amp;IF($N86, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyPropylene Oxide Pellets)</v>
       </c>
       <c r="J86" s="1" t="str">
@@ -15257,19 +15276,19 @@
         <v>108</v>
       </c>
       <c r="F87" s="1" t="str">
-        <f>IF($N87, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J87&amp;IF($N87, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N87, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J87&amp;IF($N87, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyStyrene Pellets)</v>
       </c>
       <c r="G87" s="1" t="str">
-        <f>IF($N87, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J87&amp;IF($N87, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N87, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J87&amp;IF($N87, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyStyrene Pellets)</v>
       </c>
       <c r="H87" s="1" t="str">
-        <f>IF($N87, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J87&amp;IF($N87, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N87, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J87&amp;IF($N87, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyStyrene Pellets)</v>
       </c>
       <c r="I87" s="1" t="str">
-        <f>IF($N87, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J87&amp;IF($N87, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N87, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J87&amp;IF($N87, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyStyrene Pellets)</v>
       </c>
       <c r="J87" s="1" t="str">
@@ -15306,19 +15325,19 @@
         <v>104</v>
       </c>
       <c r="F88" s="1" t="str">
-        <f>IF($N88, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J88&amp;IF($N88, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N88, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J88&amp;IF($N88, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyTert-Butyl Acrylate Pellets)</v>
       </c>
       <c r="G88" s="1" t="str">
-        <f>IF($N88, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J88&amp;IF($N88, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N88, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J88&amp;IF($N88, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyTert-Butyl Acrylate Pellets)</v>
       </c>
       <c r="H88" s="1" t="str">
-        <f>IF($N88, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J88&amp;IF($N88, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N88, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J88&amp;IF($N88, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyTert-Butyl Acrylate Pellets)</v>
       </c>
       <c r="I88" s="1" t="str">
-        <f>IF($N88, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J88&amp;IF($N88, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N88, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J88&amp;IF($N88, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyTert-Butyl Acrylate Pellets)</v>
       </c>
       <c r="J88" s="1" t="str">
@@ -15358,19 +15377,19 @@
         <v>100</v>
       </c>
       <c r="F89" s="1" t="str">
-        <f>IF($N89, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J89&amp;IF($N89, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N89, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J89&amp;IF($N89, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyTetraFluoroEthylene Pellets)</v>
       </c>
       <c r="G89" s="1" t="str">
-        <f>IF($N89, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J89&amp;IF($N89, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N89, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J89&amp;IF($N89, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyTetraFluoroEthylene Pellets)</v>
       </c>
       <c r="H89" s="1" t="str">
-        <f>IF($N89, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J89&amp;IF($N89, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N89, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J89&amp;IF($N89, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyTetraFluoroEthylene Pellets)</v>
       </c>
       <c r="I89" s="1" t="str">
-        <f>IF($N89, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J89&amp;IF($N89, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N89, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J89&amp;IF($N89, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyTetraFluoroEthylene Pellets)</v>
       </c>
       <c r="J89" s="1" t="str">
@@ -15407,19 +15426,19 @@
         <v>96</v>
       </c>
       <c r="F90" s="1" t="str">
-        <f>IF($N90, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J90&amp;IF($N90, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N90, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J90&amp;IF($N90, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyTetramethylene Ether Glycol Pellets)</v>
       </c>
       <c r="G90" s="1" t="str">
-        <f>IF($N90, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J90&amp;IF($N90, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N90, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J90&amp;IF($N90, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyTetramethylene Ether Glycol Pellets)</v>
       </c>
       <c r="H90" s="1" t="str">
-        <f>IF($N90, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J90&amp;IF($N90, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N90, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J90&amp;IF($N90, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyTetramethylene Ether Glycol Pellets)</v>
       </c>
       <c r="I90" s="1" t="str">
-        <f>IF($N90, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J90&amp;IF($N90, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N90, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J90&amp;IF($N90, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyTetramethylene Ether Glycol Pellets)</v>
       </c>
       <c r="J90" s="1" t="str">
@@ -15456,19 +15475,19 @@
         <v>92</v>
       </c>
       <c r="F91" s="1" t="str">
-        <f>IF($N91, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J91&amp;IF($N91, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N91, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J91&amp;IF($N91, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyTetramethylene Glycol Pellets)</v>
       </c>
       <c r="G91" s="1" t="str">
-        <f>IF($N91, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J91&amp;IF($N91, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N91, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J91&amp;IF($N91, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyTetramethylene Glycol Pellets)</v>
       </c>
       <c r="H91" s="1" t="str">
-        <f>IF($N91, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J91&amp;IF($N91, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N91, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J91&amp;IF($N91, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyTetramethylene Glycol Pellets)</v>
       </c>
       <c r="I91" s="1" t="str">
-        <f>IF($N91, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J91&amp;IF($N91, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N91, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J91&amp;IF($N91, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyTetramethylene Glycol Pellets)</v>
       </c>
       <c r="J91" s="1" t="str">
@@ -15505,19 +15524,19 @@
         <v>88</v>
       </c>
       <c r="F92" s="1" t="str">
-        <f>IF($N92, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J92&amp;IF($N92, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N92, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J92&amp;IF($N92, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyThiazyl Pellets)</v>
       </c>
       <c r="G92" s="1" t="str">
-        <f>IF($N92, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J92&amp;IF($N92, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N92, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J92&amp;IF($N92, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyThiazyl Pellets)</v>
       </c>
       <c r="H92" s="1" t="str">
-        <f>IF($N92, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J92&amp;IF($N92, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N92, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J92&amp;IF($N92, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyThiazyl Pellets)</v>
       </c>
       <c r="I92" s="1" t="str">
-        <f>IF($N92, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J92&amp;IF($N92, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N92, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J92&amp;IF($N92, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyThiazyl Pellets)</v>
       </c>
       <c r="J92" s="1" t="str">
@@ -15557,19 +15576,19 @@
         <v>84</v>
       </c>
       <c r="F93" s="1" t="str">
-        <f>IF($N93, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J93&amp;IF($N93, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N93, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J93&amp;IF($N93, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyTrimethylene Terephthalate Pellets)</v>
       </c>
       <c r="G93" s="1" t="str">
-        <f>IF($N93, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J93&amp;IF($N93, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N93, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J93&amp;IF($N93, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyTrimethylene Terephthalate Pellets)</v>
       </c>
       <c r="H93" s="1" t="str">
-        <f>IF($N93, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J93&amp;IF($N93, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N93, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J93&amp;IF($N93, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyTrimethylene Terephthalate Pellets)</v>
       </c>
       <c r="I93" s="1" t="str">
-        <f>IF($N93, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J93&amp;IF($N93, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N93, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J93&amp;IF($N93, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyTrimethylene Terephthalate Pellets)</v>
       </c>
       <c r="J93" s="1" t="str">
@@ -15609,19 +15628,19 @@
         <v>80</v>
       </c>
       <c r="F94" s="1" t="str">
-        <f>IF($N94, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J94&amp;IF($N94, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N94, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J94&amp;IF($N94, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyUrethane Pellets)</v>
       </c>
       <c r="G94" s="1" t="str">
-        <f>IF($N94, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J94&amp;IF($N94, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N94, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J94&amp;IF($N94, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyUrethane Pellets)</v>
       </c>
       <c r="H94" s="1" t="str">
-        <f>IF($N94, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J94&amp;IF($N94, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N94, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J94&amp;IF($N94, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyUrethane Pellets)</v>
       </c>
       <c r="I94" s="1" t="str">
-        <f>IF($N94, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J94&amp;IF($N94, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N94, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J94&amp;IF($N94, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyUrethane Pellets)</v>
       </c>
       <c r="J94" s="1" t="str">
@@ -15661,19 +15680,19 @@
         <v>76</v>
       </c>
       <c r="F95" s="1" t="str">
-        <f>IF($N95, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J95&amp;IF($N95, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N95, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J95&amp;IF($N95, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinyl Acetate Pellets)</v>
       </c>
       <c r="G95" s="1" t="str">
-        <f>IF($N95, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J95&amp;IF($N95, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N95, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J95&amp;IF($N95, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinyl Acetate Pellets)</v>
       </c>
       <c r="H95" s="1" t="str">
-        <f>IF($N95, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J95&amp;IF($N95, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N95, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J95&amp;IF($N95, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinyl Acetate Pellets)</v>
       </c>
       <c r="I95" s="1" t="str">
-        <f>IF($N95, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J95&amp;IF($N95, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N95, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J95&amp;IF($N95, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinyl Acetate Pellets)</v>
       </c>
       <c r="J95" s="1" t="str">
@@ -15713,19 +15732,19 @@
         <v>72</v>
       </c>
       <c r="F96" s="1" t="str">
-        <f>IF($N96, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J96&amp;IF($N96, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N96, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J96&amp;IF($N96, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinyl Alcohol Pellets)</v>
       </c>
       <c r="G96" s="1" t="str">
-        <f>IF($N96, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J96&amp;IF($N96, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N96, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J96&amp;IF($N96, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinyl Alcohol Pellets)</v>
       </c>
       <c r="H96" s="1" t="str">
-        <f>IF($N96, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J96&amp;IF($N96, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N96, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J96&amp;IF($N96, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinyl Alcohol Pellets)</v>
       </c>
       <c r="I96" s="1" t="str">
-        <f>IF($N96, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J96&amp;IF($N96, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N96, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J96&amp;IF($N96, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinyl Alcohol Pellets)</v>
       </c>
       <c r="J96" s="1" t="str">
@@ -15762,19 +15781,19 @@
         <v>68</v>
       </c>
       <c r="F97" s="1" t="str">
-        <f>IF($N97, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J97&amp;IF($N97, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N97, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J97&amp;IF($N97, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinyl Butyral Pellets)</v>
       </c>
       <c r="G97" s="1" t="str">
-        <f>IF($N97, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J97&amp;IF($N97, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N97, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J97&amp;IF($N97, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinyl Butyral Pellets)</v>
       </c>
       <c r="H97" s="1" t="str">
-        <f>IF($N97, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J97&amp;IF($N97, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N97, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J97&amp;IF($N97, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinyl Butyral Pellets)</v>
       </c>
       <c r="I97" s="1" t="str">
-        <f>IF($N97, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J97&amp;IF($N97, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N97, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J97&amp;IF($N97, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinyl Butyral Pellets)</v>
       </c>
       <c r="J97" s="1" t="str">
@@ -15814,19 +15833,19 @@
         <v>64</v>
       </c>
       <c r="F98" s="1" t="str">
-        <f>IF($N98, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J98&amp;IF($N98, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N98, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J98&amp;IF($N98, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinyl Chloride Pellets)</v>
       </c>
       <c r="G98" s="1" t="str">
-        <f>IF($N98, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J98&amp;IF($N98, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N98, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J98&amp;IF($N98, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinyl Chloride Pellets)</v>
       </c>
       <c r="H98" s="1" t="str">
-        <f>IF($N98, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J98&amp;IF($N98, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N98, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J98&amp;IF($N98, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinyl Chloride Pellets)</v>
       </c>
       <c r="I98" s="1" t="str">
-        <f>IF($N98, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J98&amp;IF($N98, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N98, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J98&amp;IF($N98, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinyl Chloride Pellets)</v>
       </c>
       <c r="J98" s="1" t="str">
@@ -15866,19 +15885,19 @@
         <v>60</v>
       </c>
       <c r="F99" s="1" t="str">
-        <f>IF($N99, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J99&amp;IF($N99, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N99, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J99&amp;IF($N99, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinyl Chloride Acetate Pellets)</v>
       </c>
       <c r="G99" s="1" t="str">
-        <f>IF($N99, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J99&amp;IF($N99, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N99, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J99&amp;IF($N99, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinyl Chloride Acetate Pellets)</v>
       </c>
       <c r="H99" s="1" t="str">
-        <f>IF($N99, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J99&amp;IF($N99, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N99, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J99&amp;IF($N99, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinyl Chloride Acetate Pellets)</v>
       </c>
       <c r="I99" s="1" t="str">
-        <f>IF($N99, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J99&amp;IF($N99, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N99, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J99&amp;IF($N99, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinyl Chloride Acetate Pellets)</v>
       </c>
       <c r="J99" s="1" t="str">
@@ -15915,19 +15934,19 @@
         <v>56</v>
       </c>
       <c r="F100" s="1" t="str">
-        <f>IF($N100, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J100&amp;IF($N100, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N100, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J100&amp;IF($N100, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinyl Fluoride Pellets)</v>
       </c>
       <c r="G100" s="1" t="str">
-        <f>IF($N100, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J100&amp;IF($N100, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N100, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J100&amp;IF($N100, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinyl Fluoride Pellets)</v>
       </c>
       <c r="H100" s="1" t="str">
-        <f>IF($N100, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J100&amp;IF($N100, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N100, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J100&amp;IF($N100, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinyl Fluoride Pellets)</v>
       </c>
       <c r="I100" s="1" t="str">
-        <f>IF($N100, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J100&amp;IF($N100, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N100, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J100&amp;IF($N100, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinyl Fluoride Pellets)</v>
       </c>
       <c r="J100" s="1" t="str">
@@ -15964,19 +15983,19 @@
         <v>52</v>
       </c>
       <c r="F101" s="1" t="str">
-        <f>IF($N101, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J101&amp;IF($N101, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N101, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J101&amp;IF($N101, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinyl Formal Pellets)</v>
       </c>
       <c r="G101" s="1" t="str">
-        <f>IF($N101, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J101&amp;IF($N101, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N101, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J101&amp;IF($N101, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinyl Formal Pellets)</v>
       </c>
       <c r="H101" s="1" t="str">
-        <f>IF($N101, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J101&amp;IF($N101, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N101, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J101&amp;IF($N101, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinyl Formal Pellets)</v>
       </c>
       <c r="I101" s="1" t="str">
-        <f>IF($N101, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J101&amp;IF($N101, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N101, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J101&amp;IF($N101, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinyl Formal Pellets)</v>
       </c>
       <c r="J101" s="1" t="str">
@@ -16013,19 +16032,19 @@
         <v>48</v>
       </c>
       <c r="F102" s="1" t="str">
-        <f>IF($N102, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J102&amp;IF($N102, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N102, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J102&amp;IF($N102, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinyl Methyl Ether Pellets)</v>
       </c>
       <c r="G102" s="1" t="str">
-        <f>IF($N102, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J102&amp;IF($N102, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N102, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J102&amp;IF($N102, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinyl Methyl Ether Pellets)</v>
       </c>
       <c r="H102" s="1" t="str">
-        <f>IF($N102, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J102&amp;IF($N102, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N102, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J102&amp;IF($N102, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinyl Methyl Ether Pellets)</v>
       </c>
       <c r="I102" s="1" t="str">
-        <f>IF($N102, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J102&amp;IF($N102, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N102, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J102&amp;IF($N102, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinyl Methyl Ether Pellets)</v>
       </c>
       <c r="J102" s="1" t="str">
@@ -16062,19 +16081,19 @@
         <v>44</v>
       </c>
       <c r="F103" s="1" t="str">
-        <f>IF($N103, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J103&amp;IF($N103, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N103, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J103&amp;IF($N103, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinylidene Dichloride Pellets)</v>
       </c>
       <c r="G103" s="1" t="str">
-        <f>IF($N103, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J103&amp;IF($N103, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N103, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J103&amp;IF($N103, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinylidene Dichloride Pellets)</v>
       </c>
       <c r="H103" s="1" t="str">
-        <f>IF($N103, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J103&amp;IF($N103, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N103, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J103&amp;IF($N103, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinylidene Dichloride Pellets)</v>
       </c>
       <c r="I103" s="1" t="str">
-        <f>IF($N103, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J103&amp;IF($N103, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N103, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J103&amp;IF($N103, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinylidene Dichloride Pellets)</v>
       </c>
       <c r="J103" s="1" t="str">
@@ -16111,19 +16130,19 @@
         <v>40</v>
       </c>
       <c r="F104" s="1" t="str">
-        <f>IF($N104, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J104&amp;IF($N104, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N104, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J104&amp;IF($N104, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinylidene Fluoride Pellets)</v>
       </c>
       <c r="G104" s="1" t="str">
-        <f>IF($N104, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J104&amp;IF($N104, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N104, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J104&amp;IF($N104, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinylidene Fluoride Pellets)</v>
       </c>
       <c r="H104" s="1" t="str">
-        <f>IF($N104, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J104&amp;IF($N104, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N104, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J104&amp;IF($N104, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinylidene Fluoride Pellets)</v>
       </c>
       <c r="I104" s="1" t="str">
-        <f>IF($N104, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J104&amp;IF($N104, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N104, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J104&amp;IF($N104, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinylidene Fluoride Pellets)</v>
       </c>
       <c r="J104" s="1" t="str">
@@ -16160,19 +16179,19 @@
         <v>36</v>
       </c>
       <c r="F105" s="1" t="str">
-        <f>IF($N105, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J105&amp;IF($N105, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N105, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J105&amp;IF($N105, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyVinylidene Fluoride-Trifluoroethylene Pellets)</v>
       </c>
       <c r="G105" s="1" t="str">
-        <f>IF($N105, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J105&amp;IF($N105, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N105, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J105&amp;IF($N105, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyVinylidene Fluoride-Trifluoroethylene Pellets)</v>
       </c>
       <c r="H105" s="1" t="str">
-        <f>IF($N105, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J105&amp;IF($N105, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N105, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J105&amp;IF($N105, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyVinylidene Fluoride-Trifluoroethylene Pellets)</v>
       </c>
       <c r="I105" s="1" t="str">
-        <f>IF($N105, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J105&amp;IF($N105, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N105, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J105&amp;IF($N105, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyVinylidene Fluoride-Trifluoroethylene Pellets)</v>
       </c>
       <c r="J105" s="1" t="str">
@@ -16212,19 +16231,19 @@
         <v>32</v>
       </c>
       <c r="F106" s="1" t="str">
-        <f>IF($N106, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J106&amp;IF($N106, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N106, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J106&amp;IF($N106, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Styrene-Acrylonitrile Pellets)</v>
       </c>
       <c r="G106" s="1" t="str">
-        <f>IF($N106, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J106&amp;IF($N106, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N106, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J106&amp;IF($N106, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Styrene-Acrylonitrile Pellets)</v>
       </c>
       <c r="H106" s="1" t="str">
-        <f>IF($N106, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J106&amp;IF($N106, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N106, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J106&amp;IF($N106, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Styrene-Acrylonitrile Pellets)</v>
       </c>
       <c r="I106" s="1" t="str">
-        <f>IF($N106, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J106&amp;IF($N106, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N106, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J106&amp;IF($N106, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Styrene-Acrylonitrile Pellets)</v>
       </c>
       <c r="J106" s="1" t="str">
@@ -16264,19 +16283,19 @@
         <v>28</v>
       </c>
       <c r="F107" s="1" t="str">
-        <f>IF($N107, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J107&amp;IF($N107, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N107, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J107&amp;IF($N107, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Styrene-Butadiene Rubber Pellets)</v>
       </c>
       <c r="G107" s="1" t="str">
-        <f>IF($N107, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J107&amp;IF($N107, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N107, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J107&amp;IF($N107, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Styrene-Butadiene Rubber Pellets)</v>
       </c>
       <c r="H107" s="1" t="str">
-        <f>IF($N107, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J107&amp;IF($N107, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N107, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J107&amp;IF($N107, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Styrene-Butadiene Rubber Pellets)</v>
       </c>
       <c r="I107" s="1" t="str">
-        <f>IF($N107, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J107&amp;IF($N107, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N107, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J107&amp;IF($N107, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Styrene-Butadiene Rubber Pellets)</v>
       </c>
       <c r="J107" s="1" t="str">
@@ -16316,19 +16335,19 @@
         <v>24</v>
       </c>
       <c r="F108" s="1" t="str">
-        <f>IF($N108, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J108&amp;IF($N108, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N108, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J108&amp;IF($N108, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Styrene-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="G108" s="1" t="str">
-        <f>IF($N108, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J108&amp;IF($N108, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N108, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J108&amp;IF($N108, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Styrene-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="H108" s="1" t="str">
-        <f>IF($N108, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J108&amp;IF($N108, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N108, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J108&amp;IF($N108, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Styrene-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="I108" s="1" t="str">
-        <f>IF($N108, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J108&amp;IF($N108, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N108, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J108&amp;IF($N108, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Styrene-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="J108" s="1" t="str">
@@ -16368,19 +16387,19 @@
         <v>20</v>
       </c>
       <c r="F109" s="1" t="str">
-        <f>IF($N109, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J109&amp;IF($N109, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N109, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J109&amp;IF($N109, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Styrene-Isoprene-Styrene Pellets)</v>
       </c>
       <c r="G109" s="1" t="str">
-        <f>IF($N109, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J109&amp;IF($N109, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N109, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J109&amp;IF($N109, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Styrene-Isoprene-Styrene Pellets)</v>
       </c>
       <c r="H109" s="1" t="str">
-        <f>IF($N109, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J109&amp;IF($N109, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N109, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J109&amp;IF($N109, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Styrene-Isoprene-Styrene Pellets)</v>
       </c>
       <c r="I109" s="1" t="str">
-        <f>IF($N109, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J109&amp;IF($N109, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N109, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J109&amp;IF($N109, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Styrene-Isoprene-Styrene Pellets)</v>
       </c>
       <c r="J109" s="1" t="str">
@@ -16417,19 +16436,19 @@
         <v>16</v>
       </c>
       <c r="F110" s="1" t="str">
-        <f>IF($N110, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J110&amp;IF($N110, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N110, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J110&amp;IF($N110, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Styrene-Maleic Anhydride Copolymer Pellets)</v>
       </c>
       <c r="G110" s="1" t="str">
-        <f>IF($N110, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J110&amp;IF($N110, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N110, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J110&amp;IF($N110, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Styrene-Maleic Anhydride Copolymer Pellets)</v>
       </c>
       <c r="H110" s="1" t="str">
-        <f>IF($N110, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J110&amp;IF($N110, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N110, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J110&amp;IF($N110, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Styrene-Maleic Anhydride Copolymer Pellets)</v>
       </c>
       <c r="I110" s="1" t="str">
-        <f>IF($N110, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J110&amp;IF($N110, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N110, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J110&amp;IF($N110, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Styrene-Maleic Anhydride Copolymer Pellets)</v>
       </c>
       <c r="J110" s="1" t="str">
@@ -16469,19 +16488,19 @@
         <v>12</v>
       </c>
       <c r="F111" s="1" t="str">
-        <f>IF($N111, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J111&amp;IF($N111, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N111, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J111&amp;IF($N111, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Ultra-High-Molecular-Weight PolyEthylene Pellets)</v>
       </c>
       <c r="G111" s="1" t="str">
-        <f>IF($N111, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J111&amp;IF($N111, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N111, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J111&amp;IF($N111, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Ultra-High-Molecular-Weight PolyEthylene Pellets)</v>
       </c>
       <c r="H111" s="1" t="str">
-        <f>IF($N111, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J111&amp;IF($N111, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N111, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J111&amp;IF($N111, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Ultra-High-Molecular-Weight PolyEthylene Pellets)</v>
       </c>
       <c r="I111" s="1" t="str">
-        <f>IF($N111, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J111&amp;IF($N111, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N111, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J111&amp;IF($N111, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Ultra-High-Molecular-Weight PolyEthylene Pellets)</v>
       </c>
       <c r="J111" s="1" t="str">
@@ -16518,19 +16537,19 @@
         <v>8</v>
       </c>
       <c r="F112" s="1" t="str">
-        <f>IF($N112, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J112&amp;IF($N112, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N112, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J112&amp;IF($N112, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Urea-Formaldehyde Polymers Pellets)</v>
       </c>
       <c r="G112" s="1" t="str">
-        <f>IF($N112, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J112&amp;IF($N112, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N112, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J112&amp;IF($N112, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Urea-Formaldehyde Polymers Pellets)</v>
       </c>
       <c r="H112" s="1" t="str">
-        <f>IF($N112, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J112&amp;IF($N112, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N112, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J112&amp;IF($N112, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Urea-Formaldehyde Polymers Pellets)</v>
       </c>
       <c r="I112" s="1" t="str">
-        <f>IF($N112, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J112&amp;IF($N112, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N112, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J112&amp;IF($N112, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Urea-Formaldehyde Polymers Pellets)</v>
       </c>
       <c r="J112" s="1" t="str">
@@ -16570,19 +16589,19 @@
         <v>4</v>
       </c>
       <c r="F113" s="1" t="str">
-        <f>IF($N113, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J113&amp;IF($N113, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N113, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J113&amp;IF($N113, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Very-Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="G113" s="1" t="str">
-        <f>IF($N113, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J113&amp;IF($N113, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N113, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J113&amp;IF($N113, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Very-Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="H113" s="1" t="str">
-        <f>IF($N113, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J113&amp;IF($N113, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N113, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J113&amp;IF($N113, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Very-Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="I113" s="1" t="str">
-        <f>IF($N113, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J113&amp;IF($N113, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N113, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J113&amp;IF($N113, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Very-Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="J113" s="1" t="str">
@@ -16622,19 +16641,19 @@
         <v>0</v>
       </c>
       <c r="F114" s="1" t="str">
-        <f>IF($N114, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J114&amp;IF($N114, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N114, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J114&amp;IF($N114, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Vinyl Acetate-Acrylic Acid Pellets)</v>
       </c>
       <c r="G114" s="1" t="str">
-        <f>IF($N114, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J114&amp;IF($N114, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N114, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J114&amp;IF($N114, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Vinyl Acetate-Acrylic Acid Pellets)</v>
       </c>
       <c r="H114" s="1" t="str">
-        <f>IF($N114, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J114&amp;IF($N114, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N114, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J114&amp;IF($N114, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Vinyl Acetate-Acrylic Acid Pellets)</v>
       </c>
       <c r="I114" s="1" t="str">
-        <f>IF($N114, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J114&amp;IF($N114, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N114, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J114&amp;IF($N114, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Vinyl Acetate-Acrylic Acid Pellets)</v>
       </c>
       <c r="J114" s="1" t="str">
@@ -16674,19 +16693,19 @@
         <v>1853</v>
       </c>
       <c r="F115" s="1" t="str">
-        <f>IF($N115, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N115, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Polycaprolactam Pellets)</v>
       </c>
       <c r="G115" s="1" t="str">
-        <f>IF($N115, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N115, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Polycaprolactam Pellets)</v>
       </c>
       <c r="H115" s="1" t="str">
-        <f>IF($N115, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N115, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Polycaprolactam Pellets)</v>
       </c>
       <c r="I115" s="1" t="str">
-        <f>IF($N115, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N115, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J115&amp;IF($N115, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Polycaprolactam Pellets)</v>
       </c>
       <c r="J115" s="1" t="str">
@@ -16726,19 +16745,19 @@
         <v>2412</v>
       </c>
       <c r="F116" s="1" t="str">
-        <f>IF($N116, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J116&amp;IF($N116, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N116, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J116&amp;IF($N116, " "&amp;$J$1, "")&amp;")"</f>
         <v>Vial (Epoxy-Carbon Fiber Resin)</v>
       </c>
       <c r="G116" s="1" t="str">
-        <f>IF($N116, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J116&amp;IF($N116, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N116, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J116&amp;IF($N116, " "&amp;$J$1, "")&amp;")"</f>
         <v>Beaker (Epoxy-Carbon Fiber Resin)</v>
       </c>
       <c r="H116" s="1" t="str">
-        <f>IF($N116, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J116&amp;IF($N116, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N116, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J116&amp;IF($N116, " "&amp;$J$1, "")&amp;")"</f>
         <v>Drum (Epoxy-Carbon Fiber Resin)</v>
       </c>
       <c r="I116" s="1" t="str">
-        <f>IF($N116, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J116&amp;IF($N116, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N116, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J116&amp;IF($N116, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Vat (Epoxy-Carbon Fiber Resin)</v>
       </c>
       <c r="J116" s="1" t="str">
@@ -16778,19 +16797,19 @@
         <v>2416</v>
       </c>
       <c r="F117" s="1" t="str">
-        <f>IF($N117, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J117&amp;IF($N117, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N117, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J117&amp;IF($N117, " "&amp;$J$1, "")&amp;")"</f>
         <v>Vial (Phenolic-Carbon Fiber Resin)</v>
       </c>
       <c r="G117" s="1" t="str">
-        <f>IF($N117, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J117&amp;IF($N117, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N117, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J117&amp;IF($N117, " "&amp;$J$1, "")&amp;")"</f>
         <v>Beaker (Phenolic-Carbon Fiber Resin)</v>
       </c>
       <c r="H117" s="1" t="str">
-        <f>IF($N117, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J117&amp;IF($N117, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N117, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J117&amp;IF($N117, " "&amp;$J$1, "")&amp;")"</f>
         <v>Drum (Phenolic-Carbon Fiber Resin)</v>
       </c>
       <c r="I117" s="1" t="str">
-        <f>IF($N117, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J117&amp;IF($N117, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N117, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J117&amp;IF($N117, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Vat (Phenolic-Carbon Fiber Resin)</v>
       </c>
       <c r="J117" s="1" t="str">
@@ -16830,19 +16849,19 @@
         <v>2420</v>
       </c>
       <c r="F118" s="1" t="str">
-        <f>IF($N118, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J118&amp;IF($N118, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N118, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J118&amp;IF($N118, " "&amp;$J$1, "")&amp;")"</f>
         <v>Vial (Negative Photoresist)</v>
       </c>
       <c r="G118" s="1" t="str">
-        <f>IF($N118, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J118&amp;IF($N118, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N118, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J118&amp;IF($N118, " "&amp;$J$1, "")&amp;")"</f>
         <v>Beaker (Negative Photoresist)</v>
       </c>
       <c r="H118" s="1" t="str">
-        <f>IF($N118, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J118&amp;IF($N118, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N118, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J118&amp;IF($N118, " "&amp;$J$1, "")&amp;")"</f>
         <v>Drum (Negative Photoresist)</v>
       </c>
       <c r="I118" s="1" t="str">
-        <f>IF($N118, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J118&amp;IF($N118, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N118, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J118&amp;IF($N118, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Vat (Negative Photoresist)</v>
       </c>
       <c r="J118" s="1" t="str">
@@ -16882,19 +16901,19 @@
         <v>2424</v>
       </c>
       <c r="F119" s="1" t="str">
-        <f>IF($N119, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J119&amp;IF($N119, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N119, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J119&amp;IF($N119, " "&amp;$J$1, "")&amp;")"</f>
         <v>Vial (Positive Photoresist)</v>
       </c>
       <c r="G119" s="1" t="str">
-        <f>IF($N119, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J119&amp;IF($N119, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N119, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J119&amp;IF($N119, " "&amp;$J$1, "")&amp;")"</f>
         <v>Beaker (Positive Photoresist)</v>
       </c>
       <c r="H119" s="1" t="str">
-        <f>IF($N119, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J119&amp;IF($N119, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N119, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J119&amp;IF($N119, " "&amp;$J$1, "")&amp;")"</f>
         <v>Drum (Positive Photoresist)</v>
       </c>
       <c r="I119" s="1" t="str">
-        <f>IF($N119, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J119&amp;IF($N119, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N119, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J119&amp;IF($N119, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Vat (Positive Photoresist)</v>
       </c>
       <c r="J119" s="1" t="str">
@@ -17809,11 +17828,11 @@
         <v>2651</v>
       </c>
       <c r="C1" s="7" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="D1" s="7" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$79</f>
+        <f xml:space="preserve"> [1]Enums!$B$80</f>
         <v>Mold Type</v>
       </c>
       <c r="E1" s="19" t="str">
@@ -17849,7 +17868,7 @@
         <v>Mask (Solar Cell)[PR Backplane]</v>
       </c>
       <c r="D2" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E2" s="15" t="str">
@@ -17873,7 +17892,7 @@
         <v>Mask (Solar Cell)[PR Semiconductor]</v>
       </c>
       <c r="D3" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E3" s="15" t="str">
@@ -17897,7 +17916,7 @@
         <v>Mask (Solar Cell)[PR Dielectric]</v>
       </c>
       <c r="D4" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E4" s="15" t="str">
@@ -17921,7 +17940,7 @@
         <v>Mask (Solar Cell)[PR Traces]</v>
       </c>
       <c r="D5" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E5" s="15" t="str">
@@ -17945,7 +17964,7 @@
         <v>Mask (Solar Cell)[PR Encapsulation]</v>
       </c>
       <c r="D6" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E6" s="15" t="str">
@@ -17969,7 +17988,7 @@
         <v>Mask (Processor)[PR Backplane]</v>
       </c>
       <c r="D7" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E7" s="15" t="str">
@@ -17993,7 +18012,7 @@
         <v>Mask (Processor)[PR n-Type Semiconductor]</v>
       </c>
       <c r="D8" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E8" s="15" t="str">
@@ -18017,7 +18036,7 @@
         <v>Mask (Processor)[PR p-Type Semiconductor]</v>
       </c>
       <c r="D9" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E9" s="15" t="str">
@@ -18041,7 +18060,7 @@
         <v>Mask (Processor)[PR Dielectric]</v>
       </c>
       <c r="D10" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E10" s="15" t="str">
@@ -18065,7 +18084,7 @@
         <v>Mask (Processor)[PR Inner Traces]</v>
       </c>
       <c r="D11" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E11" s="15" t="str">
@@ -18089,7 +18108,7 @@
         <v>Mask (Processor)[PR Through Vias]</v>
       </c>
       <c r="D12" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E12" s="15" t="str">
@@ -18113,7 +18132,7 @@
         <v>Mask (Processor)[PR Outer Traces]</v>
       </c>
       <c r="D13" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E13" s="15" t="str">
@@ -18137,7 +18156,7 @@
         <v>Mask (Processor)[PR Encapsulation]</v>
       </c>
       <c r="D14" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E14" s="15" t="str">
@@ -18161,7 +18180,7 @@
         <v>Mask (Temperature Sensor)[PR Backplane]</v>
       </c>
       <c r="D15" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E15" s="15" t="str">
@@ -18185,7 +18204,7 @@
         <v>Mask (Temperature Sensor)[PR Semiconductor]</v>
       </c>
       <c r="D16" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E16" s="15" t="str">
@@ -18209,7 +18228,7 @@
         <v>Mask (Temperature Sensor)[PR Dielectric]</v>
       </c>
       <c r="D17" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E17" s="15" t="str">
@@ -18233,7 +18252,7 @@
         <v>Mask (Temperature Sensor)[PR Traces]</v>
       </c>
       <c r="D18" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E18" s="15" t="str">
@@ -18257,7 +18276,7 @@
         <v>Mask (Temperature Sensor)[PR Encapsulation]</v>
       </c>
       <c r="D19" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E19" s="15" t="str">
@@ -18281,7 +18300,7 @@
         <v>Mask (Pressure Sensor)[PR Backplane]</v>
       </c>
       <c r="D20" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E20" s="15" t="str">
@@ -18305,7 +18324,7 @@
         <v>Mask (Pressure Sensor)[PR Semiconductor]</v>
       </c>
       <c r="D21" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E21" s="15" t="str">
@@ -18329,7 +18348,7 @@
         <v>Mask (Pressure Sensor)[PR Dielectric]</v>
       </c>
       <c r="D22" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E22" s="15" t="str">
@@ -18353,7 +18372,7 @@
         <v>Mask (Pressure Sensor)[PR Traces]</v>
       </c>
       <c r="D23" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E23" s="15" t="str">
@@ -18377,7 +18396,7 @@
         <v>Mask (Pressure Sensor)[PR Encapsulation]</v>
       </c>
       <c r="D24" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E24" s="15" t="str">
@@ -18401,7 +18420,7 @@
         <v>Mask (Low Power Radio)[PR Backplane]</v>
       </c>
       <c r="D25" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E25" s="15" t="str">
@@ -18425,7 +18444,7 @@
         <v>Mask (Low Power Radio)[PR n-Type Semiconductor]</v>
       </c>
       <c r="D26" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E26" s="15" t="str">
@@ -18449,7 +18468,7 @@
         <v>Mask (Low Power Radio)[PR p-Type Semiconductor]</v>
       </c>
       <c r="D27" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E27" s="15" t="str">
@@ -18473,7 +18492,7 @@
         <v>Mask (Low Power Radio)[PR Dielectric]</v>
       </c>
       <c r="D28" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E28" s="15" t="str">
@@ -18497,7 +18516,7 @@
         <v>Mask (Low Power Radio)[PR Inner Traces]</v>
       </c>
       <c r="D29" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E29" s="15" t="str">
@@ -18521,7 +18540,7 @@
         <v>Mask (Low Power Radio)[PR Through Vias]</v>
       </c>
       <c r="D30" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E30" s="15" t="str">
@@ -18545,7 +18564,7 @@
         <v>Mask (Low Power Radio)[PR Outer Traces]</v>
       </c>
       <c r="D31" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E31" s="15" t="str">
@@ -18569,7 +18588,7 @@
         <v>Mask (Low Power Radio)[PR Encapsulation]</v>
       </c>
       <c r="D32" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E32" s="15" t="str">
@@ -18593,7 +18612,7 @@
         <v>Mask (DSP)[PR Backplane]</v>
       </c>
       <c r="D33" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E33" s="15" t="str">
@@ -18617,7 +18636,7 @@
         <v>Mask (DSP)[PR n-Type Semiconductor]</v>
       </c>
       <c r="D34" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E34" s="15" t="str">
@@ -18641,7 +18660,7 @@
         <v>Mask (DSP)[PR p-Type Semiconductor]</v>
       </c>
       <c r="D35" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E35" s="15" t="str">
@@ -18665,7 +18684,7 @@
         <v>Mask (DSP)[PR Dielectric]</v>
       </c>
       <c r="D36" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E36" s="15" t="str">
@@ -18689,7 +18708,7 @@
         <v>Mask (DSP)[PR Inner Traces]</v>
       </c>
       <c r="D37" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E37" s="15" t="str">
@@ -18713,7 +18732,7 @@
         <v>Mask (DSP)[PR Through Vias]</v>
       </c>
       <c r="D38" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E38" s="15" t="str">
@@ -18737,7 +18756,7 @@
         <v>Mask (DSP)[PR Outer Traces]</v>
       </c>
       <c r="D39" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E39" s="15" t="str">
@@ -18761,7 +18780,7 @@
         <v>Mask (DSP)[PR Encapsulation]</v>
       </c>
       <c r="D40" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E40" s="15" t="str">
@@ -18785,7 +18804,7 @@
         <v>Mask (Digital Analog Convertor)[PR Backplane]</v>
       </c>
       <c r="D41" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E41" s="15" t="str">
@@ -18809,7 +18828,7 @@
         <v>Mask (Digital Analog Convertor)[PR Semiconductor]</v>
       </c>
       <c r="D42" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E42" s="15" t="str">
@@ -18833,7 +18852,7 @@
         <v>Mask (Digital Analog Convertor)[PR Dielectric]</v>
       </c>
       <c r="D43" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E43" s="15" t="str">
@@ -18857,7 +18876,7 @@
         <v>Mask (Digital Analog Convertor)[PR Traces]</v>
       </c>
       <c r="D44" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E44" s="15" t="str">
@@ -18881,7 +18900,7 @@
         <v>Mask (Digital Analog Convertor)[PR Encapsulation]</v>
       </c>
       <c r="D45" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E45" s="15" t="str">
@@ -18905,7 +18924,7 @@
         <v>Mask (Amplifier)[PR Backplane]</v>
       </c>
       <c r="D46" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E46" s="15" t="str">
@@ -18929,7 +18948,7 @@
         <v>Mask (Amplifier)[PR Semiconductor]</v>
       </c>
       <c r="D47" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E47" s="15" t="str">
@@ -18953,7 +18972,7 @@
         <v>Mask (Amplifier)[PR Dielectric]</v>
       </c>
       <c r="D48" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E48" s="15" t="str">
@@ -18977,7 +18996,7 @@
         <v>Mask (Amplifier)[PR Traces]</v>
       </c>
       <c r="D49" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E49" s="15" t="str">
@@ -19001,7 +19020,7 @@
         <v>Mask (Amplifier)[PR Encapsulation]</v>
       </c>
       <c r="D50" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E50" s="15" t="str">
@@ -19025,7 +19044,7 @@
         <v>Mask (OLED Array)[PR Backplane]</v>
       </c>
       <c r="D51" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E51" s="15" t="str">
@@ -19049,7 +19068,7 @@
         <v>Mask (OLED Array)[PR Semiconductor]</v>
       </c>
       <c r="D52" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E52" s="15" t="str">
@@ -19073,7 +19092,7 @@
         <v>Mask (OLED Array)[PR Dielectric]</v>
       </c>
       <c r="D53" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E53" s="15" t="str">
@@ -19097,7 +19116,7 @@
         <v>Mask (OLED Array)[PR Traces]</v>
       </c>
       <c r="D54" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E54" s="15" t="str">
@@ -19121,7 +19140,7 @@
         <v>Mask (OLED Array)[PR Encapsulation]</v>
       </c>
       <c r="D55" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$92</f>
+        <f xml:space="preserve"> [1]Enums!$B$93</f>
         <v>Mask</v>
       </c>
       <c r="E55" s="15" t="str">
@@ -19174,7 +19193,7 @@
   </sheetPr>
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
@@ -25388,7 +25407,7 @@
         <v>Steel Ingot</v>
       </c>
       <c r="I2" s="45" t="str">
-        <f>[1]Enums!$A$145&amp;" "&amp;VLOOKUP(H2, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$146&amp;" "&amp;VLOOKUP(H2, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Composite Steel</v>
       </c>
       <c r="J2" s="45">
@@ -25436,7 +25455,7 @@
         <v>Stainless Steel Ingot</v>
       </c>
       <c r="I3" s="45" t="str">
-        <f>[1]Enums!$A$145&amp;" "&amp;VLOOKUP(H3, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$146&amp;" "&amp;VLOOKUP(H3, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Composite Stainless Steel</v>
       </c>
       <c r="J3" s="45">
@@ -25484,7 +25503,7 @@
         <v>Brass Ingot</v>
       </c>
       <c r="I4" s="45" t="str">
-        <f>[1]Enums!$A$145&amp;" "&amp;VLOOKUP(H4, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$146&amp;" "&amp;VLOOKUP(H4, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Composite Brass</v>
       </c>
       <c r="J4" s="45">
@@ -25532,7 +25551,7 @@
         <v>Bronze Ingot</v>
       </c>
       <c r="I5" s="45" t="str">
-        <f>[1]Enums!$A$145&amp;" "&amp;VLOOKUP(H5, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$146&amp;" "&amp;VLOOKUP(H5, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Composite Bronze</v>
       </c>
       <c r="J5" s="45">
@@ -25580,7 +25599,7 @@
         <v>Tungsten Carbide Ingot</v>
       </c>
       <c r="I6" s="45" t="str">
-        <f>[1]Enums!$A$145&amp;" "&amp;VLOOKUP(H6, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$146&amp;" "&amp;VLOOKUP(H6, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Composite Tungsten Carbide</v>
       </c>
       <c r="J6" s="45">
@@ -25628,7 +25647,7 @@
         <v>Nichrome Ingot</v>
       </c>
       <c r="I7" s="45" t="str">
-        <f>[1]Enums!$A$145&amp;" "&amp;VLOOKUP(H7, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$146&amp;" "&amp;VLOOKUP(H7, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Composite Nichrome</v>
       </c>
       <c r="J7" s="45">
@@ -25676,7 +25695,7 @@
         <v>Antimony-Lead Ingot</v>
       </c>
       <c r="I8" s="45" t="str">
-        <f>[1]Enums!$A$145&amp;" "&amp;VLOOKUP(H8, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$146&amp;" "&amp;VLOOKUP(H8, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Composite Antimony-Lead</v>
       </c>
       <c r="J8" s="45">
@@ -25724,7 +25743,7 @@
         <v>Steel Ingot</v>
       </c>
       <c r="I9" s="45" t="str">
-        <f>[1]Enums!$A$146&amp;" "&amp;VLOOKUP(H9, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$147&amp;" "&amp;VLOOKUP(H9, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Engineered Steel</v>
       </c>
       <c r="J9" s="45">
@@ -25772,7 +25791,7 @@
         <v>Stainless Steel Ingot</v>
       </c>
       <c r="I10" s="45" t="str">
-        <f>[1]Enums!$A$146&amp;" "&amp;VLOOKUP(H10, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$147&amp;" "&amp;VLOOKUP(H10, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Engineered Stainless Steel</v>
       </c>
       <c r="J10" s="45">
@@ -25820,7 +25839,7 @@
         <v>Brass Ingot</v>
       </c>
       <c r="I11" s="45" t="str">
-        <f>[1]Enums!$A$146&amp;" "&amp;VLOOKUP(H11, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$147&amp;" "&amp;VLOOKUP(H11, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Engineered Brass</v>
       </c>
       <c r="J11" s="45">
@@ -25868,7 +25887,7 @@
         <v>Bronze Ingot</v>
       </c>
       <c r="I12" s="45" t="str">
-        <f>[1]Enums!$A$146&amp;" "&amp;VLOOKUP(H12, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$147&amp;" "&amp;VLOOKUP(H12, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Engineered Bronze</v>
       </c>
       <c r="J12" s="45">
@@ -25916,7 +25935,7 @@
         <v>Tungsten Carbide Ingot</v>
       </c>
       <c r="I13" s="45" t="str">
-        <f>[1]Enums!$A$146&amp;" "&amp;VLOOKUP(H13, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$147&amp;" "&amp;VLOOKUP(H13, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Engineered Tungsten Carbide</v>
       </c>
       <c r="J13" s="45">
@@ -25964,7 +25983,7 @@
         <v>Nichrome Ingot</v>
       </c>
       <c r="I14" s="45" t="str">
-        <f>[1]Enums!$A$146&amp;" "&amp;VLOOKUP(H14, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$147&amp;" "&amp;VLOOKUP(H14, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Engineered Nichrome</v>
       </c>
       <c r="J14" s="45">
@@ -26012,7 +26031,7 @@
         <v>Antimony-Lead Ingot</v>
       </c>
       <c r="I15" s="45" t="str">
-        <f>[1]Enums!$A$146&amp;" "&amp;VLOOKUP(H15, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
+        <f>[1]Enums!$A$147&amp;" "&amp;VLOOKUP(H15, [2]Ingots!$C$2:$E$39, 3,FALSE)</f>
         <v>Engineered Antimony-Lead</v>
       </c>
       <c r="J15" s="45">
@@ -26060,7 +26079,7 @@
         <v>Iron Ingot</v>
       </c>
       <c r="I16" s="45" t="str">
-        <f>[1]Enums!$A$145&amp;" Iron"</f>
+        <f>[1]Enums!$A$146&amp;" Iron"</f>
         <v>Composite Iron</v>
       </c>
       <c r="J16" s="45">
@@ -26108,7 +26127,7 @@
         <v>Iron Ingot</v>
       </c>
       <c r="I17" s="45" t="str">
-        <f>[1]Enums!$A$146&amp;" Iron"</f>
+        <f>[1]Enums!$A$147&amp;" Iron"</f>
         <v>Engineered Iron</v>
       </c>
       <c r="J17" s="45">
@@ -26156,7 +26175,7 @@
         <v>Diamond</v>
       </c>
       <c r="I18" s="45" t="str">
-        <f>[1]Enums!$A$145&amp;" Diamond"</f>
+        <f>[1]Enums!$A$146&amp;" Diamond"</f>
         <v>Composite Diamond</v>
       </c>
       <c r="J18" s="45">
@@ -26204,7 +26223,7 @@
         <v>Diamond</v>
       </c>
       <c r="I19" s="45" t="str">
-        <f>[1]Enums!$A$146&amp;" Diamond"</f>
+        <f>[1]Enums!$A$147&amp;" Diamond"</f>
         <v>Engineered Diamond</v>
       </c>
       <c r="J19" s="45">
@@ -26505,7 +26524,7 @@
         <v>Molded Item</v>
       </c>
       <c r="F1" s="36" t="str">
-        <f xml:space="preserve"> [1]Enums!$A$110</f>
+        <f xml:space="preserve"> [1]Enums!$A$111</f>
         <v>Base Material</v>
       </c>
       <c r="G1" s="30" t="s">
@@ -26533,7 +26552,7 @@
         <v>1812</v>
       </c>
       <c r="C2" s="22" t="str">
-        <f>[1]Enums!$A$107&amp;" "&amp;D2</f>
+        <f>[1]Enums!$A$108&amp;" "&amp;D2</f>
         <v>Gripped Iron Shovel</v>
       </c>
       <c r="D2" s="24" t="str">
@@ -26545,7 +26564,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F2" s="34" t="str">
-        <f>[1]Enums!$A$113</f>
+        <f>[1]Enums!$A$114</f>
         <v>Iron</v>
       </c>
       <c r="G2" s="24">
@@ -26570,7 +26589,7 @@
         <v>1811</v>
       </c>
       <c r="C3" s="22" t="str">
-        <f>[1]Enums!$A$107&amp;" "&amp;D3</f>
+        <f>[1]Enums!$A$108&amp;" "&amp;D3</f>
         <v>Gripped Iron Pickaxe</v>
       </c>
       <c r="D3" s="21" t="str">
@@ -26582,7 +26601,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F3" s="34" t="str">
-        <f>[1]Enums!$A$113</f>
+        <f>[1]Enums!$A$114</f>
         <v>Iron</v>
       </c>
       <c r="G3" s="24">
@@ -26607,7 +26626,7 @@
         <v>1810</v>
       </c>
       <c r="C4" s="22" t="str">
-        <f>[1]Enums!$A$107&amp;" "&amp;D4</f>
+        <f>[1]Enums!$A$108&amp;" "&amp;D4</f>
         <v>Gripped Iron Axe</v>
       </c>
       <c r="D4" s="21" t="str">
@@ -26619,7 +26638,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F4" s="34" t="str">
-        <f>[1]Enums!$A$113</f>
+        <f>[1]Enums!$A$114</f>
         <v>Iron</v>
       </c>
       <c r="G4" s="24">
@@ -26644,7 +26663,7 @@
         <v>1809</v>
       </c>
       <c r="C5" s="22" t="str">
-        <f>[1]Enums!$A$107&amp;" "&amp;D5</f>
+        <f>[1]Enums!$A$108&amp;" "&amp;D5</f>
         <v>Gripped Iron Sword</v>
       </c>
       <c r="D5" s="21" t="str">
@@ -26656,7 +26675,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F5" s="34" t="str">
-        <f>[1]Enums!$A$113</f>
+        <f>[1]Enums!$A$114</f>
         <v>Iron</v>
       </c>
       <c r="G5" s="24">
@@ -26681,7 +26700,7 @@
         <v>1808</v>
       </c>
       <c r="C6" s="22" t="str">
-        <f>[1]Enums!$A$107&amp;" "&amp;D6</f>
+        <f>[1]Enums!$A$108&amp;" "&amp;D6</f>
         <v>Gripped Wooden Sword</v>
       </c>
       <c r="D6" s="21" t="str">
@@ -26693,7 +26712,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F6" s="34" t="str">
-        <f>[1]Enums!$A$111</f>
+        <f>[1]Enums!$A$112</f>
         <v>Wooden</v>
       </c>
       <c r="G6" s="24">
@@ -26718,7 +26737,7 @@
         <v>1807</v>
       </c>
       <c r="C7" s="22" t="str">
-        <f>[1]Enums!$A$107&amp;" "&amp;D7</f>
+        <f>[1]Enums!$A$108&amp;" "&amp;D7</f>
         <v>Gripped Wooden Shovel</v>
       </c>
       <c r="D7" s="21" t="str">
@@ -26730,7 +26749,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F7" s="34" t="str">
-        <f>[1]Enums!$A$111</f>
+        <f>[1]Enums!$A$112</f>
         <v>Wooden</v>
       </c>
       <c r="G7" s="24">
@@ -26755,7 +26774,7 @@
         <v>1806</v>
       </c>
       <c r="C8" s="22" t="str">
-        <f>[1]Enums!$A$107&amp;" "&amp;D8</f>
+        <f>[1]Enums!$A$108&amp;" "&amp;D8</f>
         <v>Gripped Wooden Pickaxe</v>
       </c>
       <c r="D8" s="21" t="str">
@@ -26767,7 +26786,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F8" s="34" t="str">
-        <f>[1]Enums!$A$111</f>
+        <f>[1]Enums!$A$112</f>
         <v>Wooden</v>
       </c>
       <c r="G8" s="24">
@@ -26792,7 +26811,7 @@
         <v>1805</v>
       </c>
       <c r="C9" s="22" t="str">
-        <f>[1]Enums!$A$107&amp;" "&amp;D9</f>
+        <f>[1]Enums!$A$108&amp;" "&amp;D9</f>
         <v>Gripped Wooden Axe</v>
       </c>
       <c r="D9" s="21" t="str">
@@ -26804,7 +26823,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F9" s="34" t="str">
-        <f>[1]Enums!$A$111</f>
+        <f>[1]Enums!$A$112</f>
         <v>Wooden</v>
       </c>
       <c r="G9" s="24">
@@ -26829,7 +26848,7 @@
         <v>1804</v>
       </c>
       <c r="C10" s="22" t="str">
-        <f>[1]Enums!$A$107&amp;" "&amp;D10</f>
+        <f>[1]Enums!$A$108&amp;" "&amp;D10</f>
         <v>Gripped Stone Sword</v>
       </c>
       <c r="D10" s="21" t="str">
@@ -26841,7 +26860,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F10" s="34" t="str">
-        <f>[1]Enums!$A$112</f>
+        <f>[1]Enums!$A$113</f>
         <v>Stone</v>
       </c>
       <c r="G10" s="24">
@@ -26866,7 +26885,7 @@
         <v>1803</v>
       </c>
       <c r="C11" s="22" t="str">
-        <f>[1]Enums!$A$107&amp;" "&amp;D11</f>
+        <f>[1]Enums!$A$108&amp;" "&amp;D11</f>
         <v>Gripped Stone Shovel</v>
       </c>
       <c r="D11" s="21" t="str">
@@ -26878,7 +26897,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F11" s="34" t="str">
-        <f>[1]Enums!$A$112</f>
+        <f>[1]Enums!$A$113</f>
         <v>Stone</v>
       </c>
       <c r="G11" s="24">
@@ -26903,7 +26922,7 @@
         <v>1802</v>
       </c>
       <c r="C12" s="22" t="str">
-        <f>[1]Enums!$A$107&amp;" "&amp;D12</f>
+        <f>[1]Enums!$A$108&amp;" "&amp;D12</f>
         <v>Gripped Stone Pickaxe</v>
       </c>
       <c r="D12" s="21" t="str">
@@ -26915,7 +26934,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F12" s="34" t="str">
-        <f>[1]Enums!$A$112</f>
+        <f>[1]Enums!$A$113</f>
         <v>Stone</v>
       </c>
       <c r="G12" s="24">
@@ -26940,7 +26959,7 @@
         <v>1801</v>
       </c>
       <c r="C13" s="22" t="str">
-        <f>[1]Enums!$A$107&amp;" "&amp;D13</f>
+        <f>[1]Enums!$A$108&amp;" "&amp;D13</f>
         <v>Gripped Stone Axe</v>
       </c>
       <c r="D13" s="21" t="str">
@@ -26952,7 +26971,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F13" s="34" t="str">
-        <f>[1]Enums!$A$112</f>
+        <f>[1]Enums!$A$113</f>
         <v>Stone</v>
       </c>
       <c r="G13" s="24">
@@ -26977,7 +26996,7 @@
         <v>1800</v>
       </c>
       <c r="C14" s="22" t="str">
-        <f>[1]Enums!$A$107&amp;" "&amp;D14</f>
+        <f>[1]Enums!$A$108&amp;" "&amp;D14</f>
         <v>Gripped Diamond Sword</v>
       </c>
       <c r="D14" s="21" t="str">
@@ -26989,7 +27008,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F14" s="34" t="str">
-        <f>[1]Enums!$A$115</f>
+        <f>[1]Enums!$A$116</f>
         <v>Diamond</v>
       </c>
       <c r="G14" s="24">
@@ -27014,7 +27033,7 @@
         <v>1799</v>
       </c>
       <c r="C15" s="22" t="str">
-        <f>[1]Enums!$A$107&amp;" "&amp;D15</f>
+        <f>[1]Enums!$A$108&amp;" "&amp;D15</f>
         <v>Gripped Diamond Shovel</v>
       </c>
       <c r="D15" s="21" t="str">
@@ -27026,7 +27045,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F15" s="34" t="str">
-        <f>[1]Enums!$A$115</f>
+        <f>[1]Enums!$A$116</f>
         <v>Diamond</v>
       </c>
       <c r="G15" s="24">
@@ -27051,7 +27070,7 @@
         <v>1798</v>
       </c>
       <c r="C16" s="22" t="str">
-        <f>[1]Enums!$A$107&amp;" "&amp;D16</f>
+        <f>[1]Enums!$A$108&amp;" "&amp;D16</f>
         <v>Gripped Diamond Pickaxe</v>
       </c>
       <c r="D16" s="21" t="str">
@@ -27063,7 +27082,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F16" s="34" t="str">
-        <f>[1]Enums!$A$115</f>
+        <f>[1]Enums!$A$116</f>
         <v>Diamond</v>
       </c>
       <c r="G16" s="24">
@@ -27088,7 +27107,7 @@
         <v>1797</v>
       </c>
       <c r="C17" s="22" t="str">
-        <f>[1]Enums!$A$107&amp;" "&amp;D17</f>
+        <f>[1]Enums!$A$108&amp;" "&amp;D17</f>
         <v>Gripped Diamond Axe</v>
       </c>
       <c r="D17" s="21" t="str">
@@ -27100,7 +27119,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F17" s="34" t="str">
-        <f>[1]Enums!$A$115</f>
+        <f>[1]Enums!$A$116</f>
         <v>Diamond</v>
       </c>
       <c r="G17" s="24">
@@ -27125,7 +27144,7 @@
         <v>1796</v>
       </c>
       <c r="C18" s="22" t="str">
-        <f>[1]Enums!$A$107&amp;" "&amp;D18</f>
+        <f>[1]Enums!$A$108&amp;" "&amp;D18</f>
         <v>Gripped Golden Sword</v>
       </c>
       <c r="D18" s="21" t="str">
@@ -27137,7 +27156,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F18" s="34" t="str">
-        <f>[1]Enums!$A$114</f>
+        <f>[1]Enums!$A$115</f>
         <v>Golden</v>
       </c>
       <c r="G18" s="24">
@@ -27162,7 +27181,7 @@
         <v>1795</v>
       </c>
       <c r="C19" s="22" t="str">
-        <f>[1]Enums!$A$107&amp;" "&amp;D19</f>
+        <f>[1]Enums!$A$108&amp;" "&amp;D19</f>
         <v>Gripped Golden Shovel</v>
       </c>
       <c r="D19" s="21" t="str">
@@ -27174,7 +27193,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F19" s="34" t="str">
-        <f>[1]Enums!$A$114</f>
+        <f>[1]Enums!$A$115</f>
         <v>Golden</v>
       </c>
       <c r="G19" s="24">
@@ -27199,7 +27218,7 @@
         <v>1794</v>
       </c>
       <c r="C20" s="22" t="str">
-        <f>[1]Enums!$A$107&amp;" "&amp;D20</f>
+        <f>[1]Enums!$A$108&amp;" "&amp;D20</f>
         <v>Gripped Golden Pickaxe</v>
       </c>
       <c r="D20" s="21" t="str">
@@ -27211,7 +27230,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F20" s="34" t="str">
-        <f>[1]Enums!$A$114</f>
+        <f>[1]Enums!$A$115</f>
         <v>Golden</v>
       </c>
       <c r="G20" s="24">
@@ -27236,7 +27255,7 @@
         <v>1793</v>
       </c>
       <c r="C21" s="22" t="str">
-        <f>[1]Enums!$A$107&amp;" "&amp;D21</f>
+        <f>[1]Enums!$A$108&amp;" "&amp;D21</f>
         <v>Gripped Golden Axe</v>
       </c>
       <c r="D21" s="21" t="str">
@@ -27248,7 +27267,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F21" s="34" t="str">
-        <f>[1]Enums!$A$114</f>
+        <f>[1]Enums!$A$115</f>
         <v>Golden</v>
       </c>
       <c r="G21" s="24">
@@ -27273,7 +27292,7 @@
         <v>1792</v>
       </c>
       <c r="C22" s="22" t="str">
-        <f>[1]Enums!$A$107&amp;" "&amp;D22</f>
+        <f>[1]Enums!$A$108&amp;" "&amp;D22</f>
         <v>Gripped Wooden Hoe</v>
       </c>
       <c r="D22" s="21" t="str">
@@ -27285,7 +27304,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F22" s="34" t="str">
-        <f>[1]Enums!$A$111</f>
+        <f>[1]Enums!$A$112</f>
         <v>Wooden</v>
       </c>
       <c r="G22" s="24">
@@ -27310,7 +27329,7 @@
         <v>1791</v>
       </c>
       <c r="C23" s="22" t="str">
-        <f>[1]Enums!$A$107&amp;" "&amp;D23</f>
+        <f>[1]Enums!$A$108&amp;" "&amp;D23</f>
         <v>Gripped Stone Hoe</v>
       </c>
       <c r="D23" s="21" t="str">
@@ -27322,7 +27341,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F23" s="34" t="str">
-        <f>[1]Enums!$A$112</f>
+        <f>[1]Enums!$A$113</f>
         <v>Stone</v>
       </c>
       <c r="G23" s="24">
@@ -27347,7 +27366,7 @@
         <v>1790</v>
       </c>
       <c r="C24" s="22" t="str">
-        <f>[1]Enums!$A$107&amp;" "&amp;D24</f>
+        <f>[1]Enums!$A$108&amp;" "&amp;D24</f>
         <v>Gripped Iron Hoe</v>
       </c>
       <c r="D24" s="21" t="str">
@@ -27359,7 +27378,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F24" s="34" t="str">
-        <f>[1]Enums!$A$113</f>
+        <f>[1]Enums!$A$114</f>
         <v>Iron</v>
       </c>
       <c r="G24" s="24">
@@ -27384,7 +27403,7 @@
         <v>1789</v>
       </c>
       <c r="C25" s="22" t="str">
-        <f>[1]Enums!$A$107&amp;" "&amp;D25</f>
+        <f>[1]Enums!$A$108&amp;" "&amp;D25</f>
         <v>Gripped Diamond Hoe</v>
       </c>
       <c r="D25" s="21" t="str">
@@ -27396,7 +27415,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F25" s="34" t="str">
-        <f>[1]Enums!$A$115</f>
+        <f>[1]Enums!$A$116</f>
         <v>Diamond</v>
       </c>
       <c r="G25" s="24">
@@ -27421,7 +27440,7 @@
         <v>1788</v>
       </c>
       <c r="C26" s="22" t="str">
-        <f>[1]Enums!$A$107&amp;" "&amp;D26</f>
+        <f>[1]Enums!$A$108&amp;" "&amp;D26</f>
         <v>Gripped Golden Hoe</v>
       </c>
       <c r="D26" s="21" t="str">
@@ -27433,7 +27452,7 @@
         <v>Grip (Natural Rubber)</v>
       </c>
       <c r="F26" s="34" t="str">
-        <f>[1]Enums!$A$114</f>
+        <f>[1]Enums!$A$115</f>
         <v>Golden</v>
       </c>
       <c r="G26" s="24">
@@ -27495,7 +27514,7 @@
         <v>1832</v>
       </c>
       <c r="D1" s="36" t="str">
-        <f xml:space="preserve"> [1]Enums!$A$110</f>
+        <f xml:space="preserve"> [1]Enums!$A$111</f>
         <v>Base Material</v>
       </c>
       <c r="E1" s="36" t="s">
@@ -27541,7 +27560,7 @@
         <v>Wooden Pogo Stick</v>
       </c>
       <c r="D2" s="34" t="str">
-        <f>[1]Enums!$A$111</f>
+        <f>[1]Enums!$A$112</f>
         <v>Wooden</v>
       </c>
       <c r="E2" s="37">
@@ -27578,7 +27597,7 @@
         <v>Stone Pogo Stick</v>
       </c>
       <c r="D3" s="34" t="str">
-        <f>[1]Enums!$A$112</f>
+        <f>[1]Enums!$A$113</f>
         <v>Stone</v>
       </c>
       <c r="E3" s="37">
@@ -27614,7 +27633,7 @@
         <v>Iron Pogo Stick</v>
       </c>
       <c r="D4" s="34" t="str">
-        <f>[1]Enums!$A$113</f>
+        <f>[1]Enums!$A$114</f>
         <v>Iron</v>
       </c>
       <c r="E4" s="37">
@@ -27650,7 +27669,7 @@
         <v>Golden Pogo Stick</v>
       </c>
       <c r="D5" s="34" t="str">
-        <f>[1]Enums!$A$114</f>
+        <f>[1]Enums!$A$115</f>
         <v>Golden</v>
       </c>
       <c r="E5" s="37">
@@ -27686,7 +27705,7 @@
         <v>Diamond Pogo Stick</v>
       </c>
       <c r="D6" s="34" t="str">
-        <f>[1]Enums!$A$115</f>
+        <f>[1]Enums!$A$116</f>
         <v>Diamond</v>
       </c>
       <c r="E6" s="37">
@@ -27722,7 +27741,7 @@
         <v>Magic Pogo Stick</v>
       </c>
       <c r="D7" s="34" t="str">
-        <f>[1]Enums!$A$116</f>
+        <f>[1]Enums!$A$117</f>
         <v>Magic</v>
       </c>
       <c r="E7" s="37">
@@ -27754,11 +27773,11 @@
         <v>1821</v>
       </c>
       <c r="C8" s="34" t="str">
-        <f>[1]Enums!$A$107&amp;" "&amp;I8</f>
+        <f>[1]Enums!$A$108&amp;" "&amp;I8</f>
         <v>Gripped Wooden Pogo Stick</v>
       </c>
       <c r="D8" s="34" t="str">
-        <f>[1]Enums!$A$111</f>
+        <f>[1]Enums!$A$112</f>
         <v>Wooden</v>
       </c>
       <c r="E8" s="37">
@@ -27798,11 +27817,11 @@
         <v>1820</v>
       </c>
       <c r="C9" s="34" t="str">
-        <f>[1]Enums!$A$107&amp;" "&amp;I9</f>
+        <f>[1]Enums!$A$108&amp;" "&amp;I9</f>
         <v>Gripped Stone Pogo Stick</v>
       </c>
       <c r="D9" s="34" t="str">
-        <f>[1]Enums!$A$112</f>
+        <f>[1]Enums!$A$113</f>
         <v>Stone</v>
       </c>
       <c r="E9" s="37">
@@ -27842,11 +27861,11 @@
         <v>1819</v>
       </c>
       <c r="C10" s="34" t="str">
-        <f>[1]Enums!$A$107&amp;" "&amp;I10</f>
+        <f>[1]Enums!$A$108&amp;" "&amp;I10</f>
         <v>Gripped Iron Pogo Stick</v>
       </c>
       <c r="D10" s="34" t="str">
-        <f>[1]Enums!$A$113</f>
+        <f>[1]Enums!$A$114</f>
         <v>Iron</v>
       </c>
       <c r="E10" s="37">
@@ -27886,11 +27905,11 @@
         <v>1818</v>
       </c>
       <c r="C11" s="34" t="str">
-        <f>[1]Enums!$A$107&amp;" "&amp;I11</f>
+        <f>[1]Enums!$A$108&amp;" "&amp;I11</f>
         <v>Gripped Golden Pogo Stick</v>
       </c>
       <c r="D11" s="34" t="str">
-        <f>[1]Enums!$A$114</f>
+        <f>[1]Enums!$A$115</f>
         <v>Golden</v>
       </c>
       <c r="E11" s="37">
@@ -27930,11 +27949,11 @@
         <v>1817</v>
       </c>
       <c r="C12" s="34" t="str">
-        <f>[1]Enums!$A$107&amp;" "&amp;I12</f>
+        <f>[1]Enums!$A$108&amp;" "&amp;I12</f>
         <v>Gripped Diamond Pogo Stick</v>
       </c>
       <c r="D12" s="34" t="str">
-        <f>[1]Enums!$A$115</f>
+        <f>[1]Enums!$A$116</f>
         <v>Diamond</v>
       </c>
       <c r="E12" s="37">
@@ -46325,10 +46344,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -46352,7 +46371,7 @@
         <v>590</v>
       </c>
       <c r="D1" s="7" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$79</f>
+        <f xml:space="preserve"> [1]Enums!$B$80</f>
         <v>Mold Type</v>
       </c>
       <c r="E1" s="19" t="str">
@@ -46372,11 +46391,11 @@
         <v>1756</v>
       </c>
       <c r="C2" s="10" t="str">
-        <f t="shared" ref="C2:C33" si="0">D2&amp;" ("&amp;E2&amp;")"</f>
+        <f t="shared" ref="C2:C32" si="0">D2&amp;" ("&amp;E2&amp;")"</f>
         <v>Mold (Grip)</v>
       </c>
       <c r="D2" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$83</f>
+        <f xml:space="preserve"> [1]Enums!$B$84</f>
         <v>Mold</v>
       </c>
       <c r="E2" s="11" t="str">
@@ -46401,7 +46420,7 @@
         <v>Mold (Running Shoes)</v>
       </c>
       <c r="D3" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$83</f>
+        <f xml:space="preserve"> [1]Enums!$B$84</f>
         <v>Mold</v>
       </c>
       <c r="E3" s="11" t="str">
@@ -46426,7 +46445,7 @@
         <v>Mold (Scuba Fins)</v>
       </c>
       <c r="D4" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$83</f>
+        <f xml:space="preserve"> [1]Enums!$B$84</f>
         <v>Mold</v>
       </c>
       <c r="E4" s="11" t="str">
@@ -46451,7 +46470,7 @@
         <v>Mold (Scuba Mask)</v>
       </c>
       <c r="D5" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$83</f>
+        <f xml:space="preserve"> [1]Enums!$B$84</f>
         <v>Mold</v>
       </c>
       <c r="E5" s="11" t="str">
@@ -46476,7 +46495,7 @@
         <v>Mold (Gasket)</v>
       </c>
       <c r="D6" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$83</f>
+        <f xml:space="preserve"> [1]Enums!$B$84</f>
         <v>Mold</v>
       </c>
       <c r="E6" s="11" t="str">
@@ -46501,7 +46520,7 @@
         <v>Mold (Life Preserver)</v>
       </c>
       <c r="D7" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$83</f>
+        <f xml:space="preserve"> [1]Enums!$B$84</f>
         <v>Mold</v>
       </c>
       <c r="E7" s="11" t="str">
@@ -46526,7 +46545,7 @@
         <v>Metal Die (Fibers)</v>
       </c>
       <c r="D8" s="2" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$84</f>
+        <f xml:space="preserve"> [1]Enums!$B$85</f>
         <v>Metal Die</v>
       </c>
       <c r="E8" s="11" t="str">
@@ -46551,7 +46570,7 @@
         <v>Metal Die (Tether)</v>
       </c>
       <c r="D9" s="2" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$84</f>
+        <f xml:space="preserve"> [1]Enums!$B$85</f>
         <v>Metal Die</v>
       </c>
       <c r="E9" s="11" t="str">
@@ -46576,7 +46595,7 @@
         <v>Metal Die (Cord)</v>
       </c>
       <c r="D10" s="2" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$84</f>
+        <f xml:space="preserve"> [1]Enums!$B$85</f>
         <v>Metal Die</v>
       </c>
       <c r="E10" s="11" t="str">
@@ -46601,7 +46620,7 @@
         <v>Metal Die (Hose)</v>
       </c>
       <c r="D11" s="2" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$84</f>
+        <f xml:space="preserve"> [1]Enums!$B$85</f>
         <v>Metal Die</v>
       </c>
       <c r="E11" s="11" t="str">
@@ -46626,7 +46645,7 @@
         <v>Metal Die (Pipe Segment)</v>
       </c>
       <c r="D12" s="2" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$84</f>
+        <f xml:space="preserve"> [1]Enums!$B$85</f>
         <v>Metal Die</v>
       </c>
       <c r="E12" s="11" t="str">
@@ -46651,7 +46670,7 @@
         <v>Mold (Flashlight Shaft)</v>
       </c>
       <c r="D13" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$83</f>
+        <f xml:space="preserve"> [1]Enums!$B$84</f>
         <v>Mold</v>
       </c>
       <c r="E13" s="11" t="str">
@@ -46675,7 +46694,7 @@
         <v>Mold (Plastic Brick (1 x 1))</v>
       </c>
       <c r="D14" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$83</f>
+        <f xml:space="preserve"> [1]Enums!$B$84</f>
         <v>Mold</v>
       </c>
       <c r="E14" t="str">
@@ -46699,7 +46718,7 @@
         <v>Mold (Plastic Brick (1 x 2))</v>
       </c>
       <c r="D15" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$83</f>
+        <f xml:space="preserve"> [1]Enums!$B$84</f>
         <v>Mold</v>
       </c>
       <c r="E15" t="str">
@@ -46723,7 +46742,7 @@
         <v>Mold (Plastic Brick (1 x 3))</v>
       </c>
       <c r="D16" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$83</f>
+        <f xml:space="preserve"> [1]Enums!$B$84</f>
         <v>Mold</v>
       </c>
       <c r="E16" t="str">
@@ -46747,7 +46766,7 @@
         <v>Mold (Plastic Brick (1 x 4))</v>
       </c>
       <c r="D17" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$83</f>
+        <f xml:space="preserve"> [1]Enums!$B$84</f>
         <v>Mold</v>
       </c>
       <c r="E17" t="str">
@@ -46771,7 +46790,7 @@
         <v>Mold (Plastic Brick (2 x 2))</v>
       </c>
       <c r="D18" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$83</f>
+        <f xml:space="preserve"> [1]Enums!$B$84</f>
         <v>Mold</v>
       </c>
       <c r="E18" t="str">
@@ -46795,7 +46814,7 @@
         <v>Mold (Plastic Brick (2 x 3))</v>
       </c>
       <c r="D19" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$83</f>
+        <f xml:space="preserve"> [1]Enums!$B$84</f>
         <v>Mold</v>
       </c>
       <c r="E19" t="str">
@@ -46819,7 +46838,7 @@
         <v>Mold (Plastic Brick (2 x 4))</v>
       </c>
       <c r="D20" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$83</f>
+        <f xml:space="preserve"> [1]Enums!$B$84</f>
         <v>Mold</v>
       </c>
       <c r="E20" t="str">
@@ -46843,7 +46862,7 @@
         <v>Mold (Plastic Brick (3 x 3))</v>
       </c>
       <c r="D21" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$83</f>
+        <f xml:space="preserve"> [1]Enums!$B$84</f>
         <v>Mold</v>
       </c>
       <c r="E21" t="str">
@@ -46867,7 +46886,7 @@
         <v>Mold (Plastic Brick (3 x 4))</v>
       </c>
       <c r="D22" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$83</f>
+        <f xml:space="preserve"> [1]Enums!$B$84</f>
         <v>Mold</v>
       </c>
       <c r="E22" t="str">
@@ -46891,7 +46910,7 @@
         <v>Mold (Plastic Brick (4 x 4))</v>
       </c>
       <c r="D23" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$83</f>
+        <f xml:space="preserve"> [1]Enums!$B$84</f>
         <v>Mold</v>
       </c>
       <c r="E23" t="str">
@@ -46915,7 +46934,7 @@
         <v>Mold (Plastic Brick (1 x 8))</v>
       </c>
       <c r="D24" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$83</f>
+        <f xml:space="preserve"> [1]Enums!$B$84</f>
         <v>Mold</v>
       </c>
       <c r="E24" t="str">
@@ -46939,7 +46958,7 @@
         <v>Mold (Plastic Brick (2 x 8))</v>
       </c>
       <c r="D25" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$83</f>
+        <f xml:space="preserve"> [1]Enums!$B$84</f>
         <v>Mold</v>
       </c>
       <c r="E25" t="str">
@@ -46963,7 +46982,7 @@
         <v>Mold (Heated Knife Handle)</v>
       </c>
       <c r="D26" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$83</f>
+        <f xml:space="preserve"> [1]Enums!$B$84</f>
         <v>Mold</v>
       </c>
       <c r="E26" s="11" t="str">
@@ -46987,7 +47006,7 @@
         <v>Mold (Rubber Sole)</v>
       </c>
       <c r="D27" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$83</f>
+        <f xml:space="preserve"> [1]Enums!$B$84</f>
         <v>Mold</v>
       </c>
       <c r="E27" s="11" t="str">
@@ -47011,7 +47030,7 @@
         <v>Mold (Battery Case)</v>
       </c>
       <c r="D28" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$83</f>
+        <f xml:space="preserve"> [1]Enums!$B$84</f>
         <v>Mold</v>
       </c>
       <c r="E28" s="11" t="str">
@@ -47035,7 +47054,7 @@
         <v>Mold (Tool Shaft)</v>
       </c>
       <c r="D29" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$83</f>
+        <f xml:space="preserve"> [1]Enums!$B$84</f>
         <v>Mold</v>
       </c>
       <c r="E29" t="str">
@@ -47059,7 +47078,7 @@
         <v>Mold (Lighter Body)</v>
       </c>
       <c r="D30" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$83</f>
+        <f xml:space="preserve"> [1]Enums!$B$84</f>
         <v>Mold</v>
       </c>
       <c r="E30" t="str">
@@ -47083,7 +47102,7 @@
         <v>Mold (Cell Phone Case)</v>
       </c>
       <c r="D31" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$83</f>
+        <f xml:space="preserve"> [1]Enums!$B$84</f>
         <v>Mold</v>
       </c>
       <c r="E31" t="str">
@@ -47107,7 +47126,7 @@
         <v>Mold (Walky Talky Case)</v>
       </c>
       <c r="D32" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$83</f>
+        <f xml:space="preserve"> [1]Enums!$B$84</f>
         <v>Mold</v>
       </c>
       <c r="E32" t="str">
@@ -47127,11 +47146,11 @@
         <v>2689</v>
       </c>
       <c r="C33" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>D33&amp;" ("&amp;E33&amp;")"</f>
         <v>Mold (HAM Radio Case)</v>
       </c>
       <c r="D33" s="10" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$83</f>
+        <f xml:space="preserve"> [1]Enums!$B$84</f>
         <v>Mold</v>
       </c>
       <c r="E33" t="str">
@@ -47139,6 +47158,30 @@
         <v>HAM Radio Case</v>
       </c>
       <c r="F33">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="str">
+        <f>[1]Enums!$A$22</f>
+        <v>1.3.3</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>2708</v>
+      </c>
+      <c r="C34" s="10" t="str">
+        <f>D34&amp;" ("&amp;E34&amp;")"</f>
+        <v>Mold (Flagpole Segment)</v>
+      </c>
+      <c r="D34" s="10" t="str">
+        <f xml:space="preserve"> [1]Enums!$B$84</f>
+        <v>Mold</v>
+      </c>
+      <c r="E34" t="str">
+        <f>'[1]Polymer Objects'!$B34</f>
+        <v>Flagpole Segment</v>
+      </c>
+      <c r="F34">
         <v>8192</v>
       </c>
     </row>
@@ -47152,10 +47195,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:U156"/>
+  <dimension ref="A1:U157"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="I140" sqref="I140"/>
+    <sheetView showZeros="0" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="H162" sqref="H162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -53468,8 +53511,85 @@
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A156" s="23"/>
-      <c r="C156" s="22"/>
+      <c r="A156" s="23" t="str">
+        <f>[1]Enums!$A$22</f>
+        <v>1.3.3</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>2709</v>
+      </c>
+      <c r="C156" s="22" t="str">
+        <f xml:space="preserve"> VLOOKUP(D156, Molds!C:E, 3, FALSE)&amp;" ("&amp;F156&amp;")"</f>
+        <v>Flagpole Segment (PEEK)</v>
+      </c>
+      <c r="D156" s="24" t="str">
+        <f xml:space="preserve"> Molds!$C$34</f>
+        <v>Mold (Flagpole Segment)</v>
+      </c>
+      <c r="E156" s="21" t="str">
+        <f>Pellets!$F$47</f>
+        <v>Bag (PolyEther Ether Ketone Pellets)</v>
+      </c>
+      <c r="F156" s="21" t="str">
+        <f>VLOOKUP(E80, Pellets!F:M,8,FALSE)</f>
+        <v>PEEK</v>
+      </c>
+      <c r="G156" s="21">
+        <v>8</v>
+      </c>
+      <c r="H156" s="21">
+        <v>10</v>
+      </c>
+      <c r="I156" s="21">
+        <v>64</v>
+      </c>
+      <c r="J156" s="24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A157" s="23" t="str">
+        <f>[1]Enums!$A$22</f>
+        <v>1.3.3</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>2710</v>
+      </c>
+      <c r="C157" s="22" t="str">
+        <f xml:space="preserve"> VLOOKUP(D157, Molds!C:E, 3, FALSE)&amp;" ("&amp;F157&amp;")"</f>
+        <v>Flagpole Segment (Carbon Fiber Composite)</v>
+      </c>
+      <c r="D157" s="24" t="str">
+        <f xml:space="preserve"> Molds!$C$34</f>
+        <v>Mold (Flagpole Segment)</v>
+      </c>
+      <c r="E157" s="21" t="str">
+        <f>Pellets!$F$116</f>
+        <v>Vial (Epoxy-Carbon Fiber Resin)</v>
+      </c>
+      <c r="F157" s="21" t="str">
+        <f>LEFT(VLOOKUP(E157, Pellets!F:M, 8,FALSE), FIND("(", VLOOKUP(E157, Pellets!F:M, 8,FALSE))-8)&amp;" Composite"</f>
+        <v>Carbon Fiber Composite</v>
+      </c>
+      <c r="G157" s="21">
+        <v>8</v>
+      </c>
+      <c r="H157" s="21">
+        <v>10</v>
+      </c>
+      <c r="I157" s="21">
+        <v>64</v>
+      </c>
+      <c r="J157" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="K157" s="42" t="s">
+        <v>2504</v>
+      </c>
+      <c r="L157" s="21" t="str">
+        <f>Pellets!$F$117</f>
+        <v>Vial (Phenolic-Carbon Fiber Resin)</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -53512,7 +53632,7 @@
         <v>2518</v>
       </c>
       <c r="D1" s="53" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$79</f>
+        <f xml:space="preserve"> [1]Enums!$B$80</f>
         <v>Mold Type</v>
       </c>
       <c r="E1" s="20" t="s">
@@ -53546,7 +53666,7 @@
         <v>Wafer (Solar Cell)</v>
       </c>
       <c r="D2" s="50" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$91</f>
+        <f xml:space="preserve"> [1]Enums!$B$92</f>
         <v>Wafer</v>
       </c>
       <c r="E2" s="49" t="s">
@@ -53573,7 +53693,7 @@
         <v>Wafer (Processor)</v>
       </c>
       <c r="D3" s="50" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$91</f>
+        <f xml:space="preserve"> [1]Enums!$B$92</f>
         <v>Wafer</v>
       </c>
       <c r="E3" s="49" t="s">
@@ -53600,7 +53720,7 @@
         <v>Wafer (Temperature Sensor)</v>
       </c>
       <c r="D4" s="50" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$91</f>
+        <f xml:space="preserve"> [1]Enums!$B$92</f>
         <v>Wafer</v>
       </c>
       <c r="E4" s="49" t="s">
@@ -53627,7 +53747,7 @@
         <v>Wafer (Pressure Sensor)</v>
       </c>
       <c r="D5" s="50" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$91</f>
+        <f xml:space="preserve"> [1]Enums!$B$92</f>
         <v>Wafer</v>
       </c>
       <c r="E5" s="49" t="s">
@@ -53654,7 +53774,7 @@
         <v>Wafer (Low Power Radio)</v>
       </c>
       <c r="D6" s="50" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$91</f>
+        <f xml:space="preserve"> [1]Enums!$B$92</f>
         <v>Wafer</v>
       </c>
       <c r="E6" s="49" t="s">
@@ -53681,7 +53801,7 @@
         <v>Wafer (DSP)</v>
       </c>
       <c r="D7" s="50" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$91</f>
+        <f xml:space="preserve"> [1]Enums!$B$92</f>
         <v>Wafer</v>
       </c>
       <c r="E7" s="49" t="s">
@@ -53708,7 +53828,7 @@
         <v>Wafer (Digital Analog Convertor)</v>
       </c>
       <c r="D8" s="50" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$91</f>
+        <f xml:space="preserve"> [1]Enums!$B$92</f>
         <v>Wafer</v>
       </c>
       <c r="E8" s="49" t="s">
@@ -53735,7 +53855,7 @@
         <v>Wafer (Amplifier)</v>
       </c>
       <c r="D9" s="50" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$91</f>
+        <f xml:space="preserve"> [1]Enums!$B$92</f>
         <v>Wafer</v>
       </c>
       <c r="E9" s="49" t="s">
@@ -53762,7 +53882,7 @@
         <v>Wafer (OLED Array)</v>
       </c>
       <c r="D10" s="50" t="str">
-        <f xml:space="preserve"> [1]Enums!$B$91</f>
+        <f xml:space="preserve"> [1]Enums!$B$92</f>
         <v>Wafer</v>
       </c>
       <c r="E10" s="49" t="s">

--- a/config/Polycraft Polymers.xlsx
+++ b/config/Polycraft Polymers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8370" yWindow="0" windowWidth="20670" windowHeight="10035" tabRatio="826" activeTab="10"/>
+    <workbookView xWindow="6510" yWindow="0" windowWidth="20670" windowHeight="10035" tabRatio="826" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Pellets" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2946" uniqueCount="2711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2942" uniqueCount="2708">
   <si>
     <t>GC</t>
   </si>
@@ -8176,15 +8176,6 @@
   </si>
   <si>
     <t>Silicon Wafer (Ruined)</t>
-  </si>
-  <si>
-    <t>1fu</t>
-  </si>
-  <si>
-    <t>1fv</t>
-  </si>
-  <si>
-    <t>1fw</t>
   </si>
 </sst>
 </file>
@@ -8484,123 +8475,118 @@
             <v>1.3.2</v>
           </cell>
         </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>1.3.3</v>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>Bag</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>Bag</v>
+            <v>Vial</v>
           </cell>
         </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>Vial</v>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>Sack</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>Sack</v>
+            <v>Beaker</v>
           </cell>
         </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>Beaker</v>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>Powder Keg</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>Powder Keg</v>
+            <v>Drum</v>
           </cell>
         </row>
-        <row r="38">
-          <cell r="A38" t="str">
-            <v>Drum</v>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>Chemical Silo</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>Chemical Silo</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41" t="str">
             <v>Chemical Vat</v>
           </cell>
         </row>
-        <row r="80">
-          <cell r="B80" t="str">
+        <row r="79">
+          <cell r="B79" t="str">
             <v>Mold Type</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="B83" t="str">
+            <v>Mold</v>
           </cell>
         </row>
         <row r="84">
           <cell r="B84" t="str">
-            <v>Mold</v>
+            <v>Metal Die</v>
           </cell>
         </row>
-        <row r="85">
-          <cell r="B85" t="str">
-            <v>Metal Die</v>
+        <row r="91">
+          <cell r="B91" t="str">
+            <v>Wafer</v>
           </cell>
         </row>
         <row r="92">
           <cell r="B92" t="str">
-            <v>Wafer</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="B93" t="str">
             <v>Mask</v>
           </cell>
         </row>
-        <row r="108">
-          <cell r="A108" t="str">
+        <row r="107">
+          <cell r="A107" t="str">
             <v>Gripped</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="A110" t="str">
+            <v>Base Material</v>
           </cell>
         </row>
         <row r="111">
           <cell r="A111" t="str">
-            <v>Base Material</v>
+            <v>Wooden</v>
           </cell>
         </row>
         <row r="112">
           <cell r="A112" t="str">
-            <v>Wooden</v>
+            <v>Stone</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113" t="str">
-            <v>Stone</v>
+            <v>Iron</v>
           </cell>
         </row>
         <row r="114">
           <cell r="A114" t="str">
-            <v>Iron</v>
+            <v>Golden</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115" t="str">
-            <v>Golden</v>
+            <v>Diamond</v>
           </cell>
         </row>
         <row r="116">
           <cell r="A116" t="str">
-            <v>Diamond</v>
+            <v>Magic</v>
           </cell>
         </row>
-        <row r="117">
-          <cell r="A117" t="str">
-            <v>Magic</v>
+        <row r="145">
+          <cell r="A145" t="str">
+            <v>Composite</v>
           </cell>
         </row>
         <row r="146">
           <cell r="A146" t="str">
-            <v>Composite</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="A147" t="str">
             <v>Engineered</v>
           </cell>
         </row>
@@ -10231,11 +10217,6 @@
             <v>HAM Radio Case</v>
           </cell>
         </row>
-        <row r="34">
-          <cell r="B34" t="str">
-            <v>Flagpole Segment</v>
-          </cell>
-        </row>
       </sheetData>
     </sheetDataSet>
   </externalBook>
@@ -10871,19 +10852,19 @@
         <v>Game ID XL</v>
       </c>
       <c r="F1" s="5" t="str">
-        <f xml:space="preserve"> [1]Enums!$A$31&amp;" ("&amp;J1&amp;")"</f>
+        <f xml:space="preserve"> [1]Enums!$A$30&amp;" ("&amp;J1&amp;")"</f>
         <v>Bag (Pellets)</v>
       </c>
       <c r="G1" s="5" t="str">
-        <f xml:space="preserve"> [1]Enums!$A$34&amp;" ("&amp;J1&amp;")"</f>
+        <f xml:space="preserve"> [1]Enums!$A$33&amp;" ("&amp;J1&amp;")"</f>
         <v>Sack (Pellets)</v>
       </c>
       <c r="H1" s="5" t="str">
-        <f xml:space="preserve"> [1]Enums!$A$37&amp;" ("&amp;J1&amp;")"</f>
+        <f xml:space="preserve"> [1]Enums!$A$36&amp;" ("&amp;J1&amp;")"</f>
         <v>Powder Keg (Pellets)</v>
       </c>
       <c r="I1" s="5" t="str">
-        <f xml:space="preserve"> [1]Enums!$A$40&amp;" ("&amp;J1&amp;")"</f>
+        <f xml:space="preserve"> [1]Enums!$A$39&amp;" ("&amp;J1&amp;")"</f>
         <v>Chemical Silo (Pellets)</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -10922,19 +10903,19 @@
         <v>448</v>
       </c>
       <c r="F2" s="1" t="str">
-        <f>IF($N2, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N2, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
         <v>Vial (Acrylic-Formaldehyde Resin)</v>
       </c>
       <c r="G2" s="1" t="str">
-        <f>IF($N2, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N2, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
         <v>Beaker (Acrylic-Formaldehyde Resin)</v>
       </c>
       <c r="H2" s="1" t="str">
-        <f>IF($N2, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N2, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
         <v>Drum (Acrylic-Formaldehyde Resin)</v>
       </c>
       <c r="I2" s="1" t="str">
-        <f>IF($N2, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N2, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J2&amp;IF($N2, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Vat (Acrylic-Formaldehyde Resin)</v>
       </c>
       <c r="J2" s="1" t="str">
@@ -10974,19 +10955,19 @@
         <v>444</v>
       </c>
       <c r="F3" s="1" t="str">
-        <f>IF($N3, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N3, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Acrylonitrile-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f>IF($N3, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N3, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Acrylonitrile-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="H3" s="1" t="str">
-        <f>IF($N3, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N3, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Acrylonitrile-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="I3" s="1" t="str">
-        <f>IF($N3, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N3, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J3&amp;IF($N3, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Acrylonitrile-Butadiene-Styrene Pellets)</v>
       </c>
       <c r="J3" s="1" t="str">
@@ -11023,19 +11004,19 @@
         <v>440</v>
       </c>
       <c r="F4" s="1" t="str">
-        <f>IF($N4, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N4, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
         <v>Vial (Alkyd Resin)</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f>IF($N4, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N4, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
         <v>Beaker (Alkyd Resin)</v>
       </c>
       <c r="H4" s="1" t="str">
-        <f>IF($N4, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N4, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
         <v>Drum (Alkyd Resin)</v>
       </c>
       <c r="I4" s="1" t="str">
-        <f>IF($N4, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N4, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J4&amp;IF($N4, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Vat (Alkyd Resin)</v>
       </c>
       <c r="J4" s="1" t="str">
@@ -11075,19 +11056,19 @@
         <v>436</v>
       </c>
       <c r="F5" s="1" t="str">
-        <f>IF($N5, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N5, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Amorphous PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="G5" s="1" t="str">
-        <f>IF($N5, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N5, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Amorphous PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="H5" s="1" t="str">
-        <f>IF($N5, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N5, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Amorphous PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="I5" s="1" t="str">
-        <f>IF($N5, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N5, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J5&amp;IF($N5, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Amorphous PolyEthylene Terephthalate Pellets)</v>
       </c>
       <c r="J5" s="1" t="str">
@@ -11127,19 +11108,19 @@
         <v>432</v>
       </c>
       <c r="F6" s="1" t="str">
-        <f>IF($N6, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N6, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Bromine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f>IF($N6, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N6, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Bromine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="H6" s="1" t="str">
-        <f>IF($N6, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N6, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Bromine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="I6" s="1" t="str">
-        <f>IF($N6, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N6, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J6&amp;IF($N6, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Bromine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="J6" s="1" t="str">
@@ -11179,19 +11160,19 @@
         <v>428</v>
       </c>
       <c r="F7" s="1" t="str">
-        <f>IF($N7, [1]Enums!$A$31, [1]Enums!$A$31)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N7, [1]Enums!$A$30, [1]Enums!$A$30)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Carbon Fiber)</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f>IF($N7, [1]Enums!$A$34, [1]Enums!$A$34)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N7, [1]Enums!$A$33, [1]Enums!$A$33)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Carbon Fiber)</v>
       </c>
       <c r="H7" s="1" t="str">
-        <f>IF($N7, [1]Enums!$A$37, [1]Enums!$A$37)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N7, [1]Enums!$A$36, [1]Enums!$A$36)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Carbon Fiber)</v>
       </c>
       <c r="I7" s="1" t="str">
-        <f>IF($N7, [1]Enums!$A$40, [1]Enums!$A$40)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N7, [1]Enums!$A$39, [1]Enums!$A$39)&amp;" ("&amp;$J7&amp;IF($N7, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Carbon Fiber)</v>
       </c>
       <c r="J7" s="1" t="str">
@@ -11228,19 +11209,19 @@
         <v>424</v>
       </c>
       <c r="F8" s="1" t="str">
-        <f>IF($N8, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N8, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Cellulose Triacetate Pellets)</v>
       </c>
       <c r="G8" s="1" t="str">
-        <f>IF($N8, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N8, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Cellulose Triacetate Pellets)</v>
       </c>
       <c r="H8" s="1" t="str">
-        <f>IF($N8, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N8, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Cellulose Triacetate Pellets)</v>
       </c>
       <c r="I8" s="1" t="str">
-        <f>IF($N8, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N8, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J8&amp;IF($N8, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Cellulose Triacetate Pellets)</v>
       </c>
       <c r="J8" s="1" t="str">
@@ -11280,19 +11261,19 @@
         <v>420</v>
       </c>
       <c r="F9" s="1" t="str">
-        <f>IF($N9, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N9, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Cellulosic Pellets)</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f>IF($N9, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N9, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Cellulosic Pellets)</v>
       </c>
       <c r="H9" s="1" t="str">
-        <f>IF($N9, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N9, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Cellulosic Pellets)</v>
       </c>
       <c r="I9" s="1" t="str">
-        <f>IF($N9, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N9, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J9&amp;IF($N9, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Cellulosic Pellets)</v>
       </c>
       <c r="J9" s="1" t="str">
@@ -11332,19 +11313,19 @@
         <v>416</v>
       </c>
       <c r="F10" s="1" t="str">
-        <f>IF($N10, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N10, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Chitin Pellets)</v>
       </c>
       <c r="G10" s="1" t="str">
-        <f>IF($N10, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N10, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Chitin Pellets)</v>
       </c>
       <c r="H10" s="1" t="str">
-        <f>IF($N10, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N10, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Chitin Pellets)</v>
       </c>
       <c r="I10" s="1" t="str">
-        <f>IF($N10, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N10, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J10&amp;IF($N10, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Chitin Pellets)</v>
       </c>
       <c r="J10" s="1" t="str">
@@ -11384,19 +11365,19 @@
         <v>412</v>
       </c>
       <c r="F11" s="1" t="str">
-        <f>IF($N11, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N11, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Chlorine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="G11" s="1" t="str">
-        <f>IF($N11, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N11, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Chlorine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="H11" s="1" t="str">
-        <f>IF($N11, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N11, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Chlorine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="I11" s="1" t="str">
-        <f>IF($N11, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N11, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J11&amp;IF($N11, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Chlorine Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="J11" s="1" t="str">
@@ -11436,19 +11417,19 @@
         <v>408</v>
       </c>
       <c r="F12" s="1" t="str">
-        <f>IF($N12, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N12, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
         <v>Vial (Epoxy Resin)</v>
       </c>
       <c r="G12" s="1" t="str">
-        <f>IF($N12, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N12, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
         <v>Beaker (Epoxy Resin)</v>
       </c>
       <c r="H12" s="1" t="str">
-        <f>IF($N12, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N12, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
         <v>Drum (Epoxy Resin)</v>
       </c>
       <c r="I12" s="1" t="str">
-        <f>IF($N12, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N12, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J12&amp;IF($N12, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Vat (Epoxy Resin)</v>
       </c>
       <c r="J12" s="1" t="str">
@@ -11485,19 +11466,19 @@
         <v>404</v>
       </c>
       <c r="F13" s="1" t="str">
-        <f>IF($N13, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N13, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Ethoxylates Pellets)</v>
       </c>
       <c r="G13" s="1" t="str">
-        <f>IF($N13, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N13, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Ethoxylates Pellets)</v>
       </c>
       <c r="H13" s="1" t="str">
-        <f>IF($N13, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N13, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Ethoxylates Pellets)</v>
       </c>
       <c r="I13" s="1" t="str">
-        <f>IF($N13, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N13, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J13&amp;IF($N13, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Ethoxylates Pellets)</v>
       </c>
       <c r="J13" s="1" t="str">
@@ -11537,19 +11518,19 @@
         <v>400</v>
       </c>
       <c r="F14" s="1" t="str">
-        <f>IF($N14, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N14, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Ethylene-Propylene Monomer Pellets)</v>
       </c>
       <c r="G14" s="1" t="str">
-        <f>IF($N14, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N14, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Ethylene-Propylene Monomer Pellets)</v>
       </c>
       <c r="H14" s="1" t="str">
-        <f>IF($N14, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N14, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Ethylene-Propylene Monomer Pellets)</v>
       </c>
       <c r="I14" s="1" t="str">
-        <f>IF($N14, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N14, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J14&amp;IF($N14, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Ethylene-Propylene Monomer Pellets)</v>
       </c>
       <c r="J14" s="1" t="str">
@@ -11589,19 +11570,19 @@
         <v>396</v>
       </c>
       <c r="F15" s="1" t="str">
-        <f>IF($N15, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N15, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Ethylene-Propylene-Diene Monomer Pellets)</v>
       </c>
       <c r="G15" s="1" t="str">
-        <f>IF($N15, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N15, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Ethylene-Propylene-Diene Monomer Pellets)</v>
       </c>
       <c r="H15" s="1" t="str">
-        <f>IF($N15, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N15, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Ethylene-Propylene-Diene Monomer Pellets)</v>
       </c>
       <c r="I15" s="1" t="str">
-        <f>IF($N15, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N15, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J15&amp;IF($N15, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Ethylene-Propylene-Diene Monomer Pellets)</v>
       </c>
       <c r="J15" s="1" t="str">
@@ -11641,19 +11622,19 @@
         <v>392</v>
       </c>
       <c r="F16" s="1" t="str">
-        <f>IF($N16, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N16, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Ethylene-Vinyl Acetate Pellets)</v>
       </c>
       <c r="G16" s="1" t="str">
-        <f>IF($N16, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N16, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Ethylene-Vinyl Acetate Pellets)</v>
       </c>
       <c r="H16" s="1" t="str">
-        <f>IF($N16, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N16, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Ethylene-Vinyl Acetate Pellets)</v>
       </c>
       <c r="I16" s="1" t="str">
-        <f>IF($N16, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N16, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J16&amp;IF($N16, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Ethylene-Vinyl Acetate Pellets)</v>
       </c>
       <c r="J16" s="1" t="str">
@@ -11693,19 +11674,19 @@
         <v>388</v>
       </c>
       <c r="F17" s="1" t="str">
-        <f>IF($N17, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N17, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (High Density PolyEthylene Pellets)</v>
       </c>
       <c r="G17" s="1" t="str">
-        <f>IF($N17, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N17, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (High Density PolyEthylene Pellets)</v>
       </c>
       <c r="H17" s="1" t="str">
-        <f>IF($N17, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N17, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (High Density PolyEthylene Pellets)</v>
       </c>
       <c r="I17" s="1" t="str">
-        <f>IF($N17, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N17, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J17&amp;IF($N17, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (High Density PolyEthylene Pellets)</v>
       </c>
       <c r="J17" s="1" t="str">
@@ -11745,19 +11726,19 @@
         <v>384</v>
       </c>
       <c r="F18" s="1" t="str">
-        <f>IF($N18, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N18, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Hydrogenated Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="G18" s="1" t="str">
-        <f>IF($N18, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N18, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Hydrogenated Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="H18" s="1" t="str">
-        <f>IF($N18, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N18, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Hydrogenated Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="I18" s="1" t="str">
-        <f>IF($N18, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N18, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J18&amp;IF($N18, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Hydrogenated Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="J18" s="1" t="str">
@@ -11797,19 +11778,19 @@
         <v>380</v>
       </c>
       <c r="F19" s="1" t="str">
-        <f>IF($N19, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N19, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="G19" s="1" t="str">
-        <f>IF($N19, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N19, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="H19" s="1" t="str">
-        <f>IF($N19, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N19, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="I19" s="1" t="str">
-        <f>IF($N19, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N19, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J19&amp;IF($N19, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Isobutylene-Isoprene Rubber Pellets)</v>
       </c>
       <c r="J19" s="1" t="str">
@@ -11846,19 +11827,19 @@
         <v>376</v>
       </c>
       <c r="F20" s="1" t="str">
-        <f>IF($N20, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N20, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
         <v>Vial (Lignin)</v>
       </c>
       <c r="G20" s="1" t="str">
-        <f>IF($N20, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N20, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
         <v>Beaker (Lignin)</v>
       </c>
       <c r="H20" s="1" t="str">
-        <f>IF($N20, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N20, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
         <v>Drum (Lignin)</v>
       </c>
       <c r="I20" s="1" t="str">
-        <f>IF($N20, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N20, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J20&amp;IF($N20, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Vat (Lignin)</v>
       </c>
       <c r="J20" s="1" t="str">
@@ -11898,19 +11879,19 @@
         <v>372</v>
       </c>
       <c r="F21" s="1" t="str">
-        <f>IF($N21, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N21, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Linear Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="G21" s="1" t="str">
-        <f>IF($N21, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N21, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Linear Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="H21" s="1" t="str">
-        <f>IF($N21, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N21, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Linear Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="I21" s="1" t="str">
-        <f>IF($N21, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N21, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J21&amp;IF($N21, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Linear Low-Density PolyEthylene Pellets)</v>
       </c>
       <c r="J21" s="1" t="str">
@@ -11950,19 +11931,19 @@
         <v>368</v>
       </c>
       <c r="F22" s="1" t="str">
-        <f>IF($N22, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N22, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Liquid Crystal Polymer Pellets)</v>
       </c>
       <c r="G22" s="1" t="str">
-        <f>IF($N22, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N22, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Liquid Crystal Polymer Pellets)</v>
       </c>
       <c r="H22" s="1" t="str">
-        <f>IF($N22, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N22, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Liquid Crystal Polymer Pellets)</v>
       </c>
       <c r="I22" s="1" t="str">
-        <f>IF($N22, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N22, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J22&amp;IF($N22, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Liquid Crystal Polymer Pellets)</v>
       </c>
       <c r="J22" s="1" t="str">
@@ -12002,19 +11983,19 @@
         <v>364</v>
       </c>
       <c r="F23" s="1" t="str">
-        <f>IF($N23, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N23, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Low Density PolyEthylene Pellets)</v>
       </c>
       <c r="G23" s="1" t="str">
-        <f>IF($N23, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N23, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Low Density PolyEthylene Pellets)</v>
       </c>
       <c r="H23" s="1" t="str">
-        <f>IF($N23, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N23, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Low Density PolyEthylene Pellets)</v>
       </c>
       <c r="I23" s="1" t="str">
-        <f>IF($N23, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N23, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J23&amp;IF($N23, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Low Density PolyEthylene Pellets)</v>
       </c>
       <c r="J23" s="1" t="str">
@@ -12054,19 +12035,19 @@
         <v>360</v>
       </c>
       <c r="F24" s="1" t="str">
-        <f>IF($N24, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N24, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Medium Density PolyEthylene Pellets)</v>
       </c>
       <c r="G24" s="1" t="str">
-        <f>IF($N24, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N24, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Medium Density PolyEthylene Pellets)</v>
       </c>
       <c r="H24" s="1" t="str">
-        <f>IF($N24, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N24, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Medium Density PolyEthylene Pellets)</v>
       </c>
       <c r="I24" s="1" t="str">
-        <f>IF($N24, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N24, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J24&amp;IF($N24, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Medium Density PolyEthylene Pellets)</v>
       </c>
       <c r="J24" s="1" t="str">
@@ -12103,19 +12084,19 @@
         <v>356</v>
       </c>
       <c r="F25" s="1" t="str">
-        <f>IF($N25, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N25, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
         <v>Vial (Melamine-Formaldehyde Polymers)</v>
       </c>
       <c r="G25" s="1" t="str">
-        <f>IF($N25, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N25, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
         <v>Beaker (Melamine-Formaldehyde Polymers)</v>
       </c>
       <c r="H25" s="1" t="str">
-        <f>IF($N25, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N25, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
         <v>Drum (Melamine-Formaldehyde Polymers)</v>
       </c>
       <c r="I25" s="1" t="str">
-        <f>IF($N25, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N25, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J25&amp;IF($N25, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Vat (Melamine-Formaldehyde Polymers)</v>
       </c>
       <c r="J25" s="1" t="str">
@@ -12155,19 +12136,19 @@
         <v>352</v>
       </c>
       <c r="F26" s="1" t="str">
-        <f>IF($N26, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N26, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Metaldehyde Pellets)</v>
       </c>
       <c r="G26" s="1" t="str">
-        <f>IF($N26, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N26, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Metaldehyde Pellets)</v>
       </c>
       <c r="H26" s="1" t="str">
-        <f>IF($N26, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N26, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Metaldehyde Pellets)</v>
       </c>
       <c r="I26" s="1" t="str">
-        <f>IF($N26, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N26, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J26&amp;IF($N26, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Metaldehyde Pellets)</v>
       </c>
       <c r="J26" s="1" t="str">
@@ -12207,19 +12188,19 @@
         <v>348</v>
       </c>
       <c r="F27" s="1" t="str">
-        <f>IF($N27, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N27, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="G27" s="1" t="str">
-        <f>IF($N27, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N27, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="H27" s="1" t="str">
-        <f>IF($N27, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N27, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="I27" s="1" t="str">
-        <f>IF($N27, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N27, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J27&amp;IF($N27, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Nitrile-Butadiene Rubber Pellets)</v>
       </c>
       <c r="J27" s="1" t="str">
@@ -12259,19 +12240,19 @@
         <v>344</v>
       </c>
       <c r="F28" s="1" t="str">
-        <f>IF($N28, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N28, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Paraformaldehyde Pellets)</v>
       </c>
       <c r="G28" s="1" t="str">
-        <f>IF($N28, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N28, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Paraformaldehyde Pellets)</v>
       </c>
       <c r="H28" s="1" t="str">
-        <f>IF($N28, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N28, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Paraformaldehyde Pellets)</v>
       </c>
       <c r="I28" s="1" t="str">
-        <f>IF($N28, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N28, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J28&amp;IF($N28, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Paraformaldehyde Pellets)</v>
       </c>
       <c r="J28" s="1" t="str">
@@ -12311,19 +12292,19 @@
         <v>340</v>
       </c>
       <c r="F29" s="1" t="str">
-        <f>IF($N29, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N29, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Paraldehyde Pellets)</v>
       </c>
       <c r="G29" s="1" t="str">
-        <f>IF($N29, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N29, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Paraldehyde Pellets)</v>
       </c>
       <c r="H29" s="1" t="str">
-        <f>IF($N29, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N29, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Paraldehyde Pellets)</v>
       </c>
       <c r="I29" s="1" t="str">
-        <f>IF($N29, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N29, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J29&amp;IF($N29, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Paraldehyde Pellets)</v>
       </c>
       <c r="J29" s="1" t="str">
@@ -12363,19 +12344,19 @@
         <v>336</v>
       </c>
       <c r="F30" s="1" t="str">
-        <f>IF($N30, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N30, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
         <v>Vial (Phenolic Resin)</v>
       </c>
       <c r="G30" s="1" t="str">
-        <f>IF($N30, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N30, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
         <v>Beaker (Phenolic Resin)</v>
       </c>
       <c r="H30" s="1" t="str">
-        <f>IF($N30, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N30, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
         <v>Drum (Phenolic Resin)</v>
       </c>
       <c r="I30" s="1" t="str">
-        <f>IF($N30, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N30, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J30&amp;IF($N30, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Vat (Phenolic Resin)</v>
       </c>
       <c r="J30" s="1" t="str">
@@ -12415,19 +12396,19 @@
         <v>332</v>
       </c>
       <c r="F31" s="1" t="str">
-        <f>IF($N31, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N31, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Poly(3-Hydroxybutyrate-Co-3-Hydroxyvalerate) Pellets)</v>
       </c>
       <c r="G31" s="1" t="str">
-        <f>IF($N31, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N31, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Poly(3-Hydroxybutyrate-Co-3-Hydroxyvalerate) Pellets)</v>
       </c>
       <c r="H31" s="1" t="str">
-        <f>IF($N31, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N31, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Poly(3-Hydroxybutyrate-Co-3-Hydroxyvalerate) Pellets)</v>
       </c>
       <c r="I31" s="1" t="str">
-        <f>IF($N31, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N31, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J31&amp;IF($N31, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Poly(3-Hydroxybutyrate-Co-3-Hydroxyvalerate) Pellets)</v>
       </c>
       <c r="J31" s="1" t="str">
@@ -12467,19 +12448,19 @@
         <v>328</v>
       </c>
       <c r="F32" s="1" t="str">
-        <f>IF($N32, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N32, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Poly1-Butene Pellets)</v>
       </c>
       <c r="G32" s="1" t="str">
-        <f>IF($N32, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N32, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Poly1-Butene Pellets)</v>
       </c>
       <c r="H32" s="1" t="str">
-        <f>IF($N32, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N32, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Poly1-Butene Pellets)</v>
       </c>
       <c r="I32" s="1" t="str">
-        <f>IF($N32, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N32, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J32&amp;IF($N32, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Poly1-Butene Pellets)</v>
       </c>
       <c r="J32" s="1" t="str">
@@ -12519,19 +12500,19 @@
         <v>324</v>
       </c>
       <c r="F33" s="1" t="str">
-        <f>IF($N33, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N33, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Poly2-6-Dimethyl-1-4-Phenylene Ether Pellets)</v>
       </c>
       <c r="G33" s="1" t="str">
-        <f>IF($N33, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N33, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Poly2-6-Dimethyl-1-4-Phenylene Ether Pellets)</v>
       </c>
       <c r="H33" s="1" t="str">
-        <f>IF($N33, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N33, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Poly2-6-Dimethyl-1-4-Phenylene Ether Pellets)</v>
       </c>
       <c r="I33" s="1" t="str">
-        <f>IF($N33, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N33, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J33&amp;IF($N33, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Poly2-6-Dimethyl-1-4-Phenylene Ether Pellets)</v>
       </c>
       <c r="J33" s="1" t="str">
@@ -12571,19 +12552,19 @@
         <v>320</v>
       </c>
       <c r="F34" s="1" t="str">
-        <f>IF($N34, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N34, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Poly-2-Hydroxy Butyrate Pellets)</v>
       </c>
       <c r="G34" s="1" t="str">
-        <f>IF($N34, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N34, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Poly-2-Hydroxy Butyrate Pellets)</v>
       </c>
       <c r="H34" s="1" t="str">
-        <f>IF($N34, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N34, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Poly-2-Hydroxy Butyrate Pellets)</v>
       </c>
       <c r="I34" s="1" t="str">
-        <f>IF($N34, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N34, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J34&amp;IF($N34, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Poly-2-Hydroxy Butyrate Pellets)</v>
       </c>
       <c r="J34" s="1" t="str">
@@ -12623,19 +12604,19 @@
         <v>316</v>
       </c>
       <c r="F35" s="1" t="str">
-        <f>IF($N35, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N35, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (Poly2-Hydroxyethyl Methacrylate Pellets)</v>
       </c>
       <c r="G35" s="1" t="str">
-        <f>IF($N35, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N35, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (Poly2-Hydroxyethyl Methacrylate Pellets)</v>
       </c>
       <c r="H35" s="1" t="str">
-        <f>IF($N35, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N35, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (Poly2-Hydroxyethyl Methacrylate Pellets)</v>
       </c>
       <c r="I35" s="1" t="str">
-        <f>IF($N35, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N35, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J35&amp;IF($N35, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (Poly2-Hydroxyethyl Methacrylate Pellets)</v>
       </c>
       <c r="J35" s="1" t="str">
@@ -12675,19 +12656,19 @@
         <v>312</v>
       </c>
       <c r="F36" s="1" t="str">
-        <f>IF($N36, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N36, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyAcrylic Acid Pellets)</v>
       </c>
       <c r="G36" s="1" t="str">
-        <f>IF($N36, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N36, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyAcrylic Acid Pellets)</v>
       </c>
       <c r="H36" s="1" t="str">
-        <f>IF($N36, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N36, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyAcrylic Acid Pellets)</v>
       </c>
       <c r="I36" s="1" t="str">
-        <f>IF($N36, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N36, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J36&amp;IF($N36, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyAcrylic Acid Pellets)</v>
       </c>
       <c r="J36" s="1" t="str">
@@ -12727,19 +12708,19 @@
         <v>308</v>
       </c>
       <c r="F37" s="1" t="str">
-        <f>IF($N37, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N37, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyAcrylonitrile Pellets)</v>
       </c>
       <c r="G37" s="1" t="str">
-        <f>IF($N37, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N37, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyAcrylonitrile Pellets)</v>
       </c>
       <c r="H37" s="1" t="str">
-        <f>IF($N37, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N37, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyAcrylonitrile Pellets)</v>
       </c>
       <c r="I37" s="1" t="str">
-        <f>IF($N37, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N37, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J37&amp;IF($N37, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyAcrylonitrile Pellets)</v>
       </c>
       <c r="J37" s="1" t="str">
@@ -12779,19 +12760,19 @@
         <v>304</v>
       </c>
       <c r="F38" s="1" t="str">
-        <f>IF($N38, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N38, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="G38" s="1" t="str">
-        <f>IF($N38, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N38, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="H38" s="1" t="str">
-        <f>IF($N38, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N38, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="I38" s="1" t="str">
-        <f>IF($N38, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N38, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J38&amp;IF($N38, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyButadiene (low-cis) Pellets)</v>
       </c>
       <c r="J38" s="1" t="str">
@@ -12831,19 +12812,19 @@
         <v>300</v>
       </c>
       <c r="F39" s="1" t="str">
-        <f>IF($N39, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N39, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyButadiene (high-cis) Pellets)</v>
       </c>
       <c r="G39" s="1" t="str">
-        <f>IF($N39, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N39, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyButadiene (high-cis) Pellets)</v>
       </c>
       <c r="H39" s="1" t="str">
-        <f>IF($N39, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N39, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyButadiene (high-cis) Pellets)</v>
       </c>
       <c r="I39" s="1" t="str">
-        <f>IF($N39, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N39, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J39&amp;IF($N39, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyButadiene (high-cis) Pellets)</v>
       </c>
       <c r="J39" s="1" t="str">
@@ -12883,19 +12864,19 @@
         <v>296</v>
       </c>
       <c r="F40" s="1" t="str">
-        <f>IF($N40, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N40, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyButylene Succinate Pellets)</v>
       </c>
       <c r="G40" s="1" t="str">
-        <f>IF($N40, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N40, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyButylene Succinate Pellets)</v>
       </c>
       <c r="H40" s="1" t="str">
-        <f>IF($N40, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N40, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyButylene Succinate Pellets)</v>
       </c>
       <c r="I40" s="1" t="str">
-        <f>IF($N40, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N40, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J40&amp;IF($N40, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyButylene Succinate Pellets)</v>
       </c>
       <c r="J40" s="1" t="str">
@@ -12935,19 +12916,19 @@
         <v>292</v>
       </c>
       <c r="F41" s="1" t="str">
-        <f>IF($N41, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N41, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyButylene Terephthalate Pellets)</v>
       </c>
       <c r="G41" s="1" t="str">
-        <f>IF($N41, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N41, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyButylene Terephthalate Pellets)</v>
       </c>
       <c r="H41" s="1" t="str">
-        <f>IF($N41, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N41, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyButylene Terephthalate Pellets)</v>
       </c>
       <c r="I41" s="1" t="str">
-        <f>IF($N41, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N41, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J41&amp;IF($N41, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyButylene Terephthalate Pellets)</v>
       </c>
       <c r="J41" s="1" t="str">
@@ -12987,19 +12968,19 @@
         <v>288</v>
       </c>
       <c r="F42" s="1" t="str">
-        <f>IF($N42, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N42, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyCaprolactone Pellets)</v>
       </c>
       <c r="G42" s="1" t="str">
-        <f>IF($N42, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N42, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyCaprolactone Pellets)</v>
       </c>
       <c r="H42" s="1" t="str">
-        <f>IF($N42, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N42, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyCaprolactone Pellets)</v>
       </c>
       <c r="I42" s="1" t="str">
-        <f>IF($N42, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N42, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J42&amp;IF($N42, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyCaprolactone Pellets)</v>
       </c>
       <c r="J42" s="1" t="str">
@@ -13039,19 +13020,19 @@
         <v>284</v>
       </c>
       <c r="F43" s="1" t="str">
-        <f>IF($N43, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N43, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyCarbonate Pellets)</v>
       </c>
       <c r="G43" s="1" t="str">
-        <f>IF($N43, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N43, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyCarbonate Pellets)</v>
       </c>
       <c r="H43" s="1" t="str">
-        <f>IF($N43, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N43, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyCarbonate Pellets)</v>
       </c>
       <c r="I43" s="1" t="str">
-        <f>IF($N43, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N43, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J43&amp;IF($N43, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyCarbonate Pellets)</v>
       </c>
       <c r="J43" s="1" t="str">
@@ -13091,19 +13072,19 @@
         <v>280</v>
       </c>
       <c r="F44" s="1" t="str">
-        <f>IF($N44, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N44, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyChloroPrene Pellets)</v>
       </c>
       <c r="G44" s="1" t="str">
-        <f>IF($N44, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N44, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyChloroPrene Pellets)</v>
       </c>
       <c r="H44" s="1" t="str">
-        <f>IF($N44, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N44, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyChloroPrene Pellets)</v>
       </c>
       <c r="I44" s="1" t="str">
-        <f>IF($N44, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N44, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J44&amp;IF($N44, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyChloroPrene Pellets)</v>
       </c>
       <c r="J44" s="1" t="str">
@@ -13140,19 +13121,19 @@
         <v>276</v>
       </c>
       <c r="F45" s="1" t="str">
-        <f>IF($N45, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N45, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyChlorotrifluoroethylene Pellets)</v>
       </c>
       <c r="G45" s="1" t="str">
-        <f>IF($N45, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N45, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyChlorotrifluoroethylene Pellets)</v>
       </c>
       <c r="H45" s="1" t="str">
-        <f>IF($N45, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N45, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyChlorotrifluoroethylene Pellets)</v>
       </c>
       <c r="I45" s="1" t="str">
-        <f>IF($N45, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N45, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J45&amp;IF($N45, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyChlorotrifluoroethylene Pellets)</v>
       </c>
       <c r="J45" s="1" t="str">
@@ -13192,19 +13173,19 @@
         <v>272</v>
       </c>
       <c r="F46" s="1" t="str">
-        <f>IF($N46, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N46, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyDiMethylSiloxane Pellets)</v>
       </c>
       <c r="G46" s="1" t="str">
-        <f>IF($N46, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N46, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyDiMethylSiloxane Pellets)</v>
       </c>
       <c r="H46" s="1" t="str">
-        <f>IF($N46, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N46, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyDiMethylSiloxane Pellets)</v>
       </c>
       <c r="I46" s="1" t="str">
-        <f>IF($N46, [1]Enums!$A$40, [1]Enums!$A$41)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N46, [1]Enums!$A$39, [1]Enums!$A$40)&amp;" ("&amp;$J46&amp;IF($N46, " "&amp;$J$1, "")&amp;")"</f>
         <v>Chemical Silo (PolyDiMethylSiloxane Pellets)</v>
       </c>
       <c r="J46" s="1" t="str">
@@ -13244,19 +13225,19 @@
         <v>268</v>
       </c>
       <c r="F47" s="1" t="str">
-        <f>IF($N47, [1]Enums!$A$31, [1]Enums!$A$32)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N47, [1]Enums!$A$30, [1]Enums!$A$31)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
         <v>Bag (PolyEther Ether Ketone Pellets)</v>
       </c>
       <c r="G47" s="1" t="str">
-        <f>IF($N47, [1]Enums!$A$34, [1]Enums!$A$35)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N47, [1]Enums!$A$33, [1]Enums!$A$34)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
         <v>Sack (PolyEther Ether Ketone Pellets)</v>
       </c>
       <c r="H47" s="1" t="str">
-        <f>IF($N47, [1]Enums!$A$37, [1]Enums!$A$38)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
+        <f>IF($N47, [1]Enums!$A$36, [1]Enums!$A$37)&amp;" ("&amp;$J47&amp;IF($N47, " "&amp;$J$1, "")&amp;")"</f>
         <v>Powder Keg (PolyEther Ether Ketone Pellets)</v>
     